--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\dragon\client\Docs\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malinares/Projects/Dragon_Android/Docs/Content/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10800"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="special dragons" sheetId="10" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="132">
   <si>
     <t>[sku]</t>
   </si>
@@ -396,6 +396,30 @@
   </si>
   <si>
     <t>10;10</t>
+  </si>
+  <si>
+    <t>SEPECIAL DRAGONS</t>
+  </si>
+  <si>
+    <t>{specialDragonTierDefinitions}</t>
+  </si>
+  <si>
+    <t>dragon_robot</t>
+  </si>
+  <si>
+    <t>dragon_electric</t>
+  </si>
+  <si>
+    <t>PF_DragonElectric</t>
+  </si>
+  <si>
+    <t>PF_DragonSonic</t>
+  </si>
+  <si>
+    <t>dragon_sonic</t>
+  </si>
+  <si>
+    <t>PF_DragonHelicopter</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1433,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="105">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1470,7 +1534,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1478,14 +1542,12 @@
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1510,7 +1572,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1525,7 +1587,7 @@
           <color auto="1"/>
         </top>
         <bottom style="thin">
-          <color auto="1"/>
+          <color theme="4" tint="0.39997558519241921"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1550,25 +1612,23 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1590,25 +1650,23 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1630,14 +1688,109 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
+        <left/>
         <right style="thin">
           <color auto="1"/>
         </right>
@@ -1649,6 +1802,58 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1667,6 +1872,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1685,7 +1891,7 @@
           <color auto="1"/>
         </top>
         <bottom style="thin">
-          <color auto="1"/>
+          <color theme="4" tint="0.39997558519241921"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1755,7 +1961,7 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
+        <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
@@ -1790,7 +1996,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1798,7 +2004,9 @@
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -1828,12 +2036,12 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
@@ -1868,7 +2076,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1876,12 +2084,14 @@
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1906,7 +2116,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1921,7 +2131,7 @@
           <color auto="1"/>
         </top>
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color auto="1"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1946,7 +2156,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1954,7 +2164,7 @@
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right style="medium">
+        <right style="thin">
           <color auto="1"/>
         </right>
         <top style="thin">
@@ -1964,9 +2174,7 @@
           <color auto="1"/>
         </bottom>
         <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1988,23 +2196,25 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2026,12 +2236,14 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
         <right/>
         <top style="thin">
           <color auto="1"/>
@@ -2040,9 +2252,7 @@
           <color auto="1"/>
         </bottom>
         <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2064,23 +2274,25 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2102,23 +2314,23 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
         <right/>
         <top style="thin">
           <color auto="1"/>
         </top>
         <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2140,23 +2352,25 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2183,8 +2397,12 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -2411,9 +2629,7 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right/>
         <top style="thin">
           <color auto="1"/>
@@ -2446,15 +2662,13 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
+        <right/>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -2486,98 +2700,23 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2599,14 +2738,12 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right/>
         <top style="thin">
           <color auto="1"/>
@@ -2615,30 +2752,9 @@
           <color auto="1"/>
         </bottom>
         <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2660,7 +2776,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2674,122 +2790,9 @@
           <color auto="1"/>
         </bottom>
         <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2811,14 +2814,12 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right/>
         <top style="thin">
           <color auto="1"/>
@@ -2827,7 +2828,9 @@
           <color auto="1"/>
         </bottom>
         <vertical/>
-        <horizontal/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2849,6 +2852,449 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -3700,6 +4146,26 @@
           <color auto="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3845,92 +4311,112 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table6" displayName="Table6" ref="B19:G25" totalsRowShown="0" headerRowBorderDxfId="72" tableBorderDxfId="71" totalsRowBorderDxfId="70">
-  <autoFilter ref="B19:G25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table6" displayName="Table6" ref="B25:G31" totalsRowShown="0" headerRowBorderDxfId="89" tableBorderDxfId="88" totalsRowBorderDxfId="87">
+  <autoFilter ref="B25:G31"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="{specialDragonStatsUpgradeDefinitions}" dataDxfId="69"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="68"/>
-    <tableColumn id="6" name="[unlockPriceCoins]" dataDxfId="67"/>
-    <tableColumn id="3" name="[unlockPricePC]" dataDxfId="66"/>
-    <tableColumn id="4" name="[stat]" dataDxfId="65"/>
-    <tableColumn id="5" name="[percentage]" dataDxfId="64"/>
+    <tableColumn id="1" name="{specialDragonStatsUpgradeDefinitions}" dataDxfId="86"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="85"/>
+    <tableColumn id="6" name="[unlockPriceCoins]" dataDxfId="84"/>
+    <tableColumn id="3" name="[unlockPricePC]" dataDxfId="83"/>
+    <tableColumn id="4" name="[stat]" dataDxfId="82"/>
+    <tableColumn id="5" name="[percentage]" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table63" displayName="Table63" ref="B36:F42" totalsRowShown="0" headerRowBorderDxfId="63" tableBorderDxfId="62" totalsRowBorderDxfId="61">
-  <autoFilter ref="B36:F42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table63" displayName="Table63" ref="B42:F48" totalsRowShown="0" headerRowBorderDxfId="80" tableBorderDxfId="79" totalsRowBorderDxfId="78">
+  <autoFilter ref="B42:F48"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="{specialDragonPetsUpgradeDefinitions}" dataDxfId="60"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="59"/>
-    <tableColumn id="6" name="[unlockPriceCoins]" dataDxfId="58"/>
-    <tableColumn id="3" name="[unlockPricePC]" dataDxfId="57"/>
-    <tableColumn id="4" name="[maxPets]" dataDxfId="56"/>
+    <tableColumn id="1" name="{specialDragonPetsUpgradeDefinitions}" dataDxfId="77"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="76"/>
+    <tableColumn id="6" name="[unlockPriceCoins]" dataDxfId="75"/>
+    <tableColumn id="3" name="[unlockPricePC]" dataDxfId="74"/>
+    <tableColumn id="4" name="[maxPets]" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B6:BC12" totalsRowShown="0" headerRowBorderDxfId="55" totalsRowBorderDxfId="54">
-  <autoFilter ref="B6:BC12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B12:BC18" totalsRowShown="0" headerRowBorderDxfId="72" totalsRowBorderDxfId="71">
+  <autoFilter ref="B12:BC18"/>
   <tableColumns count="54">
-    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="53"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="52"/>
-    <tableColumn id="3" name="[tier]" dataDxfId="51"/>
-    <tableColumn id="4" name="[order]" dataDxfId="50"/>
-    <tableColumn id="5" name="[mainProgressionRestriction]" dataDxfId="49"/>
-    <tableColumn id="6" name="[unlockPriceCoins]" dataDxfId="48"/>
-    <tableColumn id="7" name="[unlockPricePC]" dataDxfId="47"/>
-    <tableColumn id="8" name="[defaultSize]" dataDxfId="46"/>
-    <tableColumn id="9" name="[cameraFrameWidthModifier]" dataDxfId="45"/>
-    <tableColumn id="10" name="[health]" dataDxfId="44"/>
-    <tableColumn id="11" name="[healthDrain]" dataDxfId="43"/>
-    <tableColumn id="12" name="[healthDrainSpacePlus]" dataDxfId="42"/>
-    <tableColumn id="13" name="[healthDrainAmpPerSecond]" dataDxfId="41"/>
-    <tableColumn id="14" name="[sessionStartHealthDrainTime]" dataDxfId="40"/>
-    <tableColumn id="15" name="[sessionStartHealthDrainModifier]" dataDxfId="39"/>
-    <tableColumn id="16" name="[scale]" dataDxfId="38"/>
-    <tableColumn id="17" name="[boostMultiplier]" dataDxfId="37"/>
-    <tableColumn id="18" name="[energyBase]" dataDxfId="36"/>
-    <tableColumn id="19" name="[energyDrain]" dataDxfId="35"/>
-    <tableColumn id="20" name="[energyRefillRate]" dataDxfId="34"/>
-    <tableColumn id="21" name="[furyBaseLength]" dataDxfId="33"/>
-    <tableColumn id="22" name="[furyScoreMultiplier]" dataDxfId="32"/>
-    <tableColumn id="23" name="[furyBaseDuration]" dataDxfId="31"/>
-    <tableColumn id="24" name="[furyMax]" dataDxfId="30"/>
-    <tableColumn id="25" name="[scoreTextThresholdMultiplier]" dataDxfId="29"/>
-    <tableColumn id="26" name="[eatSpeedFactor]" dataDxfId="28"/>
-    <tableColumn id="27" name="[maxAlcohol]" dataDxfId="27"/>
-    <tableColumn id="28" name="[alcoholDrain]" dataDxfId="26"/>
-    <tableColumn id="29" name="[gamePrefab]" dataDxfId="25"/>
-    <tableColumn id="30" name="[menuPrefab]" dataDxfId="24"/>
-    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="23"/>
-    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="22"/>
-    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="21"/>
-    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="20"/>
-    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="19"/>
-    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="18"/>
-    <tableColumn id="37" name="[invincible]" dataDxfId="17"/>
-    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="16"/>
-    <tableColumn id="39" name="[eatEverything]" dataDxfId="15"/>
-    <tableColumn id="40" name="[modeDuration]" dataDxfId="14"/>
-    <tableColumn id="41" name="[petScale]" dataDxfId="13"/>
-    <tableColumn id="42" name="[tidName]" dataDxfId="12"/>
-    <tableColumn id="43" name="[tidDesc]" dataDxfId="11"/>
-    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="10"/>
-    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="9"/>
-    <tableColumn id="46" name="[force]" dataDxfId="8"/>
-    <tableColumn id="47" name="[mass]" dataDxfId="7"/>
-    <tableColumn id="48" name="[friction]" dataDxfId="6"/>
-    <tableColumn id="49" name="[gravityModifier]" dataDxfId="5"/>
-    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="4"/>
-    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="3"/>
-    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="2"/>
-    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="1"/>
-    <tableColumn id="54" name="[trackingSku]" dataDxfId="0"/>
+    <tableColumn id="1" name="{specialDragonTierDefinitions}" dataDxfId="70"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="69"/>
+    <tableColumn id="3" name="[tier]" dataDxfId="68"/>
+    <tableColumn id="4" name="[order]" dataDxfId="67"/>
+    <tableColumn id="5" name="[mainProgressionRestriction]" dataDxfId="66"/>
+    <tableColumn id="6" name="[unlockPriceCoins]" dataDxfId="65"/>
+    <tableColumn id="7" name="[unlockPricePC]" dataDxfId="64"/>
+    <tableColumn id="8" name="[defaultSize]" dataDxfId="63"/>
+    <tableColumn id="9" name="[cameraFrameWidthModifier]" dataDxfId="62"/>
+    <tableColumn id="10" name="[health]" dataDxfId="61"/>
+    <tableColumn id="11" name="[healthDrain]" dataDxfId="60"/>
+    <tableColumn id="12" name="[healthDrainSpacePlus]" dataDxfId="59"/>
+    <tableColumn id="13" name="[healthDrainAmpPerSecond]" dataDxfId="58"/>
+    <tableColumn id="14" name="[sessionStartHealthDrainTime]" dataDxfId="57"/>
+    <tableColumn id="15" name="[sessionStartHealthDrainModifier]" dataDxfId="56"/>
+    <tableColumn id="16" name="[scale]" dataDxfId="55"/>
+    <tableColumn id="17" name="[boostMultiplier]" dataDxfId="54"/>
+    <tableColumn id="18" name="[energyBase]" dataDxfId="53"/>
+    <tableColumn id="19" name="[energyDrain]" dataDxfId="52"/>
+    <tableColumn id="20" name="[energyRefillRate]" dataDxfId="51"/>
+    <tableColumn id="21" name="[furyBaseLength]" dataDxfId="50"/>
+    <tableColumn id="22" name="[furyScoreMultiplier]" dataDxfId="49"/>
+    <tableColumn id="23" name="[furyBaseDuration]" dataDxfId="48"/>
+    <tableColumn id="24" name="[furyMax]" dataDxfId="47"/>
+    <tableColumn id="25" name="[scoreTextThresholdMultiplier]" dataDxfId="46"/>
+    <tableColumn id="26" name="[eatSpeedFactor]" dataDxfId="45"/>
+    <tableColumn id="27" name="[maxAlcohol]" dataDxfId="44"/>
+    <tableColumn id="28" name="[alcoholDrain]" dataDxfId="43"/>
+    <tableColumn id="29" name="[gamePrefab]" dataDxfId="42"/>
+    <tableColumn id="30" name="[menuPrefab]" dataDxfId="41"/>
+    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="40"/>
+    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="39"/>
+    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="38"/>
+    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="37"/>
+    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="36"/>
+    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="35"/>
+    <tableColumn id="37" name="[invincible]" dataDxfId="34"/>
+    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="33"/>
+    <tableColumn id="39" name="[eatEverything]" dataDxfId="32"/>
+    <tableColumn id="40" name="[modeDuration]" dataDxfId="31"/>
+    <tableColumn id="41" name="[petScale]" dataDxfId="30"/>
+    <tableColumn id="42" name="[tidName]" dataDxfId="29"/>
+    <tableColumn id="43" name="[tidDesc]" dataDxfId="28"/>
+    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="27"/>
+    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="26"/>
+    <tableColumn id="46" name="[force]" dataDxfId="25"/>
+    <tableColumn id="47" name="[mass]" dataDxfId="24"/>
+    <tableColumn id="48" name="[friction]" dataDxfId="23"/>
+    <tableColumn id="49" name="[gravityModifier]" dataDxfId="22"/>
+    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="21"/>
+    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="20"/>
+    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="19"/>
+    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="18"/>
+    <tableColumn id="54" name="[trackingSku]" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="B3:L6" totalsRowShown="0" headerRowBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="B3:L6"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="14"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="13"/>
+    <tableColumn id="4" name="[order]" dataDxfId="12"/>
+    <tableColumn id="6" name="[unlockPriceCoins]" dataDxfId="11"/>
+    <tableColumn id="7" name="[unlockPricePC]" dataDxfId="10"/>
+    <tableColumn id="29" name="[gamePrefab]" dataDxfId="9"/>
+    <tableColumn id="30" name="[menuPrefab]" dataDxfId="8"/>
+    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="7"/>
+    <tableColumn id="42" name="[tidName]" dataDxfId="6"/>
+    <tableColumn id="43" name="[tidDesc]" dataDxfId="5"/>
+    <tableColumn id="54" name="[trackingSku]" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4199,1699 +4685,1914 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BC42"/>
+  <dimension ref="A1:BC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" customWidth="1"/>
-    <col min="19" max="20" width="12.85546875" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.5" customWidth="1"/>
+    <col min="18" max="18" width="13.5" customWidth="1"/>
+    <col min="19" max="20" width="12.83203125" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" customWidth="1"/>
+    <col min="22" max="22" width="15.5" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" customWidth="1"/>
-    <col min="26" max="26" width="17.5703125" customWidth="1"/>
-    <col min="27" max="27" width="16.140625" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" customWidth="1"/>
-    <col min="30" max="30" width="19.5703125" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" customWidth="1"/>
+    <col min="26" max="26" width="17.5" customWidth="1"/>
+    <col min="27" max="27" width="16.1640625" customWidth="1"/>
+    <col min="28" max="28" width="11.6640625" customWidth="1"/>
+    <col min="30" max="30" width="19.5" customWidth="1"/>
     <col min="31" max="31" width="30" customWidth="1"/>
-    <col min="32" max="32" width="26.7109375" customWidth="1"/>
-    <col min="43" max="43" width="33.140625" customWidth="1"/>
-    <col min="44" max="44" width="29.28515625" customWidth="1"/>
-    <col min="55" max="55" width="18.5703125" customWidth="1"/>
+    <col min="32" max="32" width="26.6640625" customWidth="1"/>
+    <col min="43" max="43" width="33.1640625" customWidth="1"/>
+    <col min="44" max="44" width="29.33203125" customWidth="1"/>
+    <col min="55" max="55" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="F2" s="47" t="s">
+    <row r="1" spans="1:55" ht="24" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+    </row>
+    <row r="3" spans="1:55" ht="128" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B4" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="52">
+        <v>0</v>
+      </c>
+      <c r="E4" s="54">
+        <v>0</v>
+      </c>
+      <c r="F4" s="55">
+        <v>0</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B5" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="84">
+        <v>1</v>
+      </c>
+      <c r="E5" s="86">
+        <v>2000</v>
+      </c>
+      <c r="F5" s="87">
+        <v>60</v>
+      </c>
+      <c r="G5" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B6" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="84">
+        <v>2</v>
+      </c>
+      <c r="E6" s="109">
+        <v>11000</v>
+      </c>
+      <c r="F6" s="110">
+        <v>100</v>
+      </c>
+      <c r="G6" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="106" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="F8" s="47" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:55" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+    <row r="9" spans="1:55" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:55" ht="24" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
     </row>
-    <row r="6" spans="1:55" ht="163.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    <row r="12" spans="1:55" ht="161" x14ac:dyDescent="0.2">
+      <c r="B12" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F12" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H12" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I12" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L12" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M12" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N12" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O12" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P12" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q12" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R12" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T12" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="U6" s="22" t="s">
+      <c r="U12" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="V12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="W12" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="X12" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="Y6" s="22" t="s">
+      <c r="Y12" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="Z6" s="10" t="s">
+      <c r="Z12" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AA12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AB12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AC6" s="42" t="s">
+      <c r="AC12" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="AD6" s="38" t="s">
+      <c r="AD12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AE6" s="37" t="s">
+      <c r="AE12" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AF6" s="37" t="s">
+      <c r="AF12" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AG6" s="37" t="s">
+      <c r="AG12" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AH6" s="37" t="s">
+      <c r="AH12" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="AI6" s="37" t="s">
+      <c r="AI12" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="AJ6" s="37" t="s">
+      <c r="AJ12" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="AK6" s="37" t="s">
+      <c r="AK12" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="AL6" s="37" t="s">
+      <c r="AL12" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="AM6" s="37" t="s">
+      <c r="AM12" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="AN6" s="37" t="s">
+      <c r="AN12" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="AO6" s="37" t="s">
+      <c r="AO12" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AP6" s="41" t="s">
+      <c r="AP12" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="AQ6" s="43" t="s">
+      <c r="AQ12" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AR6" s="45" t="s">
+      <c r="AR12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="AS6" s="44" t="s">
+      <c r="AS12" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="AT6" s="46" t="s">
+      <c r="AT12" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="AU6" s="40" t="s">
+      <c r="AU12" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="AV6" s="39" t="s">
+      <c r="AV12" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="AW6" s="39" t="s">
+      <c r="AW12" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="AX6" s="39" t="s">
+      <c r="AX12" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="AY6" s="39" t="s">
+      <c r="AY12" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="AZ6" s="39" t="s">
+      <c r="AZ12" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="BA6" s="32" t="s">
+      <c r="BA12" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="BB6" s="32" t="s">
+      <c r="BB12" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="BC6" s="39" t="s">
+      <c r="BC12" s="39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B13" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C13" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D13" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E13" s="52">
         <v>0</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G13" s="54">
         <v>0</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H13" s="55">
         <v>0</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I13" s="56">
         <v>5</v>
       </c>
-      <c r="J7" s="57">
+      <c r="J13" s="57">
         <v>-2</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K13" s="58">
         <v>170</v>
       </c>
-      <c r="L7" s="59">
+      <c r="L13" s="59">
         <v>1.5</v>
       </c>
-      <c r="M7" s="59">
+      <c r="M13" s="59">
         <v>0</v>
       </c>
-      <c r="N7" s="59">
+      <c r="N13" s="59">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="O7" s="60">
+      <c r="O13" s="60">
         <v>30</v>
       </c>
-      <c r="P7" s="60">
+      <c r="P13" s="60">
         <v>0.5</v>
       </c>
-      <c r="Q7" s="61">
+      <c r="Q13" s="61">
         <v>1</v>
       </c>
-      <c r="R7" s="57">
+      <c r="R13" s="57">
         <v>1</v>
       </c>
-      <c r="S7" s="59">
+      <c r="S13" s="59">
         <v>100</v>
       </c>
-      <c r="T7" s="59">
+      <c r="T13" s="59">
         <v>40</v>
       </c>
-      <c r="U7" s="62">
+      <c r="U13" s="62">
         <v>28</v>
       </c>
-      <c r="V7" s="63">
+      <c r="V13" s="63">
         <v>9</v>
       </c>
-      <c r="W7" s="59">
+      <c r="W13" s="59">
         <v>3</v>
       </c>
-      <c r="X7" s="60">
+      <c r="X13" s="60">
         <v>9</v>
       </c>
-      <c r="Y7" s="62">
+      <c r="Y13" s="62">
         <v>8000</v>
       </c>
-      <c r="Z7" s="64">
+      <c r="Z13" s="64">
         <v>2</v>
       </c>
-      <c r="AA7" s="61">
+      <c r="AA13" s="61">
         <v>0.13</v>
       </c>
-      <c r="AB7" s="65">
+      <c r="AB13" s="65">
         <v>0</v>
       </c>
-      <c r="AC7" s="66">
+      <c r="AC13" s="66">
         <v>6</v>
       </c>
-      <c r="AD7" s="68" t="s">
+      <c r="AD13" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="AE7" s="69" t="s">
+      <c r="AE13" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="AF7" s="69" t="s">
+      <c r="AF13" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="AG7" s="69"/>
-      <c r="AH7" s="69"/>
-      <c r="AI7" s="69">
+      <c r="AG13" s="69"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="69">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AJ7" s="69">
+      <c r="AJ13" s="69">
         <v>2</v>
       </c>
-      <c r="AK7" s="69">
+      <c r="AK13" s="69">
         <v>2</v>
       </c>
-      <c r="AL7" s="69" t="b">
+      <c r="AL13" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="AM7" s="69" t="b">
+      <c r="AM13" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="AN7" s="69" t="b">
+      <c r="AN13" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="AO7" s="69">
+      <c r="AO13" s="69">
         <v>10</v>
       </c>
-      <c r="AP7" s="70">
+      <c r="AP13" s="70">
         <v>0.55999999999999994</v>
       </c>
-      <c r="AQ7" s="71" t="s">
+      <c r="AQ13" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="AR7" s="72" t="s">
+      <c r="AR13" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="AS7" s="75">
+      <c r="AS13" s="75">
         <v>2E-3</v>
       </c>
-      <c r="AT7" s="76">
+      <c r="AT13" s="76">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AU7" s="77">
+      <c r="AU13" s="77">
         <v>260</v>
       </c>
-      <c r="AV7" s="48">
+      <c r="AV13" s="48">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AW7" s="48">
+      <c r="AW13" s="48">
         <v>5</v>
       </c>
-      <c r="AX7" s="48">
+      <c r="AX13" s="48">
         <v>1.7</v>
       </c>
-      <c r="AY7" s="78">
+      <c r="AY13" s="78">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AZ7" s="78">
+      <c r="AZ13" s="78">
         <v>2.25</v>
       </c>
-      <c r="BA7" s="78">
+      <c r="BA13" s="78">
         <v>0</v>
       </c>
-      <c r="BB7" s="78">
+      <c r="BB13" s="78">
         <v>8</v>
       </c>
-      <c r="BC7" s="48" t="s">
+      <c r="BC13" s="48" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="s">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B14" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C14" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D14" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E14" s="52">
         <v>0</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F14" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G14" s="54">
         <v>0</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H14" s="55">
         <v>0</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I14" s="56">
         <v>10</v>
       </c>
-      <c r="J8" s="57">
+      <c r="J14" s="57">
         <v>0</v>
       </c>
-      <c r="K8" s="58">
+      <c r="K14" s="58">
         <v>280</v>
       </c>
-      <c r="L8" s="59">
+      <c r="L14" s="59">
         <v>1.9</v>
       </c>
-      <c r="M8" s="59">
+      <c r="M14" s="59">
         <v>0</v>
       </c>
-      <c r="N8" s="59">
+      <c r="N14" s="59">
         <v>1.2E-2</v>
       </c>
-      <c r="O8" s="60">
+      <c r="O14" s="60">
         <v>30</v>
       </c>
-      <c r="P8" s="60">
+      <c r="P14" s="60">
         <v>0.6</v>
       </c>
-      <c r="Q8" s="61">
+      <c r="Q14" s="61">
         <v>1.1499999999999999</v>
       </c>
-      <c r="R8" s="57">
+      <c r="R14" s="57">
         <v>1</v>
       </c>
-      <c r="S8" s="59">
+      <c r="S14" s="59">
         <v>100</v>
       </c>
-      <c r="T8" s="59">
+      <c r="T14" s="59">
         <v>40</v>
       </c>
-      <c r="U8" s="62">
+      <c r="U14" s="62">
         <v>28</v>
       </c>
-      <c r="V8" s="63">
+      <c r="V14" s="63">
         <v>11</v>
       </c>
-      <c r="W8" s="59">
+      <c r="W14" s="59">
         <v>4</v>
       </c>
-      <c r="X8" s="60">
+      <c r="X14" s="60">
         <v>10</v>
       </c>
-      <c r="Y8" s="62">
+      <c r="Y14" s="62">
         <v>10000</v>
       </c>
-      <c r="Z8" s="64">
+      <c r="Z14" s="64">
         <v>3</v>
       </c>
-      <c r="AA8" s="61">
+      <c r="AA14" s="61">
         <v>0.08</v>
       </c>
-      <c r="AB8" s="65">
+      <c r="AB14" s="65">
         <v>0</v>
       </c>
-      <c r="AC8" s="65">
+      <c r="AC14" s="65">
         <v>6</v>
       </c>
-      <c r="AD8" s="68" t="s">
+      <c r="AD14" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="AE8" s="69" t="s">
+      <c r="AE14" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="AF8" s="69" t="s">
+      <c r="AF14" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="AG8" s="69"/>
-      <c r="AH8" s="69"/>
-      <c r="AI8" s="69">
+      <c r="AG14" s="69"/>
+      <c r="AH14" s="69"/>
+      <c r="AI14" s="69">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AJ8" s="69">
+      <c r="AJ14" s="69">
         <v>2</v>
       </c>
-      <c r="AK8" s="69">
+      <c r="AK14" s="69">
         <v>2</v>
       </c>
-      <c r="AL8" s="69" t="b">
+      <c r="AL14" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="AM8" s="69" t="b">
+      <c r="AM14" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="AN8" s="69" t="b">
+      <c r="AN14" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="AO8" s="69">
+      <c r="AO14" s="69">
         <v>10</v>
       </c>
-      <c r="AP8" s="70">
+      <c r="AP14" s="70">
         <v>0.7</v>
       </c>
-      <c r="AQ8" s="71" t="s">
+      <c r="AQ14" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="AR8" s="72" t="s">
+      <c r="AR14" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="AS8" s="75">
+      <c r="AS14" s="75">
         <v>1.8E-3</v>
       </c>
-      <c r="AT8" s="76">
+      <c r="AT14" s="76">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AU8" s="77">
+      <c r="AU14" s="77">
         <v>333</v>
       </c>
-      <c r="AV8" s="48">
+      <c r="AV14" s="48">
         <v>2.5</v>
       </c>
-      <c r="AW8" s="48">
+      <c r="AW14" s="48">
         <v>5</v>
       </c>
-      <c r="AX8" s="48">
+      <c r="AX14" s="48">
         <v>1.7</v>
       </c>
-      <c r="AY8" s="48">
+      <c r="AY14" s="48">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AZ8" s="48">
+      <c r="AZ14" s="48">
         <v>2.25</v>
       </c>
-      <c r="BA8" s="48">
+      <c r="BA14" s="48">
         <v>9</v>
       </c>
-      <c r="BB8" s="48">
+      <c r="BB14" s="48">
         <v>8</v>
       </c>
-      <c r="BC8" s="48" t="s">
+      <c r="BC14" s="48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B15" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C15" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D15" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E15" s="52">
         <v>0</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F15" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="54">
+      <c r="G15" s="54">
         <v>0</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H15" s="55">
         <v>0</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I15" s="56">
         <v>15</v>
       </c>
-      <c r="J9" s="57">
+      <c r="J15" s="57">
         <v>0</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K15" s="58">
         <v>400</v>
       </c>
-      <c r="L9" s="59">
+      <c r="L15" s="59">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M9" s="59">
+      <c r="M15" s="59">
         <v>0</v>
       </c>
-      <c r="N9" s="59">
+      <c r="N15" s="59">
         <v>1.4E-2</v>
       </c>
-      <c r="O9" s="60">
+      <c r="O15" s="60">
         <v>25</v>
       </c>
-      <c r="P9" s="60">
+      <c r="P15" s="60">
         <v>0.7</v>
       </c>
-      <c r="Q9" s="61">
+      <c r="Q15" s="61">
         <v>1.75</v>
       </c>
-      <c r="R9" s="57">
+      <c r="R15" s="57">
         <v>1</v>
       </c>
-      <c r="S9" s="59">
+      <c r="S15" s="59">
         <v>100</v>
       </c>
-      <c r="T9" s="59">
+      <c r="T15" s="59">
         <v>40</v>
       </c>
-      <c r="U9" s="62">
+      <c r="U15" s="62">
         <v>28</v>
       </c>
-      <c r="V9" s="63">
+      <c r="V15" s="63">
         <v>11.5</v>
       </c>
-      <c r="W9" s="59">
+      <c r="W15" s="59">
         <v>5</v>
       </c>
-      <c r="X9" s="60">
+      <c r="X15" s="60">
         <v>10</v>
       </c>
-      <c r="Y9" s="62">
+      <c r="Y15" s="62">
         <v>20000</v>
       </c>
-      <c r="Z9" s="64">
+      <c r="Z15" s="64">
         <v>4</v>
       </c>
-      <c r="AA9" s="61">
+      <c r="AA15" s="61">
         <v>0.05</v>
       </c>
-      <c r="AB9" s="65">
+      <c r="AB15" s="65">
         <v>0</v>
       </c>
-      <c r="AC9" s="67">
+      <c r="AC15" s="67">
         <v>6</v>
       </c>
-      <c r="AD9" s="68" t="s">
+      <c r="AD15" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="AE9" s="69" t="s">
+      <c r="AE15" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="AF9" s="69" t="s">
+      <c r="AF15" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="AG9" s="69"/>
-      <c r="AH9" s="69"/>
-      <c r="AI9" s="69">
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="69">
         <v>2.1</v>
       </c>
-      <c r="AJ9" s="69">
+      <c r="AJ15" s="69">
         <v>2</v>
       </c>
-      <c r="AK9" s="69">
+      <c r="AK15" s="69">
         <v>2</v>
       </c>
-      <c r="AL9" s="69" t="b">
+      <c r="AL15" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="AM9" s="69" t="b">
+      <c r="AM15" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="AN9" s="69" t="b">
+      <c r="AN15" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="AO9" s="69">
+      <c r="AO15" s="69">
         <v>10</v>
       </c>
-      <c r="AP9" s="70">
+      <c r="AP15" s="70">
         <v>0.7</v>
       </c>
-      <c r="AQ9" s="73" t="s">
+      <c r="AQ15" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="AR9" s="74" t="s">
+      <c r="AR15" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="AS9" s="75">
+      <c r="AS15" s="75">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AT9" s="76">
+      <c r="AT15" s="76">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AU9" s="77">
+      <c r="AU15" s="77">
         <v>475</v>
       </c>
-      <c r="AV9" s="48">
+      <c r="AV15" s="48">
         <v>3.4</v>
       </c>
-      <c r="AW9" s="48">
+      <c r="AW15" s="48">
         <v>5</v>
       </c>
-      <c r="AX9" s="48">
+      <c r="AX15" s="48">
         <v>1.7</v>
       </c>
-      <c r="AY9" s="48">
+      <c r="AY15" s="48">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AZ9" s="48">
+      <c r="AZ15" s="48">
         <v>2.25</v>
       </c>
-      <c r="BA9" s="48">
+      <c r="BA15" s="48">
         <v>45</v>
       </c>
-      <c r="BB9" s="48">
+      <c r="BB15" s="48">
         <v>15</v>
       </c>
-      <c r="BC9" s="79" t="s">
+      <c r="BC15" s="79" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="49" t="s">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C16" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D16" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E16" s="52">
         <v>0</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F16" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G16" s="54">
         <v>0</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H16" s="55">
         <v>0</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I16" s="56">
         <v>25</v>
       </c>
-      <c r="J10" s="57">
+      <c r="J16" s="57">
         <v>0</v>
       </c>
-      <c r="K10" s="58">
+      <c r="K16" s="58">
         <v>430</v>
       </c>
-      <c r="L10" s="59">
+      <c r="L16" s="59">
         <v>2.4</v>
       </c>
-      <c r="M10" s="59">
+      <c r="M16" s="59">
         <v>0</v>
       </c>
-      <c r="N10" s="59">
+      <c r="N16" s="59">
         <v>1.6E-2</v>
       </c>
-      <c r="O10" s="60">
+      <c r="O16" s="60">
         <v>20</v>
       </c>
-      <c r="P10" s="60">
+      <c r="P16" s="60">
         <v>0.8</v>
       </c>
-      <c r="Q10" s="61">
+      <c r="Q16" s="61">
         <v>2.1</v>
       </c>
-      <c r="R10" s="57">
+      <c r="R16" s="57">
         <v>1</v>
       </c>
-      <c r="S10" s="59">
+      <c r="S16" s="59">
         <v>100</v>
       </c>
-      <c r="T10" s="59">
+      <c r="T16" s="59">
         <v>40</v>
       </c>
-      <c r="U10" s="62">
+      <c r="U16" s="62">
         <v>28</v>
       </c>
-      <c r="V10" s="63">
+      <c r="V16" s="63">
         <v>12</v>
       </c>
-      <c r="W10" s="59">
+      <c r="W16" s="59">
         <v>6</v>
       </c>
-      <c r="X10" s="60">
+      <c r="X16" s="60">
         <v>10</v>
       </c>
-      <c r="Y10" s="62">
+      <c r="Y16" s="62">
         <v>30000</v>
       </c>
-      <c r="Z10" s="64">
+      <c r="Z16" s="64">
         <v>5</v>
       </c>
-      <c r="AA10" s="61">
+      <c r="AA16" s="61">
         <v>0.04</v>
       </c>
-      <c r="AB10" s="65">
+      <c r="AB16" s="65">
         <v>0</v>
       </c>
-      <c r="AC10" s="65">
+      <c r="AC16" s="65">
         <v>6</v>
       </c>
-      <c r="AD10" s="68" t="s">
+      <c r="AD16" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="AE10" s="69" t="s">
+      <c r="AE16" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="AF10" s="69" t="s">
+      <c r="AF16" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69">
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69">
         <v>2.1</v>
       </c>
-      <c r="AJ10" s="69">
+      <c r="AJ16" s="69">
         <v>2</v>
       </c>
-      <c r="AK10" s="69">
+      <c r="AK16" s="69">
         <v>2</v>
       </c>
-      <c r="AL10" s="69" t="b">
+      <c r="AL16" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="AM10" s="69" t="b">
+      <c r="AM16" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="AN10" s="69" t="b">
+      <c r="AN16" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="AO10" s="69">
+      <c r="AO16" s="69">
         <v>10</v>
       </c>
-      <c r="AP10" s="70">
+      <c r="AP16" s="70">
         <v>0.7</v>
       </c>
-      <c r="AQ10" s="73" t="s">
+      <c r="AQ16" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="AR10" s="74" t="s">
+      <c r="AR16" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="AS10" s="75">
+      <c r="AS16" s="75">
         <v>1.5E-3</v>
       </c>
-      <c r="AT10" s="76">
+      <c r="AT16" s="76">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AU10" s="77">
+      <c r="AU16" s="77">
         <v>705</v>
       </c>
-      <c r="AV10" s="48">
+      <c r="AV16" s="48">
         <v>4.7</v>
       </c>
-      <c r="AW10" s="48">
+      <c r="AW16" s="48">
         <v>5</v>
       </c>
-      <c r="AX10" s="48">
+      <c r="AX16" s="48">
         <v>1.7</v>
       </c>
-      <c r="AY10" s="48">
+      <c r="AY16" s="48">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AZ10" s="48">
+      <c r="AZ16" s="48">
         <v>2.25</v>
       </c>
-      <c r="BA10" s="48">
+      <c r="BA16" s="48">
         <v>59</v>
       </c>
-      <c r="BB10" s="48">
+      <c r="BB16" s="48">
         <v>15</v>
       </c>
-      <c r="BC10" s="79" t="s">
+      <c r="BC16" s="79" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B11" s="81" t="s">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B17" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C17" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D17" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E17" s="84">
         <v>1</v>
       </c>
-      <c r="F11" s="85" t="s">
+      <c r="F17" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G17" s="86">
         <v>2000</v>
       </c>
-      <c r="H11" s="87">
+      <c r="H17" s="87">
         <v>60</v>
       </c>
-      <c r="I11" s="88">
+      <c r="I17" s="88">
         <v>3</v>
       </c>
-      <c r="J11" s="89">
+      <c r="J17" s="89">
         <v>0</v>
       </c>
-      <c r="K11" s="90">
+      <c r="K17" s="90">
         <v>95</v>
       </c>
-      <c r="L11" s="91">
+      <c r="L17" s="91">
         <v>1.1499999999999999</v>
       </c>
-      <c r="M11" s="91">
+      <c r="M17" s="91">
         <v>1</v>
       </c>
-      <c r="N11" s="91">
+      <c r="N17" s="91">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="O11" s="91">
+      <c r="O17" s="91">
         <v>30</v>
       </c>
-      <c r="P11" s="91">
+      <c r="P17" s="91">
         <v>0.5</v>
       </c>
-      <c r="Q11" s="92">
+      <c r="Q17" s="92">
         <v>0.8</v>
       </c>
-      <c r="R11" s="89">
+      <c r="R17" s="89">
         <v>1.7</v>
       </c>
-      <c r="S11" s="91">
+      <c r="S17" s="91">
         <v>100</v>
       </c>
-      <c r="T11" s="91">
+      <c r="T17" s="91">
         <v>20</v>
       </c>
-      <c r="U11" s="93">
+      <c r="U17" s="93">
         <v>10</v>
       </c>
-      <c r="V11" s="89">
+      <c r="V17" s="89">
         <v>8</v>
       </c>
-      <c r="W11" s="91">
+      <c r="W17" s="91">
         <v>3</v>
       </c>
-      <c r="X11" s="91">
+      <c r="X17" s="91">
         <v>9</v>
       </c>
-      <c r="Y11" s="93">
+      <c r="Y17" s="93">
         <v>7000</v>
       </c>
-      <c r="Z11" s="94">
+      <c r="Z17" s="94">
         <v>2</v>
       </c>
-      <c r="AA11" s="95">
+      <c r="AA17" s="95">
         <v>0.19</v>
       </c>
-      <c r="AB11" s="95">
+      <c r="AB17" s="95">
         <v>0</v>
       </c>
-      <c r="AC11" s="95">
+      <c r="AC17" s="95">
         <v>12</v>
       </c>
-      <c r="AD11" s="96" t="s">
+      <c r="AD17" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="AE11" s="97" t="s">
+      <c r="AE17" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="AF11" s="97" t="s">
+      <c r="AF17" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="AG11" s="97"/>
-      <c r="AH11" s="97"/>
-      <c r="AI11" s="97">
+      <c r="AG17" s="97"/>
+      <c r="AH17" s="97"/>
+      <c r="AI17" s="97">
         <v>2.1</v>
       </c>
-      <c r="AJ11" s="97">
+      <c r="AJ17" s="97">
         <v>2</v>
       </c>
-      <c r="AK11" s="97">
+      <c r="AK17" s="97">
         <v>2</v>
       </c>
-      <c r="AL11" s="97" t="b">
+      <c r="AL17" s="97" t="b">
         <v>1</v>
       </c>
-      <c r="AM11" s="97" t="b">
+      <c r="AM17" s="97" t="b">
         <v>1</v>
       </c>
-      <c r="AN11" s="97" t="b">
+      <c r="AN17" s="97" t="b">
         <v>1</v>
       </c>
-      <c r="AO11" s="97">
+      <c r="AO17" s="97">
         <v>10</v>
       </c>
-      <c r="AP11" s="98">
+      <c r="AP17" s="98">
         <v>0.7</v>
       </c>
-      <c r="AQ11" s="99" t="s">
+      <c r="AQ17" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="AR11" s="100" t="s">
+      <c r="AR17" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="AS11" s="101">
+      <c r="AS17" s="101">
         <v>1.9E-3</v>
       </c>
-      <c r="AT11" s="102">
+      <c r="AT17" s="102">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AU11" s="103">
+      <c r="AU17" s="103">
         <v>300</v>
       </c>
-      <c r="AV11" s="83">
+      <c r="AV17" s="83">
         <v>2.4</v>
       </c>
-      <c r="AW11" s="83">
+      <c r="AW17" s="83">
         <v>9.5</v>
       </c>
-      <c r="AX11" s="83">
+      <c r="AX17" s="83">
         <v>1.7</v>
       </c>
-      <c r="AY11" s="83">
+      <c r="AY17" s="83">
         <v>1</v>
       </c>
-      <c r="AZ11" s="83">
+      <c r="AZ17" s="83">
         <v>1.6</v>
       </c>
-      <c r="BA11" s="83">
+      <c r="BA17" s="83">
         <v>9</v>
       </c>
-      <c r="BB11" s="83">
+      <c r="BB17" s="83">
         <v>6</v>
       </c>
-      <c r="BC11" s="104" t="s">
+      <c r="BC17" s="104" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="105" t="s">
+    <row r="18" spans="1:55" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C18" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="107" t="s">
+      <c r="D18" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E18" s="84">
         <v>2</v>
       </c>
-      <c r="F12" s="108" t="s">
+      <c r="F18" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="109">
+      <c r="G18" s="109">
         <v>11000</v>
       </c>
-      <c r="H12" s="110">
+      <c r="H18" s="110">
         <v>100</v>
       </c>
-      <c r="I12" s="111">
+      <c r="I18" s="111">
         <v>5</v>
       </c>
-      <c r="J12" s="112">
+      <c r="J18" s="112">
         <v>0</v>
       </c>
-      <c r="K12" s="113">
+      <c r="K18" s="113">
         <v>80</v>
       </c>
-      <c r="L12" s="114">
+      <c r="L18" s="114">
         <v>1.5</v>
       </c>
-      <c r="M12" s="114">
+      <c r="M18" s="114">
         <v>1</v>
       </c>
-      <c r="N12" s="114">
+      <c r="N18" s="114">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="O12" s="114">
+      <c r="O18" s="114">
         <v>30</v>
       </c>
-      <c r="P12" s="114">
+      <c r="P18" s="114">
         <v>0.5</v>
       </c>
-      <c r="Q12" s="115">
+      <c r="Q18" s="115">
         <v>0.85</v>
       </c>
-      <c r="R12" s="112">
+      <c r="R18" s="112">
         <v>2.1</v>
       </c>
-      <c r="S12" s="114">
+      <c r="S18" s="114">
         <v>100</v>
       </c>
-      <c r="T12" s="114">
+      <c r="T18" s="114">
         <v>40</v>
       </c>
-      <c r="U12" s="116">
+      <c r="U18" s="116">
         <v>14</v>
       </c>
-      <c r="V12" s="112">
+      <c r="V18" s="112">
         <v>9</v>
       </c>
-      <c r="W12" s="114">
+      <c r="W18" s="114">
         <v>3</v>
       </c>
-      <c r="X12" s="114">
+      <c r="X18" s="114">
         <v>9</v>
       </c>
-      <c r="Y12" s="116">
+      <c r="Y18" s="116">
         <v>8000</v>
       </c>
-      <c r="Z12" s="117">
+      <c r="Z18" s="117">
         <v>2</v>
       </c>
-      <c r="AA12" s="115">
+      <c r="AA18" s="115">
         <v>0.15</v>
       </c>
-      <c r="AB12" s="115">
+      <c r="AB18" s="115">
         <v>0</v>
       </c>
-      <c r="AC12" s="95">
+      <c r="AC18" s="95">
         <v>12</v>
       </c>
-      <c r="AD12" s="96" t="s">
+      <c r="AD18" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="AE12" s="97" t="s">
+      <c r="AE18" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="AF12" s="97" t="s">
+      <c r="AF18" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="AG12" s="97"/>
-      <c r="AH12" s="97"/>
-      <c r="AI12" s="97">
+      <c r="AG18" s="97"/>
+      <c r="AH18" s="97"/>
+      <c r="AI18" s="97">
         <v>2</v>
       </c>
-      <c r="AJ12" s="97">
+      <c r="AJ18" s="97">
         <v>2</v>
       </c>
-      <c r="AK12" s="97">
+      <c r="AK18" s="97">
         <v>2</v>
       </c>
-      <c r="AL12" s="97" t="b">
+      <c r="AL18" s="97" t="b">
         <v>1</v>
       </c>
-      <c r="AM12" s="97" t="b">
+      <c r="AM18" s="97" t="b">
         <v>1</v>
       </c>
-      <c r="AN12" s="97" t="b">
+      <c r="AN18" s="97" t="b">
         <v>1</v>
       </c>
-      <c r="AO12" s="97">
+      <c r="AO18" s="97">
         <v>10</v>
       </c>
-      <c r="AP12" s="98">
+      <c r="AP18" s="98">
         <v>0.7</v>
       </c>
-      <c r="AQ12" s="99" t="s">
+      <c r="AQ18" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="AR12" s="100" t="s">
+      <c r="AR18" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="AS12" s="101">
+      <c r="AS18" s="101">
         <v>1.8E-3</v>
       </c>
-      <c r="AT12" s="102">
+      <c r="AT18" s="102">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AU12" s="103">
+      <c r="AU18" s="103">
         <v>322</v>
       </c>
-      <c r="AV12" s="83">
+      <c r="AV18" s="83">
         <v>2.5</v>
       </c>
-      <c r="AW12" s="83">
+      <c r="AW18" s="83">
         <v>9.5</v>
       </c>
-      <c r="AX12" s="83">
+      <c r="AX18" s="83">
         <v>1.7</v>
       </c>
-      <c r="AY12" s="83">
+      <c r="AY18" s="83">
         <v>0.5</v>
       </c>
-      <c r="AZ12" s="83">
+      <c r="AZ18" s="83">
         <v>1.9</v>
       </c>
-      <c r="BA12" s="83">
+      <c r="BA18" s="83">
         <v>9</v>
       </c>
-      <c r="BB12" s="83">
+      <c r="BB18" s="83">
         <v>6</v>
       </c>
-      <c r="BC12" s="104" t="s">
+      <c r="BC18" s="104" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:55" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="123" t="s">
+    <row r="19" spans="1:55" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="124"/>
-      <c r="K13" s="125" t="s">
+      <c r="J19" s="124"/>
+      <c r="K19" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="29" t="s">
+      <c r="L19" s="126"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="126"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="128" t="s">
+      <c r="R19" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="129"/>
-      <c r="T13" s="129"/>
-      <c r="U13" s="130"/>
-      <c r="V13" s="131" t="s">
+      <c r="S19" s="129"/>
+      <c r="T19" s="129"/>
+      <c r="U19" s="130"/>
+      <c r="V19" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
-      <c r="Y13" s="133"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
+      <c r="W19" s="132"/>
+      <c r="X19" s="132"/>
+      <c r="Y19" s="133"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
     </row>
-    <row r="16" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:27" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
+    <row r="22" spans="1:55" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:55" ht="24" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>99</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F24" t="s">
         <v>120</v>
       </c>
-      <c r="G18" s="80" t="s">
+      <c r="G24" s="80" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="2:27" ht="187.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
+    <row r="25" spans="1:55" ht="185" x14ac:dyDescent="0.2">
+      <c r="B25" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C25" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D25" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E25" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F25" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B26" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C26" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D26" s="24">
         <v>0</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E26" s="25">
         <v>0</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G26" s="34" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B27" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C27" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D27" s="24">
         <v>0</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E27" s="25">
         <v>0</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F27" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G27" s="35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B28" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C28" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D28" s="24">
         <v>0</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E28" s="25">
         <v>0</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F28" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G28" s="35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B23" s="81" t="s">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B29" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="118" t="s">
+      <c r="C29" s="118" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="86">
+      <c r="D29" s="86">
         <v>0</v>
       </c>
-      <c r="E23" s="87">
+      <c r="E29" s="87">
         <v>0</v>
       </c>
-      <c r="F23" s="119" t="s">
+      <c r="F29" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="120">
+      <c r="G29" s="120">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B24" s="81" t="s">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B30" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="118" t="s">
+      <c r="C30" s="118" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="86">
+      <c r="D30" s="86">
         <v>2000</v>
       </c>
-      <c r="E24" s="87">
+      <c r="E30" s="87">
         <v>60</v>
       </c>
-      <c r="F24" s="119" t="s">
+      <c r="F30" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="120">
+      <c r="G30" s="120">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B25" s="105" t="s">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B31" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="121" t="s">
+      <c r="C31" s="121" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="109">
+      <c r="D31" s="109">
         <v>11000</v>
       </c>
-      <c r="E25" s="110">
+      <c r="E31" s="110">
         <v>100</v>
       </c>
-      <c r="F25" s="119" t="s">
+      <c r="F31" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="G25" s="122">
+      <c r="G31" s="122">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:27" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B27" s="1" t="s">
+    <row r="32" spans="1:55" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:27" ht="24" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
     </row>
-    <row r="33" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:27" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B34" s="1" t="s">
+    <row r="39" spans="2:27" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:27" ht="24" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
     </row>
-    <row r="36" spans="2:27" ht="184.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="14" t="s">
+    <row r="42" spans="2:27" ht="182" x14ac:dyDescent="0.2">
+      <c r="B42" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C42" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D42" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E42" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F42" s="32" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B37" s="23" t="s">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B43" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C43" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D43" s="24">
         <v>0</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E43" s="25">
         <v>0</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F43" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B38" s="23" t="s">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B44" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C44" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D44" s="24">
         <v>0</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E44" s="25">
         <v>0</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F44" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B45" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C45" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D45" s="24">
         <v>0</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E45" s="25">
         <v>0</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F45" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B40" s="23" t="s">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B46" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C46" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D46" s="24">
         <v>0</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E46" s="25">
         <v>0</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F46" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B47" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C47" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D47" s="24">
         <v>2000</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E47" s="25">
         <v>60</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F47" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B42" s="26" t="s">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B48" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C48" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D48" s="27">
         <v>11000</v>
       </c>
-      <c r="E42" s="28">
+      <c r="E48" s="28">
         <v>100</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F48" s="13">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:Y19"/>
   </mergeCells>
-  <conditionalFormatting sqref="C11:C12 C7">
-    <cfRule type="duplicateValues" dxfId="85" priority="10"/>
+  <conditionalFormatting sqref="C17:C18 C13">
+    <cfRule type="duplicateValues" dxfId="104" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" dxfId="84" priority="9"/>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="duplicateValues" dxfId="103" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="duplicateValues" dxfId="83" priority="8"/>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="duplicateValues" dxfId="102" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="82" priority="7"/>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="duplicateValues" dxfId="101" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C25 C20">
-    <cfRule type="duplicateValues" dxfId="81" priority="11"/>
+  <conditionalFormatting sqref="C30:C31 C26">
+    <cfRule type="duplicateValues" dxfId="100" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="duplicateValues" dxfId="80" priority="12"/>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="duplicateValues" dxfId="99" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="duplicateValues" dxfId="79" priority="13"/>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="duplicateValues" dxfId="98" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="duplicateValues" dxfId="78" priority="14"/>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="duplicateValues" dxfId="97" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:C42 C37">
-    <cfRule type="duplicateValues" dxfId="77" priority="3"/>
+  <conditionalFormatting sqref="C47:C48 C43">
+    <cfRule type="duplicateValues" dxfId="96" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="duplicateValues" dxfId="76" priority="4"/>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="duplicateValues" dxfId="95" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="duplicateValues" dxfId="75" priority="5"/>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="duplicateValues" dxfId="94" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="duplicateValues" dxfId="74" priority="6"/>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="duplicateValues" dxfId="93" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC7:BC12">
-    <cfRule type="duplicateValues" dxfId="73" priority="2"/>
+  <conditionalFormatting sqref="BC13:BC18">
+    <cfRule type="duplicateValues" dxfId="92" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C6">
+    <cfRule type="duplicateValues" dxfId="91" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D7:D12">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D13:D18">
       <formula1>INDIRECT("dragonTierDefinitions['[sku']]")</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="special dragons" sheetId="10" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="169">
   <si>
     <t>[sku]</t>
   </si>
@@ -365,9 +368,6 @@
     <t>{specialDragonPetsUpgradeDefinitions}</t>
   </si>
   <si>
-    <t>En las escenas, poder añadir (y quitar?) spawners para los dragones especiales</t>
-  </si>
-  <si>
     <t>Percentage: Applied over value in 'tier 1'</t>
   </si>
   <si>
@@ -404,29 +404,143 @@
     <t>{specialDragonTierDefinitions}</t>
   </si>
   <si>
-    <t>dragon_robot</t>
-  </si>
-  <si>
     <t>dragon_electric</t>
   </si>
   <si>
+    <t>dragon_sonic</t>
+  </si>
+  <si>
+    <t>[previousDragonSku]</t>
+  </si>
+  <si>
+    <t>[cameraDefaultZoom]</t>
+  </si>
+  <si>
+    <t>[cameraFarZoom]</t>
+  </si>
+  <si>
+    <t>[healthMin]</t>
+  </si>
+  <si>
+    <t>[healthMax]</t>
+  </si>
+  <si>
+    <t>[scaleMin]</t>
+  </si>
+  <si>
+    <t>[scaleMax]</t>
+  </si>
+  <si>
+    <t>[speedBase]</t>
+  </si>
+  <si>
+    <t>[energyBaseMin]</t>
+  </si>
+  <si>
+    <t>[energyBaseMax]</t>
+  </si>
+  <si>
+    <t>[furyBaseDamage]</t>
+  </si>
+  <si>
+    <t>[eatSpeedFactorMin]</t>
+  </si>
+  <si>
+    <t>[eatSpeedFactorMax]</t>
+  </si>
+  <si>
+    <t>[petScaleMenu]</t>
+  </si>
+  <si>
+    <t>[forceMin]</t>
+  </si>
+  <si>
+    <t>[forceMax]</t>
+  </si>
+  <si>
+    <t>tier_0</t>
+  </si>
+  <si>
+    <t>dragon_helicopter</t>
+  </si>
+  <si>
     <t>PF_DragonElectric</t>
   </si>
   <si>
+    <t>PF_DragonHelicopter</t>
+  </si>
+  <si>
     <t>PF_DragonSonic</t>
   </si>
   <si>
-    <t>dragon_sonic</t>
-  </si>
-  <si>
-    <t>PF_DragonHelicopter</t>
+    <t>[dragonSku]</t>
+  </si>
+  <si>
+    <t>[powerup]</t>
+  </si>
+  <si>
+    <t>[shopOrder]</t>
+  </si>
+  <si>
+    <t>[priceSC]</t>
+  </si>
+  <si>
+    <t>[priceHC]</t>
+  </si>
+  <si>
+    <t>[unlockLevel]</t>
+  </si>
+  <si>
+    <t>[icon]</t>
+  </si>
+  <si>
+    <t>[skin]</t>
+  </si>
+  <si>
+    <t>[item1]</t>
+  </si>
+  <si>
+    <t>[item2]</t>
+  </si>
+  <si>
+    <t>[body_parts]</t>
+  </si>
+  <si>
+    <t>[trails]</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>icon_disguise_0</t>
+  </si>
+  <si>
+    <t>baby_default</t>
+  </si>
+  <si>
+    <t>baby_chef</t>
+  </si>
+  <si>
+    <t>crocodile_default</t>
+  </si>
+  <si>
+    <t>{specialDisguisesDefinitions}</t>
+  </si>
+  <si>
+    <t>dragon_helicopter_0</t>
+  </si>
+  <si>
+    <t>dragon_electric_0</t>
+  </si>
+  <si>
+    <t>dragon_sonic_0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,13 +579,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
@@ -482,6 +589,21 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -585,7 +707,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1038,11 +1160,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1172,7 +1442,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1270,130 +1539,298 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1428,12 +1865,107 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="105">
+  <dxfs count="94">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1534,388 +2066,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -4310,113 +4460,106 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="dragons"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table6" displayName="Table6" ref="B25:G31" totalsRowShown="0" headerRowBorderDxfId="89" tableBorderDxfId="88" totalsRowBorderDxfId="87">
-  <autoFilter ref="B25:G31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table6" displayName="Table6" ref="B24:G30" totalsRowShown="0" headerRowBorderDxfId="78" tableBorderDxfId="77" totalsRowBorderDxfId="76">
+  <autoFilter ref="B24:G30"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="{specialDragonStatsUpgradeDefinitions}" dataDxfId="86"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="85"/>
-    <tableColumn id="6" name="[unlockPriceCoins]" dataDxfId="84"/>
-    <tableColumn id="3" name="[unlockPricePC]" dataDxfId="83"/>
-    <tableColumn id="4" name="[stat]" dataDxfId="82"/>
-    <tableColumn id="5" name="[percentage]" dataDxfId="81"/>
+    <tableColumn id="1" name="{specialDragonStatsUpgradeDefinitions}" dataDxfId="75"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="74"/>
+    <tableColumn id="6" name="[unlockPriceCoins]" dataDxfId="73"/>
+    <tableColumn id="3" name="[unlockPricePC]" dataDxfId="72"/>
+    <tableColumn id="4" name="[stat]" dataDxfId="71"/>
+    <tableColumn id="5" name="[percentage]" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table63" displayName="Table63" ref="B42:F48" totalsRowShown="0" headerRowBorderDxfId="80" tableBorderDxfId="79" totalsRowBorderDxfId="78">
-  <autoFilter ref="B42:F48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table63" displayName="Table63" ref="B41:F47" totalsRowShown="0" headerRowBorderDxfId="69" tableBorderDxfId="68" totalsRowBorderDxfId="67">
+  <autoFilter ref="B41:F47"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="{specialDragonPetsUpgradeDefinitions}" dataDxfId="77"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="76"/>
-    <tableColumn id="6" name="[unlockPriceCoins]" dataDxfId="75"/>
-    <tableColumn id="3" name="[unlockPricePC]" dataDxfId="74"/>
-    <tableColumn id="4" name="[maxPets]" dataDxfId="73"/>
+    <tableColumn id="1" name="{specialDragonPetsUpgradeDefinitions}" dataDxfId="66"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="65"/>
+    <tableColumn id="6" name="[unlockPriceCoins]" dataDxfId="64"/>
+    <tableColumn id="3" name="[unlockPricePC]" dataDxfId="63"/>
+    <tableColumn id="4" name="[maxPets]" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B12:BC18" totalsRowShown="0" headerRowBorderDxfId="72" totalsRowBorderDxfId="71">
-  <autoFilter ref="B12:BC18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B11:BC17" totalsRowShown="0" headerRowBorderDxfId="61" totalsRowBorderDxfId="60">
+  <autoFilter ref="B11:BC17"/>
   <tableColumns count="54">
-    <tableColumn id="1" name="{specialDragonTierDefinitions}" dataDxfId="70"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="69"/>
-    <tableColumn id="3" name="[tier]" dataDxfId="68"/>
-    <tableColumn id="4" name="[order]" dataDxfId="67"/>
-    <tableColumn id="5" name="[mainProgressionRestriction]" dataDxfId="66"/>
-    <tableColumn id="6" name="[unlockPriceCoins]" dataDxfId="65"/>
-    <tableColumn id="7" name="[unlockPricePC]" dataDxfId="64"/>
-    <tableColumn id="8" name="[defaultSize]" dataDxfId="63"/>
-    <tableColumn id="9" name="[cameraFrameWidthModifier]" dataDxfId="62"/>
-    <tableColumn id="10" name="[health]" dataDxfId="61"/>
-    <tableColumn id="11" name="[healthDrain]" dataDxfId="60"/>
-    <tableColumn id="12" name="[healthDrainSpacePlus]" dataDxfId="59"/>
-    <tableColumn id="13" name="[healthDrainAmpPerSecond]" dataDxfId="58"/>
-    <tableColumn id="14" name="[sessionStartHealthDrainTime]" dataDxfId="57"/>
-    <tableColumn id="15" name="[sessionStartHealthDrainModifier]" dataDxfId="56"/>
-    <tableColumn id="16" name="[scale]" dataDxfId="55"/>
-    <tableColumn id="17" name="[boostMultiplier]" dataDxfId="54"/>
-    <tableColumn id="18" name="[energyBase]" dataDxfId="53"/>
-    <tableColumn id="19" name="[energyDrain]" dataDxfId="52"/>
-    <tableColumn id="20" name="[energyRefillRate]" dataDxfId="51"/>
-    <tableColumn id="21" name="[furyBaseLength]" dataDxfId="50"/>
-    <tableColumn id="22" name="[furyScoreMultiplier]" dataDxfId="49"/>
-    <tableColumn id="23" name="[furyBaseDuration]" dataDxfId="48"/>
-    <tableColumn id="24" name="[furyMax]" dataDxfId="47"/>
-    <tableColumn id="25" name="[scoreTextThresholdMultiplier]" dataDxfId="46"/>
-    <tableColumn id="26" name="[eatSpeedFactor]" dataDxfId="45"/>
-    <tableColumn id="27" name="[maxAlcohol]" dataDxfId="44"/>
-    <tableColumn id="28" name="[alcoholDrain]" dataDxfId="43"/>
-    <tableColumn id="29" name="[gamePrefab]" dataDxfId="42"/>
-    <tableColumn id="30" name="[menuPrefab]" dataDxfId="41"/>
-    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="40"/>
-    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="39"/>
-    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="38"/>
-    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="37"/>
-    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="36"/>
-    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="35"/>
-    <tableColumn id="37" name="[invincible]" dataDxfId="34"/>
-    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="33"/>
-    <tableColumn id="39" name="[eatEverything]" dataDxfId="32"/>
-    <tableColumn id="40" name="[modeDuration]" dataDxfId="31"/>
-    <tableColumn id="41" name="[petScale]" dataDxfId="30"/>
-    <tableColumn id="42" name="[tidName]" dataDxfId="29"/>
-    <tableColumn id="43" name="[tidDesc]" dataDxfId="28"/>
-    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="27"/>
-    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="26"/>
-    <tableColumn id="46" name="[force]" dataDxfId="25"/>
-    <tableColumn id="47" name="[mass]" dataDxfId="24"/>
-    <tableColumn id="48" name="[friction]" dataDxfId="23"/>
-    <tableColumn id="49" name="[gravityModifier]" dataDxfId="22"/>
-    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="21"/>
-    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="20"/>
-    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="19"/>
-    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="18"/>
-    <tableColumn id="54" name="[trackingSku]" dataDxfId="17"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="B3:L6" totalsRowShown="0" headerRowBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="B3:L6"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="14"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="13"/>
-    <tableColumn id="4" name="[order]" dataDxfId="12"/>
-    <tableColumn id="6" name="[unlockPriceCoins]" dataDxfId="11"/>
-    <tableColumn id="7" name="[unlockPricePC]" dataDxfId="10"/>
-    <tableColumn id="29" name="[gamePrefab]" dataDxfId="9"/>
-    <tableColumn id="30" name="[menuPrefab]" dataDxfId="8"/>
-    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="7"/>
-    <tableColumn id="42" name="[tidName]" dataDxfId="6"/>
-    <tableColumn id="43" name="[tidDesc]" dataDxfId="5"/>
-    <tableColumn id="54" name="[trackingSku]" dataDxfId="4"/>
+    <tableColumn id="1" name="{specialDragonTierDefinitions}" dataDxfId="59"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="58"/>
+    <tableColumn id="3" name="[tier]" dataDxfId="57"/>
+    <tableColumn id="4" name="[order]" dataDxfId="56"/>
+    <tableColumn id="5" name="[mainProgressionRestriction]" dataDxfId="55"/>
+    <tableColumn id="6" name="[unlockPriceCoins]" dataDxfId="54"/>
+    <tableColumn id="7" name="[unlockPricePC]" dataDxfId="53"/>
+    <tableColumn id="8" name="[defaultSize]" dataDxfId="52"/>
+    <tableColumn id="9" name="[cameraFrameWidthModifier]" dataDxfId="51"/>
+    <tableColumn id="10" name="[health]" dataDxfId="50"/>
+    <tableColumn id="11" name="[healthDrain]" dataDxfId="49"/>
+    <tableColumn id="12" name="[healthDrainSpacePlus]" dataDxfId="48"/>
+    <tableColumn id="13" name="[healthDrainAmpPerSecond]" dataDxfId="47"/>
+    <tableColumn id="14" name="[sessionStartHealthDrainTime]" dataDxfId="46"/>
+    <tableColumn id="15" name="[sessionStartHealthDrainModifier]" dataDxfId="45"/>
+    <tableColumn id="16" name="[scale]" dataDxfId="44"/>
+    <tableColumn id="17" name="[boostMultiplier]" dataDxfId="43"/>
+    <tableColumn id="18" name="[energyBase]" dataDxfId="42"/>
+    <tableColumn id="19" name="[energyDrain]" dataDxfId="41"/>
+    <tableColumn id="20" name="[energyRefillRate]" dataDxfId="40"/>
+    <tableColumn id="21" name="[furyBaseLength]" dataDxfId="39"/>
+    <tableColumn id="22" name="[furyScoreMultiplier]" dataDxfId="38"/>
+    <tableColumn id="23" name="[furyBaseDuration]" dataDxfId="37"/>
+    <tableColumn id="24" name="[furyMax]" dataDxfId="36"/>
+    <tableColumn id="25" name="[scoreTextThresholdMultiplier]" dataDxfId="35"/>
+    <tableColumn id="26" name="[eatSpeedFactor]" dataDxfId="34"/>
+    <tableColumn id="27" name="[maxAlcohol]" dataDxfId="33"/>
+    <tableColumn id="28" name="[alcoholDrain]" dataDxfId="32"/>
+    <tableColumn id="29" name="[gamePrefab]" dataDxfId="31"/>
+    <tableColumn id="30" name="[menuPrefab]" dataDxfId="30"/>
+    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="29"/>
+    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="28"/>
+    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="27"/>
+    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="26"/>
+    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="25"/>
+    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="24"/>
+    <tableColumn id="37" name="[invincible]" dataDxfId="23"/>
+    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="22"/>
+    <tableColumn id="39" name="[eatEverything]" dataDxfId="21"/>
+    <tableColumn id="40" name="[modeDuration]" dataDxfId="20"/>
+    <tableColumn id="41" name="[petScale]" dataDxfId="19"/>
+    <tableColumn id="42" name="[tidName]" dataDxfId="18"/>
+    <tableColumn id="43" name="[tidDesc]" dataDxfId="17"/>
+    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="16"/>
+    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="15"/>
+    <tableColumn id="46" name="[force]" dataDxfId="14"/>
+    <tableColumn id="47" name="[mass]" dataDxfId="13"/>
+    <tableColumn id="48" name="[friction]" dataDxfId="12"/>
+    <tableColumn id="49" name="[gravityModifier]" dataDxfId="11"/>
+    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="10"/>
+    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="9"/>
+    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="8"/>
+    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="7"/>
+    <tableColumn id="54" name="[trackingSku]" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4685,10 +4828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC48"/>
+  <dimension ref="A1:BM57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4726,9 +4869,9 @@
     <col min="55" max="55" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:65" ht="24" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4756,1467 +4899,2139 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+    <row r="2" spans="1:65" ht="161" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="122" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="123" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="124" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="125" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="126" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="V2" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB2" s="127" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF2" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM2" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN2" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO2" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP2" s="129" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ2" s="129" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR2" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS2" s="129" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT2" s="129" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU2" s="129" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV2" s="129" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW2" s="129" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX2" s="129" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY2" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ2" s="131" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA2" s="132" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB2" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC2" s="122" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD2" s="134" t="s">
+        <v>141</v>
+      </c>
+      <c r="BE2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BJ2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="BL2" s="122" t="s">
+        <v>50</v>
+      </c>
+      <c r="BM2" s="6" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:55" ht="128" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B3" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="136" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="136" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="137">
         <v>0</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="F3" s="137"/>
+      <c r="G3" s="138">
+        <v>0</v>
+      </c>
+      <c r="H3" s="139">
+        <v>0</v>
+      </c>
+      <c r="I3" s="140">
+        <v>35</v>
+      </c>
+      <c r="J3" s="141">
+        <v>45</v>
+      </c>
+      <c r="K3" s="142">
+        <v>1</v>
+      </c>
+      <c r="L3" s="143">
+        <v>-2</v>
+      </c>
+      <c r="M3" s="144">
+        <v>75</v>
+      </c>
+      <c r="N3" s="145">
+        <v>105</v>
+      </c>
+      <c r="O3" s="145">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P3" s="145">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="145">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="R3" s="146">
+        <v>30</v>
+      </c>
+      <c r="S3" s="146">
+        <v>0.5</v>
+      </c>
+      <c r="T3" s="144">
+        <v>0.46</v>
+      </c>
+      <c r="U3" s="145">
+        <v>0.71</v>
+      </c>
+      <c r="V3" s="147">
+        <v>14</v>
+      </c>
+      <c r="W3" s="145">
+        <v>1.95</v>
+      </c>
+      <c r="X3" s="145">
+        <v>100</v>
+      </c>
+      <c r="Y3" s="145" t="e">
+        <f>[1]!dragonDefinitions[[#This Row],['[energyBaseMin']]]+25</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z3" s="145">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="145">
+        <v>28</v>
+      </c>
+      <c r="AB3" s="147">
+        <v>250</v>
+      </c>
+      <c r="AC3" s="146">
+        <v>7.5</v>
+      </c>
+      <c r="AD3" s="145">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="146">
+        <v>8</v>
+      </c>
+      <c r="AF3" s="145">
+        <v>3000</v>
+      </c>
+      <c r="AG3" s="148">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="149">
+        <v>0.23</v>
+      </c>
+      <c r="AI3" s="148">
+        <f t="shared" ref="AI3:AI5" si="0">AH4</f>
+        <v>0.19</v>
+      </c>
+      <c r="AJ3" s="150">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="150">
+        <v>12</v>
+      </c>
+      <c r="AL3" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM3" s="151" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN3" s="151" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO3" s="151"/>
+      <c r="AP3" s="151"/>
+      <c r="AQ3" s="151">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AR3" s="151">
+        <v>2</v>
+      </c>
+      <c r="AS3" s="151">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="151">
+        <v>23</v>
+      </c>
+      <c r="AX3" s="151">
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="AY3" s="151">
+        <v>0.6</v>
+      </c>
+      <c r="AZ3" s="152" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA3" s="153" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB3" s="154">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BC3" s="155">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BD3" s="156">
+        <v>175</v>
+      </c>
+      <c r="BE3" s="157">
+        <v>200</v>
+      </c>
+      <c r="BF3" s="136">
+        <v>2</v>
+      </c>
+      <c r="BG3" s="136">
+        <v>9.5</v>
+      </c>
+      <c r="BH3" s="136">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="158">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BJ3" s="158">
+        <v>1.75</v>
+      </c>
+      <c r="BK3" s="158">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="158">
+        <v>8</v>
+      </c>
+      <c r="BM3" s="136" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B4" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="136" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="137">
+        <v>1</v>
+      </c>
+      <c r="F4" s="159" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="138">
+        <v>2000</v>
+      </c>
+      <c r="H4" s="139">
+        <v>60</v>
+      </c>
+      <c r="I4" s="140">
+        <v>35</v>
+      </c>
+      <c r="J4" s="141">
+        <v>45</v>
+      </c>
+      <c r="K4" s="142">
+        <v>3</v>
+      </c>
+      <c r="L4" s="143">
+        <v>-2</v>
+      </c>
+      <c r="M4" s="144">
+        <v>95</v>
+      </c>
+      <c r="N4" s="145">
+        <v>145</v>
+      </c>
+      <c r="O4" s="145">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P4" s="145">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="145">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="R4" s="146">
+        <v>30</v>
+      </c>
+      <c r="S4" s="146">
+        <v>0.5</v>
+      </c>
+      <c r="T4" s="160">
+        <v>0.8</v>
+      </c>
+      <c r="U4" s="161">
+        <v>0.95</v>
+      </c>
+      <c r="V4" s="147">
+        <v>16</v>
+      </c>
+      <c r="W4" s="145">
+        <v>1.75</v>
+      </c>
+      <c r="X4" s="145">
+        <v>100</v>
+      </c>
+      <c r="Y4" s="145" t="e">
+        <f>[1]!dragonDefinitions[[#This Row],['[energyBaseMin']]]+25</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z4" s="145">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="145">
         <v>10</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="AB4" s="147">
+        <v>275</v>
+      </c>
+      <c r="AC4" s="146">
+        <v>8</v>
+      </c>
+      <c r="AD4" s="145">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="146">
+        <v>9</v>
+      </c>
+      <c r="AF4" s="145">
+        <v>7000</v>
+      </c>
+      <c r="AG4" s="148">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="149">
+        <v>0.19</v>
+      </c>
+      <c r="AI4" s="148">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="AJ4" s="150">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="162">
+        <v>12</v>
+      </c>
+      <c r="AL4" s="163" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM4" s="151" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN4" s="151" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO4" s="151"/>
+      <c r="AP4" s="151"/>
+      <c r="AQ4" s="151">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AR4" s="151">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="151">
+        <v>2</v>
+      </c>
+      <c r="AT4" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="151">
+        <v>23</v>
+      </c>
+      <c r="AX4" s="151">
+        <v>0.7</v>
+      </c>
+      <c r="AY4" s="151">
+        <v>0.8</v>
+      </c>
+      <c r="AZ4" s="152" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA4" s="153" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB4" s="154">
+        <v>2.3E-3</v>
+      </c>
+      <c r="BC4" s="155">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BD4" s="156">
+        <v>210</v>
+      </c>
+      <c r="BE4" s="157">
+        <v>235</v>
+      </c>
+      <c r="BF4" s="136">
+        <v>2.1</v>
+      </c>
+      <c r="BG4" s="136">
+        <v>9.5</v>
+      </c>
+      <c r="BH4" s="136">
+        <v>1.7</v>
+      </c>
+      <c r="BI4" s="136">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BJ4" s="136">
+        <v>2.1</v>
+      </c>
+      <c r="BK4" s="136">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="136">
+        <v>8</v>
+      </c>
+      <c r="BM4" s="136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B5" s="164" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="165" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="137">
+        <v>2</v>
+      </c>
+      <c r="F5" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="166">
+        <v>11000</v>
+      </c>
+      <c r="H5" s="167">
+        <v>100</v>
+      </c>
+      <c r="I5" s="168">
+        <v>35</v>
+      </c>
+      <c r="J5" s="169">
+        <v>45</v>
+      </c>
+      <c r="K5" s="142">
+        <v>5</v>
+      </c>
+      <c r="L5" s="143">
+        <v>-2</v>
+      </c>
+      <c r="M5" s="144">
+        <v>140</v>
+      </c>
+      <c r="N5" s="161">
+        <v>200</v>
+      </c>
+      <c r="O5" s="161">
+        <v>1.5</v>
+      </c>
+      <c r="P5" s="161">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="145">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="R5" s="146">
+        <v>30</v>
+      </c>
+      <c r="S5" s="146">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="144">
+        <v>0.85</v>
+      </c>
+      <c r="U5" s="145">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V5" s="170">
+        <v>23.5</v>
+      </c>
+      <c r="W5" s="145">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="X5" s="145">
+        <v>100</v>
+      </c>
+      <c r="Y5" s="145" t="e">
+        <f>[1]!dragonDefinitions[[#This Row],['[energyBaseMin']]]+25</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z5" s="145">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="145">
+        <v>14</v>
+      </c>
+      <c r="AB5" s="170">
+        <v>300</v>
+      </c>
+      <c r="AC5" s="146">
+        <v>9</v>
+      </c>
+      <c r="AD5" s="161">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="171">
+        <v>9</v>
+      </c>
+      <c r="AF5" s="145">
+        <v>8000</v>
+      </c>
+      <c r="AG5" s="172">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="173">
+        <v>0.15</v>
+      </c>
+      <c r="AI5" s="148">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="174">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="175">
+        <v>12</v>
+      </c>
+      <c r="AL5" s="163" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM5" s="151" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN5" s="151" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO5" s="151"/>
+      <c r="AP5" s="151"/>
+      <c r="AQ5" s="151">
+        <v>2.1</v>
+      </c>
+      <c r="AR5" s="151">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="151">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="151">
+        <v>23</v>
+      </c>
+      <c r="AX5" s="151">
+        <v>0.7</v>
+      </c>
+      <c r="AY5" s="151">
+        <v>0.7</v>
+      </c>
+      <c r="AZ5" s="176" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA5" s="177" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB5" s="154">
+        <v>2E-3</v>
+      </c>
+      <c r="BC5" s="155">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BD5" s="156">
+        <v>240</v>
+      </c>
+      <c r="BE5" s="157">
+        <v>280</v>
+      </c>
+      <c r="BF5" s="136">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BG5" s="136">
+        <v>9.5</v>
+      </c>
+      <c r="BH5" s="136">
+        <v>1.7</v>
+      </c>
+      <c r="BI5" s="136">
+        <v>0.9</v>
+      </c>
+      <c r="BJ5" s="136">
+        <v>2.25</v>
+      </c>
+      <c r="BK5" s="136">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="136">
+        <v>8</v>
+      </c>
+      <c r="BM5" s="165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+    </row>
+    <row r="8" spans="1:65" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:65" ht="24" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+    </row>
+    <row r="11" spans="1:65" ht="161" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="H11" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="I11" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="U11" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y11" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC11" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD11" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="AE11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="AF11" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="AG11" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH11" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI11" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ11" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK11" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL11" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM11" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN11" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO11" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP11" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ11" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="AR11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="AS11" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT11" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU11" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV11" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW11" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX11" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY11" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ11" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB11" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC11" s="39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B4" s="49" t="s">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B12" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="52">
+      <c r="C12" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="51">
         <v>0</v>
       </c>
-      <c r="E4" s="54">
+      <c r="F12" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="53">
         <v>0</v>
       </c>
-      <c r="F4" s="55">
+      <c r="H12" s="54">
         <v>0</v>
       </c>
-      <c r="G4" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="69" t="s">
+      <c r="I12" s="55">
+        <v>5</v>
+      </c>
+      <c r="J12" s="56">
+        <v>-2</v>
+      </c>
+      <c r="K12" s="57">
+        <v>170</v>
+      </c>
+      <c r="L12" s="58">
+        <v>1.5</v>
+      </c>
+      <c r="M12" s="58">
+        <v>0</v>
+      </c>
+      <c r="N12" s="58">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O12" s="59">
+        <v>30</v>
+      </c>
+      <c r="P12" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="60">
+        <v>1</v>
+      </c>
+      <c r="R12" s="56">
+        <v>1</v>
+      </c>
+      <c r="S12" s="58">
+        <v>100</v>
+      </c>
+      <c r="T12" s="58">
+        <v>40</v>
+      </c>
+      <c r="U12" s="61">
+        <v>28</v>
+      </c>
+      <c r="V12" s="62">
+        <v>9</v>
+      </c>
+      <c r="W12" s="58">
+        <v>3</v>
+      </c>
+      <c r="X12" s="59">
+        <v>9</v>
+      </c>
+      <c r="Y12" s="61">
+        <v>8000</v>
+      </c>
+      <c r="Z12" s="63">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="60">
+        <v>0.13</v>
+      </c>
+      <c r="AB12" s="64">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="65">
+        <v>6</v>
+      </c>
+      <c r="AD12" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE12" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="AF12" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="71" t="s">
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="68"/>
+      <c r="AI12" s="68">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AJ12" s="68">
+        <v>2</v>
+      </c>
+      <c r="AK12" s="68">
+        <v>2</v>
+      </c>
+      <c r="AL12" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="68">
+        <v>10</v>
+      </c>
+      <c r="AP12" s="69">
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="AQ12" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="AR12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="50" t="s">
-        <v>126</v>
+      <c r="AS12" s="74">
+        <v>2E-3</v>
+      </c>
+      <c r="AT12" s="75">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU12" s="76">
+        <v>260</v>
+      </c>
+      <c r="AV12" s="47">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AW12" s="47">
+        <v>5</v>
+      </c>
+      <c r="AX12" s="47">
+        <v>1.7</v>
+      </c>
+      <c r="AY12" s="77">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AZ12" s="77">
+        <v>2.25</v>
+      </c>
+      <c r="BA12" s="77">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="77">
+        <v>8</v>
+      </c>
+      <c r="BC12" s="47" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B5" s="81" t="s">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B13" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="82" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="84">
+      <c r="C13" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="51">
+        <v>0</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="53">
+        <v>0</v>
+      </c>
+      <c r="H13" s="54">
+        <v>0</v>
+      </c>
+      <c r="I13" s="55">
+        <v>10</v>
+      </c>
+      <c r="J13" s="56">
+        <v>0</v>
+      </c>
+      <c r="K13" s="57">
+        <v>280</v>
+      </c>
+      <c r="L13" s="58">
+        <v>1.9</v>
+      </c>
+      <c r="M13" s="58">
+        <v>0</v>
+      </c>
+      <c r="N13" s="58">
+        <v>1.2E-2</v>
+      </c>
+      <c r="O13" s="59">
+        <v>30</v>
+      </c>
+      <c r="P13" s="59">
+        <v>0.6</v>
+      </c>
+      <c r="Q13" s="60">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R13" s="56">
         <v>1</v>
       </c>
-      <c r="E5" s="86">
+      <c r="S13" s="58">
+        <v>100</v>
+      </c>
+      <c r="T13" s="58">
+        <v>40</v>
+      </c>
+      <c r="U13" s="61">
+        <v>28</v>
+      </c>
+      <c r="V13" s="62">
+        <v>11</v>
+      </c>
+      <c r="W13" s="58">
+        <v>4</v>
+      </c>
+      <c r="X13" s="59">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="61">
+        <v>10000</v>
+      </c>
+      <c r="Z13" s="63">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="60">
+        <v>0.08</v>
+      </c>
+      <c r="AB13" s="64">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="64">
+        <v>6</v>
+      </c>
+      <c r="AD13" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE13" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF13" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="68"/>
+      <c r="AI13" s="68">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AJ13" s="68">
+        <v>2</v>
+      </c>
+      <c r="AK13" s="68">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="68">
+        <v>10</v>
+      </c>
+      <c r="AP13" s="69">
+        <v>0.7</v>
+      </c>
+      <c r="AQ13" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR13" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS13" s="74">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AT13" s="75">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU13" s="76">
+        <v>333</v>
+      </c>
+      <c r="AV13" s="47">
+        <v>2.5</v>
+      </c>
+      <c r="AW13" s="47">
+        <v>5</v>
+      </c>
+      <c r="AX13" s="47">
+        <v>1.7</v>
+      </c>
+      <c r="AY13" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AZ13" s="47">
+        <v>2.25</v>
+      </c>
+      <c r="BA13" s="47">
+        <v>9</v>
+      </c>
+      <c r="BB13" s="47">
+        <v>8</v>
+      </c>
+      <c r="BC13" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B14" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="51">
+        <v>0</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="53">
+        <v>0</v>
+      </c>
+      <c r="H14" s="54">
+        <v>0</v>
+      </c>
+      <c r="I14" s="55">
+        <v>15</v>
+      </c>
+      <c r="J14" s="56">
+        <v>0</v>
+      </c>
+      <c r="K14" s="57">
+        <v>400</v>
+      </c>
+      <c r="L14" s="58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M14" s="58">
+        <v>0</v>
+      </c>
+      <c r="N14" s="58">
+        <v>1.4E-2</v>
+      </c>
+      <c r="O14" s="59">
+        <v>25</v>
+      </c>
+      <c r="P14" s="59">
+        <v>0.7</v>
+      </c>
+      <c r="Q14" s="60">
+        <v>1.75</v>
+      </c>
+      <c r="R14" s="56">
+        <v>1</v>
+      </c>
+      <c r="S14" s="58">
+        <v>100</v>
+      </c>
+      <c r="T14" s="58">
+        <v>40</v>
+      </c>
+      <c r="U14" s="61">
+        <v>28</v>
+      </c>
+      <c r="V14" s="62">
+        <v>11.5</v>
+      </c>
+      <c r="W14" s="58">
+        <v>5</v>
+      </c>
+      <c r="X14" s="59">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="61">
+        <v>20000</v>
+      </c>
+      <c r="Z14" s="63">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="AB14" s="64">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="66">
+        <v>6</v>
+      </c>
+      <c r="AD14" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE14" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF14" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="68"/>
+      <c r="AI14" s="68">
+        <v>2.1</v>
+      </c>
+      <c r="AJ14" s="68">
+        <v>2</v>
+      </c>
+      <c r="AK14" s="68">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="68">
+        <v>10</v>
+      </c>
+      <c r="AP14" s="69">
+        <v>0.7</v>
+      </c>
+      <c r="AQ14" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR14" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS14" s="74">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AT14" s="75">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU14" s="76">
+        <v>475</v>
+      </c>
+      <c r="AV14" s="47">
+        <v>3.4</v>
+      </c>
+      <c r="AW14" s="47">
+        <v>5</v>
+      </c>
+      <c r="AX14" s="47">
+        <v>1.7</v>
+      </c>
+      <c r="AY14" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AZ14" s="47">
+        <v>2.25</v>
+      </c>
+      <c r="BA14" s="47">
+        <v>45</v>
+      </c>
+      <c r="BB14" s="47">
+        <v>15</v>
+      </c>
+      <c r="BC14" s="78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="51">
+        <v>0</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="53">
+        <v>0</v>
+      </c>
+      <c r="H15" s="54">
+        <v>0</v>
+      </c>
+      <c r="I15" s="55">
+        <v>25</v>
+      </c>
+      <c r="J15" s="56">
+        <v>0</v>
+      </c>
+      <c r="K15" s="57">
+        <v>430</v>
+      </c>
+      <c r="L15" s="58">
+        <v>2.4</v>
+      </c>
+      <c r="M15" s="58">
+        <v>0</v>
+      </c>
+      <c r="N15" s="58">
+        <v>1.6E-2</v>
+      </c>
+      <c r="O15" s="59">
+        <v>20</v>
+      </c>
+      <c r="P15" s="59">
+        <v>0.8</v>
+      </c>
+      <c r="Q15" s="60">
+        <v>2.1</v>
+      </c>
+      <c r="R15" s="56">
+        <v>1</v>
+      </c>
+      <c r="S15" s="58">
+        <v>100</v>
+      </c>
+      <c r="T15" s="58">
+        <v>40</v>
+      </c>
+      <c r="U15" s="61">
+        <v>28</v>
+      </c>
+      <c r="V15" s="62">
+        <v>12</v>
+      </c>
+      <c r="W15" s="58">
+        <v>6</v>
+      </c>
+      <c r="X15" s="59">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="61">
+        <v>30000</v>
+      </c>
+      <c r="Z15" s="63">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="60">
+        <v>0.04</v>
+      </c>
+      <c r="AB15" s="64">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="64">
+        <v>6</v>
+      </c>
+      <c r="AD15" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE15" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF15" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG15" s="68"/>
+      <c r="AH15" s="68"/>
+      <c r="AI15" s="68">
+        <v>2.1</v>
+      </c>
+      <c r="AJ15" s="68">
+        <v>2</v>
+      </c>
+      <c r="AK15" s="68">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="68">
+        <v>10</v>
+      </c>
+      <c r="AP15" s="69">
+        <v>0.7</v>
+      </c>
+      <c r="AQ15" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR15" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS15" s="74">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AT15" s="75">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU15" s="76">
+        <v>705</v>
+      </c>
+      <c r="AV15" s="47">
+        <v>4.7</v>
+      </c>
+      <c r="AW15" s="47">
+        <v>5</v>
+      </c>
+      <c r="AX15" s="47">
+        <v>1.7</v>
+      </c>
+      <c r="AY15" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AZ15" s="47">
+        <v>2.25</v>
+      </c>
+      <c r="BA15" s="47">
+        <v>59</v>
+      </c>
+      <c r="BB15" s="47">
+        <v>15</v>
+      </c>
+      <c r="BC15" s="78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B16" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="83">
+        <v>1</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="85">
         <v>2000</v>
       </c>
-      <c r="F5" s="87">
+      <c r="H16" s="86">
         <v>60</v>
       </c>
-      <c r="G5" s="96" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" s="97" t="s">
+      <c r="I16" s="87">
+        <v>3</v>
+      </c>
+      <c r="J16" s="88">
+        <v>0</v>
+      </c>
+      <c r="K16" s="89">
+        <v>95</v>
+      </c>
+      <c r="L16" s="90">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M16" s="90">
+        <v>1</v>
+      </c>
+      <c r="N16" s="90">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="O16" s="90">
         <v>30</v>
       </c>
-      <c r="I5" s="97" t="s">
+      <c r="P16" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="Q16" s="91">
+        <v>0.8</v>
+      </c>
+      <c r="R16" s="88">
+        <v>1.7</v>
+      </c>
+      <c r="S16" s="90">
+        <v>100</v>
+      </c>
+      <c r="T16" s="90">
+        <v>20</v>
+      </c>
+      <c r="U16" s="92">
+        <v>10</v>
+      </c>
+      <c r="V16" s="88">
+        <v>8</v>
+      </c>
+      <c r="W16" s="90">
+        <v>3</v>
+      </c>
+      <c r="X16" s="90">
+        <v>9</v>
+      </c>
+      <c r="Y16" s="92">
+        <v>7000</v>
+      </c>
+      <c r="Z16" s="93">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="94">
+        <v>0.19</v>
+      </c>
+      <c r="AB16" s="94">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="94">
+        <v>12</v>
+      </c>
+      <c r="AD16" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE16" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="99" t="s">
+      <c r="AF16" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG16" s="96"/>
+      <c r="AH16" s="96"/>
+      <c r="AI16" s="96">
+        <v>2.1</v>
+      </c>
+      <c r="AJ16" s="96">
+        <v>2</v>
+      </c>
+      <c r="AK16" s="96">
+        <v>2</v>
+      </c>
+      <c r="AL16" s="96" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="96" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="96" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="96">
+        <v>10</v>
+      </c>
+      <c r="AP16" s="97">
+        <v>0.7</v>
+      </c>
+      <c r="AQ16" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="100" t="s">
+      <c r="AR16" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="82" t="s">
-        <v>127</v>
+      <c r="AS16" s="100">
+        <v>1.9E-3</v>
+      </c>
+      <c r="AT16" s="101">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU16" s="102">
+        <v>300</v>
+      </c>
+      <c r="AV16" s="82">
+        <v>2.4</v>
+      </c>
+      <c r="AW16" s="82">
+        <v>9.5</v>
+      </c>
+      <c r="AX16" s="82">
+        <v>1.7</v>
+      </c>
+      <c r="AY16" s="82">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="82">
+        <v>1.6</v>
+      </c>
+      <c r="BA16" s="82">
+        <v>9</v>
+      </c>
+      <c r="BB16" s="82">
+        <v>6</v>
+      </c>
+      <c r="BC16" s="103" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B6" s="105" t="s">
+    <row r="17" spans="1:55" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="106" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="84">
+      <c r="C17" s="105" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="83">
         <v>2</v>
       </c>
-      <c r="E6" s="109">
+      <c r="F17" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="108">
         <v>11000</v>
       </c>
-      <c r="F6" s="110">
+      <c r="H17" s="109">
         <v>100</v>
       </c>
-      <c r="G6" s="96" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="97" t="s">
+      <c r="I17" s="110">
+        <v>5</v>
+      </c>
+      <c r="J17" s="111">
+        <v>0</v>
+      </c>
+      <c r="K17" s="112">
+        <v>80</v>
+      </c>
+      <c r="L17" s="113">
+        <v>1.5</v>
+      </c>
+      <c r="M17" s="113">
+        <v>1</v>
+      </c>
+      <c r="N17" s="113">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O17" s="113">
+        <v>30</v>
+      </c>
+      <c r="P17" s="113">
+        <v>0.5</v>
+      </c>
+      <c r="Q17" s="114">
+        <v>0.85</v>
+      </c>
+      <c r="R17" s="111">
+        <v>2.1</v>
+      </c>
+      <c r="S17" s="113">
+        <v>100</v>
+      </c>
+      <c r="T17" s="113">
+        <v>40</v>
+      </c>
+      <c r="U17" s="115">
+        <v>14</v>
+      </c>
+      <c r="V17" s="111">
+        <v>9</v>
+      </c>
+      <c r="W17" s="113">
+        <v>3</v>
+      </c>
+      <c r="X17" s="113">
+        <v>9</v>
+      </c>
+      <c r="Y17" s="115">
+        <v>8000</v>
+      </c>
+      <c r="Z17" s="116">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="114">
+        <v>0.15</v>
+      </c>
+      <c r="AB17" s="114">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="94">
+        <v>12</v>
+      </c>
+      <c r="AD17" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE17" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="97" t="s">
+      <c r="AF17" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="99" t="s">
+      <c r="AG17" s="96"/>
+      <c r="AH17" s="96"/>
+      <c r="AI17" s="96">
+        <v>2</v>
+      </c>
+      <c r="AJ17" s="96">
+        <v>2</v>
+      </c>
+      <c r="AK17" s="96">
+        <v>2</v>
+      </c>
+      <c r="AL17" s="96" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="96" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="96" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="96">
+        <v>10</v>
+      </c>
+      <c r="AP17" s="97">
+        <v>0.7</v>
+      </c>
+      <c r="AQ17" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="100" t="s">
+      <c r="AR17" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="106" t="s">
-        <v>130</v>
+      <c r="AS17" s="100">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AT17" s="101">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU17" s="102">
+        <v>322</v>
+      </c>
+      <c r="AV17" s="82">
+        <v>2.5</v>
+      </c>
+      <c r="AW17" s="82">
+        <v>9.5</v>
+      </c>
+      <c r="AX17" s="82">
+        <v>1.7</v>
+      </c>
+      <c r="AY17" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="AZ17" s="82">
+        <v>1.9</v>
+      </c>
+      <c r="BA17" s="82">
+        <v>9</v>
+      </c>
+      <c r="BB17" s="82">
+        <v>6</v>
+      </c>
+      <c r="BC17" s="103" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="F8" s="47" t="s">
+    <row r="18" spans="1:55" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="178" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="179"/>
+      <c r="K18" s="180" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="181"/>
+      <c r="M18" s="181"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="182"/>
+      <c r="Q18" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="183" t="s">
+        <v>16</v>
+      </c>
+      <c r="S18" s="184"/>
+      <c r="T18" s="184"/>
+      <c r="U18" s="185"/>
+      <c r="V18" s="186" t="s">
+        <v>15</v>
+      </c>
+      <c r="W18" s="187"/>
+      <c r="X18" s="187"/>
+      <c r="Y18" s="188"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="21" spans="1:55" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:55" ht="24" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="79" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:55" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:55" ht="24" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
+    <row r="24" spans="1:55" ht="185" x14ac:dyDescent="0.2">
+      <c r="B24" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-    </row>
-    <row r="12" spans="1:55" ht="161" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="6" t="s">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B25" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="24">
         <v>0</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="P12" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="U12" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="V12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="W12" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y12" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z12" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC12" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE12" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF12" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG12" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH12" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI12" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ12" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK12" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL12" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM12" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN12" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO12" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP12" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ12" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR12" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS12" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT12" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU12" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV12" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW12" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX12" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY12" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ12" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA12" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB12" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC12" s="39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B13" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="52">
+      <c r="E25" s="25">
         <v>0</v>
       </c>
-      <c r="F13" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="54">
-        <v>0</v>
-      </c>
-      <c r="H13" s="55">
-        <v>0</v>
-      </c>
-      <c r="I13" s="56">
-        <v>5</v>
-      </c>
-      <c r="J13" s="57">
-        <v>-2</v>
-      </c>
-      <c r="K13" s="58">
-        <v>170</v>
-      </c>
-      <c r="L13" s="59">
-        <v>1.5</v>
-      </c>
-      <c r="M13" s="59">
-        <v>0</v>
-      </c>
-      <c r="N13" s="59">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="O13" s="60">
-        <v>30</v>
-      </c>
-      <c r="P13" s="60">
-        <v>0.5</v>
-      </c>
-      <c r="Q13" s="61">
-        <v>1</v>
-      </c>
-      <c r="R13" s="57">
-        <v>1</v>
-      </c>
-      <c r="S13" s="59">
-        <v>100</v>
-      </c>
-      <c r="T13" s="59">
-        <v>40</v>
-      </c>
-      <c r="U13" s="62">
-        <v>28</v>
-      </c>
-      <c r="V13" s="63">
-        <v>9</v>
-      </c>
-      <c r="W13" s="59">
-        <v>3</v>
-      </c>
-      <c r="X13" s="60">
-        <v>9</v>
-      </c>
-      <c r="Y13" s="62">
-        <v>8000</v>
-      </c>
-      <c r="Z13" s="64">
-        <v>2</v>
-      </c>
-      <c r="AA13" s="61">
-        <v>0.13</v>
-      </c>
-      <c r="AB13" s="65">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="66">
-        <v>6</v>
-      </c>
-      <c r="AD13" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE13" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF13" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="69">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AJ13" s="69">
-        <v>2</v>
-      </c>
-      <c r="AK13" s="69">
-        <v>2</v>
-      </c>
-      <c r="AL13" s="69" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="69" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="69" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="69">
-        <v>10</v>
-      </c>
-      <c r="AP13" s="70">
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="AQ13" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR13" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS13" s="75">
-        <v>2E-3</v>
-      </c>
-      <c r="AT13" s="76">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AU13" s="77">
-        <v>260</v>
-      </c>
-      <c r="AV13" s="48">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AW13" s="48">
-        <v>5</v>
-      </c>
-      <c r="AX13" s="48">
-        <v>1.7</v>
-      </c>
-      <c r="AY13" s="78">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AZ13" s="78">
-        <v>2.25</v>
-      </c>
-      <c r="BA13" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="78">
-        <v>8</v>
-      </c>
-      <c r="BC13" s="48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B14" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="52">
-        <v>0</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="54">
-        <v>0</v>
-      </c>
-      <c r="H14" s="55">
-        <v>0</v>
-      </c>
-      <c r="I14" s="56">
-        <v>10</v>
-      </c>
-      <c r="J14" s="57">
-        <v>0</v>
-      </c>
-      <c r="K14" s="58">
-        <v>280</v>
-      </c>
-      <c r="L14" s="59">
-        <v>1.9</v>
-      </c>
-      <c r="M14" s="59">
-        <v>0</v>
-      </c>
-      <c r="N14" s="59">
-        <v>1.2E-2</v>
-      </c>
-      <c r="O14" s="60">
-        <v>30</v>
-      </c>
-      <c r="P14" s="60">
-        <v>0.6</v>
-      </c>
-      <c r="Q14" s="61">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="R14" s="57">
-        <v>1</v>
-      </c>
-      <c r="S14" s="59">
-        <v>100</v>
-      </c>
-      <c r="T14" s="59">
-        <v>40</v>
-      </c>
-      <c r="U14" s="62">
-        <v>28</v>
-      </c>
-      <c r="V14" s="63">
-        <v>11</v>
-      </c>
-      <c r="W14" s="59">
-        <v>4</v>
-      </c>
-      <c r="X14" s="60">
-        <v>10</v>
-      </c>
-      <c r="Y14" s="62">
-        <v>10000</v>
-      </c>
-      <c r="Z14" s="64">
-        <v>3</v>
-      </c>
-      <c r="AA14" s="61">
-        <v>0.08</v>
-      </c>
-      <c r="AB14" s="65">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="65">
-        <v>6</v>
-      </c>
-      <c r="AD14" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE14" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF14" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG14" s="69"/>
-      <c r="AH14" s="69"/>
-      <c r="AI14" s="69">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AJ14" s="69">
-        <v>2</v>
-      </c>
-      <c r="AK14" s="69">
-        <v>2</v>
-      </c>
-      <c r="AL14" s="69" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="69" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="69" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO14" s="69">
-        <v>10</v>
-      </c>
-      <c r="AP14" s="70">
-        <v>0.7</v>
-      </c>
-      <c r="AQ14" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR14" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS14" s="75">
-        <v>1.8E-3</v>
-      </c>
-      <c r="AT14" s="76">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AU14" s="77">
-        <v>333</v>
-      </c>
-      <c r="AV14" s="48">
-        <v>2.5</v>
-      </c>
-      <c r="AW14" s="48">
-        <v>5</v>
-      </c>
-      <c r="AX14" s="48">
-        <v>1.7</v>
-      </c>
-      <c r="AY14" s="48">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AZ14" s="48">
-        <v>2.25</v>
-      </c>
-      <c r="BA14" s="48">
-        <v>9</v>
-      </c>
-      <c r="BB14" s="48">
-        <v>8</v>
-      </c>
-      <c r="BC14" s="48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B15" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="52">
-        <v>0</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="54">
-        <v>0</v>
-      </c>
-      <c r="H15" s="55">
-        <v>0</v>
-      </c>
-      <c r="I15" s="56">
-        <v>15</v>
-      </c>
-      <c r="J15" s="57">
-        <v>0</v>
-      </c>
-      <c r="K15" s="58">
-        <v>400</v>
-      </c>
-      <c r="L15" s="59">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M15" s="59">
-        <v>0</v>
-      </c>
-      <c r="N15" s="59">
-        <v>1.4E-2</v>
-      </c>
-      <c r="O15" s="60">
-        <v>25</v>
-      </c>
-      <c r="P15" s="60">
-        <v>0.7</v>
-      </c>
-      <c r="Q15" s="61">
-        <v>1.75</v>
-      </c>
-      <c r="R15" s="57">
-        <v>1</v>
-      </c>
-      <c r="S15" s="59">
-        <v>100</v>
-      </c>
-      <c r="T15" s="59">
-        <v>40</v>
-      </c>
-      <c r="U15" s="62">
-        <v>28</v>
-      </c>
-      <c r="V15" s="63">
-        <v>11.5</v>
-      </c>
-      <c r="W15" s="59">
-        <v>5</v>
-      </c>
-      <c r="X15" s="60">
-        <v>10</v>
-      </c>
-      <c r="Y15" s="62">
-        <v>20000</v>
-      </c>
-      <c r="Z15" s="64">
-        <v>4</v>
-      </c>
-      <c r="AA15" s="61">
-        <v>0.05</v>
-      </c>
-      <c r="AB15" s="65">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="67">
-        <v>6</v>
-      </c>
-      <c r="AD15" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE15" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF15" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="69">
-        <v>2.1</v>
-      </c>
-      <c r="AJ15" s="69">
-        <v>2</v>
-      </c>
-      <c r="AK15" s="69">
-        <v>2</v>
-      </c>
-      <c r="AL15" s="69" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="69" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="69" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO15" s="69">
-        <v>10</v>
-      </c>
-      <c r="AP15" s="70">
-        <v>0.7</v>
-      </c>
-      <c r="AQ15" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR15" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="AS15" s="75">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="AT15" s="76">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AU15" s="77">
-        <v>475</v>
-      </c>
-      <c r="AV15" s="48">
-        <v>3.4</v>
-      </c>
-      <c r="AW15" s="48">
-        <v>5</v>
-      </c>
-      <c r="AX15" s="48">
-        <v>1.7</v>
-      </c>
-      <c r="AY15" s="48">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AZ15" s="48">
-        <v>2.25</v>
-      </c>
-      <c r="BA15" s="48">
-        <v>45</v>
-      </c>
-      <c r="BB15" s="48">
-        <v>15</v>
-      </c>
-      <c r="BC15" s="79" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="52">
-        <v>0</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="54">
-        <v>0</v>
-      </c>
-      <c r="H16" s="55">
-        <v>0</v>
-      </c>
-      <c r="I16" s="56">
-        <v>25</v>
-      </c>
-      <c r="J16" s="57">
-        <v>0</v>
-      </c>
-      <c r="K16" s="58">
-        <v>430</v>
-      </c>
-      <c r="L16" s="59">
-        <v>2.4</v>
-      </c>
-      <c r="M16" s="59">
-        <v>0</v>
-      </c>
-      <c r="N16" s="59">
-        <v>1.6E-2</v>
-      </c>
-      <c r="O16" s="60">
-        <v>20</v>
-      </c>
-      <c r="P16" s="60">
-        <v>0.8</v>
-      </c>
-      <c r="Q16" s="61">
-        <v>2.1</v>
-      </c>
-      <c r="R16" s="57">
-        <v>1</v>
-      </c>
-      <c r="S16" s="59">
-        <v>100</v>
-      </c>
-      <c r="T16" s="59">
-        <v>40</v>
-      </c>
-      <c r="U16" s="62">
-        <v>28</v>
-      </c>
-      <c r="V16" s="63">
-        <v>12</v>
-      </c>
-      <c r="W16" s="59">
-        <v>6</v>
-      </c>
-      <c r="X16" s="60">
-        <v>10</v>
-      </c>
-      <c r="Y16" s="62">
-        <v>30000</v>
-      </c>
-      <c r="Z16" s="64">
-        <v>5</v>
-      </c>
-      <c r="AA16" s="61">
-        <v>0.04</v>
-      </c>
-      <c r="AB16" s="65">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="65">
-        <v>6</v>
-      </c>
-      <c r="AD16" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE16" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF16" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69">
-        <v>2.1</v>
-      </c>
-      <c r="AJ16" s="69">
-        <v>2</v>
-      </c>
-      <c r="AK16" s="69">
-        <v>2</v>
-      </c>
-      <c r="AL16" s="69" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="69" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN16" s="69" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO16" s="69">
-        <v>10</v>
-      </c>
-      <c r="AP16" s="70">
-        <v>0.7</v>
-      </c>
-      <c r="AQ16" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="AR16" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS16" s="75">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AT16" s="76">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AU16" s="77">
-        <v>705</v>
-      </c>
-      <c r="AV16" s="48">
-        <v>4.7</v>
-      </c>
-      <c r="AW16" s="48">
-        <v>5</v>
-      </c>
-      <c r="AX16" s="48">
-        <v>1.7</v>
-      </c>
-      <c r="AY16" s="48">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AZ16" s="48">
-        <v>2.25</v>
-      </c>
-      <c r="BA16" s="48">
-        <v>59</v>
-      </c>
-      <c r="BB16" s="48">
-        <v>15</v>
-      </c>
-      <c r="BC16" s="79" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B17" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="84">
-        <v>1</v>
-      </c>
-      <c r="F17" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="86">
-        <v>2000</v>
-      </c>
-      <c r="H17" s="87">
-        <v>60</v>
-      </c>
-      <c r="I17" s="88">
-        <v>3</v>
-      </c>
-      <c r="J17" s="89">
-        <v>0</v>
-      </c>
-      <c r="K17" s="90">
-        <v>95</v>
-      </c>
-      <c r="L17" s="91">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="M17" s="91">
-        <v>1</v>
-      </c>
-      <c r="N17" s="91">
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="O17" s="91">
-        <v>30</v>
-      </c>
-      <c r="P17" s="91">
-        <v>0.5</v>
-      </c>
-      <c r="Q17" s="92">
-        <v>0.8</v>
-      </c>
-      <c r="R17" s="89">
-        <v>1.7</v>
-      </c>
-      <c r="S17" s="91">
-        <v>100</v>
-      </c>
-      <c r="T17" s="91">
-        <v>20</v>
-      </c>
-      <c r="U17" s="93">
-        <v>10</v>
-      </c>
-      <c r="V17" s="89">
-        <v>8</v>
-      </c>
-      <c r="W17" s="91">
-        <v>3</v>
-      </c>
-      <c r="X17" s="91">
-        <v>9</v>
-      </c>
-      <c r="Y17" s="93">
-        <v>7000</v>
-      </c>
-      <c r="Z17" s="94">
-        <v>2</v>
-      </c>
-      <c r="AA17" s="95">
-        <v>0.19</v>
-      </c>
-      <c r="AB17" s="95">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="95">
-        <v>12</v>
-      </c>
-      <c r="AD17" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE17" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF17" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG17" s="97"/>
-      <c r="AH17" s="97"/>
-      <c r="AI17" s="97">
-        <v>2.1</v>
-      </c>
-      <c r="AJ17" s="97">
-        <v>2</v>
-      </c>
-      <c r="AK17" s="97">
-        <v>2</v>
-      </c>
-      <c r="AL17" s="97" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM17" s="97" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN17" s="97" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO17" s="97">
-        <v>10</v>
-      </c>
-      <c r="AP17" s="98">
-        <v>0.7</v>
-      </c>
-      <c r="AQ17" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR17" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS17" s="101">
-        <v>1.9E-3</v>
-      </c>
-      <c r="AT17" s="102">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AU17" s="103">
-        <v>300</v>
-      </c>
-      <c r="AV17" s="83">
-        <v>2.4</v>
-      </c>
-      <c r="AW17" s="83">
-        <v>9.5</v>
-      </c>
-      <c r="AX17" s="83">
-        <v>1.7</v>
-      </c>
-      <c r="AY17" s="83">
-        <v>1</v>
-      </c>
-      <c r="AZ17" s="83">
-        <v>1.6</v>
-      </c>
-      <c r="BA17" s="83">
-        <v>9</v>
-      </c>
-      <c r="BB17" s="83">
-        <v>6</v>
-      </c>
-      <c r="BC17" s="104" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:55" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="107" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="84">
-        <v>2</v>
-      </c>
-      <c r="F18" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="109">
-        <v>11000</v>
-      </c>
-      <c r="H18" s="110">
-        <v>100</v>
-      </c>
-      <c r="I18" s="111">
-        <v>5</v>
-      </c>
-      <c r="J18" s="112">
-        <v>0</v>
-      </c>
-      <c r="K18" s="113">
-        <v>80</v>
-      </c>
-      <c r="L18" s="114">
-        <v>1.5</v>
-      </c>
-      <c r="M18" s="114">
-        <v>1</v>
-      </c>
-      <c r="N18" s="114">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="O18" s="114">
-        <v>30</v>
-      </c>
-      <c r="P18" s="114">
-        <v>0.5</v>
-      </c>
-      <c r="Q18" s="115">
-        <v>0.85</v>
-      </c>
-      <c r="R18" s="112">
-        <v>2.1</v>
-      </c>
-      <c r="S18" s="114">
-        <v>100</v>
-      </c>
-      <c r="T18" s="114">
-        <v>40</v>
-      </c>
-      <c r="U18" s="116">
-        <v>14</v>
-      </c>
-      <c r="V18" s="112">
-        <v>9</v>
-      </c>
-      <c r="W18" s="114">
-        <v>3</v>
-      </c>
-      <c r="X18" s="114">
-        <v>9</v>
-      </c>
-      <c r="Y18" s="116">
-        <v>8000</v>
-      </c>
-      <c r="Z18" s="117">
-        <v>2</v>
-      </c>
-      <c r="AA18" s="115">
-        <v>0.15</v>
-      </c>
-      <c r="AB18" s="115">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="95">
-        <v>12</v>
-      </c>
-      <c r="AD18" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE18" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF18" s="97" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG18" s="97"/>
-      <c r="AH18" s="97"/>
-      <c r="AI18" s="97">
-        <v>2</v>
-      </c>
-      <c r="AJ18" s="97">
-        <v>2</v>
-      </c>
-      <c r="AK18" s="97">
-        <v>2</v>
-      </c>
-      <c r="AL18" s="97" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="97" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN18" s="97" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO18" s="97">
-        <v>10</v>
-      </c>
-      <c r="AP18" s="98">
-        <v>0.7</v>
-      </c>
-      <c r="AQ18" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR18" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="AS18" s="101">
-        <v>1.8E-3</v>
-      </c>
-      <c r="AT18" s="102">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AU18" s="103">
-        <v>322</v>
-      </c>
-      <c r="AV18" s="83">
-        <v>2.5</v>
-      </c>
-      <c r="AW18" s="83">
-        <v>9.5</v>
-      </c>
-      <c r="AX18" s="83">
-        <v>1.7</v>
-      </c>
-      <c r="AY18" s="83">
-        <v>0.5</v>
-      </c>
-      <c r="AZ18" s="83">
-        <v>1.9</v>
-      </c>
-      <c r="BA18" s="83">
-        <v>9</v>
-      </c>
-      <c r="BB18" s="83">
-        <v>6</v>
-      </c>
-      <c r="BC18" s="104" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:55" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="123" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="124"/>
-      <c r="K19" s="125" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="126"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="126"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="R19" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="S19" s="129"/>
-      <c r="T19" s="129"/>
-      <c r="U19" s="130"/>
-      <c r="V19" s="131" t="s">
-        <v>15</v>
-      </c>
-      <c r="W19" s="132"/>
-      <c r="X19" s="132"/>
-      <c r="Y19" s="133"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-    </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="22" spans="1:55" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:55" ht="24" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-    </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="F25" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="80" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:55" ht="185" x14ac:dyDescent="0.2">
-      <c r="B25" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>101</v>
+      <c r="G25" s="34" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.2">
@@ -6235,8 +7050,8 @@
       <c r="F26" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="G26" s="34" t="s">
-        <v>123</v>
+      <c r="G26" s="35" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.2">
@@ -6253,169 +7068,166 @@
         <v>0</v>
       </c>
       <c r="F27" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="35" t="s">
         <v>122</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="24">
+      <c r="C28" s="117" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="85">
         <v>0</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="86">
         <v>0</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>123</v>
+      <c r="F28" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="119">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="118" t="s">
+      <c r="C29" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="86">
-        <v>0</v>
-      </c>
-      <c r="E29" s="87">
-        <v>0</v>
-      </c>
-      <c r="F29" s="119" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" s="120">
-        <v>3</v>
+      <c r="D29" s="85">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="86">
+        <v>60</v>
+      </c>
+      <c r="F29" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="119">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="118" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="86">
-        <v>2000</v>
-      </c>
-      <c r="E30" s="87">
-        <v>60</v>
-      </c>
-      <c r="F30" s="119" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="120">
+      <c r="C30" s="120" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="108">
+        <v>11000</v>
+      </c>
+      <c r="E30" s="109">
+        <v>100</v>
+      </c>
+      <c r="F30" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="121">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B31" s="105" t="s">
+    <row r="31" spans="1:55" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:55" ht="24" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+    </row>
+    <row r="38" spans="2:27" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:27" ht="24" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+    </row>
+    <row r="41" spans="2:27" ht="182" x14ac:dyDescent="0.2">
+      <c r="B41" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B42" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="121" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="109">
-        <v>11000</v>
-      </c>
-      <c r="E31" s="110">
-        <v>100</v>
-      </c>
-      <c r="F31" s="119" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="122">
+      <c r="C42" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="24">
+        <v>0</v>
+      </c>
+      <c r="E42" s="25">
+        <v>0</v>
+      </c>
+      <c r="F42" s="13">
         <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:55" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:27" ht="24" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-    </row>
-    <row r="39" spans="2:27" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:27" ht="24" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-    </row>
-    <row r="42" spans="2:27" ht="182" x14ac:dyDescent="0.2">
-      <c r="B42" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.2">
@@ -6432,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.2">
@@ -6449,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.2">
@@ -6457,7 +7269,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D45" s="24">
         <v>0</v>
@@ -6466,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.2">
@@ -6477,122 +7289,307 @@
         <v>96</v>
       </c>
       <c r="D46" s="24">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E46" s="25">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F46" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="24">
-        <v>2000</v>
-      </c>
-      <c r="E47" s="25">
-        <v>60</v>
+      <c r="C47" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="27">
+        <v>11000</v>
+      </c>
+      <c r="E47" s="28">
+        <v>100</v>
       </c>
       <c r="F47" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="189" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="190" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="190" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" s="191" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" s="192" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" s="193" t="s">
+        <v>151</v>
+      </c>
+      <c r="H54" s="193" t="s">
+        <v>152</v>
+      </c>
+      <c r="I54" s="193" t="s">
+        <v>153</v>
+      </c>
+      <c r="J54" s="194" t="s">
+        <v>154</v>
+      </c>
+      <c r="K54" s="194" t="s">
+        <v>155</v>
+      </c>
+      <c r="L54" s="194" t="s">
+        <v>156</v>
+      </c>
+      <c r="M54" s="194" t="s">
+        <v>157</v>
+      </c>
+      <c r="N54" s="194" t="s">
+        <v>158</v>
+      </c>
+      <c r="O54" s="194" t="s">
+        <v>159</v>
+      </c>
+      <c r="P54" s="195" t="s">
         <v>3</v>
       </c>
+      <c r="Q54" s="196" t="s">
+        <v>11</v>
+      </c>
+      <c r="R54" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="S54" s="197" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B48" s="26" t="s">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B55" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="27">
-        <v>11000</v>
-      </c>
-      <c r="E48" s="28">
-        <v>100</v>
-      </c>
-      <c r="F48" s="13">
+      <c r="C55" s="136" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="136" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="199"/>
+      <c r="F55" s="200">
+        <v>0</v>
+      </c>
+      <c r="G55" s="201">
+        <v>0</v>
+      </c>
+      <c r="H55" s="201">
+        <v>0</v>
+      </c>
+      <c r="I55" s="201">
+        <v>0</v>
+      </c>
+      <c r="J55" s="202" t="s">
+        <v>161</v>
+      </c>
+      <c r="K55" s="202"/>
+      <c r="L55" s="202"/>
+      <c r="M55" s="202"/>
+      <c r="N55" s="203"/>
+      <c r="O55" s="203"/>
+      <c r="P55" s="204" t="str">
+        <f t="shared" ref="P55:P57" si="1">UPPER(CONCATENATE("TID_","SKIN",SUBSTITUTE(C55,"dragon",""),"_NAME"))</f>
+        <v>TID_SKIN_HELICOPTER_0_NAME</v>
+      </c>
+      <c r="Q55" s="205" t="str">
+        <f t="shared" ref="Q55:Q57" si="2">UPPER(CONCATENATE("TID_",C55,"_DESC"))</f>
+        <v>TID_DRAGON_HELICOPTER_0_DESC</v>
+      </c>
+      <c r="R55" s="205" t="s">
+        <v>162</v>
+      </c>
+      <c r="S55" s="206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="207" t="s">
         <v>2</v>
+      </c>
+      <c r="C56" s="136" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="136" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" s="208"/>
+      <c r="F56" s="209">
+        <v>1</v>
+      </c>
+      <c r="G56" s="210">
+        <v>600</v>
+      </c>
+      <c r="H56" s="210">
+        <v>0</v>
+      </c>
+      <c r="I56" s="210">
+        <v>4</v>
+      </c>
+      <c r="J56" s="211" t="s">
+        <v>161</v>
+      </c>
+      <c r="K56" s="211"/>
+      <c r="L56" s="211"/>
+      <c r="M56" s="211"/>
+      <c r="N56" s="211"/>
+      <c r="O56" s="211"/>
+      <c r="P56" s="212" t="str">
+        <f t="shared" si="1"/>
+        <v>TID_SKIN_ELECTRIC_0_NAME</v>
+      </c>
+      <c r="Q56" s="213" t="str">
+        <f t="shared" si="2"/>
+        <v>TID_DRAGON_ELECTRIC_0_DESC</v>
+      </c>
+      <c r="R56" s="213" t="s">
+        <v>163</v>
+      </c>
+      <c r="S56" s="206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B57" s="198" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="165" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="165" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" s="199"/>
+      <c r="F57" s="200">
+        <v>0</v>
+      </c>
+      <c r="G57" s="201">
+        <v>0</v>
+      </c>
+      <c r="H57" s="201">
+        <v>0</v>
+      </c>
+      <c r="I57" s="201">
+        <v>0</v>
+      </c>
+      <c r="J57" s="202" t="s">
+        <v>161</v>
+      </c>
+      <c r="K57" s="202"/>
+      <c r="L57" s="202"/>
+      <c r="M57" s="202"/>
+      <c r="N57" s="203"/>
+      <c r="O57" s="203"/>
+      <c r="P57" s="204" t="str">
+        <f t="shared" si="1"/>
+        <v>TID_SKIN_SONIC_0_NAME</v>
+      </c>
+      <c r="Q57" s="205" t="str">
+        <f t="shared" si="2"/>
+        <v>TID_DRAGON_SONIC_0_DESC</v>
+      </c>
+      <c r="R57" s="205" t="s">
+        <v>164</v>
+      </c>
+      <c r="S57" s="206">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="V18:Y18"/>
   </mergeCells>
-  <conditionalFormatting sqref="C17:C18 C13">
-    <cfRule type="duplicateValues" dxfId="104" priority="19"/>
+  <conditionalFormatting sqref="C16:C17 C12">
+    <cfRule type="duplicateValues" dxfId="93" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="duplicateValues" dxfId="92" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="103" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="102" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="duplicateValues" dxfId="101" priority="16"/>
+  <conditionalFormatting sqref="C29:C30 C25">
+    <cfRule type="duplicateValues" dxfId="89" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C31 C26">
-    <cfRule type="duplicateValues" dxfId="100" priority="20"/>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="duplicateValues" dxfId="88" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="duplicateValues" dxfId="99" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="duplicateValues" dxfId="98" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="duplicateValues" dxfId="97" priority="23"/>
+  <conditionalFormatting sqref="C46:C47 C42">
+    <cfRule type="duplicateValues" dxfId="85" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47:C48 C43">
-    <cfRule type="duplicateValues" dxfId="96" priority="12"/>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="duplicateValues" dxfId="84" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="duplicateValues" dxfId="95" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="duplicateValues" dxfId="94" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="duplicateValues" dxfId="93" priority="15"/>
+  <conditionalFormatting sqref="BC12:BC17">
+    <cfRule type="duplicateValues" dxfId="81" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC13:BC18">
-    <cfRule type="duplicateValues" dxfId="92" priority="11"/>
+  <conditionalFormatting sqref="C3:C5">
+    <cfRule type="duplicateValues" dxfId="80" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C6">
-    <cfRule type="duplicateValues" dxfId="91" priority="9"/>
+  <conditionalFormatting sqref="BM3:BM5">
+    <cfRule type="duplicateValues" dxfId="79" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
+  <conditionalFormatting sqref="D55">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
+  <conditionalFormatting sqref="C55">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
+  <conditionalFormatting sqref="C56">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="C57">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D13:D18">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D12:D17 D3:D5">
       <formula1>INDIRECT("dragonTierDefinitions['[sku']]")</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malinares/Projects/Dragon_Android/Docs/Content/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aortin/Documents/UBI/FD/Client_iOS/Docs/Content/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3A04BE-B67B-9045-9314-2668A4FA2E40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="special dragons" sheetId="10" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="171">
   <si>
     <t>[sku]</t>
   </si>
@@ -534,12 +535,18 @@
   </si>
   <si>
     <t>dragon_sonic_0</t>
+  </si>
+  <si>
+    <t>[type]</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1312,7 +1319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1833,6 +1840,81 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1866,79 +1948,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1946,6 +1956,156 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="94">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4296,156 +4456,6 @@
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4474,92 +4484,92 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table6" displayName="Table6" ref="B24:G30" totalsRowShown="0" headerRowBorderDxfId="78" tableBorderDxfId="77" totalsRowBorderDxfId="76">
-  <autoFilter ref="B24:G30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table6" displayName="Table6" ref="B24:G30" totalsRowShown="0" headerRowBorderDxfId="93" tableBorderDxfId="92" totalsRowBorderDxfId="91">
+  <autoFilter ref="B24:G30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="{specialDragonStatsUpgradeDefinitions}" dataDxfId="75"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="74"/>
-    <tableColumn id="6" name="[unlockPriceCoins]" dataDxfId="73"/>
-    <tableColumn id="3" name="[unlockPricePC]" dataDxfId="72"/>
-    <tableColumn id="4" name="[stat]" dataDxfId="71"/>
-    <tableColumn id="5" name="[percentage]" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{specialDragonStatsUpgradeDefinitions}" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[unlockPriceCoins]" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="[unlockPricePC]" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[stat]" dataDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="[percentage]" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table63" displayName="Table63" ref="B41:F47" totalsRowShown="0" headerRowBorderDxfId="69" tableBorderDxfId="68" totalsRowBorderDxfId="67">
-  <autoFilter ref="B41:F47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table63" displayName="Table63" ref="B41:F47" totalsRowShown="0" headerRowBorderDxfId="84" tableBorderDxfId="83" totalsRowBorderDxfId="82">
+  <autoFilter ref="B41:F47" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="{specialDragonPetsUpgradeDefinitions}" dataDxfId="66"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="65"/>
-    <tableColumn id="6" name="[unlockPriceCoins]" dataDxfId="64"/>
-    <tableColumn id="3" name="[unlockPricePC]" dataDxfId="63"/>
-    <tableColumn id="4" name="[maxPets]" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="{specialDragonPetsUpgradeDefinitions}" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="[sku]" dataDxfId="80"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="[unlockPriceCoins]" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="[unlockPricePC]" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="[maxPets]" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B11:BC17" totalsRowShown="0" headerRowBorderDxfId="61" totalsRowBorderDxfId="60">
-  <autoFilter ref="B11:BC17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="B11:BC17" totalsRowShown="0" headerRowBorderDxfId="76" totalsRowBorderDxfId="75">
+  <autoFilter ref="B11:BC17" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="54">
-    <tableColumn id="1" name="{specialDragonTierDefinitions}" dataDxfId="59"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="58"/>
-    <tableColumn id="3" name="[tier]" dataDxfId="57"/>
-    <tableColumn id="4" name="[order]" dataDxfId="56"/>
-    <tableColumn id="5" name="[mainProgressionRestriction]" dataDxfId="55"/>
-    <tableColumn id="6" name="[unlockPriceCoins]" dataDxfId="54"/>
-    <tableColumn id="7" name="[unlockPricePC]" dataDxfId="53"/>
-    <tableColumn id="8" name="[defaultSize]" dataDxfId="52"/>
-    <tableColumn id="9" name="[cameraFrameWidthModifier]" dataDxfId="51"/>
-    <tableColumn id="10" name="[health]" dataDxfId="50"/>
-    <tableColumn id="11" name="[healthDrain]" dataDxfId="49"/>
-    <tableColumn id="12" name="[healthDrainSpacePlus]" dataDxfId="48"/>
-    <tableColumn id="13" name="[healthDrainAmpPerSecond]" dataDxfId="47"/>
-    <tableColumn id="14" name="[sessionStartHealthDrainTime]" dataDxfId="46"/>
-    <tableColumn id="15" name="[sessionStartHealthDrainModifier]" dataDxfId="45"/>
-    <tableColumn id="16" name="[scale]" dataDxfId="44"/>
-    <tableColumn id="17" name="[boostMultiplier]" dataDxfId="43"/>
-    <tableColumn id="18" name="[energyBase]" dataDxfId="42"/>
-    <tableColumn id="19" name="[energyDrain]" dataDxfId="41"/>
-    <tableColumn id="20" name="[energyRefillRate]" dataDxfId="40"/>
-    <tableColumn id="21" name="[furyBaseLength]" dataDxfId="39"/>
-    <tableColumn id="22" name="[furyScoreMultiplier]" dataDxfId="38"/>
-    <tableColumn id="23" name="[furyBaseDuration]" dataDxfId="37"/>
-    <tableColumn id="24" name="[furyMax]" dataDxfId="36"/>
-    <tableColumn id="25" name="[scoreTextThresholdMultiplier]" dataDxfId="35"/>
-    <tableColumn id="26" name="[eatSpeedFactor]" dataDxfId="34"/>
-    <tableColumn id="27" name="[maxAlcohol]" dataDxfId="33"/>
-    <tableColumn id="28" name="[alcoholDrain]" dataDxfId="32"/>
-    <tableColumn id="29" name="[gamePrefab]" dataDxfId="31"/>
-    <tableColumn id="30" name="[menuPrefab]" dataDxfId="30"/>
-    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="29"/>
-    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="28"/>
-    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="27"/>
-    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="26"/>
-    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="25"/>
-    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="24"/>
-    <tableColumn id="37" name="[invincible]" dataDxfId="23"/>
-    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="22"/>
-    <tableColumn id="39" name="[eatEverything]" dataDxfId="21"/>
-    <tableColumn id="40" name="[modeDuration]" dataDxfId="20"/>
-    <tableColumn id="41" name="[petScale]" dataDxfId="19"/>
-    <tableColumn id="42" name="[tidName]" dataDxfId="18"/>
-    <tableColumn id="43" name="[tidDesc]" dataDxfId="17"/>
-    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="16"/>
-    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="15"/>
-    <tableColumn id="46" name="[force]" dataDxfId="14"/>
-    <tableColumn id="47" name="[mass]" dataDxfId="13"/>
-    <tableColumn id="48" name="[friction]" dataDxfId="12"/>
-    <tableColumn id="49" name="[gravityModifier]" dataDxfId="11"/>
-    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="10"/>
-    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="9"/>
-    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="8"/>
-    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="7"/>
-    <tableColumn id="54" name="[trackingSku]" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="{specialDragonTierDefinitions}" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="[sku]" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="[tier]" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="[order]" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="[mainProgressionRestriction]" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="[unlockPriceCoins]" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="[unlockPricePC]" dataDxfId="68"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="[defaultSize]" dataDxfId="67"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="[cameraFrameWidthModifier]" dataDxfId="66"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="[health]" dataDxfId="65"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="[healthDrain]" dataDxfId="64"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="[healthDrainSpacePlus]" dataDxfId="63"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="[healthDrainAmpPerSecond]" dataDxfId="62"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="[sessionStartHealthDrainTime]" dataDxfId="61"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="[sessionStartHealthDrainModifier]" dataDxfId="60"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="[scale]" dataDxfId="59"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="[boostMultiplier]" dataDxfId="58"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="[energyBase]" dataDxfId="57"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="[energyDrain]" dataDxfId="56"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="[energyRefillRate]" dataDxfId="55"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="[furyBaseLength]" dataDxfId="54"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="[furyScoreMultiplier]" dataDxfId="53"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="[furyBaseDuration]" dataDxfId="52"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="[furyMax]" dataDxfId="51"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" name="[scoreTextThresholdMultiplier]" dataDxfId="50"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" name="[eatSpeedFactor]" dataDxfId="49"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" name="[maxAlcohol]" dataDxfId="48"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" name="[alcoholDrain]" dataDxfId="47"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" name="[gamePrefab]" dataDxfId="46"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" name="[menuPrefab]" dataDxfId="45"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" name="[resultsPrefab]" dataDxfId="44"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0200-000020000000}" name="[shadowFromDragon]" dataDxfId="43"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0200-000021000000}" name="[revealFromDragon]" dataDxfId="42"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0200-000022000000}" name="[sizeUpMultiplier]" dataDxfId="41"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0200-000023000000}" name="[speedUpMultiplier]" dataDxfId="40"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0200-000024000000}" name="[biteUpMultiplier]" dataDxfId="39"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0200-000025000000}" name="[invincible]" dataDxfId="38"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0200-000026000000}" name="[infiniteBoost]" dataDxfId="37"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0200-000027000000}" name="[eatEverything]" dataDxfId="36"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0200-000028000000}" name="[modeDuration]" dataDxfId="35"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0200-000029000000}" name="[petScale]" dataDxfId="34"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0200-00002A000000}" name="[tidName]" dataDxfId="33"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0200-00002B000000}" name="[tidDesc]" dataDxfId="32"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0200-00002C000000}" name="[statsBarRatio]" dataDxfId="31"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0200-00002D000000}" name="[furyBarRatio]" dataDxfId="30"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0200-00002E000000}" name="[force]" dataDxfId="29"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0200-00002F000000}" name="[mass]" dataDxfId="28"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0200-000030000000}" name="[friction]" dataDxfId="27"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0200-000031000000}" name="[gravityModifier]" dataDxfId="26"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0200-000032000000}" name="[airGravityModifier]" dataDxfId="25"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0200-000033000000}" name="[waterGravityModifier]" dataDxfId="24"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0200-000034000000}" name="[damageAnimationThreshold]" dataDxfId="23"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0200-000035000000}" name="[dotAnimationThreshold]" dataDxfId="22"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0200-000036000000}" name="[trackingSku]" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4827,11 +4837,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BN57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4869,7 +4879,7 @@
     <col min="55" max="55" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:66" ht="24" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>123</v>
       </c>
@@ -4899,7 +4909,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:65" ht="161" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:66" ht="161" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>92</v>
       </c>
@@ -4909,191 +4919,194 @@
       <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="E2" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="122" t="s">
+      <c r="G2" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="123" t="s">
+      <c r="H2" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="124" t="s">
+      <c r="I2" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="125" t="s">
+      <c r="J2" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="J2" s="126" t="s">
+      <c r="K2" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="V2" s="127" t="s">
+      <c r="W2" s="127" t="s">
         <v>134</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="Y2" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Z2" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="AA2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AB2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AB2" s="127" t="s">
+      <c r="AC2" s="127" t="s">
         <v>137</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AD2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AE2" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AF2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AF2" s="20" t="s">
+      <c r="AG2" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AI2" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AK2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AL2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AL2" s="128" t="s">
+      <c r="AM2" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="AM2" s="129" t="s">
+      <c r="AN2" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="AN2" s="129" t="s">
+      <c r="AO2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="AO2" s="129" t="s">
+      <c r="AP2" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="AP2" s="129" t="s">
+      <c r="AQ2" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="AQ2" s="129" t="s">
+      <c r="AR2" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="AR2" s="130" t="s">
+      <c r="AS2" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="AS2" s="129" t="s">
+      <c r="AT2" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="AT2" s="129" t="s">
+      <c r="AU2" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="AU2" s="129" t="s">
+      <c r="AV2" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="AV2" s="129" t="s">
+      <c r="AW2" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="AW2" s="129" t="s">
+      <c r="AX2" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="AX2" s="129" t="s">
+      <c r="AY2" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="AY2" s="129" t="s">
+      <c r="AZ2" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="AZ2" s="131" t="s">
+      <c r="BA2" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="BA2" s="132" t="s">
+      <c r="BB2" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="BB2" s="133" t="s">
+      <c r="BC2" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="BC2" s="122" t="s">
+      <c r="BD2" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="BD2" s="134" t="s">
+      <c r="BE2" s="134" t="s">
         <v>141</v>
       </c>
-      <c r="BE2" s="6" t="s">
+      <c r="BF2" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BG2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BG2" s="8" t="s">
+      <c r="BH2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="BH2" s="8" t="s">
+      <c r="BI2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BI2" s="6" t="s">
+      <c r="BJ2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BJ2" s="6" t="s">
+      <c r="BK2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BK2" s="7" t="s">
+      <c r="BL2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="BL2" s="122" t="s">
+      <c r="BM2" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="BM2" s="6" t="s">
+      <c r="BN2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B3" s="135" t="s">
         <v>2</v>
       </c>
@@ -5103,127 +5116,127 @@
       <c r="D3" s="136" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="137">
+      <c r="E3" s="214" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="137">
         <v>0</v>
       </c>
-      <c r="F3" s="137"/>
-      <c r="G3" s="138">
+      <c r="G3" s="137"/>
+      <c r="H3" s="138">
         <v>0</v>
       </c>
-      <c r="H3" s="139">
+      <c r="I3" s="139">
         <v>0</v>
       </c>
-      <c r="I3" s="140">
+      <c r="J3" s="140">
         <v>35</v>
       </c>
-      <c r="J3" s="141">
+      <c r="K3" s="141">
         <v>45</v>
       </c>
-      <c r="K3" s="142">
+      <c r="L3" s="142">
         <v>1</v>
       </c>
-      <c r="L3" s="143">
+      <c r="M3" s="143">
         <v>-2</v>
       </c>
-      <c r="M3" s="144">
+      <c r="N3" s="144">
         <v>75</v>
       </c>
-      <c r="N3" s="145">
+      <c r="O3" s="145">
         <v>105</v>
       </c>
-      <c r="O3" s="145">
+      <c r="P3" s="145">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P3" s="145">
+      <c r="Q3" s="145">
         <v>0</v>
       </c>
-      <c r="Q3" s="145">
+      <c r="R3" s="145">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="R3" s="146">
+      <c r="S3" s="146">
         <v>30</v>
       </c>
-      <c r="S3" s="146">
+      <c r="T3" s="146">
         <v>0.5</v>
       </c>
-      <c r="T3" s="144">
+      <c r="U3" s="144">
         <v>0.46</v>
       </c>
-      <c r="U3" s="145">
+      <c r="V3" s="145">
         <v>0.71</v>
       </c>
-      <c r="V3" s="147">
+      <c r="W3" s="147">
         <v>14</v>
       </c>
-      <c r="W3" s="145">
+      <c r="X3" s="145">
         <v>1.95</v>
       </c>
-      <c r="X3" s="145">
+      <c r="Y3" s="145">
         <v>100</v>
       </c>
-      <c r="Y3" s="145" t="e">
+      <c r="Z3" s="145" t="e">
         <f>[1]!dragonDefinitions[[#This Row],['[energyBaseMin']]]+25</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Z3" s="145">
+      <c r="AA3" s="145">
         <v>40</v>
       </c>
-      <c r="AA3" s="145">
+      <c r="AB3" s="145">
         <v>28</v>
       </c>
-      <c r="AB3" s="147">
+      <c r="AC3" s="147">
         <v>250</v>
       </c>
-      <c r="AC3" s="146">
+      <c r="AD3" s="146">
         <v>7.5</v>
       </c>
-      <c r="AD3" s="145">
+      <c r="AE3" s="145">
         <v>2</v>
       </c>
-      <c r="AE3" s="146">
+      <c r="AF3" s="146">
         <v>8</v>
       </c>
-      <c r="AF3" s="145">
+      <c r="AG3" s="145">
         <v>3000</v>
       </c>
-      <c r="AG3" s="148">
+      <c r="AH3" s="148">
         <v>1</v>
       </c>
-      <c r="AH3" s="149">
+      <c r="AI3" s="149">
         <v>0.23</v>
       </c>
-      <c r="AI3" s="148">
-        <f t="shared" ref="AI3:AI5" si="0">AH4</f>
+      <c r="AJ3" s="148">
+        <f>AI4</f>
         <v>0.19</v>
       </c>
-      <c r="AJ3" s="150">
+      <c r="AK3" s="150">
         <v>0</v>
       </c>
-      <c r="AK3" s="150">
+      <c r="AL3" s="150">
         <v>12</v>
       </c>
-      <c r="AL3" s="151" t="s">
+      <c r="AM3" s="151" t="s">
         <v>146</v>
-      </c>
-      <c r="AM3" s="151" t="s">
-        <v>48</v>
       </c>
       <c r="AN3" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="AO3" s="151"/>
+      <c r="AO3" s="151" t="s">
+        <v>48</v>
+      </c>
       <c r="AP3" s="151"/>
-      <c r="AQ3" s="151">
+      <c r="AQ3" s="151"/>
+      <c r="AR3" s="151">
         <v>4.0999999999999996</v>
-      </c>
-      <c r="AR3" s="151">
-        <v>2</v>
       </c>
       <c r="AS3" s="151">
         <v>2</v>
       </c>
-      <c r="AT3" s="151" t="b">
-        <v>1</v>
+      <c r="AT3" s="151">
+        <v>2</v>
       </c>
       <c r="AU3" s="151" t="b">
         <v>1</v>
@@ -5231,59 +5244,62 @@
       <c r="AV3" s="151" t="b">
         <v>1</v>
       </c>
-      <c r="AW3" s="151">
+      <c r="AW3" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="151">
         <v>23</v>
       </c>
-      <c r="AX3" s="151">
+      <c r="AY3" s="151">
         <v>0.55999999999999994</v>
       </c>
-      <c r="AY3" s="151">
+      <c r="AZ3" s="151">
         <v>0.6</v>
       </c>
-      <c r="AZ3" s="152" t="s">
+      <c r="BA3" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="BA3" s="153" t="s">
+      <c r="BB3" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="BB3" s="154">
+      <c r="BC3" s="154">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="BC3" s="155">
+      <c r="BD3" s="155">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="BD3" s="156">
+      <c r="BE3" s="156">
         <v>175</v>
       </c>
-      <c r="BE3" s="157">
+      <c r="BF3" s="157">
         <v>200</v>
       </c>
-      <c r="BF3" s="136">
+      <c r="BG3" s="136">
         <v>2</v>
       </c>
-      <c r="BG3" s="136">
+      <c r="BH3" s="136">
         <v>9.5</v>
       </c>
-      <c r="BH3" s="136">
+      <c r="BI3" s="136">
         <v>1</v>
       </c>
-      <c r="BI3" s="158">
+      <c r="BJ3" s="158">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BJ3" s="158">
+      <c r="BK3" s="158">
         <v>1.75</v>
       </c>
-      <c r="BK3" s="158">
+      <c r="BL3" s="158">
         <v>0</v>
       </c>
-      <c r="BL3" s="158">
+      <c r="BM3" s="158">
         <v>8</v>
       </c>
-      <c r="BM3" s="136" t="s">
+      <c r="BN3" s="136" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B4" s="135" t="s">
         <v>2</v>
       </c>
@@ -5293,129 +5309,129 @@
       <c r="D4" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="137">
+      <c r="E4" s="214" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="137">
         <v>1</v>
       </c>
-      <c r="F4" s="159" t="s">
+      <c r="G4" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="138">
+      <c r="H4" s="138">
         <v>2000</v>
       </c>
-      <c r="H4" s="139">
+      <c r="I4" s="139">
         <v>60</v>
       </c>
-      <c r="I4" s="140">
+      <c r="J4" s="140">
         <v>35</v>
       </c>
-      <c r="J4" s="141">
+      <c r="K4" s="141">
         <v>45</v>
       </c>
-      <c r="K4" s="142">
+      <c r="L4" s="142">
         <v>3</v>
       </c>
-      <c r="L4" s="143">
+      <c r="M4" s="143">
         <v>-2</v>
       </c>
-      <c r="M4" s="144">
+      <c r="N4" s="144">
         <v>95</v>
       </c>
-      <c r="N4" s="145">
+      <c r="O4" s="145">
         <v>145</v>
       </c>
-      <c r="O4" s="145">
+      <c r="P4" s="145">
         <v>1.1499999999999999</v>
       </c>
-      <c r="P4" s="145">
+      <c r="Q4" s="145">
         <v>0</v>
       </c>
-      <c r="Q4" s="145">
+      <c r="R4" s="145">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="R4" s="146">
+      <c r="S4" s="146">
         <v>30</v>
       </c>
-      <c r="S4" s="146">
+      <c r="T4" s="146">
         <v>0.5</v>
       </c>
-      <c r="T4" s="160">
+      <c r="U4" s="160">
         <v>0.8</v>
       </c>
-      <c r="U4" s="161">
+      <c r="V4" s="161">
         <v>0.95</v>
       </c>
-      <c r="V4" s="147">
+      <c r="W4" s="147">
         <v>16</v>
       </c>
-      <c r="W4" s="145">
+      <c r="X4" s="145">
         <v>1.75</v>
       </c>
-      <c r="X4" s="145">
+      <c r="Y4" s="145">
         <v>100</v>
       </c>
-      <c r="Y4" s="145" t="e">
+      <c r="Z4" s="145" t="e">
         <f>[1]!dragonDefinitions[[#This Row],['[energyBaseMin']]]+25</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Z4" s="145">
+      <c r="AA4" s="145">
         <v>20</v>
       </c>
-      <c r="AA4" s="145">
+      <c r="AB4" s="145">
         <v>10</v>
       </c>
-      <c r="AB4" s="147">
+      <c r="AC4" s="147">
         <v>275</v>
       </c>
-      <c r="AC4" s="146">
+      <c r="AD4" s="146">
         <v>8</v>
       </c>
-      <c r="AD4" s="145">
+      <c r="AE4" s="145">
         <v>3</v>
       </c>
-      <c r="AE4" s="146">
+      <c r="AF4" s="146">
         <v>9</v>
       </c>
-      <c r="AF4" s="145">
+      <c r="AG4" s="145">
         <v>7000</v>
       </c>
-      <c r="AG4" s="148">
+      <c r="AH4" s="148">
         <v>2</v>
       </c>
-      <c r="AH4" s="149">
+      <c r="AI4" s="149">
         <v>0.19</v>
       </c>
-      <c r="AI4" s="148">
-        <f t="shared" si="0"/>
+      <c r="AJ4" s="148">
+        <f t="shared" ref="AJ4" si="0">AI5</f>
         <v>0.15</v>
       </c>
-      <c r="AJ4" s="150">
+      <c r="AK4" s="150">
         <v>0</v>
       </c>
-      <c r="AK4" s="162">
+      <c r="AL4" s="162">
         <v>12</v>
       </c>
-      <c r="AL4" s="163" t="s">
+      <c r="AM4" s="163" t="s">
         <v>145</v>
-      </c>
-      <c r="AM4" s="151" t="s">
-        <v>44</v>
       </c>
       <c r="AN4" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="AO4" s="151"/>
+      <c r="AO4" s="151" t="s">
+        <v>44</v>
+      </c>
       <c r="AP4" s="151"/>
-      <c r="AQ4" s="151">
+      <c r="AQ4" s="151"/>
+      <c r="AR4" s="151">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="AR4" s="151">
-        <v>2</v>
       </c>
       <c r="AS4" s="151">
         <v>2</v>
       </c>
-      <c r="AT4" s="151" t="b">
-        <v>1</v>
+      <c r="AT4" s="151">
+        <v>2</v>
       </c>
       <c r="AU4" s="151" t="b">
         <v>1</v>
@@ -5423,59 +5439,62 @@
       <c r="AV4" s="151" t="b">
         <v>1</v>
       </c>
-      <c r="AW4" s="151">
+      <c r="AW4" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="151">
         <v>23</v>
       </c>
-      <c r="AX4" s="151">
+      <c r="AY4" s="151">
         <v>0.7</v>
       </c>
-      <c r="AY4" s="151">
+      <c r="AZ4" s="151">
         <v>0.8</v>
       </c>
-      <c r="AZ4" s="152" t="s">
+      <c r="BA4" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="BA4" s="153" t="s">
+      <c r="BB4" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="BB4" s="154">
+      <c r="BC4" s="154">
         <v>2.3E-3</v>
       </c>
-      <c r="BC4" s="155">
+      <c r="BD4" s="155">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="BD4" s="156">
+      <c r="BE4" s="156">
         <v>210</v>
       </c>
-      <c r="BE4" s="157">
+      <c r="BF4" s="157">
         <v>235</v>
       </c>
-      <c r="BF4" s="136">
+      <c r="BG4" s="136">
         <v>2.1</v>
       </c>
-      <c r="BG4" s="136">
+      <c r="BH4" s="136">
         <v>9.5</v>
       </c>
-      <c r="BH4" s="136">
+      <c r="BI4" s="136">
         <v>1.7</v>
       </c>
-      <c r="BI4" s="136">
+      <c r="BJ4" s="136">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BJ4" s="136">
+      <c r="BK4" s="136">
         <v>2.1</v>
       </c>
-      <c r="BK4" s="136">
+      <c r="BL4" s="136">
         <v>0</v>
       </c>
-      <c r="BL4" s="136">
+      <c r="BM4" s="136">
         <v>8</v>
       </c>
-      <c r="BM4" s="136" t="s">
+      <c r="BN4" s="136" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B5" s="164" t="s">
         <v>2</v>
       </c>
@@ -5485,129 +5504,129 @@
       <c r="D5" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="137">
+      <c r="E5" s="214" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="137">
         <v>2</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="G5" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="166">
+      <c r="H5" s="166">
         <v>11000</v>
       </c>
-      <c r="H5" s="167">
+      <c r="I5" s="167">
         <v>100</v>
       </c>
-      <c r="I5" s="168">
+      <c r="J5" s="168">
         <v>35</v>
       </c>
-      <c r="J5" s="169">
+      <c r="K5" s="169">
         <v>45</v>
       </c>
-      <c r="K5" s="142">
+      <c r="L5" s="142">
         <v>5</v>
       </c>
-      <c r="L5" s="143">
+      <c r="M5" s="143">
         <v>-2</v>
       </c>
-      <c r="M5" s="144">
+      <c r="N5" s="144">
         <v>140</v>
       </c>
-      <c r="N5" s="161">
+      <c r="O5" s="161">
         <v>200</v>
       </c>
-      <c r="O5" s="161">
+      <c r="P5" s="161">
         <v>1.5</v>
       </c>
-      <c r="P5" s="161">
+      <c r="Q5" s="161">
         <v>0</v>
       </c>
-      <c r="Q5" s="145">
+      <c r="R5" s="145">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="R5" s="146">
+      <c r="S5" s="146">
         <v>30</v>
       </c>
-      <c r="S5" s="146">
+      <c r="T5" s="146">
         <v>0.5</v>
       </c>
-      <c r="T5" s="144">
+      <c r="U5" s="144">
         <v>0.85</v>
       </c>
-      <c r="U5" s="145">
+      <c r="V5" s="145">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V5" s="170">
+      <c r="W5" s="170">
         <v>23.5</v>
       </c>
-      <c r="W5" s="145">
+      <c r="X5" s="145">
         <v>2.0099999999999998</v>
       </c>
-      <c r="X5" s="145">
+      <c r="Y5" s="145">
         <v>100</v>
       </c>
-      <c r="Y5" s="145" t="e">
+      <c r="Z5" s="145" t="e">
         <f>[1]!dragonDefinitions[[#This Row],['[energyBaseMin']]]+25</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Z5" s="145">
+      <c r="AA5" s="145">
         <v>40</v>
       </c>
-      <c r="AA5" s="145">
+      <c r="AB5" s="145">
         <v>14</v>
       </c>
-      <c r="AB5" s="170">
+      <c r="AC5" s="170">
         <v>300</v>
       </c>
-      <c r="AC5" s="146">
+      <c r="AD5" s="146">
         <v>9</v>
       </c>
-      <c r="AD5" s="161">
+      <c r="AE5" s="161">
         <v>3</v>
       </c>
-      <c r="AE5" s="171">
+      <c r="AF5" s="171">
         <v>9</v>
       </c>
-      <c r="AF5" s="145">
+      <c r="AG5" s="145">
         <v>8000</v>
       </c>
-      <c r="AG5" s="172">
+      <c r="AH5" s="172">
         <v>2</v>
       </c>
-      <c r="AH5" s="173">
+      <c r="AI5" s="173">
         <v>0.15</v>
       </c>
-      <c r="AI5" s="148">
-        <f t="shared" si="0"/>
+      <c r="AJ5" s="148">
+        <f>AH6</f>
         <v>0</v>
       </c>
-      <c r="AJ5" s="174">
+      <c r="AK5" s="174">
         <v>0</v>
       </c>
-      <c r="AK5" s="175">
+      <c r="AL5" s="175">
         <v>12</v>
       </c>
-      <c r="AL5" s="163" t="s">
+      <c r="AM5" s="163" t="s">
         <v>147</v>
       </c>
-      <c r="AM5" s="151" t="s">
+      <c r="AN5" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="AN5" s="151" t="s">
+      <c r="AO5" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="AO5" s="151"/>
       <c r="AP5" s="151"/>
-      <c r="AQ5" s="151">
+      <c r="AQ5" s="151"/>
+      <c r="AR5" s="151">
         <v>2.1</v>
-      </c>
-      <c r="AR5" s="151">
-        <v>2</v>
       </c>
       <c r="AS5" s="151">
         <v>2</v>
       </c>
-      <c r="AT5" s="151" t="b">
-        <v>1</v>
+      <c r="AT5" s="151">
+        <v>2</v>
       </c>
       <c r="AU5" s="151" t="b">
         <v>1</v>
@@ -5615,59 +5634,62 @@
       <c r="AV5" s="151" t="b">
         <v>1</v>
       </c>
-      <c r="AW5" s="151">
+      <c r="AW5" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="151">
         <v>23</v>
-      </c>
-      <c r="AX5" s="151">
-        <v>0.7</v>
       </c>
       <c r="AY5" s="151">
         <v>0.7</v>
       </c>
-      <c r="AZ5" s="176" t="s">
+      <c r="AZ5" s="151">
+        <v>0.7</v>
+      </c>
+      <c r="BA5" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="BA5" s="177" t="s">
+      <c r="BB5" s="177" t="s">
         <v>37</v>
       </c>
-      <c r="BB5" s="154">
+      <c r="BC5" s="154">
         <v>2E-3</v>
       </c>
-      <c r="BC5" s="155">
+      <c r="BD5" s="155">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="BD5" s="156">
+      <c r="BE5" s="156">
         <v>240</v>
       </c>
-      <c r="BE5" s="157">
+      <c r="BF5" s="157">
         <v>280</v>
       </c>
-      <c r="BF5" s="136">
+      <c r="BG5" s="136">
         <v>2.2000000000000002</v>
       </c>
-      <c r="BG5" s="136">
+      <c r="BH5" s="136">
         <v>9.5</v>
       </c>
-      <c r="BH5" s="136">
+      <c r="BI5" s="136">
         <v>1.7</v>
       </c>
-      <c r="BI5" s="136">
+      <c r="BJ5" s="136">
         <v>0.9</v>
       </c>
-      <c r="BJ5" s="136">
+      <c r="BK5" s="136">
         <v>2.25</v>
       </c>
-      <c r="BK5" s="136">
+      <c r="BL5" s="136">
         <v>0</v>
       </c>
-      <c r="BL5" s="136">
+      <c r="BM5" s="136">
         <v>8</v>
       </c>
-      <c r="BM5" s="165" t="s">
+      <c r="BN5" s="165" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -5696,7 +5718,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5725,8 +5747,8 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:65" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:65" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:66" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:66" ht="24" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>108</v>
       </c>
@@ -5756,7 +5778,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5785,7 +5807,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:65" ht="161" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" ht="161" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
         <v>124</v>
       </c>
@@ -5949,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B12" s="48" t="s">
         <v>2</v>
       </c>
@@ -6109,7 +6131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B13" s="48" t="s">
         <v>2</v>
       </c>
@@ -6269,7 +6291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B14" s="48" t="s">
         <v>2</v>
       </c>
@@ -6429,7 +6451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="48" t="s">
         <v>2</v>
@@ -6590,7 +6612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B16" s="80" t="s">
         <v>2</v>
       </c>
@@ -6918,33 +6940,33 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="178" t="s">
+      <c r="I18" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="179"/>
-      <c r="K18" s="180" t="s">
+      <c r="J18" s="204"/>
+      <c r="K18" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="181"/>
-      <c r="M18" s="181"/>
-      <c r="N18" s="181"/>
-      <c r="O18" s="181"/>
-      <c r="P18" s="182"/>
+      <c r="L18" s="206"/>
+      <c r="M18" s="206"/>
+      <c r="N18" s="206"/>
+      <c r="O18" s="206"/>
+      <c r="P18" s="207"/>
       <c r="Q18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="R18" s="183" t="s">
+      <c r="R18" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="S18" s="184"/>
-      <c r="T18" s="184"/>
-      <c r="U18" s="185"/>
-      <c r="V18" s="186" t="s">
+      <c r="S18" s="209"/>
+      <c r="T18" s="209"/>
+      <c r="U18" s="210"/>
+      <c r="V18" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="W18" s="187"/>
-      <c r="X18" s="187"/>
-      <c r="Y18" s="188"/>
+      <c r="W18" s="212"/>
+      <c r="X18" s="212"/>
+      <c r="Y18" s="213"/>
       <c r="Z18" s="30"/>
       <c r="AA18" s="30"/>
       <c r="AB18" s="30"/>
@@ -7316,63 +7338,63 @@
       </c>
     </row>
     <row r="54" spans="2:19" ht="137" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="189" t="s">
+      <c r="B54" s="178" t="s">
         <v>165</v>
       </c>
-      <c r="C54" s="190" t="s">
+      <c r="C54" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="D54" s="190" t="s">
+      <c r="D54" s="179" t="s">
         <v>148</v>
       </c>
-      <c r="E54" s="191" t="s">
+      <c r="E54" s="180" t="s">
         <v>149</v>
       </c>
-      <c r="F54" s="192" t="s">
+      <c r="F54" s="181" t="s">
         <v>150</v>
       </c>
-      <c r="G54" s="193" t="s">
+      <c r="G54" s="182" t="s">
         <v>151</v>
       </c>
-      <c r="H54" s="193" t="s">
+      <c r="H54" s="182" t="s">
         <v>152</v>
       </c>
-      <c r="I54" s="193" t="s">
+      <c r="I54" s="182" t="s">
         <v>153</v>
       </c>
-      <c r="J54" s="194" t="s">
+      <c r="J54" s="183" t="s">
         <v>154</v>
       </c>
-      <c r="K54" s="194" t="s">
+      <c r="K54" s="183" t="s">
         <v>155</v>
       </c>
-      <c r="L54" s="194" t="s">
+      <c r="L54" s="183" t="s">
         <v>156</v>
       </c>
-      <c r="M54" s="194" t="s">
+      <c r="M54" s="183" t="s">
         <v>157</v>
       </c>
-      <c r="N54" s="194" t="s">
+      <c r="N54" s="183" t="s">
         <v>158</v>
       </c>
-      <c r="O54" s="194" t="s">
+      <c r="O54" s="183" t="s">
         <v>159</v>
       </c>
-      <c r="P54" s="195" t="s">
+      <c r="P54" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="Q54" s="196" t="s">
+      <c r="Q54" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="R54" s="196" t="s">
+      <c r="R54" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="S54" s="197" t="s">
+      <c r="S54" s="186" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B55" s="198" t="s">
+      <c r="B55" s="187" t="s">
         <v>2</v>
       </c>
       <c r="C55" s="136" t="s">
@@ -7381,44 +7403,44 @@
       <c r="D55" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="E55" s="199"/>
-      <c r="F55" s="200">
+      <c r="E55" s="188"/>
+      <c r="F55" s="189">
         <v>0</v>
       </c>
-      <c r="G55" s="201">
+      <c r="G55" s="190">
         <v>0</v>
       </c>
-      <c r="H55" s="201">
+      <c r="H55" s="190">
         <v>0</v>
       </c>
-      <c r="I55" s="201">
+      <c r="I55" s="190">
         <v>0</v>
       </c>
-      <c r="J55" s="202" t="s">
+      <c r="J55" s="191" t="s">
         <v>161</v>
       </c>
-      <c r="K55" s="202"/>
-      <c r="L55" s="202"/>
-      <c r="M55" s="202"/>
-      <c r="N55" s="203"/>
-      <c r="O55" s="203"/>
-      <c r="P55" s="204" t="str">
+      <c r="K55" s="191"/>
+      <c r="L55" s="191"/>
+      <c r="M55" s="191"/>
+      <c r="N55" s="192"/>
+      <c r="O55" s="192"/>
+      <c r="P55" s="193" t="str">
         <f t="shared" ref="P55:P57" si="1">UPPER(CONCATENATE("TID_","SKIN",SUBSTITUTE(C55,"dragon",""),"_NAME"))</f>
         <v>TID_SKIN_HELICOPTER_0_NAME</v>
       </c>
-      <c r="Q55" s="205" t="str">
+      <c r="Q55" s="194" t="str">
         <f t="shared" ref="Q55:Q57" si="2">UPPER(CONCATENATE("TID_",C55,"_DESC"))</f>
         <v>TID_DRAGON_HELICOPTER_0_DESC</v>
       </c>
-      <c r="R55" s="205" t="s">
+      <c r="R55" s="194" t="s">
         <v>162</v>
       </c>
-      <c r="S55" s="206">
+      <c r="S55" s="195">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="207" t="s">
+      <c r="B56" s="196" t="s">
         <v>2</v>
       </c>
       <c r="C56" s="136" t="s">
@@ -7427,44 +7449,44 @@
       <c r="D56" s="136" t="s">
         <v>125</v>
       </c>
-      <c r="E56" s="208"/>
-      <c r="F56" s="209">
+      <c r="E56" s="197"/>
+      <c r="F56" s="198">
         <v>1</v>
       </c>
-      <c r="G56" s="210">
+      <c r="G56" s="199">
         <v>600</v>
       </c>
-      <c r="H56" s="210">
+      <c r="H56" s="199">
         <v>0</v>
       </c>
-      <c r="I56" s="210">
+      <c r="I56" s="199">
         <v>4</v>
       </c>
-      <c r="J56" s="211" t="s">
+      <c r="J56" s="200" t="s">
         <v>161</v>
       </c>
-      <c r="K56" s="211"/>
-      <c r="L56" s="211"/>
-      <c r="M56" s="211"/>
-      <c r="N56" s="211"/>
-      <c r="O56" s="211"/>
-      <c r="P56" s="212" t="str">
+      <c r="K56" s="200"/>
+      <c r="L56" s="200"/>
+      <c r="M56" s="200"/>
+      <c r="N56" s="200"/>
+      <c r="O56" s="200"/>
+      <c r="P56" s="201" t="str">
         <f t="shared" si="1"/>
         <v>TID_SKIN_ELECTRIC_0_NAME</v>
       </c>
-      <c r="Q56" s="213" t="str">
+      <c r="Q56" s="202" t="str">
         <f t="shared" si="2"/>
         <v>TID_DRAGON_ELECTRIC_0_DESC</v>
       </c>
-      <c r="R56" s="213" t="s">
+      <c r="R56" s="202" t="s">
         <v>163</v>
       </c>
-      <c r="S56" s="206">
+      <c r="S56" s="195">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B57" s="198" t="s">
+      <c r="B57" s="187" t="s">
         <v>2</v>
       </c>
       <c r="C57" s="165" t="s">
@@ -7473,39 +7495,39 @@
       <c r="D57" s="165" t="s">
         <v>126</v>
       </c>
-      <c r="E57" s="199"/>
-      <c r="F57" s="200">
+      <c r="E57" s="188"/>
+      <c r="F57" s="189">
         <v>0</v>
       </c>
-      <c r="G57" s="201">
+      <c r="G57" s="190">
         <v>0</v>
       </c>
-      <c r="H57" s="201">
+      <c r="H57" s="190">
         <v>0</v>
       </c>
-      <c r="I57" s="201">
+      <c r="I57" s="190">
         <v>0</v>
       </c>
-      <c r="J57" s="202" t="s">
+      <c r="J57" s="191" t="s">
         <v>161</v>
       </c>
-      <c r="K57" s="202"/>
-      <c r="L57" s="202"/>
-      <c r="M57" s="202"/>
-      <c r="N57" s="203"/>
-      <c r="O57" s="203"/>
-      <c r="P57" s="204" t="str">
+      <c r="K57" s="191"/>
+      <c r="L57" s="191"/>
+      <c r="M57" s="191"/>
+      <c r="N57" s="192"/>
+      <c r="O57" s="192"/>
+      <c r="P57" s="193" t="str">
         <f t="shared" si="1"/>
         <v>TID_SKIN_SONIC_0_NAME</v>
       </c>
-      <c r="Q57" s="205" t="str">
+      <c r="Q57" s="194" t="str">
         <f t="shared" si="2"/>
         <v>TID_DRAGON_SONIC_0_DESC</v>
       </c>
-      <c r="R57" s="205" t="s">
+      <c r="R57" s="194" t="s">
         <v>164</v>
       </c>
-      <c r="S57" s="206">
+      <c r="S57" s="195">
         <v>3</v>
       </c>
     </row>
@@ -7517,49 +7539,49 @@
     <mergeCell ref="V18:Y18"/>
   </mergeCells>
   <conditionalFormatting sqref="C16:C17 C12">
-    <cfRule type="duplicateValues" dxfId="93" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="92" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="91" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="90" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C30 C25">
-    <cfRule type="duplicateValues" dxfId="89" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="duplicateValues" dxfId="88" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="duplicateValues" dxfId="87" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="duplicateValues" dxfId="86" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C47 C42">
-    <cfRule type="duplicateValues" dxfId="85" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="duplicateValues" dxfId="84" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="duplicateValues" dxfId="83" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="duplicateValues" dxfId="82" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC12:BC17">
-    <cfRule type="duplicateValues" dxfId="81" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C5">
-    <cfRule type="duplicateValues" dxfId="80" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM3:BM5">
-    <cfRule type="duplicateValues" dxfId="79" priority="7"/>
+  <conditionalFormatting sqref="BN3:BN5">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
@@ -7579,9 +7601,12 @@
   <conditionalFormatting sqref="C57">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D12:D17 D3:D5">
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D12:D17 D3:D5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>INDIRECT("dragonTierDefinitions['[sku']]")</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{E0F4FA21-3726-AB43-946D-8E0F80332226}">
+      <formula1>"classic,special"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aortin/Documents/UBI/FD/Client_iOS/Docs/Content/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsemroud\Documents\Dragon\Docs\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3A04BE-B67B-9045-9314-2668A4FA2E40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500"/>
   </bookViews>
   <sheets>
     <sheet name="special dragons" sheetId="10" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="163">
   <si>
     <t>[sku]</t>
   </si>
@@ -414,66 +410,9 @@
     <t>[previousDragonSku]</t>
   </si>
   <si>
-    <t>[cameraDefaultZoom]</t>
-  </si>
-  <si>
-    <t>[cameraFarZoom]</t>
-  </si>
-  <si>
-    <t>[healthMin]</t>
-  </si>
-  <si>
-    <t>[healthMax]</t>
-  </si>
-  <si>
-    <t>[scaleMin]</t>
-  </si>
-  <si>
-    <t>[scaleMax]</t>
-  </si>
-  <si>
-    <t>[speedBase]</t>
-  </si>
-  <si>
-    <t>[energyBaseMin]</t>
-  </si>
-  <si>
-    <t>[energyBaseMax]</t>
-  </si>
-  <si>
-    <t>[furyBaseDamage]</t>
-  </si>
-  <si>
-    <t>[eatSpeedFactorMin]</t>
-  </si>
-  <si>
-    <t>[eatSpeedFactorMax]</t>
-  </si>
-  <si>
-    <t>[petScaleMenu]</t>
-  </si>
-  <si>
-    <t>[forceMin]</t>
-  </si>
-  <si>
-    <t>[forceMax]</t>
-  </si>
-  <si>
-    <t>tier_0</t>
-  </si>
-  <si>
     <t>dragon_helicopter</t>
   </si>
   <si>
-    <t>PF_DragonElectric</t>
-  </si>
-  <si>
-    <t>PF_DragonHelicopter</t>
-  </si>
-  <si>
-    <t>PF_DragonSonic</t>
-  </si>
-  <si>
     <t>[dragonSku]</t>
   </si>
   <si>
@@ -537,17 +476,50 @@
     <t>dragon_sonic_0</t>
   </si>
   <si>
-    <t>[type]</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>[unlockPriceGoldenFragments]</t>
+  </si>
+  <si>
+    <t>[hpBonusSteps]</t>
+  </si>
+  <si>
+    <t>[hpBonusMin]</t>
+  </si>
+  <si>
+    <t>[hpBonusMax]</t>
+  </si>
+  <si>
+    <t>[speedBonusSteps]</t>
+  </si>
+  <si>
+    <t>[speedBonusMin]</t>
+  </si>
+  <si>
+    <t>[speedBonusMax]</t>
+  </si>
+  <si>
+    <t>[boostBonusSteps]</t>
+  </si>
+  <si>
+    <t>[boostBonusMin]</t>
+  </si>
+  <si>
+    <t>[boostBonusMax]</t>
+  </si>
+  <si>
+    <t>[stepPrice]</t>
+  </si>
+  <si>
+    <t>[priceCoefA]</t>
+  </si>
+  <si>
+    <t>[priceCoefB]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,23 +572,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="17">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -713,8 +670,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="48">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1165,56 +1146,6 @@
       <bottom style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1319,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1678,39 +1609,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1726,78 +1624,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1810,109 +1639,79 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1948,14 +1747,144 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
+  <dxfs count="115">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2165,6 +2094,368 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4470,106 +4761,121 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="dragons"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table6" displayName="Table6" ref="B24:G30" totalsRowShown="0" headerRowBorderDxfId="93" tableBorderDxfId="92" totalsRowBorderDxfId="91">
-  <autoFilter ref="B24:G30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table6" displayName="Table6" ref="B25:G31" totalsRowShown="0" headerRowBorderDxfId="114" tableBorderDxfId="113" totalsRowBorderDxfId="112">
+  <autoFilter ref="B25:G31"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{specialDragonStatsUpgradeDefinitions}" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[unlockPriceCoins]" dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="[unlockPricePC]" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[stat]" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="[percentage]" dataDxfId="85"/>
+    <tableColumn id="1" name="{specialDragonStatsUpgradeDefinitions}" dataDxfId="111"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="110"/>
+    <tableColumn id="6" name="[unlockPriceCoins]" dataDxfId="109"/>
+    <tableColumn id="3" name="[unlockPricePC]" dataDxfId="108"/>
+    <tableColumn id="4" name="[stat]" dataDxfId="107"/>
+    <tableColumn id="5" name="[percentage]" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table63" displayName="Table63" ref="B41:F47" totalsRowShown="0" headerRowBorderDxfId="84" tableBorderDxfId="83" totalsRowBorderDxfId="82">
-  <autoFilter ref="B41:F47" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table63" displayName="Table63" ref="B42:F48" totalsRowShown="0" headerRowBorderDxfId="105" tableBorderDxfId="104" totalsRowBorderDxfId="103">
+  <autoFilter ref="B42:F48"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="{specialDragonPetsUpgradeDefinitions}" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="[sku]" dataDxfId="80"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="[unlockPriceCoins]" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="[unlockPricePC]" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="[maxPets]" dataDxfId="77"/>
+    <tableColumn id="1" name="{specialDragonPetsUpgradeDefinitions}" dataDxfId="102"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="101"/>
+    <tableColumn id="6" name="[unlockPriceCoins]" dataDxfId="100"/>
+    <tableColumn id="3" name="[unlockPricePC]" dataDxfId="99"/>
+    <tableColumn id="4" name="[maxPets]" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="B11:BC17" totalsRowShown="0" headerRowBorderDxfId="76" totalsRowBorderDxfId="75">
-  <autoFilter ref="B11:BC17" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B12:BC18" totalsRowShown="0" headerRowBorderDxfId="97" totalsRowBorderDxfId="96">
+  <autoFilter ref="B12:BC18"/>
   <tableColumns count="54">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="{specialDragonTierDefinitions}" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="[sku]" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="[tier]" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="[order]" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="[mainProgressionRestriction]" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="[unlockPriceCoins]" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="[unlockPricePC]" dataDxfId="68"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="[defaultSize]" dataDxfId="67"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="[cameraFrameWidthModifier]" dataDxfId="66"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="[health]" dataDxfId="65"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="[healthDrain]" dataDxfId="64"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="[healthDrainSpacePlus]" dataDxfId="63"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="[healthDrainAmpPerSecond]" dataDxfId="62"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="[sessionStartHealthDrainTime]" dataDxfId="61"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="[sessionStartHealthDrainModifier]" dataDxfId="60"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="[scale]" dataDxfId="59"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="[boostMultiplier]" dataDxfId="58"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="[energyBase]" dataDxfId="57"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="[energyDrain]" dataDxfId="56"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="[energyRefillRate]" dataDxfId="55"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="[furyBaseLength]" dataDxfId="54"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="[furyScoreMultiplier]" dataDxfId="53"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="[furyBaseDuration]" dataDxfId="52"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="[furyMax]" dataDxfId="51"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" name="[scoreTextThresholdMultiplier]" dataDxfId="50"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" name="[eatSpeedFactor]" dataDxfId="49"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" name="[maxAlcohol]" dataDxfId="48"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" name="[alcoholDrain]" dataDxfId="47"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" name="[gamePrefab]" dataDxfId="46"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" name="[menuPrefab]" dataDxfId="45"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" name="[resultsPrefab]" dataDxfId="44"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0200-000020000000}" name="[shadowFromDragon]" dataDxfId="43"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0200-000021000000}" name="[revealFromDragon]" dataDxfId="42"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0200-000022000000}" name="[sizeUpMultiplier]" dataDxfId="41"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0200-000023000000}" name="[speedUpMultiplier]" dataDxfId="40"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0200-000024000000}" name="[biteUpMultiplier]" dataDxfId="39"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0200-000025000000}" name="[invincible]" dataDxfId="38"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0200-000026000000}" name="[infiniteBoost]" dataDxfId="37"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0200-000027000000}" name="[eatEverything]" dataDxfId="36"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0200-000028000000}" name="[modeDuration]" dataDxfId="35"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0200-000029000000}" name="[petScale]" dataDxfId="34"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0200-00002A000000}" name="[tidName]" dataDxfId="33"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0200-00002B000000}" name="[tidDesc]" dataDxfId="32"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0200-00002C000000}" name="[statsBarRatio]" dataDxfId="31"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0200-00002D000000}" name="[furyBarRatio]" dataDxfId="30"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0200-00002E000000}" name="[force]" dataDxfId="29"/>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0200-00002F000000}" name="[mass]" dataDxfId="28"/>
-    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0200-000030000000}" name="[friction]" dataDxfId="27"/>
-    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0200-000031000000}" name="[gravityModifier]" dataDxfId="26"/>
-    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0200-000032000000}" name="[airGravityModifier]" dataDxfId="25"/>
-    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0200-000033000000}" name="[waterGravityModifier]" dataDxfId="24"/>
-    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0200-000034000000}" name="[damageAnimationThreshold]" dataDxfId="23"/>
-    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0200-000035000000}" name="[dotAnimationThreshold]" dataDxfId="22"/>
-    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0200-000036000000}" name="[trackingSku]" dataDxfId="21"/>
+    <tableColumn id="1" name="{specialDragonTierDefinitions}" dataDxfId="95"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="94"/>
+    <tableColumn id="3" name="[tier]" dataDxfId="93"/>
+    <tableColumn id="4" name="[order]" dataDxfId="92"/>
+    <tableColumn id="5" name="[mainProgressionRestriction]" dataDxfId="91"/>
+    <tableColumn id="6" name="[unlockPriceCoins]" dataDxfId="90"/>
+    <tableColumn id="7" name="[unlockPricePC]" dataDxfId="89"/>
+    <tableColumn id="8" name="[defaultSize]" dataDxfId="88"/>
+    <tableColumn id="9" name="[cameraFrameWidthModifier]" dataDxfId="87"/>
+    <tableColumn id="10" name="[health]" dataDxfId="86"/>
+    <tableColumn id="11" name="[healthDrain]" dataDxfId="85"/>
+    <tableColumn id="12" name="[healthDrainSpacePlus]" dataDxfId="84"/>
+    <tableColumn id="13" name="[healthDrainAmpPerSecond]" dataDxfId="83"/>
+    <tableColumn id="14" name="[sessionStartHealthDrainTime]" dataDxfId="82"/>
+    <tableColumn id="15" name="[sessionStartHealthDrainModifier]" dataDxfId="81"/>
+    <tableColumn id="16" name="[scale]" dataDxfId="80"/>
+    <tableColumn id="17" name="[boostMultiplier]" dataDxfId="79"/>
+    <tableColumn id="18" name="[energyBase]" dataDxfId="78"/>
+    <tableColumn id="19" name="[energyDrain]" dataDxfId="77"/>
+    <tableColumn id="20" name="[energyRefillRate]" dataDxfId="76"/>
+    <tableColumn id="21" name="[furyBaseLength]" dataDxfId="75"/>
+    <tableColumn id="22" name="[furyScoreMultiplier]" dataDxfId="74"/>
+    <tableColumn id="23" name="[furyBaseDuration]" dataDxfId="73"/>
+    <tableColumn id="24" name="[furyMax]" dataDxfId="72"/>
+    <tableColumn id="25" name="[scoreTextThresholdMultiplier]" dataDxfId="71"/>
+    <tableColumn id="26" name="[eatSpeedFactor]" dataDxfId="70"/>
+    <tableColumn id="27" name="[maxAlcohol]" dataDxfId="69"/>
+    <tableColumn id="28" name="[alcoholDrain]" dataDxfId="68"/>
+    <tableColumn id="29" name="[gamePrefab]" dataDxfId="67"/>
+    <tableColumn id="30" name="[menuPrefab]" dataDxfId="66"/>
+    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="65"/>
+    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="64"/>
+    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="63"/>
+    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="62"/>
+    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="61"/>
+    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="60"/>
+    <tableColumn id="37" name="[invincible]" dataDxfId="59"/>
+    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="58"/>
+    <tableColumn id="39" name="[eatEverything]" dataDxfId="57"/>
+    <tableColumn id="40" name="[modeDuration]" dataDxfId="56"/>
+    <tableColumn id="41" name="[petScale]" dataDxfId="55"/>
+    <tableColumn id="42" name="[tidName]" dataDxfId="54"/>
+    <tableColumn id="43" name="[tidDesc]" dataDxfId="53"/>
+    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="52"/>
+    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="51"/>
+    <tableColumn id="46" name="[force]" dataDxfId="50"/>
+    <tableColumn id="47" name="[mass]" dataDxfId="49"/>
+    <tableColumn id="48" name="[friction]" dataDxfId="48"/>
+    <tableColumn id="49" name="[gravityModifier]" dataDxfId="47"/>
+    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="46"/>
+    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="45"/>
+    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="44"/>
+    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="43"/>
+    <tableColumn id="54" name="[trackingSku]" dataDxfId="42"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="34" dataDxfId="35" headerRowBorderDxfId="40" tableBorderDxfId="41">
+  <autoFilter ref="B3:T6"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="39"/>
+    <tableColumn id="2" name="[sku]"/>
+    <tableColumn id="5" name="[order]" dataDxfId="38"/>
+    <tableColumn id="6" name="[previousDragonSku]" dataDxfId="37"/>
+    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="36"/>
+    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="33"/>
+    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="32"/>
+    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="31"/>
+    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="30"/>
+    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="29"/>
+    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="28"/>
+    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="27"/>
+    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="26"/>
+    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="25"/>
+    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="3"/>
+    <tableColumn id="76" name="[stepPrice]" dataDxfId="2"/>
+    <tableColumn id="77" name="[priceCoefA]" dataDxfId="1"/>
+    <tableColumn id="75" name="[priceCoefB]" dataDxfId="0"/>
+    <tableColumn id="65" name="[trackingSku]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4837,49 +5143,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BC58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" customWidth="1"/>
-    <col min="14" max="14" width="14.5" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="10.5" customWidth="1"/>
-    <col min="18" max="18" width="13.5" customWidth="1"/>
-    <col min="19" max="20" width="12.83203125" customWidth="1"/>
-    <col min="21" max="21" width="13.83203125" customWidth="1"/>
-    <col min="22" max="22" width="15.5" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" customWidth="1"/>
-    <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="25" max="25" width="14.33203125" customWidth="1"/>
-    <col min="26" max="26" width="17.5" customWidth="1"/>
-    <col min="27" max="27" width="16.1640625" customWidth="1"/>
-    <col min="28" max="28" width="11.6640625" customWidth="1"/>
-    <col min="30" max="30" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="37.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" customWidth="1"/>
+    <col min="17" max="17" width="29.5703125" customWidth="1"/>
+    <col min="18" max="18" width="35.5703125" customWidth="1"/>
+    <col min="19" max="19" width="38.140625" customWidth="1"/>
+    <col min="20" max="20" width="42.5703125" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" customWidth="1"/>
+    <col min="23" max="23" width="17.140625" customWidth="1"/>
+    <col min="24" max="24" width="22.85546875" customWidth="1"/>
+    <col min="25" max="25" width="22.7109375" customWidth="1"/>
+    <col min="26" max="26" width="23.140625" customWidth="1"/>
+    <col min="27" max="27" width="18.85546875" customWidth="1"/>
+    <col min="28" max="29" width="24" customWidth="1"/>
+    <col min="30" max="30" width="22.5703125" customWidth="1"/>
     <col min="31" max="31" width="30" customWidth="1"/>
-    <col min="32" max="32" width="26.6640625" customWidth="1"/>
-    <col min="43" max="43" width="33.1640625" customWidth="1"/>
-    <col min="44" max="44" width="29.33203125" customWidth="1"/>
-    <col min="55" max="55" width="18.5" customWidth="1"/>
+    <col min="32" max="32" width="26.7109375" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" customWidth="1"/>
+    <col min="34" max="34" width="38.85546875" customWidth="1"/>
+    <col min="35" max="35" width="27.28515625" customWidth="1"/>
+    <col min="36" max="36" width="27.7109375" customWidth="1"/>
+    <col min="37" max="37" width="18.140625" customWidth="1"/>
+    <col min="38" max="38" width="19.140625" customWidth="1"/>
+    <col min="39" max="39" width="18.42578125" customWidth="1"/>
+    <col min="40" max="40" width="18.7109375" customWidth="1"/>
+    <col min="41" max="41" width="20.140625" customWidth="1"/>
+    <col min="42" max="42" width="27.5703125" customWidth="1"/>
+    <col min="43" max="43" width="33.140625" customWidth="1"/>
+    <col min="44" max="44" width="29.28515625" customWidth="1"/>
+    <col min="45" max="45" width="26.42578125" customWidth="1"/>
+    <col min="46" max="46" width="24.140625" customWidth="1"/>
+    <col min="47" max="47" width="15.85546875" customWidth="1"/>
+    <col min="48" max="48" width="19.7109375" customWidth="1"/>
+    <col min="49" max="49" width="20.7109375" customWidth="1"/>
+    <col min="50" max="50" width="21.28515625" customWidth="1"/>
+    <col min="51" max="51" width="14.5703125" customWidth="1"/>
+    <col min="52" max="52" width="21.28515625" customWidth="1"/>
+    <col min="53" max="53" width="14.7109375" customWidth="1"/>
+    <col min="54" max="54" width="13.42578125" customWidth="1"/>
+    <col min="55" max="55" width="20.28515625" customWidth="1"/>
+    <col min="56" max="56" width="19.28515625" customWidth="1"/>
+    <col min="57" max="57" width="15.28515625" customWidth="1"/>
+    <col min="58" max="58" width="15.7109375" customWidth="1"/>
+    <col min="59" max="59" width="10.5703125" customWidth="1"/>
+    <col min="60" max="60" width="13.140625" customWidth="1"/>
+    <col min="61" max="61" width="22.7109375" customWidth="1"/>
+    <col min="62" max="62" width="26.140625" customWidth="1"/>
+    <col min="63" max="63" width="29.85546875" customWidth="1"/>
+    <col min="64" max="64" width="36.85546875" customWidth="1"/>
+    <col min="65" max="65" width="31.85546875" customWidth="1"/>
+    <col min="66" max="66" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>123</v>
       </c>
@@ -4909,816 +5248,169 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:66" ht="161" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+    <row r="3" spans="1:55" ht="147" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="122" t="s">
+      <c r="D3" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="122" t="s">
+      <c r="E3" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="H2" s="123" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="124" t="s">
+      <c r="F3" s="123" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="125" t="s">
+      <c r="H3" s="182" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" s="182" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="182" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" s="179" t="s">
+        <v>154</v>
+      </c>
+      <c r="L3" s="179" t="s">
+        <v>155</v>
+      </c>
+      <c r="M3" s="179" t="s">
+        <v>156</v>
+      </c>
+      <c r="N3" s="181" t="s">
+        <v>157</v>
+      </c>
+      <c r="O3" s="181" t="s">
+        <v>158</v>
+      </c>
+      <c r="P3" s="181" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q3" s="180" t="s">
+        <v>160</v>
+      </c>
+      <c r="R3" s="180" t="s">
+        <v>161</v>
+      </c>
+      <c r="S3" s="180" t="s">
+        <v>162</v>
+      </c>
+      <c r="T3" s="170" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B4" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="126" t="s">
-        <v>129</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="W2" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC2" s="127" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG2" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM2" s="128" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN2" s="129" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO2" s="129" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP2" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ2" s="129" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR2" s="129" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS2" s="130" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT2" s="129" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU2" s="129" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV2" s="129" t="s">
-        <v>63</v>
-      </c>
-      <c r="AW2" s="129" t="s">
-        <v>62</v>
-      </c>
-      <c r="AX2" s="129" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY2" s="129" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ2" s="129" t="s">
-        <v>140</v>
-      </c>
-      <c r="BA2" s="131" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB2" s="132" t="s">
-        <v>11</v>
-      </c>
-      <c r="BC2" s="133" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD2" s="122" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE2" s="134" t="s">
-        <v>141</v>
-      </c>
-      <c r="BF2" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="BG2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="BJ2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="BK2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="BL2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="BM2" s="122" t="s">
-        <v>50</v>
-      </c>
-      <c r="BN2" s="6" t="s">
+      <c r="D4" s="126">
+        <v>0</v>
+      </c>
+      <c r="E4" s="126"/>
+      <c r="F4" s="127">
+        <v>200</v>
+      </c>
+      <c r="G4" s="128">
+        <v>400</v>
+      </c>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="175"/>
+      <c r="L4" s="175"/>
+      <c r="M4" s="175"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="183"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="173"/>
+      <c r="T4" s="171" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B5" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="125" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="126">
         <v>1</v>
       </c>
+      <c r="E5" s="129" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="127">
+        <v>200</v>
+      </c>
+      <c r="G5" s="128">
+        <v>400</v>
+      </c>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="175"/>
+      <c r="L5" s="175"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="183"/>
+      <c r="O5" s="183"/>
+      <c r="P5" s="183"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="173"/>
+      <c r="S5" s="173"/>
+      <c r="T5" s="171" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B3" s="135" t="s">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B6" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="136" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="136" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="214" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="137">
-        <v>0</v>
-      </c>
-      <c r="G3" s="137"/>
-      <c r="H3" s="138">
-        <v>0</v>
-      </c>
-      <c r="I3" s="139">
-        <v>0</v>
-      </c>
-      <c r="J3" s="140">
-        <v>35</v>
-      </c>
-      <c r="K3" s="141">
-        <v>45</v>
-      </c>
-      <c r="L3" s="142">
-        <v>1</v>
-      </c>
-      <c r="M3" s="143">
-        <v>-2</v>
-      </c>
-      <c r="N3" s="144">
-        <v>75</v>
-      </c>
-      <c r="O3" s="145">
-        <v>105</v>
-      </c>
-      <c r="P3" s="145">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q3" s="145">
-        <v>0</v>
-      </c>
-      <c r="R3" s="145">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="S3" s="146">
-        <v>30</v>
-      </c>
-      <c r="T3" s="146">
-        <v>0.5</v>
-      </c>
-      <c r="U3" s="144">
-        <v>0.46</v>
-      </c>
-      <c r="V3" s="145">
-        <v>0.71</v>
-      </c>
-      <c r="W3" s="147">
-        <v>14</v>
-      </c>
-      <c r="X3" s="145">
-        <v>1.95</v>
-      </c>
-      <c r="Y3" s="145">
-        <v>100</v>
-      </c>
-      <c r="Z3" s="145" t="e">
-        <f>[1]!dragonDefinitions[[#This Row],['[energyBaseMin']]]+25</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA3" s="145">
-        <v>40</v>
-      </c>
-      <c r="AB3" s="145">
-        <v>28</v>
-      </c>
-      <c r="AC3" s="147">
-        <v>250</v>
-      </c>
-      <c r="AD3" s="146">
-        <v>7.5</v>
-      </c>
-      <c r="AE3" s="145">
+      <c r="C6" s="131" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="126">
         <v>2</v>
       </c>
-      <c r="AF3" s="146">
-        <v>8</v>
-      </c>
-      <c r="AG3" s="145">
-        <v>3000</v>
-      </c>
-      <c r="AH3" s="148">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="149">
-        <v>0.23</v>
-      </c>
-      <c r="AJ3" s="148">
-        <f>AI4</f>
-        <v>0.19</v>
-      </c>
-      <c r="AK3" s="150">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="150">
-        <v>12</v>
-      </c>
-      <c r="AM3" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN3" s="151" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO3" s="151" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP3" s="151"/>
-      <c r="AQ3" s="151"/>
-      <c r="AR3" s="151">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AS3" s="151">
-        <v>2</v>
-      </c>
-      <c r="AT3" s="151">
-        <v>2</v>
-      </c>
-      <c r="AU3" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="151">
-        <v>23</v>
-      </c>
-      <c r="AY3" s="151">
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="AZ3" s="151">
-        <v>0.6</v>
-      </c>
-      <c r="BA3" s="152" t="s">
-        <v>47</v>
-      </c>
-      <c r="BB3" s="153" t="s">
-        <v>46</v>
-      </c>
-      <c r="BC3" s="154">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="BD3" s="155">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BE3" s="156">
-        <v>175</v>
-      </c>
-      <c r="BF3" s="157">
+      <c r="E6" s="126" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="132">
         <v>200</v>
       </c>
-      <c r="BG3" s="136">
-        <v>2</v>
-      </c>
-      <c r="BH3" s="136">
-        <v>9.5</v>
-      </c>
-      <c r="BI3" s="136">
-        <v>1</v>
-      </c>
-      <c r="BJ3" s="158">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BK3" s="158">
-        <v>1.75</v>
-      </c>
-      <c r="BL3" s="158">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="158">
-        <v>8</v>
-      </c>
-      <c r="BN3" s="136" t="s">
-        <v>4</v>
+      <c r="G6" s="133">
+        <v>400</v>
+      </c>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="176"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="184"/>
+      <c r="P6" s="184"/>
+      <c r="Q6" s="174"/>
+      <c r="R6" s="174"/>
+      <c r="S6" s="174"/>
+      <c r="T6" s="172" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B4" s="135" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="136" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="136" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="214" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" s="137">
-        <v>1</v>
-      </c>
-      <c r="G4" s="159" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="138">
-        <v>2000</v>
-      </c>
-      <c r="I4" s="139">
-        <v>60</v>
-      </c>
-      <c r="J4" s="140">
-        <v>35</v>
-      </c>
-      <c r="K4" s="141">
-        <v>45</v>
-      </c>
-      <c r="L4" s="142">
-        <v>3</v>
-      </c>
-      <c r="M4" s="143">
-        <v>-2</v>
-      </c>
-      <c r="N4" s="144">
-        <v>95</v>
-      </c>
-      <c r="O4" s="145">
-        <v>145</v>
-      </c>
-      <c r="P4" s="145">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="Q4" s="145">
-        <v>0</v>
-      </c>
-      <c r="R4" s="145">
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="S4" s="146">
-        <v>30</v>
-      </c>
-      <c r="T4" s="146">
-        <v>0.5</v>
-      </c>
-      <c r="U4" s="160">
-        <v>0.8</v>
-      </c>
-      <c r="V4" s="161">
-        <v>0.95</v>
-      </c>
-      <c r="W4" s="147">
-        <v>16</v>
-      </c>
-      <c r="X4" s="145">
-        <v>1.75</v>
-      </c>
-      <c r="Y4" s="145">
-        <v>100</v>
-      </c>
-      <c r="Z4" s="145" t="e">
-        <f>[1]!dragonDefinitions[[#This Row],['[energyBaseMin']]]+25</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA4" s="145">
-        <v>20</v>
-      </c>
-      <c r="AB4" s="145">
-        <v>10</v>
-      </c>
-      <c r="AC4" s="147">
-        <v>275</v>
-      </c>
-      <c r="AD4" s="146">
-        <v>8</v>
-      </c>
-      <c r="AE4" s="145">
-        <v>3</v>
-      </c>
-      <c r="AF4" s="146">
-        <v>9</v>
-      </c>
-      <c r="AG4" s="145">
-        <v>7000</v>
-      </c>
-      <c r="AH4" s="148">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="149">
-        <v>0.19</v>
-      </c>
-      <c r="AJ4" s="148">
-        <f t="shared" ref="AJ4" si="0">AI5</f>
-        <v>0.15</v>
-      </c>
-      <c r="AK4" s="150">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="162">
-        <v>12</v>
-      </c>
-      <c r="AM4" s="163" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN4" s="151" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO4" s="151" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP4" s="151"/>
-      <c r="AQ4" s="151"/>
-      <c r="AR4" s="151">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AS4" s="151">
-        <v>2</v>
-      </c>
-      <c r="AT4" s="151">
-        <v>2</v>
-      </c>
-      <c r="AU4" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="151">
-        <v>23</v>
-      </c>
-      <c r="AY4" s="151">
-        <v>0.7</v>
-      </c>
-      <c r="AZ4" s="151">
-        <v>0.8</v>
-      </c>
-      <c r="BA4" s="152" t="s">
-        <v>43</v>
-      </c>
-      <c r="BB4" s="153" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC4" s="154">
-        <v>2.3E-3</v>
-      </c>
-      <c r="BD4" s="155">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BE4" s="156">
-        <v>210</v>
-      </c>
-      <c r="BF4" s="157">
-        <v>235</v>
-      </c>
-      <c r="BG4" s="136">
-        <v>2.1</v>
-      </c>
-      <c r="BH4" s="136">
-        <v>9.5</v>
-      </c>
-      <c r="BI4" s="136">
-        <v>1.7</v>
-      </c>
-      <c r="BJ4" s="136">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BK4" s="136">
-        <v>2.1</v>
-      </c>
-      <c r="BL4" s="136">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="136">
-        <v>8</v>
-      </c>
-      <c r="BN4" s="136" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B5" s="164" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="165" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="165" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="214" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="137">
-        <v>2</v>
-      </c>
-      <c r="G5" s="137" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="166">
-        <v>11000</v>
-      </c>
-      <c r="I5" s="167">
-        <v>100</v>
-      </c>
-      <c r="J5" s="168">
-        <v>35</v>
-      </c>
-      <c r="K5" s="169">
-        <v>45</v>
-      </c>
-      <c r="L5" s="142">
-        <v>5</v>
-      </c>
-      <c r="M5" s="143">
-        <v>-2</v>
-      </c>
-      <c r="N5" s="144">
-        <v>140</v>
-      </c>
-      <c r="O5" s="161">
-        <v>200</v>
-      </c>
-      <c r="P5" s="161">
-        <v>1.5</v>
-      </c>
-      <c r="Q5" s="161">
-        <v>0</v>
-      </c>
-      <c r="R5" s="145">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="S5" s="146">
-        <v>30</v>
-      </c>
-      <c r="T5" s="146">
-        <v>0.5</v>
-      </c>
-      <c r="U5" s="144">
-        <v>0.85</v>
-      </c>
-      <c r="V5" s="145">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W5" s="170">
-        <v>23.5</v>
-      </c>
-      <c r="X5" s="145">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="Y5" s="145">
-        <v>100</v>
-      </c>
-      <c r="Z5" s="145" t="e">
-        <f>[1]!dragonDefinitions[[#This Row],['[energyBaseMin']]]+25</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA5" s="145">
-        <v>40</v>
-      </c>
-      <c r="AB5" s="145">
-        <v>14</v>
-      </c>
-      <c r="AC5" s="170">
-        <v>300</v>
-      </c>
-      <c r="AD5" s="146">
-        <v>9</v>
-      </c>
-      <c r="AE5" s="161">
-        <v>3</v>
-      </c>
-      <c r="AF5" s="171">
-        <v>9</v>
-      </c>
-      <c r="AG5" s="145">
-        <v>8000</v>
-      </c>
-      <c r="AH5" s="172">
-        <v>2</v>
-      </c>
-      <c r="AI5" s="173">
-        <v>0.15</v>
-      </c>
-      <c r="AJ5" s="148">
-        <f>AH6</f>
-        <v>0</v>
-      </c>
-      <c r="AK5" s="174">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="175">
-        <v>12</v>
-      </c>
-      <c r="AM5" s="163" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN5" s="151" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO5" s="151" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP5" s="151"/>
-      <c r="AQ5" s="151"/>
-      <c r="AR5" s="151">
-        <v>2.1</v>
-      </c>
-      <c r="AS5" s="151">
-        <v>2</v>
-      </c>
-      <c r="AT5" s="151">
-        <v>2</v>
-      </c>
-      <c r="AU5" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="151" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="151">
-        <v>23</v>
-      </c>
-      <c r="AY5" s="151">
-        <v>0.7</v>
-      </c>
-      <c r="AZ5" s="151">
-        <v>0.7</v>
-      </c>
-      <c r="BA5" s="176" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB5" s="177" t="s">
-        <v>37</v>
-      </c>
-      <c r="BC5" s="154">
-        <v>2E-3</v>
-      </c>
-      <c r="BD5" s="155">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BE5" s="156">
-        <v>240</v>
-      </c>
-      <c r="BF5" s="157">
-        <v>280</v>
-      </c>
-      <c r="BG5" s="136">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="BH5" s="136">
-        <v>9.5</v>
-      </c>
-      <c r="BI5" s="136">
-        <v>1.7</v>
-      </c>
-      <c r="BJ5" s="136">
-        <v>0.9</v>
-      </c>
-      <c r="BK5" s="136">
-        <v>2.25</v>
-      </c>
-      <c r="BL5" s="136">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="136">
-        <v>8</v>
-      </c>
-      <c r="BN5" s="165" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-    </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5747,405 +5439,274 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:66" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:66" ht="24" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+    </row>
+    <row r="9" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:55" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
     </row>
-    <row r="11" spans="1:66" ht="161" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+    <row r="12" spans="1:55" ht="163.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F12" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H12" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I12" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L12" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M12" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N12" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="O12" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="P12" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="Q11" s="19" t="s">
+      <c r="Q12" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="R12" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="S11" s="12" t="s">
+      <c r="S12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="T12" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="U11" s="22" t="s">
+      <c r="U12" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="V12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="W11" s="11" t="s">
+      <c r="W12" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="X11" s="11" t="s">
+      <c r="X12" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="Y11" s="22" t="s">
+      <c r="Y12" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="Z11" s="10" t="s">
+      <c r="Z12" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AA11" s="9" t="s">
+      <c r="AA12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AB11" s="9" t="s">
+      <c r="AB12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AC11" s="42" t="s">
+      <c r="AC12" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="AD11" s="38" t="s">
+      <c r="AD12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AE11" s="37" t="s">
+      <c r="AE12" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AF11" s="37" t="s">
+      <c r="AF12" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AG11" s="37" t="s">
+      <c r="AG12" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AH11" s="37" t="s">
+      <c r="AH12" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="AI11" s="37" t="s">
+      <c r="AI12" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="AJ11" s="37" t="s">
+      <c r="AJ12" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="AK11" s="37" t="s">
+      <c r="AK12" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="AL11" s="37" t="s">
+      <c r="AL12" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="AM11" s="37" t="s">
+      <c r="AM12" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="AN11" s="37" t="s">
+      <c r="AN12" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="AO11" s="37" t="s">
+      <c r="AO12" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AP11" s="41" t="s">
+      <c r="AP12" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="AQ11" s="43" t="s">
+      <c r="AQ12" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AR11" s="45" t="s">
+      <c r="AR12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="AS11" s="44" t="s">
+      <c r="AS12" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="AT11" s="46" t="s">
+      <c r="AT12" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="AU11" s="40" t="s">
+      <c r="AU12" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="AV11" s="39" t="s">
+      <c r="AV12" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="AW11" s="39" t="s">
+      <c r="AW12" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="AX11" s="39" t="s">
+      <c r="AX12" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="AY11" s="39" t="s">
+      <c r="AY12" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="AZ11" s="39" t="s">
+      <c r="AZ12" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="BA11" s="32" t="s">
+      <c r="BA12" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="BB11" s="32" t="s">
+      <c r="BB12" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="BC11" s="39" t="s">
+      <c r="BC12" s="39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B12" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="51">
-        <v>0</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="53">
-        <v>0</v>
-      </c>
-      <c r="H12" s="54">
-        <v>0</v>
-      </c>
-      <c r="I12" s="55">
-        <v>5</v>
-      </c>
-      <c r="J12" s="56">
-        <v>-2</v>
-      </c>
-      <c r="K12" s="57">
-        <v>170</v>
-      </c>
-      <c r="L12" s="58">
-        <v>1.5</v>
-      </c>
-      <c r="M12" s="58">
-        <v>0</v>
-      </c>
-      <c r="N12" s="58">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="O12" s="59">
-        <v>30</v>
-      </c>
-      <c r="P12" s="59">
-        <v>0.5</v>
-      </c>
-      <c r="Q12" s="60">
-        <v>1</v>
-      </c>
-      <c r="R12" s="56">
-        <v>1</v>
-      </c>
-      <c r="S12" s="58">
-        <v>100</v>
-      </c>
-      <c r="T12" s="58">
-        <v>40</v>
-      </c>
-      <c r="U12" s="61">
-        <v>28</v>
-      </c>
-      <c r="V12" s="62">
-        <v>9</v>
-      </c>
-      <c r="W12" s="58">
-        <v>3</v>
-      </c>
-      <c r="X12" s="59">
-        <v>9</v>
-      </c>
-      <c r="Y12" s="61">
-        <v>8000</v>
-      </c>
-      <c r="Z12" s="63">
-        <v>2</v>
-      </c>
-      <c r="AA12" s="60">
-        <v>0.13</v>
-      </c>
-      <c r="AB12" s="64">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="65">
-        <v>6</v>
-      </c>
-      <c r="AD12" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE12" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF12" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG12" s="68"/>
-      <c r="AH12" s="68"/>
-      <c r="AI12" s="68">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AJ12" s="68">
-        <v>2</v>
-      </c>
-      <c r="AK12" s="68">
-        <v>2</v>
-      </c>
-      <c r="AL12" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="68">
-        <v>10</v>
-      </c>
-      <c r="AP12" s="69">
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="AQ12" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR12" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS12" s="74">
-        <v>2E-3</v>
-      </c>
-      <c r="AT12" s="75">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AU12" s="76">
-        <v>260</v>
-      </c>
-      <c r="AV12" s="47">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AW12" s="47">
-        <v>5</v>
-      </c>
-      <c r="AX12" s="47">
-        <v>1.7</v>
-      </c>
-      <c r="AY12" s="77">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AZ12" s="77">
-        <v>2.25</v>
-      </c>
-      <c r="BA12" s="77">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="77">
-        <v>8</v>
-      </c>
-      <c r="BC12" s="47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B13" s="48" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E13" s="51">
         <v>0</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G13" s="53">
         <v>0</v>
@@ -6154,31 +5715,31 @@
         <v>0</v>
       </c>
       <c r="I13" s="55">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J13" s="56">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K13" s="57">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="L13" s="58">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="M13" s="58">
         <v>0</v>
       </c>
       <c r="N13" s="58">
-        <v>1.2E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="O13" s="59">
         <v>30</v>
       </c>
       <c r="P13" s="59">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Q13" s="60">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="R13" s="56">
         <v>1</v>
@@ -6193,42 +5754,42 @@
         <v>28</v>
       </c>
       <c r="V13" s="62">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W13" s="58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X13" s="59">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y13" s="61">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Z13" s="63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA13" s="60">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="AB13" s="64">
         <v>0</v>
       </c>
-      <c r="AC13" s="64">
+      <c r="AC13" s="65">
         <v>6</v>
       </c>
       <c r="AD13" s="67" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AE13" s="68" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AF13" s="68" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AG13" s="68"/>
       <c r="AH13" s="68"/>
       <c r="AI13" s="68">
-        <v>2.2999999999999998</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AJ13" s="68">
         <v>2</v>
@@ -6249,25 +5810,25 @@
         <v>10</v>
       </c>
       <c r="AP13" s="69">
-        <v>0.7</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="AQ13" s="70" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AR13" s="71" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AS13" s="74">
-        <v>1.8E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="AT13" s="75">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AU13" s="76">
-        <v>333</v>
+        <v>260</v>
       </c>
       <c r="AV13" s="47">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AW13" s="47">
         <v>5</v>
@@ -6275,37 +5836,37 @@
       <c r="AX13" s="47">
         <v>1.7</v>
       </c>
-      <c r="AY13" s="47">
+      <c r="AY13" s="77">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AZ13" s="47">
+      <c r="AZ13" s="77">
         <v>2.25</v>
       </c>
-      <c r="BA13" s="47">
-        <v>9</v>
-      </c>
-      <c r="BB13" s="47">
+      <c r="BA13" s="77">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="77">
         <v>8</v>
       </c>
       <c r="BC13" s="47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B14" s="48" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="51">
         <v>0</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" s="53">
         <v>0</v>
@@ -6314,31 +5875,31 @@
         <v>0</v>
       </c>
       <c r="I14" s="55">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J14" s="56">
         <v>0</v>
       </c>
       <c r="K14" s="57">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="L14" s="58">
-        <v>2.2999999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="M14" s="58">
         <v>0</v>
       </c>
       <c r="N14" s="58">
-        <v>1.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O14" s="59">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P14" s="59">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="Q14" s="60">
-        <v>1.75</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="R14" s="56">
         <v>1</v>
@@ -6353,42 +5914,42 @@
         <v>28</v>
       </c>
       <c r="V14" s="62">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="W14" s="58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X14" s="59">
         <v>10</v>
       </c>
       <c r="Y14" s="61">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Z14" s="63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA14" s="60">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AB14" s="64">
         <v>0</v>
       </c>
-      <c r="AC14" s="66">
+      <c r="AC14" s="64">
         <v>6</v>
       </c>
       <c r="AD14" s="67" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AE14" s="68" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AF14" s="68" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AG14" s="68"/>
       <c r="AH14" s="68"/>
       <c r="AI14" s="68">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AJ14" s="68">
         <v>2</v>
@@ -6411,23 +5972,23 @@
       <c r="AP14" s="69">
         <v>0.7</v>
       </c>
-      <c r="AQ14" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR14" s="73" t="s">
-        <v>37</v>
+      <c r="AQ14" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR14" s="71" t="s">
+        <v>42</v>
       </c>
       <c r="AS14" s="74">
-        <v>1.6000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="AT14" s="75">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AU14" s="76">
-        <v>475</v>
+        <v>333</v>
       </c>
       <c r="AV14" s="47">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="AW14" s="47">
         <v>5</v>
@@ -6442,31 +6003,30 @@
         <v>2.25</v>
       </c>
       <c r="BA14" s="47">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="BB14" s="47">
-        <v>15</v>
-      </c>
-      <c r="BC14" s="78" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="BC14" s="47" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B15" s="48" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="51">
         <v>0</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" s="53">
         <v>0</v>
@@ -6475,31 +6035,31 @@
         <v>0</v>
       </c>
       <c r="I15" s="55">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J15" s="56">
         <v>0</v>
       </c>
       <c r="K15" s="57">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="L15" s="58">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M15" s="58">
         <v>0</v>
       </c>
       <c r="N15" s="58">
-        <v>1.6E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="O15" s="59">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P15" s="59">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Q15" s="60">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="R15" s="56">
         <v>1</v>
@@ -6514,37 +6074,37 @@
         <v>28</v>
       </c>
       <c r="V15" s="62">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="W15" s="58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X15" s="59">
         <v>10</v>
       </c>
       <c r="Y15" s="61">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Z15" s="63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA15" s="60">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AB15" s="64">
         <v>0</v>
       </c>
-      <c r="AC15" s="64">
+      <c r="AC15" s="66">
         <v>6</v>
       </c>
       <c r="AD15" s="67" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AE15" s="68" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AF15" s="68" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AG15" s="68"/>
       <c r="AH15" s="68"/>
@@ -6573,22 +6133,22 @@
         <v>0.7</v>
       </c>
       <c r="AQ15" s="72" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AR15" s="73" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AS15" s="74">
-        <v>1.5E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="AT15" s="75">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AU15" s="76">
-        <v>705</v>
+        <v>475</v>
       </c>
       <c r="AV15" s="47">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="AW15" s="47">
         <v>5</v>
@@ -6603,273 +6163,274 @@
         <v>2.25</v>
       </c>
       <c r="BA15" s="47">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="BB15" s="47">
         <v>15</v>
       </c>
       <c r="BC15" s="78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="51">
+        <v>0</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="53">
+        <v>0</v>
+      </c>
+      <c r="H16" s="54">
+        <v>0</v>
+      </c>
+      <c r="I16" s="55">
+        <v>25</v>
+      </c>
+      <c r="J16" s="56">
+        <v>0</v>
+      </c>
+      <c r="K16" s="57">
+        <v>430</v>
+      </c>
+      <c r="L16" s="58">
+        <v>2.4</v>
+      </c>
+      <c r="M16" s="58">
+        <v>0</v>
+      </c>
+      <c r="N16" s="58">
+        <v>1.6E-2</v>
+      </c>
+      <c r="O16" s="59">
+        <v>20</v>
+      </c>
+      <c r="P16" s="59">
+        <v>0.8</v>
+      </c>
+      <c r="Q16" s="60">
+        <v>2.1</v>
+      </c>
+      <c r="R16" s="56">
+        <v>1</v>
+      </c>
+      <c r="S16" s="58">
+        <v>100</v>
+      </c>
+      <c r="T16" s="58">
+        <v>40</v>
+      </c>
+      <c r="U16" s="61">
+        <v>28</v>
+      </c>
+      <c r="V16" s="62">
+        <v>12</v>
+      </c>
+      <c r="W16" s="58">
+        <v>6</v>
+      </c>
+      <c r="X16" s="59">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="61">
+        <v>30000</v>
+      </c>
+      <c r="Z16" s="63">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="60">
+        <v>0.04</v>
+      </c>
+      <c r="AB16" s="64">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="64">
+        <v>6</v>
+      </c>
+      <c r="AD16" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE16" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF16" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG16" s="68"/>
+      <c r="AH16" s="68"/>
+      <c r="AI16" s="68">
+        <v>2.1</v>
+      </c>
+      <c r="AJ16" s="68">
+        <v>2</v>
+      </c>
+      <c r="AK16" s="68">
+        <v>2</v>
+      </c>
+      <c r="AL16" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="68">
+        <v>10</v>
+      </c>
+      <c r="AP16" s="69">
+        <v>0.7</v>
+      </c>
+      <c r="AQ16" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR16" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS16" s="74">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AT16" s="75">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU16" s="76">
+        <v>705</v>
+      </c>
+      <c r="AV16" s="47">
+        <v>4.7</v>
+      </c>
+      <c r="AW16" s="47">
+        <v>5</v>
+      </c>
+      <c r="AX16" s="47">
+        <v>1.7</v>
+      </c>
+      <c r="AY16" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AZ16" s="47">
+        <v>2.25</v>
+      </c>
+      <c r="BA16" s="47">
+        <v>59</v>
+      </c>
+      <c r="BB16" s="47">
+        <v>15</v>
+      </c>
+      <c r="BC16" s="78" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B16" s="80" t="s">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B17" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C17" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D17" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="83">
+      <c r="E17" s="83">
         <v>1</v>
       </c>
-      <c r="F16" s="84" t="s">
+      <c r="F17" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="85">
+      <c r="G17" s="85">
         <v>2000</v>
       </c>
-      <c r="H16" s="86">
+      <c r="H17" s="86">
         <v>60</v>
       </c>
-      <c r="I16" s="87">
+      <c r="I17" s="87">
         <v>3</v>
       </c>
-      <c r="J16" s="88">
+      <c r="J17" s="88">
         <v>0</v>
       </c>
-      <c r="K16" s="89">
+      <c r="K17" s="89">
         <v>95</v>
       </c>
-      <c r="L16" s="90">
+      <c r="L17" s="90">
         <v>1.1499999999999999</v>
       </c>
-      <c r="M16" s="90">
+      <c r="M17" s="90">
         <v>1</v>
       </c>
-      <c r="N16" s="90">
+      <c r="N17" s="90">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="O16" s="90">
+      <c r="O17" s="90">
         <v>30</v>
       </c>
-      <c r="P16" s="90">
+      <c r="P17" s="90">
         <v>0.5</v>
       </c>
-      <c r="Q16" s="91">
+      <c r="Q17" s="91">
         <v>0.8</v>
       </c>
-      <c r="R16" s="88">
+      <c r="R17" s="88">
         <v>1.7</v>
       </c>
-      <c r="S16" s="90">
+      <c r="S17" s="90">
         <v>100</v>
       </c>
-      <c r="T16" s="90">
+      <c r="T17" s="90">
         <v>20</v>
       </c>
-      <c r="U16" s="92">
+      <c r="U17" s="92">
         <v>10</v>
       </c>
-      <c r="V16" s="88">
+      <c r="V17" s="88">
         <v>8</v>
       </c>
-      <c r="W16" s="90">
+      <c r="W17" s="90">
         <v>3</v>
       </c>
-      <c r="X16" s="90">
+      <c r="X17" s="90">
         <v>9</v>
       </c>
-      <c r="Y16" s="92">
+      <c r="Y17" s="92">
         <v>7000</v>
       </c>
-      <c r="Z16" s="93">
+      <c r="Z17" s="93">
         <v>2</v>
       </c>
-      <c r="AA16" s="94">
+      <c r="AA17" s="94">
         <v>0.19</v>
       </c>
-      <c r="AB16" s="94">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="94">
-        <v>12</v>
-      </c>
-      <c r="AD16" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE16" s="96" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF16" s="96" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG16" s="96"/>
-      <c r="AH16" s="96"/>
-      <c r="AI16" s="96">
-        <v>2.1</v>
-      </c>
-      <c r="AJ16" s="96">
-        <v>2</v>
-      </c>
-      <c r="AK16" s="96">
-        <v>2</v>
-      </c>
-      <c r="AL16" s="96" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="96" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN16" s="96" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO16" s="96">
-        <v>10</v>
-      </c>
-      <c r="AP16" s="97">
-        <v>0.7</v>
-      </c>
-      <c r="AQ16" s="98" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR16" s="99" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS16" s="100">
-        <v>1.9E-3</v>
-      </c>
-      <c r="AT16" s="101">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AU16" s="102">
-        <v>300</v>
-      </c>
-      <c r="AV16" s="82">
-        <v>2.4</v>
-      </c>
-      <c r="AW16" s="82">
-        <v>9.5</v>
-      </c>
-      <c r="AX16" s="82">
-        <v>1.7</v>
-      </c>
-      <c r="AY16" s="82">
-        <v>1</v>
-      </c>
-      <c r="AZ16" s="82">
-        <v>1.6</v>
-      </c>
-      <c r="BA16" s="82">
-        <v>9</v>
-      </c>
-      <c r="BB16" s="82">
-        <v>6</v>
-      </c>
-      <c r="BC16" s="103" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:55" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="105" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="106" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="83">
-        <v>2</v>
-      </c>
-      <c r="F17" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="108">
-        <v>11000</v>
-      </c>
-      <c r="H17" s="109">
-        <v>100</v>
-      </c>
-      <c r="I17" s="110">
-        <v>5</v>
-      </c>
-      <c r="J17" s="111">
-        <v>0</v>
-      </c>
-      <c r="K17" s="112">
-        <v>80</v>
-      </c>
-      <c r="L17" s="113">
-        <v>1.5</v>
-      </c>
-      <c r="M17" s="113">
-        <v>1</v>
-      </c>
-      <c r="N17" s="113">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="O17" s="113">
-        <v>30</v>
-      </c>
-      <c r="P17" s="113">
-        <v>0.5</v>
-      </c>
-      <c r="Q17" s="114">
-        <v>0.85</v>
-      </c>
-      <c r="R17" s="111">
-        <v>2.1</v>
-      </c>
-      <c r="S17" s="113">
-        <v>100</v>
-      </c>
-      <c r="T17" s="113">
-        <v>40</v>
-      </c>
-      <c r="U17" s="115">
-        <v>14</v>
-      </c>
-      <c r="V17" s="111">
-        <v>9</v>
-      </c>
-      <c r="W17" s="113">
-        <v>3</v>
-      </c>
-      <c r="X17" s="113">
-        <v>9</v>
-      </c>
-      <c r="Y17" s="115">
-        <v>8000</v>
-      </c>
-      <c r="Z17" s="116">
-        <v>2</v>
-      </c>
-      <c r="AA17" s="114">
-        <v>0.15</v>
-      </c>
-      <c r="AB17" s="114">
+      <c r="AB17" s="94">
         <v>0</v>
       </c>
       <c r="AC17" s="94">
         <v>12</v>
       </c>
       <c r="AD17" s="95" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AE17" s="96" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AF17" s="96" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AG17" s="96"/>
       <c r="AH17" s="96"/>
       <c r="AI17" s="96">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AJ17" s="96">
         <v>2</v>
@@ -6893,22 +6454,22 @@
         <v>0.7</v>
       </c>
       <c r="AQ17" s="98" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AR17" s="99" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AS17" s="100">
-        <v>1.8E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="AT17" s="101">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AU17" s="102">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="AV17" s="82">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AW17" s="82">
         <v>9.5</v>
@@ -6917,10 +6478,10 @@
         <v>1.7</v>
       </c>
       <c r="AY17" s="82">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AZ17" s="82">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="BA17" s="82">
         <v>9</v>
@@ -6929,134 +6490,274 @@
         <v>6</v>
       </c>
       <c r="BC17" s="103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="105" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="83">
+        <v>2</v>
+      </c>
+      <c r="F18" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="108">
+        <v>11000</v>
+      </c>
+      <c r="H18" s="109">
+        <v>100</v>
+      </c>
+      <c r="I18" s="110">
+        <v>5</v>
+      </c>
+      <c r="J18" s="111">
+        <v>0</v>
+      </c>
+      <c r="K18" s="112">
+        <v>80</v>
+      </c>
+      <c r="L18" s="113">
+        <v>1.5</v>
+      </c>
+      <c r="M18" s="113">
+        <v>1</v>
+      </c>
+      <c r="N18" s="113">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O18" s="113">
+        <v>30</v>
+      </c>
+      <c r="P18" s="113">
+        <v>0.5</v>
+      </c>
+      <c r="Q18" s="114">
+        <v>0.85</v>
+      </c>
+      <c r="R18" s="111">
+        <v>2.1</v>
+      </c>
+      <c r="S18" s="113">
+        <v>100</v>
+      </c>
+      <c r="T18" s="113">
+        <v>40</v>
+      </c>
+      <c r="U18" s="115">
+        <v>14</v>
+      </c>
+      <c r="V18" s="111">
         <v>9</v>
       </c>
+      <c r="W18" s="113">
+        <v>3</v>
+      </c>
+      <c r="X18" s="113">
+        <v>9</v>
+      </c>
+      <c r="Y18" s="115">
+        <v>8000</v>
+      </c>
+      <c r="Z18" s="116">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="114">
+        <v>0.15</v>
+      </c>
+      <c r="AB18" s="114">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="94">
+        <v>12</v>
+      </c>
+      <c r="AD18" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE18" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF18" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG18" s="96"/>
+      <c r="AH18" s="96"/>
+      <c r="AI18" s="96">
+        <v>2</v>
+      </c>
+      <c r="AJ18" s="96">
+        <v>2</v>
+      </c>
+      <c r="AK18" s="96">
+        <v>2</v>
+      </c>
+      <c r="AL18" s="96" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="96" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="96" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="96">
+        <v>10</v>
+      </c>
+      <c r="AP18" s="97">
+        <v>0.7</v>
+      </c>
+      <c r="AQ18" s="98" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR18" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS18" s="100">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AT18" s="101">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU18" s="102">
+        <v>322</v>
+      </c>
+      <c r="AV18" s="82">
+        <v>2.5</v>
+      </c>
+      <c r="AW18" s="82">
+        <v>9.5</v>
+      </c>
+      <c r="AX18" s="82">
+        <v>1.7</v>
+      </c>
+      <c r="AY18" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="AZ18" s="82">
+        <v>1.9</v>
+      </c>
+      <c r="BA18" s="82">
+        <v>9</v>
+      </c>
+      <c r="BB18" s="82">
+        <v>6</v>
+      </c>
+      <c r="BC18" s="103" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="18" spans="1:55" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="203" t="s">
+    <row r="19" spans="1:55" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="204"/>
-      <c r="K18" s="205" t="s">
+      <c r="J19" s="160"/>
+      <c r="K19" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="206"/>
-      <c r="M18" s="206"/>
-      <c r="N18" s="206"/>
-      <c r="O18" s="206"/>
-      <c r="P18" s="207"/>
-      <c r="Q18" s="29" t="s">
+      <c r="L19" s="162"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="162"/>
+      <c r="O19" s="162"/>
+      <c r="P19" s="163"/>
+      <c r="Q19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="R18" s="208" t="s">
+      <c r="R19" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="S18" s="209"/>
-      <c r="T18" s="209"/>
-      <c r="U18" s="210"/>
-      <c r="V18" s="211" t="s">
+      <c r="S19" s="165"/>
+      <c r="T19" s="165"/>
+      <c r="U19" s="166"/>
+      <c r="V19" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="W18" s="212"/>
-      <c r="X18" s="212"/>
-      <c r="Y18" s="213"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
+      <c r="W19" s="168"/>
+      <c r="X19" s="168"/>
+      <c r="Y19" s="169"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:55" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:55" ht="24" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:55" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>99</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="79" t="s">
+      <c r="G24" s="79" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:55" ht="185" x14ac:dyDescent="0.2">
-      <c r="B24" s="14" t="s">
+    <row r="25" spans="1:55" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C25" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D25" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E25" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F25" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B25" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="24">
-        <v>0</v>
-      </c>
-      <c r="E25" s="25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="s">
         <v>2</v>
       </c>
@@ -7070,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="34" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B27" s="23" t="s">
         <v>2</v>
       </c>
@@ -7090,33 +6791,33 @@
         <v>0</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B28" s="80" t="s">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B28" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="117" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="85">
+      <c r="C28" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="24">
         <v>0</v>
       </c>
-      <c r="E28" s="86">
+      <c r="E28" s="25">
         <v>0</v>
       </c>
-      <c r="F28" s="118" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="119">
-        <v>3</v>
+      <c r="F28" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B29" s="80" t="s">
         <v>2</v>
       </c>
@@ -7124,135 +6825,138 @@
         <v>96</v>
       </c>
       <c r="D29" s="85">
+        <v>0</v>
+      </c>
+      <c r="E29" s="86">
+        <v>0</v>
+      </c>
+      <c r="F29" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B30" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="117" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="85">
         <v>2000</v>
       </c>
-      <c r="E29" s="86">
+      <c r="E30" s="86">
         <v>60</v>
       </c>
-      <c r="F29" s="118" t="s">
+      <c r="F30" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="119">
+      <c r="G30" s="119">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B30" s="104" t="s">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B31" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="120" t="s">
+      <c r="C31" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="108">
+      <c r="D31" s="108">
         <v>11000</v>
       </c>
-      <c r="E30" s="109">
+      <c r="E31" s="109">
         <v>100</v>
       </c>
-      <c r="F30" s="118" t="s">
+      <c r="F31" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="121">
+      <c r="G31" s="121">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:55" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:55" ht="24" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:27" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
     </row>
-    <row r="38" spans="2:27" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:27" ht="24" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:27" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B40" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="2:27" ht="182" x14ac:dyDescent="0.2">
-      <c r="B41" s="14" t="s">
+    <row r="42" spans="2:27" ht="184.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C42" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D42" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E42" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="F42" s="32" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B42" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="24">
-        <v>0</v>
-      </c>
-      <c r="E42" s="25">
-        <v>0</v>
-      </c>
-      <c r="F42" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" s="23" t="s">
         <v>2</v>
       </c>
@@ -7266,10 +6970,10 @@
         <v>0</v>
       </c>
       <c r="F43" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" s="23" t="s">
         <v>2</v>
       </c>
@@ -7283,15 +6987,15 @@
         <v>0</v>
       </c>
       <c r="F44" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D45" s="24">
         <v>0</v>
@@ -7300,10 +7004,10 @@
         <v>0</v>
       </c>
       <c r="F45" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" s="23" t="s">
         <v>2</v>
       </c>
@@ -7311,310 +7015,325 @@
         <v>96</v>
       </c>
       <c r="D46" s="24">
+        <v>0</v>
+      </c>
+      <c r="E46" s="25">
+        <v>0</v>
+      </c>
+      <c r="F46" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B47" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="24">
         <v>2000</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E47" s="25">
         <v>60</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B47" s="26" t="s">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B48" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C48" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="27">
+      <c r="D48" s="27">
         <v>11000</v>
       </c>
-      <c r="E47" s="28">
+      <c r="E48" s="28">
         <v>100</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:19" ht="137" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="C54" s="179" t="s">
+    <row r="55" spans="2:19" ht="141" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="134" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="D54" s="179" t="s">
+      <c r="D55" s="135" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" s="136" t="s">
+        <v>130</v>
+      </c>
+      <c r="F55" s="137" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55" s="138" t="s">
+        <v>132</v>
+      </c>
+      <c r="H55" s="138" t="s">
+        <v>133</v>
+      </c>
+      <c r="I55" s="138" t="s">
+        <v>134</v>
+      </c>
+      <c r="J55" s="139" t="s">
+        <v>135</v>
+      </c>
+      <c r="K55" s="139" t="s">
+        <v>136</v>
+      </c>
+      <c r="L55" s="139" t="s">
+        <v>137</v>
+      </c>
+      <c r="M55" s="139" t="s">
+        <v>138</v>
+      </c>
+      <c r="N55" s="139" t="s">
+        <v>139</v>
+      </c>
+      <c r="O55" s="139" t="s">
+        <v>140</v>
+      </c>
+      <c r="P55" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q55" s="141" t="s">
+        <v>11</v>
+      </c>
+      <c r="R55" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="S55" s="142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B56" s="143" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="125" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="125" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" s="144"/>
+      <c r="F56" s="145">
+        <v>0</v>
+      </c>
+      <c r="G56" s="146">
+        <v>0</v>
+      </c>
+      <c r="H56" s="146">
+        <v>0</v>
+      </c>
+      <c r="I56" s="146">
+        <v>0</v>
+      </c>
+      <c r="J56" s="147" t="s">
+        <v>142</v>
+      </c>
+      <c r="K56" s="147"/>
+      <c r="L56" s="147"/>
+      <c r="M56" s="147"/>
+      <c r="N56" s="148"/>
+      <c r="O56" s="148"/>
+      <c r="P56" s="149" t="str">
+        <f t="shared" ref="P56:P58" si="0">UPPER(CONCATENATE("TID_","SKIN",SUBSTITUTE(C56,"dragon",""),"_NAME"))</f>
+        <v>TID_SKIN_HELICOPTER_0_NAME</v>
+      </c>
+      <c r="Q56" s="150" t="str">
+        <f t="shared" ref="Q56:Q58" si="1">UPPER(CONCATENATE("TID_",C56,"_DESC"))</f>
+        <v>TID_DRAGON_HELICOPTER_0_DESC</v>
+      </c>
+      <c r="R56" s="150" t="s">
+        <v>143</v>
+      </c>
+      <c r="S56" s="151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="152" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="125" t="s">
         <v>148</v>
       </c>
-      <c r="E54" s="180" t="s">
+      <c r="D57" s="125" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" s="153"/>
+      <c r="F57" s="154">
+        <v>1</v>
+      </c>
+      <c r="G57" s="155">
+        <v>600</v>
+      </c>
+      <c r="H57" s="155">
+        <v>0</v>
+      </c>
+      <c r="I57" s="155">
+        <v>4</v>
+      </c>
+      <c r="J57" s="156" t="s">
+        <v>142</v>
+      </c>
+      <c r="K57" s="156"/>
+      <c r="L57" s="156"/>
+      <c r="M57" s="156"/>
+      <c r="N57" s="156"/>
+      <c r="O57" s="156"/>
+      <c r="P57" s="157" t="str">
+        <f t="shared" si="0"/>
+        <v>TID_SKIN_ELECTRIC_0_NAME</v>
+      </c>
+      <c r="Q57" s="158" t="str">
+        <f t="shared" si="1"/>
+        <v>TID_DRAGON_ELECTRIC_0_DESC</v>
+      </c>
+      <c r="R57" s="158" t="s">
+        <v>144</v>
+      </c>
+      <c r="S57" s="151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B58" s="143" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="F54" s="181" t="s">
-        <v>150</v>
-      </c>
-      <c r="G54" s="182" t="s">
-        <v>151</v>
-      </c>
-      <c r="H54" s="182" t="s">
-        <v>152</v>
-      </c>
-      <c r="I54" s="182" t="s">
-        <v>153</v>
-      </c>
-      <c r="J54" s="183" t="s">
-        <v>154</v>
-      </c>
-      <c r="K54" s="183" t="s">
-        <v>155</v>
-      </c>
-      <c r="L54" s="183" t="s">
-        <v>156</v>
-      </c>
-      <c r="M54" s="183" t="s">
-        <v>157</v>
-      </c>
-      <c r="N54" s="183" t="s">
-        <v>158</v>
-      </c>
-      <c r="O54" s="183" t="s">
-        <v>159</v>
-      </c>
-      <c r="P54" s="184" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q54" s="185" t="s">
-        <v>11</v>
-      </c>
-      <c r="R54" s="185" t="s">
-        <v>1</v>
-      </c>
-      <c r="S54" s="186" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B55" s="187" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="136" t="s">
-        <v>166</v>
-      </c>
-      <c r="D55" s="136" t="s">
-        <v>144</v>
-      </c>
-      <c r="E55" s="188"/>
-      <c r="F55" s="189">
+      <c r="D58" s="131" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="144"/>
+      <c r="F58" s="145">
         <v>0</v>
       </c>
-      <c r="G55" s="190">
+      <c r="G58" s="146">
         <v>0</v>
       </c>
-      <c r="H55" s="190">
+      <c r="H58" s="146">
         <v>0</v>
       </c>
-      <c r="I55" s="190">
+      <c r="I58" s="146">
         <v>0</v>
       </c>
-      <c r="J55" s="191" t="s">
-        <v>161</v>
-      </c>
-      <c r="K55" s="191"/>
-      <c r="L55" s="191"/>
-      <c r="M55" s="191"/>
-      <c r="N55" s="192"/>
-      <c r="O55" s="192"/>
-      <c r="P55" s="193" t="str">
-        <f t="shared" ref="P55:P57" si="1">UPPER(CONCATENATE("TID_","SKIN",SUBSTITUTE(C55,"dragon",""),"_NAME"))</f>
-        <v>TID_SKIN_HELICOPTER_0_NAME</v>
-      </c>
-      <c r="Q55" s="194" t="str">
-        <f t="shared" ref="Q55:Q57" si="2">UPPER(CONCATENATE("TID_",C55,"_DESC"))</f>
-        <v>TID_DRAGON_HELICOPTER_0_DESC</v>
-      </c>
-      <c r="R55" s="194" t="s">
-        <v>162</v>
-      </c>
-      <c r="S55" s="195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="196" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="136" t="s">
-        <v>167</v>
-      </c>
-      <c r="D56" s="136" t="s">
-        <v>125</v>
-      </c>
-      <c r="E56" s="197"/>
-      <c r="F56" s="198">
-        <v>1</v>
-      </c>
-      <c r="G56" s="199">
-        <v>600</v>
-      </c>
-      <c r="H56" s="199">
-        <v>0</v>
-      </c>
-      <c r="I56" s="199">
-        <v>4</v>
-      </c>
-      <c r="J56" s="200" t="s">
-        <v>161</v>
-      </c>
-      <c r="K56" s="200"/>
-      <c r="L56" s="200"/>
-      <c r="M56" s="200"/>
-      <c r="N56" s="200"/>
-      <c r="O56" s="200"/>
-      <c r="P56" s="201" t="str">
+      <c r="J58" s="147" t="s">
+        <v>142</v>
+      </c>
+      <c r="K58" s="147"/>
+      <c r="L58" s="147"/>
+      <c r="M58" s="147"/>
+      <c r="N58" s="148"/>
+      <c r="O58" s="148"/>
+      <c r="P58" s="149" t="str">
+        <f t="shared" si="0"/>
+        <v>TID_SKIN_SONIC_0_NAME</v>
+      </c>
+      <c r="Q58" s="150" t="str">
         <f t="shared" si="1"/>
-        <v>TID_SKIN_ELECTRIC_0_NAME</v>
-      </c>
-      <c r="Q56" s="202" t="str">
-        <f t="shared" si="2"/>
-        <v>TID_DRAGON_ELECTRIC_0_DESC</v>
-      </c>
-      <c r="R56" s="202" t="s">
-        <v>163</v>
-      </c>
-      <c r="S56" s="195">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B57" s="187" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="165" t="s">
-        <v>168</v>
-      </c>
-      <c r="D57" s="165" t="s">
-        <v>126</v>
-      </c>
-      <c r="E57" s="188"/>
-      <c r="F57" s="189">
-        <v>0</v>
-      </c>
-      <c r="G57" s="190">
-        <v>0</v>
-      </c>
-      <c r="H57" s="190">
-        <v>0</v>
-      </c>
-      <c r="I57" s="190">
-        <v>0</v>
-      </c>
-      <c r="J57" s="191" t="s">
-        <v>161</v>
-      </c>
-      <c r="K57" s="191"/>
-      <c r="L57" s="191"/>
-      <c r="M57" s="191"/>
-      <c r="N57" s="192"/>
-      <c r="O57" s="192"/>
-      <c r="P57" s="193" t="str">
-        <f t="shared" si="1"/>
-        <v>TID_SKIN_SONIC_0_NAME</v>
-      </c>
-      <c r="Q57" s="194" t="str">
-        <f t="shared" si="2"/>
         <v>TID_DRAGON_SONIC_0_DESC</v>
       </c>
-      <c r="R57" s="194" t="s">
-        <v>164</v>
-      </c>
-      <c r="S57" s="195">
+      <c r="R58" s="150" t="s">
+        <v>145</v>
+      </c>
+      <c r="S58" s="151">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:Y19"/>
   </mergeCells>
-  <conditionalFormatting sqref="C16:C17 C12">
-    <cfRule type="duplicateValues" dxfId="20" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="19" priority="31"/>
+  <conditionalFormatting sqref="C17:C18 C13">
+    <cfRule type="duplicateValues" dxfId="24" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="18" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="17" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C30 C25">
-    <cfRule type="duplicateValues" dxfId="16" priority="33"/>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="duplicateValues" dxfId="21" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="duplicateValues" dxfId="15" priority="34"/>
+  <conditionalFormatting sqref="C30:C31 C26">
+    <cfRule type="duplicateValues" dxfId="20" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="duplicateValues" dxfId="14" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="duplicateValues" dxfId="13" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:C47 C42">
-    <cfRule type="duplicateValues" dxfId="12" priority="25"/>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="duplicateValues" dxfId="17" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="duplicateValues" dxfId="11" priority="26"/>
+  <conditionalFormatting sqref="C47:C48 C43">
+    <cfRule type="duplicateValues" dxfId="16" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="duplicateValues" dxfId="10" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="duplicateValues" dxfId="9" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC12:BC17">
-    <cfRule type="duplicateValues" dxfId="8" priority="24"/>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="duplicateValues" dxfId="13" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C5">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  <conditionalFormatting sqref="BC13:BC18">
+    <cfRule type="duplicateValues" dxfId="12" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN3:BN5">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  <conditionalFormatting sqref="C4:C6">
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  <conditionalFormatting sqref="T4:T6">
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D12:D17 D3:D5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <conditionalFormatting sqref="C58">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D13:D18">
       <formula1>INDIRECT("dragonTierDefinitions['[sku']]")</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{E0F4FA21-3726-AB43-946D-8E0F80332226}">
-      <formula1>"classic,special"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsemroud\Documents\Dragon\Docs\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\dragon\client\Docs\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="123">
   <si>
     <t>[sku]</t>
   </si>
@@ -50,12 +50,6 @@
     <t>dragon_fat</t>
   </si>
   <si>
-    <t>dragon_bug</t>
-  </si>
-  <si>
-    <t>dragon_chinese</t>
-  </si>
-  <si>
     <t>[order]</t>
   </si>
   <si>
@@ -95,21 +89,6 @@
     <t>tier_2</t>
   </si>
   <si>
-    <t>PF_DragonChineseResults</t>
-  </si>
-  <si>
-    <t>PF_DragonChineseMenu</t>
-  </si>
-  <si>
-    <t>PF_DragonChinese</t>
-  </si>
-  <si>
-    <t>PF_DragonBugMenu</t>
-  </si>
-  <si>
-    <t>PF_DragonBug</t>
-  </si>
-  <si>
     <t>PF_DragonFatMenu</t>
   </si>
   <si>
@@ -405,6 +384,15 @@
   </si>
   <si>
     <t>[upgradeLevelToUnlock]</t>
+  </si>
+  <si>
+    <t>{specialDragonPowerDefinitions}</t>
+  </si>
+  <si>
+    <t>[type]</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
 </sst>
 </file>
@@ -1164,6 +1152,24 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1196,24 +1202,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1241,29 +1229,94 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1300,6 +1353,31 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1337,96 +1415,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1510,13 +1498,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1526,6 +1507,13 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -3804,11 +3792,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:S6" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35">
-  <autoFilter ref="B3:S6"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35">
+  <autoFilter ref="B3:T6"/>
+  <tableColumns count="19">
     <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="34"/>
     <tableColumn id="2" name="[sku]"/>
+    <tableColumn id="3" name="[type]"/>
     <tableColumn id="5" name="[order]" dataDxfId="33"/>
     <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="32"/>
     <tableColumn id="8" name="[unlockPricePC]" dataDxfId="31"/>
@@ -3831,14 +3820,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="B30:F39"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="{specialDragonTierDefinitions}" dataDxfId="15"/>
+    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="15"/>
     <tableColumn id="2" name="[sku]" dataDxfId="14"/>
-    <tableColumn id="3" name="[specialDragon]" dataDxfId="4"/>
-    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="2"/>
-    <tableColumn id="5" name="[icon]" dataDxfId="3">
+    <tableColumn id="3" name="[specialDragon]" dataDxfId="13"/>
+    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="12"/>
+    <tableColumn id="5" name="[icon]" dataDxfId="11">
       <calculatedColumnFormula>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4111,8 +4100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4185,7 +4174,7 @@
   <sheetData>
     <row r="1" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4215,57 +4204,60 @@
     </row>
     <row r="3" spans="1:54" ht="147" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="61" t="s">
+      <c r="D3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="83" t="s">
+      <c r="O3" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="P3" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="Q3" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="80" t="s">
+      <c r="R3" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="80" t="s">
+      <c r="S3" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="N3" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="O3" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="P3" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="R3" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="S3" s="71" t="s">
+      <c r="T3" s="71" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4274,30 +4266,33 @@
         <v>2</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="64">
+        <v>81</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="64">
         <v>0</v>
       </c>
-      <c r="E4" s="65">
+      <c r="F4" s="65">
         <v>200</v>
       </c>
-      <c r="F4" s="66">
+      <c r="G4" s="66">
         <v>400</v>
       </c>
-      <c r="G4" s="78"/>
       <c r="H4" s="78"/>
       <c r="I4" s="78"/>
-      <c r="J4" s="76"/>
+      <c r="J4" s="78"/>
       <c r="K4" s="76"/>
       <c r="L4" s="76"/>
-      <c r="M4" s="84"/>
+      <c r="M4" s="76"/>
       <c r="N4" s="84"/>
       <c r="O4" s="84"/>
-      <c r="P4" s="74"/>
+      <c r="P4" s="84"/>
       <c r="Q4" s="74"/>
       <c r="R4" s="74"/>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="74"/>
+      <c r="T4" s="72" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4306,30 +4301,57 @@
         <v>2</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="64">
+        <v>79</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="64">
         <v>1</v>
       </c>
-      <c r="E5" s="65">
+      <c r="F5" s="65">
         <v>200</v>
       </c>
-      <c r="F5" s="66">
+      <c r="G5" s="66">
         <v>400</v>
       </c>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="72" t="s">
+      <c r="H5" s="78">
+        <v>30</v>
+      </c>
+      <c r="I5" s="78">
+        <v>0</v>
+      </c>
+      <c r="J5" s="78">
+        <v>100</v>
+      </c>
+      <c r="K5" s="76">
+        <v>30</v>
+      </c>
+      <c r="L5" s="76">
+        <v>0</v>
+      </c>
+      <c r="M5" s="76">
+        <v>100</v>
+      </c>
+      <c r="N5" s="84">
+        <v>30</v>
+      </c>
+      <c r="O5" s="84">
+        <v>0</v>
+      </c>
+      <c r="P5" s="84">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="74">
+        <v>1</v>
+      </c>
+      <c r="R5" s="74">
+        <v>1</v>
+      </c>
+      <c r="S5" s="74">
+        <v>1</v>
+      </c>
+      <c r="T5" s="72" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4338,30 +4360,33 @@
         <v>2</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="64">
+        <v>80</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="64">
         <v>2</v>
       </c>
-      <c r="E6" s="69">
+      <c r="F6" s="69">
         <v>200</v>
       </c>
-      <c r="F6" s="70">
+      <c r="G6" s="70">
         <v>400</v>
       </c>
-      <c r="G6" s="79"/>
       <c r="H6" s="79"/>
       <c r="I6" s="79"/>
-      <c r="J6" s="77"/>
+      <c r="J6" s="79"/>
       <c r="K6" s="77"/>
       <c r="L6" s="77"/>
-      <c r="M6" s="85"/>
+      <c r="M6" s="77"/>
       <c r="N6" s="85"/>
       <c r="O6" s="85"/>
-      <c r="P6" s="75"/>
+      <c r="P6" s="85"/>
       <c r="Q6" s="75"/>
       <c r="R6" s="75"/>
-      <c r="S6" s="73" t="s">
+      <c r="S6" s="75"/>
+      <c r="T6" s="73" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4426,7 +4451,7 @@
     <row r="9" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4485,160 +4510,160 @@
     </row>
     <row r="12" spans="1:54" ht="163.5" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="Q12" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="Z12" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA12" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="AB12" s="28" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AC12" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD12" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE12" s="23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AF12" s="23" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AG12" s="23" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH12" s="23" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AI12" s="23" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AJ12" s="23" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="AK12" s="23" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AL12" s="23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AM12" s="23" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AN12" s="23" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AO12" s="27" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AP12" s="29" t="s">
         <v>3</v>
       </c>
       <c r="AQ12" s="31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AR12" s="30" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AS12" s="32" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AT12" s="26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AU12" s="25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AV12" s="25" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="AW12" s="25" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AX12" s="25" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY12" s="25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AZ12" s="22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="BA12" s="22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="BB12" s="25" t="s">
         <v>1</v>
@@ -4649,459 +4674,201 @@
         <v>2</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G13" s="39">
         <v>0</v>
       </c>
-      <c r="H13" s="40">
-        <v>5</v>
-      </c>
-      <c r="I13" s="41">
-        <v>-2</v>
-      </c>
-      <c r="J13" s="42">
-        <v>170</v>
-      </c>
-      <c r="K13" s="43">
-        <v>1.5</v>
-      </c>
-      <c r="L13" s="43">
-        <v>0</v>
-      </c>
-      <c r="M13" s="43">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="N13" s="44">
-        <v>30</v>
-      </c>
-      <c r="O13" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="P13" s="45">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="41">
-        <v>1</v>
-      </c>
-      <c r="R13" s="43">
-        <v>100</v>
-      </c>
-      <c r="S13" s="43">
-        <v>40</v>
-      </c>
-      <c r="T13" s="46">
-        <v>28</v>
-      </c>
-      <c r="U13" s="47">
-        <v>9</v>
-      </c>
-      <c r="V13" s="43">
-        <v>3</v>
-      </c>
-      <c r="W13" s="44">
-        <v>9</v>
-      </c>
-      <c r="X13" s="46">
-        <v>8000</v>
-      </c>
-      <c r="Y13" s="48">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="45">
-        <v>0.13</v>
-      </c>
-      <c r="AA13" s="49">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="50">
-        <v>6</v>
-      </c>
-      <c r="AC13" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD13" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE13" s="52" t="s">
-        <v>36</v>
-      </c>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
       <c r="AF13" s="52"/>
       <c r="AG13" s="52"/>
-      <c r="AH13" s="52">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AI13" s="52">
-        <v>2</v>
-      </c>
-      <c r="AJ13" s="52">
-        <v>2</v>
-      </c>
-      <c r="AK13" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="52">
-        <v>10</v>
-      </c>
-      <c r="AO13" s="53">
-        <v>0.55999999999999994</v>
-      </c>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="52"/>
+      <c r="AL13" s="52"/>
+      <c r="AM13" s="52"/>
+      <c r="AN13" s="52"/>
+      <c r="AO13" s="53"/>
       <c r="AP13" s="54"/>
       <c r="AQ13" s="55"/>
-      <c r="AR13" s="56">
-        <v>2E-3</v>
-      </c>
-      <c r="AS13" s="57">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT13" s="58">
-        <v>260</v>
-      </c>
-      <c r="AU13" s="33">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AV13" s="33">
-        <v>5</v>
-      </c>
-      <c r="AW13" s="33">
-        <v>1.7</v>
-      </c>
-      <c r="AX13" s="59">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AY13" s="59">
-        <v>2.25</v>
-      </c>
-      <c r="AZ13" s="59">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="59">
-        <v>8</v>
-      </c>
-      <c r="BB13" s="33" t="s">
-        <v>4</v>
-      </c>
+      <c r="AR13" s="56"/>
+      <c r="AS13" s="57"/>
+      <c r="AT13" s="58"/>
+      <c r="AU13" s="33"/>
+      <c r="AV13" s="33"/>
+      <c r="AW13" s="33"/>
+      <c r="AX13" s="59"/>
+      <c r="AY13" s="59"/>
+      <c r="AZ13" s="59"/>
+      <c r="BA13" s="59"/>
+      <c r="BB13" s="33"/>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B14" s="34" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G14" s="39">
         <v>10</v>
       </c>
-      <c r="H14" s="40">
-        <v>10</v>
-      </c>
-      <c r="I14" s="41">
-        <v>0</v>
-      </c>
-      <c r="J14" s="42">
-        <v>280</v>
-      </c>
-      <c r="K14" s="43">
-        <v>1.9</v>
-      </c>
-      <c r="L14" s="43">
-        <v>0</v>
-      </c>
-      <c r="M14" s="43">
-        <v>1.2E-2</v>
-      </c>
-      <c r="N14" s="44">
-        <v>30</v>
-      </c>
-      <c r="O14" s="44">
-        <v>0.6</v>
-      </c>
-      <c r="P14" s="45">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="Q14" s="41">
-        <v>1</v>
-      </c>
-      <c r="R14" s="43">
-        <v>100</v>
-      </c>
-      <c r="S14" s="43">
-        <v>40</v>
-      </c>
-      <c r="T14" s="46">
-        <v>28</v>
-      </c>
-      <c r="U14" s="47">
-        <v>11</v>
-      </c>
-      <c r="V14" s="43">
-        <v>4</v>
-      </c>
-      <c r="W14" s="44">
-        <v>10</v>
-      </c>
-      <c r="X14" s="46">
-        <v>10000</v>
-      </c>
-      <c r="Y14" s="48">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="45">
-        <v>0.08</v>
-      </c>
-      <c r="AA14" s="49">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="50">
-        <v>6</v>
-      </c>
-      <c r="AC14" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD14" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE14" s="52" t="s">
-        <v>34</v>
-      </c>
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="52"/>
+      <c r="AE14" s="52"/>
       <c r="AF14" s="52"/>
       <c r="AG14" s="52"/>
-      <c r="AH14" s="52">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AI14" s="52">
-        <v>2</v>
-      </c>
-      <c r="AJ14" s="52">
-        <v>2</v>
-      </c>
-      <c r="AK14" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="52">
-        <v>10</v>
-      </c>
-      <c r="AO14" s="53">
-        <v>0.7</v>
-      </c>
+      <c r="AH14" s="52"/>
+      <c r="AI14" s="52"/>
+      <c r="AJ14" s="52"/>
+      <c r="AK14" s="52"/>
+      <c r="AL14" s="52"/>
+      <c r="AM14" s="52"/>
+      <c r="AN14" s="52"/>
+      <c r="AO14" s="53"/>
       <c r="AP14" s="54"/>
       <c r="AQ14" s="55"/>
-      <c r="AR14" s="56">
-        <v>1.8E-3</v>
-      </c>
-      <c r="AS14" s="57">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT14" s="58">
-        <v>333</v>
-      </c>
-      <c r="AU14" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="AV14" s="33">
-        <v>5</v>
-      </c>
-      <c r="AW14" s="33">
-        <v>1.7</v>
-      </c>
-      <c r="AX14" s="59">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AY14" s="59">
-        <v>2.25</v>
-      </c>
-      <c r="AZ14" s="59">
-        <v>9</v>
-      </c>
-      <c r="BA14" s="59">
-        <v>8</v>
-      </c>
-      <c r="BB14" s="33" t="s">
-        <v>5</v>
-      </c>
+      <c r="AR14" s="56"/>
+      <c r="AS14" s="57"/>
+      <c r="AT14" s="58"/>
+      <c r="AU14" s="33"/>
+      <c r="AV14" s="33"/>
+      <c r="AW14" s="33"/>
+      <c r="AX14" s="59"/>
+      <c r="AY14" s="59"/>
+      <c r="AZ14" s="59"/>
+      <c r="BA14" s="59"/>
+      <c r="BB14" s="33"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B15" s="34" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15" s="39">
         <v>20</v>
       </c>
-      <c r="H15" s="40">
-        <v>15</v>
-      </c>
-      <c r="I15" s="41">
-        <v>0</v>
-      </c>
-      <c r="J15" s="42">
-        <v>400</v>
-      </c>
-      <c r="K15" s="43">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="L15" s="43">
-        <v>0</v>
-      </c>
-      <c r="M15" s="43">
-        <v>1.4E-2</v>
-      </c>
-      <c r="N15" s="44">
-        <v>25</v>
-      </c>
-      <c r="O15" s="44">
-        <v>0.7</v>
-      </c>
-      <c r="P15" s="45">
-        <v>1.75</v>
-      </c>
-      <c r="Q15" s="41">
-        <v>1</v>
-      </c>
-      <c r="R15" s="43">
-        <v>100</v>
-      </c>
-      <c r="S15" s="43">
-        <v>40</v>
-      </c>
-      <c r="T15" s="46">
-        <v>28</v>
-      </c>
-      <c r="U15" s="47">
-        <v>11.5</v>
-      </c>
-      <c r="V15" s="43">
-        <v>5</v>
-      </c>
-      <c r="W15" s="44">
-        <v>10</v>
-      </c>
-      <c r="X15" s="46">
-        <v>20000</v>
-      </c>
-      <c r="Y15" s="48">
-        <v>4</v>
-      </c>
-      <c r="Z15" s="45">
-        <v>0.05</v>
-      </c>
-      <c r="AA15" s="49">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="50">
-        <v>6</v>
-      </c>
-      <c r="AC15" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD15" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE15" s="52" t="s">
-        <v>31</v>
-      </c>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="52"/>
       <c r="AF15" s="52"/>
       <c r="AG15" s="52"/>
-      <c r="AH15" s="52">
-        <v>2.1</v>
-      </c>
-      <c r="AI15" s="52">
-        <v>2</v>
-      </c>
-      <c r="AJ15" s="52">
-        <v>2</v>
-      </c>
-      <c r="AK15" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="52">
-        <v>10</v>
-      </c>
-      <c r="AO15" s="53">
-        <v>0.7</v>
-      </c>
+      <c r="AH15" s="52"/>
+      <c r="AI15" s="52"/>
+      <c r="AJ15" s="52"/>
+      <c r="AK15" s="52"/>
+      <c r="AL15" s="52"/>
+      <c r="AM15" s="52"/>
+      <c r="AN15" s="52"/>
+      <c r="AO15" s="53"/>
       <c r="AP15" s="54"/>
       <c r="AQ15" s="55"/>
-      <c r="AR15" s="56">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="AS15" s="57">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT15" s="58">
-        <v>475</v>
-      </c>
-      <c r="AU15" s="33">
-        <v>3.4</v>
-      </c>
-      <c r="AV15" s="33">
-        <v>5</v>
-      </c>
-      <c r="AW15" s="33">
-        <v>1.7</v>
-      </c>
-      <c r="AX15" s="59">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AY15" s="59">
-        <v>2.25</v>
-      </c>
-      <c r="AZ15" s="59">
-        <v>45</v>
-      </c>
-      <c r="BA15" s="59">
-        <v>15</v>
-      </c>
-      <c r="BB15" s="33" t="s">
-        <v>6</v>
-      </c>
+      <c r="AR15" s="56"/>
+      <c r="AS15" s="57"/>
+      <c r="AT15" s="58"/>
+      <c r="AU15" s="33"/>
+      <c r="AV15" s="33"/>
+      <c r="AW15" s="33"/>
+      <c r="AX15" s="59"/>
+      <c r="AY15" s="59"/>
+      <c r="AZ15" s="59"/>
+      <c r="BA15" s="59"/>
+      <c r="BB15" s="33"/>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -5109,190 +4876,104 @@
         <v>2</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G16" s="39">
         <v>30</v>
       </c>
-      <c r="H16" s="40">
-        <v>25</v>
-      </c>
-      <c r="I16" s="41">
-        <v>0</v>
-      </c>
-      <c r="J16" s="42">
-        <v>430</v>
-      </c>
-      <c r="K16" s="43">
-        <v>2.4</v>
-      </c>
-      <c r="L16" s="43">
-        <v>0</v>
-      </c>
-      <c r="M16" s="43">
-        <v>1.6E-2</v>
-      </c>
-      <c r="N16" s="44">
-        <v>20</v>
-      </c>
-      <c r="O16" s="44">
-        <v>0.8</v>
-      </c>
-      <c r="P16" s="45">
-        <v>2.1</v>
-      </c>
-      <c r="Q16" s="41">
-        <v>1</v>
-      </c>
-      <c r="R16" s="43">
-        <v>100</v>
-      </c>
-      <c r="S16" s="43">
-        <v>40</v>
-      </c>
-      <c r="T16" s="46">
-        <v>28</v>
-      </c>
-      <c r="U16" s="47">
-        <v>12</v>
-      </c>
-      <c r="V16" s="43">
-        <v>6</v>
-      </c>
-      <c r="W16" s="44">
-        <v>10</v>
-      </c>
-      <c r="X16" s="46">
-        <v>30000</v>
-      </c>
-      <c r="Y16" s="48">
-        <v>5</v>
-      </c>
-      <c r="Z16" s="45">
-        <v>0.04</v>
-      </c>
-      <c r="AA16" s="49">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="50">
-        <v>6</v>
-      </c>
-      <c r="AC16" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD16" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE16" s="52" t="s">
-        <v>28</v>
-      </c>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="52"/>
+      <c r="AE16" s="52"/>
       <c r="AF16" s="52"/>
       <c r="AG16" s="52"/>
-      <c r="AH16" s="52">
-        <v>2.1</v>
-      </c>
-      <c r="AI16" s="52">
-        <v>2</v>
-      </c>
-      <c r="AJ16" s="52">
-        <v>2</v>
-      </c>
-      <c r="AK16" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL16" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN16" s="52">
-        <v>10</v>
-      </c>
-      <c r="AO16" s="53">
-        <v>0.7</v>
-      </c>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="52"/>
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="52"/>
+      <c r="AL16" s="52"/>
+      <c r="AM16" s="52"/>
+      <c r="AN16" s="52"/>
+      <c r="AO16" s="53"/>
       <c r="AP16" s="54"/>
       <c r="AQ16" s="55"/>
-      <c r="AR16" s="56">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AS16" s="57">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT16" s="58">
-        <v>705</v>
-      </c>
-      <c r="AU16" s="33">
-        <v>4.7</v>
-      </c>
-      <c r="AV16" s="33">
-        <v>5</v>
-      </c>
-      <c r="AW16" s="33">
-        <v>1.7</v>
-      </c>
-      <c r="AX16" s="59">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AY16" s="59">
-        <v>2.25</v>
-      </c>
-      <c r="AZ16" s="59">
-        <v>59</v>
-      </c>
-      <c r="BA16" s="59">
-        <v>15</v>
-      </c>
-      <c r="BB16" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="AR16" s="56"/>
+      <c r="AS16" s="57"/>
+      <c r="AT16" s="58"/>
+      <c r="AU16" s="33"/>
+      <c r="AV16" s="33"/>
+      <c r="AW16" s="33"/>
+      <c r="AX16" s="59"/>
+      <c r="AY16" s="59"/>
+      <c r="AZ16" s="59"/>
+      <c r="BA16" s="59"/>
+      <c r="BB16" s="33"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B17" s="34" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G17" s="39">
         <v>0</v>
       </c>
       <c r="H17" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" s="41">
+        <v>-2</v>
+      </c>
+      <c r="J17" s="42">
+        <v>170</v>
+      </c>
+      <c r="K17" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="L17" s="43">
         <v>0</v>
       </c>
-      <c r="J17" s="42">
-        <v>95</v>
-      </c>
-      <c r="K17" s="43">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L17" s="43">
-        <v>1</v>
-      </c>
       <c r="M17" s="43">
-        <v>8.5000000000000006E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="N17" s="44">
         <v>30</v>
@@ -5301,22 +4982,22 @@
         <v>0.5</v>
       </c>
       <c r="P17" s="45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="41">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="R17" s="43">
         <v>100</v>
       </c>
       <c r="S17" s="43">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="T17" s="46">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="U17" s="47">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V17" s="43">
         <v>3</v>
@@ -5325,33 +5006,33 @@
         <v>9</v>
       </c>
       <c r="X17" s="46">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Y17" s="48">
         <v>2</v>
       </c>
       <c r="Z17" s="45">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="AA17" s="49">
         <v>0</v>
       </c>
       <c r="AB17" s="50">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AC17" s="51" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AD17" s="52" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE17" s="52" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF17" s="52"/>
       <c r="AG17" s="52"/>
       <c r="AH17" s="52">
-        <v>2.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AI17" s="52">
         <v>2</v>
@@ -5372,42 +5053,42 @@
         <v>10</v>
       </c>
       <c r="AO17" s="53">
-        <v>0.7</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="AP17" s="54"/>
       <c r="AQ17" s="55"/>
       <c r="AR17" s="56">
-        <v>1.9E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="AS17" s="57">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AT17" s="58">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AU17" s="33">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AV17" s="33">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="AW17" s="33">
         <v>1.7</v>
       </c>
       <c r="AX17" s="59">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AY17" s="59">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="AZ17" s="59">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="59">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB17" s="33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
@@ -5415,217 +5096,475 @@
         <v>2</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G18" s="39">
         <v>10</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="52"/>
+      <c r="H18" s="40">
+        <v>10</v>
+      </c>
+      <c r="I18" s="41">
+        <v>0</v>
+      </c>
+      <c r="J18" s="42">
+        <v>280</v>
+      </c>
+      <c r="K18" s="43">
+        <v>1.9</v>
+      </c>
+      <c r="L18" s="43">
+        <v>0</v>
+      </c>
+      <c r="M18" s="43">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N18" s="44">
+        <v>30</v>
+      </c>
+      <c r="O18" s="44">
+        <v>0.6</v>
+      </c>
+      <c r="P18" s="45">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Q18" s="41">
+        <v>1</v>
+      </c>
+      <c r="R18" s="43">
+        <v>125</v>
+      </c>
+      <c r="S18" s="43">
+        <v>40</v>
+      </c>
+      <c r="T18" s="46">
+        <v>28</v>
+      </c>
+      <c r="U18" s="47">
+        <v>11</v>
+      </c>
+      <c r="V18" s="43">
+        <v>4</v>
+      </c>
+      <c r="W18" s="44">
+        <v>10</v>
+      </c>
+      <c r="X18" s="46">
+        <v>10000</v>
+      </c>
+      <c r="Y18" s="48">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="45">
+        <v>0.08</v>
+      </c>
+      <c r="AA18" s="49">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="50">
+        <v>6</v>
+      </c>
+      <c r="AC18" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD18" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE18" s="52" t="s">
+        <v>27</v>
+      </c>
       <c r="AF18" s="52"/>
       <c r="AG18" s="52"/>
-      <c r="AH18" s="52"/>
-      <c r="AI18" s="52"/>
-      <c r="AJ18" s="52"/>
-      <c r="AK18" s="52"/>
-      <c r="AL18" s="52"/>
-      <c r="AM18" s="52"/>
-      <c r="AN18" s="52"/>
-      <c r="AO18" s="53"/>
+      <c r="AH18" s="52">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI18" s="52">
+        <v>2</v>
+      </c>
+      <c r="AJ18" s="52">
+        <v>2</v>
+      </c>
+      <c r="AK18" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="52">
+        <v>10</v>
+      </c>
+      <c r="AO18" s="53">
+        <v>0.7</v>
+      </c>
       <c r="AP18" s="54"/>
       <c r="AQ18" s="55"/>
-      <c r="AR18" s="56"/>
-      <c r="AS18" s="57"/>
-      <c r="AT18" s="58"/>
-      <c r="AU18" s="33"/>
-      <c r="AV18" s="33"/>
-      <c r="AW18" s="33"/>
-      <c r="AX18" s="59"/>
-      <c r="AY18" s="59"/>
-      <c r="AZ18" s="59"/>
-      <c r="BA18" s="59"/>
-      <c r="BB18" s="33"/>
+      <c r="AR18" s="56">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AS18" s="57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AT18" s="58">
+        <v>333</v>
+      </c>
+      <c r="AU18" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="AV18" s="33">
+        <v>5</v>
+      </c>
+      <c r="AW18" s="33">
+        <v>1.7</v>
+      </c>
+      <c r="AX18" s="59">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AY18" s="59">
+        <v>2.25</v>
+      </c>
+      <c r="AZ18" s="59">
+        <v>9</v>
+      </c>
+      <c r="BA18" s="59">
+        <v>8</v>
+      </c>
+      <c r="BB18" s="33" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G19" s="39">
         <v>20</v>
       </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="51"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="52"/>
+      <c r="H19" s="40">
+        <v>15</v>
+      </c>
+      <c r="I19" s="41">
+        <v>0</v>
+      </c>
+      <c r="J19" s="42">
+        <v>400</v>
+      </c>
+      <c r="K19" s="43">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L19" s="43">
+        <v>0</v>
+      </c>
+      <c r="M19" s="43">
+        <v>1.4E-2</v>
+      </c>
+      <c r="N19" s="44">
+        <v>25</v>
+      </c>
+      <c r="O19" s="44">
+        <v>0.7</v>
+      </c>
+      <c r="P19" s="45">
+        <v>1.75</v>
+      </c>
+      <c r="Q19" s="41">
+        <v>1</v>
+      </c>
+      <c r="R19" s="43">
+        <v>150</v>
+      </c>
+      <c r="S19" s="43">
+        <v>40</v>
+      </c>
+      <c r="T19" s="46">
+        <v>28</v>
+      </c>
+      <c r="U19" s="47">
+        <v>11.5</v>
+      </c>
+      <c r="V19" s="43">
+        <v>5</v>
+      </c>
+      <c r="W19" s="44">
+        <v>10</v>
+      </c>
+      <c r="X19" s="46">
+        <v>20000</v>
+      </c>
+      <c r="Y19" s="48">
+        <v>4</v>
+      </c>
+      <c r="Z19" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="AA19" s="49">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="50">
+        <v>6</v>
+      </c>
+      <c r="AC19" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD19" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE19" s="52" t="s">
+        <v>24</v>
+      </c>
       <c r="AF19" s="52"/>
       <c r="AG19" s="52"/>
-      <c r="AH19" s="52"/>
-      <c r="AI19" s="52"/>
-      <c r="AJ19" s="52"/>
-      <c r="AK19" s="52"/>
-      <c r="AL19" s="52"/>
-      <c r="AM19" s="52"/>
-      <c r="AN19" s="52"/>
-      <c r="AO19" s="53"/>
+      <c r="AH19" s="52">
+        <v>2.1</v>
+      </c>
+      <c r="AI19" s="52">
+        <v>2</v>
+      </c>
+      <c r="AJ19" s="52">
+        <v>2</v>
+      </c>
+      <c r="AK19" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="52">
+        <v>10</v>
+      </c>
+      <c r="AO19" s="53">
+        <v>0.7</v>
+      </c>
       <c r="AP19" s="54"/>
       <c r="AQ19" s="55"/>
-      <c r="AR19" s="56"/>
-      <c r="AS19" s="57"/>
-      <c r="AT19" s="58"/>
-      <c r="AU19" s="33"/>
-      <c r="AV19" s="33"/>
-      <c r="AW19" s="33"/>
-      <c r="AX19" s="59"/>
-      <c r="AY19" s="59"/>
-      <c r="AZ19" s="59"/>
-      <c r="BA19" s="59"/>
-      <c r="BB19" s="33"/>
+      <c r="AR19" s="56">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AS19" s="57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AT19" s="58">
+        <v>475</v>
+      </c>
+      <c r="AU19" s="33">
+        <v>3.4</v>
+      </c>
+      <c r="AV19" s="33">
+        <v>5</v>
+      </c>
+      <c r="AW19" s="33">
+        <v>1.7</v>
+      </c>
+      <c r="AX19" s="59">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AY19" s="59">
+        <v>2.25</v>
+      </c>
+      <c r="AZ19" s="59">
+        <v>45</v>
+      </c>
+      <c r="BA19" s="59">
+        <v>15</v>
+      </c>
+      <c r="BB19" s="33" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G20" s="39">
         <v>30</v>
       </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="49"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
+      <c r="H20" s="40">
+        <v>25</v>
+      </c>
+      <c r="I20" s="41">
+        <v>0</v>
+      </c>
+      <c r="J20" s="42">
+        <v>430</v>
+      </c>
+      <c r="K20" s="43">
+        <v>2.4</v>
+      </c>
+      <c r="L20" s="43">
+        <v>0</v>
+      </c>
+      <c r="M20" s="43">
+        <v>1.6E-2</v>
+      </c>
+      <c r="N20" s="44">
+        <v>20</v>
+      </c>
+      <c r="O20" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="P20" s="45">
+        <v>2.1</v>
+      </c>
+      <c r="Q20" s="41">
+        <v>1</v>
+      </c>
+      <c r="R20" s="43">
+        <v>175</v>
+      </c>
+      <c r="S20" s="43">
+        <v>40</v>
+      </c>
+      <c r="T20" s="46">
+        <v>28</v>
+      </c>
+      <c r="U20" s="47">
+        <v>12</v>
+      </c>
+      <c r="V20" s="43">
+        <v>6</v>
+      </c>
+      <c r="W20" s="44">
+        <v>10</v>
+      </c>
+      <c r="X20" s="46">
+        <v>30000</v>
+      </c>
+      <c r="Y20" s="48">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="45">
+        <v>0.04</v>
+      </c>
+      <c r="AA20" s="49">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="50">
+        <v>6</v>
+      </c>
+      <c r="AC20" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD20" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE20" s="52" t="s">
+        <v>21</v>
+      </c>
       <c r="AF20" s="52"/>
       <c r="AG20" s="52"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="52"/>
-      <c r="AJ20" s="52"/>
-      <c r="AK20" s="52"/>
-      <c r="AL20" s="52"/>
-      <c r="AM20" s="52"/>
-      <c r="AN20" s="52"/>
-      <c r="AO20" s="53"/>
+      <c r="AH20" s="52">
+        <v>2.1</v>
+      </c>
+      <c r="AI20" s="52">
+        <v>2</v>
+      </c>
+      <c r="AJ20" s="52">
+        <v>2</v>
+      </c>
+      <c r="AK20" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="52">
+        <v>10</v>
+      </c>
+      <c r="AO20" s="53">
+        <v>0.7</v>
+      </c>
       <c r="AP20" s="54"/>
       <c r="AQ20" s="55"/>
-      <c r="AR20" s="56"/>
-      <c r="AS20" s="57"/>
-      <c r="AT20" s="58"/>
-      <c r="AU20" s="33"/>
-      <c r="AV20" s="33"/>
-      <c r="AW20" s="33"/>
-      <c r="AX20" s="59"/>
-      <c r="AY20" s="59"/>
-      <c r="AZ20" s="59"/>
-      <c r="BA20" s="59"/>
-      <c r="BB20" s="33"/>
+      <c r="AR20" s="56">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AS20" s="57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AT20" s="58">
+        <v>705</v>
+      </c>
+      <c r="AU20" s="33">
+        <v>4.7</v>
+      </c>
+      <c r="AV20" s="33">
+        <v>5</v>
+      </c>
+      <c r="AW20" s="33">
+        <v>1.7</v>
+      </c>
+      <c r="AX20" s="59">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AY20" s="59">
+        <v>2.25</v>
+      </c>
+      <c r="AZ20" s="59">
+        <v>59</v>
+      </c>
+      <c r="BA20" s="59">
+        <v>15</v>
+      </c>
+      <c r="BB20" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B21" s="34" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G21" s="39">
         <v>0</v>
@@ -5683,169 +5622,83 @@
         <v>2</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G22" s="39">
         <v>10</v>
       </c>
-      <c r="H22" s="40">
-        <v>5</v>
-      </c>
-      <c r="I22" s="41">
-        <v>0</v>
-      </c>
-      <c r="J22" s="42">
-        <v>80</v>
-      </c>
-      <c r="K22" s="43">
-        <v>1.5</v>
-      </c>
-      <c r="L22" s="43">
-        <v>1</v>
-      </c>
-      <c r="M22" s="43">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="N22" s="44">
-        <v>30</v>
-      </c>
-      <c r="O22" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="P22" s="45">
-        <v>0.85</v>
-      </c>
-      <c r="Q22" s="41">
-        <v>2.1</v>
-      </c>
-      <c r="R22" s="43">
-        <v>100</v>
-      </c>
-      <c r="S22" s="43">
-        <v>40</v>
-      </c>
-      <c r="T22" s="46">
-        <v>14</v>
-      </c>
-      <c r="U22" s="47">
-        <v>9</v>
-      </c>
-      <c r="V22" s="43">
-        <v>3</v>
-      </c>
-      <c r="W22" s="44">
-        <v>9</v>
-      </c>
-      <c r="X22" s="46">
-        <v>8000</v>
-      </c>
-      <c r="Y22" s="48">
-        <v>2</v>
-      </c>
-      <c r="Z22" s="45">
-        <v>0.15</v>
-      </c>
-      <c r="AA22" s="49">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="50">
-        <v>12</v>
-      </c>
-      <c r="AC22" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD22" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE22" s="52" t="s">
-        <v>23</v>
-      </c>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="52"/>
       <c r="AF22" s="52"/>
       <c r="AG22" s="52"/>
-      <c r="AH22" s="52">
-        <v>2</v>
-      </c>
-      <c r="AI22" s="52">
-        <v>2</v>
-      </c>
-      <c r="AJ22" s="52">
-        <v>2</v>
-      </c>
-      <c r="AK22" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL22" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM22" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN22" s="52">
-        <v>10</v>
-      </c>
-      <c r="AO22" s="53">
-        <v>0.7</v>
-      </c>
+      <c r="AH22" s="52"/>
+      <c r="AI22" s="52"/>
+      <c r="AJ22" s="52"/>
+      <c r="AK22" s="52"/>
+      <c r="AL22" s="52"/>
+      <c r="AM22" s="52"/>
+      <c r="AN22" s="52"/>
+      <c r="AO22" s="53"/>
       <c r="AP22" s="54"/>
       <c r="AQ22" s="55"/>
-      <c r="AR22" s="56">
-        <v>1.8E-3</v>
-      </c>
-      <c r="AS22" s="57">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT22" s="58">
-        <v>322</v>
-      </c>
-      <c r="AU22" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="AV22" s="33">
-        <v>9.5</v>
-      </c>
-      <c r="AW22" s="33">
-        <v>1.7</v>
-      </c>
-      <c r="AX22" s="59">
-        <v>0.5</v>
-      </c>
-      <c r="AY22" s="59">
-        <v>1.9</v>
-      </c>
-      <c r="AZ22" s="59">
-        <v>9</v>
-      </c>
-      <c r="BA22" s="59">
-        <v>6</v>
-      </c>
-      <c r="BB22" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="AR22" s="56"/>
+      <c r="AS22" s="57"/>
+      <c r="AT22" s="58"/>
+      <c r="AU22" s="33"/>
+      <c r="AV22" s="33"/>
+      <c r="AW22" s="33"/>
+      <c r="AX22" s="59"/>
+      <c r="AY22" s="59"/>
+      <c r="AZ22" s="59"/>
+      <c r="BA22" s="59"/>
+      <c r="BB22" s="33"/>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B23" s="34" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G23" s="39">
         <v>20</v>
@@ -5904,16 +5757,16 @@
         <v>2</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G24" s="39">
         <v>30</v>
@@ -5974,33 +5827,33 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="87"/>
-      <c r="K25" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="90"/>
+      <c r="I25" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="93"/>
+      <c r="K25" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="96"/>
       <c r="Q25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="R25" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="S25" s="92"/>
-      <c r="T25" s="92"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="W25" s="95"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="96"/>
+      <c r="R25" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="99"/>
+      <c r="V25" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="W25" s="101"/>
+      <c r="X25" s="101"/>
+      <c r="Y25" s="102"/>
       <c r="Z25" s="21"/>
       <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
@@ -6008,7 +5861,7 @@
     <row r="27" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -6019,37 +5872,37 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="30" spans="1:54" ht="147" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" ht="157.5" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E30" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="100" t="s">
-        <v>89</v>
+        <v>119</v>
+      </c>
+      <c r="F30" s="89" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B31" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="98">
+      <c r="C31" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="87">
         <v>5</v>
       </c>
-      <c r="F31" s="99" t="str">
+      <c r="F31" s="88" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_helicopter_power_1</v>
       </c>
@@ -6058,16 +5911,16 @@
       <c r="B32" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="97" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="98">
+      <c r="C32" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="87">
         <v>15</v>
       </c>
-      <c r="F32" s="99" t="str">
+      <c r="F32" s="88" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_helicopter_power_2</v>
       </c>
@@ -6076,16 +5929,16 @@
       <c r="B33" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="98">
+      <c r="C33" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="87">
         <v>25</v>
       </c>
-      <c r="F33" s="99" t="str">
+      <c r="F33" s="88" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_helicopter_power_3</v>
       </c>
@@ -6094,16 +5947,16 @@
       <c r="B34" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="98" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="98">
+      <c r="C34" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="87">
         <v>5</v>
       </c>
-      <c r="F34" s="99" t="str">
+      <c r="F34" s="88" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_electric_power_1</v>
       </c>
@@ -6112,16 +5965,16 @@
       <c r="B35" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="98" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="98">
+      <c r="C35" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="87">
         <v>15</v>
       </c>
-      <c r="F35" s="99" t="str">
+      <c r="F35" s="88" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_electric_power_2</v>
       </c>
@@ -6130,16 +5983,16 @@
       <c r="B36" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="98" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="98">
+      <c r="C36" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="87">
         <v>25</v>
       </c>
-      <c r="F36" s="99" t="str">
+      <c r="F36" s="88" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_electric_power_3</v>
       </c>
@@ -6148,16 +6001,16 @@
       <c r="B37" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="98">
+      <c r="C37" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="87">
         <v>5</v>
       </c>
-      <c r="F37" s="99" t="str">
+      <c r="F37" s="88" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_sonic_power_1</v>
       </c>
@@ -6166,16 +6019,16 @@
       <c r="B38" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="98">
+      <c r="C38" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="87">
         <v>15</v>
       </c>
-      <c r="F38" s="99" t="str">
+      <c r="F38" s="88" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_sonic_power_2</v>
       </c>
@@ -6184,16 +6037,16 @@
       <c r="B39" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="101" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="102" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="102">
+      <c r="C39" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="91">
         <v>25</v>
       </c>
-      <c r="F39" s="99" t="str">
+      <c r="F39" s="88" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_sonic_power_3</v>
       </c>
@@ -6206,31 +6059,37 @@
     <mergeCell ref="V25:Y25"/>
   </mergeCells>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="13" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB13">
-    <cfRule type="duplicateValues" dxfId="12" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C6">
-    <cfRule type="duplicateValues" dxfId="11" priority="20"/>
+  <conditionalFormatting sqref="C4:D6">
+    <cfRule type="duplicateValues" dxfId="8" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S6">
-    <cfRule type="duplicateValues" dxfId="10" priority="19"/>
+  <conditionalFormatting sqref="T4:T6">
+    <cfRule type="duplicateValues" dxfId="7" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C36">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C33">
-    <cfRule type="duplicateValues" dxfId="8" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:C24">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB14:BB24">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  <conditionalFormatting sqref="BB14:BB16 BB21:BB24">
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB17">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB18:BB20">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D13:D24">

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="special dragons" sheetId="10" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="147">
   <si>
     <t>[sku]</t>
   </si>
@@ -393,13 +394,85 @@
   </si>
   <si>
     <t>special</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Min bonus</t>
+  </si>
+  <si>
+    <t>Max bonus</t>
+  </si>
+  <si>
+    <t>ELECTRIC</t>
+  </si>
+  <si>
+    <t>TIER</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Energy base</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>Health upgrade</t>
+  </si>
+  <si>
+    <t>Current tier</t>
+  </si>
+  <si>
+    <t>Energy base upgrade</t>
+  </si>
+  <si>
+    <t>Force upgrade</t>
+  </si>
+  <si>
+    <t>(HP)</t>
+  </si>
+  <si>
+    <t>(BOOST)</t>
+  </si>
+  <si>
+    <t>(SPEED)</t>
+  </si>
+  <si>
+    <t>Inc. Bonus</t>
+  </si>
+  <si>
+    <t>Tier 1</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Tier 2</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
+  </si>
+  <si>
+    <t>Tier 4</t>
+  </si>
+  <si>
+    <t>Upgrades</t>
+  </si>
+  <si>
+    <t>DIF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,8 +510,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,6 +631,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1203,11 +1296,45 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
+  <dxfs count="97">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3729,90 +3856,992 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HP Min-Max Per Tier</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$12:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D8EF-4FE4-82E3-26959BA93B53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$12:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D8EF-4FE4-82E3-26959BA93B53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="398241056"/>
+        <c:axId val="398241472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="398241056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398241472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="398241472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398241056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B12:BB24" totalsRowShown="0" headerRowBorderDxfId="93" totalsRowBorderDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B12:BB24" totalsRowShown="0" headerRowBorderDxfId="96" totalsRowBorderDxfId="95">
   <autoFilter ref="B12:BB24"/>
   <tableColumns count="53">
-    <tableColumn id="1" name="{specialDragonTierDefinitions}" dataDxfId="91"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="90"/>
-    <tableColumn id="3" name="[tier]" dataDxfId="89"/>
-    <tableColumn id="4" name="[specialDragon]" dataDxfId="88"/>
-    <tableColumn id="5" name="[mainProgressionRestriction]" dataDxfId="87"/>
-    <tableColumn id="7" name="[upgradeLevelToUnlock]" dataDxfId="86"/>
-    <tableColumn id="8" name="[defaultSize]" dataDxfId="85"/>
-    <tableColumn id="9" name="[cameraFrameWidthModifier]" dataDxfId="84"/>
-    <tableColumn id="10" name="[health]" dataDxfId="83"/>
-    <tableColumn id="11" name="[healthDrain]" dataDxfId="82"/>
-    <tableColumn id="12" name="[healthDrainSpacePlus]" dataDxfId="81"/>
-    <tableColumn id="13" name="[healthDrainAmpPerSecond]" dataDxfId="80"/>
-    <tableColumn id="14" name="[sessionStartHealthDrainTime]" dataDxfId="79"/>
-    <tableColumn id="15" name="[sessionStartHealthDrainModifier]" dataDxfId="78"/>
-    <tableColumn id="16" name="[scale]" dataDxfId="77"/>
-    <tableColumn id="17" name="[boostMultiplier]" dataDxfId="76"/>
-    <tableColumn id="18" name="[energyBase]" dataDxfId="75"/>
-    <tableColumn id="19" name="[energyDrain]" dataDxfId="74"/>
-    <tableColumn id="20" name="[energyRefillRate]" dataDxfId="73"/>
-    <tableColumn id="21" name="[furyBaseLength]" dataDxfId="72"/>
-    <tableColumn id="22" name="[furyScoreMultiplier]" dataDxfId="71"/>
-    <tableColumn id="23" name="[furyBaseDuration]" dataDxfId="70"/>
-    <tableColumn id="24" name="[furyMax]" dataDxfId="69"/>
-    <tableColumn id="25" name="[scoreTextThresholdMultiplier]" dataDxfId="68"/>
-    <tableColumn id="26" name="[eatSpeedFactor]" dataDxfId="67"/>
-    <tableColumn id="27" name="[maxAlcohol]" dataDxfId="66"/>
-    <tableColumn id="28" name="[alcoholDrain]" dataDxfId="65"/>
-    <tableColumn id="29" name="[gamePrefab]" dataDxfId="64"/>
-    <tableColumn id="30" name="[menuPrefab]" dataDxfId="63"/>
-    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="62"/>
-    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="61"/>
-    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="60"/>
-    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="59"/>
-    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="58"/>
-    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="57"/>
-    <tableColumn id="37" name="[invincible]" dataDxfId="56"/>
-    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="55"/>
-    <tableColumn id="39" name="[eatEverything]" dataDxfId="54"/>
-    <tableColumn id="40" name="[modeDuration]" dataDxfId="53"/>
-    <tableColumn id="41" name="[petScale]" dataDxfId="52"/>
-    <tableColumn id="42" name="[tidName]" dataDxfId="51"/>
-    <tableColumn id="43" name="[tidDesc]" dataDxfId="50"/>
-    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="49"/>
-    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="48"/>
-    <tableColumn id="46" name="[force]" dataDxfId="47"/>
-    <tableColumn id="47" name="[mass]" dataDxfId="46"/>
-    <tableColumn id="48" name="[friction]" dataDxfId="45"/>
-    <tableColumn id="49" name="[gravityModifier]" dataDxfId="44"/>
-    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="43"/>
-    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="42"/>
-    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="41"/>
-    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="40"/>
-    <tableColumn id="54" name="[trackingSku]" dataDxfId="39"/>
+    <tableColumn id="1" name="{specialDragonTierDefinitions}" dataDxfId="94"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="93"/>
+    <tableColumn id="3" name="[tier]" dataDxfId="92"/>
+    <tableColumn id="4" name="[specialDragon]" dataDxfId="91"/>
+    <tableColumn id="5" name="[mainProgressionRestriction]" dataDxfId="90"/>
+    <tableColumn id="7" name="[upgradeLevelToUnlock]" dataDxfId="89"/>
+    <tableColumn id="8" name="[defaultSize]" dataDxfId="88"/>
+    <tableColumn id="9" name="[cameraFrameWidthModifier]" dataDxfId="87"/>
+    <tableColumn id="10" name="[health]" dataDxfId="86"/>
+    <tableColumn id="11" name="[healthDrain]" dataDxfId="85"/>
+    <tableColumn id="12" name="[healthDrainSpacePlus]" dataDxfId="84"/>
+    <tableColumn id="13" name="[healthDrainAmpPerSecond]" dataDxfId="83"/>
+    <tableColumn id="14" name="[sessionStartHealthDrainTime]" dataDxfId="82"/>
+    <tableColumn id="15" name="[sessionStartHealthDrainModifier]" dataDxfId="81"/>
+    <tableColumn id="16" name="[scale]" dataDxfId="80"/>
+    <tableColumn id="17" name="[boostMultiplier]" dataDxfId="79"/>
+    <tableColumn id="18" name="[energyBase]" dataDxfId="78"/>
+    <tableColumn id="19" name="[energyDrain]" dataDxfId="77"/>
+    <tableColumn id="20" name="[energyRefillRate]" dataDxfId="76"/>
+    <tableColumn id="21" name="[furyBaseLength]" dataDxfId="75"/>
+    <tableColumn id="22" name="[furyScoreMultiplier]" dataDxfId="74"/>
+    <tableColumn id="23" name="[furyBaseDuration]" dataDxfId="73"/>
+    <tableColumn id="24" name="[furyMax]" dataDxfId="72"/>
+    <tableColumn id="25" name="[scoreTextThresholdMultiplier]" dataDxfId="71"/>
+    <tableColumn id="26" name="[eatSpeedFactor]" dataDxfId="70"/>
+    <tableColumn id="27" name="[maxAlcohol]" dataDxfId="69"/>
+    <tableColumn id="28" name="[alcoholDrain]" dataDxfId="68"/>
+    <tableColumn id="29" name="[gamePrefab]" dataDxfId="67"/>
+    <tableColumn id="30" name="[menuPrefab]" dataDxfId="66"/>
+    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="65"/>
+    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="64"/>
+    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="63"/>
+    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="62"/>
+    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="61"/>
+    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="60"/>
+    <tableColumn id="37" name="[invincible]" dataDxfId="59"/>
+    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="58"/>
+    <tableColumn id="39" name="[eatEverything]" dataDxfId="57"/>
+    <tableColumn id="40" name="[modeDuration]" dataDxfId="56"/>
+    <tableColumn id="41" name="[petScale]" dataDxfId="55"/>
+    <tableColumn id="42" name="[tidName]" dataDxfId="54"/>
+    <tableColumn id="43" name="[tidDesc]" dataDxfId="53"/>
+    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="52"/>
+    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="51"/>
+    <tableColumn id="46" name="[force]" dataDxfId="50"/>
+    <tableColumn id="47" name="[mass]" dataDxfId="49"/>
+    <tableColumn id="48" name="[friction]" dataDxfId="48"/>
+    <tableColumn id="49" name="[gravityModifier]" dataDxfId="47"/>
+    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="46"/>
+    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="45"/>
+    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="44"/>
+    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="43"/>
+    <tableColumn id="54" name="[trackingSku]" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
   <autoFilter ref="B3:T6"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="34"/>
+    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="37"/>
     <tableColumn id="2" name="[sku]"/>
     <tableColumn id="3" name="[type]"/>
-    <tableColumn id="5" name="[order]" dataDxfId="33"/>
-    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="32"/>
-    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="31"/>
-    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="30"/>
-    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="29"/>
-    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="28"/>
-    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="27"/>
-    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="26"/>
-    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="25"/>
-    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="24"/>
-    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="23"/>
-    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="22"/>
-    <tableColumn id="76" name="[stepPrice]" dataDxfId="21"/>
-    <tableColumn id="77" name="[priceCoefA]" dataDxfId="20"/>
-    <tableColumn id="75" name="[priceCoefB]" dataDxfId="19"/>
+    <tableColumn id="5" name="[order]" dataDxfId="36"/>
+    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="35"/>
+    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="34"/>
+    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="33"/>
+    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="32"/>
+    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="31"/>
+    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="30"/>
+    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="29"/>
+    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="28"/>
+    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="27"/>
+    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="26"/>
+    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="25"/>
+    <tableColumn id="76" name="[stepPrice]" dataDxfId="24"/>
+    <tableColumn id="77" name="[priceCoefA]" dataDxfId="23"/>
+    <tableColumn id="75" name="[priceCoefB]" dataDxfId="22"/>
     <tableColumn id="65" name="[trackingSku]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3820,14 +4849,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="B30:F39"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="15"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="14"/>
-    <tableColumn id="3" name="[specialDragon]" dataDxfId="13"/>
-    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="12"/>
-    <tableColumn id="5" name="[icon]" dataDxfId="11">
+    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="18"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="17"/>
+    <tableColumn id="3" name="[specialDragon]" dataDxfId="16"/>
+    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="15"/>
+    <tableColumn id="5" name="[icon]" dataDxfId="14">
       <calculatedColumnFormula>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4100,8 +5129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6059,37 +7088,37 @@
     <mergeCell ref="V25:Y25"/>
   </mergeCells>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="10" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB13">
-    <cfRule type="duplicateValues" dxfId="9" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D6">
-    <cfRule type="duplicateValues" dxfId="8" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T6">
-    <cfRule type="duplicateValues" dxfId="7" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C36">
-    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C33">
-    <cfRule type="duplicateValues" dxfId="5" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:C24">
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB14:BB16 BB21:BB24">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB17">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB18:BB20">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D13:D24">
@@ -6104,4 +7133,320 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:X15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="E1" s="106" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="F3" s="104"/>
+      <c r="G3" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="L3" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q3" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="V3" s="104" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="F4" s="105"/>
+      <c r="G4" s="105">
+        <v>1</v>
+      </c>
+      <c r="H4" s="105">
+        <v>2</v>
+      </c>
+      <c r="I4" s="105">
+        <v>3</v>
+      </c>
+      <c r="J4" s="105">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>145</v>
+      </c>
+      <c r="N4" s="103">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
+        <v>145</v>
+      </c>
+      <c r="S4" s="103">
+        <v>30</v>
+      </c>
+      <c r="W4" t="s">
+        <v>145</v>
+      </c>
+      <c r="X4" s="103">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="F5" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="108">
+        <v>100</v>
+      </c>
+      <c r="H5" s="108">
+        <v>200</v>
+      </c>
+      <c r="I5" s="108">
+        <v>300</v>
+      </c>
+      <c r="J5" s="108">
+        <v>400</v>
+      </c>
+      <c r="M5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N5" s="103">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>124</v>
+      </c>
+      <c r="S5" s="103">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>124</v>
+      </c>
+      <c r="X5" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="F6" s="105" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="108">
+        <v>100</v>
+      </c>
+      <c r="H6" s="108">
+        <v>125</v>
+      </c>
+      <c r="I6" s="108">
+        <v>150</v>
+      </c>
+      <c r="J6" s="108">
+        <v>200</v>
+      </c>
+      <c r="M6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N6" s="103">
+        <v>100</v>
+      </c>
+      <c r="R6" t="s">
+        <v>125</v>
+      </c>
+      <c r="S6" s="103">
+        <v>100</v>
+      </c>
+      <c r="W6" t="s">
+        <v>125</v>
+      </c>
+      <c r="X6" s="103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="F7" s="105" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="M7" t="s">
+        <v>138</v>
+      </c>
+      <c r="N7">
+        <f>ROUND((N6-N5)/N4,1)</f>
+        <v>3.3</v>
+      </c>
+      <c r="R7" t="s">
+        <v>138</v>
+      </c>
+      <c r="S7">
+        <f>ROUND((S6-S5)/S4,1)</f>
+        <v>3.3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>138</v>
+      </c>
+      <c r="X7">
+        <f>ROUND((X6-X5)/X4,1)</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="11" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="103">
+        <v>1</v>
+      </c>
+      <c r="L11" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="109" t="s">
+        <v>140</v>
+      </c>
+      <c r="N11" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="O11" s="109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="104" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12">
+        <f>G5</f>
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <f>G5+G5*(N6/100)</f>
+        <v>200</v>
+      </c>
+      <c r="O12">
+        <f>N12-M12</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="103">
+        <v>0</v>
+      </c>
+      <c r="I13" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" s="111">
+        <f ca="1">INDIRECT(ADDRESS(5,6+G11)) + (INDIRECT(ADDRESS(5,6+G11)) *(N7/100) *G13)</f>
+        <v>100</v>
+      </c>
+      <c r="L13" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13">
+        <f>H5</f>
+        <v>200</v>
+      </c>
+      <c r="N13">
+        <f>H5+H5*(N6/100)</f>
+        <v>400</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13:O15" si="0">N13-M13</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="103">
+        <v>0</v>
+      </c>
+      <c r="L14" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14">
+        <f>I5</f>
+        <v>300</v>
+      </c>
+      <c r="N14">
+        <f>I5+I5*(N6/100)</f>
+        <v>600</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="103">
+        <v>0</v>
+      </c>
+      <c r="L15" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15">
+        <f>J5</f>
+        <v>400</v>
+      </c>
+      <c r="N15">
+        <f>J5+J5*(N6/100)</f>
+        <v>800</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G3:J3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G13:G15">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>G13&gt;$N$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G$11&gt;4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="special dragons" sheetId="10" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
+    <sheet name="tools" sheetId="11" r:id="rId2"/>
+    <sheet name="DATA" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="159">
   <si>
     <t>[sku]</t>
   </si>
@@ -69,12 +70,6 @@
     <t>FURY</t>
   </si>
   <si>
-    <t>ENERGY</t>
-  </si>
-  <si>
-    <t>SIZE</t>
-  </si>
-  <si>
     <t>HEALTH</t>
   </si>
   <si>
@@ -396,9 +391,6 @@
     <t>special</t>
   </si>
   <si>
-    <t>HP</t>
-  </si>
-  <si>
     <t>Min bonus</t>
   </si>
   <si>
@@ -466,13 +458,58 @@
   </si>
   <si>
     <t>DIF</t>
+  </si>
+  <si>
+    <t>Energy b.</t>
+  </si>
+  <si>
+    <t>Total upgrades</t>
+  </si>
+  <si>
+    <t>Speed MIN</t>
+  </si>
+  <si>
+    <t>SpeedMAX</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>BOOST</t>
+  </si>
+  <si>
+    <t>HUNGRY LETTERS</t>
+  </si>
+  <si>
+    <t>Upgrades required</t>
+  </si>
+  <si>
+    <t>Crocodrile</t>
+  </si>
+  <si>
+    <t>Mid HP</t>
+  </si>
+  <si>
+    <t>Boost</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Devil</t>
+  </si>
+  <si>
+    <t>Balrog</t>
+  </si>
+  <si>
+    <t>Electric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,8 +555,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,8 +690,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -994,11 +1044,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1051,7 +1217,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
@@ -1066,9 +1231,6 @@
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1144,9 +1306,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1263,10 +1422,17 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1284,42 +1450,171 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
+  <dxfs count="96">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2569,126 +2864,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -3946,7 +4121,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$12:$M$15</c:f>
+              <c:f>tools!$K$12:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3989,7 +4164,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$12:$O$15</c:f>
+              <c:f>tools!$M$12:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4178,7 +4353,1778 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Energy base Min-Max Per Tier</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>tools!$S$12:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1CB6-490A-B5AF-40902016D0DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Energy base</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>tools!$U$12:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1CB6-490A-B5AF-40902016D0DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="398241056"/>
+        <c:axId val="398241472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="398241056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398241472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="398241472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398241056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speed Min-Max Per Tier</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>tools!$AA$12:$AA$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDBF-49CF-B5C0-ADA2F73BA95C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Speed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>tools!$AC$12:$AC$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DDBF-49CF-B5C0-ADA2F73BA95C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="398241056"/>
+        <c:axId val="398241472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="398241056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398241472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="398241472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398241056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avg. HP Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DATA!$F$5:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Crocodrile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bug</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Devil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Balrog</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Electric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DATA!$G$5:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5B3-4710-A064-E9D15D16F0DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="534604608"/>
+        <c:axId val="534603776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="534604608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534603776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="534603776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534604608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avg. Boost Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DATA!$F$5:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Crocodrile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bug</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Devil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Balrog</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Electric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DATA!$H$5:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F186-48F5-8ED7-9C48D13D1757}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="534604608"/>
+        <c:axId val="534603776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="534604608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534603776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="534603776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534604608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avg. Speed Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DATA!$F$5:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Crocodrile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bug</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Devil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Balrog</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Electric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DATA!$I$5:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-709D-4C0E-87EC-D7FC22C00863}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="534604608"/>
+        <c:axId val="534603776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="534604608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534603776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="534603776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534604608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4723,20 +6669,2578 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
+      <xdr:colOff>500062</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4755,93 +9259,251 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B12:BB24" totalsRowShown="0" headerRowBorderDxfId="96" totalsRowBorderDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B12:BB24" totalsRowShown="0" headerRowBorderDxfId="95" totalsRowBorderDxfId="94">
   <autoFilter ref="B12:BB24"/>
   <tableColumns count="53">
-    <tableColumn id="1" name="{specialDragonTierDefinitions}" dataDxfId="94"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="93"/>
-    <tableColumn id="3" name="[tier]" dataDxfId="92"/>
-    <tableColumn id="4" name="[specialDragon]" dataDxfId="91"/>
-    <tableColumn id="5" name="[mainProgressionRestriction]" dataDxfId="90"/>
-    <tableColumn id="7" name="[upgradeLevelToUnlock]" dataDxfId="89"/>
-    <tableColumn id="8" name="[defaultSize]" dataDxfId="88"/>
-    <tableColumn id="9" name="[cameraFrameWidthModifier]" dataDxfId="87"/>
-    <tableColumn id="10" name="[health]" dataDxfId="86"/>
-    <tableColumn id="11" name="[healthDrain]" dataDxfId="85"/>
-    <tableColumn id="12" name="[healthDrainSpacePlus]" dataDxfId="84"/>
-    <tableColumn id="13" name="[healthDrainAmpPerSecond]" dataDxfId="83"/>
-    <tableColumn id="14" name="[sessionStartHealthDrainTime]" dataDxfId="82"/>
-    <tableColumn id="15" name="[sessionStartHealthDrainModifier]" dataDxfId="81"/>
-    <tableColumn id="16" name="[scale]" dataDxfId="80"/>
-    <tableColumn id="17" name="[boostMultiplier]" dataDxfId="79"/>
-    <tableColumn id="18" name="[energyBase]" dataDxfId="78"/>
-    <tableColumn id="19" name="[energyDrain]" dataDxfId="77"/>
-    <tableColumn id="20" name="[energyRefillRate]" dataDxfId="76"/>
-    <tableColumn id="21" name="[furyBaseLength]" dataDxfId="75"/>
-    <tableColumn id="22" name="[furyScoreMultiplier]" dataDxfId="74"/>
-    <tableColumn id="23" name="[furyBaseDuration]" dataDxfId="73"/>
-    <tableColumn id="24" name="[furyMax]" dataDxfId="72"/>
-    <tableColumn id="25" name="[scoreTextThresholdMultiplier]" dataDxfId="71"/>
-    <tableColumn id="26" name="[eatSpeedFactor]" dataDxfId="70"/>
-    <tableColumn id="27" name="[maxAlcohol]" dataDxfId="69"/>
-    <tableColumn id="28" name="[alcoholDrain]" dataDxfId="68"/>
-    <tableColumn id="29" name="[gamePrefab]" dataDxfId="67"/>
-    <tableColumn id="30" name="[menuPrefab]" dataDxfId="66"/>
-    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="65"/>
-    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="64"/>
-    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="63"/>
-    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="62"/>
-    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="61"/>
-    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="60"/>
-    <tableColumn id="37" name="[invincible]" dataDxfId="59"/>
-    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="58"/>
-    <tableColumn id="39" name="[eatEverything]" dataDxfId="57"/>
-    <tableColumn id="40" name="[modeDuration]" dataDxfId="56"/>
-    <tableColumn id="41" name="[petScale]" dataDxfId="55"/>
-    <tableColumn id="42" name="[tidName]" dataDxfId="54"/>
-    <tableColumn id="43" name="[tidDesc]" dataDxfId="53"/>
-    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="52"/>
-    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="51"/>
-    <tableColumn id="46" name="[force]" dataDxfId="50"/>
-    <tableColumn id="47" name="[mass]" dataDxfId="49"/>
-    <tableColumn id="48" name="[friction]" dataDxfId="48"/>
-    <tableColumn id="49" name="[gravityModifier]" dataDxfId="47"/>
-    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="46"/>
-    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="45"/>
-    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="44"/>
-    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="43"/>
-    <tableColumn id="54" name="[trackingSku]" dataDxfId="42"/>
+    <tableColumn id="1" name="{specialDragonTierDefinitions}" dataDxfId="93"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="92"/>
+    <tableColumn id="3" name="[tier]" dataDxfId="91"/>
+    <tableColumn id="4" name="[specialDragon]" dataDxfId="90"/>
+    <tableColumn id="5" name="[mainProgressionRestriction]" dataDxfId="89"/>
+    <tableColumn id="7" name="[upgradeLevelToUnlock]" dataDxfId="88"/>
+    <tableColumn id="8" name="[defaultSize]" dataDxfId="87"/>
+    <tableColumn id="9" name="[cameraFrameWidthModifier]" dataDxfId="86"/>
+    <tableColumn id="10" name="[health]" dataDxfId="85"/>
+    <tableColumn id="11" name="[healthDrain]" dataDxfId="84"/>
+    <tableColumn id="12" name="[healthDrainSpacePlus]" dataDxfId="83"/>
+    <tableColumn id="13" name="[healthDrainAmpPerSecond]" dataDxfId="82"/>
+    <tableColumn id="14" name="[sessionStartHealthDrainTime]" dataDxfId="81"/>
+    <tableColumn id="15" name="[sessionStartHealthDrainModifier]" dataDxfId="80"/>
+    <tableColumn id="16" name="[scale]" dataDxfId="79"/>
+    <tableColumn id="17" name="[boostMultiplier]" dataDxfId="78"/>
+    <tableColumn id="18" name="[energyBase]" dataDxfId="77"/>
+    <tableColumn id="19" name="[energyDrain]" dataDxfId="76"/>
+    <tableColumn id="20" name="[energyRefillRate]" dataDxfId="75"/>
+    <tableColumn id="21" name="[furyBaseLength]" dataDxfId="74"/>
+    <tableColumn id="22" name="[furyScoreMultiplier]" dataDxfId="73"/>
+    <tableColumn id="23" name="[furyBaseDuration]" dataDxfId="72"/>
+    <tableColumn id="24" name="[furyMax]" dataDxfId="71"/>
+    <tableColumn id="25" name="[scoreTextThresholdMultiplier]" dataDxfId="70"/>
+    <tableColumn id="26" name="[eatSpeedFactor]" dataDxfId="69"/>
+    <tableColumn id="27" name="[maxAlcohol]" dataDxfId="68"/>
+    <tableColumn id="28" name="[alcoholDrain]" dataDxfId="67"/>
+    <tableColumn id="29" name="[gamePrefab]" dataDxfId="66"/>
+    <tableColumn id="30" name="[menuPrefab]" dataDxfId="65"/>
+    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="64"/>
+    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="63"/>
+    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="62"/>
+    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="61"/>
+    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="60"/>
+    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="59"/>
+    <tableColumn id="37" name="[invincible]" dataDxfId="58"/>
+    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="57"/>
+    <tableColumn id="39" name="[eatEverything]" dataDxfId="56"/>
+    <tableColumn id="40" name="[modeDuration]" dataDxfId="2"/>
+    <tableColumn id="41" name="[petScale]" dataDxfId="0"/>
+    <tableColumn id="42" name="[tidName]" dataDxfId="1"/>
+    <tableColumn id="43" name="[tidDesc]" dataDxfId="55"/>
+    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="54"/>
+    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="53"/>
+    <tableColumn id="46" name="[force]" dataDxfId="52"/>
+    <tableColumn id="47" name="[mass]" dataDxfId="51"/>
+    <tableColumn id="48" name="[friction]" dataDxfId="50"/>
+    <tableColumn id="49" name="[gravityModifier]" dataDxfId="49"/>
+    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="48"/>
+    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="47"/>
+    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="46"/>
+    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="45"/>
+    <tableColumn id="54" name="[trackingSku]" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
   <autoFilter ref="B3:T6"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="37"/>
+    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="39"/>
     <tableColumn id="2" name="[sku]"/>
     <tableColumn id="3" name="[type]"/>
-    <tableColumn id="5" name="[order]" dataDxfId="36"/>
-    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="35"/>
-    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="34"/>
-    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="33"/>
-    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="32"/>
-    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="31"/>
-    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="30"/>
-    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="29"/>
-    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="28"/>
-    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="27"/>
-    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="26"/>
-    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="25"/>
-    <tableColumn id="76" name="[stepPrice]" dataDxfId="24"/>
-    <tableColumn id="77" name="[priceCoefA]" dataDxfId="23"/>
-    <tableColumn id="75" name="[priceCoefB]" dataDxfId="22"/>
+    <tableColumn id="5" name="[order]" dataDxfId="38"/>
+    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="37"/>
+    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="36"/>
+    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="35"/>
+    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="34"/>
+    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="33"/>
+    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="32"/>
+    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="31"/>
+    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="30"/>
+    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="29"/>
+    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="28"/>
+    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="27"/>
+    <tableColumn id="76" name="[stepPrice]" dataDxfId="26"/>
+    <tableColumn id="77" name="[priceCoefA]" dataDxfId="25"/>
+    <tableColumn id="75" name="[priceCoefB]" dataDxfId="24"/>
     <tableColumn id="65" name="[trackingSku]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4849,14 +9511,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="B30:F39"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="18"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="17"/>
-    <tableColumn id="3" name="[specialDragon]" dataDxfId="16"/>
-    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="15"/>
-    <tableColumn id="5" name="[icon]" dataDxfId="14">
+    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="20"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="19"/>
+    <tableColumn id="3" name="[specialDragon]" dataDxfId="18"/>
+    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="17"/>
+    <tableColumn id="5" name="[icon]" dataDxfId="16">
       <calculatedColumnFormula>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5129,8 +9791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AQ25" sqref="AQ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5203,7 +9865,7 @@
   <sheetData>
     <row r="1" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -5233,189 +9895,189 @@
     </row>
     <row r="3" spans="1:54" ht="147" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="83" t="s">
+      <c r="J3" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="K3" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="L3" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="80" t="s">
+      <c r="M3" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="80" t="s">
+      <c r="N3" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="80" t="s">
+      <c r="O3" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="N3" s="82" t="s">
+      <c r="P3" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="O3" s="82" t="s">
+      <c r="Q3" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="P3" s="82" t="s">
+      <c r="R3" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="Q3" s="81" t="s">
+      <c r="S3" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="R3" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="S3" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="T3" s="71" t="s">
+      <c r="T3" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="64">
+      <c r="C4" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="61">
         <v>0</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="62">
         <v>200</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="63">
         <v>400</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="72" t="s">
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="69" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="64">
+      <c r="C5" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="61">
         <v>1</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="62">
         <v>200</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="63">
         <v>400</v>
       </c>
-      <c r="H5" s="78">
+      <c r="H5" s="75">
         <v>30</v>
       </c>
-      <c r="I5" s="78">
+      <c r="I5" s="75">
         <v>0</v>
       </c>
-      <c r="J5" s="78">
+      <c r="J5" s="75">
         <v>100</v>
       </c>
-      <c r="K5" s="76">
+      <c r="K5" s="73">
         <v>30</v>
       </c>
-      <c r="L5" s="76">
+      <c r="L5" s="73">
         <v>0</v>
       </c>
-      <c r="M5" s="76">
+      <c r="M5" s="73">
         <v>100</v>
       </c>
-      <c r="N5" s="84">
+      <c r="N5" s="81">
         <v>30</v>
       </c>
-      <c r="O5" s="84">
+      <c r="O5" s="81">
         <v>0</v>
       </c>
-      <c r="P5" s="84">
+      <c r="P5" s="81">
         <v>100</v>
       </c>
-      <c r="Q5" s="74">
+      <c r="Q5" s="71">
         <v>1</v>
       </c>
-      <c r="R5" s="74">
+      <c r="R5" s="71">
         <v>1</v>
       </c>
-      <c r="S5" s="74">
+      <c r="S5" s="71">
         <v>1</v>
       </c>
-      <c r="T5" s="72" t="s">
+      <c r="T5" s="69" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="64">
+      <c r="C6" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="61">
         <v>2</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="66">
         <v>200</v>
       </c>
-      <c r="G6" s="70">
+      <c r="G6" s="67">
         <v>400</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="73" t="s">
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="70" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5480,7 +10142,7 @@
     <row r="9" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -5539,7 +10201,7 @@
     </row>
     <row r="12" spans="1:54" ht="163.5" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>0</v>
@@ -5548,1305 +10210,1305 @@
         <v>12</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>75</v>
-      </c>
       <c r="Q12" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z12" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AA12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB12" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC12" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB12" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AD12" s="23" t="s">
+      <c r="AD12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AE12" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF12" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG12" s="23" t="s">
+      <c r="AE12" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AH12" s="23" t="s">
+      <c r="AF12" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AI12" s="23" t="s">
+      <c r="AG12" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AJ12" s="23" t="s">
+      <c r="AH12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="AK12" s="23" t="s">
+      <c r="AI12" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AL12" s="23" t="s">
+      <c r="AJ12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AM12" s="23" t="s">
+      <c r="AK12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AN12" s="23" t="s">
+      <c r="AL12" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AO12" s="27" t="s">
+      <c r="AM12" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AP12" s="29" t="s">
+      <c r="AN12" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO12" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP12" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AQ12" s="31" t="s">
+      <c r="AQ12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AR12" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS12" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT12" s="26" t="s">
+      <c r="AR12" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AU12" s="25" t="s">
+      <c r="AS12" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AV12" s="25" t="s">
+      <c r="AT12" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AW12" s="25" t="s">
+      <c r="AU12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AX12" s="25" t="s">
+      <c r="AV12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AY12" s="25" t="s">
+      <c r="AW12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="AZ12" s="22" t="s">
+      <c r="AX12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="BA12" s="22" t="s">
+      <c r="AY12" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="BB12" s="25" t="s">
+      <c r="AZ12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB12" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="39">
+      <c r="C13" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="37">
         <v>0</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="52"/>
-      <c r="AJ13" s="52"/>
-      <c r="AK13" s="52"/>
-      <c r="AL13" s="52"/>
-      <c r="AM13" s="52"/>
-      <c r="AN13" s="52"/>
-      <c r="AO13" s="53"/>
-      <c r="AP13" s="54"/>
-      <c r="AQ13" s="55"/>
-      <c r="AR13" s="56"/>
-      <c r="AS13" s="57"/>
-      <c r="AT13" s="58"/>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="33"/>
-      <c r="AW13" s="33"/>
-      <c r="AX13" s="59"/>
-      <c r="AY13" s="59"/>
-      <c r="AZ13" s="59"/>
-      <c r="BA13" s="59"/>
-      <c r="BB13" s="33"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+      <c r="AH13" s="50"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="50"/>
+      <c r="AK13" s="50"/>
+      <c r="AL13" s="50"/>
+      <c r="AM13" s="50"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="114"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="52"/>
+      <c r="AR13" s="53"/>
+      <c r="AS13" s="54"/>
+      <c r="AT13" s="55"/>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="56"/>
+      <c r="AY13" s="56"/>
+      <c r="AZ13" s="56"/>
+      <c r="BA13" s="56"/>
+      <c r="BB13" s="31"/>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="39">
+      <c r="C14" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="37">
         <v>10</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="52"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="52"/>
-      <c r="AH14" s="52"/>
-      <c r="AI14" s="52"/>
-      <c r="AJ14" s="52"/>
-      <c r="AK14" s="52"/>
-      <c r="AL14" s="52"/>
-      <c r="AM14" s="52"/>
-      <c r="AN14" s="52"/>
-      <c r="AO14" s="53"/>
-      <c r="AP14" s="54"/>
-      <c r="AQ14" s="55"/>
-      <c r="AR14" s="56"/>
-      <c r="AS14" s="57"/>
-      <c r="AT14" s="58"/>
-      <c r="AU14" s="33"/>
-      <c r="AV14" s="33"/>
-      <c r="AW14" s="33"/>
-      <c r="AX14" s="59"/>
-      <c r="AY14" s="59"/>
-      <c r="AZ14" s="59"/>
-      <c r="BA14" s="59"/>
-      <c r="BB14" s="33"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="50"/>
+      <c r="AI14" s="50"/>
+      <c r="AJ14" s="50"/>
+      <c r="AK14" s="50"/>
+      <c r="AL14" s="50"/>
+      <c r="AM14" s="50"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="114"/>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="52"/>
+      <c r="AR14" s="53"/>
+      <c r="AS14" s="54"/>
+      <c r="AT14" s="55"/>
+      <c r="AU14" s="31"/>
+      <c r="AV14" s="31"/>
+      <c r="AW14" s="31"/>
+      <c r="AX14" s="56"/>
+      <c r="AY14" s="56"/>
+      <c r="AZ14" s="56"/>
+      <c r="BA14" s="56"/>
+      <c r="BB14" s="31"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="39">
+      <c r="C15" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="37">
         <v>20</v>
       </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="51"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="52"/>
-      <c r="AH15" s="52"/>
-      <c r="AI15" s="52"/>
-      <c r="AJ15" s="52"/>
-      <c r="AK15" s="52"/>
-      <c r="AL15" s="52"/>
-      <c r="AM15" s="52"/>
-      <c r="AN15" s="52"/>
-      <c r="AO15" s="53"/>
-      <c r="AP15" s="54"/>
-      <c r="AQ15" s="55"/>
-      <c r="AR15" s="56"/>
-      <c r="AS15" s="57"/>
-      <c r="AT15" s="58"/>
-      <c r="AU15" s="33"/>
-      <c r="AV15" s="33"/>
-      <c r="AW15" s="33"/>
-      <c r="AX15" s="59"/>
-      <c r="AY15" s="59"/>
-      <c r="AZ15" s="59"/>
-      <c r="BA15" s="59"/>
-      <c r="BB15" s="33"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
+      <c r="AJ15" s="50"/>
+      <c r="AK15" s="50"/>
+      <c r="AL15" s="50"/>
+      <c r="AM15" s="50"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="114"/>
+      <c r="AP15" s="51"/>
+      <c r="AQ15" s="52"/>
+      <c r="AR15" s="53"/>
+      <c r="AS15" s="54"/>
+      <c r="AT15" s="55"/>
+      <c r="AU15" s="31"/>
+      <c r="AV15" s="31"/>
+      <c r="AW15" s="31"/>
+      <c r="AX15" s="56"/>
+      <c r="AY15" s="56"/>
+      <c r="AZ15" s="56"/>
+      <c r="BA15" s="56"/>
+      <c r="BB15" s="31"/>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="39">
+      <c r="C16" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="37">
         <v>30</v>
       </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="51"/>
-      <c r="AD16" s="52"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="52"/>
-      <c r="AH16" s="52"/>
-      <c r="AI16" s="52"/>
-      <c r="AJ16" s="52"/>
-      <c r="AK16" s="52"/>
-      <c r="AL16" s="52"/>
-      <c r="AM16" s="52"/>
-      <c r="AN16" s="52"/>
-      <c r="AO16" s="53"/>
-      <c r="AP16" s="54"/>
-      <c r="AQ16" s="55"/>
-      <c r="AR16" s="56"/>
-      <c r="AS16" s="57"/>
-      <c r="AT16" s="58"/>
-      <c r="AU16" s="33"/>
-      <c r="AV16" s="33"/>
-      <c r="AW16" s="33"/>
-      <c r="AX16" s="59"/>
-      <c r="AY16" s="59"/>
-      <c r="AZ16" s="59"/>
-      <c r="BA16" s="59"/>
-      <c r="BB16" s="33"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="50"/>
+      <c r="AI16" s="50"/>
+      <c r="AJ16" s="50"/>
+      <c r="AK16" s="50"/>
+      <c r="AL16" s="50"/>
+      <c r="AM16" s="50"/>
+      <c r="AN16" s="50"/>
+      <c r="AO16" s="114"/>
+      <c r="AP16" s="51"/>
+      <c r="AQ16" s="52"/>
+      <c r="AR16" s="53"/>
+      <c r="AS16" s="54"/>
+      <c r="AT16" s="55"/>
+      <c r="AU16" s="31"/>
+      <c r="AV16" s="31"/>
+      <c r="AW16" s="31"/>
+      <c r="AX16" s="56"/>
+      <c r="AY16" s="56"/>
+      <c r="AZ16" s="56"/>
+      <c r="BA16" s="56"/>
+      <c r="BB16" s="31"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="39">
+      <c r="C17" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="37">
         <v>0</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="38">
         <v>5</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="39">
         <v>-2</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="40">
         <v>170</v>
       </c>
-      <c r="K17" s="43">
+      <c r="K17" s="41">
         <v>1.5</v>
       </c>
-      <c r="L17" s="43">
+      <c r="L17" s="41">
         <v>0</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="41">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N17" s="44">
+      <c r="N17" s="42">
         <v>30</v>
       </c>
-      <c r="O17" s="44">
+      <c r="O17" s="42">
         <v>0.5</v>
       </c>
-      <c r="P17" s="45">
+      <c r="P17" s="43">
         <v>1</v>
       </c>
-      <c r="Q17" s="41">
+      <c r="Q17" s="39">
         <v>1</v>
       </c>
-      <c r="R17" s="43">
+      <c r="R17" s="41">
         <v>100</v>
       </c>
-      <c r="S17" s="43">
+      <c r="S17" s="41">
         <v>40</v>
       </c>
-      <c r="T17" s="46">
+      <c r="T17" s="44">
         <v>28</v>
       </c>
-      <c r="U17" s="47">
+      <c r="U17" s="45">
         <v>9</v>
       </c>
-      <c r="V17" s="43">
+      <c r="V17" s="41">
         <v>3</v>
       </c>
-      <c r="W17" s="44">
+      <c r="W17" s="42">
         <v>9</v>
       </c>
-      <c r="X17" s="46">
+      <c r="X17" s="44">
         <v>8000</v>
       </c>
-      <c r="Y17" s="48">
+      <c r="Y17" s="46">
         <v>2</v>
       </c>
-      <c r="Z17" s="45">
+      <c r="Z17" s="43">
         <v>0.13</v>
       </c>
-      <c r="AA17" s="49">
+      <c r="AA17" s="47">
         <v>0</v>
       </c>
-      <c r="AB17" s="50">
+      <c r="AB17" s="48">
         <v>6</v>
       </c>
-      <c r="AC17" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD17" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE17" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="52"/>
-      <c r="AH17" s="52">
+      <c r="AC17" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD17" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE17" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI17" s="52">
+      <c r="AI17" s="50">
         <v>2</v>
       </c>
-      <c r="AJ17" s="52">
+      <c r="AJ17" s="50">
         <v>2</v>
       </c>
-      <c r="AK17" s="52" t="b">
+      <c r="AK17" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="AL17" s="52" t="b">
+      <c r="AL17" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="AM17" s="52" t="b">
+      <c r="AM17" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="AN17" s="52">
+      <c r="AN17" s="50">
         <v>10</v>
       </c>
-      <c r="AO17" s="53">
+      <c r="AO17" s="114">
         <v>0.55999999999999994</v>
       </c>
-      <c r="AP17" s="54"/>
-      <c r="AQ17" s="55"/>
-      <c r="AR17" s="56">
+      <c r="AP17" s="51"/>
+      <c r="AQ17" s="52"/>
+      <c r="AR17" s="53">
         <v>2E-3</v>
       </c>
-      <c r="AS17" s="57">
+      <c r="AS17" s="54">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT17" s="58">
+      <c r="AT17" s="55">
         <v>260</v>
       </c>
-      <c r="AU17" s="33">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AV17" s="33">
-        <v>5</v>
-      </c>
-      <c r="AW17" s="33">
+      <c r="AU17" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="AV17" s="31">
+        <v>9.5</v>
+      </c>
+      <c r="AW17" s="31">
         <v>1.7</v>
       </c>
-      <c r="AX17" s="59">
+      <c r="AX17" s="56">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AY17" s="59">
+      <c r="AY17" s="56">
         <v>2.25</v>
       </c>
-      <c r="AZ17" s="59">
+      <c r="AZ17" s="56">
         <v>0</v>
       </c>
-      <c r="BA17" s="59">
+      <c r="BA17" s="56">
         <v>8</v>
       </c>
-      <c r="BB17" s="33" t="s">
+      <c r="BB17" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="39">
+      <c r="C18" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="37">
         <v>10</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="38">
         <v>10</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="39">
         <v>0</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="40">
         <v>280</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="41">
         <v>1.9</v>
       </c>
-      <c r="L18" s="43">
+      <c r="L18" s="41">
         <v>0</v>
       </c>
-      <c r="M18" s="43">
+      <c r="M18" s="41">
         <v>1.2E-2</v>
       </c>
-      <c r="N18" s="44">
+      <c r="N18" s="42">
         <v>30</v>
       </c>
-      <c r="O18" s="44">
+      <c r="O18" s="42">
         <v>0.6</v>
       </c>
-      <c r="P18" s="45">
+      <c r="P18" s="43">
         <v>1.1499999999999999</v>
       </c>
-      <c r="Q18" s="41">
+      <c r="Q18" s="39">
         <v>1</v>
       </c>
-      <c r="R18" s="43">
+      <c r="R18" s="41">
         <v>125</v>
       </c>
-      <c r="S18" s="43">
+      <c r="S18" s="41">
         <v>40</v>
       </c>
-      <c r="T18" s="46">
+      <c r="T18" s="44">
         <v>28</v>
       </c>
-      <c r="U18" s="47">
+      <c r="U18" s="45">
         <v>11</v>
       </c>
-      <c r="V18" s="43">
+      <c r="V18" s="41">
         <v>4</v>
       </c>
-      <c r="W18" s="44">
+      <c r="W18" s="42">
         <v>10</v>
       </c>
-      <c r="X18" s="46">
+      <c r="X18" s="44">
         <v>10000</v>
       </c>
-      <c r="Y18" s="48">
+      <c r="Y18" s="46">
         <v>3</v>
       </c>
-      <c r="Z18" s="45">
+      <c r="Z18" s="43">
         <v>0.08</v>
       </c>
-      <c r="AA18" s="49">
+      <c r="AA18" s="47">
         <v>0</v>
       </c>
-      <c r="AB18" s="50">
+      <c r="AB18" s="48">
         <v>6</v>
       </c>
-      <c r="AC18" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD18" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE18" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="52"/>
-      <c r="AH18" s="52">
+      <c r="AC18" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD18" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE18" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AI18" s="52">
+      <c r="AI18" s="50">
         <v>2</v>
       </c>
-      <c r="AJ18" s="52">
+      <c r="AJ18" s="50">
         <v>2</v>
       </c>
-      <c r="AK18" s="52" t="b">
+      <c r="AK18" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="AL18" s="52" t="b">
+      <c r="AL18" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="AM18" s="52" t="b">
+      <c r="AM18" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="AN18" s="52">
+      <c r="AN18" s="50">
         <v>10</v>
       </c>
-      <c r="AO18" s="53">
+      <c r="AO18" s="114">
         <v>0.7</v>
       </c>
-      <c r="AP18" s="54"/>
-      <c r="AQ18" s="55"/>
-      <c r="AR18" s="56">
+      <c r="AP18" s="51"/>
+      <c r="AQ18" s="52"/>
+      <c r="AR18" s="53">
         <v>1.8E-3</v>
       </c>
-      <c r="AS18" s="57">
+      <c r="AS18" s="54">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT18" s="58">
+      <c r="AT18" s="55">
         <v>333</v>
       </c>
-      <c r="AU18" s="33">
+      <c r="AU18" s="31">
         <v>2.5</v>
       </c>
-      <c r="AV18" s="33">
-        <v>5</v>
-      </c>
-      <c r="AW18" s="33">
+      <c r="AV18" s="31">
+        <v>9.5</v>
+      </c>
+      <c r="AW18" s="31">
         <v>1.7</v>
       </c>
-      <c r="AX18" s="59">
+      <c r="AX18" s="56">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AY18" s="59">
+      <c r="AY18" s="56">
         <v>2.25</v>
       </c>
-      <c r="AZ18" s="59">
+      <c r="AZ18" s="56">
         <v>9</v>
       </c>
-      <c r="BA18" s="59">
+      <c r="BA18" s="56">
         <v>8</v>
       </c>
-      <c r="BB18" s="33" t="s">
+      <c r="BB18" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="39">
+      <c r="C19" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="37">
         <v>20</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="38">
         <v>15</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="39">
         <v>0</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="40">
         <v>400</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L19" s="43">
+      <c r="L19" s="41">
         <v>0</v>
       </c>
-      <c r="M19" s="43">
+      <c r="M19" s="41">
         <v>1.4E-2</v>
       </c>
-      <c r="N19" s="44">
+      <c r="N19" s="42">
         <v>25</v>
       </c>
-      <c r="O19" s="44">
+      <c r="O19" s="42">
         <v>0.7</v>
       </c>
-      <c r="P19" s="45">
+      <c r="P19" s="43">
         <v>1.75</v>
       </c>
-      <c r="Q19" s="41">
+      <c r="Q19" s="39">
         <v>1</v>
       </c>
-      <c r="R19" s="43">
+      <c r="R19" s="41">
         <v>150</v>
       </c>
-      <c r="S19" s="43">
+      <c r="S19" s="41">
         <v>40</v>
       </c>
-      <c r="T19" s="46">
+      <c r="T19" s="44">
         <v>28</v>
       </c>
-      <c r="U19" s="47">
+      <c r="U19" s="45">
         <v>11.5</v>
       </c>
-      <c r="V19" s="43">
+      <c r="V19" s="41">
         <v>5</v>
       </c>
-      <c r="W19" s="44">
+      <c r="W19" s="42">
         <v>10</v>
       </c>
-      <c r="X19" s="46">
+      <c r="X19" s="44">
         <v>20000</v>
       </c>
-      <c r="Y19" s="48">
+      <c r="Y19" s="46">
         <v>4</v>
       </c>
-      <c r="Z19" s="45">
+      <c r="Z19" s="43">
         <v>0.05</v>
       </c>
-      <c r="AA19" s="49">
+      <c r="AA19" s="47">
         <v>0</v>
       </c>
-      <c r="AB19" s="50">
+      <c r="AB19" s="48">
         <v>6</v>
       </c>
-      <c r="AC19" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD19" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE19" s="52" t="s">
+      <c r="AC19" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="52"/>
-      <c r="AH19" s="52">
+      <c r="AD19" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE19" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="50">
         <v>2.1</v>
       </c>
-      <c r="AI19" s="52">
+      <c r="AI19" s="50">
         <v>2</v>
       </c>
-      <c r="AJ19" s="52">
+      <c r="AJ19" s="50">
         <v>2</v>
       </c>
-      <c r="AK19" s="52" t="b">
+      <c r="AK19" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="AL19" s="52" t="b">
+      <c r="AL19" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="AM19" s="52" t="b">
+      <c r="AM19" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="AN19" s="52">
+      <c r="AN19" s="50">
         <v>10</v>
       </c>
-      <c r="AO19" s="53">
+      <c r="AO19" s="114">
         <v>0.7</v>
       </c>
-      <c r="AP19" s="54"/>
-      <c r="AQ19" s="55"/>
-      <c r="AR19" s="56">
+      <c r="AP19" s="51"/>
+      <c r="AQ19" s="52"/>
+      <c r="AR19" s="53">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AS19" s="57">
+      <c r="AS19" s="54">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT19" s="58">
+      <c r="AT19" s="55">
         <v>475</v>
       </c>
-      <c r="AU19" s="33">
-        <v>3.4</v>
-      </c>
-      <c r="AV19" s="33">
-        <v>5</v>
-      </c>
-      <c r="AW19" s="33">
+      <c r="AU19" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="AV19" s="31">
+        <v>9.5</v>
+      </c>
+      <c r="AW19" s="31">
         <v>1.7</v>
       </c>
-      <c r="AX19" s="59">
+      <c r="AX19" s="56">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AY19" s="59">
+      <c r="AY19" s="56">
         <v>2.25</v>
       </c>
-      <c r="AZ19" s="59">
+      <c r="AZ19" s="56">
         <v>45</v>
       </c>
-      <c r="BA19" s="59">
+      <c r="BA19" s="56">
         <v>15</v>
       </c>
-      <c r="BB19" s="33" t="s">
+      <c r="BB19" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="39">
+      <c r="C20" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="37">
         <v>30</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="38">
         <v>25</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20" s="39">
         <v>0</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="40">
         <v>430</v>
       </c>
-      <c r="K20" s="43">
+      <c r="K20" s="41">
         <v>2.4</v>
       </c>
-      <c r="L20" s="43">
+      <c r="L20" s="41">
         <v>0</v>
       </c>
-      <c r="M20" s="43">
+      <c r="M20" s="41">
         <v>1.6E-2</v>
       </c>
-      <c r="N20" s="44">
+      <c r="N20" s="42">
         <v>20</v>
       </c>
-      <c r="O20" s="44">
+      <c r="O20" s="42">
         <v>0.8</v>
       </c>
-      <c r="P20" s="45">
+      <c r="P20" s="43">
         <v>2.1</v>
       </c>
-      <c r="Q20" s="41">
+      <c r="Q20" s="39">
         <v>1</v>
       </c>
-      <c r="R20" s="43">
+      <c r="R20" s="41">
         <v>175</v>
       </c>
-      <c r="S20" s="43">
+      <c r="S20" s="41">
         <v>40</v>
       </c>
-      <c r="T20" s="46">
+      <c r="T20" s="44">
         <v>28</v>
       </c>
-      <c r="U20" s="47">
+      <c r="U20" s="45">
         <v>12</v>
       </c>
-      <c r="V20" s="43">
+      <c r="V20" s="41">
         <v>6</v>
       </c>
-      <c r="W20" s="44">
+      <c r="W20" s="42">
         <v>10</v>
       </c>
-      <c r="X20" s="46">
+      <c r="X20" s="44">
         <v>30000</v>
       </c>
-      <c r="Y20" s="48">
+      <c r="Y20" s="46">
         <v>5</v>
       </c>
-      <c r="Z20" s="45">
+      <c r="Z20" s="43">
         <v>0.04</v>
       </c>
-      <c r="AA20" s="49">
+      <c r="AA20" s="47">
         <v>0</v>
       </c>
-      <c r="AB20" s="50">
+      <c r="AB20" s="48">
         <v>6</v>
       </c>
-      <c r="AC20" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD20" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE20" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
-      <c r="AH20" s="52">
+      <c r="AC20" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD20" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE20" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="50"/>
+      <c r="AH20" s="50">
         <v>2.1</v>
       </c>
-      <c r="AI20" s="52">
+      <c r="AI20" s="50">
         <v>2</v>
       </c>
-      <c r="AJ20" s="52">
+      <c r="AJ20" s="50">
         <v>2</v>
       </c>
-      <c r="AK20" s="52" t="b">
+      <c r="AK20" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="AL20" s="52" t="b">
+      <c r="AL20" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="AM20" s="52" t="b">
+      <c r="AM20" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="AN20" s="52">
+      <c r="AN20" s="50">
         <v>10</v>
       </c>
-      <c r="AO20" s="53">
+      <c r="AO20" s="114">
         <v>0.7</v>
       </c>
-      <c r="AP20" s="54"/>
-      <c r="AQ20" s="55"/>
-      <c r="AR20" s="56">
+      <c r="AP20" s="51"/>
+      <c r="AQ20" s="52"/>
+      <c r="AR20" s="53">
         <v>1.5E-3</v>
       </c>
-      <c r="AS20" s="57">
+      <c r="AS20" s="54">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT20" s="58">
+      <c r="AT20" s="55">
         <v>705</v>
       </c>
-      <c r="AU20" s="33">
-        <v>4.7</v>
-      </c>
-      <c r="AV20" s="33">
-        <v>5</v>
-      </c>
-      <c r="AW20" s="33">
+      <c r="AU20" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="AV20" s="31">
+        <v>9.5</v>
+      </c>
+      <c r="AW20" s="31">
         <v>1.7</v>
       </c>
-      <c r="AX20" s="59">
+      <c r="AX20" s="56">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AY20" s="59">
+      <c r="AY20" s="56">
         <v>2.25</v>
       </c>
-      <c r="AZ20" s="59">
+      <c r="AZ20" s="56">
         <v>59</v>
       </c>
-      <c r="BA20" s="59">
+      <c r="BA20" s="56">
         <v>15</v>
       </c>
-      <c r="BB20" s="33" t="s">
+      <c r="BB20" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="39">
+      <c r="C21" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="37">
         <v>0</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="49"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="51"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="52"/>
-      <c r="AH21" s="52"/>
-      <c r="AI21" s="52"/>
-      <c r="AJ21" s="52"/>
-      <c r="AK21" s="52"/>
-      <c r="AL21" s="52"/>
-      <c r="AM21" s="52"/>
-      <c r="AN21" s="52"/>
-      <c r="AO21" s="53"/>
-      <c r="AP21" s="54"/>
-      <c r="AQ21" s="55"/>
-      <c r="AR21" s="56"/>
-      <c r="AS21" s="57"/>
-      <c r="AT21" s="58"/>
-      <c r="AU21" s="33"/>
-      <c r="AV21" s="33"/>
-      <c r="AW21" s="33"/>
-      <c r="AX21" s="59"/>
-      <c r="AY21" s="59"/>
-      <c r="AZ21" s="59"/>
-      <c r="BA21" s="59"/>
-      <c r="BB21" s="33"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
+      <c r="AH21" s="50"/>
+      <c r="AI21" s="50"/>
+      <c r="AJ21" s="50"/>
+      <c r="AK21" s="50"/>
+      <c r="AL21" s="50"/>
+      <c r="AM21" s="50"/>
+      <c r="AN21" s="50"/>
+      <c r="AO21" s="114"/>
+      <c r="AP21" s="51"/>
+      <c r="AQ21" s="52"/>
+      <c r="AR21" s="53"/>
+      <c r="AS21" s="54"/>
+      <c r="AT21" s="55"/>
+      <c r="AU21" s="31"/>
+      <c r="AV21" s="31"/>
+      <c r="AW21" s="31"/>
+      <c r="AX21" s="56"/>
+      <c r="AY21" s="56"/>
+      <c r="AZ21" s="56"/>
+      <c r="BA21" s="56"/>
+      <c r="BB21" s="31"/>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="39">
+      <c r="C22" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="37">
         <v>10</v>
       </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="49"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="52"/>
-      <c r="AE22" s="52"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="52"/>
-      <c r="AH22" s="52"/>
-      <c r="AI22" s="52"/>
-      <c r="AJ22" s="52"/>
-      <c r="AK22" s="52"/>
-      <c r="AL22" s="52"/>
-      <c r="AM22" s="52"/>
-      <c r="AN22" s="52"/>
-      <c r="AO22" s="53"/>
-      <c r="AP22" s="54"/>
-      <c r="AQ22" s="55"/>
-      <c r="AR22" s="56"/>
-      <c r="AS22" s="57"/>
-      <c r="AT22" s="58"/>
-      <c r="AU22" s="33"/>
-      <c r="AV22" s="33"/>
-      <c r="AW22" s="33"/>
-      <c r="AX22" s="59"/>
-      <c r="AY22" s="59"/>
-      <c r="AZ22" s="59"/>
-      <c r="BA22" s="59"/>
-      <c r="BB22" s="33"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
+      <c r="AH22" s="50"/>
+      <c r="AI22" s="50"/>
+      <c r="AJ22" s="50"/>
+      <c r="AK22" s="50"/>
+      <c r="AL22" s="50"/>
+      <c r="AM22" s="50"/>
+      <c r="AN22" s="50"/>
+      <c r="AO22" s="114"/>
+      <c r="AP22" s="51"/>
+      <c r="AQ22" s="52"/>
+      <c r="AR22" s="53"/>
+      <c r="AS22" s="54"/>
+      <c r="AT22" s="55"/>
+      <c r="AU22" s="31"/>
+      <c r="AV22" s="31"/>
+      <c r="AW22" s="31"/>
+      <c r="AX22" s="56"/>
+      <c r="AY22" s="56"/>
+      <c r="AZ22" s="56"/>
+      <c r="BA22" s="56"/>
+      <c r="BB22" s="31"/>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="39">
+      <c r="C23" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="37">
         <v>20</v>
       </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="51"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="52"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="52"/>
-      <c r="AH23" s="52"/>
-      <c r="AI23" s="52"/>
-      <c r="AJ23" s="52"/>
-      <c r="AK23" s="52"/>
-      <c r="AL23" s="52"/>
-      <c r="AM23" s="52"/>
-      <c r="AN23" s="52"/>
-      <c r="AO23" s="53"/>
-      <c r="AP23" s="54"/>
-      <c r="AQ23" s="55"/>
-      <c r="AR23" s="56"/>
-      <c r="AS23" s="57"/>
-      <c r="AT23" s="58"/>
-      <c r="AU23" s="33"/>
-      <c r="AV23" s="33"/>
-      <c r="AW23" s="33"/>
-      <c r="AX23" s="59"/>
-      <c r="AY23" s="59"/>
-      <c r="AZ23" s="59"/>
-      <c r="BA23" s="59"/>
-      <c r="BB23" s="33"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="50"/>
+      <c r="AH23" s="50"/>
+      <c r="AI23" s="50"/>
+      <c r="AJ23" s="50"/>
+      <c r="AK23" s="50"/>
+      <c r="AL23" s="50"/>
+      <c r="AM23" s="50"/>
+      <c r="AN23" s="50"/>
+      <c r="AO23" s="114"/>
+      <c r="AP23" s="51"/>
+      <c r="AQ23" s="52"/>
+      <c r="AR23" s="53"/>
+      <c r="AS23" s="54"/>
+      <c r="AT23" s="55"/>
+      <c r="AU23" s="31"/>
+      <c r="AV23" s="31"/>
+      <c r="AW23" s="31"/>
+      <c r="AX23" s="56"/>
+      <c r="AY23" s="56"/>
+      <c r="AZ23" s="56"/>
+      <c r="BA23" s="56"/>
+      <c r="BB23" s="31"/>
     </row>
     <row r="24" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="39">
+      <c r="C24" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="37">
         <v>30</v>
       </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="51"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="52"/>
-      <c r="AH24" s="52"/>
-      <c r="AI24" s="52"/>
-      <c r="AJ24" s="52"/>
-      <c r="AK24" s="52"/>
-      <c r="AL24" s="52"/>
-      <c r="AM24" s="52"/>
-      <c r="AN24" s="52"/>
-      <c r="AO24" s="53"/>
-      <c r="AP24" s="54"/>
-      <c r="AQ24" s="55"/>
-      <c r="AR24" s="56"/>
-      <c r="AS24" s="57"/>
-      <c r="AT24" s="58"/>
-      <c r="AU24" s="33"/>
-      <c r="AV24" s="33"/>
-      <c r="AW24" s="33"/>
-      <c r="AX24" s="59"/>
-      <c r="AY24" s="59"/>
-      <c r="AZ24" s="59"/>
-      <c r="BA24" s="59"/>
-      <c r="BB24" s="33"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="50"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
+      <c r="AH24" s="110"/>
+      <c r="AI24" s="110"/>
+      <c r="AJ24" s="110"/>
+      <c r="AK24" s="110"/>
+      <c r="AL24" s="110"/>
+      <c r="AM24" s="110"/>
+      <c r="AN24" s="110"/>
+      <c r="AO24" s="114"/>
+      <c r="AP24" s="51"/>
+      <c r="AQ24" s="52"/>
+      <c r="AR24" s="53"/>
+      <c r="AS24" s="54"/>
+      <c r="AT24" s="55"/>
+      <c r="AU24" s="31"/>
+      <c r="AV24" s="31"/>
+      <c r="AW24" s="31"/>
+      <c r="AX24" s="56"/>
+      <c r="AY24" s="56"/>
+      <c r="AZ24" s="56"/>
+      <c r="BA24" s="56"/>
+      <c r="BB24" s="31"/>
     </row>
     <row r="25" spans="1:54" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
@@ -6855,42 +11517,49 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="92" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="93"/>
-      <c r="K25" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="20" t="s">
+      <c r="H25" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="R25" s="97" t="s">
+      <c r="I25" s="108"/>
+      <c r="J25" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="99"/>
-      <c r="V25" s="100" t="s">
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="W25" s="101"/>
-      <c r="X25" s="101"/>
-      <c r="Y25" s="102"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="104"/>
+      <c r="X25" s="104"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AH25" s="111" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI25" s="112"/>
+      <c r="AJ25" s="112"/>
+      <c r="AK25" s="112"/>
+      <c r="AL25" s="112"/>
+      <c r="AM25" s="112"/>
+      <c r="AN25" s="113"/>
     </row>
     <row r="27" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -6903,222 +11572,223 @@
     </row>
     <row r="30" spans="1:54" ht="157.5" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="89" t="s">
-        <v>82</v>
+        <v>106</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="86" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="87">
+      <c r="C31" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="84">
         <v>5</v>
       </c>
-      <c r="F31" s="88" t="str">
+      <c r="F31" s="85" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_helicopter_power_1</v>
       </c>
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="87">
+      <c r="C32" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="84">
         <v>15</v>
       </c>
-      <c r="F32" s="88" t="str">
+      <c r="F32" s="85" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_helicopter_power_2</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="87">
+      <c r="C33" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="84">
         <v>25</v>
       </c>
-      <c r="F33" s="88" t="str">
+      <c r="F33" s="85" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_helicopter_power_3</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="86" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="87">
+      <c r="C34" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="84">
         <v>5</v>
       </c>
-      <c r="F34" s="88" t="str">
+      <c r="F34" s="85" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_electric_power_1</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="87">
+      <c r="C35" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="84">
         <v>15</v>
       </c>
-      <c r="F35" s="88" t="str">
+      <c r="F35" s="85" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_electric_power_2</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="86" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="87">
+      <c r="C36" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="84">
         <v>25</v>
       </c>
-      <c r="F36" s="88" t="str">
+      <c r="F36" s="85" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_electric_power_3</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="87">
+      <c r="C37" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="84">
         <v>5</v>
       </c>
-      <c r="F37" s="88" t="str">
+      <c r="F37" s="85" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_sonic_power_1</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="87">
+      <c r="C38" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="84">
         <v>15</v>
       </c>
-      <c r="F38" s="88" t="str">
+      <c r="F38" s="85" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_sonic_power_2</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="91">
+      <c r="C39" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="88">
         <v>25</v>
       </c>
-      <c r="F39" s="88" t="str">
+      <c r="F39" s="85" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_sonic_power_3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="V25:Y25"/>
+  <mergeCells count="5">
+    <mergeCell ref="AH25:AN25"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:O25"/>
   </mergeCells>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="13" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB13">
-    <cfRule type="duplicateValues" dxfId="12" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D6">
-    <cfRule type="duplicateValues" dxfId="11" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T6">
-    <cfRule type="duplicateValues" dxfId="10" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C36">
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C33">
-    <cfRule type="duplicateValues" dxfId="8" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:C24">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB14:BB16 BB21:BB24">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB17">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB18:BB20">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D13:D24">
@@ -7137,316 +11807,1008 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:X15"/>
+  <dimension ref="C1:AC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="27" max="27" width="11.28515625" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="E1" s="106" t="s">
+    <row r="1" spans="3:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="C1" s="92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D3" s="90"/>
+      <c r="E3" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="J3" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="R3" s="90" t="s">
         <v>126</v>
       </c>
+      <c r="Z3" s="90" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="3" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="F3" s="104"/>
-      <c r="G3" s="107" t="s">
+    <row r="4" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D4" s="91"/>
+      <c r="E4" s="91">
+        <v>1</v>
+      </c>
+      <c r="F4" s="91">
+        <v>2</v>
+      </c>
+      <c r="G4" s="91">
+        <v>3</v>
+      </c>
+      <c r="H4" s="91">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="89">
+        <v>30</v>
+      </c>
+      <c r="S4" t="s">
+        <v>142</v>
+      </c>
+      <c r="T4" s="89">
+        <v>30</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB4" s="89">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D5" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="93">
+        <v>100</v>
+      </c>
+      <c r="F5" s="93">
+        <v>200</v>
+      </c>
+      <c r="G5" s="93">
+        <v>300</v>
+      </c>
+      <c r="H5" s="93">
+        <v>400</v>
+      </c>
+      <c r="K5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="89">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>121</v>
+      </c>
+      <c r="T5" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB5" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D6" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="93">
+        <v>100</v>
+      </c>
+      <c r="F6" s="93">
+        <v>125</v>
+      </c>
+      <c r="G6" s="93">
+        <v>150</v>
+      </c>
+      <c r="H6" s="93">
+        <v>175</v>
+      </c>
+      <c r="K6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="89">
+        <v>100</v>
+      </c>
+      <c r="S6" t="s">
+        <v>122</v>
+      </c>
+      <c r="T6" s="89">
+        <v>100</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB6" s="89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="L3" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q3" s="104" t="s">
+      <c r="E7" s="116">
+        <v>200</v>
+      </c>
+      <c r="F7" s="116">
+        <v>300</v>
+      </c>
+      <c r="G7" s="116">
+        <v>400</v>
+      </c>
+      <c r="H7" s="116">
+        <v>500</v>
+      </c>
+      <c r="K7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7">
+        <f>ROUND((L6-L5)/L4,1)</f>
+        <v>3.3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>135</v>
+      </c>
+      <c r="T7">
+        <f>ROUND((T6-T5)/T4,1)</f>
+        <v>3.3</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB7">
+        <f>ROUND((AB6-AB5)/AB4,1)</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="117">
+        <v>0</v>
+      </c>
+      <c r="F8" s="117">
+        <v>10</v>
+      </c>
+      <c r="G8" s="117">
+        <v>20</v>
+      </c>
+      <c r="H8" s="118">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C11" s="120"/>
+      <c r="D11" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="V3" s="104" t="s">
+      <c r="E11" s="122">
+        <f>IF(E16&lt;F8,1,IF(AND(E16&gt;=F8,E16&lt;G8),2,IF(AND(E16&gt;=G8,E16&lt;H8),3,4)))</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="123"/>
+      <c r="J11" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="L11" s="94" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="R11" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="S11" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="T11" s="94" t="s">
+        <v>138</v>
+      </c>
+      <c r="U11" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Z11" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA11" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB11" s="94" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC11" s="94" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="124"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="107"/>
+      <c r="J12" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12">
+        <f>E5</f>
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <f>E5+E5*(L6/100)</f>
+        <v>200</v>
+      </c>
+      <c r="M12">
+        <f>L12-K12</f>
+        <v>100</v>
+      </c>
+      <c r="R12" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="S12">
+        <f>E6</f>
+        <v>100</v>
+      </c>
+      <c r="T12">
+        <f>E6+E6*(T6/100)</f>
+        <v>200</v>
+      </c>
+      <c r="U12">
+        <f>T12-S12</f>
+        <v>100</v>
+      </c>
+      <c r="Z12" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA12">
+        <f>ROUND((E7/'special dragons'!AV17)/'special dragons'!AU17,1)</f>
+        <v>8.4</v>
+      </c>
+      <c r="AB12">
+        <f>ROUND(((E7+E7*(AB6/100))/'special dragons'!AV17)/'special dragons'!AU17,1)</f>
+        <v>16.8</v>
+      </c>
+      <c r="AC12">
+        <f>AB12-AA12</f>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="124" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="125" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="126">
+        <v>0</v>
+      </c>
+      <c r="F13" s="125"/>
+      <c r="G13" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="96">
+        <f ca="1">INDIRECT(ADDRESS(5,4+E11)) + (INDIRECT(ADDRESS(5,4+E11)) *(L7/100) *E13)</f>
+        <v>100</v>
+      </c>
+      <c r="J13" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13">
+        <f>F5</f>
+        <v>200</v>
+      </c>
+      <c r="L13">
+        <f>F5+F5*(L6/100)</f>
+        <v>400</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:M15" si="0">L13-K13</f>
+        <v>200</v>
+      </c>
+      <c r="R13" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="S13">
+        <f>F6</f>
+        <v>125</v>
+      </c>
+      <c r="T13">
+        <f>F6+F6*(T6/100)</f>
+        <v>250</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ref="U13:U15" si="1">T13-S13</f>
+        <v>125</v>
+      </c>
+      <c r="Z13" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA13">
+        <f>ROUND((F7/'special dragons'!AV18)/'special dragons'!AU18,1)</f>
+        <v>12.6</v>
+      </c>
+      <c r="AB13">
+        <f>ROUND(((F7+F7*(AB6/100))/'special dragons'!AV18)/'special dragons'!AU18,1)</f>
+        <v>25.3</v>
+      </c>
+      <c r="AC13">
+        <f>AB13-AA13</f>
+        <v>12.700000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="125" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="F4" s="105"/>
-      <c r="G4" s="105">
-        <v>1</v>
-      </c>
-      <c r="H4" s="105">
-        <v>2</v>
-      </c>
-      <c r="I4" s="105">
-        <v>3</v>
-      </c>
-      <c r="J4" s="105">
-        <v>4</v>
-      </c>
-      <c r="M4" t="s">
-        <v>145</v>
-      </c>
-      <c r="N4" s="103">
-        <v>30</v>
-      </c>
-      <c r="R4" t="s">
-        <v>145</v>
-      </c>
-      <c r="S4" s="103">
-        <v>30</v>
-      </c>
-      <c r="W4" t="s">
-        <v>145</v>
-      </c>
-      <c r="X4" s="103">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="F5" s="105" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="108">
+      <c r="E14" s="126">
+        <v>0</v>
+      </c>
+      <c r="F14" s="125"/>
+      <c r="G14" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="96">
+        <f ca="1">INDIRECT(ADDRESS(6,4+E11)) + (INDIRECT(ADDRESS(6,4+E11)) *(L7/100) *E14)</f>
         <v>100</v>
       </c>
-      <c r="H5" s="108">
-        <v>200</v>
-      </c>
-      <c r="I5" s="108">
+      <c r="J14" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14">
+        <f>G5</f>
         <v>300</v>
       </c>
-      <c r="J5" s="108">
-        <v>400</v>
-      </c>
-      <c r="M5" t="s">
-        <v>124</v>
-      </c>
-      <c r="N5" s="103">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>124</v>
-      </c>
-      <c r="S5" s="103">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>124</v>
-      </c>
-      <c r="X5" s="103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="F6" s="105" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="108">
-        <v>100</v>
-      </c>
-      <c r="H6" s="108">
-        <v>125</v>
-      </c>
-      <c r="I6" s="108">
-        <v>150</v>
-      </c>
-      <c r="J6" s="108">
-        <v>200</v>
-      </c>
-      <c r="M6" t="s">
-        <v>125</v>
-      </c>
-      <c r="N6" s="103">
-        <v>100</v>
-      </c>
-      <c r="R6" t="s">
-        <v>125</v>
-      </c>
-      <c r="S6" s="103">
-        <v>100</v>
-      </c>
-      <c r="W6" t="s">
-        <v>125</v>
-      </c>
-      <c r="X6" s="103">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="F7" s="105" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="M7" t="s">
-        <v>138</v>
-      </c>
-      <c r="N7">
-        <f>ROUND((N6-N5)/N4,1)</f>
-        <v>3.3</v>
-      </c>
-      <c r="R7" t="s">
-        <v>138</v>
-      </c>
-      <c r="S7">
-        <f>ROUND((S6-S5)/S4,1)</f>
-        <v>3.3</v>
-      </c>
-      <c r="W7" t="s">
-        <v>138</v>
-      </c>
-      <c r="X7">
-        <f>ROUND((X6-X5)/X4,1)</f>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="11" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="103">
-        <v>1</v>
-      </c>
-      <c r="L11" s="104" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="109" t="s">
-        <v>140</v>
-      </c>
-      <c r="N11" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="O11" s="109" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="104" t="s">
-        <v>139</v>
-      </c>
-      <c r="M12">
-        <f>G5</f>
-        <v>100</v>
-      </c>
-      <c r="N12">
-        <f>G5+G5*(N6/100)</f>
-        <v>200</v>
-      </c>
-      <c r="O12">
-        <f>N12-M12</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="103">
-        <v>0</v>
-      </c>
-      <c r="I13" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="J13" s="111">
-        <f ca="1">INDIRECT(ADDRESS(5,6+G11)) + (INDIRECT(ADDRESS(5,6+G11)) *(N7/100) *G13)</f>
-        <v>100</v>
-      </c>
-      <c r="L13" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="M13">
-        <f>H5</f>
-        <v>200</v>
-      </c>
-      <c r="N13">
-        <f>H5+H5*(N6/100)</f>
-        <v>400</v>
-      </c>
-      <c r="O13">
-        <f t="shared" ref="O13:O15" si="0">N13-M13</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" s="103">
-        <v>0</v>
-      </c>
-      <c r="L14" s="104" t="s">
-        <v>143</v>
+      <c r="L14">
+        <f>G5+G5*(L6/100)</f>
+        <v>600</v>
       </c>
       <c r="M14">
-        <f>I5</f>
-        <v>300</v>
-      </c>
-      <c r="N14">
-        <f>I5+I5*(N6/100)</f>
-        <v>600</v>
-      </c>
-      <c r="O14">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
+      <c r="R14" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="S14">
+        <f>G6</f>
+        <v>150</v>
+      </c>
+      <c r="T14">
+        <f>G6+G6*(T6/100)</f>
+        <v>300</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="Z14" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA14">
+        <f>ROUND((G7/'special dragons'!AV19)/'special dragons'!AU19,1)</f>
+        <v>16.8</v>
+      </c>
+      <c r="AB14">
+        <f>ROUND(((G7+G7*(AB6/100))/'special dragons'!AV19)/'special dragons'!AU19,1)</f>
+        <v>33.700000000000003</v>
+      </c>
+      <c r="AC14">
+        <f>AB14-AA14</f>
+        <v>16.900000000000002</v>
+      </c>
     </row>
-    <row r="15" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" t="s">
+    <row r="15" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="G15" s="103">
+      <c r="D15" s="125" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="126">
         <v>0</v>
       </c>
-      <c r="L15" s="104" t="s">
-        <v>144</v>
+      <c r="F15" s="125"/>
+      <c r="G15" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="96">
+        <f ca="1">ROUND(((INDIRECT(ADDRESS(7,4+E11)) + (INDIRECT(ADDRESS(7,4+E11)) *(L7/100) *E15))/INDIRECT(ADDRESS(16+E11,48,1,1,"special dragons")))/INDIRECT(ADDRESS(16+E11,47,1,1,"special dragons")),1)</f>
+        <v>8.4</v>
+      </c>
+      <c r="J15" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15">
+        <f>H5</f>
+        <v>400</v>
+      </c>
+      <c r="L15">
+        <f>H5+H5*(L6/100)</f>
+        <v>800</v>
       </c>
       <c r="M15">
-        <f>J5</f>
-        <v>400</v>
-      </c>
-      <c r="N15">
-        <f>J5+J5*(N6/100)</f>
-        <v>800</v>
-      </c>
-      <c r="O15">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
+      <c r="R15" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="S15">
+        <f>H6</f>
+        <v>175</v>
+      </c>
+      <c r="T15">
+        <f>H6+H6*(T6/100)</f>
+        <v>350</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="Z15" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA15">
+        <f>ROUND((H7/'special dragons'!AV20)/'special dragons'!AU20,1)</f>
+        <v>21.1</v>
+      </c>
+      <c r="AB15">
+        <f>ROUND(((H7+H7*(AB6/100))/'special dragons'!AV20)/'special dragons'!AU20,1)</f>
+        <v>42.1</v>
+      </c>
+      <c r="AC15">
+        <f>AB15-AA15</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C16" s="124"/>
+      <c r="D16" s="131" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="131">
+        <f>SUM(E13:E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="107"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="124"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="107"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="124"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="107"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="107"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="124"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="107"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="124"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="107"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="124"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="107"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="124"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="107"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="124"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="107"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="124"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="107"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="124"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="107"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="124"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="107"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="124"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="107"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="124"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="107"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="124"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="107"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="124"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="107"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="124"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="107"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="124"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="107"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="124"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="107"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="124"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="107"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="124"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="107"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="124"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="107"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="124"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="107"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="124"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="107"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="124"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="107"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="124"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="107"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="124"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="107"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="124"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="107"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="124"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="107"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="124"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="107"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="124"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="107"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="124"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="107"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="124"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="107"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="124"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="107"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="124"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="107"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="124"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="107"/>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" s="124"/>
+      <c r="D52" s="125"/>
+      <c r="E52" s="125"/>
+      <c r="F52" s="125"/>
+      <c r="G52" s="125"/>
+      <c r="H52" s="107"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="124"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="125"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="107"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="124"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="107"/>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="124"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="107"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="124"/>
+      <c r="D56" s="125"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="107"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="124"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="107"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="124"/>
+      <c r="D58" s="125"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="107"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="124"/>
+      <c r="D59" s="125"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="125"/>
+      <c r="H59" s="107"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="124"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="125"/>
+      <c r="H60" s="107"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="124"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="125"/>
+      <c r="H61" s="107"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="124"/>
+      <c r="D62" s="125"/>
+      <c r="E62" s="125"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="125"/>
+      <c r="H62" s="107"/>
+    </row>
+    <row r="63" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="127"/>
+      <c r="D63" s="128"/>
+      <c r="E63" s="128"/>
+      <c r="F63" s="128"/>
+      <c r="G63" s="128"/>
+      <c r="H63" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="E3:H3"/>
   </mergeCells>
-  <conditionalFormatting sqref="G13:G15">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>G13&gt;$N$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G$11&gt;4</formula>
+  <conditionalFormatting sqref="E13:E15">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>E13&gt;$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F4:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="130" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="130" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" s="130" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5">
+        <v>120</v>
+      </c>
+      <c r="H5">
+        <v>112.5</v>
+      </c>
+      <c r="I5">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="6" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6">
+        <v>240</v>
+      </c>
+      <c r="H6">
+        <v>112.5</v>
+      </c>
+      <c r="I6">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="7" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7">
+        <v>365</v>
+      </c>
+      <c r="H7">
+        <v>112.5</v>
+      </c>
+      <c r="I7">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="8" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8">
+        <v>410</v>
+      </c>
+      <c r="H8">
+        <v>112.5</v>
+      </c>
+      <c r="I8">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="9" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9">
+        <f ca="1">tools!H13</f>
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <f ca="1">tools!H14</f>
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <f ca="1">tools!H15</f>
+        <v>8.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500"/>
   </bookViews>
   <sheets>
     <sheet name="special dragons" sheetId="10" r:id="rId1"/>
@@ -509,7 +509,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,6 +558,13 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1164,7 +1171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1432,50 +1439,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1499,11 +1467,93 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="95">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1528,18 +1578,1085 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
         </left>
         <right style="medium">
           <color auto="1"/>
         </right>
         <top style="thin">
-          <color auto="1"/>
+          <color theme="4" tint="0.39997558519241921"/>
         </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1577,6 +2694,44 @@
         </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
         </bottom>
       </border>
     </dxf>
@@ -1617,18 +2772,1177 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1739,2284 +4053,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4129,13 +4165,13 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4172,13 +4208,13 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4451,13 +4487,13 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>175</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4491,16 +4527,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>175</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4770,16 +4806,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.4</c:v>
+                  <c:v>10.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.6</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.8</c:v>
+                  <c:v>10.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.1</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4813,16 +4849,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.4</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.700000000000001</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.900000000000002</c:v>
+                  <c:v>5.4999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>5.7000000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5748,7 +5784,7 @@
                   <c:v>15.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4</c:v>
+                  <c:v>10.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9421,89 +9457,89 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B12:BB24" totalsRowShown="0" headerRowBorderDxfId="95" totalsRowBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B12:BB24" totalsRowShown="0" headerRowBorderDxfId="83" totalsRowBorderDxfId="82">
   <autoFilter ref="B12:BB24"/>
   <tableColumns count="53">
-    <tableColumn id="1" name="{specialDragonTierDefinitions}" dataDxfId="93"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="92"/>
-    <tableColumn id="3" name="[tier]" dataDxfId="91"/>
-    <tableColumn id="4" name="[specialDragon]" dataDxfId="90"/>
-    <tableColumn id="5" name="[mainProgressionRestriction]" dataDxfId="89"/>
-    <tableColumn id="7" name="[upgradeLevelToUnlock]" dataDxfId="88"/>
-    <tableColumn id="8" name="[defaultSize]" dataDxfId="87"/>
-    <tableColumn id="9" name="[cameraFrameWidthModifier]" dataDxfId="86"/>
-    <tableColumn id="10" name="[health]" dataDxfId="85"/>
-    <tableColumn id="11" name="[healthDrain]" dataDxfId="84"/>
-    <tableColumn id="12" name="[healthDrainSpacePlus]" dataDxfId="83"/>
-    <tableColumn id="13" name="[healthDrainAmpPerSecond]" dataDxfId="82"/>
-    <tableColumn id="14" name="[sessionStartHealthDrainTime]" dataDxfId="81"/>
-    <tableColumn id="15" name="[sessionStartHealthDrainModifier]" dataDxfId="80"/>
-    <tableColumn id="16" name="[scale]" dataDxfId="79"/>
-    <tableColumn id="17" name="[boostMultiplier]" dataDxfId="78"/>
-    <tableColumn id="18" name="[energyBase]" dataDxfId="77"/>
-    <tableColumn id="19" name="[energyDrain]" dataDxfId="76"/>
-    <tableColumn id="20" name="[energyRefillRate]" dataDxfId="75"/>
-    <tableColumn id="21" name="[furyBaseLength]" dataDxfId="74"/>
-    <tableColumn id="22" name="[furyScoreMultiplier]" dataDxfId="73"/>
-    <tableColumn id="23" name="[furyBaseDuration]" dataDxfId="72"/>
-    <tableColumn id="24" name="[furyMax]" dataDxfId="71"/>
-    <tableColumn id="25" name="[scoreTextThresholdMultiplier]" dataDxfId="70"/>
-    <tableColumn id="26" name="[eatSpeedFactor]" dataDxfId="69"/>
-    <tableColumn id="27" name="[maxAlcohol]" dataDxfId="68"/>
-    <tableColumn id="28" name="[alcoholDrain]" dataDxfId="67"/>
-    <tableColumn id="29" name="[gamePrefab]" dataDxfId="66"/>
-    <tableColumn id="30" name="[menuPrefab]" dataDxfId="65"/>
-    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="64"/>
-    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="63"/>
-    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="62"/>
-    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="61"/>
-    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="60"/>
-    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="59"/>
-    <tableColumn id="37" name="[invincible]" dataDxfId="58"/>
-    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="57"/>
-    <tableColumn id="39" name="[eatEverything]" dataDxfId="56"/>
-    <tableColumn id="40" name="[modeDuration]" dataDxfId="2"/>
-    <tableColumn id="41" name="[petScale]" dataDxfId="0"/>
-    <tableColumn id="42" name="[tidName]" dataDxfId="1"/>
-    <tableColumn id="43" name="[tidDesc]" dataDxfId="55"/>
-    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="54"/>
-    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="53"/>
-    <tableColumn id="46" name="[force]" dataDxfId="52"/>
-    <tableColumn id="47" name="[mass]" dataDxfId="51"/>
-    <tableColumn id="48" name="[friction]" dataDxfId="50"/>
-    <tableColumn id="49" name="[gravityModifier]" dataDxfId="49"/>
-    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="48"/>
-    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="47"/>
-    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="46"/>
-    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="45"/>
-    <tableColumn id="54" name="[trackingSku]" dataDxfId="44"/>
+    <tableColumn id="1" name="{specialDragonTierDefinitions}" dataDxfId="81"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="80"/>
+    <tableColumn id="3" name="[tier]" dataDxfId="79"/>
+    <tableColumn id="4" name="[specialDragon]" dataDxfId="78"/>
+    <tableColumn id="5" name="[mainProgressionRestriction]" dataDxfId="77"/>
+    <tableColumn id="7" name="[upgradeLevelToUnlock]" dataDxfId="76"/>
+    <tableColumn id="8" name="[defaultSize]" dataDxfId="75"/>
+    <tableColumn id="9" name="[cameraFrameWidthModifier]" dataDxfId="74"/>
+    <tableColumn id="10" name="[health]" dataDxfId="73"/>
+    <tableColumn id="11" name="[healthDrain]" dataDxfId="72"/>
+    <tableColumn id="12" name="[healthDrainSpacePlus]" dataDxfId="71"/>
+    <tableColumn id="13" name="[healthDrainAmpPerSecond]" dataDxfId="70"/>
+    <tableColumn id="14" name="[sessionStartHealthDrainTime]" dataDxfId="69"/>
+    <tableColumn id="15" name="[sessionStartHealthDrainModifier]" dataDxfId="68"/>
+    <tableColumn id="16" name="[scale]" dataDxfId="67"/>
+    <tableColumn id="17" name="[boostMultiplier]" dataDxfId="66"/>
+    <tableColumn id="18" name="[energyBase]" dataDxfId="65"/>
+    <tableColumn id="19" name="[energyDrain]" dataDxfId="64"/>
+    <tableColumn id="20" name="[energyRefillRate]" dataDxfId="63"/>
+    <tableColumn id="21" name="[furyBaseLength]" dataDxfId="62"/>
+    <tableColumn id="22" name="[furyScoreMultiplier]" dataDxfId="61"/>
+    <tableColumn id="23" name="[furyBaseDuration]" dataDxfId="60"/>
+    <tableColumn id="24" name="[furyMax]" dataDxfId="59"/>
+    <tableColumn id="25" name="[scoreTextThresholdMultiplier]" dataDxfId="58"/>
+    <tableColumn id="26" name="[eatSpeedFactor]" dataDxfId="57"/>
+    <tableColumn id="27" name="[maxAlcohol]" dataDxfId="56"/>
+    <tableColumn id="28" name="[alcoholDrain]" dataDxfId="55"/>
+    <tableColumn id="29" name="[gamePrefab]" dataDxfId="54"/>
+    <tableColumn id="30" name="[menuPrefab]" dataDxfId="53"/>
+    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="52"/>
+    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="51"/>
+    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="50"/>
+    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="49"/>
+    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="48"/>
+    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="47"/>
+    <tableColumn id="37" name="[invincible]" dataDxfId="46"/>
+    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="45"/>
+    <tableColumn id="39" name="[eatEverything]" dataDxfId="44"/>
+    <tableColumn id="40" name="[modeDuration]" dataDxfId="43"/>
+    <tableColumn id="41" name="[petScale]" dataDxfId="42"/>
+    <tableColumn id="42" name="[tidName]" dataDxfId="41"/>
+    <tableColumn id="43" name="[tidDesc]" dataDxfId="40"/>
+    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="39"/>
+    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="38"/>
+    <tableColumn id="46" name="[force]" dataDxfId="37"/>
+    <tableColumn id="47" name="[mass]" dataDxfId="36"/>
+    <tableColumn id="48" name="[friction]" dataDxfId="35"/>
+    <tableColumn id="49" name="[gravityModifier]" dataDxfId="34"/>
+    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="33"/>
+    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="32"/>
+    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="31"/>
+    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="30"/>
+    <tableColumn id="54" name="[trackingSku]" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25">
   <autoFilter ref="B3:T6"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="39"/>
+    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="24"/>
     <tableColumn id="2" name="[sku]"/>
     <tableColumn id="3" name="[type]"/>
-    <tableColumn id="5" name="[order]" dataDxfId="38"/>
-    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="37"/>
-    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="36"/>
-    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="35"/>
-    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="34"/>
-    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="33"/>
-    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="32"/>
-    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="31"/>
-    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="30"/>
-    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="29"/>
-    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="28"/>
-    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="27"/>
-    <tableColumn id="76" name="[stepPrice]" dataDxfId="26"/>
-    <tableColumn id="77" name="[priceCoefA]" dataDxfId="25"/>
-    <tableColumn id="75" name="[priceCoefB]" dataDxfId="24"/>
+    <tableColumn id="5" name="[order]" dataDxfId="23"/>
+    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="22"/>
+    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="21"/>
+    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="20"/>
+    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="19"/>
+    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="18"/>
+    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="17"/>
+    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="16"/>
+    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="15"/>
+    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="14"/>
+    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="13"/>
+    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="12"/>
+    <tableColumn id="76" name="[stepPrice]" dataDxfId="11"/>
+    <tableColumn id="77" name="[priceCoefA]" dataDxfId="10"/>
+    <tableColumn id="75" name="[priceCoefB]" dataDxfId="9"/>
     <tableColumn id="65" name="[trackingSku]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9511,14 +9547,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="B30:F39"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="20"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="19"/>
-    <tableColumn id="3" name="[specialDragon]" dataDxfId="18"/>
-    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="17"/>
-    <tableColumn id="5" name="[icon]" dataDxfId="16">
+    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="5"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="4"/>
+    <tableColumn id="3" name="[specialDragon]" dataDxfId="3"/>
+    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="2"/>
+    <tableColumn id="5" name="[icon]" dataDxfId="1">
       <calculatedColumnFormula>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9791,8 +9827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AQ25" sqref="AQ25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10022,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="73">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N5" s="81">
         <v>30</v>
@@ -10031,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="81">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="71">
         <v>1</v>
@@ -10412,7 +10448,7 @@
       <c r="AL13" s="50"/>
       <c r="AM13" s="50"/>
       <c r="AN13" s="50"/>
-      <c r="AO13" s="114"/>
+      <c r="AO13" s="101"/>
       <c r="AP13" s="51"/>
       <c r="AQ13" s="52"/>
       <c r="AR13" s="53"/>
@@ -10479,7 +10515,7 @@
       <c r="AL14" s="50"/>
       <c r="AM14" s="50"/>
       <c r="AN14" s="50"/>
-      <c r="AO14" s="114"/>
+      <c r="AO14" s="101"/>
       <c r="AP14" s="51"/>
       <c r="AQ14" s="52"/>
       <c r="AR14" s="53"/>
@@ -10546,7 +10582,7 @@
       <c r="AL15" s="50"/>
       <c r="AM15" s="50"/>
       <c r="AN15" s="50"/>
-      <c r="AO15" s="114"/>
+      <c r="AO15" s="101"/>
       <c r="AP15" s="51"/>
       <c r="AQ15" s="52"/>
       <c r="AR15" s="53"/>
@@ -10614,7 +10650,7 @@
       <c r="AL16" s="50"/>
       <c r="AM16" s="50"/>
       <c r="AN16" s="50"/>
-      <c r="AO16" s="114"/>
+      <c r="AO16" s="101"/>
       <c r="AP16" s="51"/>
       <c r="AQ16" s="52"/>
       <c r="AR16" s="53"/>
@@ -10655,21 +10691,21 @@
         <v>-2</v>
       </c>
       <c r="J17" s="40">
-        <v>170</v>
-      </c>
-      <c r="K17" s="41">
+        <v>100</v>
+      </c>
+      <c r="K17" s="132">
         <v>1.5</v>
       </c>
-      <c r="L17" s="41">
+      <c r="L17" s="132">
         <v>0</v>
       </c>
-      <c r="M17" s="41">
+      <c r="M17" s="132">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N17" s="42">
+      <c r="N17" s="132">
         <v>30</v>
       </c>
-      <c r="O17" s="42">
+      <c r="O17" s="132">
         <v>0.5</v>
       </c>
       <c r="P17" s="43">
@@ -10681,81 +10717,81 @@
       <c r="R17" s="41">
         <v>100</v>
       </c>
-      <c r="S17" s="41">
+      <c r="S17" s="132">
         <v>40</v>
       </c>
-      <c r="T17" s="44">
+      <c r="T17" s="133">
         <v>28</v>
       </c>
-      <c r="U17" s="45">
+      <c r="U17" s="134">
         <v>9</v>
       </c>
-      <c r="V17" s="41">
+      <c r="V17" s="132">
         <v>3</v>
       </c>
-      <c r="W17" s="42">
+      <c r="W17" s="132">
         <v>9</v>
       </c>
-      <c r="X17" s="44">
+      <c r="X17" s="133">
         <v>8000</v>
       </c>
-      <c r="Y17" s="46">
+      <c r="Y17" s="135">
         <v>2</v>
       </c>
-      <c r="Z17" s="43">
+      <c r="Z17" s="136">
         <v>0.13</v>
       </c>
-      <c r="AA17" s="47">
+      <c r="AA17" s="136">
         <v>0</v>
       </c>
-      <c r="AB17" s="48">
+      <c r="AB17" s="135">
         <v>6</v>
       </c>
-      <c r="AC17" s="49" t="s">
+      <c r="AC17" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="AD17" s="50" t="s">
+      <c r="AD17" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="AE17" s="50" t="s">
+      <c r="AE17" s="137" t="s">
         <v>27</v>
       </c>
       <c r="AF17" s="50"/>
       <c r="AG17" s="50"/>
-      <c r="AH17" s="50">
+      <c r="AH17" s="137">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI17" s="50">
+      <c r="AI17" s="137">
         <v>2</v>
       </c>
-      <c r="AJ17" s="50">
+      <c r="AJ17" s="137">
         <v>2</v>
       </c>
-      <c r="AK17" s="50" t="b">
+      <c r="AK17" s="137" t="b">
         <v>1</v>
       </c>
-      <c r="AL17" s="50" t="b">
+      <c r="AL17" s="137" t="b">
         <v>1</v>
       </c>
-      <c r="AM17" s="50" t="b">
+      <c r="AM17" s="137" t="b">
         <v>1</v>
       </c>
-      <c r="AN17" s="50">
+      <c r="AN17" s="137">
         <v>10</v>
       </c>
-      <c r="AO17" s="114">
+      <c r="AO17" s="138">
         <v>0.55999999999999994</v>
       </c>
       <c r="AP17" s="51"/>
       <c r="AQ17" s="52"/>
-      <c r="AR17" s="53">
+      <c r="AR17" s="139">
         <v>2E-3</v>
       </c>
-      <c r="AS17" s="54">
+      <c r="AS17" s="140">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AT17" s="55">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AU17" s="31">
         <v>2.5</v>
@@ -10763,22 +10799,22 @@
       <c r="AV17" s="31">
         <v>9.5</v>
       </c>
-      <c r="AW17" s="31">
+      <c r="AW17" s="141">
         <v>1.7</v>
       </c>
-      <c r="AX17" s="56">
+      <c r="AX17" s="142">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AY17" s="56">
+      <c r="AY17" s="142">
         <v>2.25</v>
       </c>
-      <c r="AZ17" s="56">
+      <c r="AZ17" s="142">
         <v>0</v>
       </c>
-      <c r="BA17" s="56">
+      <c r="BA17" s="142">
         <v>8</v>
       </c>
-      <c r="BB17" s="31" t="s">
+      <c r="BB17" s="141" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10808,21 +10844,21 @@
         <v>0</v>
       </c>
       <c r="J18" s="40">
-        <v>280</v>
-      </c>
-      <c r="K18" s="41">
+        <v>150</v>
+      </c>
+      <c r="K18" s="132">
         <v>1.9</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="132">
         <v>0</v>
       </c>
-      <c r="M18" s="41">
+      <c r="M18" s="132">
         <v>1.2E-2</v>
       </c>
-      <c r="N18" s="42">
+      <c r="N18" s="132">
         <v>30</v>
       </c>
-      <c r="O18" s="42">
+      <c r="O18" s="132">
         <v>0.6</v>
       </c>
       <c r="P18" s="43">
@@ -10832,83 +10868,83 @@
         <v>1</v>
       </c>
       <c r="R18" s="41">
-        <v>125</v>
-      </c>
-      <c r="S18" s="41">
+        <v>120</v>
+      </c>
+      <c r="S18" s="132">
         <v>40</v>
       </c>
-      <c r="T18" s="44">
+      <c r="T18" s="133">
         <v>28</v>
       </c>
-      <c r="U18" s="45">
+      <c r="U18" s="134">
         <v>11</v>
       </c>
-      <c r="V18" s="41">
+      <c r="V18" s="132">
         <v>4</v>
       </c>
-      <c r="W18" s="42">
+      <c r="W18" s="132">
         <v>10</v>
       </c>
-      <c r="X18" s="44">
+      <c r="X18" s="133">
         <v>10000</v>
       </c>
-      <c r="Y18" s="46">
+      <c r="Y18" s="135">
         <v>3</v>
       </c>
-      <c r="Z18" s="43">
+      <c r="Z18" s="136">
         <v>0.08</v>
       </c>
-      <c r="AA18" s="47">
+      <c r="AA18" s="136">
         <v>0</v>
       </c>
-      <c r="AB18" s="48">
+      <c r="AB18" s="135">
         <v>6</v>
       </c>
-      <c r="AC18" s="49" t="s">
+      <c r="AC18" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="AD18" s="50" t="s">
+      <c r="AD18" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="AE18" s="50" t="s">
+      <c r="AE18" s="137" t="s">
         <v>25</v>
       </c>
       <c r="AF18" s="50"/>
       <c r="AG18" s="50"/>
-      <c r="AH18" s="50">
+      <c r="AH18" s="137">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AI18" s="50">
+      <c r="AI18" s="137">
         <v>2</v>
       </c>
-      <c r="AJ18" s="50">
+      <c r="AJ18" s="137">
         <v>2</v>
       </c>
-      <c r="AK18" s="50" t="b">
+      <c r="AK18" s="137" t="b">
         <v>1</v>
       </c>
-      <c r="AL18" s="50" t="b">
+      <c r="AL18" s="137" t="b">
         <v>1</v>
       </c>
-      <c r="AM18" s="50" t="b">
+      <c r="AM18" s="137" t="b">
         <v>1</v>
       </c>
-      <c r="AN18" s="50">
+      <c r="AN18" s="137">
         <v>10</v>
       </c>
-      <c r="AO18" s="114">
+      <c r="AO18" s="138">
         <v>0.7</v>
       </c>
       <c r="AP18" s="51"/>
       <c r="AQ18" s="52"/>
-      <c r="AR18" s="53">
+      <c r="AR18" s="139">
         <v>1.8E-3</v>
       </c>
-      <c r="AS18" s="54">
+      <c r="AS18" s="140">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AT18" s="55">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="AU18" s="31">
         <v>2.5</v>
@@ -10916,22 +10952,22 @@
       <c r="AV18" s="31">
         <v>9.5</v>
       </c>
-      <c r="AW18" s="31">
+      <c r="AW18" s="141">
         <v>1.7</v>
       </c>
-      <c r="AX18" s="56">
+      <c r="AX18" s="142">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AY18" s="56">
+      <c r="AY18" s="142">
         <v>2.25</v>
       </c>
-      <c r="AZ18" s="56">
+      <c r="AZ18" s="142">
         <v>9</v>
       </c>
-      <c r="BA18" s="56">
+      <c r="BA18" s="142">
         <v>8</v>
       </c>
-      <c r="BB18" s="31" t="s">
+      <c r="BB18" s="141" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10961,21 +10997,21 @@
         <v>0</v>
       </c>
       <c r="J19" s="40">
-        <v>400</v>
-      </c>
-      <c r="K19" s="41">
+        <v>200</v>
+      </c>
+      <c r="K19" s="132">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L19" s="132">
         <v>0</v>
       </c>
-      <c r="M19" s="41">
+      <c r="M19" s="132">
         <v>1.4E-2</v>
       </c>
-      <c r="N19" s="42">
+      <c r="N19" s="132">
         <v>25</v>
       </c>
-      <c r="O19" s="42">
+      <c r="O19" s="132">
         <v>0.7</v>
       </c>
       <c r="P19" s="43">
@@ -10985,83 +11021,83 @@
         <v>1</v>
       </c>
       <c r="R19" s="41">
-        <v>150</v>
-      </c>
-      <c r="S19" s="41">
+        <v>140</v>
+      </c>
+      <c r="S19" s="132">
         <v>40</v>
       </c>
-      <c r="T19" s="44">
+      <c r="T19" s="133">
         <v>28</v>
       </c>
-      <c r="U19" s="45">
+      <c r="U19" s="134">
         <v>11.5</v>
       </c>
-      <c r="V19" s="41">
+      <c r="V19" s="132">
         <v>5</v>
       </c>
-      <c r="W19" s="42">
+      <c r="W19" s="132">
         <v>10</v>
       </c>
-      <c r="X19" s="44">
+      <c r="X19" s="133">
         <v>20000</v>
       </c>
-      <c r="Y19" s="46">
+      <c r="Y19" s="135">
         <v>4</v>
       </c>
-      <c r="Z19" s="43">
+      <c r="Z19" s="136">
         <v>0.05</v>
       </c>
-      <c r="AA19" s="47">
+      <c r="AA19" s="136">
         <v>0</v>
       </c>
-      <c r="AB19" s="48">
+      <c r="AB19" s="135">
         <v>6</v>
       </c>
-      <c r="AC19" s="49" t="s">
+      <c r="AC19" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="AD19" s="50" t="s">
+      <c r="AD19" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="AE19" s="50" t="s">
+      <c r="AE19" s="137" t="s">
         <v>22</v>
       </c>
       <c r="AF19" s="50"/>
       <c r="AG19" s="50"/>
-      <c r="AH19" s="50">
+      <c r="AH19" s="137">
         <v>2.1</v>
       </c>
-      <c r="AI19" s="50">
+      <c r="AI19" s="137">
         <v>2</v>
       </c>
-      <c r="AJ19" s="50">
+      <c r="AJ19" s="137">
         <v>2</v>
       </c>
-      <c r="AK19" s="50" t="b">
+      <c r="AK19" s="137" t="b">
         <v>1</v>
       </c>
-      <c r="AL19" s="50" t="b">
+      <c r="AL19" s="137" t="b">
         <v>1</v>
       </c>
-      <c r="AM19" s="50" t="b">
+      <c r="AM19" s="137" t="b">
         <v>1</v>
       </c>
-      <c r="AN19" s="50">
+      <c r="AN19" s="137">
         <v>10</v>
       </c>
-      <c r="AO19" s="114">
+      <c r="AO19" s="138">
         <v>0.7</v>
       </c>
       <c r="AP19" s="51"/>
       <c r="AQ19" s="52"/>
-      <c r="AR19" s="53">
+      <c r="AR19" s="139">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AS19" s="54">
+      <c r="AS19" s="140">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AT19" s="55">
-        <v>475</v>
+        <v>260</v>
       </c>
       <c r="AU19" s="31">
         <v>2.5</v>
@@ -11069,22 +11105,22 @@
       <c r="AV19" s="31">
         <v>9.5</v>
       </c>
-      <c r="AW19" s="31">
+      <c r="AW19" s="141">
         <v>1.7</v>
       </c>
-      <c r="AX19" s="56">
+      <c r="AX19" s="142">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AY19" s="56">
+      <c r="AY19" s="142">
         <v>2.25</v>
       </c>
-      <c r="AZ19" s="56">
+      <c r="AZ19" s="142">
         <v>45</v>
       </c>
-      <c r="BA19" s="56">
+      <c r="BA19" s="142">
         <v>15</v>
       </c>
-      <c r="BB19" s="31" t="s">
+      <c r="BB19" s="141" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11114,21 +11150,21 @@
         <v>0</v>
       </c>
       <c r="J20" s="40">
-        <v>430</v>
-      </c>
-      <c r="K20" s="41">
+        <v>250</v>
+      </c>
+      <c r="K20" s="132">
         <v>2.4</v>
       </c>
-      <c r="L20" s="41">
+      <c r="L20" s="132">
         <v>0</v>
       </c>
-      <c r="M20" s="41">
+      <c r="M20" s="132">
         <v>1.6E-2</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="132">
         <v>20</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="132">
         <v>0.8</v>
       </c>
       <c r="P20" s="43">
@@ -11138,83 +11174,83 @@
         <v>1</v>
       </c>
       <c r="R20" s="41">
-        <v>175</v>
-      </c>
-      <c r="S20" s="41">
+        <v>160</v>
+      </c>
+      <c r="S20" s="132">
         <v>40</v>
       </c>
-      <c r="T20" s="44">
+      <c r="T20" s="133">
         <v>28</v>
       </c>
-      <c r="U20" s="45">
+      <c r="U20" s="134">
         <v>12</v>
       </c>
-      <c r="V20" s="41">
+      <c r="V20" s="132">
         <v>6</v>
       </c>
-      <c r="W20" s="42">
+      <c r="W20" s="132">
         <v>10</v>
       </c>
-      <c r="X20" s="44">
+      <c r="X20" s="133">
         <v>30000</v>
       </c>
-      <c r="Y20" s="46">
+      <c r="Y20" s="135">
         <v>5</v>
       </c>
-      <c r="Z20" s="43">
+      <c r="Z20" s="136">
         <v>0.04</v>
       </c>
-      <c r="AA20" s="47">
+      <c r="AA20" s="136">
         <v>0</v>
       </c>
-      <c r="AB20" s="48">
+      <c r="AB20" s="135">
         <v>6</v>
       </c>
-      <c r="AC20" s="49" t="s">
+      <c r="AC20" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="AD20" s="50" t="s">
+      <c r="AD20" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="AE20" s="50" t="s">
+      <c r="AE20" s="137" t="s">
         <v>19</v>
       </c>
       <c r="AF20" s="50"/>
       <c r="AG20" s="50"/>
-      <c r="AH20" s="50">
+      <c r="AH20" s="137">
         <v>2.1</v>
       </c>
-      <c r="AI20" s="50">
+      <c r="AI20" s="137">
         <v>2</v>
       </c>
-      <c r="AJ20" s="50">
+      <c r="AJ20" s="137">
         <v>2</v>
       </c>
-      <c r="AK20" s="50" t="b">
+      <c r="AK20" s="137" t="b">
         <v>1</v>
       </c>
-      <c r="AL20" s="50" t="b">
+      <c r="AL20" s="137" t="b">
         <v>1</v>
       </c>
-      <c r="AM20" s="50" t="b">
+      <c r="AM20" s="137" t="b">
         <v>1</v>
       </c>
-      <c r="AN20" s="50">
+      <c r="AN20" s="137">
         <v>10</v>
       </c>
-      <c r="AO20" s="114">
+      <c r="AO20" s="138">
         <v>0.7</v>
       </c>
       <c r="AP20" s="51"/>
       <c r="AQ20" s="52"/>
-      <c r="AR20" s="53">
+      <c r="AR20" s="139">
         <v>1.5E-3</v>
       </c>
-      <c r="AS20" s="54">
+      <c r="AS20" s="140">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AT20" s="55">
-        <v>705</v>
+        <v>270</v>
       </c>
       <c r="AU20" s="31">
         <v>2.5</v>
@@ -11222,22 +11258,22 @@
       <c r="AV20" s="31">
         <v>9.5</v>
       </c>
-      <c r="AW20" s="31">
+      <c r="AW20" s="141">
         <v>1.7</v>
       </c>
-      <c r="AX20" s="56">
+      <c r="AX20" s="142">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AY20" s="56">
+      <c r="AY20" s="142">
         <v>2.25</v>
       </c>
-      <c r="AZ20" s="56">
+      <c r="AZ20" s="142">
         <v>59</v>
       </c>
-      <c r="BA20" s="56">
+      <c r="BA20" s="142">
         <v>15</v>
       </c>
-      <c r="BB20" s="31" t="s">
+      <c r="BB20" s="141" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11293,7 +11329,7 @@
       <c r="AL21" s="50"/>
       <c r="AM21" s="50"/>
       <c r="AN21" s="50"/>
-      <c r="AO21" s="114"/>
+      <c r="AO21" s="101"/>
       <c r="AP21" s="51"/>
       <c r="AQ21" s="52"/>
       <c r="AR21" s="53"/>
@@ -11360,7 +11396,7 @@
       <c r="AL22" s="50"/>
       <c r="AM22" s="50"/>
       <c r="AN22" s="50"/>
-      <c r="AO22" s="114"/>
+      <c r="AO22" s="101"/>
       <c r="AP22" s="51"/>
       <c r="AQ22" s="52"/>
       <c r="AR22" s="53"/>
@@ -11427,7 +11463,7 @@
       <c r="AL23" s="50"/>
       <c r="AM23" s="50"/>
       <c r="AN23" s="50"/>
-      <c r="AO23" s="114"/>
+      <c r="AO23" s="101"/>
       <c r="AP23" s="51"/>
       <c r="AQ23" s="52"/>
       <c r="AR23" s="53"/>
@@ -11488,14 +11524,14 @@
       <c r="AE24" s="50"/>
       <c r="AF24" s="50"/>
       <c r="AG24" s="50"/>
-      <c r="AH24" s="110"/>
-      <c r="AI24" s="110"/>
-      <c r="AJ24" s="110"/>
-      <c r="AK24" s="110"/>
-      <c r="AL24" s="110"/>
-      <c r="AM24" s="110"/>
-      <c r="AN24" s="110"/>
-      <c r="AO24" s="114"/>
+      <c r="AH24" s="100"/>
+      <c r="AI24" s="100"/>
+      <c r="AJ24" s="100"/>
+      <c r="AK24" s="100"/>
+      <c r="AL24" s="100"/>
+      <c r="AM24" s="100"/>
+      <c r="AN24" s="100"/>
+      <c r="AO24" s="101"/>
       <c r="AP24" s="51"/>
       <c r="AQ24" s="52"/>
       <c r="AR24" s="53"/>
@@ -11517,44 +11553,44 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="97" t="s">
+      <c r="H25" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="108"/>
-      <c r="J25" s="98" t="s">
+      <c r="I25" s="127"/>
+      <c r="J25" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="101" t="s">
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="130"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="103" t="s">
+      <c r="R25" s="123"/>
+      <c r="S25" s="123"/>
+      <c r="T25" s="123"/>
+      <c r="U25" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="104"/>
-      <c r="W25" s="104"/>
-      <c r="X25" s="104"/>
+      <c r="V25" s="125"/>
+      <c r="W25" s="125"/>
+      <c r="X25" s="125"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
-      <c r="AH25" s="111" t="s">
+      <c r="AH25" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="AI25" s="112"/>
-      <c r="AJ25" s="112"/>
-      <c r="AK25" s="112"/>
-      <c r="AL25" s="112"/>
-      <c r="AM25" s="112"/>
-      <c r="AN25" s="113"/>
+      <c r="AI25" s="120"/>
+      <c r="AJ25" s="120"/>
+      <c r="AK25" s="120"/>
+      <c r="AL25" s="120"/>
+      <c r="AM25" s="120"/>
+      <c r="AN25" s="121"/>
     </row>
     <row r="27" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
@@ -11758,37 +11794,37 @@
     <mergeCell ref="J25:O25"/>
   </mergeCells>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="15" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB13">
-    <cfRule type="duplicateValues" dxfId="14" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D6">
-    <cfRule type="duplicateValues" dxfId="13" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T6">
-    <cfRule type="duplicateValues" dxfId="12" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C36">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C33">
-    <cfRule type="duplicateValues" dxfId="10" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:C24">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB14:BB16 BB21:BB24">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB17">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB18:BB20">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="1"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D13:D24">
@@ -11809,8 +11845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11832,12 +11868,12 @@
     </row>
     <row r="3" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D3" s="90"/>
-      <c r="E3" s="105" t="s">
+      <c r="E3" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
       <c r="J3" s="90" t="s">
         <v>125</v>
       </c>
@@ -11889,13 +11925,13 @@
         <v>100</v>
       </c>
       <c r="F5" s="93">
+        <v>150</v>
+      </c>
+      <c r="G5" s="93">
         <v>200</v>
       </c>
-      <c r="G5" s="93">
-        <v>300</v>
-      </c>
       <c r="H5" s="93">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K5" t="s">
         <v>121</v>
@@ -11924,13 +11960,13 @@
         <v>100</v>
       </c>
       <c r="F6" s="93">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G6" s="93">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H6" s="93">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="K6" t="s">
         <v>122</v>
@@ -11942,30 +11978,30 @@
         <v>122</v>
       </c>
       <c r="T6" s="89">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AA6" t="s">
         <v>122</v>
       </c>
       <c r="AB6" s="89">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="116">
-        <v>200</v>
-      </c>
-      <c r="F7" s="116">
-        <v>300</v>
-      </c>
-      <c r="G7" s="116">
-        <v>400</v>
-      </c>
-      <c r="H7" s="116">
-        <v>500</v>
+      <c r="E7" s="103">
+        <v>240</v>
+      </c>
+      <c r="F7" s="103">
+        <v>250</v>
+      </c>
+      <c r="G7" s="103">
+        <v>260</v>
+      </c>
+      <c r="H7" s="103">
+        <v>270</v>
       </c>
       <c r="K7" t="s">
         <v>135</v>
@@ -11979,46 +12015,46 @@
       </c>
       <c r="T7">
         <f>ROUND((T6-T5)/T4,1)</f>
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="AA7" t="s">
         <v>135</v>
       </c>
       <c r="AB7">
         <f>ROUND((AB6-AB5)/AB4,1)</f>
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="8" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="106" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="117">
+      <c r="E8" s="104">
         <v>0</v>
       </c>
-      <c r="F8" s="117">
+      <c r="F8" s="104">
         <v>10</v>
       </c>
-      <c r="G8" s="117">
+      <c r="G8" s="104">
         <v>20</v>
       </c>
-      <c r="H8" s="118">
+      <c r="H8" s="105">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C11" s="120"/>
-      <c r="D11" s="121" t="s">
+      <c r="C11" s="107"/>
+      <c r="D11" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="122">
+      <c r="E11" s="109">
         <f>IF(E16&lt;F8,1,IF(AND(E16&gt;=F8,E16&lt;G8),2,IF(AND(E16&gt;=G8,E16&lt;H8),3,4)))</f>
         <v>1</v>
       </c>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="123"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="110"/>
       <c r="J11" s="90" t="s">
         <v>125</v>
       </c>
@@ -12034,7 +12070,7 @@
       <c r="N11" s="94"/>
       <c r="O11" s="94"/>
       <c r="P11" s="94"/>
-      <c r="R11" s="106" t="s">
+      <c r="R11" s="97" t="s">
         <v>126</v>
       </c>
       <c r="S11" s="94" t="s">
@@ -12063,12 +12099,12 @@
       </c>
     </row>
     <row r="12" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="124"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="107"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="98"/>
       <c r="J12" s="90" t="s">
         <v>136</v>
       </c>
@@ -12093,39 +12129,39 @@
       </c>
       <c r="T12">
         <f>E6+E6*(T6/100)</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="U12">
         <f>T12-S12</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Z12" s="90" t="s">
         <v>136</v>
       </c>
       <c r="AA12">
         <f>ROUND((E7/'special dragons'!AV17)/'special dragons'!AU17,1)</f>
-        <v>8.4</v>
+        <v>10.1</v>
       </c>
       <c r="AB12">
         <f>ROUND(((E7+E7*(AB6/100))/'special dragons'!AV17)/'special dragons'!AU17,1)</f>
-        <v>16.8</v>
+        <v>15.2</v>
       </c>
       <c r="AC12">
         <f>AB12-AA12</f>
-        <v>8.4</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="13" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="124" t="s">
+      <c r="C13" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="125" t="s">
+      <c r="D13" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="126">
+      <c r="E13" s="113">
         <v>0</v>
       </c>
-      <c r="F13" s="125"/>
+      <c r="F13" s="112"/>
       <c r="G13" s="95" t="s">
         <v>125</v>
       </c>
@@ -12138,63 +12174,63 @@
       </c>
       <c r="K13">
         <f>F5</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L13">
         <f>F5+F5*(L6/100)</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M13">
         <f t="shared" ref="M13:M15" si="0">L13-K13</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="R13" s="90" t="s">
         <v>139</v>
       </c>
       <c r="S13">
         <f>F6</f>
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="T13">
         <f>F6+F6*(T6/100)</f>
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="U13">
         <f t="shared" ref="U13:U15" si="1">T13-S13</f>
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="Z13" s="90" t="s">
         <v>139</v>
       </c>
       <c r="AA13">
         <f>ROUND((F7/'special dragons'!AV18)/'special dragons'!AU18,1)</f>
-        <v>12.6</v>
+        <v>10.5</v>
       </c>
       <c r="AB13">
         <f>ROUND(((F7+F7*(AB6/100))/'special dragons'!AV18)/'special dragons'!AU18,1)</f>
-        <v>25.3</v>
+        <v>15.8</v>
       </c>
       <c r="AC13">
         <f>AB13-AA13</f>
-        <v>12.700000000000001</v>
+        <v>5.3000000000000007</v>
       </c>
     </row>
     <row r="14" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="125" t="s">
+      <c r="D14" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="126">
+      <c r="E14" s="113">
         <v>0</v>
       </c>
-      <c r="F14" s="125"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="95" t="s">
         <v>144</v>
       </c>
       <c r="H14" s="96">
-        <f ca="1">INDIRECT(ADDRESS(6,4+E11)) + (INDIRECT(ADDRESS(6,4+E11)) *(L7/100) *E14)</f>
+        <f ca="1">INDIRECT(ADDRESS(6,4+E11)) + (INDIRECT(ADDRESS(6,4+E11)) *(T7/100) *E14)</f>
         <v>100</v>
       </c>
       <c r="J14" s="90" t="s">
@@ -12202,506 +12238,506 @@
       </c>
       <c r="K14">
         <f>G5</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L14">
         <f>G5+G5*(L6/100)</f>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R14" s="90" t="s">
         <v>140</v>
       </c>
       <c r="S14">
         <f>G6</f>
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="T14">
         <f>G6+G6*(T6/100)</f>
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="U14">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Z14" s="90" t="s">
         <v>140</v>
       </c>
       <c r="AA14">
         <f>ROUND((G7/'special dragons'!AV19)/'special dragons'!AU19,1)</f>
-        <v>16.8</v>
+        <v>10.9</v>
       </c>
       <c r="AB14">
         <f>ROUND(((G7+G7*(AB6/100))/'special dragons'!AV19)/'special dragons'!AU19,1)</f>
-        <v>33.700000000000003</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="AC14">
         <f>AB14-AA14</f>
-        <v>16.900000000000002</v>
+        <v>5.4999999999999982</v>
       </c>
     </row>
     <row r="15" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="125" t="s">
+      <c r="D15" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="126">
+      <c r="E15" s="113">
         <v>0</v>
       </c>
-      <c r="F15" s="125"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="95" t="s">
         <v>148</v>
       </c>
       <c r="H15" s="96">
-        <f ca="1">ROUND(((INDIRECT(ADDRESS(7,4+E11)) + (INDIRECT(ADDRESS(7,4+E11)) *(L7/100) *E15))/INDIRECT(ADDRESS(16+E11,48,1,1,"special dragons")))/INDIRECT(ADDRESS(16+E11,47,1,1,"special dragons")),1)</f>
-        <v>8.4</v>
+        <f ca="1">ROUND(((INDIRECT(ADDRESS(7,4+E11)) + (INDIRECT(ADDRESS(7,4+E11)) *(AB7/100) *E15))/INDIRECT(ADDRESS(16+E11,48,1,1,"special dragons")))/INDIRECT(ADDRESS(16+E11,47,1,1,"special dragons")),1)</f>
+        <v>10.1</v>
       </c>
       <c r="J15" s="90" t="s">
         <v>141</v>
       </c>
       <c r="K15">
         <f>H5</f>
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L15">
         <f>H5+H5*(L6/100)</f>
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="R15" s="90" t="s">
         <v>141</v>
       </c>
       <c r="S15">
         <f>H6</f>
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="T15">
         <f>H6+H6*(T6/100)</f>
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="U15">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="Z15" s="90" t="s">
         <v>141</v>
       </c>
       <c r="AA15">
         <f>ROUND((H7/'special dragons'!AV20)/'special dragons'!AU20,1)</f>
-        <v>21.1</v>
+        <v>11.4</v>
       </c>
       <c r="AB15">
         <f>ROUND(((H7+H7*(AB6/100))/'special dragons'!AV20)/'special dragons'!AU20,1)</f>
-        <v>42.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="AC15">
         <f>AB15-AA15</f>
-        <v>21</v>
+        <v>5.7000000000000011</v>
       </c>
     </row>
     <row r="16" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C16" s="124"/>
-      <c r="D16" s="131" t="s">
+      <c r="C16" s="111"/>
+      <c r="D16" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="131">
+      <c r="E16" s="118">
         <f>SUM(E13:E15)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="107"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="98"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="124"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="107"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="98"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="124"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="107"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="98"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="124"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="107"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="98"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="124"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="107"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="98"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="124"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="107"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="98"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="124"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="107"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="98"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="124"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="107"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="98"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="124"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="107"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="98"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="124"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="107"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="98"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="124"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="107"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="98"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="124"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="107"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="98"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="124"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="107"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="98"/>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="124"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="107"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="98"/>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="124"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="107"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="98"/>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="124"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="107"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="98"/>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="124"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="107"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="98"/>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="124"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="107"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="98"/>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="124"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="107"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="98"/>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="124"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="107"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="98"/>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="124"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="107"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="98"/>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="124"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="107"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="98"/>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="124"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="125"/>
-      <c r="H38" s="107"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="112"/>
+      <c r="H38" s="98"/>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="124"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="107"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="112"/>
+      <c r="H39" s="98"/>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="124"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
-      <c r="F40" s="125"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="107"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="98"/>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="124"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="107"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="98"/>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="124"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="107"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="98"/>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="124"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="125"/>
-      <c r="G43" s="125"/>
-      <c r="H43" s="107"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="98"/>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="124"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="107"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="112"/>
+      <c r="H44" s="98"/>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="124"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="107"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="98"/>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="124"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="107"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="98"/>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="124"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="125"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="107"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="98"/>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="124"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="125"/>
-      <c r="G48" s="125"/>
-      <c r="H48" s="107"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="112"/>
+      <c r="G48" s="112"/>
+      <c r="H48" s="98"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="124"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="125"/>
-      <c r="G49" s="125"/>
-      <c r="H49" s="107"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="112"/>
+      <c r="G49" s="112"/>
+      <c r="H49" s="98"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="124"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="107"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="112"/>
+      <c r="G50" s="112"/>
+      <c r="H50" s="98"/>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="124"/>
-      <c r="D51" s="125"/>
-      <c r="E51" s="125"/>
-      <c r="F51" s="125"/>
-      <c r="G51" s="125"/>
-      <c r="H51" s="107"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="112"/>
+      <c r="F51" s="112"/>
+      <c r="G51" s="112"/>
+      <c r="H51" s="98"/>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="124"/>
-      <c r="D52" s="125"/>
-      <c r="E52" s="125"/>
-      <c r="F52" s="125"/>
-      <c r="G52" s="125"/>
-      <c r="H52" s="107"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="112"/>
+      <c r="G52" s="112"/>
+      <c r="H52" s="98"/>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C53" s="124"/>
-      <c r="D53" s="125"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="125"/>
-      <c r="G53" s="125"/>
-      <c r="H53" s="107"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="112"/>
+      <c r="G53" s="112"/>
+      <c r="H53" s="98"/>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="124"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
-      <c r="G54" s="125"/>
-      <c r="H54" s="107"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="112"/>
+      <c r="H54" s="98"/>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="124"/>
-      <c r="D55" s="125"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="125"/>
-      <c r="G55" s="125"/>
-      <c r="H55" s="107"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="112"/>
+      <c r="F55" s="112"/>
+      <c r="G55" s="112"/>
+      <c r="H55" s="98"/>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C56" s="124"/>
-      <c r="D56" s="125"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="125"/>
-      <c r="G56" s="125"/>
-      <c r="H56" s="107"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="98"/>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C57" s="124"/>
-      <c r="D57" s="125"/>
-      <c r="E57" s="125"/>
-      <c r="F57" s="125"/>
-      <c r="G57" s="125"/>
-      <c r="H57" s="107"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="112"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="112"/>
+      <c r="G57" s="112"/>
+      <c r="H57" s="98"/>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C58" s="124"/>
-      <c r="D58" s="125"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="125"/>
-      <c r="G58" s="125"/>
-      <c r="H58" s="107"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="112"/>
+      <c r="E58" s="112"/>
+      <c r="F58" s="112"/>
+      <c r="G58" s="112"/>
+      <c r="H58" s="98"/>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C59" s="124"/>
-      <c r="D59" s="125"/>
-      <c r="E59" s="125"/>
-      <c r="F59" s="125"/>
-      <c r="G59" s="125"/>
-      <c r="H59" s="107"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="112"/>
+      <c r="H59" s="98"/>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="124"/>
-      <c r="D60" s="125"/>
-      <c r="E60" s="125"/>
-      <c r="F60" s="125"/>
-      <c r="G60" s="125"/>
-      <c r="H60" s="107"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="112"/>
+      <c r="H60" s="98"/>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="124"/>
-      <c r="D61" s="125"/>
-      <c r="E61" s="125"/>
-      <c r="F61" s="125"/>
-      <c r="G61" s="125"/>
-      <c r="H61" s="107"/>
+      <c r="C61" s="111"/>
+      <c r="D61" s="112"/>
+      <c r="E61" s="112"/>
+      <c r="F61" s="112"/>
+      <c r="G61" s="112"/>
+      <c r="H61" s="98"/>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="124"/>
-      <c r="D62" s="125"/>
-      <c r="E62" s="125"/>
-      <c r="F62" s="125"/>
-      <c r="G62" s="125"/>
-      <c r="H62" s="107"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="112"/>
+      <c r="G62" s="112"/>
+      <c r="H62" s="98"/>
     </row>
     <row r="63" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="127"/>
-      <c r="D63" s="128"/>
-      <c r="E63" s="128"/>
-      <c r="F63" s="128"/>
-      <c r="G63" s="128"/>
-      <c r="H63" s="129"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="115"/>
+      <c r="E63" s="115"/>
+      <c r="F63" s="115"/>
+      <c r="G63" s="115"/>
+      <c r="H63" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:E15">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>E13&gt;$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12725,13 +12761,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G4" s="130" t="s">
+      <c r="G4" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="130" t="s">
+      <c r="H4" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="I4" s="130" t="s">
+      <c r="I4" s="117" t="s">
         <v>148</v>
       </c>
     </row>
@@ -12805,7 +12841,7 @@
       </c>
       <c r="I9">
         <f ca="1">tools!H15</f>
-        <v>8.4</v>
+        <v>10.1</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="156">
   <si>
     <t>[sku]</t>
   </si>
@@ -88,9 +88,6 @@
     <t>PF_DragonFatMenu</t>
   </si>
   <si>
-    <t>PF_DragonFat</t>
-  </si>
-  <si>
     <t>tier_1</t>
   </si>
   <si>
@@ -100,21 +97,12 @@
     <t>PF_DragonReptileMenu</t>
   </si>
   <si>
-    <t>PF_DragonReptile</t>
-  </si>
-  <si>
     <t>PF_DragonCrocodileMenu</t>
   </si>
   <si>
-    <t>PF_DragonCrocodile</t>
-  </si>
-  <si>
     <t>PF_DragonBabyMenu</t>
   </si>
   <si>
-    <t>PF_DragonBaby</t>
-  </si>
-  <si>
     <t>[dotAnimationThreshold]</t>
   </si>
   <si>
@@ -503,6 +491,9 @@
   </si>
   <si>
     <t>Electric</t>
+  </si>
+  <si>
+    <t>PF_DragonElectric</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1467,6 +1458,42 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1506,40 +1533,10 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9828,7 +9825,7 @@
   <dimension ref="A1:BB39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9901,7 +9898,7 @@
   <sheetData>
     <row r="1" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -9931,58 +9928,58 @@
     </row>
     <row r="3" spans="1:54" ht="147" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E3" s="57" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="80" t="s">
+      <c r="L3" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="80" t="s">
+      <c r="M3" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="80" t="s">
+      <c r="N3" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="77" t="s">
+      <c r="O3" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="77" t="s">
+      <c r="P3" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="77" t="s">
+      <c r="Q3" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="79" t="s">
+      <c r="R3" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="79" t="s">
+      <c r="S3" s="78" t="s">
         <v>89</v>
-      </c>
-      <c r="P3" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q3" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="S3" s="78" t="s">
-        <v>93</v>
       </c>
       <c r="T3" s="68" t="s">
         <v>1</v>
@@ -9993,10 +9990,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E4" s="61">
         <v>0</v>
@@ -10028,10 +10025,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E5" s="61">
         <v>1</v>
@@ -10087,10 +10084,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E6" s="61">
         <v>2</v>
@@ -10178,7 +10175,7 @@
     <row r="9" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -10237,7 +10234,7 @@
     </row>
     <row r="12" spans="1:54" ht="163.5" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>0</v>
@@ -10246,76 +10243,76 @@
         <v>12</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="K12" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Z12" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AA12" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AB12" s="26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AC12" s="23" t="s">
         <v>10</v>
@@ -10324,37 +10321,37 @@
         <v>11</v>
       </c>
       <c r="AE12" s="22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AF12" s="22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AG12" s="22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AH12" s="22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AI12" s="22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ12" s="22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AK12" s="22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AL12" s="22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM12" s="22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AN12" s="22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO12" s="30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AP12" s="27" t="s">
         <v>3</v>
@@ -10363,34 +10360,34 @@
         <v>9</v>
       </c>
       <c r="AR12" s="28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AS12" s="30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AT12" s="25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AU12" s="24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AV12" s="24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AW12" s="24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AX12" s="24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AY12" s="24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AZ12" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BA12" s="21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BB12" s="24" t="s">
         <v>1</v>
@@ -10401,16 +10398,16 @@
         <v>2</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="37">
         <v>0</v>
@@ -10468,13 +10465,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D14" s="34" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>18</v>
@@ -10535,13 +10532,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>17</v>
@@ -10603,13 +10600,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F16" s="36" t="s">
         <v>16</v>
@@ -10670,45 +10667,45 @@
         <v>2</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" s="37">
         <v>0</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="144">
         <v>5</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="121">
         <v>-2</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="145">
         <v>100</v>
       </c>
-      <c r="K17" s="132">
+      <c r="K17" s="119">
         <v>1.5</v>
       </c>
-      <c r="L17" s="132">
+      <c r="L17" s="119">
         <v>0</v>
       </c>
-      <c r="M17" s="132">
+      <c r="M17" s="119">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N17" s="132">
+      <c r="N17" s="119">
         <v>30</v>
       </c>
-      <c r="O17" s="132">
+      <c r="O17" s="119">
         <v>0.5</v>
       </c>
-      <c r="P17" s="43">
+      <c r="P17" s="123">
         <v>1</v>
       </c>
       <c r="Q17" s="39">
@@ -10717,77 +10714,77 @@
       <c r="R17" s="41">
         <v>100</v>
       </c>
-      <c r="S17" s="132">
+      <c r="S17" s="119">
         <v>40</v>
       </c>
-      <c r="T17" s="133">
+      <c r="T17" s="120">
         <v>28</v>
       </c>
-      <c r="U17" s="134">
+      <c r="U17" s="121">
         <v>9</v>
       </c>
-      <c r="V17" s="132">
+      <c r="V17" s="119">
         <v>3</v>
       </c>
-      <c r="W17" s="132">
+      <c r="W17" s="119">
         <v>9</v>
       </c>
-      <c r="X17" s="133">
+      <c r="X17" s="120">
         <v>8000</v>
       </c>
-      <c r="Y17" s="135">
+      <c r="Y17" s="122">
         <v>2</v>
       </c>
-      <c r="Z17" s="136">
+      <c r="Z17" s="123">
         <v>0.13</v>
       </c>
-      <c r="AA17" s="136">
+      <c r="AA17" s="123">
         <v>0</v>
       </c>
-      <c r="AB17" s="135">
+      <c r="AB17" s="122">
         <v>6</v>
       </c>
-      <c r="AC17" s="143" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD17" s="137" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE17" s="137" t="s">
-        <v>27</v>
+      <c r="AC17" s="130" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD17" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE17" s="124" t="s">
+        <v>24</v>
       </c>
       <c r="AF17" s="50"/>
       <c r="AG17" s="50"/>
-      <c r="AH17" s="137">
+      <c r="AH17" s="124">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI17" s="137">
+      <c r="AI17" s="124">
         <v>2</v>
       </c>
-      <c r="AJ17" s="137">
+      <c r="AJ17" s="124">
         <v>2</v>
       </c>
-      <c r="AK17" s="137" t="b">
+      <c r="AK17" s="124" t="b">
         <v>1</v>
       </c>
-      <c r="AL17" s="137" t="b">
+      <c r="AL17" s="124" t="b">
         <v>1</v>
       </c>
-      <c r="AM17" s="137" t="b">
+      <c r="AM17" s="124" t="b">
         <v>1</v>
       </c>
-      <c r="AN17" s="137">
+      <c r="AN17" s="124">
         <v>10</v>
       </c>
-      <c r="AO17" s="138">
+      <c r="AO17" s="125">
         <v>0.55999999999999994</v>
       </c>
       <c r="AP17" s="51"/>
       <c r="AQ17" s="52"/>
-      <c r="AR17" s="139">
+      <c r="AR17" s="126">
         <v>2E-3</v>
       </c>
-      <c r="AS17" s="140">
+      <c r="AS17" s="127">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AT17" s="55">
@@ -10799,22 +10796,22 @@
       <c r="AV17" s="31">
         <v>9.5</v>
       </c>
-      <c r="AW17" s="141">
+      <c r="AW17" s="128">
         <v>1.7</v>
       </c>
-      <c r="AX17" s="142">
+      <c r="AX17" s="129">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AY17" s="142">
+      <c r="AY17" s="129">
         <v>2.25</v>
       </c>
-      <c r="AZ17" s="142">
+      <c r="AZ17" s="129">
         <v>0</v>
       </c>
-      <c r="BA17" s="142">
+      <c r="BA17" s="129">
         <v>8</v>
       </c>
-      <c r="BB17" s="141" t="s">
+      <c r="BB17" s="128" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10823,13 +10820,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>18</v>
@@ -10837,31 +10834,31 @@
       <c r="G18" s="37">
         <v>10</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="144">
         <v>10</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="121">
         <v>0</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="145">
         <v>150</v>
       </c>
-      <c r="K18" s="132">
+      <c r="K18" s="119">
         <v>1.9</v>
       </c>
-      <c r="L18" s="132">
+      <c r="L18" s="119">
         <v>0</v>
       </c>
-      <c r="M18" s="132">
+      <c r="M18" s="119">
         <v>1.2E-2</v>
       </c>
-      <c r="N18" s="132">
+      <c r="N18" s="119">
         <v>30</v>
       </c>
-      <c r="O18" s="132">
+      <c r="O18" s="119">
         <v>0.6</v>
       </c>
-      <c r="P18" s="43">
+      <c r="P18" s="123">
         <v>1.1499999999999999</v>
       </c>
       <c r="Q18" s="39">
@@ -10870,77 +10867,77 @@
       <c r="R18" s="41">
         <v>120</v>
       </c>
-      <c r="S18" s="132">
+      <c r="S18" s="119">
         <v>40</v>
       </c>
-      <c r="T18" s="133">
+      <c r="T18" s="120">
         <v>28</v>
       </c>
-      <c r="U18" s="134">
+      <c r="U18" s="121">
         <v>11</v>
       </c>
-      <c r="V18" s="132">
+      <c r="V18" s="119">
         <v>4</v>
       </c>
-      <c r="W18" s="132">
+      <c r="W18" s="119">
         <v>10</v>
       </c>
-      <c r="X18" s="133">
+      <c r="X18" s="120">
         <v>10000</v>
       </c>
-      <c r="Y18" s="135">
+      <c r="Y18" s="122">
         <v>3</v>
       </c>
-      <c r="Z18" s="136">
+      <c r="Z18" s="123">
         <v>0.08</v>
       </c>
-      <c r="AA18" s="136">
+      <c r="AA18" s="123">
         <v>0</v>
       </c>
-      <c r="AB18" s="135">
+      <c r="AB18" s="122">
         <v>6</v>
       </c>
-      <c r="AC18" s="143" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD18" s="137" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE18" s="137" t="s">
-        <v>25</v>
+      <c r="AC18" s="130" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD18" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE18" s="124" t="s">
+        <v>23</v>
       </c>
       <c r="AF18" s="50"/>
       <c r="AG18" s="50"/>
-      <c r="AH18" s="137">
+      <c r="AH18" s="124">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AI18" s="137">
+      <c r="AI18" s="124">
         <v>2</v>
       </c>
-      <c r="AJ18" s="137">
+      <c r="AJ18" s="124">
         <v>2</v>
       </c>
-      <c r="AK18" s="137" t="b">
+      <c r="AK18" s="124" t="b">
         <v>1</v>
       </c>
-      <c r="AL18" s="137" t="b">
+      <c r="AL18" s="124" t="b">
         <v>1</v>
       </c>
-      <c r="AM18" s="137" t="b">
+      <c r="AM18" s="124" t="b">
         <v>1</v>
       </c>
-      <c r="AN18" s="137">
+      <c r="AN18" s="124">
         <v>10</v>
       </c>
-      <c r="AO18" s="138">
+      <c r="AO18" s="125">
         <v>0.7</v>
       </c>
       <c r="AP18" s="51"/>
       <c r="AQ18" s="52"/>
-      <c r="AR18" s="139">
+      <c r="AR18" s="126">
         <v>1.8E-3</v>
       </c>
-      <c r="AS18" s="140">
+      <c r="AS18" s="127">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AT18" s="55">
@@ -10952,22 +10949,22 @@
       <c r="AV18" s="31">
         <v>9.5</v>
       </c>
-      <c r="AW18" s="141">
+      <c r="AW18" s="128">
         <v>1.7</v>
       </c>
-      <c r="AX18" s="142">
+      <c r="AX18" s="129">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AY18" s="142">
+      <c r="AY18" s="129">
         <v>2.25</v>
       </c>
-      <c r="AZ18" s="142">
+      <c r="AZ18" s="129">
         <v>9</v>
       </c>
-      <c r="BA18" s="142">
+      <c r="BA18" s="129">
         <v>8</v>
       </c>
-      <c r="BB18" s="141" t="s">
+      <c r="BB18" s="128" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10976,13 +10973,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D19" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>17</v>
@@ -10990,31 +10987,31 @@
       <c r="G19" s="37">
         <v>20</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="144">
         <v>15</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="121">
         <v>0</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="145">
         <v>200</v>
       </c>
-      <c r="K19" s="132">
+      <c r="K19" s="119">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L19" s="132">
+      <c r="L19" s="119">
         <v>0</v>
       </c>
-      <c r="M19" s="132">
+      <c r="M19" s="119">
         <v>1.4E-2</v>
       </c>
-      <c r="N19" s="132">
+      <c r="N19" s="119">
         <v>25</v>
       </c>
-      <c r="O19" s="132">
+      <c r="O19" s="119">
         <v>0.7</v>
       </c>
-      <c r="P19" s="43">
+      <c r="P19" s="123">
         <v>1.75</v>
       </c>
       <c r="Q19" s="39">
@@ -11023,77 +11020,77 @@
       <c r="R19" s="41">
         <v>140</v>
       </c>
-      <c r="S19" s="132">
+      <c r="S19" s="119">
         <v>40</v>
       </c>
-      <c r="T19" s="133">
+      <c r="T19" s="120">
         <v>28</v>
       </c>
-      <c r="U19" s="134">
+      <c r="U19" s="121">
         <v>11.5</v>
       </c>
-      <c r="V19" s="132">
+      <c r="V19" s="119">
         <v>5</v>
       </c>
-      <c r="W19" s="132">
+      <c r="W19" s="119">
         <v>10</v>
       </c>
-      <c r="X19" s="133">
+      <c r="X19" s="120">
         <v>20000</v>
       </c>
-      <c r="Y19" s="135">
+      <c r="Y19" s="122">
         <v>4</v>
       </c>
-      <c r="Z19" s="136">
+      <c r="Z19" s="123">
         <v>0.05</v>
       </c>
-      <c r="AA19" s="136">
+      <c r="AA19" s="123">
         <v>0</v>
       </c>
-      <c r="AB19" s="135">
+      <c r="AB19" s="122">
         <v>6</v>
       </c>
-      <c r="AC19" s="143" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD19" s="137" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE19" s="137" t="s">
+      <c r="AC19" s="130" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD19" s="124" t="s">
         <v>22</v>
+      </c>
+      <c r="AE19" s="124" t="s">
+        <v>21</v>
       </c>
       <c r="AF19" s="50"/>
       <c r="AG19" s="50"/>
-      <c r="AH19" s="137">
+      <c r="AH19" s="124">
         <v>2.1</v>
       </c>
-      <c r="AI19" s="137">
+      <c r="AI19" s="124">
         <v>2</v>
       </c>
-      <c r="AJ19" s="137">
+      <c r="AJ19" s="124">
         <v>2</v>
       </c>
-      <c r="AK19" s="137" t="b">
+      <c r="AK19" s="124" t="b">
         <v>1</v>
       </c>
-      <c r="AL19" s="137" t="b">
+      <c r="AL19" s="124" t="b">
         <v>1</v>
       </c>
-      <c r="AM19" s="137" t="b">
+      <c r="AM19" s="124" t="b">
         <v>1</v>
       </c>
-      <c r="AN19" s="137">
+      <c r="AN19" s="124">
         <v>10</v>
       </c>
-      <c r="AO19" s="138">
+      <c r="AO19" s="125">
         <v>0.7</v>
       </c>
       <c r="AP19" s="51"/>
       <c r="AQ19" s="52"/>
-      <c r="AR19" s="139">
+      <c r="AR19" s="126">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AS19" s="140">
+      <c r="AS19" s="127">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AT19" s="55">
@@ -11105,22 +11102,22 @@
       <c r="AV19" s="31">
         <v>9.5</v>
       </c>
-      <c r="AW19" s="141">
+      <c r="AW19" s="128">
         <v>1.7</v>
       </c>
-      <c r="AX19" s="142">
+      <c r="AX19" s="129">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AY19" s="142">
+      <c r="AY19" s="129">
         <v>2.25</v>
       </c>
-      <c r="AZ19" s="142">
+      <c r="AZ19" s="129">
         <v>45</v>
       </c>
-      <c r="BA19" s="142">
+      <c r="BA19" s="129">
         <v>15</v>
       </c>
-      <c r="BB19" s="141" t="s">
+      <c r="BB19" s="128" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11129,13 +11126,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F20" s="36" t="s">
         <v>16</v>
@@ -11143,31 +11140,31 @@
       <c r="G20" s="37">
         <v>30</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="144">
         <v>25</v>
       </c>
-      <c r="I20" s="39">
+      <c r="I20" s="121">
         <v>0</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="145">
         <v>250</v>
       </c>
-      <c r="K20" s="132">
+      <c r="K20" s="119">
         <v>2.4</v>
       </c>
-      <c r="L20" s="132">
+      <c r="L20" s="119">
         <v>0</v>
       </c>
-      <c r="M20" s="132">
+      <c r="M20" s="119">
         <v>1.6E-2</v>
       </c>
-      <c r="N20" s="132">
+      <c r="N20" s="119">
         <v>20</v>
       </c>
-      <c r="O20" s="132">
+      <c r="O20" s="119">
         <v>0.8</v>
       </c>
-      <c r="P20" s="43">
+      <c r="P20" s="123">
         <v>2.1</v>
       </c>
       <c r="Q20" s="39">
@@ -11176,77 +11173,77 @@
       <c r="R20" s="41">
         <v>160</v>
       </c>
-      <c r="S20" s="132">
+      <c r="S20" s="119">
         <v>40</v>
       </c>
-      <c r="T20" s="133">
+      <c r="T20" s="120">
         <v>28</v>
       </c>
-      <c r="U20" s="134">
+      <c r="U20" s="121">
         <v>12</v>
       </c>
-      <c r="V20" s="132">
+      <c r="V20" s="119">
         <v>6</v>
       </c>
-      <c r="W20" s="132">
+      <c r="W20" s="119">
         <v>10</v>
       </c>
-      <c r="X20" s="133">
+      <c r="X20" s="120">
         <v>30000</v>
       </c>
-      <c r="Y20" s="135">
+      <c r="Y20" s="122">
         <v>5</v>
       </c>
-      <c r="Z20" s="136">
+      <c r="Z20" s="123">
         <v>0.04</v>
       </c>
-      <c r="AA20" s="136">
+      <c r="AA20" s="123">
         <v>0</v>
       </c>
-      <c r="AB20" s="135">
+      <c r="AB20" s="122">
         <v>6</v>
       </c>
-      <c r="AC20" s="143" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD20" s="137" t="s">
+      <c r="AC20" s="130" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD20" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="AE20" s="137" t="s">
+      <c r="AE20" s="124" t="s">
         <v>19</v>
       </c>
       <c r="AF20" s="50"/>
       <c r="AG20" s="50"/>
-      <c r="AH20" s="137">
+      <c r="AH20" s="124">
         <v>2.1</v>
       </c>
-      <c r="AI20" s="137">
+      <c r="AI20" s="124">
         <v>2</v>
       </c>
-      <c r="AJ20" s="137">
+      <c r="AJ20" s="124">
         <v>2</v>
       </c>
-      <c r="AK20" s="137" t="b">
+      <c r="AK20" s="124" t="b">
         <v>1</v>
       </c>
-      <c r="AL20" s="137" t="b">
+      <c r="AL20" s="124" t="b">
         <v>1</v>
       </c>
-      <c r="AM20" s="137" t="b">
+      <c r="AM20" s="124" t="b">
         <v>1</v>
       </c>
-      <c r="AN20" s="137">
+      <c r="AN20" s="124">
         <v>10</v>
       </c>
-      <c r="AO20" s="138">
+      <c r="AO20" s="125">
         <v>0.7</v>
       </c>
       <c r="AP20" s="51"/>
       <c r="AQ20" s="52"/>
-      <c r="AR20" s="139">
+      <c r="AR20" s="126">
         <v>1.5E-3</v>
       </c>
-      <c r="AS20" s="140">
+      <c r="AS20" s="127">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AT20" s="55">
@@ -11258,22 +11255,22 @@
       <c r="AV20" s="31">
         <v>9.5</v>
       </c>
-      <c r="AW20" s="141">
+      <c r="AW20" s="128">
         <v>1.7</v>
       </c>
-      <c r="AX20" s="142">
+      <c r="AX20" s="129">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AY20" s="142">
+      <c r="AY20" s="129">
         <v>2.25</v>
       </c>
-      <c r="AZ20" s="142">
+      <c r="AZ20" s="129">
         <v>59</v>
       </c>
-      <c r="BA20" s="142">
+      <c r="BA20" s="129">
         <v>15</v>
       </c>
-      <c r="BB20" s="141" t="s">
+      <c r="BB20" s="128" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11282,16 +11279,16 @@
         <v>2</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" s="37">
         <v>0</v>
@@ -11349,13 +11346,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F22" s="36" t="s">
         <v>18</v>
@@ -11416,13 +11413,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D23" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F23" s="36" t="s">
         <v>17</v>
@@ -11484,13 +11481,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D24" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F24" s="36" t="s">
         <v>16</v>
@@ -11553,49 +11550,49 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="126" t="s">
+      <c r="H25" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="127"/>
-      <c r="J25" s="128" t="s">
+      <c r="I25" s="139"/>
+      <c r="J25" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="129"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="130"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="141"/>
+      <c r="N25" s="141"/>
+      <c r="O25" s="142"/>
       <c r="P25" s="99"/>
-      <c r="Q25" s="122" t="s">
-        <v>149</v>
-      </c>
-      <c r="R25" s="123"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="123"/>
-      <c r="U25" s="124" t="s">
+      <c r="Q25" s="134" t="s">
+        <v>145</v>
+      </c>
+      <c r="R25" s="135"/>
+      <c r="S25" s="135"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="125"/>
-      <c r="W25" s="125"/>
-      <c r="X25" s="125"/>
+      <c r="V25" s="137"/>
+      <c r="W25" s="137"/>
+      <c r="X25" s="137"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
-      <c r="AH25" s="119" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI25" s="120"/>
-      <c r="AJ25" s="120"/>
-      <c r="AK25" s="120"/>
-      <c r="AL25" s="120"/>
-      <c r="AM25" s="120"/>
-      <c r="AN25" s="121"/>
+      <c r="AH25" s="131" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI25" s="132"/>
+      <c r="AJ25" s="132"/>
+      <c r="AK25" s="132"/>
+      <c r="AL25" s="132"/>
+      <c r="AM25" s="132"/>
+      <c r="AN25" s="133"/>
     </row>
     <row r="27" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -11608,19 +11605,19 @@
     </row>
     <row r="30" spans="1:54" ht="157.5" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F30" s="86" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.25">
@@ -11628,10 +11625,10 @@
         <v>2</v>
       </c>
       <c r="C31" s="83" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D31" s="84" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E31" s="84">
         <v>5</v>
@@ -11646,10 +11643,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="83" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D32" s="84" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E32" s="84">
         <v>15</v>
@@ -11664,10 +11661,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="83" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D33" s="84" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E33" s="84">
         <v>25</v>
@@ -11682,10 +11679,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="83" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D34" s="84" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E34" s="84">
         <v>5</v>
@@ -11700,10 +11697,10 @@
         <v>2</v>
       </c>
       <c r="C35" s="83" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D35" s="84" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E35" s="84">
         <v>15</v>
@@ -11718,10 +11715,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="83" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D36" s="84" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E36" s="84">
         <v>25</v>
@@ -11736,10 +11733,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="83" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D37" s="84" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E37" s="84">
         <v>5</v>
@@ -11754,10 +11751,10 @@
         <v>2</v>
       </c>
       <c r="C38" s="83" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D38" s="84" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E38" s="84">
         <v>15</v>
@@ -11772,10 +11769,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="87" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D39" s="88" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E39" s="88">
         <v>25</v>
@@ -11846,7 +11843,7 @@
   <dimension ref="C1:AC63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11863,25 +11860,25 @@
   <sheetData>
     <row r="1" spans="3:29" ht="21" x14ac:dyDescent="0.35">
       <c r="C1" s="92" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D3" s="90"/>
-      <c r="E3" s="131" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
+      <c r="E3" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
       <c r="J3" s="90" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R3" s="90" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Z3" s="90" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="3:29" x14ac:dyDescent="0.25">
@@ -11899,19 +11896,19 @@
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L4" s="89">
         <v>30</v>
       </c>
       <c r="S4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="T4" s="89">
         <v>30</v>
       </c>
       <c r="AA4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AB4" s="89">
         <v>30</v>
@@ -11919,7 +11916,7 @@
     </row>
     <row r="5" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D5" s="91" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E5" s="93">
         <v>100</v>
@@ -11934,19 +11931,19 @@
         <v>250</v>
       </c>
       <c r="K5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L5" s="89">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="T5" s="89">
         <v>0</v>
       </c>
       <c r="AA5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AB5" s="89">
         <v>0</v>
@@ -11954,7 +11951,7 @@
     </row>
     <row r="6" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D6" s="91" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E6" s="93">
         <v>100</v>
@@ -11969,19 +11966,19 @@
         <v>160</v>
       </c>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L6" s="89">
         <v>100</v>
       </c>
       <c r="S6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="T6" s="89">
         <v>50</v>
       </c>
       <c r="AA6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AB6" s="89">
         <v>50</v>
@@ -11989,7 +11986,7 @@
     </row>
     <row r="7" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="102" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E7" s="103">
         <v>240</v>
@@ -12004,21 +12001,21 @@
         <v>270</v>
       </c>
       <c r="K7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L7">
         <f>ROUND((L6-L5)/L4,1)</f>
         <v>3.3</v>
       </c>
       <c r="S7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="T7">
         <f>ROUND((T6-T5)/T4,1)</f>
         <v>1.7</v>
       </c>
       <c r="AA7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AB7">
         <f>ROUND((AB6-AB5)/AB4,1)</f>
@@ -12027,7 +12024,7 @@
     </row>
     <row r="8" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="106" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E8" s="104">
         <v>0</v>
@@ -12046,7 +12043,7 @@
     <row r="11" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C11" s="107"/>
       <c r="D11" s="108" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E11" s="109">
         <f>IF(E16&lt;F8,1,IF(AND(E16&gt;=F8,E16&lt;G8),2,IF(AND(E16&gt;=G8,E16&lt;H8),3,4)))</f>
@@ -12056,46 +12053,46 @@
       <c r="G11" s="109"/>
       <c r="H11" s="110"/>
       <c r="J11" s="90" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K11" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L11" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M11" s="94" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N11" s="94"/>
       <c r="O11" s="94"/>
       <c r="P11" s="94"/>
       <c r="R11" s="97" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="S11" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="T11" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="U11" s="94" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="V11" s="94"/>
       <c r="W11" s="94"/>
       <c r="X11" s="94"/>
       <c r="Z11" s="90" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AA11" s="94" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AB11" s="94" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AC11" s="94" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12106,7 +12103,7 @@
       <c r="G12" s="112"/>
       <c r="H12" s="98"/>
       <c r="J12" s="90" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K12">
         <f>E5</f>
@@ -12121,7 +12118,7 @@
         <v>100</v>
       </c>
       <c r="R12" s="90" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S12">
         <f>E6</f>
@@ -12136,7 +12133,7 @@
         <v>50</v>
       </c>
       <c r="Z12" s="90" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AA12">
         <f>ROUND((E7/'special dragons'!AV17)/'special dragons'!AU17,1)</f>
@@ -12153,24 +12150,24 @@
     </row>
     <row r="13" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="111" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D13" s="112" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E13" s="113">
         <v>0</v>
       </c>
       <c r="F13" s="112"/>
       <c r="G13" s="95" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H13" s="96">
         <f ca="1">INDIRECT(ADDRESS(5,4+E11)) + (INDIRECT(ADDRESS(5,4+E11)) *(L7/100) *E13)</f>
         <v>100</v>
       </c>
       <c r="J13" s="90" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K13">
         <f>F5</f>
@@ -12185,7 +12182,7 @@
         <v>150</v>
       </c>
       <c r="R13" s="90" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S13">
         <f>F6</f>
@@ -12200,7 +12197,7 @@
         <v>60</v>
       </c>
       <c r="Z13" s="90" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AA13">
         <f>ROUND((F7/'special dragons'!AV18)/'special dragons'!AU18,1)</f>
@@ -12217,24 +12214,24 @@
     </row>
     <row r="14" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="111" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D14" s="112" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E14" s="113">
         <v>0</v>
       </c>
       <c r="F14" s="112"/>
       <c r="G14" s="95" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H14" s="96">
         <f ca="1">INDIRECT(ADDRESS(6,4+E11)) + (INDIRECT(ADDRESS(6,4+E11)) *(T7/100) *E14)</f>
         <v>100</v>
       </c>
       <c r="J14" s="90" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K14">
         <f>G5</f>
@@ -12249,7 +12246,7 @@
         <v>200</v>
       </c>
       <c r="R14" s="90" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="S14">
         <f>G6</f>
@@ -12264,7 +12261,7 @@
         <v>70</v>
       </c>
       <c r="Z14" s="90" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AA14">
         <f>ROUND((G7/'special dragons'!AV19)/'special dragons'!AU19,1)</f>
@@ -12281,24 +12278,24 @@
     </row>
     <row r="15" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="111" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D15" s="112" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E15" s="113">
         <v>0</v>
       </c>
       <c r="F15" s="112"/>
       <c r="G15" s="95" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H15" s="96">
         <f ca="1">ROUND(((INDIRECT(ADDRESS(7,4+E11)) + (INDIRECT(ADDRESS(7,4+E11)) *(AB7/100) *E15))/INDIRECT(ADDRESS(16+E11,48,1,1,"special dragons")))/INDIRECT(ADDRESS(16+E11,47,1,1,"special dragons")),1)</f>
         <v>10.1</v>
       </c>
       <c r="J15" s="90" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K15">
         <f>H5</f>
@@ -12313,7 +12310,7 @@
         <v>250</v>
       </c>
       <c r="R15" s="90" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="S15">
         <f>H6</f>
@@ -12328,7 +12325,7 @@
         <v>80</v>
       </c>
       <c r="Z15" s="90" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AA15">
         <f>ROUND((H7/'special dragons'!AV20)/'special dragons'!AU20,1)</f>
@@ -12346,7 +12343,7 @@
     <row r="16" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C16" s="111"/>
       <c r="D16" s="118" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E16" s="118">
         <f>SUM(E13:E15)</f>
@@ -12762,18 +12759,18 @@
   <sheetData>
     <row r="4" spans="6:9" x14ac:dyDescent="0.25">
       <c r="G4" s="117" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H4" s="117" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I4" s="117" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G5">
         <v>120</v>
@@ -12787,7 +12784,7 @@
     </row>
     <row r="6" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G6">
         <v>240</v>
@@ -12801,7 +12798,7 @@
     </row>
     <row r="7" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G7">
         <v>365</v>
@@ -12815,7 +12812,7 @@
     </row>
     <row r="8" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G8">
         <v>410</v>
@@ -12829,7 +12826,7 @@
     </row>
     <row r="9" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G9">
         <f ca="1">tools!H13</f>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="157">
   <si>
     <t>[sku]</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>PF_DragonElectric</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1494,6 +1497,12 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1532,12 +1541,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4806,13 +4809,13 @@
                   <c:v>10.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.5</c:v>
+                  <c:v>10.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.9</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4849,13 +4852,13 @@
                   <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>5.4000000000000021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4999999999999982</c:v>
+                  <c:v>5.7000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7000000000000011</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5163,7 +5166,7 @@
                   <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5472,7 +5475,7 @@
                   <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>151.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5781,7 +5784,7 @@
                   <c:v>15.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.1</c:v>
+                  <c:v>12.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9824,8 +9827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10681,13 +10684,13 @@
       <c r="G17" s="37">
         <v>0</v>
       </c>
-      <c r="H17" s="144">
-        <v>5</v>
+      <c r="H17" s="131">
+        <v>3</v>
       </c>
       <c r="I17" s="121">
         <v>-2</v>
       </c>
-      <c r="J17" s="145">
+      <c r="J17" s="132">
         <v>100</v>
       </c>
       <c r="K17" s="119">
@@ -10706,7 +10709,7 @@
         <v>0.5</v>
       </c>
       <c r="P17" s="123">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="Q17" s="39">
         <v>1</v>
@@ -10718,7 +10721,7 @@
         <v>40</v>
       </c>
       <c r="T17" s="120">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U17" s="121">
         <v>9</v>
@@ -10732,10 +10735,10 @@
       <c r="X17" s="120">
         <v>8000</v>
       </c>
-      <c r="Y17" s="122">
+      <c r="Y17" s="48">
         <v>2</v>
       </c>
-      <c r="Z17" s="123">
+      <c r="Z17" s="47">
         <v>0.13</v>
       </c>
       <c r="AA17" s="123">
@@ -10796,14 +10799,14 @@
       <c r="AV17" s="31">
         <v>9.5</v>
       </c>
-      <c r="AW17" s="128">
+      <c r="AW17" s="31">
         <v>1.7</v>
       </c>
       <c r="AX17" s="129">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AY17" s="129">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="AZ17" s="129">
         <v>0</v>
@@ -10834,13 +10837,13 @@
       <c r="G18" s="37">
         <v>10</v>
       </c>
-      <c r="H18" s="144">
-        <v>10</v>
+      <c r="H18" s="131">
+        <v>8</v>
       </c>
       <c r="I18" s="121">
         <v>0</v>
       </c>
-      <c r="J18" s="145">
+      <c r="J18" s="132">
         <v>150</v>
       </c>
       <c r="K18" s="119">
@@ -10859,7 +10862,7 @@
         <v>0.6</v>
       </c>
       <c r="P18" s="123">
-        <v>1.1499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Q18" s="39">
         <v>1</v>
@@ -10871,7 +10874,7 @@
         <v>40</v>
       </c>
       <c r="T18" s="120">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U18" s="121">
         <v>11</v>
@@ -10885,10 +10888,10 @@
       <c r="X18" s="120">
         <v>10000</v>
       </c>
-      <c r="Y18" s="122">
+      <c r="Y18" s="48">
         <v>3</v>
       </c>
-      <c r="Z18" s="123">
+      <c r="Z18" s="47">
         <v>0.08</v>
       </c>
       <c r="AA18" s="123">
@@ -10941,7 +10944,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AT18" s="55">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="AU18" s="31">
         <v>2.5</v>
@@ -10949,14 +10952,14 @@
       <c r="AV18" s="31">
         <v>9.5</v>
       </c>
-      <c r="AW18" s="128">
+      <c r="AW18" s="31">
         <v>1.7</v>
       </c>
       <c r="AX18" s="129">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AY18" s="129">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="AZ18" s="129">
         <v>9</v>
@@ -10987,13 +10990,13 @@
       <c r="G19" s="37">
         <v>20</v>
       </c>
-      <c r="H19" s="144">
-        <v>15</v>
+      <c r="H19" s="131">
+        <v>17</v>
       </c>
       <c r="I19" s="121">
         <v>0</v>
       </c>
-      <c r="J19" s="145">
+      <c r="J19" s="132">
         <v>200</v>
       </c>
       <c r="K19" s="119">
@@ -11012,7 +11015,7 @@
         <v>0.7</v>
       </c>
       <c r="P19" s="123">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="Q19" s="39">
         <v>1</v>
@@ -11024,7 +11027,7 @@
         <v>40</v>
       </c>
       <c r="T19" s="120">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U19" s="121">
         <v>11.5</v>
@@ -11038,10 +11041,10 @@
       <c r="X19" s="120">
         <v>20000</v>
       </c>
-      <c r="Y19" s="122">
+      <c r="Y19" s="48">
         <v>4</v>
       </c>
-      <c r="Z19" s="123">
+      <c r="Z19" s="47">
         <v>0.05</v>
       </c>
       <c r="AA19" s="123">
@@ -11094,7 +11097,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AT19" s="55">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AU19" s="31">
         <v>2.5</v>
@@ -11102,14 +11105,14 @@
       <c r="AV19" s="31">
         <v>9.5</v>
       </c>
-      <c r="AW19" s="128">
+      <c r="AW19" s="31">
         <v>1.7</v>
       </c>
       <c r="AX19" s="129">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AY19" s="129">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="AZ19" s="129">
         <v>45</v>
@@ -11140,13 +11143,13 @@
       <c r="G20" s="37">
         <v>30</v>
       </c>
-      <c r="H20" s="144">
+      <c r="H20" s="131">
         <v>25</v>
       </c>
       <c r="I20" s="121">
         <v>0</v>
       </c>
-      <c r="J20" s="145">
+      <c r="J20" s="132">
         <v>250</v>
       </c>
       <c r="K20" s="119">
@@ -11165,7 +11168,7 @@
         <v>0.8</v>
       </c>
       <c r="P20" s="123">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="39">
         <v>1</v>
@@ -11177,7 +11180,7 @@
         <v>40</v>
       </c>
       <c r="T20" s="120">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U20" s="121">
         <v>12</v>
@@ -11191,10 +11194,10 @@
       <c r="X20" s="120">
         <v>30000</v>
       </c>
-      <c r="Y20" s="122">
+      <c r="Y20" s="48">
         <v>5</v>
       </c>
-      <c r="Z20" s="123">
+      <c r="Z20" s="47">
         <v>0.04</v>
       </c>
       <c r="AA20" s="123">
@@ -11247,7 +11250,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AT20" s="55">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="AU20" s="31">
         <v>2.5</v>
@@ -11255,14 +11258,14 @@
       <c r="AV20" s="31">
         <v>9.5</v>
       </c>
-      <c r="AW20" s="128">
+      <c r="AW20" s="31">
         <v>1.7</v>
       </c>
       <c r="AX20" s="129">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AY20" s="129">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="AZ20" s="129">
         <v>59</v>
@@ -11550,44 +11553,44 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="138" t="s">
+      <c r="H25" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="139"/>
-      <c r="J25" s="140" t="s">
+      <c r="I25" s="141"/>
+      <c r="J25" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="141"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="141"/>
-      <c r="O25" s="142"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="143"/>
+      <c r="O25" s="144"/>
       <c r="P25" s="99"/>
-      <c r="Q25" s="134" t="s">
+      <c r="Q25" s="136" t="s">
         <v>145</v>
       </c>
-      <c r="R25" s="135"/>
-      <c r="S25" s="135"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="136" t="s">
+      <c r="R25" s="137"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="137"/>
+      <c r="U25" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="137"/>
-      <c r="W25" s="137"/>
-      <c r="X25" s="137"/>
+      <c r="V25" s="139"/>
+      <c r="W25" s="139"/>
+      <c r="X25" s="139"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
-      <c r="AH25" s="131" t="s">
+      <c r="AH25" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="AI25" s="132"/>
-      <c r="AJ25" s="132"/>
-      <c r="AK25" s="132"/>
-      <c r="AL25" s="132"/>
-      <c r="AM25" s="132"/>
-      <c r="AN25" s="133"/>
+      <c r="AI25" s="134"/>
+      <c r="AJ25" s="134"/>
+      <c r="AK25" s="134"/>
+      <c r="AL25" s="134"/>
+      <c r="AM25" s="134"/>
+      <c r="AN25" s="135"/>
     </row>
     <row r="27" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
@@ -11843,7 +11846,7 @@
   <dimension ref="C1:AC63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11865,12 +11868,12 @@
     </row>
     <row r="3" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D3" s="90"/>
-      <c r="E3" s="143" t="s">
+      <c r="E3" s="145" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
       <c r="J3" s="90" t="s">
         <v>121</v>
       </c>
@@ -11936,17 +11939,26 @@
       <c r="L5" s="89">
         <v>0</v>
       </c>
+      <c r="M5" t="s">
+        <v>156</v>
+      </c>
       <c r="S5" t="s">
         <v>117</v>
       </c>
       <c r="T5" s="89">
         <v>0</v>
       </c>
+      <c r="U5" t="s">
+        <v>156</v>
+      </c>
       <c r="AA5" t="s">
         <v>117</v>
       </c>
       <c r="AB5" s="89">
         <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="3:29" x14ac:dyDescent="0.25">
@@ -11971,17 +11983,26 @@
       <c r="L6" s="89">
         <v>100</v>
       </c>
+      <c r="M6" t="s">
+        <v>156</v>
+      </c>
       <c r="S6" t="s">
         <v>118</v>
       </c>
       <c r="T6" s="89">
         <v>50</v>
       </c>
+      <c r="U6" t="s">
+        <v>156</v>
+      </c>
       <c r="AA6" t="s">
         <v>118</v>
       </c>
       <c r="AB6" s="89">
         <v>50</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11992,13 +12013,13 @@
         <v>240</v>
       </c>
       <c r="F7" s="103">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G7" s="103">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H7" s="103">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="K7" t="s">
         <v>131</v>
@@ -12007,6 +12028,9 @@
         <f>ROUND((L6-L5)/L4,1)</f>
         <v>3.3</v>
       </c>
+      <c r="M7" t="s">
+        <v>156</v>
+      </c>
       <c r="S7" t="s">
         <v>131</v>
       </c>
@@ -12014,12 +12038,18 @@
         <f>ROUND((T6-T5)/T4,1)</f>
         <v>1.7</v>
       </c>
+      <c r="U7" t="s">
+        <v>156</v>
+      </c>
       <c r="AA7" t="s">
         <v>131</v>
       </c>
       <c r="AB7">
         <f>ROUND((AB6-AB5)/AB4,1)</f>
         <v>1.7</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12047,7 +12077,7 @@
       </c>
       <c r="E11" s="109">
         <f>IF(E16&lt;F8,1,IF(AND(E16&gt;=F8,E16&lt;G8),2,IF(AND(E16&gt;=G8,E16&lt;H8),3,4)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="109"/>
       <c r="G11" s="109"/>
@@ -12156,7 +12186,7 @@
         <v>124</v>
       </c>
       <c r="E13" s="113">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F13" s="112"/>
       <c r="G13" s="95" t="s">
@@ -12164,7 +12194,7 @@
       </c>
       <c r="H13" s="96">
         <f ca="1">INDIRECT(ADDRESS(5,4+E11)) + (INDIRECT(ADDRESS(5,4+E11)) *(L7/100) *E13)</f>
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="J13" s="90" t="s">
         <v>135</v>
@@ -12201,15 +12231,15 @@
       </c>
       <c r="AA13">
         <f>ROUND((F7/'special dragons'!AV18)/'special dragons'!AU18,1)</f>
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="AB13">
         <f>ROUND(((F7+F7*(AB6/100))/'special dragons'!AV18)/'special dragons'!AU18,1)</f>
-        <v>15.8</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="AC13">
         <f>AB13-AA13</f>
-        <v>5.3000000000000007</v>
+        <v>5.4000000000000021</v>
       </c>
     </row>
     <row r="14" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12220,7 +12250,7 @@
         <v>126</v>
       </c>
       <c r="E14" s="113">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14" s="112"/>
       <c r="G14" s="95" t="s">
@@ -12228,7 +12258,7 @@
       </c>
       <c r="H14" s="96">
         <f ca="1">INDIRECT(ADDRESS(6,4+E11)) + (INDIRECT(ADDRESS(6,4+E11)) *(T7/100) *E14)</f>
-        <v>100</v>
+        <v>151.9</v>
       </c>
       <c r="J14" s="90" t="s">
         <v>136</v>
@@ -12265,15 +12295,15 @@
       </c>
       <c r="AA14">
         <f>ROUND((G7/'special dragons'!AV19)/'special dragons'!AU19,1)</f>
-        <v>10.9</v>
+        <v>11.4</v>
       </c>
       <c r="AB14">
         <f>ROUND(((G7+G7*(AB6/100))/'special dragons'!AV19)/'special dragons'!AU19,1)</f>
-        <v>16.399999999999999</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="AC14">
         <f>AB14-AA14</f>
-        <v>5.4999999999999982</v>
+        <v>5.7000000000000011</v>
       </c>
     </row>
     <row r="15" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12284,7 +12314,7 @@
         <v>127</v>
       </c>
       <c r="E15" s="113">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15" s="112"/>
       <c r="G15" s="95" t="s">
@@ -12292,7 +12322,7 @@
       </c>
       <c r="H15" s="96">
         <f ca="1">ROUND(((INDIRECT(ADDRESS(7,4+E11)) + (INDIRECT(ADDRESS(7,4+E11)) *(AB7/100) *E15))/INDIRECT(ADDRESS(16+E11,48,1,1,"special dragons")))/INDIRECT(ADDRESS(16+E11,47,1,1,"special dragons")),1)</f>
-        <v>10.1</v>
+        <v>12.3</v>
       </c>
       <c r="J15" s="90" t="s">
         <v>137</v>
@@ -12329,15 +12359,15 @@
       </c>
       <c r="AA15">
         <f>ROUND((H7/'special dragons'!AV20)/'special dragons'!AU20,1)</f>
-        <v>11.4</v>
+        <v>12</v>
       </c>
       <c r="AB15">
         <f>ROUND(((H7+H7*(AB6/100))/'special dragons'!AV20)/'special dragons'!AU20,1)</f>
-        <v>17.100000000000001</v>
+        <v>18</v>
       </c>
       <c r="AC15">
         <f>AB15-AA15</f>
-        <v>5.7000000000000011</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="3:29" x14ac:dyDescent="0.25">
@@ -12347,7 +12377,7 @@
       </c>
       <c r="E16" s="118">
         <f>SUM(E13:E15)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F16" s="112"/>
       <c r="G16" s="112"/>
@@ -12830,15 +12860,15 @@
       </c>
       <c r="G9">
         <f ca="1">tools!H13</f>
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="H9">
         <f ca="1">tools!H14</f>
-        <v>100</v>
+        <v>151.9</v>
       </c>
       <c r="I9">
         <f ca="1">tools!H15</f>
-        <v>10.1</v>
+        <v>12.3</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -5166,7 +5166,7 @@
                   <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>299</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5475,7 +5475,7 @@
                   <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>151.9</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5784,7 +5784,7 @@
                   <c:v>15.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.3</c:v>
+                  <c:v>10.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9827,8 +9827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" topLeftCell="V4" workbookViewId="0">
+      <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10745,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="122">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AC17" s="130" t="s">
         <v>155</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="122">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AC18" s="130" t="s">
         <v>155</v>
@@ -11051,7 +11051,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="122">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AC19" s="130" t="s">
         <v>155</v>
@@ -11204,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="122">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AC20" s="130" t="s">
         <v>155</v>
@@ -11846,7 +11846,7 @@
   <dimension ref="C1:AC63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12077,7 +12077,7 @@
       </c>
       <c r="E11" s="109">
         <f>IF(E16&lt;F8,1,IF(AND(E16&gt;=F8,E16&lt;G8),2,IF(AND(E16&gt;=G8,E16&lt;H8),3,4)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="109"/>
       <c r="G11" s="109"/>
@@ -12186,7 +12186,7 @@
         <v>124</v>
       </c>
       <c r="E13" s="113">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F13" s="112"/>
       <c r="G13" s="95" t="s">
@@ -12194,7 +12194,7 @@
       </c>
       <c r="H13" s="96">
         <f ca="1">INDIRECT(ADDRESS(5,4+E11)) + (INDIRECT(ADDRESS(5,4+E11)) *(L7/100) *E13)</f>
-        <v>299</v>
+        <v>100</v>
       </c>
       <c r="J13" s="90" t="s">
         <v>135</v>
@@ -12250,7 +12250,7 @@
         <v>126</v>
       </c>
       <c r="E14" s="113">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14" s="112"/>
       <c r="G14" s="95" t="s">
@@ -12258,7 +12258,7 @@
       </c>
       <c r="H14" s="96">
         <f ca="1">INDIRECT(ADDRESS(6,4+E11)) + (INDIRECT(ADDRESS(6,4+E11)) *(T7/100) *E14)</f>
-        <v>151.9</v>
+        <v>100</v>
       </c>
       <c r="J14" s="90" t="s">
         <v>136</v>
@@ -12314,7 +12314,7 @@
         <v>127</v>
       </c>
       <c r="E15" s="113">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F15" s="112"/>
       <c r="G15" s="95" t="s">
@@ -12322,7 +12322,7 @@
       </c>
       <c r="H15" s="96">
         <f ca="1">ROUND(((INDIRECT(ADDRESS(7,4+E11)) + (INDIRECT(ADDRESS(7,4+E11)) *(AB7/100) *E15))/INDIRECT(ADDRESS(16+E11,48,1,1,"special dragons")))/INDIRECT(ADDRESS(16+E11,47,1,1,"special dragons")),1)</f>
-        <v>12.3</v>
+        <v>10.1</v>
       </c>
       <c r="J15" s="90" t="s">
         <v>137</v>
@@ -12377,7 +12377,7 @@
       </c>
       <c r="E16" s="118">
         <f>SUM(E13:E15)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F16" s="112"/>
       <c r="G16" s="112"/>
@@ -12860,15 +12860,15 @@
       </c>
       <c r="G9">
         <f ca="1">tools!H13</f>
-        <v>299</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <f ca="1">tools!H14</f>
-        <v>151.9</v>
+        <v>100</v>
       </c>
       <c r="I9">
         <f ca="1">tools!H15</f>
-        <v>12.3</v>
+        <v>10.1</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="special dragons" sheetId="10" r:id="rId1"/>
@@ -1500,9 +1500,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1541,6 +1538,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5691,7 +5691,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9827,8 +9826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V4" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+    <sheetView topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10690,7 +10689,7 @@
       <c r="I17" s="121">
         <v>-2</v>
       </c>
-      <c r="J17" s="132">
+      <c r="J17" s="145">
         <v>100</v>
       </c>
       <c r="K17" s="119">
@@ -10843,7 +10842,7 @@
       <c r="I18" s="121">
         <v>0</v>
       </c>
-      <c r="J18" s="132">
+      <c r="J18" s="145">
         <v>150</v>
       </c>
       <c r="K18" s="119">
@@ -10996,7 +10995,7 @@
       <c r="I19" s="121">
         <v>0</v>
       </c>
-      <c r="J19" s="132">
+      <c r="J19" s="145">
         <v>200</v>
       </c>
       <c r="K19" s="119">
@@ -11149,7 +11148,7 @@
       <c r="I20" s="121">
         <v>0</v>
       </c>
-      <c r="J20" s="132">
+      <c r="J20" s="145">
         <v>250</v>
       </c>
       <c r="K20" s="119">
@@ -11553,44 +11552,44 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="140" t="s">
+      <c r="H25" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="141"/>
-      <c r="J25" s="142" t="s">
+      <c r="I25" s="140"/>
+      <c r="J25" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="143"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="143"/>
-      <c r="N25" s="143"/>
-      <c r="O25" s="144"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="142"/>
+      <c r="M25" s="142"/>
+      <c r="N25" s="142"/>
+      <c r="O25" s="143"/>
       <c r="P25" s="99"/>
-      <c r="Q25" s="136" t="s">
+      <c r="Q25" s="135" t="s">
         <v>145</v>
       </c>
-      <c r="R25" s="137"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="137"/>
-      <c r="U25" s="138" t="s">
+      <c r="R25" s="136"/>
+      <c r="S25" s="136"/>
+      <c r="T25" s="136"/>
+      <c r="U25" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="139"/>
-      <c r="W25" s="139"/>
-      <c r="X25" s="139"/>
+      <c r="V25" s="138"/>
+      <c r="W25" s="138"/>
+      <c r="X25" s="138"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
-      <c r="AH25" s="133" t="s">
+      <c r="AH25" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="AI25" s="134"/>
-      <c r="AJ25" s="134"/>
-      <c r="AK25" s="134"/>
-      <c r="AL25" s="134"/>
-      <c r="AM25" s="134"/>
-      <c r="AN25" s="135"/>
+      <c r="AI25" s="133"/>
+      <c r="AJ25" s="133"/>
+      <c r="AK25" s="133"/>
+      <c r="AL25" s="133"/>
+      <c r="AM25" s="133"/>
+      <c r="AN25" s="134"/>
     </row>
     <row r="27" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
@@ -11845,8 +11844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AC63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11868,12 +11867,12 @@
     </row>
     <row r="3" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D3" s="90"/>
-      <c r="E3" s="145" t="s">
+      <c r="E3" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
       <c r="J3" s="90" t="s">
         <v>121</v>
       </c>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500"/>
   </bookViews>
   <sheets>
     <sheet name="special dragons" sheetId="10" r:id="rId1"/>
@@ -1500,6 +1500,9 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1538,9 +1541,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5166,7 +5166,7 @@
                   <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>497.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5475,7 +5475,7 @@
                   <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>241.60000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5783,7 +5783,7 @@
                   <c:v>15.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.1</c:v>
+                  <c:v>18.100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9826,8 +9826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10689,7 +10689,7 @@
       <c r="I17" s="121">
         <v>-2</v>
       </c>
-      <c r="J17" s="145">
+      <c r="J17" s="132">
         <v>100</v>
       </c>
       <c r="K17" s="119">
@@ -10717,7 +10717,7 @@
         <v>100</v>
       </c>
       <c r="S17" s="119">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="T17" s="120">
         <v>30</v>
@@ -10842,7 +10842,7 @@
       <c r="I18" s="121">
         <v>0</v>
       </c>
-      <c r="J18" s="145">
+      <c r="J18" s="132">
         <v>150</v>
       </c>
       <c r="K18" s="119">
@@ -10870,7 +10870,7 @@
         <v>120</v>
       </c>
       <c r="S18" s="119">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="T18" s="120">
         <v>30</v>
@@ -10995,7 +10995,7 @@
       <c r="I19" s="121">
         <v>0</v>
       </c>
-      <c r="J19" s="145">
+      <c r="J19" s="132">
         <v>200</v>
       </c>
       <c r="K19" s="119">
@@ -11023,7 +11023,7 @@
         <v>140</v>
       </c>
       <c r="S19" s="119">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="T19" s="120">
         <v>30</v>
@@ -11148,7 +11148,7 @@
       <c r="I20" s="121">
         <v>0</v>
       </c>
-      <c r="J20" s="145">
+      <c r="J20" s="132">
         <v>250</v>
       </c>
       <c r="K20" s="119">
@@ -11176,7 +11176,7 @@
         <v>160</v>
       </c>
       <c r="S20" s="119">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="T20" s="120">
         <v>30</v>
@@ -11552,44 +11552,44 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="139" t="s">
+      <c r="H25" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="140"/>
-      <c r="J25" s="141" t="s">
+      <c r="I25" s="141"/>
+      <c r="J25" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="142"/>
-      <c r="L25" s="142"/>
-      <c r="M25" s="142"/>
-      <c r="N25" s="142"/>
-      <c r="O25" s="143"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="143"/>
+      <c r="O25" s="144"/>
       <c r="P25" s="99"/>
-      <c r="Q25" s="135" t="s">
+      <c r="Q25" s="136" t="s">
         <v>145</v>
       </c>
-      <c r="R25" s="136"/>
-      <c r="S25" s="136"/>
-      <c r="T25" s="136"/>
-      <c r="U25" s="137" t="s">
+      <c r="R25" s="137"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="137"/>
+      <c r="U25" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="138"/>
-      <c r="W25" s="138"/>
-      <c r="X25" s="138"/>
+      <c r="V25" s="139"/>
+      <c r="W25" s="139"/>
+      <c r="X25" s="139"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
-      <c r="AH25" s="132" t="s">
+      <c r="AH25" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="AI25" s="133"/>
-      <c r="AJ25" s="133"/>
-      <c r="AK25" s="133"/>
-      <c r="AL25" s="133"/>
-      <c r="AM25" s="133"/>
-      <c r="AN25" s="134"/>
+      <c r="AI25" s="134"/>
+      <c r="AJ25" s="134"/>
+      <c r="AK25" s="134"/>
+      <c r="AL25" s="134"/>
+      <c r="AM25" s="134"/>
+      <c r="AN25" s="135"/>
     </row>
     <row r="27" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
@@ -11844,8 +11844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11867,12 +11867,12 @@
     </row>
     <row r="3" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D3" s="90"/>
-      <c r="E3" s="144" t="s">
+      <c r="E3" s="145" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
       <c r="J3" s="90" t="s">
         <v>121</v>
       </c>
@@ -12076,7 +12076,7 @@
       </c>
       <c r="E11" s="109">
         <f>IF(E16&lt;F8,1,IF(AND(E16&gt;=F8,E16&lt;G8),2,IF(AND(E16&gt;=G8,E16&lt;H8),3,4)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" s="109"/>
       <c r="G11" s="109"/>
@@ -12185,7 +12185,7 @@
         <v>124</v>
       </c>
       <c r="E13" s="113">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F13" s="112"/>
       <c r="G13" s="95" t="s">
@@ -12193,7 +12193,7 @@
       </c>
       <c r="H13" s="96">
         <f ca="1">INDIRECT(ADDRESS(5,4+E11)) + (INDIRECT(ADDRESS(5,4+E11)) *(L7/100) *E13)</f>
-        <v>100</v>
+        <v>497.5</v>
       </c>
       <c r="J13" s="90" t="s">
         <v>135</v>
@@ -12249,7 +12249,7 @@
         <v>126</v>
       </c>
       <c r="E14" s="113">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F14" s="112"/>
       <c r="G14" s="95" t="s">
@@ -12257,7 +12257,7 @@
       </c>
       <c r="H14" s="96">
         <f ca="1">INDIRECT(ADDRESS(6,4+E11)) + (INDIRECT(ADDRESS(6,4+E11)) *(T7/100) *E14)</f>
-        <v>100</v>
+        <v>241.60000000000002</v>
       </c>
       <c r="J14" s="90" t="s">
         <v>136</v>
@@ -12313,7 +12313,7 @@
         <v>127</v>
       </c>
       <c r="E15" s="113">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F15" s="112"/>
       <c r="G15" s="95" t="s">
@@ -12321,7 +12321,7 @@
       </c>
       <c r="H15" s="96">
         <f ca="1">ROUND(((INDIRECT(ADDRESS(7,4+E11)) + (INDIRECT(ADDRESS(7,4+E11)) *(AB7/100) *E15))/INDIRECT(ADDRESS(16+E11,48,1,1,"special dragons")))/INDIRECT(ADDRESS(16+E11,47,1,1,"special dragons")),1)</f>
-        <v>10.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="J15" s="90" t="s">
         <v>137</v>
@@ -12376,7 +12376,7 @@
       </c>
       <c r="E16" s="118">
         <f>SUM(E13:E15)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F16" s="112"/>
       <c r="G16" s="112"/>
@@ -12859,15 +12859,15 @@
       </c>
       <c r="G9">
         <f ca="1">tools!H13</f>
-        <v>100</v>
+        <v>497.5</v>
       </c>
       <c r="H9">
         <f ca="1">tools!H14</f>
-        <v>100</v>
+        <v>241.60000000000002</v>
       </c>
       <c r="I9">
         <f ca="1">tools!H15</f>
-        <v>10.1</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -9827,7 +9827,7 @@
   <dimension ref="A1:BB39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10711,16 +10711,16 @@
         <v>0.6</v>
       </c>
       <c r="Q17" s="39">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="R17" s="41">
         <v>100</v>
       </c>
       <c r="S17" s="119">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T17" s="120">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U17" s="121">
         <v>9</v>
@@ -10864,16 +10864,16 @@
         <v>0.95</v>
       </c>
       <c r="Q18" s="39">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="R18" s="41">
         <v>120</v>
       </c>
       <c r="S18" s="119">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T18" s="120">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U18" s="121">
         <v>11</v>
@@ -11017,16 +11017,16 @@
         <v>1.55</v>
       </c>
       <c r="Q19" s="39">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="R19" s="41">
         <v>140</v>
       </c>
       <c r="S19" s="119">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T19" s="120">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U19" s="121">
         <v>11.5</v>
@@ -11170,16 +11170,16 @@
         <v>2</v>
       </c>
       <c r="Q20" s="39">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="R20" s="41">
         <v>160</v>
       </c>
       <c r="S20" s="119">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T20" s="120">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U20" s="121">
         <v>12</v>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -9826,8 +9826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="P7" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10885,7 +10885,7 @@
         <v>10</v>
       </c>
       <c r="X18" s="120">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Y18" s="48">
         <v>3</v>
@@ -11038,7 +11038,7 @@
         <v>10</v>
       </c>
       <c r="X19" s="120">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Y19" s="48">
         <v>4</v>
@@ -11191,7 +11191,7 @@
         <v>10</v>
       </c>
       <c r="X20" s="120">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="Y20" s="48">
         <v>5</v>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -9827,7 +9827,7 @@
   <dimension ref="A1:BB39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P7" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10732,7 +10732,7 @@
         <v>9</v>
       </c>
       <c r="X17" s="120">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Y17" s="48">
         <v>2</v>
@@ -10885,7 +10885,7 @@
         <v>10</v>
       </c>
       <c r="X18" s="120">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Y18" s="48">
         <v>3</v>
@@ -11038,7 +11038,7 @@
         <v>10</v>
       </c>
       <c r="X19" s="120">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="Y19" s="48">
         <v>4</v>
@@ -11191,7 +11191,7 @@
         <v>10</v>
       </c>
       <c r="X20" s="120">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="Y20" s="48">
         <v>5</v>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -9826,8 +9826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P7" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" topLeftCell="AQ7" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11158,7 +11158,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="119">
-        <v>1.6E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="N20" s="119">
         <v>20</v>
@@ -11167,7 +11167,7 @@
         <v>0.8</v>
       </c>
       <c r="P20" s="123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Q20" s="39">
         <v>1.2</v>
@@ -11845,7 +11845,7 @@
   <dimension ref="C1:AC63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="158">
   <si>
     <t>[sku]</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>PF_DragonHelicopter</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1494,9 +1497,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1542,11 +1542,37 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="95">
+  <dxfs count="97">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9456,89 +9482,89 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B12:BB24" totalsRowShown="0" headerRowBorderDxfId="83" totalsRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B12:BB24" totalsRowShown="0" headerRowBorderDxfId="85" totalsRowBorderDxfId="84">
   <autoFilter ref="B12:BB24"/>
   <tableColumns count="53">
-    <tableColumn id="1" name="{specialDragonTierDefinitions}" dataDxfId="81"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="80"/>
-    <tableColumn id="3" name="[tier]" dataDxfId="79"/>
-    <tableColumn id="4" name="[specialDragon]" dataDxfId="78"/>
-    <tableColumn id="5" name="[mainProgressionRestriction]" dataDxfId="77"/>
-    <tableColumn id="7" name="[upgradeLevelToUnlock]" dataDxfId="76"/>
-    <tableColumn id="8" name="[defaultSize]" dataDxfId="75"/>
-    <tableColumn id="9" name="[cameraFrameWidthModifier]" dataDxfId="74"/>
-    <tableColumn id="10" name="[health]" dataDxfId="73"/>
-    <tableColumn id="11" name="[healthDrain]" dataDxfId="72"/>
-    <tableColumn id="12" name="[healthDrainSpacePlus]" dataDxfId="71"/>
-    <tableColumn id="13" name="[healthDrainAmpPerSecond]" dataDxfId="70"/>
-    <tableColumn id="14" name="[sessionStartHealthDrainTime]" dataDxfId="69"/>
-    <tableColumn id="15" name="[sessionStartHealthDrainModifier]" dataDxfId="68"/>
-    <tableColumn id="16" name="[scale]" dataDxfId="67"/>
-    <tableColumn id="17" name="[boostMultiplier]" dataDxfId="66"/>
-    <tableColumn id="18" name="[energyBase]" dataDxfId="65"/>
-    <tableColumn id="19" name="[energyDrain]" dataDxfId="64"/>
-    <tableColumn id="20" name="[energyRefillRate]" dataDxfId="63"/>
-    <tableColumn id="21" name="[furyBaseLength]" dataDxfId="62"/>
-    <tableColumn id="22" name="[furyScoreMultiplier]" dataDxfId="61"/>
-    <tableColumn id="23" name="[furyBaseDuration]" dataDxfId="60"/>
-    <tableColumn id="24" name="[furyMax]" dataDxfId="59"/>
-    <tableColumn id="25" name="[scoreTextThresholdMultiplier]" dataDxfId="58"/>
-    <tableColumn id="26" name="[eatSpeedFactor]" dataDxfId="57"/>
-    <tableColumn id="27" name="[maxAlcohol]" dataDxfId="56"/>
-    <tableColumn id="28" name="[alcoholDrain]" dataDxfId="55"/>
-    <tableColumn id="29" name="[gamePrefab]" dataDxfId="54"/>
-    <tableColumn id="30" name="[menuPrefab]" dataDxfId="53"/>
-    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="52"/>
-    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="51"/>
-    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="50"/>
-    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="49"/>
-    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="48"/>
-    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="47"/>
-    <tableColumn id="37" name="[invincible]" dataDxfId="46"/>
-    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="45"/>
-    <tableColumn id="39" name="[eatEverything]" dataDxfId="44"/>
-    <tableColumn id="40" name="[modeDuration]" dataDxfId="43"/>
-    <tableColumn id="41" name="[petScale]" dataDxfId="42"/>
-    <tableColumn id="42" name="[tidName]" dataDxfId="41"/>
-    <tableColumn id="43" name="[tidDesc]" dataDxfId="40"/>
-    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="39"/>
-    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="38"/>
-    <tableColumn id="46" name="[force]" dataDxfId="37"/>
-    <tableColumn id="47" name="[mass]" dataDxfId="36"/>
-    <tableColumn id="48" name="[friction]" dataDxfId="35"/>
-    <tableColumn id="49" name="[gravityModifier]" dataDxfId="34"/>
-    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="33"/>
-    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="32"/>
-    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="31"/>
-    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="30"/>
-    <tableColumn id="54" name="[trackingSku]" dataDxfId="29"/>
+    <tableColumn id="1" name="{specialDragonTierDefinitions}" dataDxfId="83"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="82"/>
+    <tableColumn id="3" name="[tier]" dataDxfId="81"/>
+    <tableColumn id="4" name="[specialDragon]" dataDxfId="80"/>
+    <tableColumn id="5" name="[mainProgressionRestriction]" dataDxfId="79"/>
+    <tableColumn id="7" name="[upgradeLevelToUnlock]" dataDxfId="78"/>
+    <tableColumn id="8" name="[defaultSize]" dataDxfId="77"/>
+    <tableColumn id="9" name="[cameraFrameWidthModifier]" dataDxfId="76"/>
+    <tableColumn id="10" name="[health]" dataDxfId="75"/>
+    <tableColumn id="11" name="[healthDrain]" dataDxfId="74"/>
+    <tableColumn id="12" name="[healthDrainSpacePlus]" dataDxfId="73"/>
+    <tableColumn id="13" name="[healthDrainAmpPerSecond]" dataDxfId="72"/>
+    <tableColumn id="14" name="[sessionStartHealthDrainTime]" dataDxfId="71"/>
+    <tableColumn id="15" name="[sessionStartHealthDrainModifier]" dataDxfId="70"/>
+    <tableColumn id="16" name="[scale]" dataDxfId="69"/>
+    <tableColumn id="17" name="[boostMultiplier]" dataDxfId="68"/>
+    <tableColumn id="18" name="[energyBase]" dataDxfId="67"/>
+    <tableColumn id="19" name="[energyDrain]" dataDxfId="66"/>
+    <tableColumn id="20" name="[energyRefillRate]" dataDxfId="65"/>
+    <tableColumn id="21" name="[furyBaseLength]" dataDxfId="64"/>
+    <tableColumn id="22" name="[furyScoreMultiplier]" dataDxfId="63"/>
+    <tableColumn id="23" name="[furyBaseDuration]" dataDxfId="62"/>
+    <tableColumn id="24" name="[furyMax]" dataDxfId="61"/>
+    <tableColumn id="25" name="[scoreTextThresholdMultiplier]" dataDxfId="60"/>
+    <tableColumn id="26" name="[eatSpeedFactor]" dataDxfId="59"/>
+    <tableColumn id="27" name="[maxAlcohol]" dataDxfId="58"/>
+    <tableColumn id="28" name="[alcoholDrain]" dataDxfId="57"/>
+    <tableColumn id="29" name="[gamePrefab]" dataDxfId="56"/>
+    <tableColumn id="30" name="[menuPrefab]" dataDxfId="55"/>
+    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="54"/>
+    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="53"/>
+    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="52"/>
+    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="51"/>
+    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="50"/>
+    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="49"/>
+    <tableColumn id="37" name="[invincible]" dataDxfId="48"/>
+    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="47"/>
+    <tableColumn id="39" name="[eatEverything]" dataDxfId="46"/>
+    <tableColumn id="40" name="[modeDuration]" dataDxfId="45"/>
+    <tableColumn id="41" name="[petScale]" dataDxfId="44"/>
+    <tableColumn id="42" name="[tidName]" dataDxfId="43"/>
+    <tableColumn id="43" name="[tidDesc]" dataDxfId="42"/>
+    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="41"/>
+    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="40"/>
+    <tableColumn id="46" name="[force]" dataDxfId="39"/>
+    <tableColumn id="47" name="[mass]" dataDxfId="38"/>
+    <tableColumn id="48" name="[friction]" dataDxfId="37"/>
+    <tableColumn id="49" name="[gravityModifier]" dataDxfId="36"/>
+    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="35"/>
+    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="34"/>
+    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="33"/>
+    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="32"/>
+    <tableColumn id="54" name="[trackingSku]" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
   <autoFilter ref="B3:T6"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="24"/>
+    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="26"/>
     <tableColumn id="2" name="[sku]"/>
     <tableColumn id="3" name="[type]"/>
-    <tableColumn id="5" name="[order]" dataDxfId="23"/>
-    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="22"/>
-    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="21"/>
-    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="20"/>
-    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="19"/>
-    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="18"/>
-    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="17"/>
-    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="16"/>
-    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="15"/>
-    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="14"/>
-    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="13"/>
-    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="12"/>
-    <tableColumn id="76" name="[stepPrice]" dataDxfId="11"/>
-    <tableColumn id="77" name="[priceCoefA]" dataDxfId="10"/>
-    <tableColumn id="75" name="[priceCoefB]" dataDxfId="9"/>
+    <tableColumn id="5" name="[order]" dataDxfId="25"/>
+    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="24"/>
+    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="23"/>
+    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="22"/>
+    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="21"/>
+    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="20"/>
+    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="19"/>
+    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="18"/>
+    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="17"/>
+    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="16"/>
+    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="15"/>
+    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="14"/>
+    <tableColumn id="76" name="[stepPrice]" dataDxfId="13"/>
+    <tableColumn id="77" name="[priceCoefA]" dataDxfId="12"/>
+    <tableColumn id="75" name="[priceCoefB]" dataDxfId="11"/>
     <tableColumn id="65" name="[trackingSku]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9546,14 +9572,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="B30:F39"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="5"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="4"/>
-    <tableColumn id="3" name="[specialDragon]" dataDxfId="3"/>
-    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="2"/>
-    <tableColumn id="5" name="[icon]" dataDxfId="1">
+    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="7"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="6"/>
+    <tableColumn id="3" name="[specialDragon]" dataDxfId="5"/>
+    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="4"/>
+    <tableColumn id="5" name="[icon]" dataDxfId="3">
       <calculatedColumnFormula>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9826,8 +9852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ7" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AT13" sqref="AT13:AW16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10414,53 +10440,139 @@
       <c r="G13" s="37">
         <v>0</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
+      <c r="H13" s="130">
+        <v>3</v>
+      </c>
+      <c r="I13" s="121">
+        <v>-2</v>
+      </c>
+      <c r="J13" s="145">
+        <v>100</v>
+      </c>
+      <c r="K13" s="119">
+        <v>1.5</v>
+      </c>
+      <c r="L13" s="119">
+        <v>0</v>
+      </c>
+      <c r="M13" s="119">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N13" s="119">
+        <v>30</v>
+      </c>
+      <c r="O13" s="119">
+        <v>0.5</v>
+      </c>
+      <c r="P13" s="123">
+        <v>0.6</v>
+      </c>
+      <c r="Q13" s="121">
+        <v>1.2</v>
+      </c>
+      <c r="R13" s="119">
+        <v>100</v>
+      </c>
+      <c r="S13" s="119">
+        <v>25</v>
+      </c>
+      <c r="T13" s="120">
+        <v>35</v>
+      </c>
+      <c r="U13" s="121">
+        <v>9</v>
+      </c>
+      <c r="V13" s="119">
+        <v>3</v>
+      </c>
+      <c r="W13" s="119">
+        <v>9</v>
+      </c>
+      <c r="X13" s="120">
+        <v>8500</v>
+      </c>
+      <c r="Y13" s="122">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="123">
+        <v>0.13</v>
+      </c>
+      <c r="AA13" s="123">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="122">
+        <v>12</v>
+      </c>
+      <c r="AC13" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD13" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE13" s="124" t="s">
+        <v>24</v>
+      </c>
       <c r="AF13" s="50"/>
       <c r="AG13" s="50"/>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="50"/>
-      <c r="AK13" s="50"/>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="50"/>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="101"/>
+      <c r="AH13" s="124">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AI13" s="124">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="124">
+        <v>2</v>
+      </c>
+      <c r="AK13" s="124" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="124" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="124" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="124">
+        <v>10</v>
+      </c>
+      <c r="AO13" s="125">
+        <v>0.55999999999999994</v>
+      </c>
       <c r="AP13" s="51"/>
       <c r="AQ13" s="52"/>
-      <c r="AR13" s="53"/>
-      <c r="AS13" s="54"/>
-      <c r="AT13" s="55"/>
-      <c r="AU13" s="31"/>
-      <c r="AV13" s="31"/>
-      <c r="AW13" s="31"/>
-      <c r="AX13" s="56"/>
-      <c r="AY13" s="56"/>
-      <c r="AZ13" s="56"/>
-      <c r="BA13" s="56"/>
-      <c r="BB13" s="31"/>
+      <c r="AR13" s="126">
+        <v>2E-3</v>
+      </c>
+      <c r="AS13" s="127">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AT13" s="146">
+        <v>240</v>
+      </c>
+      <c r="AU13" s="128">
+        <v>2.5</v>
+      </c>
+      <c r="AV13" s="128">
+        <v>9.5</v>
+      </c>
+      <c r="AW13" s="128">
+        <v>1.7</v>
+      </c>
+      <c r="AX13" s="129">
+        <v>0.7</v>
+      </c>
+      <c r="AY13" s="129">
+        <v>1.2</v>
+      </c>
+      <c r="AZ13" s="129">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="129">
+        <v>8</v>
+      </c>
+      <c r="BB13" s="128" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
@@ -10481,53 +10593,139 @@
       <c r="G14" s="37">
         <v>10</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="50"/>
+      <c r="H14" s="130">
+        <v>8</v>
+      </c>
+      <c r="I14" s="121">
+        <v>0</v>
+      </c>
+      <c r="J14" s="145">
+        <v>150</v>
+      </c>
+      <c r="K14" s="119">
+        <v>1.9</v>
+      </c>
+      <c r="L14" s="119">
+        <v>0</v>
+      </c>
+      <c r="M14" s="119">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N14" s="119">
+        <v>30</v>
+      </c>
+      <c r="O14" s="119">
+        <v>0.6</v>
+      </c>
+      <c r="P14" s="123">
+        <v>0.95</v>
+      </c>
+      <c r="Q14" s="121">
+        <v>1.2</v>
+      </c>
+      <c r="R14" s="119">
+        <v>120</v>
+      </c>
+      <c r="S14" s="119">
+        <v>25</v>
+      </c>
+      <c r="T14" s="120">
+        <v>35</v>
+      </c>
+      <c r="U14" s="121">
+        <v>11</v>
+      </c>
+      <c r="V14" s="119">
+        <v>4</v>
+      </c>
+      <c r="W14" s="119">
+        <v>10</v>
+      </c>
+      <c r="X14" s="120">
+        <v>15000</v>
+      </c>
+      <c r="Y14" s="122">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="123">
+        <v>0.08</v>
+      </c>
+      <c r="AA14" s="123">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="122">
+        <v>12</v>
+      </c>
+      <c r="AC14" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD14" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE14" s="124" t="s">
+        <v>23</v>
+      </c>
       <c r="AF14" s="50"/>
       <c r="AG14" s="50"/>
-      <c r="AH14" s="50"/>
-      <c r="AI14" s="50"/>
-      <c r="AJ14" s="50"/>
-      <c r="AK14" s="50"/>
-      <c r="AL14" s="50"/>
-      <c r="AM14" s="50"/>
-      <c r="AN14" s="50"/>
-      <c r="AO14" s="101"/>
+      <c r="AH14" s="124">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI14" s="124">
+        <v>2</v>
+      </c>
+      <c r="AJ14" s="124">
+        <v>2</v>
+      </c>
+      <c r="AK14" s="124" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="124" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="124" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="124">
+        <v>10</v>
+      </c>
+      <c r="AO14" s="125">
+        <v>0.7</v>
+      </c>
       <c r="AP14" s="51"/>
       <c r="AQ14" s="52"/>
-      <c r="AR14" s="53"/>
-      <c r="AS14" s="54"/>
-      <c r="AT14" s="55"/>
-      <c r="AU14" s="31"/>
-      <c r="AV14" s="31"/>
-      <c r="AW14" s="31"/>
-      <c r="AX14" s="56"/>
-      <c r="AY14" s="56"/>
-      <c r="AZ14" s="56"/>
-      <c r="BA14" s="56"/>
-      <c r="BB14" s="31"/>
+      <c r="AR14" s="126">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AS14" s="127">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AT14" s="146">
+        <v>255</v>
+      </c>
+      <c r="AU14" s="128">
+        <v>2.5</v>
+      </c>
+      <c r="AV14" s="128">
+        <v>9.5</v>
+      </c>
+      <c r="AW14" s="128">
+        <v>1.7</v>
+      </c>
+      <c r="AX14" s="129">
+        <v>0.7</v>
+      </c>
+      <c r="AY14" s="129">
+        <v>1.2</v>
+      </c>
+      <c r="AZ14" s="129">
+        <v>9</v>
+      </c>
+      <c r="BA14" s="129">
+        <v>8</v>
+      </c>
+      <c r="BB14" s="128" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
@@ -10548,53 +10746,139 @@
       <c r="G15" s="37">
         <v>20</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="50"/>
+      <c r="H15" s="130">
+        <v>17</v>
+      </c>
+      <c r="I15" s="121">
+        <v>0</v>
+      </c>
+      <c r="J15" s="145">
+        <v>200</v>
+      </c>
+      <c r="K15" s="119">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L15" s="119">
+        <v>0</v>
+      </c>
+      <c r="M15" s="119">
+        <v>1.4E-2</v>
+      </c>
+      <c r="N15" s="119">
+        <v>25</v>
+      </c>
+      <c r="O15" s="119">
+        <v>0.7</v>
+      </c>
+      <c r="P15" s="123">
+        <v>1.55</v>
+      </c>
+      <c r="Q15" s="121">
+        <v>1.2</v>
+      </c>
+      <c r="R15" s="119">
+        <v>140</v>
+      </c>
+      <c r="S15" s="119">
+        <v>25</v>
+      </c>
+      <c r="T15" s="120">
+        <v>35</v>
+      </c>
+      <c r="U15" s="121">
+        <v>11.5</v>
+      </c>
+      <c r="V15" s="119">
+        <v>5</v>
+      </c>
+      <c r="W15" s="119">
+        <v>10</v>
+      </c>
+      <c r="X15" s="120">
+        <v>27000</v>
+      </c>
+      <c r="Y15" s="122">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="123">
+        <v>0.05</v>
+      </c>
+      <c r="AA15" s="123">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="122">
+        <v>12</v>
+      </c>
+      <c r="AC15" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD15" s="124" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE15" s="124" t="s">
+        <v>21</v>
+      </c>
       <c r="AF15" s="50"/>
       <c r="AG15" s="50"/>
-      <c r="AH15" s="50"/>
-      <c r="AI15" s="50"/>
-      <c r="AJ15" s="50"/>
-      <c r="AK15" s="50"/>
-      <c r="AL15" s="50"/>
-      <c r="AM15" s="50"/>
-      <c r="AN15" s="50"/>
-      <c r="AO15" s="101"/>
+      <c r="AH15" s="124">
+        <v>2.1</v>
+      </c>
+      <c r="AI15" s="124">
+        <v>2</v>
+      </c>
+      <c r="AJ15" s="124">
+        <v>2</v>
+      </c>
+      <c r="AK15" s="124" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="124" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="124" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="124">
+        <v>10</v>
+      </c>
+      <c r="AO15" s="125">
+        <v>0.7</v>
+      </c>
       <c r="AP15" s="51"/>
       <c r="AQ15" s="52"/>
-      <c r="AR15" s="53"/>
-      <c r="AS15" s="54"/>
-      <c r="AT15" s="55"/>
-      <c r="AU15" s="31"/>
-      <c r="AV15" s="31"/>
-      <c r="AW15" s="31"/>
-      <c r="AX15" s="56"/>
-      <c r="AY15" s="56"/>
-      <c r="AZ15" s="56"/>
-      <c r="BA15" s="56"/>
-      <c r="BB15" s="31"/>
+      <c r="AR15" s="126">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AS15" s="127">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AT15" s="146">
+        <v>270</v>
+      </c>
+      <c r="AU15" s="128">
+        <v>2.5</v>
+      </c>
+      <c r="AV15" s="128">
+        <v>9.5</v>
+      </c>
+      <c r="AW15" s="128">
+        <v>1.7</v>
+      </c>
+      <c r="AX15" s="129">
+        <v>0.7</v>
+      </c>
+      <c r="AY15" s="129">
+        <v>1.2</v>
+      </c>
+      <c r="AZ15" s="129">
+        <v>45</v>
+      </c>
+      <c r="BA15" s="129">
+        <v>15</v>
+      </c>
+      <c r="BB15" s="128" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -10616,53 +10900,139 @@
       <c r="G16" s="37">
         <v>30</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="49"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
+      <c r="H16" s="130">
+        <v>25</v>
+      </c>
+      <c r="I16" s="121">
+        <v>0</v>
+      </c>
+      <c r="J16" s="145">
+        <v>250</v>
+      </c>
+      <c r="K16" s="119">
+        <v>2.4</v>
+      </c>
+      <c r="L16" s="119">
+        <v>0</v>
+      </c>
+      <c r="M16" s="119">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="N16" s="119">
+        <v>20</v>
+      </c>
+      <c r="O16" s="119">
+        <v>0.8</v>
+      </c>
+      <c r="P16" s="123">
+        <v>1.9</v>
+      </c>
+      <c r="Q16" s="121">
+        <v>1.2</v>
+      </c>
+      <c r="R16" s="119">
+        <v>160</v>
+      </c>
+      <c r="S16" s="119">
+        <v>25</v>
+      </c>
+      <c r="T16" s="120">
+        <v>35</v>
+      </c>
+      <c r="U16" s="121">
+        <v>12</v>
+      </c>
+      <c r="V16" s="119">
+        <v>6</v>
+      </c>
+      <c r="W16" s="119">
+        <v>10</v>
+      </c>
+      <c r="X16" s="120">
+        <v>45000</v>
+      </c>
+      <c r="Y16" s="122">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="123">
+        <v>0.04</v>
+      </c>
+      <c r="AA16" s="123">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="122">
+        <v>12</v>
+      </c>
+      <c r="AC16" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD16" s="124" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE16" s="124" t="s">
+        <v>19</v>
+      </c>
       <c r="AF16" s="50"/>
       <c r="AG16" s="50"/>
-      <c r="AH16" s="50"/>
-      <c r="AI16" s="50"/>
-      <c r="AJ16" s="50"/>
-      <c r="AK16" s="50"/>
-      <c r="AL16" s="50"/>
-      <c r="AM16" s="50"/>
-      <c r="AN16" s="50"/>
-      <c r="AO16" s="101"/>
+      <c r="AH16" s="124">
+        <v>2.1</v>
+      </c>
+      <c r="AI16" s="124">
+        <v>2</v>
+      </c>
+      <c r="AJ16" s="124">
+        <v>2</v>
+      </c>
+      <c r="AK16" s="124" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="124" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="124" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="124">
+        <v>10</v>
+      </c>
+      <c r="AO16" s="125">
+        <v>0.7</v>
+      </c>
       <c r="AP16" s="51"/>
       <c r="AQ16" s="52"/>
-      <c r="AR16" s="53"/>
-      <c r="AS16" s="54"/>
-      <c r="AT16" s="55"/>
-      <c r="AU16" s="31"/>
-      <c r="AV16" s="31"/>
-      <c r="AW16" s="31"/>
-      <c r="AX16" s="56"/>
-      <c r="AY16" s="56"/>
-      <c r="AZ16" s="56"/>
-      <c r="BA16" s="56"/>
-      <c r="BB16" s="31"/>
+      <c r="AR16" s="126">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AS16" s="127">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AT16" s="146">
+        <v>285</v>
+      </c>
+      <c r="AU16" s="128">
+        <v>2.5</v>
+      </c>
+      <c r="AV16" s="128">
+        <v>9.5</v>
+      </c>
+      <c r="AW16" s="128">
+        <v>1.7</v>
+      </c>
+      <c r="AX16" s="129">
+        <v>0.7</v>
+      </c>
+      <c r="AY16" s="129">
+        <v>1.2</v>
+      </c>
+      <c r="AZ16" s="129">
+        <v>59</v>
+      </c>
+      <c r="BA16" s="129">
+        <v>15</v>
+      </c>
+      <c r="BB16" s="128" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B17" s="32" t="s">
@@ -10683,13 +11053,13 @@
       <c r="G17" s="37">
         <v>0</v>
       </c>
-      <c r="H17" s="131">
+      <c r="H17" s="130">
         <v>3</v>
       </c>
       <c r="I17" s="121">
         <v>-2</v>
       </c>
-      <c r="J17" s="132">
+      <c r="J17" s="131">
         <v>100</v>
       </c>
       <c r="K17" s="119">
@@ -10746,7 +11116,7 @@
       <c r="AB17" s="122">
         <v>12</v>
       </c>
-      <c r="AC17" s="130" t="s">
+      <c r="AC17" s="49" t="s">
         <v>155</v>
       </c>
       <c r="AD17" s="124" t="s">
@@ -10836,13 +11206,13 @@
       <c r="G18" s="37">
         <v>10</v>
       </c>
-      <c r="H18" s="131">
+      <c r="H18" s="130">
         <v>8</v>
       </c>
       <c r="I18" s="121">
         <v>0</v>
       </c>
-      <c r="J18" s="132">
+      <c r="J18" s="131">
         <v>150</v>
       </c>
       <c r="K18" s="119">
@@ -10899,7 +11269,7 @@
       <c r="AB18" s="122">
         <v>12</v>
       </c>
-      <c r="AC18" s="130" t="s">
+      <c r="AC18" s="49" t="s">
         <v>155</v>
       </c>
       <c r="AD18" s="124" t="s">
@@ -10989,13 +11359,13 @@
       <c r="G19" s="37">
         <v>20</v>
       </c>
-      <c r="H19" s="131">
+      <c r="H19" s="130">
         <v>17</v>
       </c>
       <c r="I19" s="121">
         <v>0</v>
       </c>
-      <c r="J19" s="132">
+      <c r="J19" s="131">
         <v>200</v>
       </c>
       <c r="K19" s="119">
@@ -11052,7 +11422,7 @@
       <c r="AB19" s="122">
         <v>12</v>
       </c>
-      <c r="AC19" s="130" t="s">
+      <c r="AC19" s="49" t="s">
         <v>155</v>
       </c>
       <c r="AD19" s="124" t="s">
@@ -11142,13 +11512,13 @@
       <c r="G20" s="37">
         <v>30</v>
       </c>
-      <c r="H20" s="131">
+      <c r="H20" s="130">
         <v>25</v>
       </c>
       <c r="I20" s="121">
         <v>0</v>
       </c>
-      <c r="J20" s="132">
+      <c r="J20" s="131">
         <v>250</v>
       </c>
       <c r="K20" s="119">
@@ -11205,7 +11575,7 @@
       <c r="AB20" s="122">
         <v>12</v>
       </c>
-      <c r="AC20" s="130" t="s">
+      <c r="AC20" s="49" t="s">
         <v>155</v>
       </c>
       <c r="AD20" s="124" t="s">
@@ -11552,44 +11922,44 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="140" t="s">
+      <c r="H25" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="141"/>
-      <c r="J25" s="142" t="s">
+      <c r="I25" s="140"/>
+      <c r="J25" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="143"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="143"/>
-      <c r="N25" s="143"/>
-      <c r="O25" s="144"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="142"/>
+      <c r="M25" s="142"/>
+      <c r="N25" s="142"/>
+      <c r="O25" s="143"/>
       <c r="P25" s="99"/>
-      <c r="Q25" s="136" t="s">
+      <c r="Q25" s="135" t="s">
         <v>145</v>
       </c>
-      <c r="R25" s="137"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="137"/>
-      <c r="U25" s="138" t="s">
+      <c r="R25" s="136"/>
+      <c r="S25" s="136"/>
+      <c r="T25" s="136"/>
+      <c r="U25" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="139"/>
-      <c r="W25" s="139"/>
-      <c r="X25" s="139"/>
+      <c r="V25" s="138"/>
+      <c r="W25" s="138"/>
+      <c r="X25" s="138"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
-      <c r="AH25" s="133" t="s">
+      <c r="AH25" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="AI25" s="134"/>
-      <c r="AJ25" s="134"/>
-      <c r="AK25" s="134"/>
-      <c r="AL25" s="134"/>
-      <c r="AM25" s="134"/>
-      <c r="AN25" s="135"/>
+      <c r="AI25" s="133"/>
+      <c r="AJ25" s="133"/>
+      <c r="AK25" s="133"/>
+      <c r="AL25" s="133"/>
+      <c r="AM25" s="133"/>
+      <c r="AN25" s="134"/>
     </row>
     <row r="27" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
@@ -11793,37 +12163,40 @@
     <mergeCell ref="J25:O25"/>
   </mergeCells>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="94" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:D6">
+    <cfRule type="duplicateValues" dxfId="94" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4:T6">
+    <cfRule type="duplicateValues" dxfId="93" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C36">
+    <cfRule type="duplicateValues" dxfId="92" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C33">
+    <cfRule type="duplicateValues" dxfId="91" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39">
+    <cfRule type="duplicateValues" dxfId="90" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C24">
+    <cfRule type="duplicateValues" dxfId="89" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB21:BB24">
+    <cfRule type="duplicateValues" dxfId="88" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB17">
+    <cfRule type="duplicateValues" dxfId="87" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB18:BB20">
+    <cfRule type="duplicateValues" dxfId="86" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB13">
-    <cfRule type="duplicateValues" dxfId="93" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D6">
-    <cfRule type="duplicateValues" dxfId="92" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T4:T6">
-    <cfRule type="duplicateValues" dxfId="91" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C36">
-    <cfRule type="duplicateValues" dxfId="90" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C33">
-    <cfRule type="duplicateValues" dxfId="89" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C39">
-    <cfRule type="duplicateValues" dxfId="88" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C24">
-    <cfRule type="duplicateValues" dxfId="87" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB14:BB16 BB21:BB24">
-    <cfRule type="duplicateValues" dxfId="86" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB17">
-    <cfRule type="duplicateValues" dxfId="85" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB18:BB20">
-    <cfRule type="duplicateValues" dxfId="84" priority="1"/>
+  <conditionalFormatting sqref="BB14:BB16">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D13:D24">
@@ -11845,7 +12218,7 @@
   <dimension ref="C1:AC63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11867,12 +12240,12 @@
     </row>
     <row r="3" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D3" s="90"/>
-      <c r="E3" s="145" t="s">
+      <c r="E3" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
       <c r="J3" s="90" t="s">
         <v>121</v>
       </c>
@@ -12763,7 +13136,7 @@
     <mergeCell ref="E3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:E15">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>E13&gt;$L$4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -1503,6 +1503,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1542,37 +1548,11 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="96">
     <dxf>
       <fill>
         <patternFill>
@@ -3969,6 +3949,16 @@
           <color auto="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4133,7 +4123,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4455,7 +4444,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4777,7 +4765,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5099,7 +5086,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5408,7 +5394,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9482,89 +9467,89 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B12:BB24" totalsRowShown="0" headerRowBorderDxfId="85" totalsRowBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B12:BB24" totalsRowShown="0" headerRowBorderDxfId="83" totalsRowBorderDxfId="82">
   <autoFilter ref="B12:BB24"/>
   <tableColumns count="53">
-    <tableColumn id="1" name="{specialDragonTierDefinitions}" dataDxfId="83"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="82"/>
-    <tableColumn id="3" name="[tier]" dataDxfId="81"/>
-    <tableColumn id="4" name="[specialDragon]" dataDxfId="80"/>
-    <tableColumn id="5" name="[mainProgressionRestriction]" dataDxfId="79"/>
-    <tableColumn id="7" name="[upgradeLevelToUnlock]" dataDxfId="78"/>
-    <tableColumn id="8" name="[defaultSize]" dataDxfId="77"/>
-    <tableColumn id="9" name="[cameraFrameWidthModifier]" dataDxfId="76"/>
-    <tableColumn id="10" name="[health]" dataDxfId="75"/>
-    <tableColumn id="11" name="[healthDrain]" dataDxfId="74"/>
-    <tableColumn id="12" name="[healthDrainSpacePlus]" dataDxfId="73"/>
-    <tableColumn id="13" name="[healthDrainAmpPerSecond]" dataDxfId="72"/>
-    <tableColumn id="14" name="[sessionStartHealthDrainTime]" dataDxfId="71"/>
-    <tableColumn id="15" name="[sessionStartHealthDrainModifier]" dataDxfId="70"/>
-    <tableColumn id="16" name="[scale]" dataDxfId="69"/>
-    <tableColumn id="17" name="[boostMultiplier]" dataDxfId="68"/>
-    <tableColumn id="18" name="[energyBase]" dataDxfId="67"/>
-    <tableColumn id="19" name="[energyDrain]" dataDxfId="66"/>
-    <tableColumn id="20" name="[energyRefillRate]" dataDxfId="65"/>
-    <tableColumn id="21" name="[furyBaseLength]" dataDxfId="64"/>
-    <tableColumn id="22" name="[furyScoreMultiplier]" dataDxfId="63"/>
-    <tableColumn id="23" name="[furyBaseDuration]" dataDxfId="62"/>
-    <tableColumn id="24" name="[furyMax]" dataDxfId="61"/>
-    <tableColumn id="25" name="[scoreTextThresholdMultiplier]" dataDxfId="60"/>
-    <tableColumn id="26" name="[eatSpeedFactor]" dataDxfId="59"/>
-    <tableColumn id="27" name="[maxAlcohol]" dataDxfId="58"/>
-    <tableColumn id="28" name="[alcoholDrain]" dataDxfId="57"/>
-    <tableColumn id="29" name="[gamePrefab]" dataDxfId="56"/>
-    <tableColumn id="30" name="[menuPrefab]" dataDxfId="55"/>
-    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="54"/>
-    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="53"/>
-    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="52"/>
-    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="51"/>
-    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="50"/>
-    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="49"/>
-    <tableColumn id="37" name="[invincible]" dataDxfId="48"/>
-    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="47"/>
-    <tableColumn id="39" name="[eatEverything]" dataDxfId="46"/>
-    <tableColumn id="40" name="[modeDuration]" dataDxfId="45"/>
-    <tableColumn id="41" name="[petScale]" dataDxfId="44"/>
-    <tableColumn id="42" name="[tidName]" dataDxfId="43"/>
-    <tableColumn id="43" name="[tidDesc]" dataDxfId="42"/>
-    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="41"/>
-    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="40"/>
-    <tableColumn id="46" name="[force]" dataDxfId="39"/>
-    <tableColumn id="47" name="[mass]" dataDxfId="38"/>
-    <tableColumn id="48" name="[friction]" dataDxfId="37"/>
-    <tableColumn id="49" name="[gravityModifier]" dataDxfId="36"/>
-    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="35"/>
-    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="34"/>
-    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="33"/>
-    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="32"/>
-    <tableColumn id="54" name="[trackingSku]" dataDxfId="31"/>
+    <tableColumn id="1" name="{specialDragonTierDefinitions}" dataDxfId="81"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="80"/>
+    <tableColumn id="3" name="[tier]" dataDxfId="79"/>
+    <tableColumn id="4" name="[specialDragon]" dataDxfId="78"/>
+    <tableColumn id="5" name="[mainProgressionRestriction]" dataDxfId="77"/>
+    <tableColumn id="7" name="[upgradeLevelToUnlock]" dataDxfId="76"/>
+    <tableColumn id="8" name="[defaultSize]" dataDxfId="75"/>
+    <tableColumn id="9" name="[cameraFrameWidthModifier]" dataDxfId="74"/>
+    <tableColumn id="10" name="[health]" dataDxfId="73"/>
+    <tableColumn id="11" name="[healthDrain]" dataDxfId="72"/>
+    <tableColumn id="12" name="[healthDrainSpacePlus]" dataDxfId="71"/>
+    <tableColumn id="13" name="[healthDrainAmpPerSecond]" dataDxfId="70"/>
+    <tableColumn id="14" name="[sessionStartHealthDrainTime]" dataDxfId="69"/>
+    <tableColumn id="15" name="[sessionStartHealthDrainModifier]" dataDxfId="68"/>
+    <tableColumn id="16" name="[scale]" dataDxfId="67"/>
+    <tableColumn id="17" name="[boostMultiplier]" dataDxfId="66"/>
+    <tableColumn id="18" name="[energyBase]" dataDxfId="65"/>
+    <tableColumn id="19" name="[energyDrain]" dataDxfId="64"/>
+    <tableColumn id="20" name="[energyRefillRate]" dataDxfId="63"/>
+    <tableColumn id="21" name="[furyBaseLength]" dataDxfId="62"/>
+    <tableColumn id="22" name="[furyScoreMultiplier]" dataDxfId="61"/>
+    <tableColumn id="23" name="[furyBaseDuration]" dataDxfId="60"/>
+    <tableColumn id="24" name="[furyMax]" dataDxfId="59"/>
+    <tableColumn id="25" name="[scoreTextThresholdMultiplier]" dataDxfId="58"/>
+    <tableColumn id="26" name="[eatSpeedFactor]" dataDxfId="57"/>
+    <tableColumn id="27" name="[maxAlcohol]" dataDxfId="56"/>
+    <tableColumn id="28" name="[alcoholDrain]" dataDxfId="55"/>
+    <tableColumn id="29" name="[gamePrefab]" dataDxfId="54"/>
+    <tableColumn id="30" name="[menuPrefab]" dataDxfId="53"/>
+    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="52"/>
+    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="51"/>
+    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="50"/>
+    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="49"/>
+    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="48"/>
+    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="47"/>
+    <tableColumn id="37" name="[invincible]" dataDxfId="46"/>
+    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="45"/>
+    <tableColumn id="39" name="[eatEverything]" dataDxfId="44"/>
+    <tableColumn id="40" name="[modeDuration]" dataDxfId="43"/>
+    <tableColumn id="41" name="[petScale]" dataDxfId="42"/>
+    <tableColumn id="42" name="[tidName]" dataDxfId="41"/>
+    <tableColumn id="43" name="[tidDesc]" dataDxfId="40"/>
+    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="39"/>
+    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="38"/>
+    <tableColumn id="46" name="[force]" dataDxfId="37"/>
+    <tableColumn id="47" name="[mass]" dataDxfId="36"/>
+    <tableColumn id="48" name="[friction]" dataDxfId="35"/>
+    <tableColumn id="49" name="[gravityModifier]" dataDxfId="34"/>
+    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="33"/>
+    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="32"/>
+    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="31"/>
+    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="30"/>
+    <tableColumn id="54" name="[trackingSku]" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25">
   <autoFilter ref="B3:T6"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="26"/>
+    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="24"/>
     <tableColumn id="2" name="[sku]"/>
     <tableColumn id="3" name="[type]"/>
-    <tableColumn id="5" name="[order]" dataDxfId="25"/>
-    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="24"/>
-    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="23"/>
-    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="22"/>
-    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="21"/>
-    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="20"/>
-    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="19"/>
-    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="18"/>
-    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="17"/>
-    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="16"/>
-    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="15"/>
-    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="14"/>
-    <tableColumn id="76" name="[stepPrice]" dataDxfId="13"/>
-    <tableColumn id="77" name="[priceCoefA]" dataDxfId="12"/>
-    <tableColumn id="75" name="[priceCoefB]" dataDxfId="11"/>
+    <tableColumn id="5" name="[order]" dataDxfId="23"/>
+    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="22"/>
+    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="21"/>
+    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="20"/>
+    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="19"/>
+    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="18"/>
+    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="17"/>
+    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="16"/>
+    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="15"/>
+    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="14"/>
+    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="13"/>
+    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="12"/>
+    <tableColumn id="76" name="[stepPrice]" dataDxfId="11"/>
+    <tableColumn id="77" name="[priceCoefA]" dataDxfId="10"/>
+    <tableColumn id="75" name="[priceCoefB]" dataDxfId="9"/>
     <tableColumn id="65" name="[trackingSku]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9572,14 +9557,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="B30:F39"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="7"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="6"/>
-    <tableColumn id="3" name="[specialDragon]" dataDxfId="5"/>
-    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="4"/>
-    <tableColumn id="5" name="[icon]" dataDxfId="3">
+    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="5"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="4"/>
+    <tableColumn id="3" name="[specialDragon]" dataDxfId="3"/>
+    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="2"/>
+    <tableColumn id="5" name="[icon]" dataDxfId="1">
       <calculatedColumnFormula>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9852,8 +9837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AT13" sqref="AT13:AW16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10032,18 +10017,42 @@
       <c r="G4" s="63">
         <v>400</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
+      <c r="H4" s="75">
+        <v>30</v>
+      </c>
+      <c r="I4" s="75">
+        <v>0</v>
+      </c>
+      <c r="J4" s="75">
+        <v>100</v>
+      </c>
+      <c r="K4" s="73">
+        <v>30</v>
+      </c>
+      <c r="L4" s="73">
+        <v>0</v>
+      </c>
+      <c r="M4" s="73">
+        <v>50</v>
+      </c>
+      <c r="N4" s="81">
+        <v>30</v>
+      </c>
+      <c r="O4" s="81">
+        <v>0</v>
+      </c>
+      <c r="P4" s="81">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="71">
+        <v>1</v>
+      </c>
+      <c r="R4" s="71">
+        <v>1</v>
+      </c>
+      <c r="S4" s="71">
+        <v>1</v>
+      </c>
       <c r="T4" s="69" t="s">
         <v>4</v>
       </c>
@@ -10446,7 +10455,7 @@
       <c r="I13" s="121">
         <v>-2</v>
       </c>
-      <c r="J13" s="145">
+      <c r="J13" s="132">
         <v>100</v>
       </c>
       <c r="K13" s="119">
@@ -10546,7 +10555,7 @@
       <c r="AS13" s="127">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT13" s="146">
+      <c r="AT13" s="133">
         <v>240</v>
       </c>
       <c r="AU13" s="128">
@@ -10599,7 +10608,7 @@
       <c r="I14" s="121">
         <v>0</v>
       </c>
-      <c r="J14" s="145">
+      <c r="J14" s="132">
         <v>150</v>
       </c>
       <c r="K14" s="119">
@@ -10699,7 +10708,7 @@
       <c r="AS14" s="127">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT14" s="146">
+      <c r="AT14" s="133">
         <v>255</v>
       </c>
       <c r="AU14" s="128">
@@ -10752,7 +10761,7 @@
       <c r="I15" s="121">
         <v>0</v>
       </c>
-      <c r="J15" s="145">
+      <c r="J15" s="132">
         <v>200</v>
       </c>
       <c r="K15" s="119">
@@ -10852,7 +10861,7 @@
       <c r="AS15" s="127">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT15" s="146">
+      <c r="AT15" s="133">
         <v>270</v>
       </c>
       <c r="AU15" s="128">
@@ -10906,7 +10915,7 @@
       <c r="I16" s="121">
         <v>0</v>
       </c>
-      <c r="J16" s="145">
+      <c r="J16" s="132">
         <v>250</v>
       </c>
       <c r="K16" s="119">
@@ -11006,7 +11015,7 @@
       <c r="AS16" s="127">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT16" s="146">
+      <c r="AT16" s="133">
         <v>285</v>
       </c>
       <c r="AU16" s="128">
@@ -11922,44 +11931,44 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="139" t="s">
+      <c r="H25" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="140"/>
-      <c r="J25" s="141" t="s">
+      <c r="I25" s="142"/>
+      <c r="J25" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="142"/>
-      <c r="L25" s="142"/>
-      <c r="M25" s="142"/>
-      <c r="N25" s="142"/>
-      <c r="O25" s="143"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="144"/>
+      <c r="N25" s="144"/>
+      <c r="O25" s="145"/>
       <c r="P25" s="99"/>
-      <c r="Q25" s="135" t="s">
+      <c r="Q25" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="R25" s="136"/>
-      <c r="S25" s="136"/>
-      <c r="T25" s="136"/>
-      <c r="U25" s="137" t="s">
+      <c r="R25" s="138"/>
+      <c r="S25" s="138"/>
+      <c r="T25" s="138"/>
+      <c r="U25" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="138"/>
-      <c r="W25" s="138"/>
-      <c r="X25" s="138"/>
+      <c r="V25" s="140"/>
+      <c r="W25" s="140"/>
+      <c r="X25" s="140"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
-      <c r="AH25" s="132" t="s">
+      <c r="AH25" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="AI25" s="133"/>
-      <c r="AJ25" s="133"/>
-      <c r="AK25" s="133"/>
-      <c r="AL25" s="133"/>
-      <c r="AM25" s="133"/>
-      <c r="AN25" s="134"/>
+      <c r="AI25" s="135"/>
+      <c r="AJ25" s="135"/>
+      <c r="AK25" s="135"/>
+      <c r="AL25" s="135"/>
+      <c r="AM25" s="135"/>
+      <c r="AN25" s="136"/>
     </row>
     <row r="27" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
@@ -12163,7 +12172,7 @@
     <mergeCell ref="J25:O25"/>
   </mergeCells>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="96" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D6">
     <cfRule type="duplicateValues" dxfId="94" priority="24"/>
@@ -12193,10 +12202,10 @@
     <cfRule type="duplicateValues" dxfId="86" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB13">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB14:BB16">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="1"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D13:D24">
@@ -12240,12 +12249,12 @@
     </row>
     <row r="3" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D3" s="90"/>
-      <c r="E3" s="144" t="s">
+      <c r="E3" s="146" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
       <c r="J3" s="90" t="s">
         <v>121</v>
       </c>
@@ -13136,7 +13145,7 @@
     <mergeCell ref="E3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:E15">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>E13&gt;$L$4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="special dragons" sheetId="10" r:id="rId1"/>
-    <sheet name="tools" sheetId="11" r:id="rId2"/>
+    <sheet name="Electric" sheetId="11" r:id="rId2"/>
     <sheet name="DATA" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="160">
   <si>
     <t>[sku]</t>
   </si>
@@ -500,6 +500,12 @@
   </si>
   <si>
     <t>PF_DragonHelicopter</t>
+  </si>
+  <si>
+    <t>PF_DragonSonic</t>
+  </si>
+  <si>
+    <t>percentage</t>
   </si>
 </sst>
 </file>
@@ -567,7 +573,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,6 +703,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,7 +1204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1252,9 +1288,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1273,39 +1306,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1316,18 +1316,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1375,19 +1363,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1403,9 +1382,6 @@
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1439,12 +1415,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1500,9 +1470,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1548,11 +1515,139 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="101">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4123,6 +4218,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4172,7 +4268,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>tools!$K$12:$K$15</c:f>
+              <c:f>Electric!$K$12:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4215,7 +4311,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>tools!$M$12:$M$15</c:f>
+              <c:f>Electric!$M$12:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4444,6 +4540,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4493,7 +4590,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>tools!$S$12:$S$15</c:f>
+              <c:f>Electric!$S$12:$S$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4536,7 +4633,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>tools!$U$12:$U$15</c:f>
+              <c:f>Electric!$U$12:$U$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4765,6 +4862,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4814,7 +4912,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>tools!$AA$12:$AA$15</c:f>
+              <c:f>Electric!$AA$12:$AA$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4857,7 +4955,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>tools!$AC$12:$AC$15</c:f>
+              <c:f>Electric!$AC$12:$AC$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5086,6 +5184,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5178,7 +5277,7 @@
                   <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>497.5</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5394,6 +5493,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5486,7 +5586,7 @@
                   <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>241.60000000000002</c:v>
+                  <c:v>184.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5702,6 +5802,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5794,7 +5895,7 @@
                   <c:v>15.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.100000000000001</c:v>
+                  <c:v>14.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9467,89 +9568,89 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B12:BB24" totalsRowShown="0" headerRowBorderDxfId="83" totalsRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B12:BB24" totalsRowShown="0" headerRowBorderDxfId="88" totalsRowBorderDxfId="87">
   <autoFilter ref="B12:BB24"/>
   <tableColumns count="53">
-    <tableColumn id="1" name="{specialDragonTierDefinitions}" dataDxfId="81"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="80"/>
-    <tableColumn id="3" name="[tier]" dataDxfId="79"/>
-    <tableColumn id="4" name="[specialDragon]" dataDxfId="78"/>
-    <tableColumn id="5" name="[mainProgressionRestriction]" dataDxfId="77"/>
-    <tableColumn id="7" name="[upgradeLevelToUnlock]" dataDxfId="76"/>
-    <tableColumn id="8" name="[defaultSize]" dataDxfId="75"/>
-    <tableColumn id="9" name="[cameraFrameWidthModifier]" dataDxfId="74"/>
-    <tableColumn id="10" name="[health]" dataDxfId="73"/>
-    <tableColumn id="11" name="[healthDrain]" dataDxfId="72"/>
-    <tableColumn id="12" name="[healthDrainSpacePlus]" dataDxfId="71"/>
-    <tableColumn id="13" name="[healthDrainAmpPerSecond]" dataDxfId="70"/>
-    <tableColumn id="14" name="[sessionStartHealthDrainTime]" dataDxfId="69"/>
-    <tableColumn id="15" name="[sessionStartHealthDrainModifier]" dataDxfId="68"/>
-    <tableColumn id="16" name="[scale]" dataDxfId="67"/>
-    <tableColumn id="17" name="[boostMultiplier]" dataDxfId="66"/>
-    <tableColumn id="18" name="[energyBase]" dataDxfId="65"/>
-    <tableColumn id="19" name="[energyDrain]" dataDxfId="64"/>
-    <tableColumn id="20" name="[energyRefillRate]" dataDxfId="63"/>
-    <tableColumn id="21" name="[furyBaseLength]" dataDxfId="62"/>
-    <tableColumn id="22" name="[furyScoreMultiplier]" dataDxfId="61"/>
-    <tableColumn id="23" name="[furyBaseDuration]" dataDxfId="60"/>
-    <tableColumn id="24" name="[furyMax]" dataDxfId="59"/>
-    <tableColumn id="25" name="[scoreTextThresholdMultiplier]" dataDxfId="58"/>
-    <tableColumn id="26" name="[eatSpeedFactor]" dataDxfId="57"/>
-    <tableColumn id="27" name="[maxAlcohol]" dataDxfId="56"/>
-    <tableColumn id="28" name="[alcoholDrain]" dataDxfId="55"/>
-    <tableColumn id="29" name="[gamePrefab]" dataDxfId="54"/>
-    <tableColumn id="30" name="[menuPrefab]" dataDxfId="53"/>
-    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="52"/>
-    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="51"/>
-    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="50"/>
-    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="49"/>
-    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="48"/>
-    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="47"/>
-    <tableColumn id="37" name="[invincible]" dataDxfId="46"/>
-    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="45"/>
-    <tableColumn id="39" name="[eatEverything]" dataDxfId="44"/>
-    <tableColumn id="40" name="[modeDuration]" dataDxfId="43"/>
-    <tableColumn id="41" name="[petScale]" dataDxfId="42"/>
-    <tableColumn id="42" name="[tidName]" dataDxfId="41"/>
-    <tableColumn id="43" name="[tidDesc]" dataDxfId="40"/>
-    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="39"/>
-    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="38"/>
-    <tableColumn id="46" name="[force]" dataDxfId="37"/>
-    <tableColumn id="47" name="[mass]" dataDxfId="36"/>
-    <tableColumn id="48" name="[friction]" dataDxfId="35"/>
-    <tableColumn id="49" name="[gravityModifier]" dataDxfId="34"/>
-    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="33"/>
-    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="32"/>
-    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="31"/>
-    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="30"/>
-    <tableColumn id="54" name="[trackingSku]" dataDxfId="29"/>
+    <tableColumn id="1" name="{specialDragonTierDefinitions}" dataDxfId="86"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="85"/>
+    <tableColumn id="3" name="[tier]" dataDxfId="84"/>
+    <tableColumn id="4" name="[specialDragon]" dataDxfId="83"/>
+    <tableColumn id="5" name="[mainProgressionRestriction]" dataDxfId="82"/>
+    <tableColumn id="7" name="[upgradeLevelToUnlock]" dataDxfId="81"/>
+    <tableColumn id="8" name="[defaultSize]" dataDxfId="80"/>
+    <tableColumn id="9" name="[cameraFrameWidthModifier]" dataDxfId="79"/>
+    <tableColumn id="10" name="[health]" dataDxfId="78"/>
+    <tableColumn id="11" name="[healthDrain]" dataDxfId="77"/>
+    <tableColumn id="12" name="[healthDrainSpacePlus]" dataDxfId="76"/>
+    <tableColumn id="13" name="[healthDrainAmpPerSecond]" dataDxfId="75"/>
+    <tableColumn id="14" name="[sessionStartHealthDrainTime]" dataDxfId="74"/>
+    <tableColumn id="15" name="[sessionStartHealthDrainModifier]" dataDxfId="73"/>
+    <tableColumn id="16" name="[scale]" dataDxfId="72"/>
+    <tableColumn id="17" name="[boostMultiplier]" dataDxfId="71"/>
+    <tableColumn id="18" name="[energyBase]" dataDxfId="70"/>
+    <tableColumn id="19" name="[energyDrain]" dataDxfId="69"/>
+    <tableColumn id="20" name="[energyRefillRate]" dataDxfId="68"/>
+    <tableColumn id="21" name="[furyBaseLength]" dataDxfId="67"/>
+    <tableColumn id="22" name="[furyScoreMultiplier]" dataDxfId="66"/>
+    <tableColumn id="23" name="[furyBaseDuration]" dataDxfId="65"/>
+    <tableColumn id="24" name="[furyMax]" dataDxfId="64"/>
+    <tableColumn id="25" name="[scoreTextThresholdMultiplier]" dataDxfId="63"/>
+    <tableColumn id="26" name="[eatSpeedFactor]" dataDxfId="62"/>
+    <tableColumn id="27" name="[maxAlcohol]" dataDxfId="61"/>
+    <tableColumn id="28" name="[alcoholDrain]" dataDxfId="60"/>
+    <tableColumn id="29" name="[gamePrefab]" dataDxfId="59"/>
+    <tableColumn id="30" name="[menuPrefab]" dataDxfId="58"/>
+    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="57"/>
+    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="56"/>
+    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="55"/>
+    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="54"/>
+    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="53"/>
+    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="52"/>
+    <tableColumn id="37" name="[invincible]" dataDxfId="51"/>
+    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="50"/>
+    <tableColumn id="39" name="[eatEverything]" dataDxfId="49"/>
+    <tableColumn id="40" name="[modeDuration]" dataDxfId="48"/>
+    <tableColumn id="41" name="[petScale]" dataDxfId="47"/>
+    <tableColumn id="42" name="[tidName]" dataDxfId="46"/>
+    <tableColumn id="43" name="[tidDesc]" dataDxfId="45"/>
+    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="44"/>
+    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="43"/>
+    <tableColumn id="46" name="[force]" dataDxfId="42"/>
+    <tableColumn id="47" name="[mass]" dataDxfId="41"/>
+    <tableColumn id="48" name="[friction]" dataDxfId="40"/>
+    <tableColumn id="49" name="[gravityModifier]" dataDxfId="39"/>
+    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="38"/>
+    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="37"/>
+    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="36"/>
+    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="35"/>
+    <tableColumn id="54" name="[trackingSku]" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30">
   <autoFilter ref="B3:T6"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="24"/>
+    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="29"/>
     <tableColumn id="2" name="[sku]"/>
     <tableColumn id="3" name="[type]"/>
-    <tableColumn id="5" name="[order]" dataDxfId="23"/>
-    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="22"/>
-    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="21"/>
-    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="20"/>
-    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="19"/>
-    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="18"/>
-    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="17"/>
-    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="16"/>
-    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="15"/>
-    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="14"/>
-    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="13"/>
-    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="12"/>
-    <tableColumn id="76" name="[stepPrice]" dataDxfId="11"/>
-    <tableColumn id="77" name="[priceCoefA]" dataDxfId="10"/>
-    <tableColumn id="75" name="[priceCoefB]" dataDxfId="9"/>
+    <tableColumn id="5" name="[order]" dataDxfId="28"/>
+    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="27"/>
+    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="26"/>
+    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="25"/>
+    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="24"/>
+    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="23"/>
+    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="22"/>
+    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="21"/>
+    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="20"/>
+    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="19"/>
+    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="18"/>
+    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="17"/>
+    <tableColumn id="76" name="[stepPrice]" dataDxfId="16"/>
+    <tableColumn id="77" name="[priceCoefA]" dataDxfId="15"/>
+    <tableColumn id="75" name="[priceCoefB]" dataDxfId="14"/>
     <tableColumn id="65" name="[trackingSku]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9557,14 +9658,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="B30:F39"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="5"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="4"/>
-    <tableColumn id="3" name="[specialDragon]" dataDxfId="3"/>
-    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="2"/>
-    <tableColumn id="5" name="[icon]" dataDxfId="1">
+    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="10"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="9"/>
+    <tableColumn id="3" name="[specialDragon]" dataDxfId="8"/>
+    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="7"/>
+    <tableColumn id="5" name="[icon]" dataDxfId="6">
       <calculatedColumnFormula>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9837,8 +9938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="S4" workbookViewId="0">
+      <selection activeCell="AH25" sqref="AH25:AN25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9939,6 +10040,17 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P2" t="s">
+        <v>159</v>
+      </c>
+    </row>
     <row r="3" spans="1:54" ht="147" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>66</v>
@@ -9949,205 +10061,229 @@
       <c r="D3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="80" t="s">
+      <c r="I3" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="80" t="s">
+      <c r="J3" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="77" t="s">
+      <c r="K3" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="77" t="s">
+      <c r="L3" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="77" t="s">
+      <c r="M3" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="N3" s="79" t="s">
+      <c r="N3" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="O3" s="79" t="s">
+      <c r="O3" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="P3" s="79" t="s">
+      <c r="P3" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" s="78" t="s">
+      <c r="Q3" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="78" t="s">
+      <c r="R3" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="S3" s="78" t="s">
+      <c r="S3" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="T3" s="68" t="s">
+      <c r="T3" s="52" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="45">
         <v>0</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="46">
         <v>200</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="47">
         <v>400</v>
       </c>
-      <c r="H4" s="75">
+      <c r="H4" s="57">
         <v>30</v>
       </c>
-      <c r="I4" s="75">
+      <c r="I4" s="57">
         <v>0</v>
       </c>
-      <c r="J4" s="75">
+      <c r="J4" s="57">
         <v>100</v>
       </c>
-      <c r="K4" s="73">
+      <c r="K4" s="56">
         <v>30</v>
       </c>
-      <c r="L4" s="73">
+      <c r="L4" s="56">
         <v>0</v>
       </c>
-      <c r="M4" s="73">
+      <c r="M4" s="56">
         <v>50</v>
       </c>
-      <c r="N4" s="81">
+      <c r="N4" s="62">
         <v>30</v>
       </c>
-      <c r="O4" s="81">
+      <c r="O4" s="62">
         <v>0</v>
       </c>
-      <c r="P4" s="81">
+      <c r="P4" s="62">
         <v>50</v>
       </c>
-      <c r="Q4" s="71">
+      <c r="Q4" s="55">
         <v>1</v>
       </c>
-      <c r="R4" s="71">
+      <c r="R4" s="55">
         <v>1</v>
       </c>
-      <c r="S4" s="71">
+      <c r="S4" s="55">
         <v>1</v>
       </c>
-      <c r="T4" s="69" t="s">
+      <c r="T4" s="53" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="45">
         <v>1</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="46">
         <v>200</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="47">
         <v>400</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="57">
         <v>30</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="57">
         <v>0</v>
       </c>
-      <c r="J5" s="75">
+      <c r="J5" s="57">
         <v>100</v>
       </c>
-      <c r="K5" s="73">
+      <c r="K5" s="56">
         <v>30</v>
       </c>
-      <c r="L5" s="73">
+      <c r="L5" s="56">
         <v>0</v>
       </c>
-      <c r="M5" s="73">
+      <c r="M5" s="56">
         <v>50</v>
       </c>
-      <c r="N5" s="81">
+      <c r="N5" s="62">
         <v>30</v>
       </c>
-      <c r="O5" s="81">
+      <c r="O5" s="62">
         <v>0</v>
       </c>
-      <c r="P5" s="81">
+      <c r="P5" s="62">
         <v>50</v>
       </c>
-      <c r="Q5" s="71">
+      <c r="Q5" s="55">
         <v>1</v>
       </c>
-      <c r="R5" s="71">
+      <c r="R5" s="55">
         <v>1</v>
       </c>
-      <c r="S5" s="71">
+      <c r="S5" s="55">
         <v>1</v>
       </c>
-      <c r="T5" s="69" t="s">
+      <c r="T5" s="53" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="45">
         <v>2</v>
       </c>
-      <c r="F6" s="66">
+      <c r="F6" s="50">
         <v>200</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="51">
         <v>400</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="70" t="s">
+      <c r="H6" s="57">
+        <v>30</v>
+      </c>
+      <c r="I6" s="57">
+        <v>0</v>
+      </c>
+      <c r="J6" s="57">
+        <v>100</v>
+      </c>
+      <c r="K6" s="56">
+        <v>30</v>
+      </c>
+      <c r="L6" s="56">
+        <v>0</v>
+      </c>
+      <c r="M6" s="56">
+        <v>50</v>
+      </c>
+      <c r="N6" s="62">
+        <v>30</v>
+      </c>
+      <c r="O6" s="62">
+        <v>0</v>
+      </c>
+      <c r="P6" s="62">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="55">
+        <v>1</v>
+      </c>
+      <c r="R6" s="55">
+        <v>1</v>
+      </c>
+      <c r="S6" s="55">
+        <v>1</v>
+      </c>
+      <c r="T6" s="54" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10431,1498 +10567,1842 @@
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="36">
         <v>0</v>
       </c>
-      <c r="H13" s="130">
+      <c r="H13" s="108">
+        <v>20</v>
+      </c>
+      <c r="I13" s="99">
+        <v>0</v>
+      </c>
+      <c r="J13" s="109">
+        <v>100</v>
+      </c>
+      <c r="K13" s="97">
+        <v>1.5</v>
+      </c>
+      <c r="L13" s="97">
+        <v>0</v>
+      </c>
+      <c r="M13" s="97">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N13" s="97">
+        <v>30</v>
+      </c>
+      <c r="O13" s="97">
+        <v>0.5</v>
+      </c>
+      <c r="P13" s="101">
+        <v>1.25</v>
+      </c>
+      <c r="Q13" s="99">
+        <v>1.2</v>
+      </c>
+      <c r="R13" s="97">
+        <v>100</v>
+      </c>
+      <c r="S13" s="97">
+        <v>25</v>
+      </c>
+      <c r="T13" s="98">
+        <v>35</v>
+      </c>
+      <c r="U13" s="99">
+        <v>9</v>
+      </c>
+      <c r="V13" s="97">
         <v>3</v>
       </c>
-      <c r="I13" s="121">
-        <v>-2</v>
-      </c>
-      <c r="J13" s="132">
-        <v>100</v>
-      </c>
-      <c r="K13" s="119">
-        <v>1.5</v>
-      </c>
-      <c r="L13" s="119">
+      <c r="W13" s="97">
+        <v>9</v>
+      </c>
+      <c r="X13" s="98">
+        <v>8500</v>
+      </c>
+      <c r="Y13" s="100">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="101">
+        <v>0.13</v>
+      </c>
+      <c r="AA13" s="101">
         <v>0</v>
       </c>
-      <c r="M13" s="119">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="N13" s="119">
-        <v>30</v>
-      </c>
-      <c r="O13" s="119">
-        <v>0.5</v>
-      </c>
-      <c r="P13" s="123">
-        <v>0.6</v>
-      </c>
-      <c r="Q13" s="121">
+      <c r="AB13" s="100">
+        <v>12</v>
+      </c>
+      <c r="AC13" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD13" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE13" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="102">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AI13" s="102">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="102">
+        <v>2</v>
+      </c>
+      <c r="AK13" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="102">
+        <v>10</v>
+      </c>
+      <c r="AO13" s="103">
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="40"/>
+      <c r="AR13" s="104">
+        <v>2E-3</v>
+      </c>
+      <c r="AS13" s="105">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AT13" s="110">
+        <v>240</v>
+      </c>
+      <c r="AU13" s="106">
+        <v>2.5</v>
+      </c>
+      <c r="AV13" s="106">
+        <v>9.5</v>
+      </c>
+      <c r="AW13" s="106">
+        <v>1.7</v>
+      </c>
+      <c r="AX13" s="107">
+        <v>0.7</v>
+      </c>
+      <c r="AY13" s="107">
         <v>1.2</v>
       </c>
-      <c r="R13" s="119">
-        <v>100</v>
-      </c>
-      <c r="S13" s="119">
-        <v>25</v>
-      </c>
-      <c r="T13" s="120">
-        <v>35</v>
-      </c>
-      <c r="U13" s="121">
-        <v>9</v>
-      </c>
-      <c r="V13" s="119">
-        <v>3</v>
-      </c>
-      <c r="W13" s="119">
-        <v>9</v>
-      </c>
-      <c r="X13" s="120">
-        <v>8500</v>
-      </c>
-      <c r="Y13" s="122">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="123">
-        <v>0.13</v>
-      </c>
-      <c r="AA13" s="123">
+      <c r="AZ13" s="107">
         <v>0</v>
       </c>
-      <c r="AB13" s="122">
-        <v>12</v>
-      </c>
-      <c r="AC13" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD13" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE13" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="124">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AI13" s="124">
-        <v>2</v>
-      </c>
-      <c r="AJ13" s="124">
-        <v>2</v>
-      </c>
-      <c r="AK13" s="124" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="124" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="124" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="124">
-        <v>10</v>
-      </c>
-      <c r="AO13" s="125">
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="52"/>
-      <c r="AR13" s="126">
-        <v>2E-3</v>
-      </c>
-      <c r="AS13" s="127">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT13" s="133">
-        <v>240</v>
-      </c>
-      <c r="AU13" s="128">
-        <v>2.5</v>
-      </c>
-      <c r="AV13" s="128">
-        <v>9.5</v>
-      </c>
-      <c r="AW13" s="128">
-        <v>1.7</v>
-      </c>
-      <c r="AX13" s="129">
-        <v>0.7</v>
-      </c>
-      <c r="AY13" s="129">
-        <v>1.2</v>
-      </c>
-      <c r="AZ13" s="129">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="129">
+      <c r="BA13" s="107">
         <v>8</v>
       </c>
-      <c r="BB13" s="128" t="s">
+      <c r="BB13" s="106" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="36">
         <v>10</v>
       </c>
-      <c r="H14" s="130">
+      <c r="H14" s="108">
+        <v>22</v>
+      </c>
+      <c r="I14" s="99">
+        <v>0</v>
+      </c>
+      <c r="J14" s="109">
+        <v>150</v>
+      </c>
+      <c r="K14" s="97">
+        <v>1.9</v>
+      </c>
+      <c r="L14" s="97">
+        <v>0</v>
+      </c>
+      <c r="M14" s="97">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N14" s="97">
+        <v>30</v>
+      </c>
+      <c r="O14" s="97">
+        <v>0.6</v>
+      </c>
+      <c r="P14" s="101">
+        <v>1.4</v>
+      </c>
+      <c r="Q14" s="99">
+        <v>1.2</v>
+      </c>
+      <c r="R14" s="97">
+        <v>120</v>
+      </c>
+      <c r="S14" s="97">
+        <v>25</v>
+      </c>
+      <c r="T14" s="98">
+        <v>35</v>
+      </c>
+      <c r="U14" s="99">
+        <v>11</v>
+      </c>
+      <c r="V14" s="97">
+        <v>4</v>
+      </c>
+      <c r="W14" s="97">
+        <v>10</v>
+      </c>
+      <c r="X14" s="98">
+        <v>15000</v>
+      </c>
+      <c r="Y14" s="100">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="101">
+        <v>0.08</v>
+      </c>
+      <c r="AA14" s="101">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="100">
+        <v>12</v>
+      </c>
+      <c r="AC14" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD14" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE14" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="102">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI14" s="102">
+        <v>2</v>
+      </c>
+      <c r="AJ14" s="102">
+        <v>2</v>
+      </c>
+      <c r="AK14" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="102">
+        <v>10</v>
+      </c>
+      <c r="AO14" s="103">
+        <v>0.7</v>
+      </c>
+      <c r="AP14" s="39"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="104">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AS14" s="105">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AT14" s="110">
+        <v>255</v>
+      </c>
+      <c r="AU14" s="106">
+        <v>2.5</v>
+      </c>
+      <c r="AV14" s="106">
+        <v>9.5</v>
+      </c>
+      <c r="AW14" s="106">
+        <v>1.7</v>
+      </c>
+      <c r="AX14" s="107">
+        <v>0.7</v>
+      </c>
+      <c r="AY14" s="107">
+        <v>1.2</v>
+      </c>
+      <c r="AZ14" s="107">
+        <v>9</v>
+      </c>
+      <c r="BA14" s="107">
         <v>8</v>
       </c>
-      <c r="I14" s="121">
-        <v>0</v>
-      </c>
-      <c r="J14" s="132">
-        <v>150</v>
-      </c>
-      <c r="K14" s="119">
-        <v>1.9</v>
-      </c>
-      <c r="L14" s="119">
-        <v>0</v>
-      </c>
-      <c r="M14" s="119">
-        <v>1.2E-2</v>
-      </c>
-      <c r="N14" s="119">
-        <v>30</v>
-      </c>
-      <c r="O14" s="119">
-        <v>0.6</v>
-      </c>
-      <c r="P14" s="123">
-        <v>0.95</v>
-      </c>
-      <c r="Q14" s="121">
-        <v>1.2</v>
-      </c>
-      <c r="R14" s="119">
-        <v>120</v>
-      </c>
-      <c r="S14" s="119">
-        <v>25</v>
-      </c>
-      <c r="T14" s="120">
-        <v>35</v>
-      </c>
-      <c r="U14" s="121">
-        <v>11</v>
-      </c>
-      <c r="V14" s="119">
-        <v>4</v>
-      </c>
-      <c r="W14" s="119">
-        <v>10</v>
-      </c>
-      <c r="X14" s="120">
-        <v>15000</v>
-      </c>
-      <c r="Y14" s="122">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="123">
-        <v>0.08</v>
-      </c>
-      <c r="AA14" s="123">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="122">
-        <v>12</v>
-      </c>
-      <c r="AC14" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD14" s="124" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE14" s="124" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="50"/>
-      <c r="AH14" s="124">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AI14" s="124">
-        <v>2</v>
-      </c>
-      <c r="AJ14" s="124">
-        <v>2</v>
-      </c>
-      <c r="AK14" s="124" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="124" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="124" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="124">
-        <v>10</v>
-      </c>
-      <c r="AO14" s="125">
-        <v>0.7</v>
-      </c>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="52"/>
-      <c r="AR14" s="126">
-        <v>1.8E-3</v>
-      </c>
-      <c r="AS14" s="127">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT14" s="133">
-        <v>255</v>
-      </c>
-      <c r="AU14" s="128">
-        <v>2.5</v>
-      </c>
-      <c r="AV14" s="128">
-        <v>9.5</v>
-      </c>
-      <c r="AW14" s="128">
-        <v>1.7</v>
-      </c>
-      <c r="AX14" s="129">
-        <v>0.7</v>
-      </c>
-      <c r="AY14" s="129">
-        <v>1.2</v>
-      </c>
-      <c r="AZ14" s="129">
-        <v>9</v>
-      </c>
-      <c r="BA14" s="129">
-        <v>8</v>
-      </c>
-      <c r="BB14" s="128" t="s">
+      <c r="BB14" s="106" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="36">
         <v>20</v>
       </c>
-      <c r="H15" s="130">
-        <v>17</v>
-      </c>
-      <c r="I15" s="121">
+      <c r="H15" s="108">
+        <v>24</v>
+      </c>
+      <c r="I15" s="99">
         <v>0</v>
       </c>
-      <c r="J15" s="132">
+      <c r="J15" s="109">
         <v>200</v>
       </c>
-      <c r="K15" s="119">
+      <c r="K15" s="97">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L15" s="119">
+      <c r="L15" s="97">
         <v>0</v>
       </c>
-      <c r="M15" s="119">
+      <c r="M15" s="97">
         <v>1.4E-2</v>
       </c>
-      <c r="N15" s="119">
+      <c r="N15" s="97">
         <v>25</v>
       </c>
-      <c r="O15" s="119">
+      <c r="O15" s="97">
         <v>0.7</v>
       </c>
-      <c r="P15" s="123">
+      <c r="P15" s="101">
         <v>1.55</v>
       </c>
-      <c r="Q15" s="121">
+      <c r="Q15" s="99">
         <v>1.2</v>
       </c>
-      <c r="R15" s="119">
+      <c r="R15" s="97">
         <v>140</v>
       </c>
-      <c r="S15" s="119">
+      <c r="S15" s="97">
         <v>25</v>
       </c>
-      <c r="T15" s="120">
+      <c r="T15" s="98">
         <v>35</v>
       </c>
-      <c r="U15" s="121">
+      <c r="U15" s="99">
         <v>11.5</v>
       </c>
-      <c r="V15" s="119">
+      <c r="V15" s="97">
         <v>5</v>
       </c>
-      <c r="W15" s="119">
+      <c r="W15" s="97">
         <v>10</v>
       </c>
-      <c r="X15" s="120">
+      <c r="X15" s="98">
         <v>27000</v>
       </c>
-      <c r="Y15" s="122">
+      <c r="Y15" s="100">
         <v>4</v>
       </c>
-      <c r="Z15" s="123">
+      <c r="Z15" s="101">
         <v>0.05</v>
       </c>
-      <c r="AA15" s="123">
+      <c r="AA15" s="101">
         <v>0</v>
       </c>
-      <c r="AB15" s="122">
+      <c r="AB15" s="100">
         <v>12</v>
       </c>
-      <c r="AC15" s="49" t="s">
+      <c r="AC15" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="AD15" s="124" t="s">
+      <c r="AD15" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AE15" s="124" t="s">
+      <c r="AE15" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="50"/>
-      <c r="AH15" s="124">
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="102">
         <v>2.1</v>
       </c>
-      <c r="AI15" s="124">
+      <c r="AI15" s="102">
         <v>2</v>
       </c>
-      <c r="AJ15" s="124">
+      <c r="AJ15" s="102">
         <v>2</v>
       </c>
-      <c r="AK15" s="124" t="b">
+      <c r="AK15" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AL15" s="124" t="b">
+      <c r="AL15" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AM15" s="124" t="b">
+      <c r="AM15" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AN15" s="124">
+      <c r="AN15" s="102">
         <v>10</v>
       </c>
-      <c r="AO15" s="125">
+      <c r="AO15" s="103">
         <v>0.7</v>
       </c>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="52"/>
-      <c r="AR15" s="126">
+      <c r="AP15" s="39"/>
+      <c r="AQ15" s="40"/>
+      <c r="AR15" s="104">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AS15" s="127">
+      <c r="AS15" s="105">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT15" s="133">
+      <c r="AT15" s="110">
         <v>270</v>
       </c>
-      <c r="AU15" s="128">
+      <c r="AU15" s="106">
         <v>2.5</v>
       </c>
-      <c r="AV15" s="128">
+      <c r="AV15" s="106">
         <v>9.5</v>
       </c>
-      <c r="AW15" s="128">
+      <c r="AW15" s="106">
         <v>1.7</v>
       </c>
-      <c r="AX15" s="129">
+      <c r="AX15" s="107">
         <v>0.7</v>
       </c>
-      <c r="AY15" s="129">
+      <c r="AY15" s="107">
         <v>1.2</v>
       </c>
-      <c r="AZ15" s="129">
+      <c r="AZ15" s="107">
         <v>45</v>
       </c>
-      <c r="BA15" s="129">
+      <c r="BA15" s="107">
         <v>15</v>
       </c>
-      <c r="BB15" s="128" t="s">
+      <c r="BB15" s="106" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="36">
         <v>30</v>
       </c>
-      <c r="H16" s="130">
+      <c r="H16" s="108">
         <v>25</v>
       </c>
-      <c r="I16" s="121">
+      <c r="I16" s="99">
         <v>0</v>
       </c>
-      <c r="J16" s="132">
+      <c r="J16" s="109">
         <v>250</v>
       </c>
-      <c r="K16" s="119">
+      <c r="K16" s="97">
         <v>2.4</v>
       </c>
-      <c r="L16" s="119">
+      <c r="L16" s="97">
         <v>0</v>
       </c>
-      <c r="M16" s="119">
+      <c r="M16" s="97">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="N16" s="119">
+      <c r="N16" s="97">
         <v>20</v>
       </c>
-      <c r="O16" s="119">
+      <c r="O16" s="97">
         <v>0.8</v>
       </c>
-      <c r="P16" s="123">
-        <v>1.9</v>
-      </c>
-      <c r="Q16" s="121">
+      <c r="P16" s="101">
+        <v>1.75</v>
+      </c>
+      <c r="Q16" s="99">
         <v>1.2</v>
       </c>
-      <c r="R16" s="119">
+      <c r="R16" s="97">
         <v>160</v>
       </c>
-      <c r="S16" s="119">
+      <c r="S16" s="97">
         <v>25</v>
       </c>
-      <c r="T16" s="120">
+      <c r="T16" s="98">
         <v>35</v>
       </c>
-      <c r="U16" s="121">
+      <c r="U16" s="99">
         <v>12</v>
       </c>
-      <c r="V16" s="119">
+      <c r="V16" s="97">
         <v>6</v>
       </c>
-      <c r="W16" s="119">
+      <c r="W16" s="97">
         <v>10</v>
       </c>
-      <c r="X16" s="120">
+      <c r="X16" s="98">
         <v>45000</v>
       </c>
-      <c r="Y16" s="122">
+      <c r="Y16" s="100">
         <v>5</v>
       </c>
-      <c r="Z16" s="123">
+      <c r="Z16" s="101">
         <v>0.04</v>
       </c>
-      <c r="AA16" s="123">
+      <c r="AA16" s="101">
         <v>0</v>
       </c>
-      <c r="AB16" s="122">
+      <c r="AB16" s="100">
         <v>12</v>
       </c>
-      <c r="AC16" s="49" t="s">
+      <c r="AC16" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="AD16" s="124" t="s">
+      <c r="AD16" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="AE16" s="124" t="s">
+      <c r="AE16" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="50"/>
-      <c r="AH16" s="124">
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="102">
         <v>2.1</v>
       </c>
-      <c r="AI16" s="124">
+      <c r="AI16" s="102">
         <v>2</v>
       </c>
-      <c r="AJ16" s="124">
+      <c r="AJ16" s="102">
         <v>2</v>
       </c>
-      <c r="AK16" s="124" t="b">
+      <c r="AK16" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AL16" s="124" t="b">
+      <c r="AL16" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AM16" s="124" t="b">
+      <c r="AM16" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AN16" s="124">
+      <c r="AN16" s="102">
         <v>10</v>
       </c>
-      <c r="AO16" s="125">
+      <c r="AO16" s="103">
         <v>0.7</v>
       </c>
-      <c r="AP16" s="51"/>
-      <c r="AQ16" s="52"/>
-      <c r="AR16" s="126">
+      <c r="AP16" s="39"/>
+      <c r="AQ16" s="40"/>
+      <c r="AR16" s="104">
         <v>1.5E-3</v>
       </c>
-      <c r="AS16" s="127">
+      <c r="AS16" s="105">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT16" s="133">
+      <c r="AT16" s="110">
         <v>285</v>
       </c>
-      <c r="AU16" s="128">
+      <c r="AU16" s="106">
         <v>2.5</v>
       </c>
-      <c r="AV16" s="128">
+      <c r="AV16" s="106">
         <v>9.5</v>
       </c>
-      <c r="AW16" s="128">
+      <c r="AW16" s="106">
         <v>1.7</v>
       </c>
-      <c r="AX16" s="129">
+      <c r="AX16" s="107">
         <v>0.7</v>
       </c>
-      <c r="AY16" s="129">
+      <c r="AY16" s="107">
         <v>1.2</v>
       </c>
-      <c r="AZ16" s="129">
+      <c r="AZ16" s="107">
         <v>59</v>
       </c>
-      <c r="BA16" s="129">
+      <c r="BA16" s="107">
         <v>15</v>
       </c>
-      <c r="BB16" s="128" t="s">
+      <c r="BB16" s="106" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="129">
         <v>0</v>
       </c>
       <c r="H17" s="130">
         <v>3</v>
       </c>
-      <c r="I17" s="121">
+      <c r="I17" s="131">
         <v>-2</v>
       </c>
-      <c r="J17" s="131">
+      <c r="J17" s="132">
         <v>100</v>
       </c>
-      <c r="K17" s="119">
+      <c r="K17" s="133">
         <v>1.5</v>
       </c>
-      <c r="L17" s="119">
+      <c r="L17" s="133">
         <v>0</v>
       </c>
-      <c r="M17" s="119">
+      <c r="M17" s="133">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N17" s="119">
+      <c r="N17" s="133">
         <v>30</v>
       </c>
-      <c r="O17" s="119">
+      <c r="O17" s="133">
         <v>0.5</v>
       </c>
-      <c r="P17" s="123">
+      <c r="P17" s="134">
         <v>0.6</v>
       </c>
-      <c r="Q17" s="39">
+      <c r="Q17" s="135">
         <v>1.2</v>
       </c>
-      <c r="R17" s="41">
+      <c r="R17" s="136">
         <v>100</v>
       </c>
-      <c r="S17" s="119">
+      <c r="S17" s="133">
         <v>25</v>
       </c>
-      <c r="T17" s="120">
+      <c r="T17" s="137">
         <v>35</v>
       </c>
-      <c r="U17" s="121">
+      <c r="U17" s="131">
         <v>9</v>
       </c>
-      <c r="V17" s="119">
+      <c r="V17" s="133">
         <v>3</v>
       </c>
-      <c r="W17" s="119">
+      <c r="W17" s="133">
         <v>9</v>
       </c>
-      <c r="X17" s="120">
+      <c r="X17" s="137">
         <v>8500</v>
       </c>
-      <c r="Y17" s="48">
+      <c r="Y17" s="138">
         <v>2</v>
       </c>
-      <c r="Z17" s="47">
+      <c r="Z17" s="139">
         <v>0.13</v>
       </c>
-      <c r="AA17" s="123">
+      <c r="AA17" s="134">
         <v>0</v>
       </c>
-      <c r="AB17" s="122">
+      <c r="AB17" s="140">
         <v>12</v>
       </c>
-      <c r="AC17" s="49" t="s">
+      <c r="AC17" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="AD17" s="124" t="s">
+      <c r="AD17" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="AE17" s="124" t="s">
+      <c r="AE17" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="124">
+      <c r="AF17" s="143"/>
+      <c r="AG17" s="143"/>
+      <c r="AH17" s="142">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI17" s="124">
+      <c r="AI17" s="142">
         <v>2</v>
       </c>
-      <c r="AJ17" s="124">
+      <c r="AJ17" s="142">
         <v>2</v>
       </c>
-      <c r="AK17" s="124" t="b">
+      <c r="AK17" s="142" t="b">
         <v>1</v>
       </c>
-      <c r="AL17" s="124" t="b">
+      <c r="AL17" s="142" t="b">
         <v>1</v>
       </c>
-      <c r="AM17" s="124" t="b">
+      <c r="AM17" s="142" t="b">
         <v>1</v>
       </c>
-      <c r="AN17" s="124">
+      <c r="AN17" s="142">
         <v>10</v>
       </c>
-      <c r="AO17" s="125">
+      <c r="AO17" s="144">
         <v>0.55999999999999994</v>
       </c>
-      <c r="AP17" s="51"/>
-      <c r="AQ17" s="52"/>
-      <c r="AR17" s="126">
+      <c r="AP17" s="145"/>
+      <c r="AQ17" s="146"/>
+      <c r="AR17" s="147">
         <v>2E-3</v>
       </c>
-      <c r="AS17" s="127">
+      <c r="AS17" s="148">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT17" s="55">
+      <c r="AT17" s="149">
         <v>240</v>
       </c>
-      <c r="AU17" s="31">
+      <c r="AU17" s="150">
         <v>2.5</v>
       </c>
-      <c r="AV17" s="31">
+      <c r="AV17" s="150">
         <v>9.5</v>
       </c>
-      <c r="AW17" s="31">
+      <c r="AW17" s="150">
         <v>1.7</v>
       </c>
-      <c r="AX17" s="129">
+      <c r="AX17" s="151">
         <v>0.7</v>
       </c>
-      <c r="AY17" s="129">
+      <c r="AY17" s="151">
         <v>1.2</v>
       </c>
-      <c r="AZ17" s="129">
+      <c r="AZ17" s="151">
         <v>0</v>
       </c>
-      <c r="BA17" s="129">
+      <c r="BA17" s="151">
         <v>8</v>
       </c>
-      <c r="BB17" s="128" t="s">
+      <c r="BB17" s="152" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="125" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="129">
         <v>10</v>
       </c>
       <c r="H18" s="130">
         <v>8</v>
       </c>
-      <c r="I18" s="121">
+      <c r="I18" s="131">
         <v>0</v>
       </c>
-      <c r="J18" s="131">
+      <c r="J18" s="132">
         <v>150</v>
       </c>
-      <c r="K18" s="119">
+      <c r="K18" s="133">
         <v>1.9</v>
       </c>
-      <c r="L18" s="119">
+      <c r="L18" s="133">
         <v>0</v>
       </c>
-      <c r="M18" s="119">
+      <c r="M18" s="133">
         <v>1.2E-2</v>
       </c>
-      <c r="N18" s="119">
+      <c r="N18" s="133">
         <v>30</v>
       </c>
-      <c r="O18" s="119">
+      <c r="O18" s="133">
         <v>0.6</v>
       </c>
-      <c r="P18" s="123">
+      <c r="P18" s="134">
         <v>0.95</v>
       </c>
-      <c r="Q18" s="39">
+      <c r="Q18" s="135">
         <v>1.2</v>
       </c>
-      <c r="R18" s="41">
+      <c r="R18" s="136">
         <v>120</v>
       </c>
-      <c r="S18" s="119">
+      <c r="S18" s="133">
         <v>25</v>
       </c>
-      <c r="T18" s="120">
+      <c r="T18" s="137">
         <v>35</v>
       </c>
-      <c r="U18" s="121">
+      <c r="U18" s="131">
         <v>11</v>
       </c>
-      <c r="V18" s="119">
+      <c r="V18" s="133">
         <v>4</v>
       </c>
-      <c r="W18" s="119">
+      <c r="W18" s="133">
         <v>10</v>
       </c>
-      <c r="X18" s="120">
+      <c r="X18" s="137">
         <v>15000</v>
       </c>
-      <c r="Y18" s="48">
+      <c r="Y18" s="138">
         <v>3</v>
       </c>
-      <c r="Z18" s="47">
+      <c r="Z18" s="139">
         <v>0.08</v>
       </c>
-      <c r="AA18" s="123">
+      <c r="AA18" s="134">
         <v>0</v>
       </c>
-      <c r="AB18" s="122">
+      <c r="AB18" s="140">
         <v>12</v>
       </c>
-      <c r="AC18" s="49" t="s">
+      <c r="AC18" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="AD18" s="124" t="s">
+      <c r="AD18" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="AE18" s="124" t="s">
+      <c r="AE18" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="124">
+      <c r="AF18" s="143"/>
+      <c r="AG18" s="143"/>
+      <c r="AH18" s="142">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AI18" s="124">
+      <c r="AI18" s="142">
         <v>2</v>
       </c>
-      <c r="AJ18" s="124">
+      <c r="AJ18" s="142">
         <v>2</v>
       </c>
-      <c r="AK18" s="124" t="b">
+      <c r="AK18" s="142" t="b">
         <v>1</v>
       </c>
-      <c r="AL18" s="124" t="b">
+      <c r="AL18" s="142" t="b">
         <v>1</v>
       </c>
-      <c r="AM18" s="124" t="b">
+      <c r="AM18" s="142" t="b">
         <v>1</v>
       </c>
-      <c r="AN18" s="124">
+      <c r="AN18" s="142">
         <v>10</v>
       </c>
-      <c r="AO18" s="125">
+      <c r="AO18" s="144">
         <v>0.7</v>
       </c>
-      <c r="AP18" s="51"/>
-      <c r="AQ18" s="52"/>
-      <c r="AR18" s="126">
+      <c r="AP18" s="145"/>
+      <c r="AQ18" s="146"/>
+      <c r="AR18" s="147">
         <v>1.8E-3</v>
       </c>
-      <c r="AS18" s="127">
+      <c r="AS18" s="148">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT18" s="55">
+      <c r="AT18" s="149">
         <v>255</v>
       </c>
-      <c r="AU18" s="31">
+      <c r="AU18" s="150">
         <v>2.5</v>
       </c>
-      <c r="AV18" s="31">
+      <c r="AV18" s="150">
         <v>9.5</v>
       </c>
-      <c r="AW18" s="31">
+      <c r="AW18" s="150">
         <v>1.7</v>
       </c>
-      <c r="AX18" s="129">
+      <c r="AX18" s="151">
         <v>0.7</v>
       </c>
-      <c r="AY18" s="129">
+      <c r="AY18" s="151">
         <v>1.2</v>
       </c>
-      <c r="AZ18" s="129">
+      <c r="AZ18" s="151">
         <v>9</v>
       </c>
-      <c r="BA18" s="129">
+      <c r="BA18" s="151">
         <v>8</v>
       </c>
-      <c r="BB18" s="128" t="s">
+      <c r="BB18" s="152" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="129">
         <v>20</v>
       </c>
       <c r="H19" s="130">
         <v>17</v>
       </c>
-      <c r="I19" s="121">
+      <c r="I19" s="131">
         <v>0</v>
       </c>
-      <c r="J19" s="131">
+      <c r="J19" s="132">
         <v>200</v>
       </c>
-      <c r="K19" s="119">
+      <c r="K19" s="133">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L19" s="119">
+      <c r="L19" s="133">
         <v>0</v>
       </c>
-      <c r="M19" s="119">
+      <c r="M19" s="133">
         <v>1.4E-2</v>
       </c>
-      <c r="N19" s="119">
+      <c r="N19" s="133">
         <v>25</v>
       </c>
-      <c r="O19" s="119">
+      <c r="O19" s="133">
         <v>0.7</v>
       </c>
-      <c r="P19" s="123">
+      <c r="P19" s="134">
         <v>1.55</v>
       </c>
-      <c r="Q19" s="39">
+      <c r="Q19" s="135">
         <v>1.2</v>
       </c>
-      <c r="R19" s="41">
+      <c r="R19" s="136">
         <v>140</v>
       </c>
-      <c r="S19" s="119">
+      <c r="S19" s="133">
         <v>25</v>
       </c>
-      <c r="T19" s="120">
+      <c r="T19" s="137">
         <v>35</v>
       </c>
-      <c r="U19" s="121">
+      <c r="U19" s="131">
         <v>11.5</v>
       </c>
-      <c r="V19" s="119">
+      <c r="V19" s="133">
         <v>5</v>
       </c>
-      <c r="W19" s="119">
+      <c r="W19" s="133">
         <v>10</v>
       </c>
-      <c r="X19" s="120">
+      <c r="X19" s="137">
         <v>27000</v>
       </c>
-      <c r="Y19" s="48">
+      <c r="Y19" s="138">
         <v>4</v>
       </c>
-      <c r="Z19" s="47">
+      <c r="Z19" s="139">
         <v>0.05</v>
       </c>
-      <c r="AA19" s="123">
+      <c r="AA19" s="134">
         <v>0</v>
       </c>
-      <c r="AB19" s="122">
+      <c r="AB19" s="140">
         <v>12</v>
       </c>
-      <c r="AC19" s="49" t="s">
+      <c r="AC19" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="AD19" s="124" t="s">
+      <c r="AD19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="AE19" s="124" t="s">
+      <c r="AE19" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="AF19" s="50"/>
-      <c r="AG19" s="50"/>
-      <c r="AH19" s="124">
+      <c r="AF19" s="143"/>
+      <c r="AG19" s="143"/>
+      <c r="AH19" s="142">
         <v>2.1</v>
       </c>
-      <c r="AI19" s="124">
+      <c r="AI19" s="142">
         <v>2</v>
       </c>
-      <c r="AJ19" s="124">
+      <c r="AJ19" s="142">
         <v>2</v>
       </c>
-      <c r="AK19" s="124" t="b">
+      <c r="AK19" s="142" t="b">
         <v>1</v>
       </c>
-      <c r="AL19" s="124" t="b">
+      <c r="AL19" s="142" t="b">
         <v>1</v>
       </c>
-      <c r="AM19" s="124" t="b">
+      <c r="AM19" s="142" t="b">
         <v>1</v>
       </c>
-      <c r="AN19" s="124">
+      <c r="AN19" s="142">
         <v>10</v>
       </c>
-      <c r="AO19" s="125">
+      <c r="AO19" s="144">
         <v>0.7</v>
       </c>
-      <c r="AP19" s="51"/>
-      <c r="AQ19" s="52"/>
-      <c r="AR19" s="126">
+      <c r="AP19" s="145"/>
+      <c r="AQ19" s="146"/>
+      <c r="AR19" s="147">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AS19" s="127">
+      <c r="AS19" s="148">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT19" s="55">
+      <c r="AT19" s="149">
         <v>270</v>
       </c>
-      <c r="AU19" s="31">
+      <c r="AU19" s="150">
         <v>2.5</v>
       </c>
-      <c r="AV19" s="31">
+      <c r="AV19" s="150">
         <v>9.5</v>
       </c>
-      <c r="AW19" s="31">
+      <c r="AW19" s="150">
         <v>1.7</v>
       </c>
-      <c r="AX19" s="129">
+      <c r="AX19" s="151">
         <v>0.7</v>
       </c>
-      <c r="AY19" s="129">
+      <c r="AY19" s="151">
         <v>1.2</v>
       </c>
-      <c r="AZ19" s="129">
+      <c r="AZ19" s="151">
         <v>45</v>
       </c>
-      <c r="BA19" s="129">
+      <c r="BA19" s="151">
         <v>15</v>
       </c>
-      <c r="BB19" s="128" t="s">
+      <c r="BB19" s="152" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="125" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="129">
         <v>30</v>
       </c>
       <c r="H20" s="130">
         <v>25</v>
       </c>
-      <c r="I20" s="121">
+      <c r="I20" s="131">
         <v>0</v>
       </c>
-      <c r="J20" s="131">
+      <c r="J20" s="132">
         <v>250</v>
       </c>
-      <c r="K20" s="119">
+      <c r="K20" s="133">
         <v>2.4</v>
       </c>
-      <c r="L20" s="119">
+      <c r="L20" s="133">
         <v>0</v>
       </c>
-      <c r="M20" s="119">
+      <c r="M20" s="133">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="N20" s="119">
+      <c r="N20" s="133">
         <v>20</v>
       </c>
-      <c r="O20" s="119">
+      <c r="O20" s="133">
         <v>0.8</v>
       </c>
-      <c r="P20" s="123">
+      <c r="P20" s="134">
         <v>1.9</v>
       </c>
-      <c r="Q20" s="39">
+      <c r="Q20" s="135">
         <v>1.2</v>
       </c>
-      <c r="R20" s="41">
+      <c r="R20" s="136">
         <v>160</v>
       </c>
-      <c r="S20" s="119">
+      <c r="S20" s="133">
         <v>25</v>
       </c>
-      <c r="T20" s="120">
+      <c r="T20" s="137">
         <v>35</v>
       </c>
-      <c r="U20" s="121">
+      <c r="U20" s="131">
         <v>12</v>
       </c>
-      <c r="V20" s="119">
+      <c r="V20" s="133">
         <v>6</v>
       </c>
-      <c r="W20" s="119">
+      <c r="W20" s="133">
         <v>10</v>
       </c>
-      <c r="X20" s="120">
+      <c r="X20" s="137">
         <v>45000</v>
       </c>
-      <c r="Y20" s="48">
+      <c r="Y20" s="138">
         <v>5</v>
       </c>
-      <c r="Z20" s="47">
+      <c r="Z20" s="139">
         <v>0.04</v>
       </c>
-      <c r="AA20" s="123">
+      <c r="AA20" s="134">
         <v>0</v>
       </c>
-      <c r="AB20" s="122">
+      <c r="AB20" s="140">
         <v>12</v>
       </c>
-      <c r="AC20" s="49" t="s">
+      <c r="AC20" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="AD20" s="124" t="s">
+      <c r="AD20" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="AE20" s="124" t="s">
+      <c r="AE20" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="50"/>
-      <c r="AH20" s="124">
+      <c r="AF20" s="143"/>
+      <c r="AG20" s="143"/>
+      <c r="AH20" s="142">
         <v>2.1</v>
       </c>
-      <c r="AI20" s="124">
+      <c r="AI20" s="142">
         <v>2</v>
       </c>
-      <c r="AJ20" s="124">
+      <c r="AJ20" s="142">
         <v>2</v>
       </c>
-      <c r="AK20" s="124" t="b">
+      <c r="AK20" s="142" t="b">
         <v>1</v>
       </c>
-      <c r="AL20" s="124" t="b">
+      <c r="AL20" s="142" t="b">
         <v>1</v>
       </c>
-      <c r="AM20" s="124" t="b">
+      <c r="AM20" s="142" t="b">
         <v>1</v>
       </c>
-      <c r="AN20" s="124">
+      <c r="AN20" s="142">
         <v>10</v>
       </c>
-      <c r="AO20" s="125">
+      <c r="AO20" s="144">
         <v>0.7</v>
       </c>
-      <c r="AP20" s="51"/>
-      <c r="AQ20" s="52"/>
-      <c r="AR20" s="126">
+      <c r="AP20" s="145"/>
+      <c r="AQ20" s="146"/>
+      <c r="AR20" s="147">
         <v>1.5E-3</v>
       </c>
-      <c r="AS20" s="127">
+      <c r="AS20" s="148">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT20" s="55">
+      <c r="AT20" s="149">
         <v>285</v>
       </c>
-      <c r="AU20" s="31">
+      <c r="AU20" s="150">
         <v>2.5</v>
       </c>
-      <c r="AV20" s="31">
+      <c r="AV20" s="150">
         <v>9.5</v>
       </c>
-      <c r="AW20" s="31">
+      <c r="AW20" s="150">
         <v>1.7</v>
       </c>
-      <c r="AX20" s="129">
+      <c r="AX20" s="151">
         <v>0.7</v>
       </c>
-      <c r="AY20" s="129">
+      <c r="AY20" s="151">
         <v>1.2</v>
       </c>
-      <c r="AZ20" s="129">
+      <c r="AZ20" s="151">
         <v>59</v>
       </c>
-      <c r="BA20" s="129">
+      <c r="BA20" s="151">
         <v>15</v>
       </c>
-      <c r="BB20" s="128" t="s">
+      <c r="BB20" s="152" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="36">
         <v>0</v>
       </c>
-      <c r="H21" s="38"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="49"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50"/>
-      <c r="AH21" s="50"/>
-      <c r="AI21" s="50"/>
-      <c r="AJ21" s="50"/>
-      <c r="AK21" s="50"/>
-      <c r="AL21" s="50"/>
-      <c r="AM21" s="50"/>
-      <c r="AN21" s="50"/>
-      <c r="AO21" s="101"/>
-      <c r="AP21" s="51"/>
-      <c r="AQ21" s="52"/>
-      <c r="AR21" s="53"/>
-      <c r="AS21" s="54"/>
-      <c r="AT21" s="55"/>
-      <c r="AU21" s="31"/>
-      <c r="AV21" s="31"/>
-      <c r="AW21" s="31"/>
-      <c r="AX21" s="56"/>
-      <c r="AY21" s="56"/>
-      <c r="AZ21" s="56"/>
-      <c r="BA21" s="56"/>
-      <c r="BB21" s="31"/>
+      <c r="H21" s="108">
+        <v>3</v>
+      </c>
+      <c r="I21" s="99">
+        <v>-2</v>
+      </c>
+      <c r="J21" s="109">
+        <v>100</v>
+      </c>
+      <c r="K21" s="97">
+        <v>1.5</v>
+      </c>
+      <c r="L21" s="97">
+        <v>0</v>
+      </c>
+      <c r="M21" s="97">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N21" s="97">
+        <v>30</v>
+      </c>
+      <c r="O21" s="97">
+        <v>0.5</v>
+      </c>
+      <c r="P21" s="101">
+        <v>0.6</v>
+      </c>
+      <c r="Q21" s="99">
+        <v>1.2</v>
+      </c>
+      <c r="R21" s="97">
+        <v>100</v>
+      </c>
+      <c r="S21" s="97">
+        <v>25</v>
+      </c>
+      <c r="T21" s="98">
+        <v>35</v>
+      </c>
+      <c r="U21" s="99">
+        <v>9</v>
+      </c>
+      <c r="V21" s="97">
+        <v>3</v>
+      </c>
+      <c r="W21" s="97">
+        <v>9</v>
+      </c>
+      <c r="X21" s="98">
+        <v>8500</v>
+      </c>
+      <c r="Y21" s="100">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="101">
+        <v>0.13</v>
+      </c>
+      <c r="AA21" s="101">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="100">
+        <v>12</v>
+      </c>
+      <c r="AC21" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD21" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE21" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="102">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AI21" s="102">
+        <v>2</v>
+      </c>
+      <c r="AJ21" s="102">
+        <v>2</v>
+      </c>
+      <c r="AK21" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="102">
+        <v>10</v>
+      </c>
+      <c r="AO21" s="103">
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="AP21" s="39"/>
+      <c r="AQ21" s="40"/>
+      <c r="AR21" s="104">
+        <v>2E-3</v>
+      </c>
+      <c r="AS21" s="105">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AT21" s="110">
+        <v>240</v>
+      </c>
+      <c r="AU21" s="106">
+        <v>2.5</v>
+      </c>
+      <c r="AV21" s="106">
+        <v>9.5</v>
+      </c>
+      <c r="AW21" s="106">
+        <v>1.7</v>
+      </c>
+      <c r="AX21" s="107">
+        <v>0.7</v>
+      </c>
+      <c r="AY21" s="107">
+        <v>1.2</v>
+      </c>
+      <c r="AZ21" s="107">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="107">
+        <v>8</v>
+      </c>
+      <c r="BB21" s="106" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="36">
         <v>10</v>
       </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="49"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="50"/>
-      <c r="AH22" s="50"/>
-      <c r="AI22" s="50"/>
-      <c r="AJ22" s="50"/>
-      <c r="AK22" s="50"/>
-      <c r="AL22" s="50"/>
-      <c r="AM22" s="50"/>
-      <c r="AN22" s="50"/>
-      <c r="AO22" s="101"/>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="52"/>
-      <c r="AR22" s="53"/>
-      <c r="AS22" s="54"/>
-      <c r="AT22" s="55"/>
-      <c r="AU22" s="31"/>
-      <c r="AV22" s="31"/>
-      <c r="AW22" s="31"/>
-      <c r="AX22" s="56"/>
-      <c r="AY22" s="56"/>
-      <c r="AZ22" s="56"/>
-      <c r="BA22" s="56"/>
-      <c r="BB22" s="31"/>
+      <c r="H22" s="108">
+        <v>8</v>
+      </c>
+      <c r="I22" s="99">
+        <v>0</v>
+      </c>
+      <c r="J22" s="109">
+        <v>150</v>
+      </c>
+      <c r="K22" s="97">
+        <v>1.9</v>
+      </c>
+      <c r="L22" s="97">
+        <v>0</v>
+      </c>
+      <c r="M22" s="97">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N22" s="97">
+        <v>30</v>
+      </c>
+      <c r="O22" s="97">
+        <v>0.6</v>
+      </c>
+      <c r="P22" s="101">
+        <v>0.95</v>
+      </c>
+      <c r="Q22" s="99">
+        <v>1.2</v>
+      </c>
+      <c r="R22" s="97">
+        <v>120</v>
+      </c>
+      <c r="S22" s="97">
+        <v>25</v>
+      </c>
+      <c r="T22" s="98">
+        <v>35</v>
+      </c>
+      <c r="U22" s="99">
+        <v>11</v>
+      </c>
+      <c r="V22" s="97">
+        <v>4</v>
+      </c>
+      <c r="W22" s="97">
+        <v>10</v>
+      </c>
+      <c r="X22" s="98">
+        <v>15000</v>
+      </c>
+      <c r="Y22" s="100">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="101">
+        <v>0.08</v>
+      </c>
+      <c r="AA22" s="101">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="100">
+        <v>12</v>
+      </c>
+      <c r="AC22" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD22" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE22" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="102">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI22" s="102">
+        <v>2</v>
+      </c>
+      <c r="AJ22" s="102">
+        <v>2</v>
+      </c>
+      <c r="AK22" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="102">
+        <v>10</v>
+      </c>
+      <c r="AO22" s="103">
+        <v>0.7</v>
+      </c>
+      <c r="AP22" s="39"/>
+      <c r="AQ22" s="40"/>
+      <c r="AR22" s="104">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AS22" s="105">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AT22" s="110">
+        <v>255</v>
+      </c>
+      <c r="AU22" s="106">
+        <v>2.5</v>
+      </c>
+      <c r="AV22" s="106">
+        <v>9.5</v>
+      </c>
+      <c r="AW22" s="106">
+        <v>1.7</v>
+      </c>
+      <c r="AX22" s="107">
+        <v>0.7</v>
+      </c>
+      <c r="AY22" s="107">
+        <v>1.2</v>
+      </c>
+      <c r="AZ22" s="107">
+        <v>9</v>
+      </c>
+      <c r="BA22" s="107">
+        <v>8</v>
+      </c>
+      <c r="BB22" s="106" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="36">
         <v>20</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="50"/>
-      <c r="AG23" s="50"/>
-      <c r="AH23" s="50"/>
-      <c r="AI23" s="50"/>
-      <c r="AJ23" s="50"/>
-      <c r="AK23" s="50"/>
-      <c r="AL23" s="50"/>
-      <c r="AM23" s="50"/>
-      <c r="AN23" s="50"/>
-      <c r="AO23" s="101"/>
-      <c r="AP23" s="51"/>
-      <c r="AQ23" s="52"/>
-      <c r="AR23" s="53"/>
-      <c r="AS23" s="54"/>
-      <c r="AT23" s="55"/>
-      <c r="AU23" s="31"/>
-      <c r="AV23" s="31"/>
-      <c r="AW23" s="31"/>
-      <c r="AX23" s="56"/>
-      <c r="AY23" s="56"/>
-      <c r="AZ23" s="56"/>
-      <c r="BA23" s="56"/>
-      <c r="BB23" s="31"/>
+      <c r="H23" s="108">
+        <v>17</v>
+      </c>
+      <c r="I23" s="99">
+        <v>0</v>
+      </c>
+      <c r="J23" s="109">
+        <v>200</v>
+      </c>
+      <c r="K23" s="97">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L23" s="97">
+        <v>0</v>
+      </c>
+      <c r="M23" s="97">
+        <v>1.4E-2</v>
+      </c>
+      <c r="N23" s="97">
+        <v>25</v>
+      </c>
+      <c r="O23" s="97">
+        <v>0.7</v>
+      </c>
+      <c r="P23" s="101">
+        <v>1.55</v>
+      </c>
+      <c r="Q23" s="99">
+        <v>1.2</v>
+      </c>
+      <c r="R23" s="97">
+        <v>140</v>
+      </c>
+      <c r="S23" s="97">
+        <v>25</v>
+      </c>
+      <c r="T23" s="98">
+        <v>35</v>
+      </c>
+      <c r="U23" s="99">
+        <v>11.5</v>
+      </c>
+      <c r="V23" s="97">
+        <v>5</v>
+      </c>
+      <c r="W23" s="97">
+        <v>10</v>
+      </c>
+      <c r="X23" s="98">
+        <v>27000</v>
+      </c>
+      <c r="Y23" s="100">
+        <v>4</v>
+      </c>
+      <c r="Z23" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="AA23" s="101">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="100">
+        <v>12</v>
+      </c>
+      <c r="AC23" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD23" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE23" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="102">
+        <v>2.1</v>
+      </c>
+      <c r="AI23" s="102">
+        <v>2</v>
+      </c>
+      <c r="AJ23" s="102">
+        <v>2</v>
+      </c>
+      <c r="AK23" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="102">
+        <v>10</v>
+      </c>
+      <c r="AO23" s="103">
+        <v>0.7</v>
+      </c>
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="40"/>
+      <c r="AR23" s="104">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AS23" s="105">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AT23" s="110">
+        <v>270</v>
+      </c>
+      <c r="AU23" s="106">
+        <v>2.5</v>
+      </c>
+      <c r="AV23" s="106">
+        <v>9.5</v>
+      </c>
+      <c r="AW23" s="106">
+        <v>1.7</v>
+      </c>
+      <c r="AX23" s="107">
+        <v>0.7</v>
+      </c>
+      <c r="AY23" s="107">
+        <v>1.2</v>
+      </c>
+      <c r="AZ23" s="107">
+        <v>45</v>
+      </c>
+      <c r="BA23" s="107">
+        <v>15</v>
+      </c>
+      <c r="BB23" s="106" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="36">
         <v>30</v>
       </c>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="47"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="50"/>
-      <c r="AG24" s="50"/>
-      <c r="AH24" s="100"/>
-      <c r="AI24" s="100"/>
-      <c r="AJ24" s="100"/>
-      <c r="AK24" s="100"/>
-      <c r="AL24" s="100"/>
-      <c r="AM24" s="100"/>
-      <c r="AN24" s="100"/>
-      <c r="AO24" s="101"/>
-      <c r="AP24" s="51"/>
-      <c r="AQ24" s="52"/>
-      <c r="AR24" s="53"/>
-      <c r="AS24" s="54"/>
-      <c r="AT24" s="55"/>
-      <c r="AU24" s="31"/>
-      <c r="AV24" s="31"/>
-      <c r="AW24" s="31"/>
-      <c r="AX24" s="56"/>
-      <c r="AY24" s="56"/>
-      <c r="AZ24" s="56"/>
-      <c r="BA24" s="56"/>
-      <c r="BB24" s="31"/>
+      <c r="H24" s="108">
+        <v>25</v>
+      </c>
+      <c r="I24" s="99">
+        <v>0</v>
+      </c>
+      <c r="J24" s="109">
+        <v>250</v>
+      </c>
+      <c r="K24" s="97">
+        <v>2.4</v>
+      </c>
+      <c r="L24" s="97">
+        <v>0</v>
+      </c>
+      <c r="M24" s="97">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="N24" s="97">
+        <v>20</v>
+      </c>
+      <c r="O24" s="97">
+        <v>0.8</v>
+      </c>
+      <c r="P24" s="101">
+        <v>1.9</v>
+      </c>
+      <c r="Q24" s="99">
+        <v>1.2</v>
+      </c>
+      <c r="R24" s="97">
+        <v>160</v>
+      </c>
+      <c r="S24" s="97">
+        <v>25</v>
+      </c>
+      <c r="T24" s="98">
+        <v>35</v>
+      </c>
+      <c r="U24" s="99">
+        <v>12</v>
+      </c>
+      <c r="V24" s="97">
+        <v>6</v>
+      </c>
+      <c r="W24" s="97">
+        <v>10</v>
+      </c>
+      <c r="X24" s="98">
+        <v>45000</v>
+      </c>
+      <c r="Y24" s="100">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="101">
+        <v>0.04</v>
+      </c>
+      <c r="AA24" s="101">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="100">
+        <v>12</v>
+      </c>
+      <c r="AC24" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD24" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE24" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="102">
+        <v>2.1</v>
+      </c>
+      <c r="AI24" s="102">
+        <v>2</v>
+      </c>
+      <c r="AJ24" s="102">
+        <v>2</v>
+      </c>
+      <c r="AK24" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="102">
+        <v>10</v>
+      </c>
+      <c r="AO24" s="103">
+        <v>0.7</v>
+      </c>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="40"/>
+      <c r="AR24" s="104">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AS24" s="105">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AT24" s="110">
+        <v>285</v>
+      </c>
+      <c r="AU24" s="106">
+        <v>2.5</v>
+      </c>
+      <c r="AV24" s="106">
+        <v>9.5</v>
+      </c>
+      <c r="AW24" s="106">
+        <v>1.7</v>
+      </c>
+      <c r="AX24" s="107">
+        <v>0.7</v>
+      </c>
+      <c r="AY24" s="107">
+        <v>1.2</v>
+      </c>
+      <c r="AZ24" s="107">
+        <v>59</v>
+      </c>
+      <c r="BA24" s="107">
+        <v>15</v>
+      </c>
+      <c r="BB24" s="106" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:54" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
@@ -11931,44 +12411,44 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="141" t="s">
+      <c r="H25" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="142"/>
-      <c r="J25" s="143" t="s">
+      <c r="I25" s="119"/>
+      <c r="J25" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="144"/>
-      <c r="L25" s="144"/>
-      <c r="M25" s="144"/>
-      <c r="N25" s="144"/>
-      <c r="O25" s="145"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="137" t="s">
+      <c r="K25" s="121"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="R25" s="138"/>
-      <c r="S25" s="138"/>
-      <c r="T25" s="138"/>
-      <c r="U25" s="139" t="s">
+      <c r="R25" s="115"/>
+      <c r="S25" s="115"/>
+      <c r="T25" s="115"/>
+      <c r="U25" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="140"/>
-      <c r="W25" s="140"/>
-      <c r="X25" s="140"/>
+      <c r="V25" s="117"/>
+      <c r="W25" s="117"/>
+      <c r="X25" s="117"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
-      <c r="AH25" s="134" t="s">
+      <c r="AH25" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="AI25" s="135"/>
-      <c r="AJ25" s="135"/>
-      <c r="AK25" s="135"/>
-      <c r="AL25" s="135"/>
-      <c r="AM25" s="135"/>
-      <c r="AN25" s="136"/>
+      <c r="AI25" s="112"/>
+      <c r="AJ25" s="112"/>
+      <c r="AK25" s="112"/>
+      <c r="AL25" s="112"/>
+      <c r="AM25" s="112"/>
+      <c r="AN25" s="113"/>
     </row>
     <row r="27" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
@@ -11994,171 +12474,171 @@
       <c r="D30" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="68" t="s">
+      <c r="E30" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="86" t="s">
+      <c r="F30" s="66" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="84" t="s">
+      <c r="D31" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="84">
+      <c r="E31" s="64">
         <v>5</v>
       </c>
-      <c r="F31" s="85" t="str">
+      <c r="F31" s="65" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_helicopter_power_1</v>
       </c>
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="84" t="s">
+      <c r="D32" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="84">
+      <c r="E32" s="64">
         <v>15</v>
       </c>
-      <c r="F32" s="85" t="str">
+      <c r="F32" s="65" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_helicopter_power_2</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="84" t="s">
+      <c r="D33" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="84">
+      <c r="E33" s="64">
         <v>25</v>
       </c>
-      <c r="F33" s="85" t="str">
+      <c r="F33" s="65" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_helicopter_power_3</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="84" t="s">
+      <c r="D34" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="84">
+      <c r="E34" s="64">
         <v>5</v>
       </c>
-      <c r="F34" s="85" t="str">
+      <c r="F34" s="65" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_electric_power_1</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="84" t="s">
+      <c r="D35" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="84">
+      <c r="E35" s="64">
         <v>15</v>
       </c>
-      <c r="F35" s="85" t="str">
+      <c r="F35" s="65" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_electric_power_2</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="84" t="s">
+      <c r="D36" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="84">
+      <c r="E36" s="64">
         <v>25</v>
       </c>
-      <c r="F36" s="85" t="str">
+      <c r="F36" s="65" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_electric_power_3</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="83" t="s">
+      <c r="C37" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="84" t="s">
+      <c r="D37" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="84">
+      <c r="E37" s="64">
         <v>5</v>
       </c>
-      <c r="F37" s="85" t="str">
+      <c r="F37" s="65" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_sonic_power_1</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="83" t="s">
+      <c r="C38" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="84" t="s">
+      <c r="D38" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="84">
+      <c r="E38" s="64">
         <v>15</v>
       </c>
-      <c r="F38" s="85" t="str">
+      <c r="F38" s="65" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_sonic_power_2</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="87" t="s">
+      <c r="C39" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="88" t="s">
+      <c r="D39" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="68">
         <v>25</v>
       </c>
-      <c r="F39" s="85" t="str">
+      <c r="F39" s="65" t="str">
         <f>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</f>
         <v>icon_sonic_power_3</v>
       </c>
@@ -12172,40 +12652,43 @@
     <mergeCell ref="J25:O25"/>
   </mergeCells>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="95" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D6">
-    <cfRule type="duplicateValues" dxfId="94" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T6">
-    <cfRule type="duplicateValues" dxfId="93" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C36">
-    <cfRule type="duplicateValues" dxfId="92" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C33">
-    <cfRule type="duplicateValues" dxfId="91" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39">
-    <cfRule type="duplicateValues" dxfId="90" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:C24">
-    <cfRule type="duplicateValues" dxfId="89" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB21:BB24">
-    <cfRule type="duplicateValues" dxfId="88" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB17">
-    <cfRule type="duplicateValues" dxfId="87" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB18:BB20">
-    <cfRule type="duplicateValues" dxfId="86" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB13">
-    <cfRule type="duplicateValues" dxfId="85" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB14:BB16">
-    <cfRule type="duplicateValues" dxfId="84" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB21">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB22:BB24">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D13:D24">
@@ -12227,7 +12710,7 @@
   <dimension ref="C1:AC63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12243,81 +12726,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="72" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D3" s="90"/>
-      <c r="E3" s="146" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="J3" s="90" t="s">
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="J3" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="R3" s="90" t="s">
+      <c r="R3" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="Z3" s="90" t="s">
+      <c r="Z3" s="70" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D4" s="91"/>
-      <c r="E4" s="91">
+      <c r="D4" s="71"/>
+      <c r="E4" s="71">
         <v>1</v>
       </c>
-      <c r="F4" s="91">
+      <c r="F4" s="71">
         <v>2</v>
       </c>
-      <c r="G4" s="91">
+      <c r="G4" s="71">
         <v>3</v>
       </c>
-      <c r="H4" s="91">
+      <c r="H4" s="71">
         <v>4</v>
       </c>
       <c r="K4" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="89">
+      <c r="L4" s="69">
         <v>30</v>
       </c>
       <c r="S4" t="s">
         <v>138</v>
       </c>
-      <c r="T4" s="89">
+      <c r="T4" s="69">
         <v>30</v>
       </c>
       <c r="AA4" t="s">
         <v>138</v>
       </c>
-      <c r="AB4" s="89">
+      <c r="AB4" s="69">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="93">
+      <c r="E5" s="73">
         <v>100</v>
       </c>
-      <c r="F5" s="93">
+      <c r="F5" s="73">
         <v>150</v>
       </c>
-      <c r="G5" s="93">
+      <c r="G5" s="73">
         <v>200</v>
       </c>
-      <c r="H5" s="93">
+      <c r="H5" s="73">
         <v>250</v>
       </c>
       <c r="K5" t="s">
         <v>117</v>
       </c>
-      <c r="L5" s="89">
+      <c r="L5" s="69">
         <v>0</v>
       </c>
       <c r="M5" t="s">
@@ -12326,7 +12809,7 @@
       <c r="S5" t="s">
         <v>117</v>
       </c>
-      <c r="T5" s="89">
+      <c r="T5" s="69">
         <v>0</v>
       </c>
       <c r="U5" t="s">
@@ -12335,7 +12818,7 @@
       <c r="AA5" t="s">
         <v>117</v>
       </c>
-      <c r="AB5" s="89">
+      <c r="AB5" s="69">
         <v>0</v>
       </c>
       <c r="AC5" t="s">
@@ -12343,25 +12826,25 @@
       </c>
     </row>
     <row r="6" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="93">
+      <c r="E6" s="73">
         <v>100</v>
       </c>
-      <c r="F6" s="93">
+      <c r="F6" s="73">
         <v>120</v>
       </c>
-      <c r="G6" s="93">
+      <c r="G6" s="73">
         <v>140</v>
       </c>
-      <c r="H6" s="93">
+      <c r="H6" s="73">
         <v>160</v>
       </c>
       <c r="K6" t="s">
         <v>118</v>
       </c>
-      <c r="L6" s="89">
+      <c r="L6" s="69">
         <v>100</v>
       </c>
       <c r="M6" t="s">
@@ -12370,7 +12853,7 @@
       <c r="S6" t="s">
         <v>118</v>
       </c>
-      <c r="T6" s="89">
+      <c r="T6" s="69">
         <v>50</v>
       </c>
       <c r="U6" t="s">
@@ -12379,7 +12862,7 @@
       <c r="AA6" t="s">
         <v>118</v>
       </c>
-      <c r="AB6" s="89">
+      <c r="AB6" s="69">
         <v>50</v>
       </c>
       <c r="AC6" t="s">
@@ -12387,19 +12870,19 @@
       </c>
     </row>
     <row r="7" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="103">
+      <c r="E7" s="81">
         <v>240</v>
       </c>
-      <c r="F7" s="103">
+      <c r="F7" s="81">
         <v>255</v>
       </c>
-      <c r="G7" s="103">
+      <c r="G7" s="81">
         <v>270</v>
       </c>
-      <c r="H7" s="103">
+      <c r="H7" s="81">
         <v>285</v>
       </c>
       <c r="K7" t="s">
@@ -12434,86 +12917,86 @@
       </c>
     </row>
     <row r="8" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="106" t="s">
+      <c r="D8" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="104">
+      <c r="E8" s="82">
         <v>0</v>
       </c>
-      <c r="F8" s="104">
+      <c r="F8" s="82">
         <v>10</v>
       </c>
-      <c r="G8" s="104">
+      <c r="G8" s="82">
         <v>20</v>
       </c>
-      <c r="H8" s="105">
+      <c r="H8" s="83">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C11" s="107"/>
-      <c r="D11" s="108" t="s">
+      <c r="C11" s="85"/>
+      <c r="D11" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="109">
+      <c r="E11" s="87">
         <f>IF(E16&lt;F8,1,IF(AND(E16&gt;=F8,E16&lt;G8),2,IF(AND(E16&gt;=G8,E16&lt;H8),3,4)))</f>
         <v>4</v>
       </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="110"/>
-      <c r="J11" s="90" t="s">
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="88"/>
+      <c r="J11" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="K11" s="94" t="s">
+      <c r="K11" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="L11" s="94" t="s">
+      <c r="L11" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="M11" s="94" t="s">
+      <c r="M11" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="R11" s="97" t="s">
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="R11" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="S11" s="94" t="s">
+      <c r="S11" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="T11" s="94" t="s">
+      <c r="T11" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="U11" s="94" t="s">
+      <c r="U11" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="V11" s="94"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="94"/>
-      <c r="Z11" s="90" t="s">
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Z11" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="AA11" s="94" t="s">
+      <c r="AA11" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="AB11" s="94" t="s">
+      <c r="AB11" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="AC11" s="94" t="s">
+      <c r="AC11" s="74" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="12" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="111"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="98"/>
-      <c r="J12" s="90" t="s">
+      <c r="C12" s="89"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="78"/>
+      <c r="J12" s="70" t="s">
         <v>132</v>
       </c>
       <c r="K12">
@@ -12528,7 +13011,7 @@
         <f>L12-K12</f>
         <v>100</v>
       </c>
-      <c r="R12" s="90" t="s">
+      <c r="R12" s="70" t="s">
         <v>132</v>
       </c>
       <c r="S12">
@@ -12543,7 +13026,7 @@
         <f>T12-S12</f>
         <v>50</v>
       </c>
-      <c r="Z12" s="90" t="s">
+      <c r="Z12" s="70" t="s">
         <v>132</v>
       </c>
       <c r="AA12">
@@ -12560,24 +13043,24 @@
       </c>
     </row>
     <row r="13" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="112" t="s">
+      <c r="D13" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="113">
-        <v>30</v>
-      </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="95" t="s">
+      <c r="E13" s="91">
+        <v>20</v>
+      </c>
+      <c r="F13" s="90"/>
+      <c r="G13" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="96">
+      <c r="H13" s="76">
         <f ca="1">INDIRECT(ADDRESS(5,4+E11)) + (INDIRECT(ADDRESS(5,4+E11)) *(L7/100) *E13)</f>
-        <v>497.5</v>
-      </c>
-      <c r="J13" s="90" t="s">
+        <v>415</v>
+      </c>
+      <c r="J13" s="70" t="s">
         <v>135</v>
       </c>
       <c r="K13">
@@ -12592,7 +13075,7 @@
         <f t="shared" ref="M13:M15" si="0">L13-K13</f>
         <v>150</v>
       </c>
-      <c r="R13" s="90" t="s">
+      <c r="R13" s="70" t="s">
         <v>135</v>
       </c>
       <c r="S13">
@@ -12607,7 +13090,7 @@
         <f t="shared" ref="U13:U15" si="1">T13-S13</f>
         <v>60</v>
       </c>
-      <c r="Z13" s="90" t="s">
+      <c r="Z13" s="70" t="s">
         <v>135</v>
       </c>
       <c r="AA13">
@@ -12624,24 +13107,24 @@
       </c>
     </row>
     <row r="14" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="111" t="s">
+      <c r="C14" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="112" t="s">
+      <c r="D14" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="113">
-        <v>30</v>
-      </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="95" t="s">
+      <c r="E14" s="91">
+        <v>9</v>
+      </c>
+      <c r="F14" s="90"/>
+      <c r="G14" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="96">
+      <c r="H14" s="76">
         <f ca="1">INDIRECT(ADDRESS(6,4+E11)) + (INDIRECT(ADDRESS(6,4+E11)) *(T7/100) *E14)</f>
-        <v>241.60000000000002</v>
-      </c>
-      <c r="J14" s="90" t="s">
+        <v>184.48</v>
+      </c>
+      <c r="J14" s="70" t="s">
         <v>136</v>
       </c>
       <c r="K14">
@@ -12656,7 +13139,7 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="R14" s="90" t="s">
+      <c r="R14" s="70" t="s">
         <v>136</v>
       </c>
       <c r="S14">
@@ -12671,7 +13154,7 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="Z14" s="90" t="s">
+      <c r="Z14" s="70" t="s">
         <v>136</v>
       </c>
       <c r="AA14">
@@ -12688,24 +13171,24 @@
       </c>
     </row>
     <row r="15" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="112" t="s">
+      <c r="D15" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="E15" s="113">
-        <v>30</v>
-      </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="95" t="s">
+      <c r="E15" s="91">
+        <v>12</v>
+      </c>
+      <c r="F15" s="90"/>
+      <c r="G15" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="H15" s="96">
+      <c r="H15" s="76">
         <f ca="1">ROUND(((INDIRECT(ADDRESS(7,4+E11)) + (INDIRECT(ADDRESS(7,4+E11)) *(AB7/100) *E15))/INDIRECT(ADDRESS(16+E11,48,1,1,"special dragons")))/INDIRECT(ADDRESS(16+E11,47,1,1,"special dragons")),1)</f>
-        <v>18.100000000000001</v>
-      </c>
-      <c r="J15" s="90" t="s">
+        <v>14.4</v>
+      </c>
+      <c r="J15" s="70" t="s">
         <v>137</v>
       </c>
       <c r="K15">
@@ -12720,7 +13203,7 @@
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="R15" s="90" t="s">
+      <c r="R15" s="70" t="s">
         <v>137</v>
       </c>
       <c r="S15">
@@ -12735,7 +13218,7 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="Z15" s="90" t="s">
+      <c r="Z15" s="70" t="s">
         <v>137</v>
       </c>
       <c r="AA15">
@@ -12752,401 +13235,416 @@
       </c>
     </row>
     <row r="16" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C16" s="111"/>
-      <c r="D16" s="118" t="s">
+      <c r="C16" s="89"/>
+      <c r="D16" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="118">
+      <c r="E16" s="96">
         <f>SUM(E13:E15)</f>
-        <v>90</v>
-      </c>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="98"/>
+        <v>41</v>
+      </c>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="78"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="111"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="98"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="78"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="111"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="98"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="78"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="98"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="78"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="111"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="98"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="78"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="98"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="78"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="98"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="78"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="111"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="98"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="78"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="111"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="98"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="78"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="111"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="98"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="78"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="111"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="98"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="78"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="111"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="98"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="78"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="111"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="98"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="78"/>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="111"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="98"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="78"/>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="111"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="98"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="78"/>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="111"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="98"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="78"/>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="111"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="98"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="78"/>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="111"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="98"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="78"/>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="111"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="98"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="78"/>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="111"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="98"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="78"/>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="111"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="98"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="78"/>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="111"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="98"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="78"/>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="111"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="112"/>
-      <c r="H38" s="98"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="78"/>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="111"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="112"/>
-      <c r="H39" s="98"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="78"/>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="111"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="98"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="78"/>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="111"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="98"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="78"/>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="111"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="98"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="78"/>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="111"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="98"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="78"/>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="111"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="98"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="78"/>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="111"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="98"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="78"/>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="111"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="98"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="78"/>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="111"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="112"/>
-      <c r="H47" s="98"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="78"/>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="111"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="112"/>
-      <c r="H48" s="98"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="78"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="111"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="112"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="112"/>
-      <c r="H49" s="98"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="78"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="111"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="98"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="78"/>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="111"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="112"/>
-      <c r="F51" s="112"/>
-      <c r="G51" s="112"/>
-      <c r="H51" s="98"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="78"/>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="111"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="112"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="98"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="78"/>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C53" s="111"/>
-      <c r="D53" s="112"/>
-      <c r="E53" s="112"/>
-      <c r="F53" s="112"/>
-      <c r="G53" s="112"/>
-      <c r="H53" s="98"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="78"/>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="111"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="98"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="78"/>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="111"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="112"/>
-      <c r="F55" s="112"/>
-      <c r="G55" s="112"/>
-      <c r="H55" s="98"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="78"/>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C56" s="111"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="98"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="90"/>
+      <c r="G56" s="90"/>
+      <c r="H56" s="78"/>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C57" s="111"/>
-      <c r="D57" s="112"/>
-      <c r="E57" s="112"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="112"/>
-      <c r="H57" s="98"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="78"/>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C58" s="111"/>
-      <c r="D58" s="112"/>
-      <c r="E58" s="112"/>
-      <c r="F58" s="112"/>
-      <c r="G58" s="112"/>
-      <c r="H58" s="98"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="78"/>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C59" s="111"/>
-      <c r="D59" s="112"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="112"/>
-      <c r="H59" s="98"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="78"/>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="111"/>
-      <c r="D60" s="112"/>
-      <c r="E60" s="112"/>
-      <c r="F60" s="112"/>
-      <c r="G60" s="112"/>
-      <c r="H60" s="98"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="90"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="90"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="78"/>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="111"/>
-      <c r="D61" s="112"/>
-      <c r="E61" s="112"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="112"/>
-      <c r="H61" s="98"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="78"/>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="111"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="112"/>
-      <c r="G62" s="112"/>
-      <c r="H62" s="98"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="78"/>
     </row>
     <row r="63" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="114"/>
-      <c r="D63" s="115"/>
-      <c r="E63" s="115"/>
-      <c r="F63" s="115"/>
-      <c r="G63" s="115"/>
-      <c r="H63" s="116"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="93"/>
+      <c r="H63" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:E15">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>E13&gt;$L$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>$E$13&gt;$L$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$E$14&gt;$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$E$15&gt;$AB$4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13169,13 +13667,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="H4" s="117" t="s">
+      <c r="H4" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="95" t="s">
         <v>144</v>
       </c>
     </row>
@@ -13240,16 +13738,16 @@
         <v>154</v>
       </c>
       <c r="G9">
-        <f ca="1">tools!H13</f>
-        <v>497.5</v>
+        <f ca="1">Electric!H13</f>
+        <v>415</v>
       </c>
       <c r="H9">
-        <f ca="1">tools!H14</f>
-        <v>241.60000000000002</v>
+        <f ca="1">Electric!H14</f>
+        <v>184.48</v>
       </c>
       <c r="I9">
-        <f ca="1">tools!H15</f>
-        <v>18.100000000000001</v>
+        <f ca="1">Electric!H15</f>
+        <v>14.4</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="special dragons" sheetId="10" r:id="rId1"/>
     <sheet name="Electric" sheetId="11" r:id="rId2"/>
-    <sheet name="DATA" sheetId="12" r:id="rId3"/>
+    <sheet name="Helicopter" sheetId="13" r:id="rId3"/>
+    <sheet name="DATA" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="161">
   <si>
     <t>[sku]</t>
   </si>
@@ -506,6 +507,9 @@
   </si>
   <si>
     <t>percentage</t>
+  </si>
+  <si>
+    <t>HELICOPTER</t>
   </si>
 </sst>
 </file>
@@ -1476,45 +1480,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1602,28 +1567,75 @@
     <xf numFmtId="0" fontId="7" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="101">
+  <dxfs count="104">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4044,6 +4056,16 @@
           <color auto="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4452,6 +4474,933 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="398241056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avg. HP Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DATA!$F$5:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Crocodrile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bug</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Devil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Balrog</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Electric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DATA!$G$5:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>415</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F67E-4E11-AD06-979F326D32CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="534604608"/>
+        <c:axId val="534603776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="534604608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534603776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="534603776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534604608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avg. Boost Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DATA!$F$5:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Crocodrile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bug</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Devil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Balrog</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Electric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DATA!$H$5:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>184.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DDA-442F-8F60-EFA0364316CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="534604608"/>
+        <c:axId val="534603776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="534604608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534603776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="534603776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534604608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avg. Speed Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DATA!$F$5:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Crocodrile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bug</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Devil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Balrog</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Electric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DATA!$I$5:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F913-48D6-8ED6-3B2474F38F90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="534604608"/>
+        <c:axId val="534603776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="534604608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534603776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="534603776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534604608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6071,7 +7020,1093 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HP Min-Max Per Tier</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Helicopter!$K$12:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E503-4D7F-A58B-A252E17941AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Helicopter!$M$12:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E503-4D7F-A58B-A252E17941AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="398241056"/>
+        <c:axId val="398241472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="398241056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398241472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="398241472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398241056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Energy base Min-Max Per Tier</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Helicopter!$S$12:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01C9-4D10-8C99-F5434BA01476}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Energy base</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Helicopter!$U$12:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-01C9-4D10-8C99-F5434BA01476}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="398241056"/>
+        <c:axId val="398241472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="398241056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398241472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="398241472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398241056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speed Min-Max Per Tier</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Helicopter!$AA$12:$AA$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9ED-46BE-B537-3AFB0C4B7601}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Speed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Helicopter!$AC$12:$AC$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A9ED-46BE-B537-3AFB0C4B7601}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="398241056"/>
+        <c:axId val="398241472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="398241056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398241472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="398241472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398241056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6311,6 +8346,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -6816,8 +8971,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6925,6 +9080,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6935,6 +9095,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6966,6 +9131,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7021,23 +9189,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7142,8 +9309,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7275,20 +9442,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7321,8 +9487,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7430,6 +9596,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7440,6 +9611,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7471,6 +9647,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7526,23 +9705,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7647,8 +9825,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7780,20 +9958,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7826,7 +10003,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8342,8 +10519,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8451,11 +10628,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8466,11 +10638,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8502,9 +10669,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8560,22 +10724,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8680,8 +10845,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8813,19 +10978,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8858,8 +11024,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8967,11 +11133,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8982,11 +11143,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9018,9 +11174,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9076,6 +11229,524 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -9342,6 +12013,2553 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9567,90 +14785,287 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B12:BB24" totalsRowShown="0" headerRowBorderDxfId="88" totalsRowBorderDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B12:BB24" totalsRowShown="0" headerRowBorderDxfId="90" totalsRowBorderDxfId="89">
   <autoFilter ref="B12:BB24"/>
   <tableColumns count="53">
-    <tableColumn id="1" name="{specialDragonTierDefinitions}" dataDxfId="86"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="85"/>
-    <tableColumn id="3" name="[tier]" dataDxfId="84"/>
-    <tableColumn id="4" name="[specialDragon]" dataDxfId="83"/>
-    <tableColumn id="5" name="[mainProgressionRestriction]" dataDxfId="82"/>
-    <tableColumn id="7" name="[upgradeLevelToUnlock]" dataDxfId="81"/>
-    <tableColumn id="8" name="[defaultSize]" dataDxfId="80"/>
-    <tableColumn id="9" name="[cameraFrameWidthModifier]" dataDxfId="79"/>
-    <tableColumn id="10" name="[health]" dataDxfId="78"/>
-    <tableColumn id="11" name="[healthDrain]" dataDxfId="77"/>
-    <tableColumn id="12" name="[healthDrainSpacePlus]" dataDxfId="76"/>
-    <tableColumn id="13" name="[healthDrainAmpPerSecond]" dataDxfId="75"/>
-    <tableColumn id="14" name="[sessionStartHealthDrainTime]" dataDxfId="74"/>
-    <tableColumn id="15" name="[sessionStartHealthDrainModifier]" dataDxfId="73"/>
-    <tableColumn id="16" name="[scale]" dataDxfId="72"/>
-    <tableColumn id="17" name="[boostMultiplier]" dataDxfId="71"/>
-    <tableColumn id="18" name="[energyBase]" dataDxfId="70"/>
-    <tableColumn id="19" name="[energyDrain]" dataDxfId="69"/>
-    <tableColumn id="20" name="[energyRefillRate]" dataDxfId="68"/>
-    <tableColumn id="21" name="[furyBaseLength]" dataDxfId="67"/>
-    <tableColumn id="22" name="[furyScoreMultiplier]" dataDxfId="66"/>
-    <tableColumn id="23" name="[furyBaseDuration]" dataDxfId="65"/>
-    <tableColumn id="24" name="[furyMax]" dataDxfId="64"/>
-    <tableColumn id="25" name="[scoreTextThresholdMultiplier]" dataDxfId="63"/>
-    <tableColumn id="26" name="[eatSpeedFactor]" dataDxfId="62"/>
-    <tableColumn id="27" name="[maxAlcohol]" dataDxfId="61"/>
-    <tableColumn id="28" name="[alcoholDrain]" dataDxfId="60"/>
-    <tableColumn id="29" name="[gamePrefab]" dataDxfId="59"/>
-    <tableColumn id="30" name="[menuPrefab]" dataDxfId="58"/>
-    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="57"/>
-    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="56"/>
-    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="55"/>
-    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="54"/>
-    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="53"/>
-    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="52"/>
-    <tableColumn id="37" name="[invincible]" dataDxfId="51"/>
-    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="50"/>
-    <tableColumn id="39" name="[eatEverything]" dataDxfId="49"/>
-    <tableColumn id="40" name="[modeDuration]" dataDxfId="48"/>
-    <tableColumn id="41" name="[petScale]" dataDxfId="47"/>
-    <tableColumn id="42" name="[tidName]" dataDxfId="46"/>
-    <tableColumn id="43" name="[tidDesc]" dataDxfId="45"/>
-    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="44"/>
-    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="43"/>
-    <tableColumn id="46" name="[force]" dataDxfId="42"/>
-    <tableColumn id="47" name="[mass]" dataDxfId="41"/>
-    <tableColumn id="48" name="[friction]" dataDxfId="40"/>
-    <tableColumn id="49" name="[gravityModifier]" dataDxfId="39"/>
-    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="38"/>
-    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="37"/>
-    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="36"/>
-    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="35"/>
-    <tableColumn id="54" name="[trackingSku]" dataDxfId="34"/>
+    <tableColumn id="1" name="{specialDragonTierDefinitions}" dataDxfId="88"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="87"/>
+    <tableColumn id="3" name="[tier]" dataDxfId="86"/>
+    <tableColumn id="4" name="[specialDragon]" dataDxfId="85"/>
+    <tableColumn id="5" name="[mainProgressionRestriction]" dataDxfId="84"/>
+    <tableColumn id="7" name="[upgradeLevelToUnlock]" dataDxfId="83"/>
+    <tableColumn id="8" name="[defaultSize]" dataDxfId="82"/>
+    <tableColumn id="9" name="[cameraFrameWidthModifier]" dataDxfId="81"/>
+    <tableColumn id="10" name="[health]" dataDxfId="80"/>
+    <tableColumn id="11" name="[healthDrain]" dataDxfId="79"/>
+    <tableColumn id="12" name="[healthDrainSpacePlus]" dataDxfId="78"/>
+    <tableColumn id="13" name="[healthDrainAmpPerSecond]" dataDxfId="77"/>
+    <tableColumn id="14" name="[sessionStartHealthDrainTime]" dataDxfId="76"/>
+    <tableColumn id="15" name="[sessionStartHealthDrainModifier]" dataDxfId="75"/>
+    <tableColumn id="16" name="[scale]" dataDxfId="74"/>
+    <tableColumn id="17" name="[boostMultiplier]" dataDxfId="73"/>
+    <tableColumn id="18" name="[energyBase]" dataDxfId="72"/>
+    <tableColumn id="19" name="[energyDrain]" dataDxfId="71"/>
+    <tableColumn id="20" name="[energyRefillRate]" dataDxfId="70"/>
+    <tableColumn id="21" name="[furyBaseLength]" dataDxfId="69"/>
+    <tableColumn id="22" name="[furyScoreMultiplier]" dataDxfId="68"/>
+    <tableColumn id="23" name="[furyBaseDuration]" dataDxfId="67"/>
+    <tableColumn id="24" name="[furyMax]" dataDxfId="66"/>
+    <tableColumn id="25" name="[scoreTextThresholdMultiplier]" dataDxfId="65"/>
+    <tableColumn id="26" name="[eatSpeedFactor]" dataDxfId="64"/>
+    <tableColumn id="27" name="[maxAlcohol]" dataDxfId="63"/>
+    <tableColumn id="28" name="[alcoholDrain]" dataDxfId="62"/>
+    <tableColumn id="29" name="[gamePrefab]" dataDxfId="61"/>
+    <tableColumn id="30" name="[menuPrefab]" dataDxfId="60"/>
+    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="59"/>
+    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="58"/>
+    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="57"/>
+    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="56"/>
+    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="55"/>
+    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="54"/>
+    <tableColumn id="37" name="[invincible]" dataDxfId="53"/>
+    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="52"/>
+    <tableColumn id="39" name="[eatEverything]" dataDxfId="51"/>
+    <tableColumn id="40" name="[modeDuration]" dataDxfId="50"/>
+    <tableColumn id="41" name="[petScale]" dataDxfId="49"/>
+    <tableColumn id="42" name="[tidName]" dataDxfId="48"/>
+    <tableColumn id="43" name="[tidDesc]" dataDxfId="47"/>
+    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="46"/>
+    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="45"/>
+    <tableColumn id="46" name="[force]" dataDxfId="44"/>
+    <tableColumn id="47" name="[mass]" dataDxfId="43"/>
+    <tableColumn id="48" name="[friction]" dataDxfId="42"/>
+    <tableColumn id="49" name="[gravityModifier]" dataDxfId="41"/>
+    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="40"/>
+    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="39"/>
+    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="38"/>
+    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="37"/>
+    <tableColumn id="54" name="[trackingSku]" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32">
   <autoFilter ref="B3:T6"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="29"/>
+    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="31"/>
     <tableColumn id="2" name="[sku]"/>
     <tableColumn id="3" name="[type]"/>
-    <tableColumn id="5" name="[order]" dataDxfId="28"/>
-    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="27"/>
-    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="26"/>
-    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="25"/>
-    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="24"/>
-    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="23"/>
-    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="22"/>
-    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="21"/>
-    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="20"/>
-    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="19"/>
-    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="18"/>
-    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="17"/>
-    <tableColumn id="76" name="[stepPrice]" dataDxfId="16"/>
-    <tableColumn id="77" name="[priceCoefA]" dataDxfId="15"/>
-    <tableColumn id="75" name="[priceCoefB]" dataDxfId="14"/>
+    <tableColumn id="5" name="[order]" dataDxfId="30"/>
+    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="29"/>
+    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="28"/>
+    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="27"/>
+    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="26"/>
+    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="25"/>
+    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="24"/>
+    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="23"/>
+    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="22"/>
+    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="21"/>
+    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="20"/>
+    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="19"/>
+    <tableColumn id="76" name="[stepPrice]" dataDxfId="18"/>
+    <tableColumn id="77" name="[priceCoefA]" dataDxfId="17"/>
+    <tableColumn id="75" name="[priceCoefB]" dataDxfId="16"/>
     <tableColumn id="65" name="[trackingSku]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9658,14 +15073,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="B30:F39"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="10"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="9"/>
-    <tableColumn id="3" name="[specialDragon]" dataDxfId="8"/>
-    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="7"/>
-    <tableColumn id="5" name="[icon]" dataDxfId="6">
+    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="12"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="11"/>
+    <tableColumn id="3" name="[specialDragon]" dataDxfId="10"/>
+    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="9"/>
+    <tableColumn id="5" name="[icon]" dataDxfId="8">
       <calculatedColumnFormula>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9938,8 +15353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S4" workbookViewId="0">
-      <selection activeCell="AH25" sqref="AH25:AN25"/>
+    <sheetView topLeftCell="AL4" workbookViewId="0">
+      <selection activeCell="AV13" sqref="AV13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11180,614 +16595,614 @@
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="126" t="s">
+      <c r="D17" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="127" t="s">
+      <c r="E17" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="128" t="s">
+      <c r="F17" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="129">
+      <c r="G17" s="116">
         <v>0</v>
       </c>
-      <c r="H17" s="130">
+      <c r="H17" s="117">
         <v>3</v>
       </c>
-      <c r="I17" s="131">
+      <c r="I17" s="118">
         <v>-2</v>
       </c>
-      <c r="J17" s="132">
+      <c r="J17" s="119">
         <v>100</v>
       </c>
-      <c r="K17" s="133">
+      <c r="K17" s="120">
         <v>1.5</v>
       </c>
-      <c r="L17" s="133">
+      <c r="L17" s="120">
         <v>0</v>
       </c>
-      <c r="M17" s="133">
+      <c r="M17" s="120">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N17" s="133">
+      <c r="N17" s="120">
         <v>30</v>
       </c>
-      <c r="O17" s="133">
+      <c r="O17" s="120">
         <v>0.5</v>
       </c>
-      <c r="P17" s="134">
+      <c r="P17" s="121">
         <v>0.6</v>
       </c>
-      <c r="Q17" s="135">
+      <c r="Q17" s="122">
         <v>1.2</v>
       </c>
-      <c r="R17" s="136">
+      <c r="R17" s="123">
         <v>100</v>
       </c>
-      <c r="S17" s="133">
+      <c r="S17" s="120">
         <v>25</v>
       </c>
-      <c r="T17" s="137">
+      <c r="T17" s="124">
         <v>35</v>
       </c>
-      <c r="U17" s="131">
+      <c r="U17" s="118">
         <v>9</v>
       </c>
-      <c r="V17" s="133">
+      <c r="V17" s="120">
         <v>3</v>
       </c>
-      <c r="W17" s="133">
+      <c r="W17" s="120">
         <v>9</v>
       </c>
-      <c r="X17" s="137">
+      <c r="X17" s="124">
         <v>8500</v>
       </c>
-      <c r="Y17" s="138">
+      <c r="Y17" s="125">
         <v>2</v>
       </c>
-      <c r="Z17" s="139">
+      <c r="Z17" s="126">
         <v>0.13</v>
       </c>
-      <c r="AA17" s="134">
+      <c r="AA17" s="121">
         <v>0</v>
       </c>
-      <c r="AB17" s="140">
+      <c r="AB17" s="127">
         <v>12</v>
       </c>
-      <c r="AC17" s="141" t="s">
+      <c r="AC17" s="128" t="s">
         <v>155</v>
       </c>
-      <c r="AD17" s="142" t="s">
+      <c r="AD17" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="AE17" s="142" t="s">
+      <c r="AE17" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="AF17" s="143"/>
-      <c r="AG17" s="143"/>
-      <c r="AH17" s="142">
+      <c r="AF17" s="130"/>
+      <c r="AG17" s="130"/>
+      <c r="AH17" s="129">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI17" s="142">
+      <c r="AI17" s="129">
         <v>2</v>
       </c>
-      <c r="AJ17" s="142">
+      <c r="AJ17" s="129">
         <v>2</v>
       </c>
-      <c r="AK17" s="142" t="b">
+      <c r="AK17" s="129" t="b">
         <v>1</v>
       </c>
-      <c r="AL17" s="142" t="b">
+      <c r="AL17" s="129" t="b">
         <v>1</v>
       </c>
-      <c r="AM17" s="142" t="b">
+      <c r="AM17" s="129" t="b">
         <v>1</v>
       </c>
-      <c r="AN17" s="142">
+      <c r="AN17" s="129">
         <v>10</v>
       </c>
-      <c r="AO17" s="144">
+      <c r="AO17" s="131">
         <v>0.55999999999999994</v>
       </c>
-      <c r="AP17" s="145"/>
-      <c r="AQ17" s="146"/>
-      <c r="AR17" s="147">
+      <c r="AP17" s="132"/>
+      <c r="AQ17" s="133"/>
+      <c r="AR17" s="134">
         <v>2E-3</v>
       </c>
-      <c r="AS17" s="148">
+      <c r="AS17" s="135">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT17" s="149">
+      <c r="AT17" s="136">
         <v>240</v>
       </c>
-      <c r="AU17" s="150">
+      <c r="AU17" s="137">
         <v>2.5</v>
       </c>
-      <c r="AV17" s="150">
+      <c r="AV17" s="137">
         <v>9.5</v>
       </c>
-      <c r="AW17" s="150">
+      <c r="AW17" s="137">
         <v>1.7</v>
       </c>
-      <c r="AX17" s="151">
+      <c r="AX17" s="138">
         <v>0.7</v>
       </c>
-      <c r="AY17" s="151">
+      <c r="AY17" s="138">
         <v>1.2</v>
       </c>
-      <c r="AZ17" s="151">
+      <c r="AZ17" s="138">
         <v>0</v>
       </c>
-      <c r="BA17" s="151">
+      <c r="BA17" s="138">
         <v>8</v>
       </c>
-      <c r="BB17" s="152" t="s">
+      <c r="BB17" s="139" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="126" t="s">
+      <c r="D18" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="127" t="s">
+      <c r="E18" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="128" t="s">
+      <c r="F18" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="129">
+      <c r="G18" s="116">
         <v>10</v>
       </c>
-      <c r="H18" s="130">
+      <c r="H18" s="117">
         <v>8</v>
       </c>
-      <c r="I18" s="131">
+      <c r="I18" s="118">
         <v>0</v>
       </c>
-      <c r="J18" s="132">
+      <c r="J18" s="119">
         <v>150</v>
       </c>
-      <c r="K18" s="133">
+      <c r="K18" s="120">
         <v>1.9</v>
       </c>
-      <c r="L18" s="133">
+      <c r="L18" s="120">
         <v>0</v>
       </c>
-      <c r="M18" s="133">
+      <c r="M18" s="120">
         <v>1.2E-2</v>
       </c>
-      <c r="N18" s="133">
+      <c r="N18" s="120">
         <v>30</v>
       </c>
-      <c r="O18" s="133">
+      <c r="O18" s="120">
         <v>0.6</v>
       </c>
-      <c r="P18" s="134">
+      <c r="P18" s="121">
         <v>0.95</v>
       </c>
-      <c r="Q18" s="135">
+      <c r="Q18" s="122">
         <v>1.2</v>
       </c>
-      <c r="R18" s="136">
+      <c r="R18" s="123">
         <v>120</v>
       </c>
-      <c r="S18" s="133">
+      <c r="S18" s="120">
         <v>25</v>
       </c>
-      <c r="T18" s="137">
+      <c r="T18" s="124">
         <v>35</v>
       </c>
-      <c r="U18" s="131">
+      <c r="U18" s="118">
         <v>11</v>
       </c>
-      <c r="V18" s="133">
+      <c r="V18" s="120">
         <v>4</v>
       </c>
-      <c r="W18" s="133">
+      <c r="W18" s="120">
         <v>10</v>
       </c>
-      <c r="X18" s="137">
+      <c r="X18" s="124">
         <v>15000</v>
       </c>
-      <c r="Y18" s="138">
+      <c r="Y18" s="125">
         <v>3</v>
       </c>
-      <c r="Z18" s="139">
+      <c r="Z18" s="126">
         <v>0.08</v>
       </c>
-      <c r="AA18" s="134">
+      <c r="AA18" s="121">
         <v>0</v>
       </c>
-      <c r="AB18" s="140">
+      <c r="AB18" s="127">
         <v>12</v>
       </c>
-      <c r="AC18" s="141" t="s">
+      <c r="AC18" s="128" t="s">
         <v>155</v>
       </c>
-      <c r="AD18" s="142" t="s">
+      <c r="AD18" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="AE18" s="142" t="s">
+      <c r="AE18" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="AF18" s="143"/>
-      <c r="AG18" s="143"/>
-      <c r="AH18" s="142">
+      <c r="AF18" s="130"/>
+      <c r="AG18" s="130"/>
+      <c r="AH18" s="129">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AI18" s="142">
+      <c r="AI18" s="129">
         <v>2</v>
       </c>
-      <c r="AJ18" s="142">
+      <c r="AJ18" s="129">
         <v>2</v>
       </c>
-      <c r="AK18" s="142" t="b">
+      <c r="AK18" s="129" t="b">
         <v>1</v>
       </c>
-      <c r="AL18" s="142" t="b">
+      <c r="AL18" s="129" t="b">
         <v>1</v>
       </c>
-      <c r="AM18" s="142" t="b">
+      <c r="AM18" s="129" t="b">
         <v>1</v>
       </c>
-      <c r="AN18" s="142">
+      <c r="AN18" s="129">
         <v>10</v>
       </c>
-      <c r="AO18" s="144">
+      <c r="AO18" s="131">
         <v>0.7</v>
       </c>
-      <c r="AP18" s="145"/>
-      <c r="AQ18" s="146"/>
-      <c r="AR18" s="147">
+      <c r="AP18" s="132"/>
+      <c r="AQ18" s="133"/>
+      <c r="AR18" s="134">
         <v>1.8E-3</v>
       </c>
-      <c r="AS18" s="148">
+      <c r="AS18" s="135">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT18" s="149">
+      <c r="AT18" s="136">
         <v>255</v>
       </c>
-      <c r="AU18" s="150">
+      <c r="AU18" s="137">
         <v>2.5</v>
       </c>
-      <c r="AV18" s="150">
+      <c r="AV18" s="137">
         <v>9.5</v>
       </c>
-      <c r="AW18" s="150">
+      <c r="AW18" s="137">
         <v>1.7</v>
       </c>
-      <c r="AX18" s="151">
+      <c r="AX18" s="138">
         <v>0.7</v>
       </c>
-      <c r="AY18" s="151">
+      <c r="AY18" s="138">
         <v>1.2</v>
       </c>
-      <c r="AZ18" s="151">
+      <c r="AZ18" s="138">
         <v>9</v>
       </c>
-      <c r="BA18" s="151">
+      <c r="BA18" s="138">
         <v>8</v>
       </c>
-      <c r="BB18" s="152" t="s">
+      <c r="BB18" s="139" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="126" t="s">
+      <c r="D19" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="127" t="s">
+      <c r="E19" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="128" t="s">
+      <c r="F19" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="129">
+      <c r="G19" s="116">
         <v>20</v>
       </c>
-      <c r="H19" s="130">
+      <c r="H19" s="117">
         <v>17</v>
       </c>
-      <c r="I19" s="131">
+      <c r="I19" s="118">
         <v>0</v>
       </c>
-      <c r="J19" s="132">
+      <c r="J19" s="119">
         <v>200</v>
       </c>
-      <c r="K19" s="133">
+      <c r="K19" s="120">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L19" s="133">
+      <c r="L19" s="120">
         <v>0</v>
       </c>
-      <c r="M19" s="133">
+      <c r="M19" s="120">
         <v>1.4E-2</v>
       </c>
-      <c r="N19" s="133">
+      <c r="N19" s="120">
         <v>25</v>
       </c>
-      <c r="O19" s="133">
+      <c r="O19" s="120">
         <v>0.7</v>
       </c>
-      <c r="P19" s="134">
+      <c r="P19" s="121">
         <v>1.55</v>
       </c>
-      <c r="Q19" s="135">
+      <c r="Q19" s="122">
         <v>1.2</v>
       </c>
-      <c r="R19" s="136">
+      <c r="R19" s="123">
         <v>140</v>
       </c>
-      <c r="S19" s="133">
+      <c r="S19" s="120">
         <v>25</v>
       </c>
-      <c r="T19" s="137">
+      <c r="T19" s="124">
         <v>35</v>
       </c>
-      <c r="U19" s="131">
+      <c r="U19" s="118">
         <v>11.5</v>
       </c>
-      <c r="V19" s="133">
+      <c r="V19" s="120">
         <v>5</v>
       </c>
-      <c r="W19" s="133">
+      <c r="W19" s="120">
         <v>10</v>
       </c>
-      <c r="X19" s="137">
+      <c r="X19" s="124">
         <v>27000</v>
       </c>
-      <c r="Y19" s="138">
+      <c r="Y19" s="125">
         <v>4</v>
       </c>
-      <c r="Z19" s="139">
+      <c r="Z19" s="126">
         <v>0.05</v>
       </c>
-      <c r="AA19" s="134">
+      <c r="AA19" s="121">
         <v>0</v>
       </c>
-      <c r="AB19" s="140">
+      <c r="AB19" s="127">
         <v>12</v>
       </c>
-      <c r="AC19" s="141" t="s">
+      <c r="AC19" s="128" t="s">
         <v>155</v>
       </c>
-      <c r="AD19" s="142" t="s">
+      <c r="AD19" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="AE19" s="142" t="s">
+      <c r="AE19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="AF19" s="143"/>
-      <c r="AG19" s="143"/>
-      <c r="AH19" s="142">
+      <c r="AF19" s="130"/>
+      <c r="AG19" s="130"/>
+      <c r="AH19" s="129">
         <v>2.1</v>
       </c>
-      <c r="AI19" s="142">
+      <c r="AI19" s="129">
         <v>2</v>
       </c>
-      <c r="AJ19" s="142">
+      <c r="AJ19" s="129">
         <v>2</v>
       </c>
-      <c r="AK19" s="142" t="b">
+      <c r="AK19" s="129" t="b">
         <v>1</v>
       </c>
-      <c r="AL19" s="142" t="b">
+      <c r="AL19" s="129" t="b">
         <v>1</v>
       </c>
-      <c r="AM19" s="142" t="b">
+      <c r="AM19" s="129" t="b">
         <v>1</v>
       </c>
-      <c r="AN19" s="142">
+      <c r="AN19" s="129">
         <v>10</v>
       </c>
-      <c r="AO19" s="144">
+      <c r="AO19" s="131">
         <v>0.7</v>
       </c>
-      <c r="AP19" s="145"/>
-      <c r="AQ19" s="146"/>
-      <c r="AR19" s="147">
+      <c r="AP19" s="132"/>
+      <c r="AQ19" s="133"/>
+      <c r="AR19" s="134">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AS19" s="148">
+      <c r="AS19" s="135">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT19" s="149">
+      <c r="AT19" s="136">
         <v>270</v>
       </c>
-      <c r="AU19" s="150">
+      <c r="AU19" s="137">
         <v>2.5</v>
       </c>
-      <c r="AV19" s="150">
+      <c r="AV19" s="137">
         <v>9.5</v>
       </c>
-      <c r="AW19" s="150">
+      <c r="AW19" s="137">
         <v>1.7</v>
       </c>
-      <c r="AX19" s="151">
+      <c r="AX19" s="138">
         <v>0.7</v>
       </c>
-      <c r="AY19" s="151">
+      <c r="AY19" s="138">
         <v>1.2</v>
       </c>
-      <c r="AZ19" s="151">
+      <c r="AZ19" s="138">
         <v>45</v>
       </c>
-      <c r="BA19" s="151">
+      <c r="BA19" s="138">
         <v>15</v>
       </c>
-      <c r="BB19" s="152" t="s">
+      <c r="BB19" s="139" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="125" t="s">
+      <c r="C20" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="126" t="s">
+      <c r="D20" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="127" t="s">
+      <c r="E20" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="128" t="s">
+      <c r="F20" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="129">
+      <c r="G20" s="116">
         <v>30</v>
       </c>
-      <c r="H20" s="130">
+      <c r="H20" s="117">
         <v>25</v>
       </c>
-      <c r="I20" s="131">
+      <c r="I20" s="118">
         <v>0</v>
       </c>
-      <c r="J20" s="132">
+      <c r="J20" s="119">
         <v>250</v>
       </c>
-      <c r="K20" s="133">
+      <c r="K20" s="120">
         <v>2.4</v>
       </c>
-      <c r="L20" s="133">
+      <c r="L20" s="120">
         <v>0</v>
       </c>
-      <c r="M20" s="133">
+      <c r="M20" s="120">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="N20" s="133">
+      <c r="N20" s="120">
         <v>20</v>
       </c>
-      <c r="O20" s="133">
+      <c r="O20" s="120">
         <v>0.8</v>
       </c>
-      <c r="P20" s="134">
+      <c r="P20" s="121">
         <v>1.9</v>
       </c>
-      <c r="Q20" s="135">
+      <c r="Q20" s="122">
         <v>1.2</v>
       </c>
-      <c r="R20" s="136">
+      <c r="R20" s="123">
         <v>160</v>
       </c>
-      <c r="S20" s="133">
+      <c r="S20" s="120">
         <v>25</v>
       </c>
-      <c r="T20" s="137">
+      <c r="T20" s="124">
         <v>35</v>
       </c>
-      <c r="U20" s="131">
+      <c r="U20" s="118">
         <v>12</v>
       </c>
-      <c r="V20" s="133">
+      <c r="V20" s="120">
         <v>6</v>
       </c>
-      <c r="W20" s="133">
+      <c r="W20" s="120">
         <v>10</v>
       </c>
-      <c r="X20" s="137">
+      <c r="X20" s="124">
         <v>45000</v>
       </c>
-      <c r="Y20" s="138">
+      <c r="Y20" s="125">
         <v>5</v>
       </c>
-      <c r="Z20" s="139">
+      <c r="Z20" s="126">
         <v>0.04</v>
       </c>
-      <c r="AA20" s="134">
+      <c r="AA20" s="121">
         <v>0</v>
       </c>
-      <c r="AB20" s="140">
+      <c r="AB20" s="127">
         <v>12</v>
       </c>
-      <c r="AC20" s="141" t="s">
+      <c r="AC20" s="128" t="s">
         <v>155</v>
       </c>
-      <c r="AD20" s="142" t="s">
+      <c r="AD20" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="AE20" s="142" t="s">
+      <c r="AE20" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="AF20" s="143"/>
-      <c r="AG20" s="143"/>
-      <c r="AH20" s="142">
+      <c r="AF20" s="130"/>
+      <c r="AG20" s="130"/>
+      <c r="AH20" s="129">
         <v>2.1</v>
       </c>
-      <c r="AI20" s="142">
+      <c r="AI20" s="129">
         <v>2</v>
       </c>
-      <c r="AJ20" s="142">
+      <c r="AJ20" s="129">
         <v>2</v>
       </c>
-      <c r="AK20" s="142" t="b">
+      <c r="AK20" s="129" t="b">
         <v>1</v>
       </c>
-      <c r="AL20" s="142" t="b">
+      <c r="AL20" s="129" t="b">
         <v>1</v>
       </c>
-      <c r="AM20" s="142" t="b">
+      <c r="AM20" s="129" t="b">
         <v>1</v>
       </c>
-      <c r="AN20" s="142">
+      <c r="AN20" s="129">
         <v>10</v>
       </c>
-      <c r="AO20" s="144">
+      <c r="AO20" s="131">
         <v>0.7</v>
       </c>
-      <c r="AP20" s="145"/>
-      <c r="AQ20" s="146"/>
-      <c r="AR20" s="147">
+      <c r="AP20" s="132"/>
+      <c r="AQ20" s="133"/>
+      <c r="AR20" s="134">
         <v>1.5E-3</v>
       </c>
-      <c r="AS20" s="148">
+      <c r="AS20" s="135">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT20" s="149">
+      <c r="AT20" s="136">
         <v>285</v>
       </c>
-      <c r="AU20" s="150">
+      <c r="AU20" s="137">
         <v>2.5</v>
       </c>
-      <c r="AV20" s="150">
+      <c r="AV20" s="137">
         <v>9.5</v>
       </c>
-      <c r="AW20" s="150">
+      <c r="AW20" s="137">
         <v>1.7</v>
       </c>
-      <c r="AX20" s="151">
+      <c r="AX20" s="138">
         <v>0.7</v>
       </c>
-      <c r="AY20" s="151">
+      <c r="AY20" s="138">
         <v>1.2</v>
       </c>
-      <c r="AZ20" s="151">
+      <c r="AZ20" s="138">
         <v>59</v>
       </c>
-      <c r="BA20" s="151">
+      <c r="BA20" s="138">
         <v>15</v>
       </c>
-      <c r="BB20" s="152" t="s">
+      <c r="BB20" s="139" t="s">
         <v>7</v>
       </c>
     </row>
@@ -12411,44 +17826,44 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="118" t="s">
+      <c r="H25" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="119"/>
-      <c r="J25" s="120" t="s">
+      <c r="I25" s="148"/>
+      <c r="J25" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="121"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="122"/>
+      <c r="K25" s="150"/>
+      <c r="L25" s="150"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="151"/>
       <c r="P25" s="79"/>
-      <c r="Q25" s="114" t="s">
+      <c r="Q25" s="143" t="s">
         <v>145</v>
       </c>
-      <c r="R25" s="115"/>
-      <c r="S25" s="115"/>
-      <c r="T25" s="115"/>
-      <c r="U25" s="116" t="s">
+      <c r="R25" s="144"/>
+      <c r="S25" s="144"/>
+      <c r="T25" s="144"/>
+      <c r="U25" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="117"/>
-      <c r="W25" s="117"/>
-      <c r="X25" s="117"/>
+      <c r="V25" s="146"/>
+      <c r="W25" s="146"/>
+      <c r="X25" s="146"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
-      <c r="AH25" s="111" t="s">
+      <c r="AH25" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="AI25" s="112"/>
-      <c r="AJ25" s="112"/>
-      <c r="AK25" s="112"/>
-      <c r="AL25" s="112"/>
-      <c r="AM25" s="112"/>
-      <c r="AN25" s="113"/>
+      <c r="AI25" s="141"/>
+      <c r="AJ25" s="141"/>
+      <c r="AK25" s="141"/>
+      <c r="AL25" s="141"/>
+      <c r="AM25" s="141"/>
+      <c r="AN25" s="142"/>
     </row>
     <row r="27" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
@@ -12652,43 +18067,43 @@
     <mergeCell ref="J25:O25"/>
   </mergeCells>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="100" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D6">
-    <cfRule type="duplicateValues" dxfId="99" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T6">
-    <cfRule type="duplicateValues" dxfId="98" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C36">
-    <cfRule type="duplicateValues" dxfId="97" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C33">
-    <cfRule type="duplicateValues" dxfId="96" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39">
-    <cfRule type="duplicateValues" dxfId="95" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:C24">
-    <cfRule type="duplicateValues" dxfId="94" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB17">
-    <cfRule type="duplicateValues" dxfId="92" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB18:BB20">
-    <cfRule type="duplicateValues" dxfId="91" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB13">
-    <cfRule type="duplicateValues" dxfId="90" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB14:BB16">
-    <cfRule type="duplicateValues" dxfId="89" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB21">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB22:BB24">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="1"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D13:D24">
@@ -12709,8 +18124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AC63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12732,12 +18147,12 @@
     </row>
     <row r="3" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D3" s="70"/>
-      <c r="E3" s="123" t="s">
+      <c r="E3" s="152" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
       <c r="J3" s="70" t="s">
         <v>121</v>
       </c>
@@ -13628,22 +19043,22 @@
     <mergeCell ref="E3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:E15">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>E13&gt;$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$E$13&gt;$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$E$14&gt;$T$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$E$15&gt;$AB$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13654,6 +19069,954 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:AC63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X35" sqref="X35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="27" max="27" width="11.28515625" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="C1" s="72" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D3" s="70"/>
+      <c r="E3" s="152" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="J3" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="R3" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z3" s="70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D4" s="71"/>
+      <c r="E4" s="71">
+        <v>1</v>
+      </c>
+      <c r="F4" s="71">
+        <v>2</v>
+      </c>
+      <c r="G4" s="71">
+        <v>3</v>
+      </c>
+      <c r="H4" s="71">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" s="69">
+        <v>30</v>
+      </c>
+      <c r="S4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T4" s="69">
+        <v>30</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB4" s="69">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D5" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="73">
+        <v>100</v>
+      </c>
+      <c r="F5" s="73">
+        <v>150</v>
+      </c>
+      <c r="G5" s="73">
+        <v>200</v>
+      </c>
+      <c r="H5" s="73">
+        <v>250</v>
+      </c>
+      <c r="K5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="69">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>156</v>
+      </c>
+      <c r="S5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T5" s="69">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D6" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="73">
+        <v>100</v>
+      </c>
+      <c r="F6" s="73">
+        <v>120</v>
+      </c>
+      <c r="G6" s="73">
+        <v>140</v>
+      </c>
+      <c r="H6" s="73">
+        <v>160</v>
+      </c>
+      <c r="K6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="69">
+        <v>100</v>
+      </c>
+      <c r="M6" t="s">
+        <v>156</v>
+      </c>
+      <c r="S6" t="s">
+        <v>118</v>
+      </c>
+      <c r="T6" s="69">
+        <v>50</v>
+      </c>
+      <c r="U6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB6" s="69">
+        <v>50</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="81">
+        <v>240</v>
+      </c>
+      <c r="F7" s="81">
+        <v>255</v>
+      </c>
+      <c r="G7" s="81">
+        <v>270</v>
+      </c>
+      <c r="H7" s="81">
+        <v>285</v>
+      </c>
+      <c r="K7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7">
+        <f>ROUND((L6-L5)/L4,1)</f>
+        <v>3.3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>156</v>
+      </c>
+      <c r="S7" t="s">
+        <v>131</v>
+      </c>
+      <c r="T7">
+        <f>ROUND((T6-T5)/T4,1)</f>
+        <v>1.7</v>
+      </c>
+      <c r="U7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB7">
+        <f>ROUND((AB6-AB5)/AB4,1)</f>
+        <v>1.7</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="82">
+        <v>0</v>
+      </c>
+      <c r="F8" s="82">
+        <v>10</v>
+      </c>
+      <c r="G8" s="82">
+        <v>20</v>
+      </c>
+      <c r="H8" s="83">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C11" s="85"/>
+      <c r="D11" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="87">
+        <f>IF(E16&lt;F8,1,IF(AND(E16&gt;=F8,E16&lt;G8),2,IF(AND(E16&gt;=G8,E16&lt;H8),3,4)))</f>
+        <v>4</v>
+      </c>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="88"/>
+      <c r="J11" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="R11" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="S11" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="T11" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="U11" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Z11" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA11" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB11" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC11" s="74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="89"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="78"/>
+      <c r="J12" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12">
+        <f>E5</f>
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <f>E5+E5*(L6/100)</f>
+        <v>200</v>
+      </c>
+      <c r="M12">
+        <f>L12-K12</f>
+        <v>100</v>
+      </c>
+      <c r="R12" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="S12">
+        <f>E6</f>
+        <v>100</v>
+      </c>
+      <c r="T12">
+        <f>E6+E6*(T6/100)</f>
+        <v>150</v>
+      </c>
+      <c r="U12">
+        <f>T12-S12</f>
+        <v>50</v>
+      </c>
+      <c r="Z12" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA12">
+        <f>ROUND((E7/'special dragons'!AV13)/'special dragons'!AU13,1)</f>
+        <v>10.1</v>
+      </c>
+      <c r="AB12">
+        <f>ROUND(((E7+E7*(AB6/100))/'special dragons'!AV13)/'special dragons'!AU13,1)</f>
+        <v>15.2</v>
+      </c>
+      <c r="AC12">
+        <f>AB12-AA12</f>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="91">
+        <v>20</v>
+      </c>
+      <c r="F13" s="90"/>
+      <c r="G13" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="76">
+        <f ca="1">INDIRECT(ADDRESS(5,4+E11)) + (INDIRECT(ADDRESS(5,4+E11)) *(L7/100) *E13)</f>
+        <v>415</v>
+      </c>
+      <c r="J13" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13">
+        <f>F5</f>
+        <v>150</v>
+      </c>
+      <c r="L13">
+        <f>F5+F5*(L6/100)</f>
+        <v>300</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:M15" si="0">L13-K13</f>
+        <v>150</v>
+      </c>
+      <c r="R13" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="S13">
+        <f>F6</f>
+        <v>120</v>
+      </c>
+      <c r="T13">
+        <f>F6+F6*(T6/100)</f>
+        <v>180</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ref="U13:U15" si="1">T13-S13</f>
+        <v>60</v>
+      </c>
+      <c r="Z13" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA13">
+        <f>ROUND((F7/'special dragons'!AV14)/'special dragons'!AU14,1)</f>
+        <v>10.7</v>
+      </c>
+      <c r="AB13">
+        <f>ROUND(((F7+F7*(AB6/100))/'special dragons'!AV14)/'special dragons'!AU14,1)</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AC13">
+        <f>AB13-AA13</f>
+        <v>5.4000000000000021</v>
+      </c>
+    </row>
+    <row r="14" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="90" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="91">
+        <v>9</v>
+      </c>
+      <c r="F14" s="90"/>
+      <c r="G14" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="76">
+        <f ca="1">INDIRECT(ADDRESS(6,4+E11)) + (INDIRECT(ADDRESS(6,4+E11)) *(T7/100) *E14)</f>
+        <v>184.48</v>
+      </c>
+      <c r="J14" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14">
+        <f>G5</f>
+        <v>200</v>
+      </c>
+      <c r="L14">
+        <f>G5+G5*(L6/100)</f>
+        <v>400</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="R14" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="S14">
+        <f>G6</f>
+        <v>140</v>
+      </c>
+      <c r="T14">
+        <f>G6+G6*(T6/100)</f>
+        <v>210</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="Z14" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA14">
+        <f>ROUND((G7/'special dragons'!AV15)/'special dragons'!AU15,1)</f>
+        <v>11.4</v>
+      </c>
+      <c r="AB14">
+        <f>ROUND(((G7+G7*(AB6/100))/'special dragons'!AV15)/'special dragons'!AU15,1)</f>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AC14">
+        <f>AB14-AA14</f>
+        <v>5.7000000000000011</v>
+      </c>
+    </row>
+    <row r="15" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="91">
+        <v>12</v>
+      </c>
+      <c r="F15" s="90"/>
+      <c r="G15" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="76">
+        <f ca="1">ROUND(((INDIRECT(ADDRESS(7,4+E11)) + (INDIRECT(ADDRESS(7,4+E11)) *(AB7/100) *E15))/INDIRECT(ADDRESS(12+E11,48,1,1,"special dragons")))/INDIRECT(ADDRESS(12+E11,47,1,1,"special dragons")),1)</f>
+        <v>14.4</v>
+      </c>
+      <c r="J15" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15">
+        <f>H5</f>
+        <v>250</v>
+      </c>
+      <c r="L15">
+        <f>H5+H5*(L6/100)</f>
+        <v>500</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="R15" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="S15">
+        <f>H6</f>
+        <v>160</v>
+      </c>
+      <c r="T15">
+        <f>H6+H6*(T6/100)</f>
+        <v>240</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="Z15" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA15">
+        <f>ROUND((H7/'special dragons'!AV16)/'special dragons'!AU16,1)</f>
+        <v>12</v>
+      </c>
+      <c r="AB15">
+        <f>ROUND(((H7+H7*(AB6/100))/'special dragons'!AV16)/'special dragons'!AU16,1)</f>
+        <v>18</v>
+      </c>
+      <c r="AC15">
+        <f>AB15-AA15</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C16" s="89"/>
+      <c r="D16" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="96">
+        <f>SUM(E13:E15)</f>
+        <v>41</v>
+      </c>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="78"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="89"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="78"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="89"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="78"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="78"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="78"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="78"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="78"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="89"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="78"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="78"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="89"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="78"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="78"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="78"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="89"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="78"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="89"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="78"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="78"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="89"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="78"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="89"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="78"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="89"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="78"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="89"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="78"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="89"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="78"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="89"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="78"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="89"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="78"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="89"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="78"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="89"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="78"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="89"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="78"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="89"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="78"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="89"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="78"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="89"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="78"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="89"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="78"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="89"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="78"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="89"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="78"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="89"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="78"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="89"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="78"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="89"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="78"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="89"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="78"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="89"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="78"/>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" s="89"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="78"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="89"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="78"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="89"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="78"/>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="89"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="78"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="89"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="90"/>
+      <c r="G56" s="90"/>
+      <c r="H56" s="78"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="89"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="78"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="89"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="78"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="89"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="78"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="89"/>
+      <c r="D60" s="90"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="90"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="78"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="89"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="78"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="89"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="78"/>
+    </row>
+    <row r="63" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="92"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="93"/>
+      <c r="H63" s="94"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:H3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E13:E15">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>E13&gt;$L$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$E$13&gt;$L$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$E$14&gt;$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$E$15&gt;$AB$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:I9"/>
   <sheetViews>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500"/>
   </bookViews>
   <sheets>
     <sheet name="special dragons" sheetId="10" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="165">
   <si>
     <t>[sku]</t>
   </si>
@@ -510,6 +510,18 @@
   </si>
   <si>
     <t>HELICOPTER</t>
+  </si>
+  <si>
+    <t>PROBAR: Drain casi que no incremente con el tiempo (que sea muy poco), pero ya desde el principio un drain muy bestia</t>
+  </si>
+  <si>
+    <t>El uso del boost ha de matar mucho (metralleta, misiles, bombas…)</t>
+  </si>
+  <si>
+    <t>El boost ha de dudar bastante y regenerar rapido</t>
+  </si>
+  <si>
+    <t>-&gt; Hacer depender la vida del dragon de matar con el boost</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1606,6 +1618,14 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4655,7 +4675,7 @@
                   <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>415</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4964,7 +4984,7 @@
                   <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>184.48</c:v>
+                  <c:v>140.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5273,7 +5293,7 @@
                   <c:v>15.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.4</c:v>
+                  <c:v>10.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6226,7 +6246,7 @@
                   <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>415</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6535,7 +6555,7 @@
                   <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>184.48</c:v>
+                  <c:v>140.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6844,7 +6864,7 @@
                   <c:v>15.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.4</c:v>
+                  <c:v>10.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7115,16 +7135,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7158,16 +7178,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7437,16 +7457,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7480,16 +7500,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7759,16 +7779,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10.1</c:v>
+                  <c:v>13.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.7</c:v>
+                  <c:v>14.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>17.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7802,16 +7822,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>6.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4000000000000021</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7000000000000011</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15353,8 +15373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView topLeftCell="AL4" workbookViewId="0">
-      <selection activeCell="AV13" sqref="AV13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16007,16 +16027,16 @@
         <v>0</v>
       </c>
       <c r="J13" s="109">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K13" s="97">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="L13" s="97">
         <v>0</v>
       </c>
       <c r="M13" s="97">
-        <v>8.9999999999999993E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="N13" s="97">
         <v>30</v>
@@ -16031,13 +16051,13 @@
         <v>1.2</v>
       </c>
       <c r="R13" s="97">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="S13" s="97">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T13" s="98">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="U13" s="99">
         <v>9</v>
@@ -16106,17 +16126,17 @@
       <c r="AS13" s="105">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT13" s="110">
-        <v>240</v>
-      </c>
-      <c r="AU13" s="106">
+      <c r="AT13" s="154">
+        <v>100</v>
+      </c>
+      <c r="AU13" s="153">
         <v>2.5</v>
       </c>
-      <c r="AV13" s="106">
-        <v>9.5</v>
-      </c>
-      <c r="AW13" s="106">
-        <v>1.7</v>
+      <c r="AV13" s="153">
+        <v>3</v>
+      </c>
+      <c r="AW13" s="153">
+        <v>0</v>
       </c>
       <c r="AX13" s="107">
         <v>0.7</v>
@@ -16160,16 +16180,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="109">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K14" s="97">
-        <v>1.9</v>
+        <v>6.4</v>
       </c>
       <c r="L14" s="97">
         <v>0</v>
       </c>
       <c r="M14" s="97">
-        <v>1.2E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="N14" s="97">
         <v>30</v>
@@ -16184,13 +16204,13 @@
         <v>1.2</v>
       </c>
       <c r="R14" s="97">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="S14" s="97">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T14" s="98">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="U14" s="99">
         <v>11</v>
@@ -16259,17 +16279,17 @@
       <c r="AS14" s="105">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT14" s="110">
-        <v>255</v>
-      </c>
-      <c r="AU14" s="106">
+      <c r="AT14" s="154">
+        <v>110</v>
+      </c>
+      <c r="AU14" s="153">
         <v>2.5</v>
       </c>
-      <c r="AV14" s="106">
-        <v>9.5</v>
-      </c>
-      <c r="AW14" s="106">
-        <v>1.7</v>
+      <c r="AV14" s="153">
+        <v>3</v>
+      </c>
+      <c r="AW14" s="153">
+        <v>0</v>
       </c>
       <c r="AX14" s="107">
         <v>0.7</v>
@@ -16313,16 +16333,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="109">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K15" s="97">
-        <v>2.2999999999999998</v>
+        <v>6.8</v>
       </c>
       <c r="L15" s="97">
         <v>0</v>
       </c>
       <c r="M15" s="97">
-        <v>1.4E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="N15" s="97">
         <v>25</v>
@@ -16337,13 +16357,13 @@
         <v>1.2</v>
       </c>
       <c r="R15" s="97">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="S15" s="97">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T15" s="98">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="U15" s="99">
         <v>11.5</v>
@@ -16412,17 +16432,17 @@
       <c r="AS15" s="105">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT15" s="110">
-        <v>270</v>
-      </c>
-      <c r="AU15" s="106">
+      <c r="AT15" s="154">
+        <v>120</v>
+      </c>
+      <c r="AU15" s="153">
         <v>2.5</v>
       </c>
-      <c r="AV15" s="106">
-        <v>9.5</v>
-      </c>
-      <c r="AW15" s="106">
-        <v>1.7</v>
+      <c r="AV15" s="153">
+        <v>3</v>
+      </c>
+      <c r="AW15" s="153">
+        <v>0</v>
       </c>
       <c r="AX15" s="107">
         <v>0.7</v>
@@ -16467,16 +16487,16 @@
         <v>0</v>
       </c>
       <c r="J16" s="109">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K16" s="97">
-        <v>2.4</v>
+        <v>7.2</v>
       </c>
       <c r="L16" s="97">
         <v>0</v>
       </c>
       <c r="M16" s="97">
-        <v>1.7000000000000001E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="N16" s="97">
         <v>20</v>
@@ -16491,13 +16511,13 @@
         <v>1.2</v>
       </c>
       <c r="R16" s="97">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="S16" s="97">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T16" s="98">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="U16" s="99">
         <v>12</v>
@@ -16566,17 +16586,17 @@
       <c r="AS16" s="105">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT16" s="110">
-        <v>285</v>
-      </c>
-      <c r="AU16" s="106">
+      <c r="AT16" s="154">
+        <v>130</v>
+      </c>
+      <c r="AU16" s="153">
         <v>2.5</v>
       </c>
-      <c r="AV16" s="106">
-        <v>9.5</v>
-      </c>
-      <c r="AW16" s="106">
-        <v>1.7</v>
+      <c r="AV16" s="153">
+        <v>3</v>
+      </c>
+      <c r="AW16" s="153">
+        <v>0</v>
       </c>
       <c r="AX16" s="107">
         <v>0.7</v>
@@ -18124,8 +18144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AC63"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18356,7 +18376,7 @@
       </c>
       <c r="E11" s="87">
         <f>IF(E16&lt;F8,1,IF(AND(E16&gt;=F8,E16&lt;G8),2,IF(AND(E16&gt;=G8,E16&lt;H8),3,4)))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87"/>
@@ -18465,7 +18485,7 @@
         <v>124</v>
       </c>
       <c r="E13" s="91">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F13" s="90"/>
       <c r="G13" s="75" t="s">
@@ -18473,7 +18493,7 @@
       </c>
       <c r="H13" s="76">
         <f ca="1">INDIRECT(ADDRESS(5,4+E11)) + (INDIRECT(ADDRESS(5,4+E11)) *(L7/100) *E13)</f>
-        <v>415</v>
+        <v>150</v>
       </c>
       <c r="J13" s="70" t="s">
         <v>135</v>
@@ -18529,7 +18549,7 @@
         <v>126</v>
       </c>
       <c r="E14" s="91">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="90"/>
       <c r="G14" s="75" t="s">
@@ -18537,7 +18557,7 @@
       </c>
       <c r="H14" s="76">
         <f ca="1">INDIRECT(ADDRESS(6,4+E11)) + (INDIRECT(ADDRESS(6,4+E11)) *(T7/100) *E14)</f>
-        <v>184.48</v>
+        <v>140.4</v>
       </c>
       <c r="J14" s="70" t="s">
         <v>136</v>
@@ -18593,7 +18613,7 @@
         <v>127</v>
       </c>
       <c r="E15" s="91">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F15" s="90"/>
       <c r="G15" s="75" t="s">
@@ -18601,7 +18621,7 @@
       </c>
       <c r="H15" s="76">
         <f ca="1">ROUND(((INDIRECT(ADDRESS(7,4+E11)) + (INDIRECT(ADDRESS(7,4+E11)) *(AB7/100) *E15))/INDIRECT(ADDRESS(16+E11,48,1,1,"special dragons")))/INDIRECT(ADDRESS(16+E11,47,1,1,"special dragons")),1)</f>
-        <v>14.4</v>
+        <v>10.7</v>
       </c>
       <c r="J15" s="70" t="s">
         <v>137</v>
@@ -18656,7 +18676,7 @@
       </c>
       <c r="E16" s="96">
         <f>SUM(E13:E15)</f>
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F16" s="90"/>
       <c r="G16" s="90"/>
@@ -19072,8 +19092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X35" sqref="X35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19149,16 +19169,16 @@
         <v>121</v>
       </c>
       <c r="E5" s="73">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F5" s="73">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G5" s="73">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="H5" s="73">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K5" t="s">
         <v>117</v>
@@ -19193,16 +19213,16 @@
         <v>122</v>
       </c>
       <c r="E6" s="73">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F6" s="73">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G6" s="73">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H6" s="73">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K6" t="s">
         <v>118</v>
@@ -19237,16 +19257,16 @@
         <v>123</v>
       </c>
       <c r="E7" s="81">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="F7" s="81">
-        <v>255</v>
+        <v>110</v>
       </c>
       <c r="G7" s="81">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="H7" s="81">
-        <v>285</v>
+        <v>130</v>
       </c>
       <c r="K7" t="s">
         <v>131</v>
@@ -19304,7 +19324,7 @@
       </c>
       <c r="E11" s="87">
         <f>IF(E16&lt;F8,1,IF(AND(E16&gt;=F8,E16&lt;G8),2,IF(AND(E16&gt;=G8,E16&lt;H8),3,4)))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87"/>
@@ -19364,45 +19384,45 @@
       </c>
       <c r="K12">
         <f>E5</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L12">
         <f>E5+E5*(L6/100)</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M12">
         <f>L12-K12</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="R12" s="70" t="s">
         <v>132</v>
       </c>
       <c r="S12">
         <f>E6</f>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="T12">
         <f>E6+E6*(T6/100)</f>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="U12">
         <f>T12-S12</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Z12" s="70" t="s">
         <v>132</v>
       </c>
       <c r="AA12">
         <f>ROUND((E7/'special dragons'!AV13)/'special dragons'!AU13,1)</f>
-        <v>10.1</v>
+        <v>13.3</v>
       </c>
       <c r="AB12">
         <f>ROUND(((E7+E7*(AB6/100))/'special dragons'!AV13)/'special dragons'!AU13,1)</f>
-        <v>15.2</v>
+        <v>20</v>
       </c>
       <c r="AC12">
         <f>AB12-AA12</f>
-        <v>5.0999999999999996</v>
+        <v>6.6999999999999993</v>
       </c>
     </row>
     <row r="13" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19413,7 +19433,7 @@
         <v>124</v>
       </c>
       <c r="E13" s="91">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F13" s="90"/>
       <c r="G13" s="75" t="s">
@@ -19421,52 +19441,52 @@
       </c>
       <c r="H13" s="76">
         <f ca="1">INDIRECT(ADDRESS(5,4+E11)) + (INDIRECT(ADDRESS(5,4+E11)) *(L7/100) *E13)</f>
-        <v>415</v>
+        <v>150</v>
       </c>
       <c r="J13" s="70" t="s">
         <v>135</v>
       </c>
       <c r="K13">
         <f>F5</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L13">
         <f>F5+F5*(L6/100)</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M13">
         <f t="shared" ref="M13:M15" si="0">L13-K13</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="R13" s="70" t="s">
         <v>135</v>
       </c>
       <c r="S13">
         <f>F6</f>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="T13">
         <f>F6+F6*(T6/100)</f>
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="U13">
         <f t="shared" ref="U13:U15" si="1">T13-S13</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Z13" s="70" t="s">
         <v>135</v>
       </c>
       <c r="AA13">
         <f>ROUND((F7/'special dragons'!AV14)/'special dragons'!AU14,1)</f>
-        <v>10.7</v>
+        <v>14.7</v>
       </c>
       <c r="AB13">
         <f>ROUND(((F7+F7*(AB6/100))/'special dragons'!AV14)/'special dragons'!AU14,1)</f>
-        <v>16.100000000000001</v>
+        <v>22</v>
       </c>
       <c r="AC13">
         <f>AB13-AA13</f>
-        <v>5.4000000000000021</v>
+        <v>7.3000000000000007</v>
       </c>
     </row>
     <row r="14" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19477,7 +19497,7 @@
         <v>126</v>
       </c>
       <c r="E14" s="91">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F14" s="90"/>
       <c r="G14" s="75" t="s">
@@ -19485,52 +19505,52 @@
       </c>
       <c r="H14" s="76">
         <f ca="1">INDIRECT(ADDRESS(6,4+E11)) + (INDIRECT(ADDRESS(6,4+E11)) *(T7/100) *E14)</f>
-        <v>184.48</v>
+        <v>120</v>
       </c>
       <c r="J14" s="70" t="s">
         <v>136</v>
       </c>
       <c r="K14">
         <f>G5</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L14">
         <f>G5+G5*(L6/100)</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="R14" s="70" t="s">
         <v>136</v>
       </c>
       <c r="S14">
         <f>G6</f>
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="T14">
         <f>G6+G6*(T6/100)</f>
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="U14">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Z14" s="70" t="s">
         <v>136</v>
       </c>
       <c r="AA14">
         <f>ROUND((G7/'special dragons'!AV15)/'special dragons'!AU15,1)</f>
-        <v>11.4</v>
+        <v>16</v>
       </c>
       <c r="AB14">
         <f>ROUND(((G7+G7*(AB6/100))/'special dragons'!AV15)/'special dragons'!AU15,1)</f>
-        <v>17.100000000000001</v>
+        <v>24</v>
       </c>
       <c r="AC14">
         <f>AB14-AA14</f>
-        <v>5.7000000000000011</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19541,7 +19561,7 @@
         <v>127</v>
       </c>
       <c r="E15" s="91">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F15" s="90"/>
       <c r="G15" s="75" t="s">
@@ -19549,52 +19569,52 @@
       </c>
       <c r="H15" s="76">
         <f ca="1">ROUND(((INDIRECT(ADDRESS(7,4+E11)) + (INDIRECT(ADDRESS(7,4+E11)) *(AB7/100) *E15))/INDIRECT(ADDRESS(12+E11,48,1,1,"special dragons")))/INDIRECT(ADDRESS(12+E11,47,1,1,"special dragons")),1)</f>
-        <v>14.4</v>
+        <v>13.3</v>
       </c>
       <c r="J15" s="70" t="s">
         <v>137</v>
       </c>
       <c r="K15">
         <f>H5</f>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L15">
         <f>H5+H5*(L6/100)</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="R15" s="70" t="s">
         <v>137</v>
       </c>
       <c r="S15">
         <f>H6</f>
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="T15">
         <f>H6+H6*(T6/100)</f>
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="U15">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Z15" s="70" t="s">
         <v>137</v>
       </c>
       <c r="AA15">
         <f>ROUND((H7/'special dragons'!AV16)/'special dragons'!AU16,1)</f>
-        <v>12</v>
+        <v>17.3</v>
       </c>
       <c r="AB15">
         <f>ROUND(((H7+H7*(AB6/100))/'special dragons'!AV16)/'special dragons'!AU16,1)</f>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AC15">
         <f>AB15-AA15</f>
-        <v>6</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="16" spans="3:29" x14ac:dyDescent="0.25">
@@ -19604,7 +19624,7 @@
       </c>
       <c r="E16" s="96">
         <f>SUM(E13:E15)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F16" s="90"/>
       <c r="G16" s="90"/>
@@ -19738,7 +19758,7 @@
       <c r="G32" s="90"/>
       <c r="H32" s="78"/>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" s="89"/>
       <c r="D33" s="90"/>
       <c r="E33" s="90"/>
@@ -19746,7 +19766,7 @@
       <c r="G33" s="90"/>
       <c r="H33" s="78"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C34" s="89"/>
       <c r="D34" s="90"/>
       <c r="E34" s="90"/>
@@ -19754,39 +19774,55 @@
       <c r="G34" s="90"/>
       <c r="H34" s="78"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C35" s="89"/>
       <c r="D35" s="90"/>
       <c r="E35" s="90"/>
       <c r="F35" s="90"/>
       <c r="G35" s="90"/>
       <c r="H35" s="78"/>
+      <c r="N35" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="O35" s="155"/>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C36" s="89"/>
       <c r="D36" s="90"/>
       <c r="E36" s="90"/>
       <c r="F36" s="90"/>
       <c r="G36" s="90"/>
       <c r="H36" s="78"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="155" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C37" s="89"/>
       <c r="D37" s="90"/>
       <c r="E37" s="90"/>
       <c r="F37" s="90"/>
       <c r="G37" s="90"/>
       <c r="H37" s="78"/>
+      <c r="N37" s="155"/>
+      <c r="O37" s="155" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C38" s="89"/>
       <c r="D38" s="90"/>
       <c r="E38" s="90"/>
       <c r="F38" s="90"/>
       <c r="G38" s="90"/>
       <c r="H38" s="78"/>
+      <c r="N38" s="155"/>
+      <c r="O38" s="156" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C39" s="89"/>
       <c r="D39" s="90"/>
       <c r="E39" s="90"/>
@@ -19794,7 +19830,7 @@
       <c r="G39" s="90"/>
       <c r="H39" s="78"/>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C40" s="89"/>
       <c r="D40" s="90"/>
       <c r="E40" s="90"/>
@@ -19802,7 +19838,7 @@
       <c r="G40" s="90"/>
       <c r="H40" s="78"/>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C41" s="89"/>
       <c r="D41" s="90"/>
       <c r="E41" s="90"/>
@@ -19810,7 +19846,7 @@
       <c r="G41" s="90"/>
       <c r="H41" s="78"/>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C42" s="89"/>
       <c r="D42" s="90"/>
       <c r="E42" s="90"/>
@@ -19818,7 +19854,7 @@
       <c r="G42" s="90"/>
       <c r="H42" s="78"/>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C43" s="89"/>
       <c r="D43" s="90"/>
       <c r="E43" s="90"/>
@@ -19826,7 +19862,7 @@
       <c r="G43" s="90"/>
       <c r="H43" s="78"/>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44" s="89"/>
       <c r="D44" s="90"/>
       <c r="E44" s="90"/>
@@ -19834,7 +19870,7 @@
       <c r="G44" s="90"/>
       <c r="H44" s="78"/>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="89"/>
       <c r="D45" s="90"/>
       <c r="E45" s="90"/>
@@ -19842,7 +19878,7 @@
       <c r="G45" s="90"/>
       <c r="H45" s="78"/>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C46" s="89"/>
       <c r="D46" s="90"/>
       <c r="E46" s="90"/>
@@ -19850,7 +19886,7 @@
       <c r="G46" s="90"/>
       <c r="H46" s="78"/>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" s="89"/>
       <c r="D47" s="90"/>
       <c r="E47" s="90"/>
@@ -19858,7 +19894,7 @@
       <c r="G47" s="90"/>
       <c r="H47" s="78"/>
     </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C48" s="89"/>
       <c r="D48" s="90"/>
       <c r="E48" s="90"/>
@@ -20102,15 +20138,15 @@
       </c>
       <c r="G9">
         <f ca="1">Electric!H13</f>
-        <v>415</v>
+        <v>150</v>
       </c>
       <c r="H9">
         <f ca="1">Electric!H14</f>
-        <v>184.48</v>
+        <v>140.4</v>
       </c>
       <c r="I9">
         <f ca="1">Electric!H15</f>
-        <v>14.4</v>
+        <v>10.7</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -15373,8 +15373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="166">
   <si>
     <t>[sku]</t>
   </si>
@@ -523,12 +523,15 @@
   <si>
     <t>-&gt; Hacer depender la vida del dragon de matar con el boost</t>
   </si>
+  <si>
+    <t>NOTA: Añadir las columnas relativas al pet mummy!!!!!!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +585,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -753,7 +764,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1216,11 +1227,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1468,9 +1509,6 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1510,19 +1548,7 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1531,16 +1557,10 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1550,9 +1570,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1579,6 +1596,14 @@
     <xf numFmtId="0" fontId="7" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1618,19 +1643,156 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="104">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2866,80 +3028,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -4260,7 +4348,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5200,7 +5287,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5509,7 +5595,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5831,7 +5916,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6153,7 +6237,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6462,7 +6545,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6771,7 +6853,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15038,54 +15119,54 @@
     <tableColumn id="31" name="[resultsPrefab]" dataDxfId="59"/>
     <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="58"/>
     <tableColumn id="33" name="[revealFromDragon]" dataDxfId="57"/>
-    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="56"/>
-    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="55"/>
-    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="54"/>
-    <tableColumn id="37" name="[invincible]" dataDxfId="53"/>
-    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="52"/>
-    <tableColumn id="39" name="[eatEverything]" dataDxfId="51"/>
-    <tableColumn id="40" name="[modeDuration]" dataDxfId="50"/>
-    <tableColumn id="41" name="[petScale]" dataDxfId="49"/>
-    <tableColumn id="42" name="[tidName]" dataDxfId="48"/>
-    <tableColumn id="43" name="[tidDesc]" dataDxfId="47"/>
-    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="46"/>
-    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="45"/>
-    <tableColumn id="46" name="[force]" dataDxfId="44"/>
-    <tableColumn id="47" name="[mass]" dataDxfId="43"/>
-    <tableColumn id="48" name="[friction]" dataDxfId="42"/>
-    <tableColumn id="49" name="[gravityModifier]" dataDxfId="41"/>
-    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="40"/>
-    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="39"/>
-    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="38"/>
-    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="37"/>
-    <tableColumn id="54" name="[trackingSku]" dataDxfId="36"/>
+    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="1"/>
+    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="56"/>
+    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="55"/>
+    <tableColumn id="37" name="[invincible]" dataDxfId="54"/>
+    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="53"/>
+    <tableColumn id="39" name="[eatEverything]" dataDxfId="52"/>
+    <tableColumn id="40" name="[modeDuration]" dataDxfId="0"/>
+    <tableColumn id="41" name="[petScale]" dataDxfId="51"/>
+    <tableColumn id="42" name="[tidName]" dataDxfId="50"/>
+    <tableColumn id="43" name="[tidDesc]" dataDxfId="49"/>
+    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="48"/>
+    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="47"/>
+    <tableColumn id="46" name="[force]" dataDxfId="46"/>
+    <tableColumn id="47" name="[mass]" dataDxfId="45"/>
+    <tableColumn id="48" name="[friction]" dataDxfId="44"/>
+    <tableColumn id="49" name="[gravityModifier]" dataDxfId="43"/>
+    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="42"/>
+    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="41"/>
+    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="40"/>
+    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="39"/>
+    <tableColumn id="54" name="[trackingSku]" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
   <autoFilter ref="B3:T6"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="31"/>
+    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="33"/>
     <tableColumn id="2" name="[sku]"/>
     <tableColumn id="3" name="[type]"/>
-    <tableColumn id="5" name="[order]" dataDxfId="30"/>
-    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="29"/>
-    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="28"/>
-    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="27"/>
-    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="26"/>
-    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="25"/>
-    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="24"/>
-    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="23"/>
-    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="22"/>
-    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="21"/>
-    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="20"/>
-    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="19"/>
-    <tableColumn id="76" name="[stepPrice]" dataDxfId="18"/>
-    <tableColumn id="77" name="[priceCoefA]" dataDxfId="17"/>
-    <tableColumn id="75" name="[priceCoefB]" dataDxfId="16"/>
+    <tableColumn id="5" name="[order]" dataDxfId="32"/>
+    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="31"/>
+    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="30"/>
+    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="29"/>
+    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="28"/>
+    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="27"/>
+    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="26"/>
+    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="25"/>
+    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="24"/>
+    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="23"/>
+    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="22"/>
+    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="21"/>
+    <tableColumn id="76" name="[stepPrice]" dataDxfId="20"/>
+    <tableColumn id="77" name="[priceCoefA]" dataDxfId="19"/>
+    <tableColumn id="75" name="[priceCoefB]" dataDxfId="18"/>
     <tableColumn id="65" name="[trackingSku]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -15093,14 +15174,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="B30:F39"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="12"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="11"/>
-    <tableColumn id="3" name="[specialDragon]" dataDxfId="10"/>
-    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="9"/>
-    <tableColumn id="5" name="[icon]" dataDxfId="8">
+    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="14"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="13"/>
+    <tableColumn id="3" name="[specialDragon]" dataDxfId="12"/>
+    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="11"/>
+    <tableColumn id="5" name="[icon]" dataDxfId="10">
       <calculatedColumnFormula>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15373,8 +15454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15810,6 +15891,9 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
+      <c r="AW10" s="169" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -15934,10 +16018,10 @@
       <c r="AF12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AG12" s="22" t="s">
+      <c r="AG12" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="AH12" s="22" t="s">
+      <c r="AH12" s="158" t="s">
         <v>42</v>
       </c>
       <c r="AI12" s="22" t="s">
@@ -15955,10 +16039,10 @@
       <c r="AM12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AN12" s="22" t="s">
+      <c r="AN12" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="AO12" s="30" t="s">
+      <c r="AO12" s="162" t="s">
         <v>35</v>
       </c>
       <c r="AP12" s="27" t="s">
@@ -16020,13 +16104,13 @@
       <c r="G13" s="36">
         <v>0</v>
       </c>
-      <c r="H13" s="108">
+      <c r="H13" s="107">
         <v>20</v>
       </c>
       <c r="I13" s="99">
         <v>0</v>
       </c>
-      <c r="J13" s="109">
+      <c r="J13" s="108">
         <v>150</v>
       </c>
       <c r="K13" s="97">
@@ -16069,18 +16153,18 @@
         <v>9</v>
       </c>
       <c r="X13" s="98">
-        <v>8500</v>
-      </c>
-      <c r="Y13" s="100">
+        <v>9500</v>
+      </c>
+      <c r="Y13" s="153">
         <v>2</v>
       </c>
       <c r="Z13" s="101">
         <v>0.13</v>
       </c>
-      <c r="AA13" s="101">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="100">
+      <c r="AA13" s="152">
+        <v>100000</v>
+      </c>
+      <c r="AB13" s="153">
         <v>12</v>
       </c>
       <c r="AC13" s="37" t="s">
@@ -16093,8 +16177,8 @@
         <v>24</v>
       </c>
       <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="102">
+      <c r="AG13" s="156"/>
+      <c r="AH13" s="159">
         <v>4.0999999999999996</v>
       </c>
       <c r="AI13" s="102">
@@ -16112,45 +16196,45 @@
       <c r="AM13" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AN13" s="102">
+      <c r="AN13" s="166">
         <v>10</v>
       </c>
-      <c r="AO13" s="103">
+      <c r="AO13" s="163">
         <v>0.55999999999999994</v>
       </c>
       <c r="AP13" s="39"/>
       <c r="AQ13" s="40"/>
-      <c r="AR13" s="104">
+      <c r="AR13" s="103">
         <v>2E-3</v>
       </c>
-      <c r="AS13" s="105">
+      <c r="AS13" s="104">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT13" s="154">
+      <c r="AT13" s="133">
         <v>100</v>
       </c>
-      <c r="AU13" s="153">
+      <c r="AU13" s="132">
         <v>2.5</v>
       </c>
-      <c r="AV13" s="153">
+      <c r="AV13" s="132">
         <v>3</v>
       </c>
-      <c r="AW13" s="153">
+      <c r="AW13" s="132">
         <v>0</v>
       </c>
-      <c r="AX13" s="107">
+      <c r="AX13" s="106">
         <v>0.7</v>
       </c>
-      <c r="AY13" s="107">
+      <c r="AY13" s="106">
         <v>1.2</v>
       </c>
-      <c r="AZ13" s="107">
+      <c r="AZ13" s="106">
         <v>0</v>
       </c>
-      <c r="BA13" s="107">
+      <c r="BA13" s="106">
         <v>8</v>
       </c>
-      <c r="BB13" s="106" t="s">
+      <c r="BB13" s="105" t="s">
         <v>4</v>
       </c>
     </row>
@@ -16173,23 +16257,23 @@
       <c r="G14" s="36">
         <v>10</v>
       </c>
-      <c r="H14" s="108">
+      <c r="H14" s="107">
         <v>22</v>
       </c>
       <c r="I14" s="99">
         <v>0</v>
       </c>
-      <c r="J14" s="109">
+      <c r="J14" s="108">
         <v>200</v>
       </c>
       <c r="K14" s="97">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="L14" s="97">
         <v>0</v>
       </c>
       <c r="M14" s="97">
-        <v>1E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="N14" s="97">
         <v>30</v>
@@ -16222,18 +16306,18 @@
         <v>10</v>
       </c>
       <c r="X14" s="98">
-        <v>15000</v>
-      </c>
-      <c r="Y14" s="100">
+        <v>18000</v>
+      </c>
+      <c r="Y14" s="153">
         <v>3</v>
       </c>
       <c r="Z14" s="101">
         <v>0.08</v>
       </c>
-      <c r="AA14" s="101">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="100">
+      <c r="AA14" s="152">
+        <v>100000</v>
+      </c>
+      <c r="AB14" s="153">
         <v>12</v>
       </c>
       <c r="AC14" s="37" t="s">
@@ -16246,8 +16330,8 @@
         <v>23</v>
       </c>
       <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="102">
+      <c r="AG14" s="156"/>
+      <c r="AH14" s="159">
         <v>2.2999999999999998</v>
       </c>
       <c r="AI14" s="102">
@@ -16265,45 +16349,45 @@
       <c r="AM14" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AN14" s="102">
+      <c r="AN14" s="166">
         <v>10</v>
       </c>
-      <c r="AO14" s="103">
+      <c r="AO14" s="163">
         <v>0.7</v>
       </c>
       <c r="AP14" s="39"/>
       <c r="AQ14" s="40"/>
-      <c r="AR14" s="104">
+      <c r="AR14" s="103">
         <v>1.8E-3</v>
       </c>
-      <c r="AS14" s="105">
+      <c r="AS14" s="104">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT14" s="154">
+      <c r="AT14" s="133">
         <v>110</v>
       </c>
-      <c r="AU14" s="153">
+      <c r="AU14" s="132">
         <v>2.5</v>
       </c>
-      <c r="AV14" s="153">
+      <c r="AV14" s="132">
         <v>3</v>
       </c>
-      <c r="AW14" s="153">
+      <c r="AW14" s="132">
         <v>0</v>
       </c>
-      <c r="AX14" s="107">
+      <c r="AX14" s="106">
         <v>0.7</v>
       </c>
-      <c r="AY14" s="107">
+      <c r="AY14" s="106">
         <v>1.2</v>
       </c>
-      <c r="AZ14" s="107">
+      <c r="AZ14" s="106">
         <v>9</v>
       </c>
-      <c r="BA14" s="107">
+      <c r="BA14" s="106">
         <v>8</v>
       </c>
-      <c r="BB14" s="106" t="s">
+      <c r="BB14" s="105" t="s">
         <v>5</v>
       </c>
     </row>
@@ -16326,23 +16410,23 @@
       <c r="G15" s="36">
         <v>20</v>
       </c>
-      <c r="H15" s="108">
+      <c r="H15" s="107">
         <v>24</v>
       </c>
       <c r="I15" s="99">
         <v>0</v>
       </c>
-      <c r="J15" s="109">
+      <c r="J15" s="108">
         <v>250</v>
       </c>
       <c r="K15" s="97">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L15" s="97">
         <v>0</v>
       </c>
       <c r="M15" s="97">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="N15" s="97">
         <v>25</v>
@@ -16375,18 +16459,18 @@
         <v>10</v>
       </c>
       <c r="X15" s="98">
-        <v>27000</v>
-      </c>
-      <c r="Y15" s="100">
+        <v>30000</v>
+      </c>
+      <c r="Y15" s="153">
         <v>4</v>
       </c>
       <c r="Z15" s="101">
         <v>0.05</v>
       </c>
-      <c r="AA15" s="101">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="100">
+      <c r="AA15" s="152">
+        <v>100000</v>
+      </c>
+      <c r="AB15" s="153">
         <v>12</v>
       </c>
       <c r="AC15" s="37" t="s">
@@ -16399,8 +16483,8 @@
         <v>21</v>
       </c>
       <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="102">
+      <c r="AG15" s="156"/>
+      <c r="AH15" s="159">
         <v>2.1</v>
       </c>
       <c r="AI15" s="102">
@@ -16418,45 +16502,45 @@
       <c r="AM15" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AN15" s="102">
+      <c r="AN15" s="166">
         <v>10</v>
       </c>
-      <c r="AO15" s="103">
+      <c r="AO15" s="163">
         <v>0.7</v>
       </c>
       <c r="AP15" s="39"/>
       <c r="AQ15" s="40"/>
-      <c r="AR15" s="104">
+      <c r="AR15" s="103">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AS15" s="105">
+      <c r="AS15" s="104">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT15" s="154">
+      <c r="AT15" s="133">
         <v>120</v>
       </c>
-      <c r="AU15" s="153">
+      <c r="AU15" s="132">
         <v>2.5</v>
       </c>
-      <c r="AV15" s="153">
+      <c r="AV15" s="132">
         <v>3</v>
       </c>
-      <c r="AW15" s="153">
+      <c r="AW15" s="132">
         <v>0</v>
       </c>
-      <c r="AX15" s="107">
+      <c r="AX15" s="106">
         <v>0.7</v>
       </c>
-      <c r="AY15" s="107">
+      <c r="AY15" s="106">
         <v>1.2</v>
       </c>
-      <c r="AZ15" s="107">
+      <c r="AZ15" s="106">
         <v>45</v>
       </c>
-      <c r="BA15" s="107">
+      <c r="BA15" s="106">
         <v>15</v>
       </c>
-      <c r="BB15" s="106" t="s">
+      <c r="BB15" s="105" t="s">
         <v>6</v>
       </c>
     </row>
@@ -16480,23 +16564,23 @@
       <c r="G16" s="36">
         <v>30</v>
       </c>
-      <c r="H16" s="108">
+      <c r="H16" s="107">
         <v>25</v>
       </c>
       <c r="I16" s="99">
         <v>0</v>
       </c>
-      <c r="J16" s="109">
+      <c r="J16" s="108">
         <v>300</v>
       </c>
       <c r="K16" s="97">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="L16" s="97">
         <v>0</v>
       </c>
       <c r="M16" s="97">
-        <v>1E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N16" s="97">
         <v>20</v>
@@ -16529,18 +16613,18 @@
         <v>10</v>
       </c>
       <c r="X16" s="98">
-        <v>45000</v>
-      </c>
-      <c r="Y16" s="100">
+        <v>50000</v>
+      </c>
+      <c r="Y16" s="153">
         <v>5</v>
       </c>
       <c r="Z16" s="101">
         <v>0.04</v>
       </c>
-      <c r="AA16" s="101">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="100">
+      <c r="AA16" s="152">
+        <v>100000</v>
+      </c>
+      <c r="AB16" s="153">
         <v>12</v>
       </c>
       <c r="AC16" s="37" t="s">
@@ -16553,8 +16637,8 @@
         <v>19</v>
       </c>
       <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="102">
+      <c r="AG16" s="156"/>
+      <c r="AH16" s="159">
         <v>2.1</v>
       </c>
       <c r="AI16" s="102">
@@ -16572,657 +16656,657 @@
       <c r="AM16" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AN16" s="102">
+      <c r="AN16" s="166">
         <v>10</v>
       </c>
-      <c r="AO16" s="103">
+      <c r="AO16" s="163">
         <v>0.7</v>
       </c>
       <c r="AP16" s="39"/>
       <c r="AQ16" s="40"/>
-      <c r="AR16" s="104">
+      <c r="AR16" s="103">
         <v>1.5E-3</v>
       </c>
-      <c r="AS16" s="105">
+      <c r="AS16" s="104">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT16" s="154">
+      <c r="AT16" s="133">
         <v>130</v>
       </c>
-      <c r="AU16" s="153">
+      <c r="AU16" s="132">
         <v>2.5</v>
       </c>
-      <c r="AV16" s="153">
+      <c r="AV16" s="132">
         <v>3</v>
       </c>
-      <c r="AW16" s="153">
+      <c r="AW16" s="132">
         <v>0</v>
       </c>
-      <c r="AX16" s="107">
+      <c r="AX16" s="106">
         <v>0.7</v>
       </c>
-      <c r="AY16" s="107">
+      <c r="AY16" s="106">
         <v>1.2</v>
       </c>
-      <c r="AZ16" s="107">
+      <c r="AZ16" s="106">
         <v>59</v>
       </c>
-      <c r="BA16" s="107">
+      <c r="BA16" s="106">
         <v>15</v>
       </c>
-      <c r="BB16" s="106" t="s">
+      <c r="BB16" s="105" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="114" t="s">
+      <c r="E17" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="115" t="s">
+      <c r="F17" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="116">
+      <c r="G17" s="115">
         <v>0</v>
       </c>
-      <c r="H17" s="117">
+      <c r="H17" s="154">
         <v>3</v>
       </c>
-      <c r="I17" s="118">
+      <c r="I17" s="149">
         <v>-2</v>
       </c>
-      <c r="J17" s="119">
+      <c r="J17" s="116">
         <v>100</v>
       </c>
-      <c r="K17" s="120">
+      <c r="K17" s="150">
         <v>1.5</v>
       </c>
-      <c r="L17" s="120">
+      <c r="L17" s="150">
         <v>0</v>
       </c>
-      <c r="M17" s="120">
+      <c r="M17" s="150">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N17" s="120">
+      <c r="N17" s="150">
         <v>30</v>
       </c>
-      <c r="O17" s="120">
+      <c r="O17" s="150">
         <v>0.5</v>
       </c>
-      <c r="P17" s="121">
+      <c r="P17" s="120">
         <v>0.6</v>
       </c>
-      <c r="Q17" s="122">
+      <c r="Q17" s="117">
         <v>1.2</v>
       </c>
-      <c r="R17" s="123">
+      <c r="R17" s="118">
         <v>100</v>
       </c>
-      <c r="S17" s="120">
+      <c r="S17" s="150">
         <v>25</v>
       </c>
-      <c r="T17" s="124">
+      <c r="T17" s="151">
         <v>35</v>
       </c>
-      <c r="U17" s="118">
+      <c r="U17" s="149">
         <v>9</v>
       </c>
-      <c r="V17" s="120">
+      <c r="V17" s="150">
         <v>3</v>
       </c>
-      <c r="W17" s="120">
+      <c r="W17" s="150">
         <v>9</v>
       </c>
-      <c r="X17" s="124">
+      <c r="X17" s="151">
         <v>8500</v>
       </c>
-      <c r="Y17" s="125">
+      <c r="Y17" s="119">
         <v>2</v>
       </c>
-      <c r="Z17" s="126">
+      <c r="Z17" s="120">
         <v>0.13</v>
       </c>
-      <c r="AA17" s="121">
+      <c r="AA17" s="120">
         <v>0</v>
       </c>
-      <c r="AB17" s="127">
+      <c r="AB17" s="119">
         <v>12</v>
       </c>
-      <c r="AC17" s="128" t="s">
+      <c r="AC17" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="AD17" s="129" t="s">
+      <c r="AD17" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="AE17" s="129" t="s">
+      <c r="AE17" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="AF17" s="130"/>
-      <c r="AG17" s="130"/>
-      <c r="AH17" s="129">
+      <c r="AF17" s="123"/>
+      <c r="AG17" s="157"/>
+      <c r="AH17" s="160">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI17" s="129">
+      <c r="AI17" s="122">
         <v>2</v>
       </c>
-      <c r="AJ17" s="129">
+      <c r="AJ17" s="122">
         <v>2</v>
       </c>
-      <c r="AK17" s="129" t="b">
+      <c r="AK17" s="122" t="b">
         <v>1</v>
       </c>
-      <c r="AL17" s="129" t="b">
+      <c r="AL17" s="122" t="b">
         <v>1</v>
       </c>
-      <c r="AM17" s="129" t="b">
+      <c r="AM17" s="122" t="b">
         <v>1</v>
       </c>
-      <c r="AN17" s="129">
+      <c r="AN17" s="167">
         <v>10</v>
       </c>
-      <c r="AO17" s="131">
+      <c r="AO17" s="164">
         <v>0.55999999999999994</v>
       </c>
-      <c r="AP17" s="132"/>
-      <c r="AQ17" s="133"/>
-      <c r="AR17" s="134">
+      <c r="AP17" s="124"/>
+      <c r="AQ17" s="125"/>
+      <c r="AR17" s="126">
         <v>2E-3</v>
       </c>
-      <c r="AS17" s="135">
+      <c r="AS17" s="127">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT17" s="136">
+      <c r="AT17" s="128">
         <v>240</v>
       </c>
-      <c r="AU17" s="137">
+      <c r="AU17" s="129">
         <v>2.5</v>
       </c>
-      <c r="AV17" s="137">
+      <c r="AV17" s="129">
         <v>9.5</v>
       </c>
-      <c r="AW17" s="137">
+      <c r="AW17" s="129">
         <v>1.7</v>
       </c>
-      <c r="AX17" s="138">
+      <c r="AX17" s="130">
         <v>0.7</v>
       </c>
-      <c r="AY17" s="138">
+      <c r="AY17" s="130">
         <v>1.2</v>
       </c>
-      <c r="AZ17" s="138">
+      <c r="AZ17" s="130">
         <v>0</v>
       </c>
-      <c r="BA17" s="138">
+      <c r="BA17" s="130">
         <v>8</v>
       </c>
-      <c r="BB17" s="139" t="s">
+      <c r="BB17" s="131" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B18" s="111" t="s">
+      <c r="B18" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="114" t="s">
+      <c r="E18" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="115" t="s">
+      <c r="F18" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="116">
+      <c r="G18" s="115">
         <v>10</v>
       </c>
-      <c r="H18" s="117">
+      <c r="H18" s="154">
         <v>8</v>
       </c>
-      <c r="I18" s="118">
+      <c r="I18" s="149">
         <v>0</v>
       </c>
-      <c r="J18" s="119">
+      <c r="J18" s="116">
         <v>150</v>
       </c>
-      <c r="K18" s="120">
+      <c r="K18" s="150">
         <v>1.9</v>
       </c>
-      <c r="L18" s="120">
+      <c r="L18" s="150">
         <v>0</v>
       </c>
-      <c r="M18" s="120">
+      <c r="M18" s="150">
         <v>1.2E-2</v>
       </c>
-      <c r="N18" s="120">
+      <c r="N18" s="150">
         <v>30</v>
       </c>
-      <c r="O18" s="120">
+      <c r="O18" s="150">
         <v>0.6</v>
       </c>
-      <c r="P18" s="121">
+      <c r="P18" s="120">
         <v>0.95</v>
       </c>
-      <c r="Q18" s="122">
+      <c r="Q18" s="117">
         <v>1.2</v>
       </c>
-      <c r="R18" s="123">
+      <c r="R18" s="118">
         <v>120</v>
       </c>
-      <c r="S18" s="120">
+      <c r="S18" s="150">
         <v>25</v>
       </c>
-      <c r="T18" s="124">
+      <c r="T18" s="151">
         <v>35</v>
       </c>
-      <c r="U18" s="118">
+      <c r="U18" s="149">
         <v>11</v>
       </c>
-      <c r="V18" s="120">
+      <c r="V18" s="150">
         <v>4</v>
       </c>
-      <c r="W18" s="120">
+      <c r="W18" s="150">
         <v>10</v>
       </c>
-      <c r="X18" s="124">
+      <c r="X18" s="151">
         <v>15000</v>
       </c>
-      <c r="Y18" s="125">
+      <c r="Y18" s="119">
         <v>3</v>
       </c>
-      <c r="Z18" s="126">
+      <c r="Z18" s="120">
         <v>0.08</v>
       </c>
-      <c r="AA18" s="121">
+      <c r="AA18" s="120">
         <v>0</v>
       </c>
-      <c r="AB18" s="127">
+      <c r="AB18" s="119">
         <v>12</v>
       </c>
-      <c r="AC18" s="128" t="s">
+      <c r="AC18" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="AD18" s="129" t="s">
+      <c r="AD18" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="AE18" s="129" t="s">
+      <c r="AE18" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="AF18" s="130"/>
-      <c r="AG18" s="130"/>
-      <c r="AH18" s="129">
+      <c r="AF18" s="123"/>
+      <c r="AG18" s="157"/>
+      <c r="AH18" s="160">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AI18" s="129">
+      <c r="AI18" s="122">
         <v>2</v>
       </c>
-      <c r="AJ18" s="129">
+      <c r="AJ18" s="122">
         <v>2</v>
       </c>
-      <c r="AK18" s="129" t="b">
+      <c r="AK18" s="122" t="b">
         <v>1</v>
       </c>
-      <c r="AL18" s="129" t="b">
+      <c r="AL18" s="122" t="b">
         <v>1</v>
       </c>
-      <c r="AM18" s="129" t="b">
+      <c r="AM18" s="122" t="b">
         <v>1</v>
       </c>
-      <c r="AN18" s="129">
+      <c r="AN18" s="167">
         <v>10</v>
       </c>
-      <c r="AO18" s="131">
+      <c r="AO18" s="164">
         <v>0.7</v>
       </c>
-      <c r="AP18" s="132"/>
-      <c r="AQ18" s="133"/>
-      <c r="AR18" s="134">
+      <c r="AP18" s="124"/>
+      <c r="AQ18" s="125"/>
+      <c r="AR18" s="126">
         <v>1.8E-3</v>
       </c>
-      <c r="AS18" s="135">
+      <c r="AS18" s="127">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT18" s="136">
+      <c r="AT18" s="128">
         <v>255</v>
       </c>
-      <c r="AU18" s="137">
+      <c r="AU18" s="129">
         <v>2.5</v>
       </c>
-      <c r="AV18" s="137">
+      <c r="AV18" s="129">
         <v>9.5</v>
       </c>
-      <c r="AW18" s="137">
+      <c r="AW18" s="129">
         <v>1.7</v>
       </c>
-      <c r="AX18" s="138">
+      <c r="AX18" s="130">
         <v>0.7</v>
       </c>
-      <c r="AY18" s="138">
+      <c r="AY18" s="130">
         <v>1.2</v>
       </c>
-      <c r="AZ18" s="138">
+      <c r="AZ18" s="130">
         <v>9</v>
       </c>
-      <c r="BA18" s="138">
+      <c r="BA18" s="130">
         <v>8</v>
       </c>
-      <c r="BB18" s="139" t="s">
+      <c r="BB18" s="131" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="114" t="s">
+      <c r="E19" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="115" t="s">
+      <c r="F19" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="116">
+      <c r="G19" s="115">
         <v>20</v>
       </c>
-      <c r="H19" s="117">
+      <c r="H19" s="154">
         <v>17</v>
       </c>
-      <c r="I19" s="118">
+      <c r="I19" s="149">
         <v>0</v>
       </c>
-      <c r="J19" s="119">
+      <c r="J19" s="116">
         <v>200</v>
       </c>
-      <c r="K19" s="120">
+      <c r="K19" s="150">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L19" s="120">
+      <c r="L19" s="150">
         <v>0</v>
       </c>
-      <c r="M19" s="120">
+      <c r="M19" s="150">
         <v>1.4E-2</v>
       </c>
-      <c r="N19" s="120">
+      <c r="N19" s="150">
         <v>25</v>
       </c>
-      <c r="O19" s="120">
+      <c r="O19" s="150">
         <v>0.7</v>
       </c>
-      <c r="P19" s="121">
+      <c r="P19" s="120">
         <v>1.55</v>
       </c>
-      <c r="Q19" s="122">
+      <c r="Q19" s="117">
         <v>1.2</v>
       </c>
-      <c r="R19" s="123">
+      <c r="R19" s="118">
         <v>140</v>
       </c>
-      <c r="S19" s="120">
+      <c r="S19" s="150">
         <v>25</v>
       </c>
-      <c r="T19" s="124">
+      <c r="T19" s="151">
         <v>35</v>
       </c>
-      <c r="U19" s="118">
+      <c r="U19" s="149">
         <v>11.5</v>
       </c>
-      <c r="V19" s="120">
+      <c r="V19" s="150">
         <v>5</v>
       </c>
-      <c r="W19" s="120">
+      <c r="W19" s="150">
         <v>10</v>
       </c>
-      <c r="X19" s="124">
+      <c r="X19" s="151">
         <v>27000</v>
       </c>
-      <c r="Y19" s="125">
+      <c r="Y19" s="119">
         <v>4</v>
       </c>
-      <c r="Z19" s="126">
+      <c r="Z19" s="120">
         <v>0.05</v>
       </c>
-      <c r="AA19" s="121">
+      <c r="AA19" s="120">
         <v>0</v>
       </c>
-      <c r="AB19" s="127">
+      <c r="AB19" s="119">
         <v>12</v>
       </c>
-      <c r="AC19" s="128" t="s">
+      <c r="AC19" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="AD19" s="129" t="s">
+      <c r="AD19" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="AE19" s="129" t="s">
+      <c r="AE19" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="AF19" s="130"/>
-      <c r="AG19" s="130"/>
-      <c r="AH19" s="129">
+      <c r="AF19" s="123"/>
+      <c r="AG19" s="157"/>
+      <c r="AH19" s="160">
         <v>2.1</v>
       </c>
-      <c r="AI19" s="129">
+      <c r="AI19" s="122">
         <v>2</v>
       </c>
-      <c r="AJ19" s="129">
+      <c r="AJ19" s="122">
         <v>2</v>
       </c>
-      <c r="AK19" s="129" t="b">
+      <c r="AK19" s="122" t="b">
         <v>1</v>
       </c>
-      <c r="AL19" s="129" t="b">
+      <c r="AL19" s="122" t="b">
         <v>1</v>
       </c>
-      <c r="AM19" s="129" t="b">
+      <c r="AM19" s="122" t="b">
         <v>1</v>
       </c>
-      <c r="AN19" s="129">
+      <c r="AN19" s="167">
         <v>10</v>
       </c>
-      <c r="AO19" s="131">
+      <c r="AO19" s="164">
         <v>0.7</v>
       </c>
-      <c r="AP19" s="132"/>
-      <c r="AQ19" s="133"/>
-      <c r="AR19" s="134">
+      <c r="AP19" s="124"/>
+      <c r="AQ19" s="125"/>
+      <c r="AR19" s="126">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AS19" s="135">
+      <c r="AS19" s="127">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT19" s="136">
+      <c r="AT19" s="128">
         <v>270</v>
       </c>
-      <c r="AU19" s="137">
+      <c r="AU19" s="129">
         <v>2.5</v>
       </c>
-      <c r="AV19" s="137">
+      <c r="AV19" s="129">
         <v>9.5</v>
       </c>
-      <c r="AW19" s="137">
+      <c r="AW19" s="129">
         <v>1.7</v>
       </c>
-      <c r="AX19" s="138">
+      <c r="AX19" s="130">
         <v>0.7</v>
       </c>
-      <c r="AY19" s="138">
+      <c r="AY19" s="130">
         <v>1.2</v>
       </c>
-      <c r="AZ19" s="138">
+      <c r="AZ19" s="130">
         <v>45</v>
       </c>
-      <c r="BA19" s="138">
+      <c r="BA19" s="130">
         <v>15</v>
       </c>
-      <c r="BB19" s="139" t="s">
+      <c r="BB19" s="131" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="111" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="113" t="s">
+      <c r="D20" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="114" t="s">
+      <c r="E20" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="115" t="s">
+      <c r="F20" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="116">
+      <c r="G20" s="115">
         <v>30</v>
       </c>
-      <c r="H20" s="117">
+      <c r="H20" s="154">
         <v>25</v>
       </c>
-      <c r="I20" s="118">
+      <c r="I20" s="149">
         <v>0</v>
       </c>
-      <c r="J20" s="119">
+      <c r="J20" s="116">
         <v>250</v>
       </c>
-      <c r="K20" s="120">
+      <c r="K20" s="150">
         <v>2.4</v>
       </c>
-      <c r="L20" s="120">
+      <c r="L20" s="150">
         <v>0</v>
       </c>
-      <c r="M20" s="120">
+      <c r="M20" s="150">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="N20" s="120">
+      <c r="N20" s="150">
         <v>20</v>
       </c>
-      <c r="O20" s="120">
+      <c r="O20" s="150">
         <v>0.8</v>
       </c>
-      <c r="P20" s="121">
+      <c r="P20" s="120">
         <v>1.9</v>
       </c>
-      <c r="Q20" s="122">
+      <c r="Q20" s="117">
         <v>1.2</v>
       </c>
-      <c r="R20" s="123">
+      <c r="R20" s="118">
         <v>160</v>
       </c>
-      <c r="S20" s="120">
+      <c r="S20" s="150">
         <v>25</v>
       </c>
-      <c r="T20" s="124">
+      <c r="T20" s="151">
         <v>35</v>
       </c>
-      <c r="U20" s="118">
+      <c r="U20" s="149">
         <v>12</v>
       </c>
-      <c r="V20" s="120">
+      <c r="V20" s="150">
         <v>6</v>
       </c>
-      <c r="W20" s="120">
+      <c r="W20" s="150">
         <v>10</v>
       </c>
-      <c r="X20" s="124">
+      <c r="X20" s="151">
         <v>45000</v>
       </c>
-      <c r="Y20" s="125">
+      <c r="Y20" s="119">
         <v>5</v>
       </c>
-      <c r="Z20" s="126">
+      <c r="Z20" s="120">
         <v>0.04</v>
       </c>
-      <c r="AA20" s="121">
+      <c r="AA20" s="120">
         <v>0</v>
       </c>
-      <c r="AB20" s="127">
+      <c r="AB20" s="119">
         <v>12</v>
       </c>
-      <c r="AC20" s="128" t="s">
+      <c r="AC20" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="AD20" s="129" t="s">
+      <c r="AD20" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="AE20" s="129" t="s">
+      <c r="AE20" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="AF20" s="130"/>
-      <c r="AG20" s="130"/>
-      <c r="AH20" s="129">
+      <c r="AF20" s="123"/>
+      <c r="AG20" s="157"/>
+      <c r="AH20" s="160">
         <v>2.1</v>
       </c>
-      <c r="AI20" s="129">
+      <c r="AI20" s="122">
         <v>2</v>
       </c>
-      <c r="AJ20" s="129">
+      <c r="AJ20" s="122">
         <v>2</v>
       </c>
-      <c r="AK20" s="129" t="b">
+      <c r="AK20" s="122" t="b">
         <v>1</v>
       </c>
-      <c r="AL20" s="129" t="b">
+      <c r="AL20" s="122" t="b">
         <v>1</v>
       </c>
-      <c r="AM20" s="129" t="b">
+      <c r="AM20" s="122" t="b">
         <v>1</v>
       </c>
-      <c r="AN20" s="129">
+      <c r="AN20" s="167">
         <v>10</v>
       </c>
-      <c r="AO20" s="131">
+      <c r="AO20" s="164">
         <v>0.7</v>
       </c>
-      <c r="AP20" s="132"/>
-      <c r="AQ20" s="133"/>
-      <c r="AR20" s="134">
+      <c r="AP20" s="124"/>
+      <c r="AQ20" s="125"/>
+      <c r="AR20" s="126">
         <v>1.5E-3</v>
       </c>
-      <c r="AS20" s="135">
+      <c r="AS20" s="127">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT20" s="136">
+      <c r="AT20" s="128">
         <v>285</v>
       </c>
-      <c r="AU20" s="137">
+      <c r="AU20" s="129">
         <v>2.5</v>
       </c>
-      <c r="AV20" s="137">
+      <c r="AV20" s="129">
         <v>9.5</v>
       </c>
-      <c r="AW20" s="137">
+      <c r="AW20" s="129">
         <v>1.7</v>
       </c>
-      <c r="AX20" s="138">
+      <c r="AX20" s="130">
         <v>0.7</v>
       </c>
-      <c r="AY20" s="138">
+      <c r="AY20" s="130">
         <v>1.2</v>
       </c>
-      <c r="AZ20" s="138">
+      <c r="AZ20" s="130">
         <v>59</v>
       </c>
-      <c r="BA20" s="138">
+      <c r="BA20" s="130">
         <v>15</v>
       </c>
-      <c r="BB20" s="139" t="s">
+      <c r="BB20" s="131" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17245,13 +17329,13 @@
       <c r="G21" s="36">
         <v>0</v>
       </c>
-      <c r="H21" s="108">
+      <c r="H21" s="107">
         <v>3</v>
       </c>
       <c r="I21" s="99">
         <v>-2</v>
       </c>
-      <c r="J21" s="109">
+      <c r="J21" s="108">
         <v>100</v>
       </c>
       <c r="K21" s="97">
@@ -17318,8 +17402,8 @@
         <v>24</v>
       </c>
       <c r="AF21" s="38"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="102">
+      <c r="AG21" s="156"/>
+      <c r="AH21" s="159">
         <v>4.0999999999999996</v>
       </c>
       <c r="AI21" s="102">
@@ -17337,45 +17421,45 @@
       <c r="AM21" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AN21" s="102">
+      <c r="AN21" s="166">
         <v>10</v>
       </c>
-      <c r="AO21" s="103">
+      <c r="AO21" s="163">
         <v>0.55999999999999994</v>
       </c>
       <c r="AP21" s="39"/>
       <c r="AQ21" s="40"/>
-      <c r="AR21" s="104">
+      <c r="AR21" s="103">
         <v>2E-3</v>
       </c>
-      <c r="AS21" s="105">
+      <c r="AS21" s="104">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT21" s="110">
+      <c r="AT21" s="109">
         <v>240</v>
       </c>
-      <c r="AU21" s="106">
+      <c r="AU21" s="105">
         <v>2.5</v>
       </c>
-      <c r="AV21" s="106">
+      <c r="AV21" s="105">
         <v>9.5</v>
       </c>
-      <c r="AW21" s="106">
+      <c r="AW21" s="105">
         <v>1.7</v>
       </c>
-      <c r="AX21" s="107">
+      <c r="AX21" s="106">
         <v>0.7</v>
       </c>
-      <c r="AY21" s="107">
+      <c r="AY21" s="106">
         <v>1.2</v>
       </c>
-      <c r="AZ21" s="107">
+      <c r="AZ21" s="106">
         <v>0</v>
       </c>
-      <c r="BA21" s="107">
+      <c r="BA21" s="106">
         <v>8</v>
       </c>
-      <c r="BB21" s="106" t="s">
+      <c r="BB21" s="105" t="s">
         <v>4</v>
       </c>
     </row>
@@ -17398,13 +17482,13 @@
       <c r="G22" s="36">
         <v>10</v>
       </c>
-      <c r="H22" s="108">
+      <c r="H22" s="107">
         <v>8</v>
       </c>
       <c r="I22" s="99">
         <v>0</v>
       </c>
-      <c r="J22" s="109">
+      <c r="J22" s="108">
         <v>150</v>
       </c>
       <c r="K22" s="97">
@@ -17471,8 +17555,8 @@
         <v>23</v>
       </c>
       <c r="AF22" s="38"/>
-      <c r="AG22" s="38"/>
-      <c r="AH22" s="102">
+      <c r="AG22" s="156"/>
+      <c r="AH22" s="159">
         <v>2.2999999999999998</v>
       </c>
       <c r="AI22" s="102">
@@ -17490,45 +17574,45 @@
       <c r="AM22" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AN22" s="102">
+      <c r="AN22" s="166">
         <v>10</v>
       </c>
-      <c r="AO22" s="103">
+      <c r="AO22" s="163">
         <v>0.7</v>
       </c>
       <c r="AP22" s="39"/>
       <c r="AQ22" s="40"/>
-      <c r="AR22" s="104">
+      <c r="AR22" s="103">
         <v>1.8E-3</v>
       </c>
-      <c r="AS22" s="105">
+      <c r="AS22" s="104">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT22" s="110">
+      <c r="AT22" s="109">
         <v>255</v>
       </c>
-      <c r="AU22" s="106">
+      <c r="AU22" s="105">
         <v>2.5</v>
       </c>
-      <c r="AV22" s="106">
+      <c r="AV22" s="105">
         <v>9.5</v>
       </c>
-      <c r="AW22" s="106">
+      <c r="AW22" s="105">
         <v>1.7</v>
       </c>
-      <c r="AX22" s="107">
+      <c r="AX22" s="106">
         <v>0.7</v>
       </c>
-      <c r="AY22" s="107">
+      <c r="AY22" s="106">
         <v>1.2</v>
       </c>
-      <c r="AZ22" s="107">
+      <c r="AZ22" s="106">
         <v>9</v>
       </c>
-      <c r="BA22" s="107">
+      <c r="BA22" s="106">
         <v>8</v>
       </c>
-      <c r="BB22" s="106" t="s">
+      <c r="BB22" s="105" t="s">
         <v>5</v>
       </c>
     </row>
@@ -17551,13 +17635,13 @@
       <c r="G23" s="36">
         <v>20</v>
       </c>
-      <c r="H23" s="108">
+      <c r="H23" s="107">
         <v>17</v>
       </c>
       <c r="I23" s="99">
         <v>0</v>
       </c>
-      <c r="J23" s="109">
+      <c r="J23" s="108">
         <v>200</v>
       </c>
       <c r="K23" s="97">
@@ -17624,8 +17708,8 @@
         <v>21</v>
       </c>
       <c r="AF23" s="38"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="102">
+      <c r="AG23" s="156"/>
+      <c r="AH23" s="159">
         <v>2.1</v>
       </c>
       <c r="AI23" s="102">
@@ -17643,45 +17727,45 @@
       <c r="AM23" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AN23" s="102">
+      <c r="AN23" s="166">
         <v>10</v>
       </c>
-      <c r="AO23" s="103">
+      <c r="AO23" s="163">
         <v>0.7</v>
       </c>
       <c r="AP23" s="39"/>
       <c r="AQ23" s="40"/>
-      <c r="AR23" s="104">
+      <c r="AR23" s="103">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AS23" s="105">
+      <c r="AS23" s="104">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT23" s="110">
+      <c r="AT23" s="109">
         <v>270</v>
       </c>
-      <c r="AU23" s="106">
+      <c r="AU23" s="105">
         <v>2.5</v>
       </c>
-      <c r="AV23" s="106">
+      <c r="AV23" s="105">
         <v>9.5</v>
       </c>
-      <c r="AW23" s="106">
+      <c r="AW23" s="105">
         <v>1.7</v>
       </c>
-      <c r="AX23" s="107">
+      <c r="AX23" s="106">
         <v>0.7</v>
       </c>
-      <c r="AY23" s="107">
+      <c r="AY23" s="106">
         <v>1.2</v>
       </c>
-      <c r="AZ23" s="107">
+      <c r="AZ23" s="106">
         <v>45</v>
       </c>
-      <c r="BA23" s="107">
+      <c r="BA23" s="106">
         <v>15</v>
       </c>
-      <c r="BB23" s="106" t="s">
+      <c r="BB23" s="105" t="s">
         <v>6</v>
       </c>
     </row>
@@ -17705,13 +17789,13 @@
       <c r="G24" s="36">
         <v>30</v>
       </c>
-      <c r="H24" s="108">
+      <c r="H24" s="107">
         <v>25</v>
       </c>
       <c r="I24" s="99">
         <v>0</v>
       </c>
-      <c r="J24" s="109">
+      <c r="J24" s="108">
         <v>250</v>
       </c>
       <c r="K24" s="97">
@@ -17778,8 +17862,8 @@
         <v>19</v>
       </c>
       <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="102">
+      <c r="AG24" s="156"/>
+      <c r="AH24" s="161">
         <v>2.1</v>
       </c>
       <c r="AI24" s="102">
@@ -17797,45 +17881,45 @@
       <c r="AM24" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AN24" s="102">
+      <c r="AN24" s="168">
         <v>10</v>
       </c>
-      <c r="AO24" s="103">
+      <c r="AO24" s="163">
         <v>0.7</v>
       </c>
       <c r="AP24" s="39"/>
       <c r="AQ24" s="40"/>
-      <c r="AR24" s="104">
+      <c r="AR24" s="103">
         <v>1.5E-3</v>
       </c>
-      <c r="AS24" s="105">
+      <c r="AS24" s="104">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT24" s="110">
+      <c r="AT24" s="109">
         <v>285</v>
       </c>
-      <c r="AU24" s="106">
+      <c r="AU24" s="105">
         <v>2.5</v>
       </c>
-      <c r="AV24" s="106">
+      <c r="AV24" s="105">
         <v>9.5</v>
       </c>
-      <c r="AW24" s="106">
+      <c r="AW24" s="105">
         <v>1.7</v>
       </c>
-      <c r="AX24" s="107">
+      <c r="AX24" s="106">
         <v>0.7</v>
       </c>
-      <c r="AY24" s="107">
+      <c r="AY24" s="106">
         <v>1.2</v>
       </c>
-      <c r="AZ24" s="107">
+      <c r="AZ24" s="106">
         <v>59</v>
       </c>
-      <c r="BA24" s="107">
+      <c r="BA24" s="106">
         <v>15</v>
       </c>
-      <c r="BB24" s="106" t="s">
+      <c r="BB24" s="105" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17846,44 +17930,44 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="147" t="s">
+      <c r="H25" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="148"/>
-      <c r="J25" s="149" t="s">
+      <c r="I25" s="144"/>
+      <c r="J25" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
-      <c r="N25" s="150"/>
-      <c r="O25" s="151"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="146"/>
+      <c r="N25" s="146"/>
+      <c r="O25" s="147"/>
       <c r="P25" s="79"/>
-      <c r="Q25" s="143" t="s">
+      <c r="Q25" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="R25" s="144"/>
-      <c r="S25" s="144"/>
-      <c r="T25" s="144"/>
-      <c r="U25" s="145" t="s">
+      <c r="R25" s="140"/>
+      <c r="S25" s="140"/>
+      <c r="T25" s="140"/>
+      <c r="U25" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="146"/>
-      <c r="W25" s="146"/>
-      <c r="X25" s="146"/>
+      <c r="V25" s="142"/>
+      <c r="W25" s="142"/>
+      <c r="X25" s="142"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
-      <c r="AH25" s="140" t="s">
+      <c r="AH25" s="136" t="s">
         <v>146</v>
       </c>
-      <c r="AI25" s="141"/>
-      <c r="AJ25" s="141"/>
-      <c r="AK25" s="141"/>
-      <c r="AL25" s="141"/>
-      <c r="AM25" s="141"/>
-      <c r="AN25" s="142"/>
+      <c r="AI25" s="137"/>
+      <c r="AJ25" s="137"/>
+      <c r="AK25" s="137"/>
+      <c r="AL25" s="137"/>
+      <c r="AM25" s="137"/>
+      <c r="AN25" s="138"/>
     </row>
     <row r="27" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
@@ -18167,12 +18251,12 @@
     </row>
     <row r="3" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D3" s="70"/>
-      <c r="E3" s="152" t="s">
+      <c r="E3" s="148" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
       <c r="J3" s="70" t="s">
         <v>121</v>
       </c>
@@ -19063,22 +19147,22 @@
     <mergeCell ref="E3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:E15">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>E13&gt;$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>$E$13&gt;$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$E$14&gt;$T$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$E$15&gt;$AB$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19115,12 +19199,12 @@
     </row>
     <row r="3" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D3" s="70"/>
-      <c r="E3" s="152" t="s">
+      <c r="E3" s="148" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
       <c r="J3" s="70" t="s">
         <v>121</v>
       </c>
@@ -19781,10 +19865,10 @@
       <c r="F35" s="90"/>
       <c r="G35" s="90"/>
       <c r="H35" s="78"/>
-      <c r="N35" s="155" t="s">
+      <c r="N35" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="O35" s="155"/>
+      <c r="O35" s="134"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C36" s="89"/>
@@ -19793,8 +19877,8 @@
       <c r="F36" s="90"/>
       <c r="G36" s="90"/>
       <c r="H36" s="78"/>
-      <c r="N36" s="155"/>
-      <c r="O36" s="155" t="s">
+      <c r="N36" s="134"/>
+      <c r="O36" s="134" t="s">
         <v>162</v>
       </c>
     </row>
@@ -19805,8 +19889,8 @@
       <c r="F37" s="90"/>
       <c r="G37" s="90"/>
       <c r="H37" s="78"/>
-      <c r="N37" s="155"/>
-      <c r="O37" s="155" t="s">
+      <c r="N37" s="134"/>
+      <c r="O37" s="134" t="s">
         <v>163</v>
       </c>
     </row>
@@ -19817,8 +19901,8 @@
       <c r="F38" s="90"/>
       <c r="G38" s="90"/>
       <c r="H38" s="78"/>
-      <c r="N38" s="155"/>
-      <c r="O38" s="156" t="s">
+      <c r="N38" s="134"/>
+      <c r="O38" s="135" t="s">
         <v>164</v>
       </c>
     </row>
@@ -20027,22 +20111,22 @@
     <mergeCell ref="E3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:E15">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>E13&gt;$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$E$13&gt;$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$E$14&gt;$T$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$E$15&gt;$AB$4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="special dragons" sheetId="10" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="162">
   <si>
     <t>[sku]</t>
   </si>
@@ -510,18 +510,6 @@
   </si>
   <si>
     <t>HELICOPTER</t>
-  </si>
-  <si>
-    <t>PROBAR: Drain casi que no incremente con el tiempo (que sea muy poco), pero ya desde el principio un drain muy bestia</t>
-  </si>
-  <si>
-    <t>El uso del boost ha de matar mucho (metralleta, misiles, bombas…)</t>
-  </si>
-  <si>
-    <t>El boost ha de dudar bastante y regenerar rapido</t>
-  </si>
-  <si>
-    <t>-&gt; Hacer depender la vida del dragon de matar con el boost</t>
   </si>
   <si>
     <t>NOTA: Añadir las columnas relativas al pet mummy!!!!!!</t>
@@ -1261,7 +1249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1578,12 +1566,6 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1604,45 +1586,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1688,9 +1631,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
@@ -1704,95 +1644,89 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="104">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3054,8 +2988,12 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -3208,6 +3146,86 @@
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -4348,6 +4366,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5595,6 +5614,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5916,6 +5936,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6237,6 +6258,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6545,6 +6567,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15119,54 +15142,54 @@
     <tableColumn id="31" name="[resultsPrefab]" dataDxfId="59"/>
     <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="58"/>
     <tableColumn id="33" name="[revealFromDragon]" dataDxfId="57"/>
-    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="1"/>
-    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="56"/>
-    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="55"/>
-    <tableColumn id="37" name="[invincible]" dataDxfId="54"/>
-    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="53"/>
-    <tableColumn id="39" name="[eatEverything]" dataDxfId="52"/>
-    <tableColumn id="40" name="[modeDuration]" dataDxfId="0"/>
-    <tableColumn id="41" name="[petScale]" dataDxfId="51"/>
-    <tableColumn id="42" name="[tidName]" dataDxfId="50"/>
-    <tableColumn id="43" name="[tidDesc]" dataDxfId="49"/>
-    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="48"/>
-    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="47"/>
-    <tableColumn id="46" name="[force]" dataDxfId="46"/>
-    <tableColumn id="47" name="[mass]" dataDxfId="45"/>
-    <tableColumn id="48" name="[friction]" dataDxfId="44"/>
-    <tableColumn id="49" name="[gravityModifier]" dataDxfId="43"/>
-    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="42"/>
-    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="41"/>
-    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="40"/>
-    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="39"/>
-    <tableColumn id="54" name="[trackingSku]" dataDxfId="38"/>
+    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="56"/>
+    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="55"/>
+    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="54"/>
+    <tableColumn id="37" name="[invincible]" dataDxfId="53"/>
+    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="52"/>
+    <tableColumn id="39" name="[eatEverything]" dataDxfId="51"/>
+    <tableColumn id="40" name="[modeDuration]" dataDxfId="50"/>
+    <tableColumn id="41" name="[petScale]" dataDxfId="49"/>
+    <tableColumn id="42" name="[tidName]" dataDxfId="48"/>
+    <tableColumn id="43" name="[tidDesc]" dataDxfId="47"/>
+    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="46"/>
+    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="45"/>
+    <tableColumn id="46" name="[force]" dataDxfId="44"/>
+    <tableColumn id="47" name="[mass]" dataDxfId="43"/>
+    <tableColumn id="48" name="[friction]" dataDxfId="42"/>
+    <tableColumn id="49" name="[gravityModifier]" dataDxfId="41"/>
+    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="40"/>
+    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="39"/>
+    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="38"/>
+    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="37"/>
+    <tableColumn id="54" name="[trackingSku]" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32">
   <autoFilter ref="B3:T6"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="33"/>
+    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="31"/>
     <tableColumn id="2" name="[sku]"/>
     <tableColumn id="3" name="[type]"/>
-    <tableColumn id="5" name="[order]" dataDxfId="32"/>
-    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="31"/>
-    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="30"/>
-    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="29"/>
-    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="28"/>
-    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="27"/>
-    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="26"/>
-    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="25"/>
-    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="24"/>
-    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="23"/>
-    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="22"/>
-    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="21"/>
-    <tableColumn id="76" name="[stepPrice]" dataDxfId="20"/>
-    <tableColumn id="77" name="[priceCoefA]" dataDxfId="19"/>
-    <tableColumn id="75" name="[priceCoefB]" dataDxfId="18"/>
+    <tableColumn id="5" name="[order]" dataDxfId="30"/>
+    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="29"/>
+    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="28"/>
+    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="27"/>
+    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="26"/>
+    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="25"/>
+    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="24"/>
+    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="23"/>
+    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="22"/>
+    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="21"/>
+    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="20"/>
+    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="19"/>
+    <tableColumn id="76" name="[stepPrice]" dataDxfId="18"/>
+    <tableColumn id="77" name="[priceCoefA]" dataDxfId="17"/>
+    <tableColumn id="75" name="[priceCoefB]" dataDxfId="16"/>
     <tableColumn id="65" name="[trackingSku]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -15174,14 +15197,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="B30:F39"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="14"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="13"/>
-    <tableColumn id="3" name="[specialDragon]" dataDxfId="12"/>
-    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="11"/>
-    <tableColumn id="5" name="[icon]" dataDxfId="10">
+    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="12"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="11"/>
+    <tableColumn id="3" name="[specialDragon]" dataDxfId="10"/>
+    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="9"/>
+    <tableColumn id="5" name="[icon]" dataDxfId="8">
       <calculatedColumnFormula>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15454,8 +15477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="AC25" sqref="AC25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AO13" sqref="AO13:AO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15891,8 +15914,8 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-      <c r="AW10" s="169" t="s">
-        <v>165</v>
+      <c r="AW10" s="153" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
@@ -16018,10 +16041,10 @@
       <c r="AF12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AG12" s="155" t="s">
+      <c r="AG12" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="AH12" s="158" t="s">
+      <c r="AH12" s="143" t="s">
         <v>42</v>
       </c>
       <c r="AI12" s="22" t="s">
@@ -16039,10 +16062,10 @@
       <c r="AM12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AN12" s="165" t="s">
+      <c r="AN12" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="AO12" s="162" t="s">
+      <c r="AO12" s="147" t="s">
         <v>35</v>
       </c>
       <c r="AP12" s="27" t="s">
@@ -16104,67 +16127,67 @@
       <c r="G13" s="36">
         <v>0</v>
       </c>
-      <c r="H13" s="107">
+      <c r="H13" s="173">
         <v>20</v>
       </c>
-      <c r="I13" s="99">
+      <c r="I13" s="171">
         <v>0</v>
       </c>
-      <c r="J13" s="108">
+      <c r="J13" s="169">
         <v>150</v>
       </c>
-      <c r="K13" s="97">
+      <c r="K13" s="170">
         <v>6</v>
       </c>
-      <c r="L13" s="97">
+      <c r="L13" s="170">
         <v>0</v>
       </c>
-      <c r="M13" s="97">
+      <c r="M13" s="170">
         <v>1E-4</v>
       </c>
-      <c r="N13" s="97">
+      <c r="N13" s="170">
         <v>30</v>
       </c>
-      <c r="O13" s="97">
+      <c r="O13" s="170">
         <v>0.5</v>
       </c>
-      <c r="P13" s="101">
+      <c r="P13" s="137">
         <v>1.25</v>
       </c>
-      <c r="Q13" s="99">
+      <c r="Q13" s="171">
         <v>1.2</v>
       </c>
-      <c r="R13" s="97">
+      <c r="R13" s="170">
         <v>120</v>
       </c>
-      <c r="S13" s="97">
+      <c r="S13" s="170">
         <v>20</v>
       </c>
-      <c r="T13" s="98">
+      <c r="T13" s="172">
         <v>40</v>
       </c>
-      <c r="U13" s="99">
+      <c r="U13" s="171">
         <v>9</v>
       </c>
-      <c r="V13" s="97">
+      <c r="V13" s="170">
         <v>3</v>
       </c>
-      <c r="W13" s="97">
+      <c r="W13" s="170">
         <v>9</v>
       </c>
-      <c r="X13" s="98">
+      <c r="X13" s="172">
         <v>9500</v>
       </c>
-      <c r="Y13" s="153">
+      <c r="Y13" s="138">
         <v>2</v>
       </c>
-      <c r="Z13" s="101">
+      <c r="Z13" s="137">
         <v>0.13</v>
       </c>
-      <c r="AA13" s="152">
+      <c r="AA13" s="137">
         <v>100000</v>
       </c>
-      <c r="AB13" s="153">
+      <c r="AB13" s="138">
         <v>12</v>
       </c>
       <c r="AC13" s="37" t="s">
@@ -16177,8 +16200,8 @@
         <v>24</v>
       </c>
       <c r="AF13" s="38"/>
-      <c r="AG13" s="156"/>
-      <c r="AH13" s="159">
+      <c r="AG13" s="141"/>
+      <c r="AH13" s="144">
         <v>4.0999999999999996</v>
       </c>
       <c r="AI13" s="102">
@@ -16196,30 +16219,30 @@
       <c r="AM13" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AN13" s="166">
+      <c r="AN13" s="150">
         <v>10</v>
       </c>
-      <c r="AO13" s="163">
+      <c r="AO13" s="167">
         <v>0.55999999999999994</v>
       </c>
       <c r="AP13" s="39"/>
       <c r="AQ13" s="40"/>
-      <c r="AR13" s="103">
+      <c r="AR13" s="176">
         <v>2E-3</v>
       </c>
-      <c r="AS13" s="104">
+      <c r="AS13" s="177">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT13" s="133">
+      <c r="AT13" s="131">
         <v>100</v>
       </c>
-      <c r="AU13" s="132">
+      <c r="AU13" s="130">
         <v>2.5</v>
       </c>
-      <c r="AV13" s="132">
+      <c r="AV13" s="130">
         <v>3</v>
       </c>
-      <c r="AW13" s="132">
+      <c r="AW13" s="130">
         <v>0</v>
       </c>
       <c r="AX13" s="106">
@@ -16228,10 +16251,10 @@
       <c r="AY13" s="106">
         <v>1.2</v>
       </c>
-      <c r="AZ13" s="106">
+      <c r="AZ13" s="174">
         <v>0</v>
       </c>
-      <c r="BA13" s="106">
+      <c r="BA13" s="174">
         <v>8</v>
       </c>
       <c r="BB13" s="105" t="s">
@@ -16257,67 +16280,67 @@
       <c r="G14" s="36">
         <v>10</v>
       </c>
-      <c r="H14" s="107">
+      <c r="H14" s="173">
         <v>22</v>
       </c>
-      <c r="I14" s="99">
+      <c r="I14" s="171">
         <v>0</v>
       </c>
-      <c r="J14" s="108">
+      <c r="J14" s="169">
         <v>200</v>
       </c>
-      <c r="K14" s="97">
+      <c r="K14" s="170">
         <v>6.5</v>
       </c>
-      <c r="L14" s="97">
+      <c r="L14" s="170">
         <v>0</v>
       </c>
-      <c r="M14" s="97">
+      <c r="M14" s="170">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="N14" s="97">
+      <c r="N14" s="170">
         <v>30</v>
       </c>
-      <c r="O14" s="97">
+      <c r="O14" s="170">
         <v>0.6</v>
       </c>
-      <c r="P14" s="101">
+      <c r="P14" s="137">
         <v>1.4</v>
       </c>
-      <c r="Q14" s="99">
+      <c r="Q14" s="171">
         <v>1.2</v>
       </c>
-      <c r="R14" s="97">
+      <c r="R14" s="170">
         <v>140</v>
       </c>
-      <c r="S14" s="97">
+      <c r="S14" s="170">
         <v>20</v>
       </c>
-      <c r="T14" s="98">
+      <c r="T14" s="172">
         <v>40</v>
       </c>
-      <c r="U14" s="99">
+      <c r="U14" s="171">
         <v>11</v>
       </c>
-      <c r="V14" s="97">
+      <c r="V14" s="170">
         <v>4</v>
       </c>
-      <c r="W14" s="97">
+      <c r="W14" s="170">
         <v>10</v>
       </c>
-      <c r="X14" s="98">
+      <c r="X14" s="172">
         <v>18000</v>
       </c>
-      <c r="Y14" s="153">
+      <c r="Y14" s="138">
         <v>3</v>
       </c>
-      <c r="Z14" s="101">
+      <c r="Z14" s="137">
         <v>0.08</v>
       </c>
-      <c r="AA14" s="152">
+      <c r="AA14" s="137">
         <v>100000</v>
       </c>
-      <c r="AB14" s="153">
+      <c r="AB14" s="138">
         <v>12</v>
       </c>
       <c r="AC14" s="37" t="s">
@@ -16330,8 +16353,8 @@
         <v>23</v>
       </c>
       <c r="AF14" s="38"/>
-      <c r="AG14" s="156"/>
-      <c r="AH14" s="159">
+      <c r="AG14" s="141"/>
+      <c r="AH14" s="144">
         <v>2.2999999999999998</v>
       </c>
       <c r="AI14" s="102">
@@ -16349,30 +16372,30 @@
       <c r="AM14" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AN14" s="166">
+      <c r="AN14" s="150">
         <v>10</v>
       </c>
-      <c r="AO14" s="163">
+      <c r="AO14" s="167">
         <v>0.7</v>
       </c>
       <c r="AP14" s="39"/>
       <c r="AQ14" s="40"/>
-      <c r="AR14" s="103">
+      <c r="AR14" s="176">
         <v>1.8E-3</v>
       </c>
-      <c r="AS14" s="104">
+      <c r="AS14" s="177">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT14" s="133">
+      <c r="AT14" s="131">
         <v>110</v>
       </c>
-      <c r="AU14" s="132">
+      <c r="AU14" s="130">
         <v>2.5</v>
       </c>
-      <c r="AV14" s="132">
+      <c r="AV14" s="130">
         <v>3</v>
       </c>
-      <c r="AW14" s="132">
+      <c r="AW14" s="130">
         <v>0</v>
       </c>
       <c r="AX14" s="106">
@@ -16381,10 +16404,10 @@
       <c r="AY14" s="106">
         <v>1.2</v>
       </c>
-      <c r="AZ14" s="106">
+      <c r="AZ14" s="174">
         <v>9</v>
       </c>
-      <c r="BA14" s="106">
+      <c r="BA14" s="174">
         <v>8</v>
       </c>
       <c r="BB14" s="105" t="s">
@@ -16410,67 +16433,67 @@
       <c r="G15" s="36">
         <v>20</v>
       </c>
-      <c r="H15" s="107">
+      <c r="H15" s="173">
         <v>24</v>
       </c>
-      <c r="I15" s="99">
+      <c r="I15" s="171">
         <v>0</v>
       </c>
-      <c r="J15" s="108">
+      <c r="J15" s="169">
         <v>250</v>
       </c>
-      <c r="K15" s="97">
+      <c r="K15" s="170">
         <v>7</v>
       </c>
-      <c r="L15" s="97">
+      <c r="L15" s="170">
         <v>0</v>
       </c>
-      <c r="M15" s="97">
+      <c r="M15" s="170">
         <v>1E-3</v>
       </c>
-      <c r="N15" s="97">
+      <c r="N15" s="170">
         <v>25</v>
       </c>
-      <c r="O15" s="97">
+      <c r="O15" s="170">
         <v>0.7</v>
       </c>
-      <c r="P15" s="101">
+      <c r="P15" s="137">
         <v>1.55</v>
       </c>
-      <c r="Q15" s="99">
+      <c r="Q15" s="171">
         <v>1.2</v>
       </c>
-      <c r="R15" s="97">
+      <c r="R15" s="170">
         <v>160</v>
       </c>
-      <c r="S15" s="97">
+      <c r="S15" s="170">
         <v>20</v>
       </c>
-      <c r="T15" s="98">
+      <c r="T15" s="172">
         <v>40</v>
       </c>
-      <c r="U15" s="99">
+      <c r="U15" s="171">
         <v>11.5</v>
       </c>
-      <c r="V15" s="97">
+      <c r="V15" s="170">
         <v>5</v>
       </c>
-      <c r="W15" s="97">
+      <c r="W15" s="170">
         <v>10</v>
       </c>
-      <c r="X15" s="98">
+      <c r="X15" s="172">
         <v>30000</v>
       </c>
-      <c r="Y15" s="153">
+      <c r="Y15" s="138">
         <v>4</v>
       </c>
-      <c r="Z15" s="101">
+      <c r="Z15" s="137">
         <v>0.05</v>
       </c>
-      <c r="AA15" s="152">
+      <c r="AA15" s="137">
         <v>100000</v>
       </c>
-      <c r="AB15" s="153">
+      <c r="AB15" s="138">
         <v>12</v>
       </c>
       <c r="AC15" s="37" t="s">
@@ -16483,8 +16506,8 @@
         <v>21</v>
       </c>
       <c r="AF15" s="38"/>
-      <c r="AG15" s="156"/>
-      <c r="AH15" s="159">
+      <c r="AG15" s="141"/>
+      <c r="AH15" s="144">
         <v>2.1</v>
       </c>
       <c r="AI15" s="102">
@@ -16502,30 +16525,30 @@
       <c r="AM15" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AN15" s="166">
+      <c r="AN15" s="150">
         <v>10</v>
       </c>
-      <c r="AO15" s="163">
+      <c r="AO15" s="167">
         <v>0.7</v>
       </c>
       <c r="AP15" s="39"/>
       <c r="AQ15" s="40"/>
-      <c r="AR15" s="103">
+      <c r="AR15" s="176">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AS15" s="104">
+      <c r="AS15" s="177">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT15" s="133">
+      <c r="AT15" s="131">
         <v>120</v>
       </c>
-      <c r="AU15" s="132">
+      <c r="AU15" s="130">
         <v>2.5</v>
       </c>
-      <c r="AV15" s="132">
+      <c r="AV15" s="130">
         <v>3</v>
       </c>
-      <c r="AW15" s="132">
+      <c r="AW15" s="130">
         <v>0</v>
       </c>
       <c r="AX15" s="106">
@@ -16534,10 +16557,10 @@
       <c r="AY15" s="106">
         <v>1.2</v>
       </c>
-      <c r="AZ15" s="106">
+      <c r="AZ15" s="174">
         <v>45</v>
       </c>
-      <c r="BA15" s="106">
+      <c r="BA15" s="174">
         <v>15</v>
       </c>
       <c r="BB15" s="105" t="s">
@@ -16564,67 +16587,67 @@
       <c r="G16" s="36">
         <v>30</v>
       </c>
-      <c r="H16" s="107">
+      <c r="H16" s="173">
         <v>25</v>
       </c>
-      <c r="I16" s="99">
+      <c r="I16" s="171">
         <v>0</v>
       </c>
-      <c r="J16" s="108">
+      <c r="J16" s="169">
         <v>300</v>
       </c>
-      <c r="K16" s="97">
+      <c r="K16" s="170">
         <v>7.5</v>
       </c>
-      <c r="L16" s="97">
+      <c r="L16" s="170">
         <v>0</v>
       </c>
-      <c r="M16" s="97">
+      <c r="M16" s="170">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="N16" s="97">
+      <c r="N16" s="170">
         <v>20</v>
       </c>
-      <c r="O16" s="97">
+      <c r="O16" s="170">
         <v>0.8</v>
       </c>
-      <c r="P16" s="101">
+      <c r="P16" s="137">
         <v>1.75</v>
       </c>
-      <c r="Q16" s="99">
+      <c r="Q16" s="171">
         <v>1.2</v>
       </c>
-      <c r="R16" s="97">
+      <c r="R16" s="170">
         <v>180</v>
       </c>
-      <c r="S16" s="97">
+      <c r="S16" s="170">
         <v>20</v>
       </c>
-      <c r="T16" s="98">
+      <c r="T16" s="172">
         <v>40</v>
       </c>
-      <c r="U16" s="99">
+      <c r="U16" s="171">
         <v>12</v>
       </c>
-      <c r="V16" s="97">
+      <c r="V16" s="170">
         <v>6</v>
       </c>
-      <c r="W16" s="97">
+      <c r="W16" s="170">
         <v>10</v>
       </c>
-      <c r="X16" s="98">
+      <c r="X16" s="172">
         <v>50000</v>
       </c>
-      <c r="Y16" s="153">
+      <c r="Y16" s="138">
         <v>5</v>
       </c>
-      <c r="Z16" s="101">
+      <c r="Z16" s="137">
         <v>0.04</v>
       </c>
-      <c r="AA16" s="152">
+      <c r="AA16" s="137">
         <v>100000</v>
       </c>
-      <c r="AB16" s="153">
+      <c r="AB16" s="138">
         <v>12</v>
       </c>
       <c r="AC16" s="37" t="s">
@@ -16637,8 +16660,8 @@
         <v>19</v>
       </c>
       <c r="AF16" s="38"/>
-      <c r="AG16" s="156"/>
-      <c r="AH16" s="159">
+      <c r="AG16" s="141"/>
+      <c r="AH16" s="144">
         <v>2.1</v>
       </c>
       <c r="AI16" s="102">
@@ -16656,30 +16679,30 @@
       <c r="AM16" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AN16" s="166">
+      <c r="AN16" s="150">
         <v>10</v>
       </c>
-      <c r="AO16" s="163">
+      <c r="AO16" s="167">
         <v>0.7</v>
       </c>
       <c r="AP16" s="39"/>
       <c r="AQ16" s="40"/>
-      <c r="AR16" s="103">
+      <c r="AR16" s="176">
         <v>1.5E-3</v>
       </c>
-      <c r="AS16" s="104">
+      <c r="AS16" s="177">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT16" s="133">
+      <c r="AT16" s="131">
         <v>130</v>
       </c>
-      <c r="AU16" s="132">
+      <c r="AU16" s="130">
         <v>2.5</v>
       </c>
-      <c r="AV16" s="132">
+      <c r="AV16" s="130">
         <v>3</v>
       </c>
-      <c r="AW16" s="132">
+      <c r="AW16" s="130">
         <v>0</v>
       </c>
       <c r="AX16" s="106">
@@ -16688,10 +16711,10 @@
       <c r="AY16" s="106">
         <v>1.2</v>
       </c>
-      <c r="AZ16" s="106">
+      <c r="AZ16" s="174">
         <v>59</v>
       </c>
-      <c r="BA16" s="106">
+      <c r="BA16" s="174">
         <v>15</v>
       </c>
       <c r="BB16" s="105" t="s">
@@ -16717,28 +16740,28 @@
       <c r="G17" s="115">
         <v>0</v>
       </c>
-      <c r="H17" s="154">
+      <c r="H17" s="139">
         <v>3</v>
       </c>
-      <c r="I17" s="149">
+      <c r="I17" s="134">
         <v>-2</v>
       </c>
       <c r="J17" s="116">
         <v>100</v>
       </c>
-      <c r="K17" s="150">
+      <c r="K17" s="135">
         <v>1.5</v>
       </c>
-      <c r="L17" s="150">
+      <c r="L17" s="135">
         <v>0</v>
       </c>
-      <c r="M17" s="150">
+      <c r="M17" s="135">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N17" s="150">
+      <c r="N17" s="135">
         <v>30</v>
       </c>
-      <c r="O17" s="150">
+      <c r="O17" s="135">
         <v>0.5</v>
       </c>
       <c r="P17" s="120">
@@ -16750,22 +16773,22 @@
       <c r="R17" s="118">
         <v>100</v>
       </c>
-      <c r="S17" s="150">
+      <c r="S17" s="135">
         <v>25</v>
       </c>
-      <c r="T17" s="151">
+      <c r="T17" s="136">
         <v>35</v>
       </c>
-      <c r="U17" s="149">
+      <c r="U17" s="134">
         <v>9</v>
       </c>
-      <c r="V17" s="150">
+      <c r="V17" s="135">
         <v>3</v>
       </c>
-      <c r="W17" s="150">
+      <c r="W17" s="135">
         <v>9</v>
       </c>
-      <c r="X17" s="151">
+      <c r="X17" s="136">
         <v>8500</v>
       </c>
       <c r="Y17" s="119">
@@ -16790,8 +16813,8 @@
         <v>24</v>
       </c>
       <c r="AF17" s="123"/>
-      <c r="AG17" s="157"/>
-      <c r="AH17" s="160">
+      <c r="AG17" s="142"/>
+      <c r="AH17" s="145">
         <v>4.0999999999999996</v>
       </c>
       <c r="AI17" s="122">
@@ -16809,45 +16832,45 @@
       <c r="AM17" s="122" t="b">
         <v>1</v>
       </c>
-      <c r="AN17" s="167">
+      <c r="AN17" s="151">
         <v>10</v>
       </c>
-      <c r="AO17" s="164">
+      <c r="AO17" s="168">
         <v>0.55999999999999994</v>
       </c>
       <c r="AP17" s="124"/>
       <c r="AQ17" s="125"/>
-      <c r="AR17" s="126">
+      <c r="AR17" s="178">
         <v>2E-3</v>
       </c>
-      <c r="AS17" s="127">
+      <c r="AS17" s="179">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT17" s="128">
+      <c r="AT17" s="126">
         <v>240</v>
       </c>
-      <c r="AU17" s="129">
+      <c r="AU17" s="127">
         <v>2.5</v>
       </c>
-      <c r="AV17" s="129">
+      <c r="AV17" s="127">
         <v>9.5</v>
       </c>
-      <c r="AW17" s="129">
+      <c r="AW17" s="127">
         <v>1.7</v>
       </c>
-      <c r="AX17" s="130">
+      <c r="AX17" s="128">
         <v>0.7</v>
       </c>
-      <c r="AY17" s="130">
+      <c r="AY17" s="128">
         <v>1.2</v>
       </c>
-      <c r="AZ17" s="130">
+      <c r="AZ17" s="175">
         <v>0</v>
       </c>
-      <c r="BA17" s="130">
+      <c r="BA17" s="175">
         <v>8</v>
       </c>
-      <c r="BB17" s="131" t="s">
+      <c r="BB17" s="129" t="s">
         <v>4</v>
       </c>
     </row>
@@ -16870,28 +16893,28 @@
       <c r="G18" s="115">
         <v>10</v>
       </c>
-      <c r="H18" s="154">
+      <c r="H18" s="139">
         <v>8</v>
       </c>
-      <c r="I18" s="149">
+      <c r="I18" s="134">
         <v>0</v>
       </c>
       <c r="J18" s="116">
         <v>150</v>
       </c>
-      <c r="K18" s="150">
+      <c r="K18" s="135">
         <v>1.9</v>
       </c>
-      <c r="L18" s="150">
+      <c r="L18" s="135">
         <v>0</v>
       </c>
-      <c r="M18" s="150">
+      <c r="M18" s="135">
         <v>1.2E-2</v>
       </c>
-      <c r="N18" s="150">
+      <c r="N18" s="135">
         <v>30</v>
       </c>
-      <c r="O18" s="150">
+      <c r="O18" s="135">
         <v>0.6</v>
       </c>
       <c r="P18" s="120">
@@ -16903,22 +16926,22 @@
       <c r="R18" s="118">
         <v>120</v>
       </c>
-      <c r="S18" s="150">
+      <c r="S18" s="135">
         <v>25</v>
       </c>
-      <c r="T18" s="151">
+      <c r="T18" s="136">
         <v>35</v>
       </c>
-      <c r="U18" s="149">
+      <c r="U18" s="134">
         <v>11</v>
       </c>
-      <c r="V18" s="150">
+      <c r="V18" s="135">
         <v>4</v>
       </c>
-      <c r="W18" s="150">
+      <c r="W18" s="135">
         <v>10</v>
       </c>
-      <c r="X18" s="151">
+      <c r="X18" s="136">
         <v>15000</v>
       </c>
       <c r="Y18" s="119">
@@ -16943,8 +16966,8 @@
         <v>23</v>
       </c>
       <c r="AF18" s="123"/>
-      <c r="AG18" s="157"/>
-      <c r="AH18" s="160">
+      <c r="AG18" s="142"/>
+      <c r="AH18" s="145">
         <v>2.2999999999999998</v>
       </c>
       <c r="AI18" s="122">
@@ -16962,45 +16985,45 @@
       <c r="AM18" s="122" t="b">
         <v>1</v>
       </c>
-      <c r="AN18" s="167">
+      <c r="AN18" s="151">
         <v>10</v>
       </c>
-      <c r="AO18" s="164">
+      <c r="AO18" s="168">
         <v>0.7</v>
       </c>
       <c r="AP18" s="124"/>
       <c r="AQ18" s="125"/>
-      <c r="AR18" s="126">
+      <c r="AR18" s="178">
         <v>1.8E-3</v>
       </c>
-      <c r="AS18" s="127">
+      <c r="AS18" s="179">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT18" s="128">
+      <c r="AT18" s="126">
         <v>255</v>
       </c>
-      <c r="AU18" s="129">
+      <c r="AU18" s="127">
         <v>2.5</v>
       </c>
-      <c r="AV18" s="129">
+      <c r="AV18" s="127">
         <v>9.5</v>
       </c>
-      <c r="AW18" s="129">
+      <c r="AW18" s="127">
         <v>1.7</v>
       </c>
-      <c r="AX18" s="130">
+      <c r="AX18" s="128">
         <v>0.7</v>
       </c>
-      <c r="AY18" s="130">
+      <c r="AY18" s="128">
         <v>1.2</v>
       </c>
-      <c r="AZ18" s="130">
+      <c r="AZ18" s="175">
         <v>9</v>
       </c>
-      <c r="BA18" s="130">
+      <c r="BA18" s="175">
         <v>8</v>
       </c>
-      <c r="BB18" s="131" t="s">
+      <c r="BB18" s="129" t="s">
         <v>5</v>
       </c>
     </row>
@@ -17023,28 +17046,28 @@
       <c r="G19" s="115">
         <v>20</v>
       </c>
-      <c r="H19" s="154">
+      <c r="H19" s="139">
         <v>17</v>
       </c>
-      <c r="I19" s="149">
+      <c r="I19" s="134">
         <v>0</v>
       </c>
       <c r="J19" s="116">
         <v>200</v>
       </c>
-      <c r="K19" s="150">
+      <c r="K19" s="135">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L19" s="150">
+      <c r="L19" s="135">
         <v>0</v>
       </c>
-      <c r="M19" s="150">
+      <c r="M19" s="135">
         <v>1.4E-2</v>
       </c>
-      <c r="N19" s="150">
+      <c r="N19" s="135">
         <v>25</v>
       </c>
-      <c r="O19" s="150">
+      <c r="O19" s="135">
         <v>0.7</v>
       </c>
       <c r="P19" s="120">
@@ -17056,22 +17079,22 @@
       <c r="R19" s="118">
         <v>140</v>
       </c>
-      <c r="S19" s="150">
+      <c r="S19" s="135">
         <v>25</v>
       </c>
-      <c r="T19" s="151">
+      <c r="T19" s="136">
         <v>35</v>
       </c>
-      <c r="U19" s="149">
+      <c r="U19" s="134">
         <v>11.5</v>
       </c>
-      <c r="V19" s="150">
+      <c r="V19" s="135">
         <v>5</v>
       </c>
-      <c r="W19" s="150">
+      <c r="W19" s="135">
         <v>10</v>
       </c>
-      <c r="X19" s="151">
+      <c r="X19" s="136">
         <v>27000</v>
       </c>
       <c r="Y19" s="119">
@@ -17096,8 +17119,8 @@
         <v>21</v>
       </c>
       <c r="AF19" s="123"/>
-      <c r="AG19" s="157"/>
-      <c r="AH19" s="160">
+      <c r="AG19" s="142"/>
+      <c r="AH19" s="145">
         <v>2.1</v>
       </c>
       <c r="AI19" s="122">
@@ -17115,45 +17138,45 @@
       <c r="AM19" s="122" t="b">
         <v>1</v>
       </c>
-      <c r="AN19" s="167">
+      <c r="AN19" s="151">
         <v>10</v>
       </c>
-      <c r="AO19" s="164">
+      <c r="AO19" s="168">
         <v>0.7</v>
       </c>
       <c r="AP19" s="124"/>
       <c r="AQ19" s="125"/>
-      <c r="AR19" s="126">
+      <c r="AR19" s="178">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AS19" s="127">
+      <c r="AS19" s="179">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT19" s="128">
+      <c r="AT19" s="126">
         <v>270</v>
       </c>
-      <c r="AU19" s="129">
+      <c r="AU19" s="127">
         <v>2.5</v>
       </c>
-      <c r="AV19" s="129">
+      <c r="AV19" s="127">
         <v>9.5</v>
       </c>
-      <c r="AW19" s="129">
+      <c r="AW19" s="127">
         <v>1.7</v>
       </c>
-      <c r="AX19" s="130">
+      <c r="AX19" s="128">
         <v>0.7</v>
       </c>
-      <c r="AY19" s="130">
+      <c r="AY19" s="128">
         <v>1.2</v>
       </c>
-      <c r="AZ19" s="130">
+      <c r="AZ19" s="175">
         <v>45</v>
       </c>
-      <c r="BA19" s="130">
+      <c r="BA19" s="175">
         <v>15</v>
       </c>
-      <c r="BB19" s="131" t="s">
+      <c r="BB19" s="129" t="s">
         <v>6</v>
       </c>
     </row>
@@ -17176,28 +17199,28 @@
       <c r="G20" s="115">
         <v>30</v>
       </c>
-      <c r="H20" s="154">
+      <c r="H20" s="139">
         <v>25</v>
       </c>
-      <c r="I20" s="149">
+      <c r="I20" s="134">
         <v>0</v>
       </c>
       <c r="J20" s="116">
         <v>250</v>
       </c>
-      <c r="K20" s="150">
+      <c r="K20" s="135">
         <v>2.4</v>
       </c>
-      <c r="L20" s="150">
+      <c r="L20" s="135">
         <v>0</v>
       </c>
-      <c r="M20" s="150">
+      <c r="M20" s="135">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="N20" s="150">
+      <c r="N20" s="135">
         <v>20</v>
       </c>
-      <c r="O20" s="150">
+      <c r="O20" s="135">
         <v>0.8</v>
       </c>
       <c r="P20" s="120">
@@ -17209,22 +17232,22 @@
       <c r="R20" s="118">
         <v>160</v>
       </c>
-      <c r="S20" s="150">
+      <c r="S20" s="135">
         <v>25</v>
       </c>
-      <c r="T20" s="151">
+      <c r="T20" s="136">
         <v>35</v>
       </c>
-      <c r="U20" s="149">
+      <c r="U20" s="134">
         <v>12</v>
       </c>
-      <c r="V20" s="150">
+      <c r="V20" s="135">
         <v>6</v>
       </c>
-      <c r="W20" s="150">
+      <c r="W20" s="135">
         <v>10</v>
       </c>
-      <c r="X20" s="151">
+      <c r="X20" s="136">
         <v>45000</v>
       </c>
       <c r="Y20" s="119">
@@ -17249,8 +17272,8 @@
         <v>19</v>
       </c>
       <c r="AF20" s="123"/>
-      <c r="AG20" s="157"/>
-      <c r="AH20" s="160">
+      <c r="AG20" s="142"/>
+      <c r="AH20" s="145">
         <v>2.1</v>
       </c>
       <c r="AI20" s="122">
@@ -17268,45 +17291,45 @@
       <c r="AM20" s="122" t="b">
         <v>1</v>
       </c>
-      <c r="AN20" s="167">
+      <c r="AN20" s="151">
         <v>10</v>
       </c>
-      <c r="AO20" s="164">
+      <c r="AO20" s="168">
         <v>0.7</v>
       </c>
       <c r="AP20" s="124"/>
       <c r="AQ20" s="125"/>
-      <c r="AR20" s="126">
+      <c r="AR20" s="178">
         <v>1.5E-3</v>
       </c>
-      <c r="AS20" s="127">
+      <c r="AS20" s="179">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT20" s="128">
+      <c r="AT20" s="126">
         <v>285</v>
       </c>
-      <c r="AU20" s="129">
+      <c r="AU20" s="127">
         <v>2.5</v>
       </c>
-      <c r="AV20" s="129">
+      <c r="AV20" s="127">
         <v>9.5</v>
       </c>
-      <c r="AW20" s="129">
+      <c r="AW20" s="127">
         <v>1.7</v>
       </c>
-      <c r="AX20" s="130">
+      <c r="AX20" s="128">
         <v>0.7</v>
       </c>
-      <c r="AY20" s="130">
+      <c r="AY20" s="128">
         <v>1.2</v>
       </c>
-      <c r="AZ20" s="130">
+      <c r="AZ20" s="175">
         <v>59</v>
       </c>
-      <c r="BA20" s="130">
+      <c r="BA20" s="175">
         <v>15</v>
       </c>
-      <c r="BB20" s="131" t="s">
+      <c r="BB20" s="129" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17402,8 +17425,8 @@
         <v>24</v>
       </c>
       <c r="AF21" s="38"/>
-      <c r="AG21" s="156"/>
-      <c r="AH21" s="159">
+      <c r="AG21" s="141"/>
+      <c r="AH21" s="144">
         <v>4.0999999999999996</v>
       </c>
       <c r="AI21" s="102">
@@ -17421,10 +17444,10 @@
       <c r="AM21" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AN21" s="166">
+      <c r="AN21" s="150">
         <v>10</v>
       </c>
-      <c r="AO21" s="163">
+      <c r="AO21" s="148">
         <v>0.55999999999999994</v>
       </c>
       <c r="AP21" s="39"/>
@@ -17555,8 +17578,8 @@
         <v>23</v>
       </c>
       <c r="AF22" s="38"/>
-      <c r="AG22" s="156"/>
-      <c r="AH22" s="159">
+      <c r="AG22" s="141"/>
+      <c r="AH22" s="144">
         <v>2.2999999999999998</v>
       </c>
       <c r="AI22" s="102">
@@ -17574,10 +17597,10 @@
       <c r="AM22" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AN22" s="166">
+      <c r="AN22" s="150">
         <v>10</v>
       </c>
-      <c r="AO22" s="163">
+      <c r="AO22" s="148">
         <v>0.7</v>
       </c>
       <c r="AP22" s="39"/>
@@ -17708,8 +17731,8 @@
         <v>21</v>
       </c>
       <c r="AF23" s="38"/>
-      <c r="AG23" s="156"/>
-      <c r="AH23" s="159">
+      <c r="AG23" s="141"/>
+      <c r="AH23" s="144">
         <v>2.1</v>
       </c>
       <c r="AI23" s="102">
@@ -17727,10 +17750,10 @@
       <c r="AM23" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AN23" s="166">
+      <c r="AN23" s="150">
         <v>10</v>
       </c>
-      <c r="AO23" s="163">
+      <c r="AO23" s="148">
         <v>0.7</v>
       </c>
       <c r="AP23" s="39"/>
@@ -17862,8 +17885,8 @@
         <v>19</v>
       </c>
       <c r="AF24" s="38"/>
-      <c r="AG24" s="156"/>
-      <c r="AH24" s="161">
+      <c r="AG24" s="141"/>
+      <c r="AH24" s="146">
         <v>2.1</v>
       </c>
       <c r="AI24" s="102">
@@ -17881,10 +17904,10 @@
       <c r="AM24" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="AN24" s="168">
+      <c r="AN24" s="152">
         <v>10</v>
       </c>
-      <c r="AO24" s="163">
+      <c r="AO24" s="148">
         <v>0.7</v>
       </c>
       <c r="AP24" s="39"/>
@@ -17930,44 +17953,44 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="143" t="s">
+      <c r="H25" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="144"/>
-      <c r="J25" s="145" t="s">
+      <c r="I25" s="162"/>
+      <c r="J25" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="146"/>
-      <c r="L25" s="146"/>
-      <c r="M25" s="146"/>
-      <c r="N25" s="146"/>
-      <c r="O25" s="147"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="164"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="164"/>
+      <c r="O25" s="165"/>
       <c r="P25" s="79"/>
-      <c r="Q25" s="139" t="s">
+      <c r="Q25" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="R25" s="140"/>
-      <c r="S25" s="140"/>
-      <c r="T25" s="140"/>
-      <c r="U25" s="141" t="s">
+      <c r="R25" s="158"/>
+      <c r="S25" s="158"/>
+      <c r="T25" s="158"/>
+      <c r="U25" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="142"/>
-      <c r="W25" s="142"/>
-      <c r="X25" s="142"/>
+      <c r="V25" s="160"/>
+      <c r="W25" s="160"/>
+      <c r="X25" s="160"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
-      <c r="AH25" s="136" t="s">
+      <c r="AH25" s="154" t="s">
         <v>146</v>
       </c>
-      <c r="AI25" s="137"/>
-      <c r="AJ25" s="137"/>
-      <c r="AK25" s="137"/>
-      <c r="AL25" s="137"/>
-      <c r="AM25" s="137"/>
-      <c r="AN25" s="138"/>
+      <c r="AI25" s="155"/>
+      <c r="AJ25" s="155"/>
+      <c r="AK25" s="155"/>
+      <c r="AL25" s="155"/>
+      <c r="AM25" s="155"/>
+      <c r="AN25" s="156"/>
     </row>
     <row r="27" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
@@ -18228,7 +18251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AC63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -18251,12 +18274,12 @@
     </row>
     <row r="3" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D3" s="70"/>
-      <c r="E3" s="148" t="s">
+      <c r="E3" s="166" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
       <c r="J3" s="70" t="s">
         <v>121</v>
       </c>
@@ -19147,22 +19170,22 @@
     <mergeCell ref="E3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:E15">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>E13&gt;$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$E$13&gt;$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$E$14&gt;$T$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$E$15&gt;$AB$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19176,8 +19199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AC63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19199,12 +19222,12 @@
     </row>
     <row r="3" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D3" s="70"/>
-      <c r="E3" s="148" t="s">
+      <c r="E3" s="166" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
       <c r="J3" s="70" t="s">
         <v>121</v>
       </c>
@@ -19865,10 +19888,8 @@
       <c r="F35" s="90"/>
       <c r="G35" s="90"/>
       <c r="H35" s="78"/>
-      <c r="N35" s="134" t="s">
-        <v>161</v>
-      </c>
-      <c r="O35" s="134"/>
+      <c r="N35" s="132"/>
+      <c r="O35" s="132"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C36" s="89"/>
@@ -19877,10 +19898,8 @@
       <c r="F36" s="90"/>
       <c r="G36" s="90"/>
       <c r="H36" s="78"/>
-      <c r="N36" s="134"/>
-      <c r="O36" s="134" t="s">
-        <v>162</v>
-      </c>
+      <c r="N36" s="132"/>
+      <c r="O36" s="132"/>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C37" s="89"/>
@@ -19889,10 +19908,8 @@
       <c r="F37" s="90"/>
       <c r="G37" s="90"/>
       <c r="H37" s="78"/>
-      <c r="N37" s="134"/>
-      <c r="O37" s="134" t="s">
-        <v>163</v>
-      </c>
+      <c r="N37" s="132"/>
+      <c r="O37" s="132"/>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C38" s="89"/>
@@ -19901,10 +19918,8 @@
       <c r="F38" s="90"/>
       <c r="G38" s="90"/>
       <c r="H38" s="78"/>
-      <c r="N38" s="134"/>
-      <c r="O38" s="135" t="s">
-        <v>164</v>
-      </c>
+      <c r="N38" s="132"/>
+      <c r="O38" s="133"/>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C39" s="89"/>
@@ -20111,22 +20126,22 @@
     <mergeCell ref="E3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:E15">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>E13&gt;$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$E$13&gt;$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$E$14&gt;$T$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$E$15&gt;$AB$4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500"/>
   </bookViews>
   <sheets>
     <sheet name="special dragons" sheetId="10" r:id="rId1"/>
@@ -1644,6 +1644,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1682,45 +1721,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4366,7 +4366,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5614,7 +5613,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5936,7 +5934,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6258,7 +6255,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6567,7 +6563,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15477,8 +15472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AO13" sqref="AO13:AO20"/>
+    <sheetView tabSelected="1" topLeftCell="P4" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16127,56 +16122,56 @@
       <c r="G13" s="36">
         <v>0</v>
       </c>
-      <c r="H13" s="173">
+      <c r="H13" s="160">
         <v>20</v>
       </c>
-      <c r="I13" s="171">
+      <c r="I13" s="158">
         <v>0</v>
       </c>
-      <c r="J13" s="169">
+      <c r="J13" s="156">
         <v>150</v>
       </c>
-      <c r="K13" s="170">
-        <v>6</v>
-      </c>
-      <c r="L13" s="170">
+      <c r="K13" s="157">
+        <v>6.2</v>
+      </c>
+      <c r="L13" s="157">
         <v>0</v>
       </c>
-      <c r="M13" s="170">
+      <c r="M13" s="157">
         <v>1E-4</v>
       </c>
-      <c r="N13" s="170">
+      <c r="N13" s="157">
         <v>30</v>
       </c>
-      <c r="O13" s="170">
+      <c r="O13" s="157">
         <v>0.5</v>
       </c>
       <c r="P13" s="137">
         <v>1.25</v>
       </c>
-      <c r="Q13" s="171">
-        <v>1.2</v>
-      </c>
-      <c r="R13" s="170">
+      <c r="Q13" s="158">
+        <v>1.4</v>
+      </c>
+      <c r="R13" s="157">
         <v>120</v>
       </c>
-      <c r="S13" s="170">
-        <v>20</v>
-      </c>
-      <c r="T13" s="172">
+      <c r="S13" s="157">
         <v>40</v>
       </c>
-      <c r="U13" s="171">
+      <c r="T13" s="159">
+        <v>14</v>
+      </c>
+      <c r="U13" s="158">
         <v>9</v>
       </c>
-      <c r="V13" s="170">
+      <c r="V13" s="157">
         <v>3</v>
       </c>
-      <c r="W13" s="170">
+      <c r="W13" s="157">
         <v>9</v>
       </c>
-      <c r="X13" s="172">
-        <v>9500</v>
+      <c r="X13" s="159">
+        <v>25000</v>
       </c>
       <c r="Y13" s="138">
         <v>2</v>
@@ -16222,15 +16217,15 @@
       <c r="AN13" s="150">
         <v>10</v>
       </c>
-      <c r="AO13" s="167">
+      <c r="AO13" s="154">
         <v>0.55999999999999994</v>
       </c>
       <c r="AP13" s="39"/>
       <c r="AQ13" s="40"/>
-      <c r="AR13" s="176">
+      <c r="AR13" s="163">
         <v>2E-3</v>
       </c>
-      <c r="AS13" s="177">
+      <c r="AS13" s="164">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AT13" s="131">
@@ -16249,12 +16244,12 @@
         <v>0.7</v>
       </c>
       <c r="AY13" s="106">
-        <v>1.2</v>
-      </c>
-      <c r="AZ13" s="174">
+        <v>0.8</v>
+      </c>
+      <c r="AZ13" s="161">
         <v>0</v>
       </c>
-      <c r="BA13" s="174">
+      <c r="BA13" s="161">
         <v>8</v>
       </c>
       <c r="BB13" s="105" t="s">
@@ -16280,56 +16275,56 @@
       <c r="G14" s="36">
         <v>10</v>
       </c>
-      <c r="H14" s="173">
+      <c r="H14" s="160">
         <v>22</v>
       </c>
-      <c r="I14" s="171">
+      <c r="I14" s="158">
         <v>0</v>
       </c>
-      <c r="J14" s="169">
+      <c r="J14" s="156">
         <v>200</v>
       </c>
-      <c r="K14" s="170">
-        <v>6.5</v>
-      </c>
-      <c r="L14" s="170">
+      <c r="K14" s="157">
+        <v>6.7</v>
+      </c>
+      <c r="L14" s="157">
         <v>0</v>
       </c>
-      <c r="M14" s="170">
+      <c r="M14" s="157">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="N14" s="170">
+      <c r="N14" s="157">
         <v>30</v>
       </c>
-      <c r="O14" s="170">
+      <c r="O14" s="157">
         <v>0.6</v>
       </c>
       <c r="P14" s="137">
         <v>1.4</v>
       </c>
-      <c r="Q14" s="171">
-        <v>1.2</v>
-      </c>
-      <c r="R14" s="170">
+      <c r="Q14" s="158">
+        <v>1.4</v>
+      </c>
+      <c r="R14" s="157">
         <v>140</v>
       </c>
-      <c r="S14" s="170">
-        <v>20</v>
-      </c>
-      <c r="T14" s="172">
+      <c r="S14" s="157">
         <v>40</v>
       </c>
-      <c r="U14" s="171">
+      <c r="T14" s="159">
+        <v>14</v>
+      </c>
+      <c r="U14" s="158">
         <v>11</v>
       </c>
-      <c r="V14" s="170">
+      <c r="V14" s="157">
         <v>4</v>
       </c>
-      <c r="W14" s="170">
+      <c r="W14" s="157">
         <v>10</v>
       </c>
-      <c r="X14" s="172">
-        <v>18000</v>
+      <c r="X14" s="159">
+        <v>35000</v>
       </c>
       <c r="Y14" s="138">
         <v>3</v>
@@ -16375,15 +16370,15 @@
       <c r="AN14" s="150">
         <v>10</v>
       </c>
-      <c r="AO14" s="167">
+      <c r="AO14" s="154">
         <v>0.7</v>
       </c>
       <c r="AP14" s="39"/>
       <c r="AQ14" s="40"/>
-      <c r="AR14" s="176">
+      <c r="AR14" s="163">
         <v>1.8E-3</v>
       </c>
-      <c r="AS14" s="177">
+      <c r="AS14" s="164">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AT14" s="131">
@@ -16402,12 +16397,12 @@
         <v>0.7</v>
       </c>
       <c r="AY14" s="106">
-        <v>1.2</v>
-      </c>
-      <c r="AZ14" s="174">
+        <v>0.8</v>
+      </c>
+      <c r="AZ14" s="161">
         <v>9</v>
       </c>
-      <c r="BA14" s="174">
+      <c r="BA14" s="161">
         <v>8</v>
       </c>
       <c r="BB14" s="105" t="s">
@@ -16433,56 +16428,56 @@
       <c r="G15" s="36">
         <v>20</v>
       </c>
-      <c r="H15" s="173">
+      <c r="H15" s="160">
         <v>24</v>
       </c>
-      <c r="I15" s="171">
+      <c r="I15" s="158">
         <v>0</v>
       </c>
-      <c r="J15" s="169">
+      <c r="J15" s="156">
         <v>250</v>
       </c>
-      <c r="K15" s="170">
-        <v>7</v>
-      </c>
-      <c r="L15" s="170">
+      <c r="K15" s="157">
+        <v>7.2</v>
+      </c>
+      <c r="L15" s="157">
         <v>0</v>
       </c>
-      <c r="M15" s="170">
+      <c r="M15" s="157">
         <v>1E-3</v>
       </c>
-      <c r="N15" s="170">
+      <c r="N15" s="157">
         <v>25</v>
       </c>
-      <c r="O15" s="170">
+      <c r="O15" s="157">
         <v>0.7</v>
       </c>
       <c r="P15" s="137">
         <v>1.55</v>
       </c>
-      <c r="Q15" s="171">
-        <v>1.2</v>
-      </c>
-      <c r="R15" s="170">
+      <c r="Q15" s="158">
+        <v>1.4</v>
+      </c>
+      <c r="R15" s="157">
         <v>160</v>
       </c>
-      <c r="S15" s="170">
-        <v>20</v>
-      </c>
-      <c r="T15" s="172">
+      <c r="S15" s="157">
         <v>40</v>
       </c>
-      <c r="U15" s="171">
+      <c r="T15" s="159">
+        <v>14</v>
+      </c>
+      <c r="U15" s="158">
         <v>11.5</v>
       </c>
-      <c r="V15" s="170">
+      <c r="V15" s="157">
         <v>5</v>
       </c>
-      <c r="W15" s="170">
+      <c r="W15" s="157">
         <v>10</v>
       </c>
-      <c r="X15" s="172">
-        <v>30000</v>
+      <c r="X15" s="159">
+        <v>47000</v>
       </c>
       <c r="Y15" s="138">
         <v>4</v>
@@ -16528,15 +16523,15 @@
       <c r="AN15" s="150">
         <v>10</v>
       </c>
-      <c r="AO15" s="167">
+      <c r="AO15" s="154">
         <v>0.7</v>
       </c>
       <c r="AP15" s="39"/>
       <c r="AQ15" s="40"/>
-      <c r="AR15" s="176">
+      <c r="AR15" s="163">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AS15" s="177">
+      <c r="AS15" s="164">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AT15" s="131">
@@ -16555,12 +16550,12 @@
         <v>0.7</v>
       </c>
       <c r="AY15" s="106">
-        <v>1.2</v>
-      </c>
-      <c r="AZ15" s="174">
+        <v>0.8</v>
+      </c>
+      <c r="AZ15" s="161">
         <v>45</v>
       </c>
-      <c r="BA15" s="174">
+      <c r="BA15" s="161">
         <v>15</v>
       </c>
       <c r="BB15" s="105" t="s">
@@ -16587,56 +16582,56 @@
       <c r="G16" s="36">
         <v>30</v>
       </c>
-      <c r="H16" s="173">
+      <c r="H16" s="160">
         <v>25</v>
       </c>
-      <c r="I16" s="171">
+      <c r="I16" s="158">
         <v>0</v>
       </c>
-      <c r="J16" s="169">
+      <c r="J16" s="156">
         <v>300</v>
       </c>
-      <c r="K16" s="170">
-        <v>7.5</v>
-      </c>
-      <c r="L16" s="170">
+      <c r="K16" s="157">
+        <v>7.7</v>
+      </c>
+      <c r="L16" s="157">
         <v>0</v>
       </c>
-      <c r="M16" s="170">
+      <c r="M16" s="157">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="N16" s="170">
+      <c r="N16" s="157">
         <v>20</v>
       </c>
-      <c r="O16" s="170">
+      <c r="O16" s="157">
         <v>0.8</v>
       </c>
       <c r="P16" s="137">
         <v>1.75</v>
       </c>
-      <c r="Q16" s="171">
-        <v>1.2</v>
-      </c>
-      <c r="R16" s="170">
+      <c r="Q16" s="158">
+        <v>1.4</v>
+      </c>
+      <c r="R16" s="157">
         <v>180</v>
       </c>
-      <c r="S16" s="170">
-        <v>20</v>
-      </c>
-      <c r="T16" s="172">
+      <c r="S16" s="157">
         <v>40</v>
       </c>
-      <c r="U16" s="171">
+      <c r="T16" s="159">
+        <v>14</v>
+      </c>
+      <c r="U16" s="158">
         <v>12</v>
       </c>
-      <c r="V16" s="170">
+      <c r="V16" s="157">
         <v>6</v>
       </c>
-      <c r="W16" s="170">
+      <c r="W16" s="157">
         <v>10</v>
       </c>
-      <c r="X16" s="172">
-        <v>50000</v>
+      <c r="X16" s="159">
+        <v>83000</v>
       </c>
       <c r="Y16" s="138">
         <v>5</v>
@@ -16682,15 +16677,15 @@
       <c r="AN16" s="150">
         <v>10</v>
       </c>
-      <c r="AO16" s="167">
+      <c r="AO16" s="154">
         <v>0.7</v>
       </c>
       <c r="AP16" s="39"/>
       <c r="AQ16" s="40"/>
-      <c r="AR16" s="176">
+      <c r="AR16" s="163">
         <v>1.5E-3</v>
       </c>
-      <c r="AS16" s="177">
+      <c r="AS16" s="164">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AT16" s="131">
@@ -16709,12 +16704,12 @@
         <v>0.7</v>
       </c>
       <c r="AY16" s="106">
-        <v>1.2</v>
-      </c>
-      <c r="AZ16" s="174">
+        <v>0.8</v>
+      </c>
+      <c r="AZ16" s="161">
         <v>59</v>
       </c>
-      <c r="BA16" s="174">
+      <c r="BA16" s="161">
         <v>15</v>
       </c>
       <c r="BB16" s="105" t="s">
@@ -16835,15 +16830,15 @@
       <c r="AN17" s="151">
         <v>10</v>
       </c>
-      <c r="AO17" s="168">
+      <c r="AO17" s="155">
         <v>0.55999999999999994</v>
       </c>
       <c r="AP17" s="124"/>
       <c r="AQ17" s="125"/>
-      <c r="AR17" s="178">
+      <c r="AR17" s="165">
         <v>2E-3</v>
       </c>
-      <c r="AS17" s="179">
+      <c r="AS17" s="166">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AT17" s="126">
@@ -16864,10 +16859,10 @@
       <c r="AY17" s="128">
         <v>1.2</v>
       </c>
-      <c r="AZ17" s="175">
+      <c r="AZ17" s="162">
         <v>0</v>
       </c>
-      <c r="BA17" s="175">
+      <c r="BA17" s="162">
         <v>8</v>
       </c>
       <c r="BB17" s="129" t="s">
@@ -16988,15 +16983,15 @@
       <c r="AN18" s="151">
         <v>10</v>
       </c>
-      <c r="AO18" s="168">
+      <c r="AO18" s="155">
         <v>0.7</v>
       </c>
       <c r="AP18" s="124"/>
       <c r="AQ18" s="125"/>
-      <c r="AR18" s="178">
+      <c r="AR18" s="165">
         <v>1.8E-3</v>
       </c>
-      <c r="AS18" s="179">
+      <c r="AS18" s="166">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AT18" s="126">
@@ -17017,10 +17012,10 @@
       <c r="AY18" s="128">
         <v>1.2</v>
       </c>
-      <c r="AZ18" s="175">
+      <c r="AZ18" s="162">
         <v>9</v>
       </c>
-      <c r="BA18" s="175">
+      <c r="BA18" s="162">
         <v>8</v>
       </c>
       <c r="BB18" s="129" t="s">
@@ -17141,15 +17136,15 @@
       <c r="AN19" s="151">
         <v>10</v>
       </c>
-      <c r="AO19" s="168">
+      <c r="AO19" s="155">
         <v>0.7</v>
       </c>
       <c r="AP19" s="124"/>
       <c r="AQ19" s="125"/>
-      <c r="AR19" s="178">
+      <c r="AR19" s="165">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AS19" s="179">
+      <c r="AS19" s="166">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AT19" s="126">
@@ -17170,10 +17165,10 @@
       <c r="AY19" s="128">
         <v>1.2</v>
       </c>
-      <c r="AZ19" s="175">
+      <c r="AZ19" s="162">
         <v>45</v>
       </c>
-      <c r="BA19" s="175">
+      <c r="BA19" s="162">
         <v>15</v>
       </c>
       <c r="BB19" s="129" t="s">
@@ -17294,15 +17289,15 @@
       <c r="AN20" s="151">
         <v>10</v>
       </c>
-      <c r="AO20" s="168">
+      <c r="AO20" s="155">
         <v>0.7</v>
       </c>
       <c r="AP20" s="124"/>
       <c r="AQ20" s="125"/>
-      <c r="AR20" s="178">
+      <c r="AR20" s="165">
         <v>1.5E-3</v>
       </c>
-      <c r="AS20" s="179">
+      <c r="AS20" s="166">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AT20" s="126">
@@ -17323,10 +17318,10 @@
       <c r="AY20" s="128">
         <v>1.2</v>
       </c>
-      <c r="AZ20" s="175">
+      <c r="AZ20" s="162">
         <v>59</v>
       </c>
-      <c r="BA20" s="175">
+      <c r="BA20" s="162">
         <v>15</v>
       </c>
       <c r="BB20" s="129" t="s">
@@ -17953,44 +17948,44 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="161" t="s">
+      <c r="H25" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="162"/>
-      <c r="J25" s="163" t="s">
+      <c r="I25" s="175"/>
+      <c r="J25" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="164"/>
-      <c r="L25" s="164"/>
-      <c r="M25" s="164"/>
-      <c r="N25" s="164"/>
-      <c r="O25" s="165"/>
+      <c r="K25" s="177"/>
+      <c r="L25" s="177"/>
+      <c r="M25" s="177"/>
+      <c r="N25" s="177"/>
+      <c r="O25" s="178"/>
       <c r="P25" s="79"/>
-      <c r="Q25" s="157" t="s">
+      <c r="Q25" s="170" t="s">
         <v>145</v>
       </c>
-      <c r="R25" s="158"/>
-      <c r="S25" s="158"/>
-      <c r="T25" s="158"/>
-      <c r="U25" s="159" t="s">
+      <c r="R25" s="171"/>
+      <c r="S25" s="171"/>
+      <c r="T25" s="171"/>
+      <c r="U25" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="160"/>
-      <c r="W25" s="160"/>
-      <c r="X25" s="160"/>
+      <c r="V25" s="173"/>
+      <c r="W25" s="173"/>
+      <c r="X25" s="173"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
-      <c r="AH25" s="154" t="s">
+      <c r="AH25" s="167" t="s">
         <v>146</v>
       </c>
-      <c r="AI25" s="155"/>
-      <c r="AJ25" s="155"/>
-      <c r="AK25" s="155"/>
-      <c r="AL25" s="155"/>
-      <c r="AM25" s="155"/>
-      <c r="AN25" s="156"/>
+      <c r="AI25" s="168"/>
+      <c r="AJ25" s="168"/>
+      <c r="AK25" s="168"/>
+      <c r="AL25" s="168"/>
+      <c r="AM25" s="168"/>
+      <c r="AN25" s="169"/>
     </row>
     <row r="27" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
@@ -18274,12 +18269,12 @@
     </row>
     <row r="3" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D3" s="70"/>
-      <c r="E3" s="166" t="s">
+      <c r="E3" s="179" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
       <c r="J3" s="70" t="s">
         <v>121</v>
       </c>
@@ -19199,8 +19194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19222,12 +19217,12 @@
     </row>
     <row r="3" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D3" s="70"/>
-      <c r="E3" s="166" t="s">
+      <c r="E3" s="179" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
       <c r="J3" s="70" t="s">
         <v>121</v>
       </c>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -15472,8 +15472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P4" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16132,7 +16132,7 @@
         <v>150</v>
       </c>
       <c r="K13" s="157">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="L13" s="157">
         <v>0</v>
@@ -16156,10 +16156,10 @@
         <v>120</v>
       </c>
       <c r="S13" s="157">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="T13" s="159">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U13" s="158">
         <v>9</v>
@@ -16171,7 +16171,7 @@
         <v>9</v>
       </c>
       <c r="X13" s="159">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Y13" s="138">
         <v>2</v>
@@ -16244,7 +16244,7 @@
         <v>0.7</v>
       </c>
       <c r="AY13" s="106">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="161">
         <v>0</v>
@@ -16285,7 +16285,7 @@
         <v>200</v>
       </c>
       <c r="K14" s="157">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="L14" s="157">
         <v>0</v>
@@ -16309,10 +16309,10 @@
         <v>140</v>
       </c>
       <c r="S14" s="157">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="T14" s="159">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U14" s="158">
         <v>11</v>
@@ -16324,7 +16324,7 @@
         <v>10</v>
       </c>
       <c r="X14" s="159">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Y14" s="138">
         <v>3</v>
@@ -16397,7 +16397,7 @@
         <v>0.7</v>
       </c>
       <c r="AY14" s="106">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="161">
         <v>9</v>
@@ -16438,7 +16438,7 @@
         <v>250</v>
       </c>
       <c r="K15" s="157">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="L15" s="157">
         <v>0</v>
@@ -16462,10 +16462,10 @@
         <v>160</v>
       </c>
       <c r="S15" s="157">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="T15" s="159">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U15" s="158">
         <v>11.5</v>
@@ -16477,7 +16477,7 @@
         <v>10</v>
       </c>
       <c r="X15" s="159">
-        <v>47000</v>
+        <v>50000</v>
       </c>
       <c r="Y15" s="138">
         <v>4</v>
@@ -16550,7 +16550,7 @@
         <v>0.7</v>
       </c>
       <c r="AY15" s="106">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="161">
         <v>45</v>
@@ -16592,7 +16592,7 @@
         <v>300</v>
       </c>
       <c r="K16" s="157">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="L16" s="157">
         <v>0</v>
@@ -16616,10 +16616,10 @@
         <v>180</v>
       </c>
       <c r="S16" s="157">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="T16" s="159">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U16" s="158">
         <v>12</v>
@@ -16631,7 +16631,7 @@
         <v>10</v>
       </c>
       <c r="X16" s="159">
-        <v>83000</v>
+        <v>86000</v>
       </c>
       <c r="Y16" s="138">
         <v>5</v>
@@ -16704,7 +16704,7 @@
         <v>0.7</v>
       </c>
       <c r="AY16" s="106">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="161">
         <v>59</v>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="special dragons" sheetId="10" r:id="rId1"/>
@@ -4366,6 +4366,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5613,6 +5614,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5934,6 +5936,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6255,6 +6258,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6563,6 +6567,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15472,8 +15477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView topLeftCell="M7" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16132,13 +16137,13 @@
         <v>150</v>
       </c>
       <c r="K13" s="157">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="L13" s="157">
         <v>0</v>
       </c>
       <c r="M13" s="157">
-        <v>1E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N13" s="157">
         <v>30</v>
@@ -16156,7 +16161,7 @@
         <v>120</v>
       </c>
       <c r="S13" s="157">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="T13" s="159">
         <v>10</v>
@@ -16171,7 +16176,7 @@
         <v>9</v>
       </c>
       <c r="X13" s="159">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Y13" s="138">
         <v>2</v>
@@ -16285,13 +16290,13 @@
         <v>200</v>
       </c>
       <c r="K14" s="157">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L14" s="157">
         <v>0</v>
       </c>
       <c r="M14" s="157">
-        <v>8.0000000000000004E-4</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="N14" s="157">
         <v>30</v>
@@ -16309,7 +16314,7 @@
         <v>140</v>
       </c>
       <c r="S14" s="157">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="T14" s="159">
         <v>10</v>
@@ -16324,7 +16329,7 @@
         <v>10</v>
       </c>
       <c r="X14" s="159">
-        <v>38000</v>
+        <v>45000</v>
       </c>
       <c r="Y14" s="138">
         <v>3</v>
@@ -16438,13 +16443,13 @@
         <v>250</v>
       </c>
       <c r="K15" s="157">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="L15" s="157">
         <v>0</v>
       </c>
       <c r="M15" s="157">
-        <v>1E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="N15" s="157">
         <v>25</v>
@@ -16462,7 +16467,7 @@
         <v>160</v>
       </c>
       <c r="S15" s="157">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="T15" s="159">
         <v>10</v>
@@ -16477,7 +16482,7 @@
         <v>10</v>
       </c>
       <c r="X15" s="159">
-        <v>50000</v>
+        <v>57000</v>
       </c>
       <c r="Y15" s="138">
         <v>4</v>
@@ -16592,13 +16597,13 @@
         <v>300</v>
       </c>
       <c r="K16" s="157">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L16" s="157">
         <v>0</v>
       </c>
       <c r="M16" s="157">
-        <v>4.0000000000000001E-3</v>
+        <v>0.03</v>
       </c>
       <c r="N16" s="157">
         <v>20</v>
@@ -16616,7 +16621,7 @@
         <v>180</v>
       </c>
       <c r="S16" s="157">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="T16" s="159">
         <v>10</v>
@@ -16631,7 +16636,7 @@
         <v>10</v>
       </c>
       <c r="X16" s="159">
-        <v>86000</v>
+        <v>93000</v>
       </c>
       <c r="Y16" s="138">
         <v>5</v>
@@ -18246,8 +18251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AC63"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19194,8 +19199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AC63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20151,7 +20156,7 @@
   <dimension ref="F4:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500"/>
   </bookViews>
   <sheets>
     <sheet name="special dragons" sheetId="10" r:id="rId1"/>
@@ -15477,8 +15477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView topLeftCell="M7" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16603,7 +16603,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="157">
-        <v>0.03</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="N16" s="157">
         <v>20</v>
@@ -19199,7 +19199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -4366,7 +4366,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4688,7 +4687,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4997,7 +4995,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5614,7 +5611,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5936,7 +5932,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6258,7 +6253,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6567,7 +6561,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7184,7 +7177,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7506,7 +7498,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7828,7 +7819,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15477,7 +15467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -16449,7 +16439,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="157">
-        <v>8.9999999999999993E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N15" s="157">
         <v>25</v>
@@ -16603,7 +16593,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="157">
-        <v>1.7000000000000001E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="N16" s="157">
         <v>20</v>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="special dragons" sheetId="10" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="165">
   <si>
     <t>[sku]</t>
   </si>
@@ -513,6 +513,15 @@
   </si>
   <si>
     <t>NOTA: Añadir las columnas relativas al pet mummy!!!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INC. </t>
+  </si>
+  <si>
+    <t>INC.</t>
+  </si>
+  <si>
+    <t>(how increments a stat in each tier)</t>
   </si>
 </sst>
 </file>
@@ -4366,6 +4375,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4687,6 +4697,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4779,7 +4790,7 @@
                   <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>206.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4995,6 +5006,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5087,7 +5099,7 @@
                   <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>140.4</c:v>
+                  <c:v>163.80000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5395,7 +5407,7 @@
                   <c:v>15.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.7</c:v>
+                  <c:v>13.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5611,6 +5623,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5932,6 +5945,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6253,6 +6267,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6345,7 +6360,7 @@
                   <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>206.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6561,6 +6576,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6653,7 +6669,7 @@
                   <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>140.4</c:v>
+                  <c:v>163.80000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6961,7 +6977,7 @@
                   <c:v>15.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.7</c:v>
+                  <c:v>13.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7177,6 +7193,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7498,6 +7515,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7819,6 +7837,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15467,8 +15486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18239,10 +18258,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:AC63"/>
+  <dimension ref="C1:AD63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18257,12 +18276,12 @@
     <col min="28" max="28" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:29" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:30" ht="21" x14ac:dyDescent="0.35">
       <c r="C1" s="72" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:30" x14ac:dyDescent="0.25">
       <c r="D3" s="70"/>
       <c r="E3" s="179" t="s">
         <v>120</v>
@@ -18280,7 +18299,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:30" x14ac:dyDescent="0.25">
       <c r="D4" s="71"/>
       <c r="E4" s="71">
         <v>1</v>
@@ -18313,7 +18332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:30" x14ac:dyDescent="0.25">
       <c r="D5" s="71" t="s">
         <v>121</v>
       </c>
@@ -18357,7 +18376,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:30" x14ac:dyDescent="0.25">
       <c r="D6" s="71" t="s">
         <v>122</v>
       </c>
@@ -18401,7 +18420,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="80" t="s">
         <v>123</v>
       </c>
@@ -18448,7 +18467,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="84" t="s">
         <v>147</v>
       </c>
@@ -18465,15 +18484,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>164</v>
+      </c>
+      <c r="V10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C11" s="85"/>
       <c r="D11" s="86" t="s">
         <v>125</v>
       </c>
       <c r="E11" s="87">
         <f>IF(E16&lt;F8,1,IF(AND(E16&gt;=F8,E16&lt;G8),2,IF(AND(E16&gt;=G8,E16&lt;H8),3,4)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87"/>
@@ -18490,7 +18519,9 @@
       <c r="M11" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="N11" s="74"/>
+      <c r="N11" s="74" t="s">
+        <v>162</v>
+      </c>
       <c r="O11" s="74"/>
       <c r="P11" s="74"/>
       <c r="R11" s="77" t="s">
@@ -18505,7 +18536,9 @@
       <c r="U11" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="V11" s="74"/>
+      <c r="V11" s="74" t="s">
+        <v>163</v>
+      </c>
       <c r="W11" s="74"/>
       <c r="X11" s="74"/>
       <c r="Z11" s="70" t="s">
@@ -18520,8 +18553,11 @@
       <c r="AC11" s="74" t="s">
         <v>139</v>
       </c>
+      <c r="AD11" s="74" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="12" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="89"/>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -18543,6 +18579,10 @@
         <f>L12-K12</f>
         <v>100</v>
       </c>
+      <c r="N12">
+        <f>(K12*$L$7)/100</f>
+        <v>3.3</v>
+      </c>
       <c r="R12" s="70" t="s">
         <v>132</v>
       </c>
@@ -18558,6 +18598,10 @@
         <f>T12-S12</f>
         <v>50</v>
       </c>
+      <c r="V12">
+        <f>(S12*$T$7)/100</f>
+        <v>1.7</v>
+      </c>
       <c r="Z12" s="70" t="s">
         <v>132</v>
       </c>
@@ -18573,8 +18617,12 @@
         <f>AB12-AA12</f>
         <v>5.0999999999999996</v>
       </c>
+      <c r="AD12">
+        <f>(AA12*$AB$7)/100</f>
+        <v>0.17169999999999999</v>
+      </c>
     </row>
-    <row r="13" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="89" t="s">
         <v>128</v>
       </c>
@@ -18582,7 +18630,7 @@
         <v>124</v>
       </c>
       <c r="E13" s="91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="90"/>
       <c r="G13" s="75" t="s">
@@ -18590,7 +18638,7 @@
       </c>
       <c r="H13" s="76">
         <f ca="1">INDIRECT(ADDRESS(5,4+E11)) + (INDIRECT(ADDRESS(5,4+E11)) *(L7/100) *E13)</f>
-        <v>150</v>
+        <v>206.6</v>
       </c>
       <c r="J13" s="70" t="s">
         <v>135</v>
@@ -18607,6 +18655,10 @@
         <f t="shared" ref="M13:M15" si="0">L13-K13</f>
         <v>150</v>
       </c>
+      <c r="N13">
+        <f>(K13*$L$7)/100</f>
+        <v>4.95</v>
+      </c>
       <c r="R13" s="70" t="s">
         <v>135</v>
       </c>
@@ -18622,6 +18674,10 @@
         <f t="shared" ref="U13:U15" si="1">T13-S13</f>
         <v>60</v>
       </c>
+      <c r="V13">
+        <f t="shared" ref="V13:V15" si="2">(S13*$T$7)/100</f>
+        <v>2.04</v>
+      </c>
       <c r="Z13" s="70" t="s">
         <v>135</v>
       </c>
@@ -18637,8 +18693,12 @@
         <f>AB13-AA13</f>
         <v>5.4000000000000021</v>
       </c>
+      <c r="AD13">
+        <f t="shared" ref="AD13:AD15" si="3">(AA13*$AB$7)/100</f>
+        <v>0.18189999999999998</v>
+      </c>
     </row>
-    <row r="14" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="89" t="s">
         <v>129</v>
       </c>
@@ -18654,7 +18714,7 @@
       </c>
       <c r="H14" s="76">
         <f ca="1">INDIRECT(ADDRESS(6,4+E11)) + (INDIRECT(ADDRESS(6,4+E11)) *(T7/100) *E14)</f>
-        <v>140.4</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="J14" s="70" t="s">
         <v>136</v>
@@ -18671,6 +18731,10 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
+      <c r="N14">
+        <f t="shared" ref="N13:N15" si="4">(K14*$L$7)/100</f>
+        <v>6.6</v>
+      </c>
       <c r="R14" s="70" t="s">
         <v>136</v>
       </c>
@@ -18686,6 +18750,10 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>2.38</v>
+      </c>
       <c r="Z14" s="70" t="s">
         <v>136</v>
       </c>
@@ -18701,8 +18769,12 @@
         <f>AB14-AA14</f>
         <v>5.7000000000000011</v>
       </c>
+      <c r="AD14">
+        <f t="shared" si="3"/>
+        <v>0.1938</v>
+      </c>
     </row>
-    <row r="15" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="89" t="s">
         <v>130</v>
       </c>
@@ -18710,7 +18782,7 @@
         <v>127</v>
       </c>
       <c r="E15" s="91">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F15" s="90"/>
       <c r="G15" s="75" t="s">
@@ -18718,7 +18790,7 @@
       </c>
       <c r="H15" s="76">
         <f ca="1">ROUND(((INDIRECT(ADDRESS(7,4+E11)) + (INDIRECT(ADDRESS(7,4+E11)) *(AB7/100) *E15))/INDIRECT(ADDRESS(16+E11,48,1,1,"special dragons")))/INDIRECT(ADDRESS(16+E11,47,1,1,"special dragons")),1)</f>
-        <v>10.7</v>
+        <v>13.3</v>
       </c>
       <c r="J15" s="70" t="s">
         <v>137</v>
@@ -18735,6 +18807,10 @@
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>8.25</v>
+      </c>
       <c r="R15" s="70" t="s">
         <v>137</v>
       </c>
@@ -18750,6 +18826,10 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>2.72</v>
+      </c>
       <c r="Z15" s="70" t="s">
         <v>137</v>
       </c>
@@ -18765,15 +18845,19 @@
         <f>AB15-AA15</f>
         <v>6</v>
       </c>
+      <c r="AD15">
+        <f t="shared" si="3"/>
+        <v>0.20399999999999999</v>
+      </c>
     </row>
-    <row r="16" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C16" s="89"/>
       <c r="D16" s="96" t="s">
         <v>141</v>
       </c>
       <c r="E16" s="96">
         <f>SUM(E13:E15)</f>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F16" s="90"/>
       <c r="G16" s="90"/>
@@ -19187,10 +19271,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:AC63"/>
+  <dimension ref="C1:AD63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19205,12 +19289,12 @@
     <col min="28" max="28" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:29" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:30" ht="21" x14ac:dyDescent="0.35">
       <c r="C1" s="72" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:30" x14ac:dyDescent="0.25">
       <c r="D3" s="70"/>
       <c r="E3" s="179" t="s">
         <v>120</v>
@@ -19228,7 +19312,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:30" x14ac:dyDescent="0.25">
       <c r="D4" s="71"/>
       <c r="E4" s="71">
         <v>1</v>
@@ -19261,7 +19345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:30" x14ac:dyDescent="0.25">
       <c r="D5" s="71" t="s">
         <v>121</v>
       </c>
@@ -19305,7 +19389,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:30" x14ac:dyDescent="0.25">
       <c r="D6" s="71" t="s">
         <v>122</v>
       </c>
@@ -19349,7 +19433,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="80" t="s">
         <v>123</v>
       </c>
@@ -19396,7 +19480,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="84" t="s">
         <v>147</v>
       </c>
@@ -19413,8 +19497,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>164</v>
+      </c>
+      <c r="V10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C11" s="85"/>
       <c r="D11" s="86" t="s">
         <v>125</v>
@@ -19438,7 +19532,9 @@
       <c r="M11" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="N11" s="74"/>
+      <c r="N11" s="74" t="s">
+        <v>163</v>
+      </c>
       <c r="O11" s="74"/>
       <c r="P11" s="74"/>
       <c r="R11" s="77" t="s">
@@ -19453,7 +19549,9 @@
       <c r="U11" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="V11" s="74"/>
+      <c r="V11" s="74" t="s">
+        <v>163</v>
+      </c>
       <c r="W11" s="74"/>
       <c r="X11" s="74"/>
       <c r="Z11" s="70" t="s">
@@ -19468,8 +19566,11 @@
       <c r="AC11" s="74" t="s">
         <v>139</v>
       </c>
+      <c r="AD11" s="74" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="12" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="89"/>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -19491,6 +19592,10 @@
         <f>L12-K12</f>
         <v>150</v>
       </c>
+      <c r="N12">
+        <f>(K12*$L$7)/100</f>
+        <v>4.95</v>
+      </c>
       <c r="R12" s="70" t="s">
         <v>132</v>
       </c>
@@ -19506,6 +19611,10 @@
         <f>T12-S12</f>
         <v>60</v>
       </c>
+      <c r="V12">
+        <f>(S12*$T$7)/100</f>
+        <v>2.04</v>
+      </c>
       <c r="Z12" s="70" t="s">
         <v>132</v>
       </c>
@@ -19521,8 +19630,12 @@
         <f>AB12-AA12</f>
         <v>6.6999999999999993</v>
       </c>
+      <c r="AD12">
+        <f>(AA12*$AB$7)/100</f>
+        <v>0.2261</v>
+      </c>
     </row>
-    <row r="13" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="89" t="s">
         <v>128</v>
       </c>
@@ -19555,6 +19668,10 @@
         <f t="shared" ref="M13:M15" si="0">L13-K13</f>
         <v>200</v>
       </c>
+      <c r="N13">
+        <f t="shared" ref="N13:N15" si="1">(K13*$L$7)/100</f>
+        <v>6.6</v>
+      </c>
       <c r="R13" s="70" t="s">
         <v>135</v>
       </c>
@@ -19567,8 +19684,12 @@
         <v>210</v>
       </c>
       <c r="U13">
-        <f t="shared" ref="U13:U15" si="1">T13-S13</f>
+        <f t="shared" ref="U13:U15" si="2">T13-S13</f>
         <v>70</v>
+      </c>
+      <c r="V13">
+        <f>(S13*$T$7)/100</f>
+        <v>2.38</v>
       </c>
       <c r="Z13" s="70" t="s">
         <v>135</v>
@@ -19585,8 +19706,12 @@
         <f>AB13-AA13</f>
         <v>7.3000000000000007</v>
       </c>
+      <c r="AD13">
+        <f>(AA13*$AB$7)/100</f>
+        <v>0.24989999999999998</v>
+      </c>
     </row>
-    <row r="14" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="89" t="s">
         <v>129</v>
       </c>
@@ -19619,6 +19744,10 @@
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>8.25</v>
+      </c>
       <c r="R14" s="70" t="s">
         <v>136</v>
       </c>
@@ -19631,8 +19760,12 @@
         <v>240</v>
       </c>
       <c r="U14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
+      </c>
+      <c r="V14">
+        <f t="shared" ref="V13:V15" si="3">(S14*$T$7)/100</f>
+        <v>2.72</v>
       </c>
       <c r="Z14" s="70" t="s">
         <v>136</v>
@@ -19649,8 +19782,12 @@
         <f>AB14-AA14</f>
         <v>8</v>
       </c>
+      <c r="AD14">
+        <f t="shared" ref="AD13:AD15" si="4">(AA14*$AB$7)/100</f>
+        <v>0.27200000000000002</v>
+      </c>
     </row>
-    <row r="15" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="89" t="s">
         <v>130</v>
       </c>
@@ -19683,6 +19820,10 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>9.9</v>
+      </c>
       <c r="R15" s="70" t="s">
         <v>137</v>
       </c>
@@ -19695,8 +19836,12 @@
         <v>270</v>
       </c>
       <c r="U15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="3"/>
+        <v>3.06</v>
       </c>
       <c r="Z15" s="70" t="s">
         <v>137</v>
@@ -19713,8 +19858,12 @@
         <f>AB15-AA15</f>
         <v>8.6999999999999993</v>
       </c>
+      <c r="AD15">
+        <f t="shared" si="4"/>
+        <v>0.29410000000000003</v>
+      </c>
     </row>
-    <row r="16" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C16" s="89"/>
       <c r="D16" s="96" t="s">
         <v>141</v>
@@ -20227,15 +20376,15 @@
       </c>
       <c r="G9">
         <f ca="1">Electric!H13</f>
-        <v>150</v>
+        <v>206.6</v>
       </c>
       <c r="H9">
         <f ca="1">Electric!H14</f>
-        <v>140.4</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="I9">
         <f ca="1">Electric!H15</f>
-        <v>10.7</v>
+        <v>13.3</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19500"/>
   </bookViews>
   <sheets>
     <sheet name="special dragons" sheetId="10" r:id="rId1"/>
@@ -4375,7 +4375,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5623,7 +5622,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5945,7 +5943,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6267,7 +6264,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6576,7 +6572,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15486,8 +15481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16146,7 +16141,7 @@
         <v>150</v>
       </c>
       <c r="K13" s="157">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L13" s="157">
         <v>0</v>
@@ -18732,7 +18727,7 @@
         <v>200</v>
       </c>
       <c r="N14">
-        <f t="shared" ref="N13:N15" si="4">(K14*$L$7)/100</f>
+        <f t="shared" ref="N14:N15" si="4">(K14*$L$7)/100</f>
         <v>6.6</v>
       </c>
       <c r="R14" s="70" t="s">
@@ -19273,7 +19268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
@@ -19764,7 +19759,7 @@
         <v>80</v>
       </c>
       <c r="V14">
-        <f t="shared" ref="V13:V15" si="3">(S14*$T$7)/100</f>
+        <f t="shared" ref="V14:V15" si="3">(S14*$T$7)/100</f>
         <v>2.72</v>
       </c>
       <c r="Z14" s="70" t="s">
@@ -19783,7 +19778,7 @@
         <v>8</v>
       </c>
       <c r="AD14">
-        <f t="shared" ref="AD13:AD15" si="4">(AA14*$AB$7)/100</f>
+        <f t="shared" ref="AD14:AD15" si="4">(AA14*$AB$7)/100</f>
         <v>0.27200000000000002</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -15481,8 +15481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="157">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N15" s="157">
         <v>25</v>
@@ -16607,7 +16607,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="157">
-        <v>7.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="N16" s="157">
         <v>20</v>
@@ -16793,7 +16793,7 @@
         <v>9</v>
       </c>
       <c r="X17" s="136">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Y17" s="119">
         <v>2</v>
@@ -16946,7 +16946,7 @@
         <v>10</v>
       </c>
       <c r="X18" s="136">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Y18" s="119">
         <v>3</v>
@@ -17099,7 +17099,7 @@
         <v>10</v>
       </c>
       <c r="X19" s="136">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="Y19" s="119">
         <v>4</v>
@@ -17252,7 +17252,7 @@
         <v>10</v>
       </c>
       <c r="X20" s="136">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="Y20" s="119">
         <v>5</v>
@@ -19269,7 +19269,7 @@
   <dimension ref="C1:AD63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AF6" sqref="AF6"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -761,7 +761,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1254,11 +1254,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1731,11 +1759,71 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="104">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2456,46 +2544,6 @@
         </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -4375,6 +4423,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5622,6 +5671,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5943,6 +5993,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6264,6 +6315,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6572,6 +6624,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7243,16 +7296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7286,16 +7339,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7565,16 +7618,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>140</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7608,16 +7661,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15163,37 +15216,37 @@
     <tableColumn id="48" name="[friction]" dataDxfId="42"/>
     <tableColumn id="49" name="[gravityModifier]" dataDxfId="41"/>
     <tableColumn id="50" name="[airGravityModifier]" dataDxfId="40"/>
-    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="39"/>
-    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="38"/>
-    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="37"/>
-    <tableColumn id="54" name="[trackingSku]" dataDxfId="36"/>
+    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="0"/>
+    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="39"/>
+    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="38"/>
+    <tableColumn id="54" name="[trackingSku]" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33">
   <autoFilter ref="B3:T6"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="31"/>
+    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="32"/>
     <tableColumn id="2" name="[sku]"/>
     <tableColumn id="3" name="[type]"/>
-    <tableColumn id="5" name="[order]" dataDxfId="30"/>
-    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="29"/>
-    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="28"/>
-    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="27"/>
-    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="26"/>
-    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="25"/>
-    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="24"/>
-    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="23"/>
-    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="22"/>
-    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="21"/>
-    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="20"/>
-    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="19"/>
-    <tableColumn id="76" name="[stepPrice]" dataDxfId="18"/>
-    <tableColumn id="77" name="[priceCoefA]" dataDxfId="17"/>
-    <tableColumn id="75" name="[priceCoefB]" dataDxfId="16"/>
+    <tableColumn id="5" name="[order]" dataDxfId="31"/>
+    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="30"/>
+    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="29"/>
+    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="28"/>
+    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="27"/>
+    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="26"/>
+    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="25"/>
+    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="24"/>
+    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="23"/>
+    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="22"/>
+    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="21"/>
+    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="20"/>
+    <tableColumn id="76" name="[stepPrice]" dataDxfId="19"/>
+    <tableColumn id="77" name="[priceCoefA]" dataDxfId="18"/>
+    <tableColumn id="75" name="[priceCoefB]" dataDxfId="17"/>
     <tableColumn id="65" name="[trackingSku]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -15201,14 +15254,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="B30:F39"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="12"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="11"/>
-    <tableColumn id="3" name="[specialDragon]" dataDxfId="10"/>
-    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="9"/>
-    <tableColumn id="5" name="[icon]" dataDxfId="8">
+    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="13"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="12"/>
+    <tableColumn id="3" name="[specialDragon]" dataDxfId="11"/>
+    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="10"/>
+    <tableColumn id="5" name="[icon]" dataDxfId="9">
       <calculatedColumnFormula>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15481,8 +15534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16099,10 +16152,10 @@
       <c r="AX12" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AY12" s="24" t="s">
+      <c r="AY12" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="AZ12" s="21" t="s">
+      <c r="AZ12" s="28" t="s">
         <v>26</v>
       </c>
       <c r="BA12" s="21" t="s">
@@ -16138,7 +16191,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="156">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K13" s="157">
         <v>6</v>
@@ -16162,10 +16215,10 @@
         <v>1.4</v>
       </c>
       <c r="R13" s="157">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="S13" s="157">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T13" s="159">
         <v>10</v>
@@ -16180,7 +16233,7 @@
         <v>9</v>
       </c>
       <c r="X13" s="159">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="Y13" s="138">
         <v>2</v>
@@ -16252,10 +16305,10 @@
       <c r="AX13" s="106">
         <v>0.7</v>
       </c>
-      <c r="AY13" s="106">
+      <c r="AY13" s="184">
         <v>0</v>
       </c>
-      <c r="AZ13" s="161">
+      <c r="AZ13" s="180">
         <v>0</v>
       </c>
       <c r="BA13" s="161">
@@ -16291,7 +16344,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="156">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K14" s="157">
         <v>7</v>
@@ -16315,10 +16368,10 @@
         <v>1.4</v>
       </c>
       <c r="R14" s="157">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="S14" s="157">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T14" s="159">
         <v>10</v>
@@ -16333,7 +16386,7 @@
         <v>10</v>
       </c>
       <c r="X14" s="159">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="Y14" s="138">
         <v>3</v>
@@ -16405,10 +16458,10 @@
       <c r="AX14" s="106">
         <v>0.7</v>
       </c>
-      <c r="AY14" s="106">
+      <c r="AY14" s="184">
         <v>0</v>
       </c>
-      <c r="AZ14" s="161">
+      <c r="AZ14" s="180">
         <v>9</v>
       </c>
       <c r="BA14" s="161">
@@ -16444,7 +16497,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="156">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K15" s="157">
         <v>7.5</v>
@@ -16468,10 +16521,10 @@
         <v>1.4</v>
       </c>
       <c r="R15" s="157">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="S15" s="157">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T15" s="159">
         <v>10</v>
@@ -16486,7 +16539,7 @@
         <v>10</v>
       </c>
       <c r="X15" s="159">
-        <v>57000</v>
+        <v>63000</v>
       </c>
       <c r="Y15" s="138">
         <v>4</v>
@@ -16558,10 +16611,10 @@
       <c r="AX15" s="106">
         <v>0.7</v>
       </c>
-      <c r="AY15" s="106">
+      <c r="AY15" s="184">
         <v>0</v>
       </c>
-      <c r="AZ15" s="161">
+      <c r="AZ15" s="180">
         <v>45</v>
       </c>
       <c r="BA15" s="161">
@@ -16598,7 +16651,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="156">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K16" s="157">
         <v>8</v>
@@ -16622,10 +16675,10 @@
         <v>1.4</v>
       </c>
       <c r="R16" s="157">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="S16" s="157">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T16" s="159">
         <v>10</v>
@@ -16640,7 +16693,7 @@
         <v>10</v>
       </c>
       <c r="X16" s="159">
-        <v>93000</v>
+        <v>97000</v>
       </c>
       <c r="Y16" s="138">
         <v>5</v>
@@ -16712,10 +16765,10 @@
       <c r="AX16" s="106">
         <v>0.7</v>
       </c>
-      <c r="AY16" s="106">
+      <c r="AY16" s="184">
         <v>0</v>
       </c>
-      <c r="AZ16" s="161">
+      <c r="AZ16" s="180">
         <v>59</v>
       </c>
       <c r="BA16" s="161">
@@ -16865,10 +16918,10 @@
       <c r="AX17" s="128">
         <v>0.7</v>
       </c>
-      <c r="AY17" s="128">
+      <c r="AY17" s="185">
         <v>1.2</v>
       </c>
-      <c r="AZ17" s="162">
+      <c r="AZ17" s="181">
         <v>0</v>
       </c>
       <c r="BA17" s="162">
@@ -17018,10 +17071,10 @@
       <c r="AX18" s="128">
         <v>0.7</v>
       </c>
-      <c r="AY18" s="128">
+      <c r="AY18" s="185">
         <v>1.2</v>
       </c>
-      <c r="AZ18" s="162">
+      <c r="AZ18" s="181">
         <v>9</v>
       </c>
       <c r="BA18" s="162">
@@ -17171,10 +17224,10 @@
       <c r="AX19" s="128">
         <v>0.7</v>
       </c>
-      <c r="AY19" s="128">
+      <c r="AY19" s="185">
         <v>1.2</v>
       </c>
-      <c r="AZ19" s="162">
+      <c r="AZ19" s="181">
         <v>45</v>
       </c>
       <c r="BA19" s="162">
@@ -17324,10 +17377,10 @@
       <c r="AX20" s="128">
         <v>0.7</v>
       </c>
-      <c r="AY20" s="128">
+      <c r="AY20" s="185">
         <v>1.2</v>
       </c>
-      <c r="AZ20" s="162">
+      <c r="AZ20" s="181">
         <v>59</v>
       </c>
       <c r="BA20" s="162">
@@ -17477,10 +17530,10 @@
       <c r="AX21" s="106">
         <v>0.7</v>
       </c>
-      <c r="AY21" s="106">
+      <c r="AY21" s="184">
         <v>1.2</v>
       </c>
-      <c r="AZ21" s="106">
+      <c r="AZ21" s="182">
         <v>0</v>
       </c>
       <c r="BA21" s="106">
@@ -17630,10 +17683,10 @@
       <c r="AX22" s="106">
         <v>0.7</v>
       </c>
-      <c r="AY22" s="106">
+      <c r="AY22" s="184">
         <v>1.2</v>
       </c>
-      <c r="AZ22" s="106">
+      <c r="AZ22" s="182">
         <v>9</v>
       </c>
       <c r="BA22" s="106">
@@ -17783,10 +17836,10 @@
       <c r="AX23" s="106">
         <v>0.7</v>
       </c>
-      <c r="AY23" s="106">
+      <c r="AY23" s="184">
         <v>1.2</v>
       </c>
-      <c r="AZ23" s="106">
+      <c r="AZ23" s="182">
         <v>45</v>
       </c>
       <c r="BA23" s="106">
@@ -17937,10 +17990,10 @@
       <c r="AX24" s="106">
         <v>0.7</v>
       </c>
-      <c r="AY24" s="106">
+      <c r="AY24" s="184">
         <v>1.2</v>
       </c>
-      <c r="AZ24" s="106">
+      <c r="AZ24" s="182">
         <v>59</v>
       </c>
       <c r="BA24" s="106">
@@ -18255,7 +18308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AD63"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -19239,22 +19292,22 @@
     <mergeCell ref="E3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:E15">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>E13&gt;$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$E$13&gt;$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$E$14&gt;$T$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$E$15&gt;$AB$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19269,7 +19322,7 @@
   <dimension ref="C1:AD63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19345,16 +19398,16 @@
         <v>121</v>
       </c>
       <c r="E5" s="73">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F5" s="73">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G5" s="73">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="H5" s="73">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K5" t="s">
         <v>117</v>
@@ -19389,16 +19442,16 @@
         <v>122</v>
       </c>
       <c r="E6" s="73">
+        <v>100</v>
+      </c>
+      <c r="F6" s="73">
         <v>120</v>
       </c>
-      <c r="F6" s="73">
+      <c r="G6" s="73">
         <v>140</v>
       </c>
-      <c r="G6" s="73">
+      <c r="H6" s="73">
         <v>160</v>
-      </c>
-      <c r="H6" s="73">
-        <v>180</v>
       </c>
       <c r="K6" t="s">
         <v>118</v>
@@ -19577,38 +19630,38 @@
       </c>
       <c r="K12">
         <f>E5</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L12">
         <f>E5+E5*(L6/100)</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M12">
         <f>L12-K12</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N12">
         <f>(K12*$L$7)/100</f>
-        <v>4.95</v>
+        <v>6.6</v>
       </c>
       <c r="R12" s="70" t="s">
         <v>132</v>
       </c>
       <c r="S12">
         <f>E6</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="T12">
         <f>E6+E6*(T6/100)</f>
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="U12">
         <f>T12-S12</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="V12">
         <f>(S12*$T$7)/100</f>
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="Z12" s="70" t="s">
         <v>132</v>
@@ -19646,45 +19699,45 @@
       </c>
       <c r="H13" s="76">
         <f ca="1">INDIRECT(ADDRESS(5,4+E11)) + (INDIRECT(ADDRESS(5,4+E11)) *(L7/100) *E13)</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J13" s="70" t="s">
         <v>135</v>
       </c>
       <c r="K13">
         <f>F5</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L13">
         <f>F5+F5*(L6/100)</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M13">
         <f t="shared" ref="M13:M15" si="0">L13-K13</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N13">
         <f t="shared" ref="N13:N15" si="1">(K13*$L$7)/100</f>
-        <v>6.6</v>
+        <v>9.9</v>
       </c>
       <c r="R13" s="70" t="s">
         <v>135</v>
       </c>
       <c r="S13">
         <f>F6</f>
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="T13">
         <f>F6+F6*(T6/100)</f>
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="U13">
         <f t="shared" ref="U13:U15" si="2">T13-S13</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="V13">
         <f>(S13*$T$7)/100</f>
-        <v>2.38</v>
+        <v>2.04</v>
       </c>
       <c r="Z13" s="70" t="s">
         <v>135</v>
@@ -19722,45 +19775,45 @@
       </c>
       <c r="H14" s="76">
         <f ca="1">INDIRECT(ADDRESS(6,4+E11)) + (INDIRECT(ADDRESS(6,4+E11)) *(T7/100) *E14)</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="J14" s="70" t="s">
         <v>136</v>
       </c>
       <c r="K14">
         <f>G5</f>
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L14">
         <f>G5+G5*(L6/100)</f>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>8.25</v>
+        <v>13.2</v>
       </c>
       <c r="R14" s="70" t="s">
         <v>136</v>
       </c>
       <c r="S14">
         <f>G6</f>
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="T14">
         <f>G6+G6*(T6/100)</f>
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="U14">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="V14">
         <f t="shared" ref="V14:V15" si="3">(S14*$T$7)/100</f>
-        <v>2.72</v>
+        <v>2.38</v>
       </c>
       <c r="Z14" s="70" t="s">
         <v>136</v>
@@ -19805,38 +19858,38 @@
       </c>
       <c r="K15">
         <f>H5</f>
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L15">
         <f>H5+H5*(L6/100)</f>
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>9.9</v>
+        <v>16.5</v>
       </c>
       <c r="R15" s="70" t="s">
         <v>137</v>
       </c>
       <c r="S15">
         <f>H6</f>
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="T15">
         <f>H6+H6*(T6/100)</f>
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="U15">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="V15">
         <f t="shared" si="3"/>
-        <v>3.06</v>
+        <v>2.72</v>
       </c>
       <c r="Z15" s="70" t="s">
         <v>137</v>
@@ -20260,22 +20313,22 @@
     <mergeCell ref="E3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:E15">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>E13&gt;$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$E$13&gt;$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$E$14&gt;$T$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$E$15&gt;$AB$4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -15534,8 +15534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_SpecialDragons.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="164">
   <si>
     <t>[sku]</t>
   </si>
@@ -86,22 +86,7 @@
     <t>tier_2</t>
   </si>
   <si>
-    <t>PF_DragonFatMenu</t>
-  </si>
-  <si>
     <t>tier_1</t>
-  </si>
-  <si>
-    <t>PF_DragonReptileResults</t>
-  </si>
-  <si>
-    <t>PF_DragonReptileMenu</t>
-  </si>
-  <si>
-    <t>PF_DragonCrocodileMenu</t>
-  </si>
-  <si>
-    <t>PF_DragonBabyMenu</t>
   </si>
   <si>
     <t>[dotAnimationThreshold]</t>
@@ -522,6 +507,18 @@
   </si>
   <si>
     <t>(how increments a stat in each tier)</t>
+  </si>
+  <si>
+    <t>PF_DragonHelicopterMenu</t>
+  </si>
+  <si>
+    <t>PF_DragonSonicMenu</t>
+  </si>
+  <si>
+    <t>PF_DragonElectricMenu</t>
+  </si>
+  <si>
+    <t>PF_DragonElectricResults</t>
   </si>
 </sst>
 </file>
@@ -1720,6 +1717,24 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1759,24 +1774,6 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1801,15 +1798,15 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right style="medium">
+        <right style="thin">
           <color auto="1"/>
         </right>
         <top style="thin">
@@ -1818,10 +1815,116 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2656,6 +2759,48 @@
         <left style="thin">
           <color auto="1"/>
         </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
         <right style="thin">
           <color auto="1"/>
         </right>
@@ -3320,160 +3465,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color auto="1"/>
@@ -4423,7 +4414,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4745,7 +4735,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5054,7 +5043,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5671,7 +5659,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5993,7 +5980,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6315,7 +6301,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6624,7 +6609,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7241,7 +7225,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7563,7 +7546,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7885,7 +7867,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15194,59 +15175,59 @@
     <tableColumn id="26" name="[eatSpeedFactor]" dataDxfId="64"/>
     <tableColumn id="27" name="[maxAlcohol]" dataDxfId="63"/>
     <tableColumn id="28" name="[alcoholDrain]" dataDxfId="62"/>
-    <tableColumn id="29" name="[gamePrefab]" dataDxfId="61"/>
-    <tableColumn id="30" name="[menuPrefab]" dataDxfId="60"/>
-    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="59"/>
-    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="58"/>
-    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="57"/>
-    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="56"/>
-    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="55"/>
-    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="54"/>
-    <tableColumn id="37" name="[invincible]" dataDxfId="53"/>
-    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="52"/>
-    <tableColumn id="39" name="[eatEverything]" dataDxfId="51"/>
-    <tableColumn id="40" name="[modeDuration]" dataDxfId="50"/>
-    <tableColumn id="41" name="[petScale]" dataDxfId="49"/>
-    <tableColumn id="42" name="[tidName]" dataDxfId="48"/>
-    <tableColumn id="43" name="[tidDesc]" dataDxfId="47"/>
-    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="46"/>
-    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="45"/>
-    <tableColumn id="46" name="[force]" dataDxfId="44"/>
-    <tableColumn id="47" name="[mass]" dataDxfId="43"/>
-    <tableColumn id="48" name="[friction]" dataDxfId="42"/>
-    <tableColumn id="49" name="[gravityModifier]" dataDxfId="41"/>
-    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="40"/>
-    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="0"/>
-    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="39"/>
-    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="38"/>
-    <tableColumn id="54" name="[trackingSku]" dataDxfId="37"/>
+    <tableColumn id="29" name="[gamePrefab]" dataDxfId="3"/>
+    <tableColumn id="30" name="[menuPrefab]" dataDxfId="2"/>
+    <tableColumn id="31" name="[resultsPrefab]" dataDxfId="0"/>
+    <tableColumn id="32" name="[shadowFromDragon]" dataDxfId="1"/>
+    <tableColumn id="33" name="[revealFromDragon]" dataDxfId="61"/>
+    <tableColumn id="34" name="[sizeUpMultiplier]" dataDxfId="60"/>
+    <tableColumn id="35" name="[speedUpMultiplier]" dataDxfId="59"/>
+    <tableColumn id="36" name="[biteUpMultiplier]" dataDxfId="58"/>
+    <tableColumn id="37" name="[invincible]" dataDxfId="57"/>
+    <tableColumn id="38" name="[infiniteBoost]" dataDxfId="56"/>
+    <tableColumn id="39" name="[eatEverything]" dataDxfId="55"/>
+    <tableColumn id="40" name="[modeDuration]" dataDxfId="54"/>
+    <tableColumn id="41" name="[petScale]" dataDxfId="53"/>
+    <tableColumn id="42" name="[tidName]" dataDxfId="52"/>
+    <tableColumn id="43" name="[tidDesc]" dataDxfId="51"/>
+    <tableColumn id="44" name="[statsBarRatio]" dataDxfId="50"/>
+    <tableColumn id="45" name="[furyBarRatio]" dataDxfId="49"/>
+    <tableColumn id="46" name="[force]" dataDxfId="48"/>
+    <tableColumn id="47" name="[mass]" dataDxfId="47"/>
+    <tableColumn id="48" name="[friction]" dataDxfId="46"/>
+    <tableColumn id="49" name="[gravityModifier]" dataDxfId="45"/>
+    <tableColumn id="50" name="[airGravityModifier]" dataDxfId="44"/>
+    <tableColumn id="51" name="[waterGravityModifier]" dataDxfId="43"/>
+    <tableColumn id="52" name="[damageAnimationThreshold]" dataDxfId="42"/>
+    <tableColumn id="53" name="[dotAnimationThreshold]" dataDxfId="41"/>
+    <tableColumn id="54" name="[trackingSku]" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:T6" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
   <autoFilter ref="B3:T6"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="32"/>
+    <tableColumn id="1" name="{specialDragonDefinitions}" dataDxfId="35"/>
     <tableColumn id="2" name="[sku]"/>
     <tableColumn id="3" name="[type]"/>
-    <tableColumn id="5" name="[order]" dataDxfId="31"/>
-    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="30"/>
-    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="29"/>
-    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="28"/>
-    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="27"/>
-    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="26"/>
-    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="25"/>
-    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="24"/>
-    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="23"/>
-    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="22"/>
-    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="21"/>
-    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="20"/>
-    <tableColumn id="76" name="[stepPrice]" dataDxfId="19"/>
-    <tableColumn id="77" name="[priceCoefA]" dataDxfId="18"/>
-    <tableColumn id="75" name="[priceCoefB]" dataDxfId="17"/>
+    <tableColumn id="5" name="[order]" dataDxfId="34"/>
+    <tableColumn id="7" name="[unlockPriceGoldenFragments]" dataDxfId="33"/>
+    <tableColumn id="8" name="[unlockPricePC]" dataDxfId="32"/>
+    <tableColumn id="66" name="[hpBonusSteps]" dataDxfId="31"/>
+    <tableColumn id="69" name="[hpBonusMin]" dataDxfId="30"/>
+    <tableColumn id="70" name="[hpBonusMax]" dataDxfId="29"/>
+    <tableColumn id="72" name="[speedBonusSteps]" dataDxfId="28"/>
+    <tableColumn id="73" name="[speedBonusMin]" dataDxfId="27"/>
+    <tableColumn id="74" name="[speedBonusMax]" dataDxfId="26"/>
+    <tableColumn id="71" name="[boostBonusSteps]" dataDxfId="25"/>
+    <tableColumn id="68" name="[boostBonusMin]" dataDxfId="24"/>
+    <tableColumn id="67" name="[boostBonusMax]" dataDxfId="23"/>
+    <tableColumn id="76" name="[stepPrice]" dataDxfId="22"/>
+    <tableColumn id="77" name="[priceCoefA]" dataDxfId="21"/>
+    <tableColumn id="75" name="[priceCoefB]" dataDxfId="20"/>
     <tableColumn id="65" name="[trackingSku]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -15254,14 +15235,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B30:F39" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="B30:F39"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="13"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="12"/>
-    <tableColumn id="3" name="[specialDragon]" dataDxfId="11"/>
-    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="10"/>
-    <tableColumn id="5" name="[icon]" dataDxfId="9">
+    <tableColumn id="1" name="{specialDragonPowerDefinitions}" dataDxfId="16"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="15"/>
+    <tableColumn id="3" name="[specialDragon]" dataDxfId="14"/>
+    <tableColumn id="6" name="[upgradeLevelToUnlock]" dataDxfId="13"/>
+    <tableColumn id="5" name="[icon]" dataDxfId="12">
       <calculatedColumnFormula>CONCATENATE("icon_",Table1[[#This Row],['[sku']]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15534,8 +15515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15567,7 +15548,7 @@
     <col min="26" max="26" width="23.140625" customWidth="1"/>
     <col min="27" max="27" width="18.85546875" customWidth="1"/>
     <col min="28" max="29" width="24" customWidth="1"/>
-    <col min="30" max="30" width="22.5703125" customWidth="1"/>
+    <col min="30" max="30" width="28.7109375" customWidth="1"/>
     <col min="31" max="31" width="30" customWidth="1"/>
     <col min="32" max="32" width="26.7109375" customWidth="1"/>
     <col min="33" max="33" width="14.42578125" customWidth="1"/>
@@ -15608,7 +15589,7 @@
   <sheetData>
     <row r="1" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -15638,69 +15619,69 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:54" ht="147" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="61" t="s">
+      <c r="M3" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="N3" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="O3" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="P3" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="Q3" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="58" t="s">
+      <c r="R3" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="S3" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="O3" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="P3" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q3" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="R3" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="S3" s="59" t="s">
-        <v>89</v>
       </c>
       <c r="T3" s="52" t="s">
         <v>1</v>
@@ -15711,10 +15692,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E4" s="45">
         <v>0</v>
@@ -15770,10 +15751,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E5" s="45">
         <v>1</v>
@@ -15829,10 +15810,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E6" s="45">
         <v>2</v>
@@ -15944,7 +15925,7 @@
     <row r="9" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:54" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -15972,7 +15953,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AW10" s="153" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
@@ -16006,7 +15987,7 @@
     </row>
     <row r="12" spans="1:54" ht="163.5" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>0</v>
@@ -16015,76 +15996,76 @@
         <v>12</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="Q12" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Z12" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AA12" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AB12" s="26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AC12" s="23" t="s">
         <v>10</v>
@@ -16093,37 +16074,37 @@
         <v>11</v>
       </c>
       <c r="AE12" s="22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF12" s="22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AG12" s="140" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH12" s="143" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AI12" s="22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AJ12" s="22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AK12" s="22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AL12" s="22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AM12" s="22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AN12" s="149" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AO12" s="147" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AP12" s="27" t="s">
         <v>3</v>
@@ -16132,34 +16113,34 @@
         <v>9</v>
       </c>
       <c r="AR12" s="28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS12" s="30" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AT12" s="25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AU12" s="24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AV12" s="24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AW12" s="24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AX12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY12" s="183" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="AY12" s="170" t="s">
+        <v>22</v>
       </c>
       <c r="AZ12" s="28" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BA12" s="21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BB12" s="24" t="s">
         <v>1</v>
@@ -16170,16 +16151,16 @@
         <v>2</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="36">
         <v>0</v>
@@ -16248,13 +16229,13 @@
         <v>12</v>
       </c>
       <c r="AC13" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD13" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE13" s="102" t="s">
-        <v>24</v>
+        <v>152</v>
+      </c>
+      <c r="AD13" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE13" s="38" t="s">
+        <v>160</v>
       </c>
       <c r="AF13" s="38"/>
       <c r="AG13" s="141"/>
@@ -16305,10 +16286,10 @@
       <c r="AX13" s="106">
         <v>0.7</v>
       </c>
-      <c r="AY13" s="184">
+      <c r="AY13" s="171">
         <v>0</v>
       </c>
-      <c r="AZ13" s="180">
+      <c r="AZ13" s="167">
         <v>0</v>
       </c>
       <c r="BA13" s="161">
@@ -16323,13 +16304,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>18</v>
@@ -16401,13 +16382,13 @@
         <v>12</v>
       </c>
       <c r="AC14" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD14" s="102" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE14" s="102" t="s">
-        <v>23</v>
+        <v>152</v>
+      </c>
+      <c r="AD14" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE14" s="38" t="s">
+        <v>160</v>
       </c>
       <c r="AF14" s="38"/>
       <c r="AG14" s="141"/>
@@ -16458,10 +16439,10 @@
       <c r="AX14" s="106">
         <v>0.7</v>
       </c>
-      <c r="AY14" s="184">
+      <c r="AY14" s="171">
         <v>0</v>
       </c>
-      <c r="AZ14" s="180">
+      <c r="AZ14" s="167">
         <v>9</v>
       </c>
       <c r="BA14" s="161">
@@ -16476,13 +16457,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D15" s="3